--- a/test.xlsx
+++ b/test.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="552" uniqueCount="321">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="855" uniqueCount="364">
   <si>
     <t>app_id</t>
   </si>
@@ -97,6 +97,9 @@
     <t>form.activity_and_time_period_under_review.section</t>
   </si>
   <si>
+    <t>form.activity_and_time_period_under_review.select_activity_type</t>
+  </si>
+  <si>
     <t>form.demand_creation_-_strategies_by_age_bands.copy-1-of-yrs</t>
   </si>
   <si>
@@ -751,12 +754,24 @@
     <t>0778c330a59625e988e36d5a7d0386b6</t>
   </si>
   <si>
+    <t>9e8b4d2dc300484692612c4e8a194a32</t>
+  </si>
+  <si>
     <t>d5683952cb40438483af32ce61d86e63</t>
   </si>
   <si>
     <t>zdip-qa</t>
   </si>
   <si>
+    <t>6ab6d219-3e7f-4b0b-a2a4-d4ff22855034</t>
+  </si>
+  <si>
+    <t>ddbf5ec7-eb69-4bb7-96b4-67b41f0117ca</t>
+  </si>
+  <si>
+    <t>d8dca448-c048-4f8d-b3ec-8923d5c78f8a</t>
+  </si>
+  <si>
     <t>7a630bd4-1c3a-4b20-8268-5619a15c09cc</t>
   </si>
   <si>
@@ -766,6 +781,15 @@
     <t>408dfb08-390d-4935-b938-b630afac1449</t>
   </si>
   <si>
+    <t>2025-06-26T09:32:15.633916Z</t>
+  </si>
+  <si>
+    <t>2025-06-26T09:29:09.027914Z</t>
+  </si>
+  <si>
+    <t>2025-06-26T09:25:25.772765Z</t>
+  </si>
+  <si>
     <t>2025-06-25T08:51:07.007479Z</t>
   </si>
   <si>
@@ -775,6 +799,15 @@
     <t>2025-06-25T08:33:32.605234Z</t>
   </si>
   <si>
+    <t>2025-06-26T09:31:57.212478Z</t>
+  </si>
+  <si>
+    <t>2025-06-26T09:29:08.906919Z</t>
+  </si>
+  <si>
+    <t>2025-06-26T09:25:25.606279Z</t>
+  </si>
+  <si>
     <t>2025-06-25T08:50:44.784457Z</t>
   </si>
   <si>
@@ -784,6 +817,15 @@
     <t>2025-06-25T08:33:32.335474Z</t>
   </si>
   <si>
+    <t>2025-06-26T09:31:57.248621Z</t>
+  </si>
+  <si>
+    <t>2025-06-26T09:29:08.970354Z</t>
+  </si>
+  <si>
+    <t>2025-06-26T09:25:25.688858Z</t>
+  </si>
+  <si>
     <t>2025-06-25T08:50:44.811417Z</t>
   </si>
   <si>
@@ -805,12 +847,24 @@
     <t>1</t>
   </si>
   <si>
+    <t>337</t>
+  </si>
+  <si>
     <t>333</t>
   </si>
   <si>
     <t>text/xml</t>
   </si>
   <si>
+    <t>https://zdip.zimttech.org/a/zdip-qa/api/form_attachment/v1/6ab6d219-3e7f-4b0b-a2a4-d4ff22855034/form.xml</t>
+  </si>
+  <si>
+    <t>https://zdip.zimttech.org/a/zdip-qa/api/form_attachment/v1/ddbf5ec7-eb69-4bb7-96b4-67b41f0117ca/form.xml</t>
+  </si>
+  <si>
+    <t>https://zdip.zimttech.org/a/zdip-qa/api/form_attachment/v1/d8dca448-c048-4f8d-b3ec-8923d5c78f8a/form.xml</t>
+  </si>
+  <si>
     <t>https://zdip.zimttech.org/a/zdip-qa/api/form_attachment/v1/7a630bd4-1c3a-4b20-8268-5619a15c09cc/form.xml</t>
   </si>
   <si>
@@ -835,13 +889,25 @@
     <t>qa</t>
   </si>
   <si>
+    <t>SSV</t>
+  </si>
+  <si>
     <t>OK</t>
   </si>
   <si>
+    <t>door to door</t>
+  </si>
+  <si>
     <t>school based</t>
   </si>
   <si>
-    <t>door to door</t>
+    <t>walk ins</t>
+  </si>
+  <si>
+    <t>mines</t>
+  </si>
+  <si>
+    <t>farms</t>
   </si>
   <si>
     <t>Mobilisation at beerhalls</t>
@@ -850,6 +916,9 @@
     <t>Chiefs Headmen</t>
   </si>
   <si>
+    <t>all cadres involved</t>
+  </si>
+  <si>
     <t>All Community cadres are involved</t>
   </si>
   <si>
@@ -868,6 +937,9 @@
     <t>http://openrosa.org/jr/xforms</t>
   </si>
   <si>
+    <t>CommCare Android, version "2.56.1"(471796). App v337. CommCare Version 2.56.1. Build 471796, built on: 2025-05-12</t>
+  </si>
+  <si>
     <t>CommCare Android, version "2.56.1"(471796). App v333. CommCare Version 2.56.1. Build 471796, built on: 2025-05-12</t>
   </si>
   <si>
@@ -877,6 +949,15 @@
     <t>commcare_dd89ac76-97fc-4469-a940-3e15381b55b0</t>
   </si>
   <si>
+    <t>2025-06-26T09:31:57.472000Z</t>
+  </si>
+  <si>
+    <t>2025-06-26T09:29:09.169000Z</t>
+  </si>
+  <si>
+    <t>2025-06-26T09:25:25.865000Z</t>
+  </si>
+  <si>
     <t>2025-06-25T08:50:44.581000Z</t>
   </si>
   <si>
@@ -886,6 +967,15 @@
     <t>2025-06-25T08:33:32.174000Z</t>
   </si>
   <si>
+    <t>2025-06-26T09:29:13.880000Z</t>
+  </si>
+  <si>
+    <t>2025-06-26T09:25:46.871000Z</t>
+  </si>
+  <si>
+    <t>2025-06-26T09:21:33.258000Z</t>
+  </si>
+  <si>
     <t>2025-06-25T08:36:56.158000Z</t>
   </si>
   <si>
@@ -901,9 +991,18 @@
     <t>amutenha</t>
   </si>
   <si>
+    <t>MARONDERA</t>
+  </si>
+  <si>
     <t>GOKWE SOUTH</t>
   </si>
   <si>
+    <t>Dombotombo</t>
+  </si>
+  <si>
+    <t>Dimbiti Rural Health Centre</t>
+  </si>
+  <si>
     <t>Gokwe South District Hospital</t>
   </si>
   <si>
@@ -913,6 +1012,9 @@
     <t>done well</t>
   </si>
   <si>
+    <t>2</t>
+  </si>
+  <si>
     <t>6</t>
   </si>
   <si>
@@ -925,13 +1027,19 @@
     <t>The discussion aligned well with getting more numbers for VMMC</t>
   </si>
   <si>
+    <t>Material available for use</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
     <t>The session was well introduced</t>
   </si>
   <si>
     <t>5</t>
   </si>
   <si>
-    <t>3</t>
+    <t>[{'calculatedMonth': 'May', 'calculatedYear': '2024', 'calculated_month_numeric': '5', 'cifno': '12', 'copy-1-of-calculated_month_numeric': 'OK', 'copy-1-of-cifno': '12', 'current_iteration': '0', 'mrfmcs': '12', 'registermcs': '12', 'zazicmcs': '12'}, {'calculatedMonth': 'June', 'calculatedYear': '2024', 'calculated_month_numeric': '6', 'cifno': '13', 'copy-1-of-calculated_month_numeric': 'OK', 'copy-1-of-cifno': '13', 'current_iteration': '1', 'mrfmcs': '13', 'registermcs': '13', 'zazicmcs': '13'}, {'calculatedMonth': 'July', 'calculatedYear': '2024', 'calculated_month_numeric': '7', 'cifno': '5', 'copy-1-of-calculated_month_numeric': 'OK', 'copy-1-of-cifno': '5', 'current_iteration': '2', 'mrfmcs': '5', 'registermcs': '5', 'zazicmcs': '5'}]</t>
   </si>
   <si>
     <t>[{'calculatedMonth': 'May', 'calculatedYear': '2024', 'calculated_month_numeric': '5', 'cifno': '12', 'copy-1-of-calculated_month_numeric': 'OK', 'copy-1-of-cifno': '12', 'current_iteration': '0', 'mrfmcs': '12', 'registermcs': '12', 'zazicmcs': '12'}, {'calculatedMonth': 'June', 'calculatedYear': '2024', 'calculated_month_numeric': '6', 'cifno': '11', 'copy-1-of-calculated_month_numeric': 'OK', 'copy-1-of-cifno': '11', 'current_iteration': '1', 'mrfmcs': '11', 'registermcs': '11', 'zazicmcs': '9'}, {'calculatedMonth': 'July', 'calculatedYear': '2024', 'calculated_month_numeric': '7', 'cifno': '8', 'copy-1-of-calculated_month_numeric': 'OK', 'copy-1-of-cifno': '0', 'current_iteration': '2', 'mrfmcs': '8', 'registermcs': '8', 'zazicmcs': '8'}]</t>
@@ -946,34 +1054,55 @@
     <t>May</t>
   </si>
   <si>
+    <t>Amoxycillin/clavulanic_acid Erythromycin</t>
+  </si>
+  <si>
     <t>Amoxycillin/clavulanic_acid</t>
   </si>
   <si>
     <t>Ceftriaxone Doxycycline</t>
   </si>
   <si>
+    <t>Disposablegloves ReusableDorsalKits DisposableUniversal</t>
+  </si>
+  <si>
     <t>Disposablegloves</t>
   </si>
   <si>
     <t>no</t>
   </si>
   <si>
+    <t>stethoscope Sphygmomanometer AdultBloodPressureCuff</t>
+  </si>
+  <si>
     <t>stethoscope Sphygmomanometer AdultBloodPressureCuff paediatric_cuff</t>
   </si>
   <si>
+    <t>glucometer</t>
+  </si>
+  <si>
     <t>glucometer GlucometerStrips Pulse-oximeter</t>
   </si>
   <si>
+    <t>clean_running_water soap</t>
+  </si>
+  <si>
     <t>clean_running_water soap disinfectant hand_sanitizer</t>
   </si>
   <si>
     <t>Lignocaine Bupivacaine</t>
   </si>
   <si>
+    <t>amoxycillinclavulanic_acid erythromycin</t>
+  </si>
+  <si>
     <t>amoxycillinclavulanic_acid</t>
   </si>
   <si>
     <t>Ceftriaxone Metronidazole Doxycycline</t>
+  </si>
+  <si>
+    <t>Disposablegloves Syringes Lancets</t>
   </si>
   <si>
     <t>Disposablegloves Syringes Lancets containers</t>
@@ -1347,13 +1476,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:IK4"/>
+  <dimension ref="A1:IL7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:245">
+    <row r="1" spans="1:246">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2086,28 +2215,31 @@
       <c r="IK1" s="1" t="s">
         <v>243</v>
       </c>
+      <c r="IL1" s="1" t="s">
+        <v>244</v>
+      </c>
     </row>
-    <row r="2" spans="1:245">
+    <row r="2" spans="1:246">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="C2" t="b">
         <v>0</v>
       </c>
       <c r="D2" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="E2" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="H2" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="I2" t="s">
-        <v>250</v>
+        <v>255</v>
       </c>
       <c r="J2" t="b">
         <v>1</v>
@@ -2116,252 +2248,237 @@
         <v>1</v>
       </c>
       <c r="M2" t="s">
-        <v>253</v>
+        <v>261</v>
       </c>
       <c r="O2" t="s">
-        <v>256</v>
+        <v>267</v>
       </c>
       <c r="P2" t="s">
-        <v>259</v>
+        <v>273</v>
       </c>
       <c r="Q2" t="s">
-        <v>261</v>
+        <v>275</v>
       </c>
       <c r="R2" t="s">
-        <v>262</v>
+        <v>276</v>
       </c>
       <c r="S2" t="s">
-        <v>263</v>
+        <v>277</v>
       </c>
       <c r="T2" t="s">
-        <v>264</v>
+        <v>279</v>
       </c>
       <c r="U2">
-        <v>3285</v>
+        <v>2946</v>
       </c>
       <c r="V2" s="2" t="s">
-        <v>265</v>
+        <v>280</v>
       </c>
       <c r="W2" t="s">
-        <v>261</v>
+        <v>275</v>
       </c>
       <c r="X2" t="s">
-        <v>268</v>
+        <v>286</v>
       </c>
       <c r="Y2" t="s">
-        <v>262</v>
+        <v>276</v>
       </c>
       <c r="Z2" t="s">
-        <v>263</v>
+        <v>277</v>
       </c>
       <c r="AA2" s="2" t="s">
-        <v>269</v>
+        <v>287</v>
       </c>
       <c r="AB2" t="s">
-        <v>270</v>
+        <v>288</v>
       </c>
       <c r="AC2" t="s">
-        <v>273</v>
+        <v>291</v>
       </c>
       <c r="AD2" t="s">
-        <v>274</v>
-      </c>
-      <c r="AH2" t="s">
-        <v>275</v>
+        <v>292</v>
+      </c>
+      <c r="AE2" t="s">
+        <v>293</v>
+      </c>
+      <c r="AF2" t="s">
+        <v>295</v>
+      </c>
+      <c r="AG2" t="s">
+        <v>294</v>
       </c>
       <c r="AI2" t="s">
-        <v>276</v>
-      </c>
-      <c r="AL2" t="s">
-        <v>277</v>
+        <v>296</v>
+      </c>
+      <c r="AJ2" t="s">
+        <v>297</v>
       </c>
       <c r="AM2" t="s">
-        <v>278</v>
+        <v>299</v>
       </c>
       <c r="AN2" t="s">
-        <v>279</v>
-      </c>
-      <c r="AO2" t="s">
-        <v>280</v>
-      </c>
-      <c r="AQ2" t="s">
-        <v>273</v>
+        <v>300</v>
+      </c>
+      <c r="AP2" t="s">
+        <v>303</v>
       </c>
       <c r="AR2" t="s">
-        <v>273</v>
+        <v>292</v>
       </c>
       <c r="AS2" t="s">
-        <v>281</v>
-      </c>
-      <c r="AT2" s="2" t="s">
-        <v>283</v>
-      </c>
-      <c r="AU2" t="s">
-        <v>284</v>
-      </c>
-      <c r="AV2">
-        <v>333</v>
-      </c>
-      <c r="AW2" t="s">
-        <v>285</v>
+        <v>292</v>
+      </c>
+      <c r="AT2" t="s">
+        <v>304</v>
+      </c>
+      <c r="AU2" s="2" t="s">
+        <v>306</v>
+      </c>
+      <c r="AV2" t="s">
+        <v>307</v>
+      </c>
+      <c r="AW2">
+        <v>337</v>
       </c>
       <c r="AX2" t="s">
-        <v>286</v>
+        <v>309</v>
       </c>
       <c r="AY2" t="s">
-        <v>281</v>
-      </c>
-      <c r="BA2" t="s">
-        <v>247</v>
+        <v>310</v>
+      </c>
+      <c r="AZ2" t="s">
+        <v>304</v>
       </c>
       <c r="BB2" t="s">
-        <v>287</v>
+        <v>249</v>
       </c>
       <c r="BC2" t="s">
-        <v>290</v>
+        <v>311</v>
       </c>
       <c r="BD2" t="s">
-        <v>293</v>
+        <v>317</v>
       </c>
       <c r="BE2" t="s">
-        <v>294</v>
+        <v>323</v>
       </c>
       <c r="BF2" t="s">
-        <v>295</v>
+        <v>324</v>
       </c>
       <c r="BG2" t="s">
-        <v>296</v>
+        <v>325</v>
       </c>
       <c r="BH2" t="s">
-        <v>297</v>
+        <v>327</v>
       </c>
       <c r="BI2" t="s">
-        <v>298</v>
-      </c>
-      <c r="BJ2" t="s">
-        <v>297</v>
+        <v>330</v>
       </c>
       <c r="BK2" t="s">
-        <v>298</v>
-      </c>
-      <c r="BL2" t="s">
-        <v>299</v>
+        <v>330</v>
       </c>
       <c r="BM2" t="s">
-        <v>297</v>
+        <v>332</v>
       </c>
       <c r="BN2" t="s">
-        <v>300</v>
-      </c>
-      <c r="BO2" t="s">
-        <v>297</v>
+        <v>330</v>
       </c>
       <c r="BP2" t="s">
-        <v>301</v>
-      </c>
-      <c r="BQ2" t="s">
-        <v>297</v>
+        <v>330</v>
       </c>
       <c r="BR2" t="s">
-        <v>302</v>
-      </c>
-      <c r="BS2" t="s">
-        <v>297</v>
+        <v>330</v>
       </c>
       <c r="BT2" t="s">
-        <v>273</v>
+        <v>330</v>
       </c>
       <c r="BU2" t="s">
-        <v>297</v>
+        <v>292</v>
+      </c>
+      <c r="BV2" t="s">
+        <v>330</v>
       </c>
       <c r="BW2" t="s">
-        <v>262</v>
+        <v>337</v>
       </c>
       <c r="BX2" t="s">
-        <v>297</v>
+        <v>338</v>
       </c>
       <c r="BY2" t="s">
-        <v>303</v>
-      </c>
-      <c r="BZ2" t="s">
-        <v>273</v>
+        <v>330</v>
       </c>
       <c r="CA2" t="s">
-        <v>297</v>
+        <v>292</v>
       </c>
       <c r="CB2" t="s">
-        <v>273</v>
+        <v>330</v>
       </c>
       <c r="CC2" t="s">
-        <v>297</v>
+        <v>292</v>
       </c>
       <c r="CD2" t="s">
-        <v>300</v>
-      </c>
-      <c r="CE2" t="s">
-        <v>273</v>
+        <v>330</v>
       </c>
       <c r="CF2" t="s">
-        <v>297</v>
+        <v>292</v>
       </c>
       <c r="CG2" t="s">
-        <v>300</v>
-      </c>
-      <c r="CH2" t="s">
-        <v>281</v>
-      </c>
-      <c r="CJ2" t="s">
-        <v>284</v>
-      </c>
-      <c r="CK2">
-        <v>333</v>
-      </c>
-      <c r="CL2" t="s">
-        <v>285</v>
+        <v>330</v>
+      </c>
+      <c r="CI2" t="s">
+        <v>304</v>
+      </c>
+      <c r="CK2" t="s">
+        <v>307</v>
+      </c>
+      <c r="CL2">
+        <v>337</v>
       </c>
       <c r="CM2" t="s">
-        <v>286</v>
+        <v>309</v>
       </c>
       <c r="CN2" t="s">
-        <v>281</v>
-      </c>
-      <c r="CP2" t="s">
-        <v>247</v>
-      </c>
-      <c r="CR2" t="s">
-        <v>287</v>
+        <v>310</v>
+      </c>
+      <c r="CO2" t="s">
+        <v>304</v>
+      </c>
+      <c r="CQ2" t="s">
+        <v>249</v>
       </c>
       <c r="CS2" t="s">
-        <v>290</v>
+        <v>311</v>
       </c>
       <c r="CT2" t="s">
-        <v>293</v>
+        <v>317</v>
       </c>
       <c r="CU2" t="s">
-        <v>294</v>
+        <v>323</v>
+      </c>
+      <c r="CV2" t="s">
+        <v>324</v>
       </c>
     </row>
-    <row r="3" spans="1:245">
+    <row r="3" spans="1:246">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="C3" t="b">
         <v>0</v>
       </c>
       <c r="D3" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="E3" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="H3" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="I3" t="s">
-        <v>251</v>
+        <v>256</v>
       </c>
       <c r="J3" t="b">
         <v>1</v>
@@ -2370,249 +2487,252 @@
         <v>1</v>
       </c>
       <c r="M3" t="s">
-        <v>254</v>
+        <v>262</v>
       </c>
       <c r="O3" t="s">
-        <v>257</v>
+        <v>268</v>
       </c>
       <c r="P3" t="s">
-        <v>260</v>
+        <v>273</v>
       </c>
       <c r="Q3" t="s">
-        <v>261</v>
+        <v>275</v>
       </c>
       <c r="R3" t="s">
-        <v>262</v>
+        <v>276</v>
       </c>
       <c r="S3" t="s">
-        <v>263</v>
+        <v>277</v>
       </c>
       <c r="T3" t="s">
-        <v>264</v>
+        <v>279</v>
       </c>
       <c r="U3">
-        <v>4553</v>
+        <v>4581</v>
       </c>
       <c r="V3" s="2" t="s">
-        <v>266</v>
+        <v>281</v>
       </c>
       <c r="W3" t="s">
-        <v>261</v>
+        <v>275</v>
       </c>
       <c r="X3" t="s">
-        <v>268</v>
+        <v>286</v>
       </c>
       <c r="Y3" t="s">
-        <v>262</v>
+        <v>276</v>
       </c>
       <c r="Z3" t="s">
-        <v>263</v>
+        <v>277</v>
       </c>
       <c r="AA3" s="2" t="s">
-        <v>269</v>
+        <v>287</v>
       </c>
       <c r="AB3" t="s">
-        <v>271</v>
-      </c>
-      <c r="AS3" t="s">
-        <v>282</v>
-      </c>
-      <c r="AT3" s="2" t="s">
-        <v>283</v>
-      </c>
-      <c r="AU3" t="s">
-        <v>284</v>
-      </c>
-      <c r="AV3">
-        <v>333</v>
-      </c>
-      <c r="AW3" t="s">
-        <v>285</v>
+        <v>289</v>
+      </c>
+      <c r="AC3" t="s">
+        <v>291</v>
+      </c>
+      <c r="AT3" t="s">
+        <v>305</v>
+      </c>
+      <c r="AU3" s="2" t="s">
+        <v>306</v>
+      </c>
+      <c r="AV3" t="s">
+        <v>307</v>
+      </c>
+      <c r="AW3">
+        <v>337</v>
       </c>
       <c r="AX3" t="s">
-        <v>286</v>
+        <v>309</v>
       </c>
       <c r="AY3" t="s">
-        <v>281</v>
-      </c>
-      <c r="BA3" t="s">
-        <v>248</v>
+        <v>310</v>
+      </c>
+      <c r="AZ3" t="s">
+        <v>304</v>
       </c>
       <c r="BB3" t="s">
-        <v>288</v>
+        <v>250</v>
       </c>
       <c r="BC3" t="s">
-        <v>291</v>
+        <v>312</v>
       </c>
       <c r="BD3" t="s">
-        <v>293</v>
+        <v>318</v>
       </c>
       <c r="BE3" t="s">
-        <v>294</v>
+        <v>323</v>
       </c>
       <c r="BF3" t="s">
-        <v>295</v>
+        <v>324</v>
       </c>
       <c r="BG3" t="s">
-        <v>296</v>
-      </c>
-      <c r="CH3" t="s">
+        <v>325</v>
+      </c>
+      <c r="BH3" t="s">
+        <v>327</v>
+      </c>
+      <c r="CI3" t="s">
+        <v>340</v>
+      </c>
+      <c r="CJ3" t="s">
+        <v>338</v>
+      </c>
+      <c r="CK3" t="s">
+        <v>307</v>
+      </c>
+      <c r="CL3">
+        <v>337</v>
+      </c>
+      <c r="CM3" t="s">
+        <v>309</v>
+      </c>
+      <c r="CN3" t="s">
+        <v>310</v>
+      </c>
+      <c r="CO3" t="s">
         <v>304</v>
       </c>
-      <c r="CI3" t="s">
-        <v>305</v>
-      </c>
-      <c r="CJ3" t="s">
-        <v>284</v>
-      </c>
-      <c r="CK3">
-        <v>333</v>
-      </c>
-      <c r="CL3" t="s">
-        <v>285</v>
-      </c>
-      <c r="CM3" t="s">
-        <v>286</v>
-      </c>
-      <c r="CN3" t="s">
-        <v>281</v>
-      </c>
-      <c r="CP3" t="s">
-        <v>248</v>
-      </c>
-      <c r="CR3" t="s">
-        <v>288</v>
+      <c r="CQ3" t="s">
+        <v>250</v>
       </c>
       <c r="CS3" t="s">
-        <v>291</v>
+        <v>312</v>
       </c>
       <c r="CT3" t="s">
-        <v>293</v>
+        <v>318</v>
       </c>
       <c r="CU3" t="s">
-        <v>294</v>
+        <v>323</v>
       </c>
       <c r="CV3" t="s">
-        <v>273</v>
+        <v>324</v>
       </c>
       <c r="CW3" t="s">
-        <v>273</v>
+        <v>292</v>
       </c>
       <c r="CX3" t="s">
-        <v>273</v>
+        <v>292</v>
       </c>
       <c r="CY3" t="s">
-        <v>273</v>
+        <v>292</v>
       </c>
       <c r="CZ3" t="s">
-        <v>273</v>
+        <v>292</v>
       </c>
       <c r="DA3" t="s">
-        <v>273</v>
+        <v>292</v>
       </c>
       <c r="DB3" t="s">
-        <v>273</v>
+        <v>292</v>
       </c>
       <c r="DC3" t="s">
-        <v>273</v>
+        <v>292</v>
       </c>
       <c r="DD3" t="s">
-        <v>273</v>
+        <v>292</v>
       </c>
       <c r="DE3" t="s">
-        <v>297</v>
+        <v>292</v>
       </c>
       <c r="DF3" t="s">
-        <v>297</v>
+        <v>330</v>
       </c>
       <c r="DG3" t="s">
-        <v>297</v>
+        <v>330</v>
       </c>
       <c r="DH3" t="s">
-        <v>297</v>
+        <v>330</v>
       </c>
       <c r="DI3" t="s">
-        <v>297</v>
+        <v>330</v>
       </c>
       <c r="DJ3" t="s">
-        <v>297</v>
+        <v>330</v>
       </c>
       <c r="DK3" t="s">
-        <v>297</v>
+        <v>330</v>
       </c>
       <c r="DL3" t="s">
-        <v>297</v>
+        <v>330</v>
       </c>
       <c r="DM3" t="s">
-        <v>297</v>
+        <v>330</v>
       </c>
       <c r="DN3" t="s">
-        <v>297</v>
+        <v>330</v>
       </c>
       <c r="DO3" t="s">
-        <v>297</v>
+        <v>330</v>
       </c>
       <c r="DP3" t="s">
-        <v>297</v>
+        <v>330</v>
       </c>
       <c r="DQ3" t="s">
-        <v>297</v>
+        <v>330</v>
       </c>
       <c r="DR3" t="s">
-        <v>297</v>
+        <v>330</v>
       </c>
       <c r="DS3" t="s">
-        <v>297</v>
+        <v>330</v>
       </c>
       <c r="DT3" t="s">
-        <v>297</v>
+        <v>330</v>
       </c>
       <c r="DU3" t="s">
-        <v>297</v>
+        <v>330</v>
       </c>
       <c r="DV3" t="s">
-        <v>297</v>
+        <v>330</v>
       </c>
       <c r="DW3" t="s">
-        <v>273</v>
+        <v>330</v>
       </c>
       <c r="DX3" t="s">
-        <v>306</v>
+        <v>292</v>
       </c>
       <c r="DY3" t="s">
-        <v>307</v>
+        <v>341</v>
       </c>
       <c r="DZ3" t="s">
-        <v>308</v>
+        <v>343</v>
       </c>
       <c r="EA3" t="s">
-        <v>309</v>
+        <v>344</v>
       </c>
       <c r="EB3" t="s">
-        <v>308</v>
+        <v>345</v>
+      </c>
+      <c r="EC3" t="s">
+        <v>344</v>
       </c>
     </row>
-    <row r="4" spans="1:245">
+    <row r="4" spans="1:246">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="C4" t="b">
         <v>0</v>
       </c>
       <c r="D4" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="E4" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="H4" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="I4" t="s">
-        <v>252</v>
+        <v>257</v>
       </c>
       <c r="J4" t="b">
         <v>1</v>
@@ -2621,476 +2741,1472 @@
         <v>1</v>
       </c>
       <c r="M4" t="s">
-        <v>255</v>
+        <v>263</v>
       </c>
       <c r="O4" t="s">
+        <v>269</v>
+      </c>
+      <c r="P4" t="s">
+        <v>273</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>275</v>
+      </c>
+      <c r="R4" t="s">
+        <v>276</v>
+      </c>
+      <c r="S4" t="s">
+        <v>277</v>
+      </c>
+      <c r="T4" t="s">
+        <v>279</v>
+      </c>
+      <c r="U4">
+        <v>8184</v>
+      </c>
+      <c r="V4" s="2" t="s">
+        <v>282</v>
+      </c>
+      <c r="W4" t="s">
+        <v>275</v>
+      </c>
+      <c r="X4" t="s">
+        <v>286</v>
+      </c>
+      <c r="Y4" t="s">
+        <v>276</v>
+      </c>
+      <c r="Z4" t="s">
+        <v>277</v>
+      </c>
+      <c r="AA4" s="2" t="s">
+        <v>287</v>
+      </c>
+      <c r="AB4" t="s">
+        <v>290</v>
+      </c>
+      <c r="AC4" t="s">
+        <v>291</v>
+      </c>
+      <c r="AT4" t="s">
+        <v>304</v>
+      </c>
+      <c r="AU4" s="2" t="s">
+        <v>306</v>
+      </c>
+      <c r="AV4" t="s">
+        <v>307</v>
+      </c>
+      <c r="AW4">
+        <v>337</v>
+      </c>
+      <c r="AX4" t="s">
+        <v>309</v>
+      </c>
+      <c r="AY4" t="s">
+        <v>310</v>
+      </c>
+      <c r="AZ4" t="s">
+        <v>304</v>
+      </c>
+      <c r="BB4" t="s">
+        <v>251</v>
+      </c>
+      <c r="BC4" t="s">
+        <v>313</v>
+      </c>
+      <c r="BD4" t="s">
+        <v>319</v>
+      </c>
+      <c r="BE4" t="s">
+        <v>323</v>
+      </c>
+      <c r="BF4" t="s">
+        <v>324</v>
+      </c>
+      <c r="BG4" t="s">
+        <v>325</v>
+      </c>
+      <c r="BH4" t="s">
+        <v>328</v>
+      </c>
+      <c r="CI4" t="s">
+        <v>304</v>
+      </c>
+      <c r="CK4" t="s">
+        <v>307</v>
+      </c>
+      <c r="CL4">
+        <v>337</v>
+      </c>
+      <c r="CM4" t="s">
+        <v>309</v>
+      </c>
+      <c r="CN4" t="s">
+        <v>310</v>
+      </c>
+      <c r="CO4" t="s">
+        <v>304</v>
+      </c>
+      <c r="CQ4" t="s">
+        <v>251</v>
+      </c>
+      <c r="CS4" t="s">
+        <v>313</v>
+      </c>
+      <c r="CT4" t="s">
+        <v>319</v>
+      </c>
+      <c r="CU4" t="s">
+        <v>323</v>
+      </c>
+      <c r="CV4" t="s">
+        <v>324</v>
+      </c>
+      <c r="ED4" t="s">
+        <v>330</v>
+      </c>
+      <c r="EE4" t="s">
+        <v>346</v>
+      </c>
+      <c r="EG4" t="s">
+        <v>349</v>
+      </c>
+      <c r="EH4" t="s">
+        <v>351</v>
+      </c>
+      <c r="EI4" t="s">
+        <v>292</v>
+      </c>
+      <c r="EJ4" t="s">
+        <v>330</v>
+      </c>
+      <c r="EK4" t="s">
+        <v>330</v>
+      </c>
+      <c r="EL4" t="s">
+        <v>330</v>
+      </c>
+      <c r="EM4" t="s">
+        <v>330</v>
+      </c>
+      <c r="EN4" t="s">
+        <v>330</v>
+      </c>
+      <c r="EO4" t="s">
+        <v>330</v>
+      </c>
+      <c r="EP4" t="s">
+        <v>330</v>
+      </c>
+      <c r="EQ4" t="s">
+        <v>330</v>
+      </c>
+      <c r="ER4" t="s">
+        <v>330</v>
+      </c>
+      <c r="ES4" t="s">
+        <v>292</v>
+      </c>
+      <c r="ET4" t="s">
+        <v>292</v>
+      </c>
+      <c r="EU4" t="s">
+        <v>292</v>
+      </c>
+      <c r="EV4" t="s">
+        <v>292</v>
+      </c>
+      <c r="EW4" t="s">
+        <v>292</v>
+      </c>
+      <c r="EX4" t="s">
+        <v>292</v>
+      </c>
+      <c r="EY4" t="s">
+        <v>292</v>
+      </c>
+      <c r="EZ4" t="s">
+        <v>292</v>
+      </c>
+      <c r="FA4" t="s">
+        <v>292</v>
+      </c>
+      <c r="FB4" t="s">
+        <v>292</v>
+      </c>
+      <c r="FC4" t="s">
+        <v>330</v>
+      </c>
+      <c r="FD4" t="s">
+        <v>330</v>
+      </c>
+      <c r="FE4" t="s">
+        <v>330</v>
+      </c>
+      <c r="FF4" t="s">
+        <v>330</v>
+      </c>
+      <c r="FG4" t="s">
+        <v>330</v>
+      </c>
+      <c r="FH4" t="s">
+        <v>330</v>
+      </c>
+      <c r="FI4" t="s">
+        <v>330</v>
+      </c>
+      <c r="FJ4" t="s">
+        <v>330</v>
+      </c>
+      <c r="FK4" t="s">
+        <v>330</v>
+      </c>
+      <c r="FL4" t="s">
+        <v>352</v>
+      </c>
+      <c r="FM4" t="s">
+        <v>292</v>
+      </c>
+      <c r="FN4" t="s">
+        <v>292</v>
+      </c>
+      <c r="FO4" t="s">
+        <v>292</v>
+      </c>
+      <c r="FP4" t="s">
+        <v>330</v>
+      </c>
+      <c r="FQ4" t="s">
+        <v>330</v>
+      </c>
+      <c r="FR4" t="s">
+        <v>330</v>
+      </c>
+      <c r="FS4" t="s">
+        <v>292</v>
+      </c>
+      <c r="FT4" t="s">
+        <v>292</v>
+      </c>
+      <c r="FU4" t="s">
+        <v>292</v>
+      </c>
+      <c r="FV4" t="s">
+        <v>292</v>
+      </c>
+      <c r="FW4" t="s">
+        <v>330</v>
+      </c>
+      <c r="FX4" t="s">
+        <v>330</v>
+      </c>
+      <c r="FY4" t="s">
+        <v>330</v>
+      </c>
+      <c r="FZ4" t="s">
+        <v>354</v>
+      </c>
+      <c r="GA4" t="s">
+        <v>330</v>
+      </c>
+      <c r="GB4" t="s">
+        <v>330</v>
+      </c>
+      <c r="GC4" t="s">
+        <v>356</v>
+      </c>
+      <c r="GD4" t="s">
+        <v>330</v>
+      </c>
+      <c r="GE4" t="s">
+        <v>330</v>
+      </c>
+      <c r="GF4" t="s">
+        <v>330</v>
+      </c>
+      <c r="GG4" t="s">
+        <v>330</v>
+      </c>
+      <c r="GH4" t="s">
+        <v>358</v>
+      </c>
+      <c r="GI4" t="s">
+        <v>330</v>
+      </c>
+      <c r="GJ4" t="s">
+        <v>359</v>
+      </c>
+      <c r="GK4" t="s">
+        <v>330</v>
+      </c>
+      <c r="GL4" t="s">
+        <v>330</v>
+      </c>
+      <c r="GM4" t="s">
+        <v>330</v>
+      </c>
+      <c r="GN4" t="s">
+        <v>330</v>
+      </c>
+      <c r="GO4" t="s">
+        <v>330</v>
+      </c>
+      <c r="GP4" t="s">
+        <v>330</v>
+      </c>
+      <c r="GQ4" t="s">
+        <v>330</v>
+      </c>
+      <c r="GR4" t="s">
+        <v>330</v>
+      </c>
+      <c r="GS4" t="s">
+        <v>330</v>
+      </c>
+      <c r="GT4" t="s">
+        <v>330</v>
+      </c>
+      <c r="GU4" t="s">
+        <v>330</v>
+      </c>
+      <c r="GV4" t="s">
+        <v>330</v>
+      </c>
+      <c r="GW4" t="s">
+        <v>330</v>
+      </c>
+      <c r="GX4" t="s">
+        <v>330</v>
+      </c>
+      <c r="GY4" t="s">
+        <v>330</v>
+      </c>
+      <c r="GZ4" t="s">
+        <v>330</v>
+      </c>
+      <c r="HA4" t="s">
+        <v>330</v>
+      </c>
+      <c r="HB4" t="s">
+        <v>330</v>
+      </c>
+      <c r="HC4" t="s">
+        <v>330</v>
+      </c>
+      <c r="HD4" t="s">
+        <v>292</v>
+      </c>
+      <c r="HE4" t="s">
+        <v>330</v>
+      </c>
+      <c r="HF4" t="s">
+        <v>330</v>
+      </c>
+      <c r="HG4" t="s">
+        <v>330</v>
+      </c>
+      <c r="HH4" t="s">
+        <v>292</v>
+      </c>
+      <c r="HI4" t="s">
+        <v>351</v>
+      </c>
+      <c r="HJ4" t="s">
+        <v>330</v>
+      </c>
+      <c r="HK4" t="s">
+        <v>351</v>
+      </c>
+      <c r="HL4" t="s">
+        <v>351</v>
+      </c>
+      <c r="HM4" t="s">
+        <v>330</v>
+      </c>
+      <c r="HN4" t="s">
+        <v>330</v>
+      </c>
+      <c r="HO4" t="s">
+        <v>330</v>
+      </c>
+      <c r="HP4" t="s">
+        <v>330</v>
+      </c>
+      <c r="HQ4" t="s">
+        <v>330</v>
+      </c>
+      <c r="HR4" t="s">
+        <v>330</v>
+      </c>
+      <c r="HS4" t="s">
+        <v>330</v>
+      </c>
+      <c r="HT4" t="s">
+        <v>330</v>
+      </c>
+      <c r="HU4" t="s">
+        <v>330</v>
+      </c>
+      <c r="HW4" t="s">
+        <v>330</v>
+      </c>
+      <c r="HY4" t="s">
+        <v>330</v>
+      </c>
+      <c r="HZ4" t="s">
+        <v>330</v>
+      </c>
+      <c r="IA4" t="s">
+        <v>362</v>
+      </c>
+      <c r="IB4" t="s">
+        <v>330</v>
+      </c>
+      <c r="IC4" t="s">
+        <v>330</v>
+      </c>
+      <c r="ID4" t="s">
+        <v>330</v>
+      </c>
+      <c r="IE4" t="s">
+        <v>330</v>
+      </c>
+      <c r="IF4" t="s">
+        <v>351</v>
+      </c>
+      <c r="IG4" t="s">
+        <v>330</v>
+      </c>
+      <c r="IH4" t="s">
+        <v>330</v>
+      </c>
+      <c r="II4" t="s">
+        <v>330</v>
+      </c>
+      <c r="IJ4" t="s">
+        <v>330</v>
+      </c>
+      <c r="IK4" t="s">
+        <v>330</v>
+      </c>
+      <c r="IL4" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="5" spans="1:246">
+      <c r="A5" s="1">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
+        <v>245</v>
+      </c>
+      <c r="C5" t="b">
+        <v>0</v>
+      </c>
+      <c r="D5" t="s">
+        <v>247</v>
+      </c>
+      <c r="E5" t="s">
+        <v>248</v>
+      </c>
+      <c r="H5" t="s">
+        <v>252</v>
+      </c>
+      <c r="I5" t="s">
         <v>258</v>
       </c>
-      <c r="P4" t="s">
+      <c r="J5" t="b">
+        <v>1</v>
+      </c>
+      <c r="K5" t="b">
+        <v>1</v>
+      </c>
+      <c r="M5" t="s">
+        <v>264</v>
+      </c>
+      <c r="O5" t="s">
+        <v>270</v>
+      </c>
+      <c r="P5" t="s">
+        <v>273</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>275</v>
+      </c>
+      <c r="R5" t="s">
+        <v>276</v>
+      </c>
+      <c r="S5" t="s">
+        <v>278</v>
+      </c>
+      <c r="T5" t="s">
+        <v>279</v>
+      </c>
+      <c r="U5">
+        <v>3285</v>
+      </c>
+      <c r="V5" s="2" t="s">
+        <v>283</v>
+      </c>
+      <c r="W5" t="s">
+        <v>275</v>
+      </c>
+      <c r="X5" t="s">
+        <v>286</v>
+      </c>
+      <c r="Y5" t="s">
+        <v>276</v>
+      </c>
+      <c r="Z5" t="s">
+        <v>278</v>
+      </c>
+      <c r="AA5" s="2" t="s">
+        <v>287</v>
+      </c>
+      <c r="AB5" t="s">
+        <v>288</v>
+      </c>
+      <c r="AD5" t="s">
+        <v>292</v>
+      </c>
+      <c r="AE5" t="s">
+        <v>294</v>
+      </c>
+      <c r="AI5" t="s">
+        <v>293</v>
+      </c>
+      <c r="AJ5" t="s">
+        <v>298</v>
+      </c>
+      <c r="AM5" t="s">
+        <v>299</v>
+      </c>
+      <c r="AN5" t="s">
+        <v>301</v>
+      </c>
+      <c r="AO5" t="s">
+        <v>302</v>
+      </c>
+      <c r="AP5" t="s">
+        <v>303</v>
+      </c>
+      <c r="AR5" t="s">
+        <v>292</v>
+      </c>
+      <c r="AS5" t="s">
+        <v>292</v>
+      </c>
+      <c r="AT5" t="s">
+        <v>304</v>
+      </c>
+      <c r="AU5" s="2" t="s">
+        <v>306</v>
+      </c>
+      <c r="AV5" t="s">
+        <v>308</v>
+      </c>
+      <c r="AW5">
+        <v>333</v>
+      </c>
+      <c r="AX5" t="s">
+        <v>309</v>
+      </c>
+      <c r="AY5" t="s">
+        <v>310</v>
+      </c>
+      <c r="AZ5" t="s">
+        <v>304</v>
+      </c>
+      <c r="BB5" t="s">
+        <v>252</v>
+      </c>
+      <c r="BC5" t="s">
+        <v>314</v>
+      </c>
+      <c r="BD5" t="s">
+        <v>320</v>
+      </c>
+      <c r="BE5" t="s">
+        <v>323</v>
+      </c>
+      <c r="BF5" t="s">
+        <v>324</v>
+      </c>
+      <c r="BG5" t="s">
+        <v>326</v>
+      </c>
+      <c r="BH5" t="s">
+        <v>329</v>
+      </c>
+      <c r="BI5" t="s">
+        <v>330</v>
+      </c>
+      <c r="BJ5" t="s">
+        <v>331</v>
+      </c>
+      <c r="BK5" t="s">
+        <v>330</v>
+      </c>
+      <c r="BL5" t="s">
+        <v>331</v>
+      </c>
+      <c r="BM5" t="s">
+        <v>333</v>
+      </c>
+      <c r="BN5" t="s">
+        <v>330</v>
+      </c>
+      <c r="BO5" t="s">
+        <v>334</v>
+      </c>
+      <c r="BP5" t="s">
+        <v>330</v>
+      </c>
+      <c r="BQ5" t="s">
+        <v>335</v>
+      </c>
+      <c r="BR5" t="s">
+        <v>330</v>
+      </c>
+      <c r="BS5" t="s">
+        <v>336</v>
+      </c>
+      <c r="BT5" t="s">
+        <v>330</v>
+      </c>
+      <c r="BU5" t="s">
+        <v>292</v>
+      </c>
+      <c r="BV5" t="s">
+        <v>330</v>
+      </c>
+      <c r="BX5" t="s">
+        <v>276</v>
+      </c>
+      <c r="BY5" t="s">
+        <v>330</v>
+      </c>
+      <c r="BZ5" t="s">
+        <v>339</v>
+      </c>
+      <c r="CA5" t="s">
+        <v>292</v>
+      </c>
+      <c r="CB5" t="s">
+        <v>330</v>
+      </c>
+      <c r="CC5" t="s">
+        <v>292</v>
+      </c>
+      <c r="CD5" t="s">
+        <v>330</v>
+      </c>
+      <c r="CE5" t="s">
+        <v>334</v>
+      </c>
+      <c r="CF5" t="s">
+        <v>292</v>
+      </c>
+      <c r="CG5" t="s">
+        <v>330</v>
+      </c>
+      <c r="CH5" t="s">
+        <v>334</v>
+      </c>
+      <c r="CI5" t="s">
+        <v>304</v>
+      </c>
+      <c r="CK5" t="s">
+        <v>308</v>
+      </c>
+      <c r="CL5">
+        <v>333</v>
+      </c>
+      <c r="CM5" t="s">
+        <v>309</v>
+      </c>
+      <c r="CN5" t="s">
+        <v>310</v>
+      </c>
+      <c r="CO5" t="s">
+        <v>304</v>
+      </c>
+      <c r="CQ5" t="s">
+        <v>252</v>
+      </c>
+      <c r="CS5" t="s">
+        <v>314</v>
+      </c>
+      <c r="CT5" t="s">
+        <v>320</v>
+      </c>
+      <c r="CU5" t="s">
+        <v>323</v>
+      </c>
+      <c r="CV5" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="6" spans="1:246">
+      <c r="A6" s="1">
+        <v>4</v>
+      </c>
+      <c r="B6" t="s">
+        <v>245</v>
+      </c>
+      <c r="C6" t="b">
+        <v>0</v>
+      </c>
+      <c r="D6" t="s">
+        <v>247</v>
+      </c>
+      <c r="E6" t="s">
+        <v>248</v>
+      </c>
+      <c r="H6" t="s">
+        <v>253</v>
+      </c>
+      <c r="I6" t="s">
+        <v>259</v>
+      </c>
+      <c r="J6" t="b">
+        <v>1</v>
+      </c>
+      <c r="K6" t="b">
+        <v>1</v>
+      </c>
+      <c r="M6" t="s">
+        <v>265</v>
+      </c>
+      <c r="O6" t="s">
+        <v>271</v>
+      </c>
+      <c r="P6" t="s">
+        <v>274</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>275</v>
+      </c>
+      <c r="R6" t="s">
+        <v>276</v>
+      </c>
+      <c r="S6" t="s">
+        <v>278</v>
+      </c>
+      <c r="T6" t="s">
+        <v>279</v>
+      </c>
+      <c r="U6">
+        <v>4553</v>
+      </c>
+      <c r="V6" s="2" t="s">
+        <v>284</v>
+      </c>
+      <c r="W6" t="s">
+        <v>275</v>
+      </c>
+      <c r="X6" t="s">
+        <v>286</v>
+      </c>
+      <c r="Y6" t="s">
+        <v>276</v>
+      </c>
+      <c r="Z6" t="s">
+        <v>278</v>
+      </c>
+      <c r="AA6" s="2" t="s">
+        <v>287</v>
+      </c>
+      <c r="AB6" t="s">
+        <v>289</v>
+      </c>
+      <c r="AT6" t="s">
+        <v>305</v>
+      </c>
+      <c r="AU6" s="2" t="s">
+        <v>306</v>
+      </c>
+      <c r="AV6" t="s">
+        <v>308</v>
+      </c>
+      <c r="AW6">
+        <v>333</v>
+      </c>
+      <c r="AX6" t="s">
+        <v>309</v>
+      </c>
+      <c r="AY6" t="s">
+        <v>310</v>
+      </c>
+      <c r="AZ6" t="s">
+        <v>304</v>
+      </c>
+      <c r="BB6" t="s">
+        <v>253</v>
+      </c>
+      <c r="BC6" t="s">
+        <v>315</v>
+      </c>
+      <c r="BD6" t="s">
+        <v>321</v>
+      </c>
+      <c r="BE6" t="s">
+        <v>323</v>
+      </c>
+      <c r="BF6" t="s">
+        <v>324</v>
+      </c>
+      <c r="BG6" t="s">
+        <v>326</v>
+      </c>
+      <c r="BH6" t="s">
+        <v>329</v>
+      </c>
+      <c r="CI6" t="s">
+        <v>340</v>
+      </c>
+      <c r="CJ6" t="s">
+        <v>338</v>
+      </c>
+      <c r="CK6" t="s">
+        <v>308</v>
+      </c>
+      <c r="CL6">
+        <v>333</v>
+      </c>
+      <c r="CM6" t="s">
+        <v>309</v>
+      </c>
+      <c r="CN6" t="s">
+        <v>310</v>
+      </c>
+      <c r="CO6" t="s">
+        <v>304</v>
+      </c>
+      <c r="CQ6" t="s">
+        <v>253</v>
+      </c>
+      <c r="CS6" t="s">
+        <v>315</v>
+      </c>
+      <c r="CT6" t="s">
+        <v>321</v>
+      </c>
+      <c r="CU6" t="s">
+        <v>323</v>
+      </c>
+      <c r="CV6" t="s">
+        <v>324</v>
+      </c>
+      <c r="CW6" t="s">
+        <v>292</v>
+      </c>
+      <c r="CX6" t="s">
+        <v>292</v>
+      </c>
+      <c r="CY6" t="s">
+        <v>292</v>
+      </c>
+      <c r="CZ6" t="s">
+        <v>292</v>
+      </c>
+      <c r="DA6" t="s">
+        <v>292</v>
+      </c>
+      <c r="DB6" t="s">
+        <v>292</v>
+      </c>
+      <c r="DC6" t="s">
+        <v>292</v>
+      </c>
+      <c r="DD6" t="s">
+        <v>292</v>
+      </c>
+      <c r="DE6" t="s">
+        <v>292</v>
+      </c>
+      <c r="DF6" t="s">
+        <v>330</v>
+      </c>
+      <c r="DG6" t="s">
+        <v>330</v>
+      </c>
+      <c r="DH6" t="s">
+        <v>330</v>
+      </c>
+      <c r="DI6" t="s">
+        <v>330</v>
+      </c>
+      <c r="DJ6" t="s">
+        <v>330</v>
+      </c>
+      <c r="DK6" t="s">
+        <v>330</v>
+      </c>
+      <c r="DL6" t="s">
+        <v>330</v>
+      </c>
+      <c r="DM6" t="s">
+        <v>330</v>
+      </c>
+      <c r="DN6" t="s">
+        <v>330</v>
+      </c>
+      <c r="DO6" t="s">
+        <v>330</v>
+      </c>
+      <c r="DP6" t="s">
+        <v>330</v>
+      </c>
+      <c r="DQ6" t="s">
+        <v>330</v>
+      </c>
+      <c r="DR6" t="s">
+        <v>330</v>
+      </c>
+      <c r="DS6" t="s">
+        <v>330</v>
+      </c>
+      <c r="DT6" t="s">
+        <v>330</v>
+      </c>
+      <c r="DU6" t="s">
+        <v>330</v>
+      </c>
+      <c r="DV6" t="s">
+        <v>330</v>
+      </c>
+      <c r="DW6" t="s">
+        <v>330</v>
+      </c>
+      <c r="DX6" t="s">
+        <v>292</v>
+      </c>
+      <c r="DY6" t="s">
+        <v>342</v>
+      </c>
+      <c r="DZ6" t="s">
+        <v>343</v>
+      </c>
+      <c r="EA6" t="s">
+        <v>344</v>
+      </c>
+      <c r="EB6" t="s">
+        <v>345</v>
+      </c>
+      <c r="EC6" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="7" spans="1:246">
+      <c r="A7" s="1">
+        <v>5</v>
+      </c>
+      <c r="B7" t="s">
+        <v>245</v>
+      </c>
+      <c r="C7" t="b">
+        <v>0</v>
+      </c>
+      <c r="D7" t="s">
+        <v>247</v>
+      </c>
+      <c r="E7" t="s">
+        <v>248</v>
+      </c>
+      <c r="H7" t="s">
+        <v>254</v>
+      </c>
+      <c r="I7" t="s">
         <v>260</v>
       </c>
-      <c r="Q4" t="s">
-        <v>261</v>
-      </c>
-      <c r="R4" t="s">
-        <v>262</v>
-      </c>
-      <c r="S4" t="s">
-        <v>263</v>
-      </c>
-      <c r="T4" t="s">
-        <v>264</v>
-      </c>
-      <c r="U4">
+      <c r="J7" t="b">
+        <v>1</v>
+      </c>
+      <c r="K7" t="b">
+        <v>1</v>
+      </c>
+      <c r="M7" t="s">
+        <v>266</v>
+      </c>
+      <c r="O7" t="s">
+        <v>272</v>
+      </c>
+      <c r="P7" t="s">
+        <v>274</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>275</v>
+      </c>
+      <c r="R7" t="s">
+        <v>276</v>
+      </c>
+      <c r="S7" t="s">
+        <v>278</v>
+      </c>
+      <c r="T7" t="s">
+        <v>279</v>
+      </c>
+      <c r="U7">
         <v>8295</v>
       </c>
-      <c r="V4" s="2" t="s">
-        <v>267</v>
-      </c>
-      <c r="W4" t="s">
-        <v>261</v>
-      </c>
-      <c r="X4" t="s">
-        <v>268</v>
-      </c>
-      <c r="Y4" t="s">
-        <v>262</v>
-      </c>
-      <c r="Z4" t="s">
-        <v>263</v>
-      </c>
-      <c r="AA4" s="2" t="s">
-        <v>269</v>
-      </c>
-      <c r="AB4" t="s">
-        <v>272</v>
-      </c>
-      <c r="AS4" t="s">
-        <v>281</v>
-      </c>
-      <c r="AT4" s="2" t="s">
-        <v>283</v>
-      </c>
-      <c r="AU4" t="s">
-        <v>284</v>
-      </c>
-      <c r="AV4">
+      <c r="V7" s="2" t="s">
+        <v>285</v>
+      </c>
+      <c r="W7" t="s">
+        <v>275</v>
+      </c>
+      <c r="X7" t="s">
+        <v>286</v>
+      </c>
+      <c r="Y7" t="s">
+        <v>276</v>
+      </c>
+      <c r="Z7" t="s">
+        <v>278</v>
+      </c>
+      <c r="AA7" s="2" t="s">
+        <v>287</v>
+      </c>
+      <c r="AB7" t="s">
+        <v>290</v>
+      </c>
+      <c r="AT7" t="s">
+        <v>304</v>
+      </c>
+      <c r="AU7" s="2" t="s">
+        <v>306</v>
+      </c>
+      <c r="AV7" t="s">
+        <v>308</v>
+      </c>
+      <c r="AW7">
         <v>333</v>
       </c>
-      <c r="AW4" t="s">
-        <v>285</v>
-      </c>
-      <c r="AX4" t="s">
-        <v>286</v>
-      </c>
-      <c r="AY4" t="s">
-        <v>281</v>
-      </c>
-      <c r="BA4" t="s">
-        <v>249</v>
-      </c>
-      <c r="BB4" t="s">
-        <v>289</v>
-      </c>
-      <c r="BC4" t="s">
-        <v>292</v>
-      </c>
-      <c r="BD4" t="s">
-        <v>293</v>
-      </c>
-      <c r="BE4" t="s">
-        <v>294</v>
-      </c>
-      <c r="BF4" t="s">
-        <v>295</v>
-      </c>
-      <c r="BG4" t="s">
-        <v>296</v>
-      </c>
-      <c r="CH4" t="s">
-        <v>281</v>
-      </c>
-      <c r="CJ4" t="s">
-        <v>284</v>
-      </c>
-      <c r="CK4">
+      <c r="AX7" t="s">
+        <v>309</v>
+      </c>
+      <c r="AY7" t="s">
+        <v>310</v>
+      </c>
+      <c r="AZ7" t="s">
+        <v>304</v>
+      </c>
+      <c r="BB7" t="s">
+        <v>254</v>
+      </c>
+      <c r="BC7" t="s">
+        <v>316</v>
+      </c>
+      <c r="BD7" t="s">
+        <v>322</v>
+      </c>
+      <c r="BE7" t="s">
+        <v>323</v>
+      </c>
+      <c r="BF7" t="s">
+        <v>324</v>
+      </c>
+      <c r="BG7" t="s">
+        <v>326</v>
+      </c>
+      <c r="BH7" t="s">
+        <v>329</v>
+      </c>
+      <c r="CI7" t="s">
+        <v>304</v>
+      </c>
+      <c r="CK7" t="s">
+        <v>308</v>
+      </c>
+      <c r="CL7">
         <v>333</v>
       </c>
-      <c r="CL4" t="s">
-        <v>285</v>
-      </c>
-      <c r="CM4" t="s">
-        <v>286</v>
-      </c>
-      <c r="CN4" t="s">
-        <v>281</v>
-      </c>
-      <c r="CP4" t="s">
-        <v>249</v>
-      </c>
-      <c r="CR4" t="s">
-        <v>289</v>
-      </c>
-      <c r="CS4" t="s">
-        <v>292</v>
-      </c>
-      <c r="CT4" t="s">
-        <v>293</v>
-      </c>
-      <c r="CU4" t="s">
-        <v>294</v>
-      </c>
-      <c r="EC4" t="s">
-        <v>297</v>
-      </c>
-      <c r="ED4" t="s">
+      <c r="CM7" t="s">
+        <v>309</v>
+      </c>
+      <c r="CN7" t="s">
         <v>310</v>
       </c>
-      <c r="EE4" t="s">
-        <v>311</v>
-      </c>
-      <c r="EF4" t="s">
-        <v>312</v>
-      </c>
-      <c r="EG4" t="s">
-        <v>297</v>
-      </c>
-      <c r="EH4" t="s">
-        <v>273</v>
-      </c>
-      <c r="EI4" t="s">
-        <v>297</v>
-      </c>
-      <c r="EJ4" t="s">
-        <v>297</v>
-      </c>
-      <c r="EK4" t="s">
-        <v>297</v>
-      </c>
-      <c r="EL4" t="s">
-        <v>297</v>
-      </c>
-      <c r="EM4" t="s">
-        <v>297</v>
-      </c>
-      <c r="EN4" t="s">
-        <v>297</v>
-      </c>
-      <c r="EO4" t="s">
-        <v>297</v>
-      </c>
-      <c r="EP4" t="s">
-        <v>297</v>
-      </c>
-      <c r="EQ4" t="s">
-        <v>297</v>
-      </c>
-      <c r="ER4" t="s">
-        <v>273</v>
-      </c>
-      <c r="ES4" t="s">
-        <v>273</v>
-      </c>
-      <c r="ET4" t="s">
-        <v>273</v>
-      </c>
-      <c r="EU4" t="s">
-        <v>273</v>
-      </c>
-      <c r="EV4" t="s">
-        <v>273</v>
-      </c>
-      <c r="EW4" t="s">
-        <v>273</v>
-      </c>
-      <c r="EX4" t="s">
-        <v>273</v>
-      </c>
-      <c r="EY4" t="s">
-        <v>273</v>
-      </c>
-      <c r="EZ4" t="s">
-        <v>273</v>
-      </c>
-      <c r="FA4" t="s">
-        <v>273</v>
-      </c>
-      <c r="FB4" t="s">
-        <v>313</v>
-      </c>
-      <c r="FC4" t="s">
-        <v>297</v>
-      </c>
-      <c r="FD4" t="s">
-        <v>297</v>
-      </c>
-      <c r="FE4" t="s">
-        <v>297</v>
-      </c>
-      <c r="FF4" t="s">
-        <v>297</v>
-      </c>
-      <c r="FG4" t="s">
-        <v>297</v>
-      </c>
-      <c r="FH4" t="s">
-        <v>297</v>
-      </c>
-      <c r="FI4" t="s">
-        <v>297</v>
-      </c>
-      <c r="FJ4" t="s">
-        <v>297</v>
-      </c>
-      <c r="FK4" t="s">
-        <v>314</v>
-      </c>
-      <c r="FL4" t="s">
-        <v>273</v>
-      </c>
-      <c r="FM4" t="s">
-        <v>273</v>
-      </c>
-      <c r="FN4" t="s">
-        <v>273</v>
-      </c>
-      <c r="FO4" t="s">
-        <v>297</v>
-      </c>
-      <c r="FP4" t="s">
-        <v>297</v>
-      </c>
-      <c r="FQ4" t="s">
-        <v>297</v>
-      </c>
-      <c r="FR4" t="s">
-        <v>273</v>
-      </c>
-      <c r="FS4" t="s">
-        <v>273</v>
-      </c>
-      <c r="FT4" t="s">
-        <v>273</v>
-      </c>
-      <c r="FU4" t="s">
-        <v>273</v>
-      </c>
-      <c r="FV4" t="s">
-        <v>297</v>
-      </c>
-      <c r="FW4" t="s">
-        <v>297</v>
-      </c>
-      <c r="FX4" t="s">
-        <v>297</v>
-      </c>
-      <c r="FY4" t="s">
-        <v>315</v>
-      </c>
-      <c r="FZ4" t="s">
-        <v>297</v>
-      </c>
-      <c r="GA4" t="s">
-        <v>297</v>
-      </c>
-      <c r="GB4" t="s">
+      <c r="CO7" t="s">
+        <v>304</v>
+      </c>
+      <c r="CQ7" t="s">
+        <v>254</v>
+      </c>
+      <c r="CS7" t="s">
         <v>316</v>
       </c>
-      <c r="GC4" t="s">
-        <v>297</v>
-      </c>
-      <c r="GD4" t="s">
-        <v>297</v>
-      </c>
-      <c r="GE4" t="s">
-        <v>297</v>
-      </c>
-      <c r="GF4" t="s">
-        <v>297</v>
-      </c>
-      <c r="GG4" t="s">
-        <v>317</v>
-      </c>
-      <c r="GH4" t="s">
-        <v>297</v>
-      </c>
-      <c r="GI4" t="s">
-        <v>318</v>
-      </c>
-      <c r="GJ4" t="s">
-        <v>297</v>
-      </c>
-      <c r="GK4" t="s">
-        <v>297</v>
-      </c>
-      <c r="GL4" t="s">
-        <v>313</v>
-      </c>
-      <c r="GM4" t="s">
-        <v>297</v>
-      </c>
-      <c r="GN4" t="s">
-        <v>297</v>
-      </c>
-      <c r="GO4" t="s">
-        <v>297</v>
-      </c>
-      <c r="GP4" t="s">
-        <v>297</v>
-      </c>
-      <c r="GQ4" t="s">
-        <v>297</v>
-      </c>
-      <c r="GR4" t="s">
-        <v>297</v>
-      </c>
-      <c r="GS4" t="s">
-        <v>297</v>
-      </c>
-      <c r="GT4" t="s">
-        <v>297</v>
-      </c>
-      <c r="GU4" t="s">
-        <v>297</v>
-      </c>
-      <c r="GV4" t="s">
-        <v>297</v>
-      </c>
-      <c r="GW4" t="s">
-        <v>297</v>
-      </c>
-      <c r="GX4" t="s">
-        <v>297</v>
-      </c>
-      <c r="GY4" t="s">
-        <v>297</v>
-      </c>
-      <c r="GZ4" t="s">
-        <v>297</v>
-      </c>
-      <c r="HA4" t="s">
-        <v>297</v>
-      </c>
-      <c r="HB4" t="s">
-        <v>297</v>
-      </c>
-      <c r="HC4" t="s">
-        <v>273</v>
-      </c>
-      <c r="HD4" t="s">
-        <v>297</v>
-      </c>
-      <c r="HE4" t="s">
-        <v>297</v>
-      </c>
-      <c r="HF4" t="s">
-        <v>297</v>
-      </c>
-      <c r="HG4" t="s">
-        <v>273</v>
-      </c>
-      <c r="HH4" t="s">
-        <v>297</v>
-      </c>
-      <c r="HI4" t="s">
-        <v>297</v>
-      </c>
-      <c r="HJ4" t="s">
-        <v>297</v>
-      </c>
-      <c r="HK4" t="s">
-        <v>297</v>
-      </c>
-      <c r="HL4" t="s">
-        <v>297</v>
-      </c>
-      <c r="HM4" t="s">
-        <v>297</v>
-      </c>
-      <c r="HN4" t="s">
-        <v>297</v>
-      </c>
-      <c r="HO4" t="s">
-        <v>297</v>
-      </c>
-      <c r="HP4" t="s">
-        <v>297</v>
-      </c>
-      <c r="HQ4" t="s">
-        <v>297</v>
-      </c>
-      <c r="HR4" t="s">
-        <v>297</v>
-      </c>
-      <c r="HS4" t="s">
-        <v>297</v>
-      </c>
-      <c r="HT4" t="s">
-        <v>297</v>
-      </c>
-      <c r="HU4" t="s">
-        <v>319</v>
-      </c>
-      <c r="HV4" t="s">
-        <v>313</v>
-      </c>
-      <c r="HW4" t="s">
-        <v>313</v>
-      </c>
-      <c r="HX4" t="s">
-        <v>297</v>
-      </c>
-      <c r="HY4" t="s">
-        <v>297</v>
-      </c>
-      <c r="HZ4" t="s">
-        <v>320</v>
-      </c>
-      <c r="IA4" t="s">
-        <v>297</v>
-      </c>
-      <c r="IB4" t="s">
-        <v>297</v>
-      </c>
-      <c r="IC4" t="s">
-        <v>297</v>
-      </c>
-      <c r="ID4" t="s">
-        <v>297</v>
-      </c>
-      <c r="IE4" t="s">
-        <v>297</v>
-      </c>
-      <c r="IF4" t="s">
-        <v>297</v>
-      </c>
-      <c r="IG4" t="s">
-        <v>297</v>
-      </c>
-      <c r="IH4" t="s">
-        <v>297</v>
-      </c>
-      <c r="II4" t="s">
-        <v>297</v>
-      </c>
-      <c r="IJ4" t="s">
-        <v>297</v>
-      </c>
-      <c r="IK4" t="s">
-        <v>297</v>
+      <c r="CT7" t="s">
+        <v>322</v>
+      </c>
+      <c r="CU7" t="s">
+        <v>323</v>
+      </c>
+      <c r="CV7" t="s">
+        <v>324</v>
+      </c>
+      <c r="ED7" t="s">
+        <v>330</v>
+      </c>
+      <c r="EE7" t="s">
+        <v>347</v>
+      </c>
+      <c r="EF7" t="s">
+        <v>348</v>
+      </c>
+      <c r="EG7" t="s">
+        <v>350</v>
+      </c>
+      <c r="EH7" t="s">
+        <v>330</v>
+      </c>
+      <c r="EI7" t="s">
+        <v>292</v>
+      </c>
+      <c r="EJ7" t="s">
+        <v>330</v>
+      </c>
+      <c r="EK7" t="s">
+        <v>330</v>
+      </c>
+      <c r="EL7" t="s">
+        <v>330</v>
+      </c>
+      <c r="EM7" t="s">
+        <v>330</v>
+      </c>
+      <c r="EN7" t="s">
+        <v>330</v>
+      </c>
+      <c r="EO7" t="s">
+        <v>330</v>
+      </c>
+      <c r="EP7" t="s">
+        <v>330</v>
+      </c>
+      <c r="EQ7" t="s">
+        <v>330</v>
+      </c>
+      <c r="ER7" t="s">
+        <v>330</v>
+      </c>
+      <c r="ES7" t="s">
+        <v>292</v>
+      </c>
+      <c r="ET7" t="s">
+        <v>292</v>
+      </c>
+      <c r="EU7" t="s">
+        <v>292</v>
+      </c>
+      <c r="EV7" t="s">
+        <v>292</v>
+      </c>
+      <c r="EW7" t="s">
+        <v>292</v>
+      </c>
+      <c r="EX7" t="s">
+        <v>292</v>
+      </c>
+      <c r="EY7" t="s">
+        <v>292</v>
+      </c>
+      <c r="EZ7" t="s">
+        <v>292</v>
+      </c>
+      <c r="FA7" t="s">
+        <v>292</v>
+      </c>
+      <c r="FB7" t="s">
+        <v>292</v>
+      </c>
+      <c r="FC7" t="s">
+        <v>351</v>
+      </c>
+      <c r="FD7" t="s">
+        <v>330</v>
+      </c>
+      <c r="FE7" t="s">
+        <v>330</v>
+      </c>
+      <c r="FF7" t="s">
+        <v>330</v>
+      </c>
+      <c r="FG7" t="s">
+        <v>330</v>
+      </c>
+      <c r="FH7" t="s">
+        <v>330</v>
+      </c>
+      <c r="FI7" t="s">
+        <v>330</v>
+      </c>
+      <c r="FJ7" t="s">
+        <v>330</v>
+      </c>
+      <c r="FK7" t="s">
+        <v>330</v>
+      </c>
+      <c r="FL7" t="s">
+        <v>353</v>
+      </c>
+      <c r="FM7" t="s">
+        <v>292</v>
+      </c>
+      <c r="FN7" t="s">
+        <v>292</v>
+      </c>
+      <c r="FO7" t="s">
+        <v>292</v>
+      </c>
+      <c r="FP7" t="s">
+        <v>330</v>
+      </c>
+      <c r="FQ7" t="s">
+        <v>330</v>
+      </c>
+      <c r="FR7" t="s">
+        <v>330</v>
+      </c>
+      <c r="FS7" t="s">
+        <v>292</v>
+      </c>
+      <c r="FT7" t="s">
+        <v>292</v>
+      </c>
+      <c r="FU7" t="s">
+        <v>292</v>
+      </c>
+      <c r="FV7" t="s">
+        <v>292</v>
+      </c>
+      <c r="FW7" t="s">
+        <v>330</v>
+      </c>
+      <c r="FX7" t="s">
+        <v>330</v>
+      </c>
+      <c r="FY7" t="s">
+        <v>330</v>
+      </c>
+      <c r="FZ7" t="s">
+        <v>355</v>
+      </c>
+      <c r="GA7" t="s">
+        <v>330</v>
+      </c>
+      <c r="GB7" t="s">
+        <v>330</v>
+      </c>
+      <c r="GC7" t="s">
+        <v>357</v>
+      </c>
+      <c r="GD7" t="s">
+        <v>330</v>
+      </c>
+      <c r="GE7" t="s">
+        <v>330</v>
+      </c>
+      <c r="GF7" t="s">
+        <v>330</v>
+      </c>
+      <c r="GG7" t="s">
+        <v>330</v>
+      </c>
+      <c r="GH7" t="s">
+        <v>358</v>
+      </c>
+      <c r="GI7" t="s">
+        <v>330</v>
+      </c>
+      <c r="GJ7" t="s">
+        <v>360</v>
+      </c>
+      <c r="GK7" t="s">
+        <v>330</v>
+      </c>
+      <c r="GL7" t="s">
+        <v>330</v>
+      </c>
+      <c r="GM7" t="s">
+        <v>351</v>
+      </c>
+      <c r="GN7" t="s">
+        <v>330</v>
+      </c>
+      <c r="GO7" t="s">
+        <v>330</v>
+      </c>
+      <c r="GP7" t="s">
+        <v>330</v>
+      </c>
+      <c r="GQ7" t="s">
+        <v>330</v>
+      </c>
+      <c r="GR7" t="s">
+        <v>330</v>
+      </c>
+      <c r="GS7" t="s">
+        <v>330</v>
+      </c>
+      <c r="GT7" t="s">
+        <v>330</v>
+      </c>
+      <c r="GU7" t="s">
+        <v>330</v>
+      </c>
+      <c r="GV7" t="s">
+        <v>330</v>
+      </c>
+      <c r="GW7" t="s">
+        <v>330</v>
+      </c>
+      <c r="GX7" t="s">
+        <v>330</v>
+      </c>
+      <c r="GY7" t="s">
+        <v>330</v>
+      </c>
+      <c r="GZ7" t="s">
+        <v>330</v>
+      </c>
+      <c r="HA7" t="s">
+        <v>330</v>
+      </c>
+      <c r="HB7" t="s">
+        <v>330</v>
+      </c>
+      <c r="HC7" t="s">
+        <v>330</v>
+      </c>
+      <c r="HD7" t="s">
+        <v>292</v>
+      </c>
+      <c r="HE7" t="s">
+        <v>330</v>
+      </c>
+      <c r="HF7" t="s">
+        <v>330</v>
+      </c>
+      <c r="HG7" t="s">
+        <v>330</v>
+      </c>
+      <c r="HH7" t="s">
+        <v>292</v>
+      </c>
+      <c r="HI7" t="s">
+        <v>330</v>
+      </c>
+      <c r="HJ7" t="s">
+        <v>330</v>
+      </c>
+      <c r="HK7" t="s">
+        <v>330</v>
+      </c>
+      <c r="HL7" t="s">
+        <v>330</v>
+      </c>
+      <c r="HM7" t="s">
+        <v>330</v>
+      </c>
+      <c r="HN7" t="s">
+        <v>330</v>
+      </c>
+      <c r="HO7" t="s">
+        <v>330</v>
+      </c>
+      <c r="HP7" t="s">
+        <v>330</v>
+      </c>
+      <c r="HQ7" t="s">
+        <v>330</v>
+      </c>
+      <c r="HR7" t="s">
+        <v>330</v>
+      </c>
+      <c r="HS7" t="s">
+        <v>330</v>
+      </c>
+      <c r="HT7" t="s">
+        <v>330</v>
+      </c>
+      <c r="HU7" t="s">
+        <v>330</v>
+      </c>
+      <c r="HV7" t="s">
+        <v>361</v>
+      </c>
+      <c r="HW7" t="s">
+        <v>351</v>
+      </c>
+      <c r="HX7" t="s">
+        <v>351</v>
+      </c>
+      <c r="HY7" t="s">
+        <v>330</v>
+      </c>
+      <c r="HZ7" t="s">
+        <v>330</v>
+      </c>
+      <c r="IA7" t="s">
+        <v>363</v>
+      </c>
+      <c r="IB7" t="s">
+        <v>330</v>
+      </c>
+      <c r="IC7" t="s">
+        <v>330</v>
+      </c>
+      <c r="ID7" t="s">
+        <v>330</v>
+      </c>
+      <c r="IE7" t="s">
+        <v>330</v>
+      </c>
+      <c r="IF7" t="s">
+        <v>330</v>
+      </c>
+      <c r="IG7" t="s">
+        <v>330</v>
+      </c>
+      <c r="IH7" t="s">
+        <v>330</v>
+      </c>
+      <c r="II7" t="s">
+        <v>330</v>
+      </c>
+      <c r="IJ7" t="s">
+        <v>330</v>
+      </c>
+      <c r="IK7" t="s">
+        <v>330</v>
+      </c>
+      <c r="IL7" t="s">
+        <v>330</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="V2" r:id="rId1"/>
     <hyperlink ref="AA2" r:id="rId2"/>
-    <hyperlink ref="AT2" r:id="rId3"/>
+    <hyperlink ref="AU2" r:id="rId3"/>
     <hyperlink ref="V3" r:id="rId4"/>
     <hyperlink ref="AA3" r:id="rId5"/>
-    <hyperlink ref="AT3" r:id="rId6"/>
+    <hyperlink ref="AU3" r:id="rId6"/>
     <hyperlink ref="V4" r:id="rId7"/>
     <hyperlink ref="AA4" r:id="rId8"/>
-    <hyperlink ref="AT4" r:id="rId9"/>
+    <hyperlink ref="AU4" r:id="rId9"/>
+    <hyperlink ref="V5" r:id="rId10"/>
+    <hyperlink ref="AA5" r:id="rId11"/>
+    <hyperlink ref="AU5" r:id="rId12"/>
+    <hyperlink ref="V6" r:id="rId13"/>
+    <hyperlink ref="AA6" r:id="rId14"/>
+    <hyperlink ref="AU6" r:id="rId15"/>
+    <hyperlink ref="V7" r:id="rId16"/>
+    <hyperlink ref="AA7" r:id="rId17"/>
+    <hyperlink ref="AU7" r:id="rId18"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/test.xlsx
+++ b/test.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="855" uniqueCount="364">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="857" uniqueCount="364">
   <si>
     <t>app_id</t>
   </si>
@@ -100,6 +100,432 @@
     <t>form.activity_and_time_period_under_review.select_activity_type</t>
   </si>
   <si>
+    <t>form.ending_month_to_numeric</t>
+  </si>
+  <si>
+    <t>form.meta.@xmlns</t>
+  </si>
+  <si>
+    <t>form.meta.appVersion</t>
+  </si>
+  <si>
+    <t>form.meta.app_build_version</t>
+  </si>
+  <si>
+    <t>form.meta.commcare_version</t>
+  </si>
+  <si>
+    <t>form.meta.deviceID</t>
+  </si>
+  <si>
+    <t>form.meta.drift</t>
+  </si>
+  <si>
+    <t>form.meta.geo_point</t>
+  </si>
+  <si>
+    <t>form.meta.instanceID</t>
+  </si>
+  <si>
+    <t>form.meta.timeEnd</t>
+  </si>
+  <si>
+    <t>form.meta.timeStart</t>
+  </si>
+  <si>
+    <t>form.meta.userID</t>
+  </si>
+  <si>
+    <t>form.meta.username</t>
+  </si>
+  <si>
+    <t>form.question2.District</t>
+  </si>
+  <si>
+    <t>form.question2.facility</t>
+  </si>
+  <si>
+    <t>form.section_a_-_facilities_supplies_equipment_and_emergency_management.IncineratorSecure</t>
+  </si>
+  <si>
+    <t>form.section_a_-_facilities_supplies_equipment_and_emergency_management.antibiotics</t>
+  </si>
+  <si>
+    <t>form.section_a_-_facilities_supplies_equipment_and_emergency_management.availableDrugs</t>
+  </si>
+  <si>
+    <t>form.section_a_-_facilities_supplies_equipment_and_emergency_management.availableKits</t>
+  </si>
+  <si>
+    <t>form.section_a_-_facilities_supplies_equipment_and_emergency_management.bloodPressureCuff</t>
+  </si>
+  <si>
+    <t>form.section_a_-_facilities_supplies_equipment_and_emergency_management.blood_pressure_cuff</t>
+  </si>
+  <si>
+    <t>form.section_a_-_facilities_supplies_equipment_and_emergency_management.clientHTSPrivacy</t>
+  </si>
+  <si>
+    <t>form.section_a_-_facilities_supplies_equipment_and_emergency_management.clientSpaceSize</t>
+  </si>
+  <si>
+    <t>form.section_a_-_facilities_supplies_equipment_and_emergency_management.clinicalStaffTraining</t>
+  </si>
+  <si>
+    <t>form.section_a_-_facilities_supplies_equipment_and_emergency_management.colorCodedContainers</t>
+  </si>
+  <si>
+    <t>form.section_a_-_facilities_supplies_equipment_and_emergency_management.condom-stock-outs</t>
+  </si>
+  <si>
+    <t>form.section_a_-_facilities_supplies_equipment_and_emergency_management.condomCompatibleLubricants</t>
+  </si>
+  <si>
+    <t>form.section_a_-_facilities_supplies_equipment_and_emergency_management.condomDemonstration</t>
+  </si>
+  <si>
+    <t>form.section_a_-_facilities_supplies_equipment_and_emergency_management.condomsAvailableToday</t>
+  </si>
+  <si>
+    <t>form.section_a_-_facilities_supplies_equipment_and_emergency_management.condomsExpiringStatus</t>
+  </si>
+  <si>
+    <t>form.section_a_-_facilities_supplies_equipment_and_emergency_management.copy-1-of-facilities_supplies__equipment_-_equipment_storage_visually_inspect_the_sto</t>
+  </si>
+  <si>
+    <t>form.section_a_-_facilities_supplies_equipment_and_emergency_management.copy-1-of-question1</t>
+  </si>
+  <si>
+    <t>form.section_a_-_facilities_supplies_equipment_and_emergency_management.copy-1-of-scale</t>
+  </si>
+  <si>
+    <t>form.section_a_-_facilities_supplies_equipment_and_emergency_management.copy-2-of-facilities_supplies__equipment_-_equipment_storage_visually_inspect_the_sto</t>
+  </si>
+  <si>
+    <t>form.section_a_-_facilities_supplies_equipment_and_emergency_management.copy-2-of-scale</t>
+  </si>
+  <si>
+    <t>form.section_a_-_facilities_supplies_equipment_and_emergency_management.copy-3-of-facilities_supplies__equipment_-_equipment_storage_visually_inspect_the_sto</t>
+  </si>
+  <si>
+    <t>form.section_a_-_facilities_supplies_equipment_and_emergency_management.copy-3-of-scale</t>
+  </si>
+  <si>
+    <t>form.section_a_-_facilities_supplies_equipment_and_emergency_management.copy-4-of-facilities_supplies__equipment_-_equipment_storage_visually_inspect_the_sto</t>
+  </si>
+  <si>
+    <t>form.section_a_-_facilities_supplies_equipment_and_emergency_management.copy-4-of-scale</t>
+  </si>
+  <si>
+    <t>form.section_a_-_facilities_supplies_equipment_and_emergency_management.copy-5-of-facilities_supplies__equipment_-_equipment_storage_visually_inspect_the_sto</t>
+  </si>
+  <si>
+    <t>form.section_a_-_facilities_supplies_equipment_and_emergency_management.dentalDams</t>
+  </si>
+  <si>
+    <t>form.section_a_-_facilities_supplies_equipment_and_emergency_management.dispensingRecordsUptodate</t>
+  </si>
+  <si>
+    <t>form.section_a_-_facilities_supplies_equipment_and_emergency_management.disposal_of_non_reusable_instruments</t>
+  </si>
+  <si>
+    <t>form.section_a_-_facilities_supplies_equipment_and_emergency_management.documentationStatus</t>
+  </si>
+  <si>
+    <t>form.section_a_-_facilities_supplies_equipment_and_emergency_management.documentationofMedicationsDispensed</t>
+  </si>
+  <si>
+    <t>form.section_a_-_facilities_supplies_equipment_and_emergency_management.emergencyCart</t>
+  </si>
+  <si>
+    <t>form.section_a_-_facilities_supplies_equipment_and_emergency_management.emergencyCartStatus</t>
+  </si>
+  <si>
+    <t>form.section_a_-_facilities_supplies_equipment_and_emergency_management.emergencyCartYes</t>
+  </si>
+  <si>
+    <t>form.section_a_-_facilities_supplies_equipment_and_emergency_management.emergencyMaterialsinStock</t>
+  </si>
+  <si>
+    <t>form.section_a_-_facilities_supplies_equipment_and_emergency_management.emergencySuppliesStatus</t>
+  </si>
+  <si>
+    <t>form.section_a_-_facilities_supplies_equipment_and_emergency_management.emergency_management_-_adverse_event_prevention_and_management_vmmc_emergen</t>
+  </si>
+  <si>
+    <t>form.section_a_-_facilities_supplies_equipment_and_emergency_management.emergency_management_-_emergency_practices_and_procedures</t>
+  </si>
+  <si>
+    <t>form.section_a_-_facilities_supplies_equipment_and_emergency_management.emergency_management_-_guidelines_reports_procedures_medicines_and_training</t>
+  </si>
+  <si>
+    <t>form.section_a_-_facilities_supplies_equipment_and_emergency_management.examinationroomSpace</t>
+  </si>
+  <si>
+    <t>form.section_a_-_facilities_supplies_equipment_and_emergency_management.examinationroomTemperature</t>
+  </si>
+  <si>
+    <t>form.section_a_-_facilities_supplies_equipment_and_emergency_management.examionationroomLighting</t>
+  </si>
+  <si>
+    <t>form.section_a_-_facilities_supplies_equipment_and_emergency_management.facilities_supplies__equipment_-_equipment_storage_visually_inspect_the_sto</t>
+  </si>
+  <si>
+    <t>form.section_a_-_facilities_supplies_equipment_and_emergency_management.facilities_supplies__equipment_-_medication_dispensing</t>
+  </si>
+  <si>
+    <t>form.section_a_-_facilities_supplies_equipment_and_emergency_management.facilities_supplies__equipment_-_medicines</t>
+  </si>
+  <si>
+    <t>form.section_a_-_facilities_supplies_equipment_and_emergency_management.facilities_supplies__equipment_-_waste_management</t>
+  </si>
+  <si>
+    <t>form.section_a_-_facilities_supplies_equipment_and_emergency_management.fenced_lockable_waste_disposal_area</t>
+  </si>
+  <si>
+    <t>form.section_a_-_facilities_supplies_equipment_and_emergency_management.followuptoEmergencyYes</t>
+  </si>
+  <si>
+    <t>form.section_a_-_facilities_supplies_equipment_and_emergency_management.handDryingMaterial</t>
+  </si>
+  <si>
+    <t>form.section_a_-_facilities_supplies_equipment_and_emergency_management.highlyRecommendedItems</t>
+  </si>
+  <si>
+    <t>form.section_a_-_facilities_supplies_equipment_and_emergency_management.htsContainers</t>
+  </si>
+  <si>
+    <t>form.section_a_-_facilities_supplies_equipment_and_emergency_management.htsdisposableGloves</t>
+  </si>
+  <si>
+    <t>form.section_a_-_facilities_supplies_equipment_and_emergency_management.htsroomSanitationSupplies</t>
+  </si>
+  <si>
+    <t>form.section_a_-_facilities_supplies_equipment_and_emergency_management.incinerator</t>
+  </si>
+  <si>
+    <t>form.section_a_-_facilities_supplies_equipment_and_emergency_management.incineratorAutowayPit</t>
+  </si>
+  <si>
+    <t>form.section_a_-_facilities_supplies_equipment_and_emergency_management.incineratorPollutionControl</t>
+  </si>
+  <si>
+    <t>form.section_a_-_facilities_supplies_equipment_and_emergency_management.is_there_a_plan_for_monitoring_condom_supply</t>
+  </si>
+  <si>
+    <t>form.section_a_-_facilities_supplies_equipment_and_emergency_management.local_anesthetics__has_the_site_been_free_of_stock_outs_for_the_past_3_mont</t>
+  </si>
+  <si>
+    <t>form.section_a_-_facilities_supplies_equipment_and_emergency_management.loose_non_containerized</t>
+  </si>
+  <si>
+    <t>form.section_a_-_facilities_supplies_equipment_and_emergency_management.medicineStockouts</t>
+  </si>
+  <si>
+    <t>form.section_a_-_facilities_supplies_equipment_and_emergency_management.medicineStorage</t>
+  </si>
+  <si>
+    <t>form.section_a_-_facilities_supplies_equipment_and_emergency_management.medicinesDispensed</t>
+  </si>
+  <si>
+    <t>form.section_a_-_facilities_supplies_equipment_and_emergency_management.medicinesLabelling</t>
+  </si>
+  <si>
+    <t>form.section_a_-_facilities_supplies_equipment_and_emergency_management.medicinesOrganisation</t>
+  </si>
+  <si>
+    <t>form.section_a_-_facilities_supplies_equipment_and_emergency_management.medicinesSecureArea</t>
+  </si>
+  <si>
+    <t>form.section_a_-_facilities_supplies_equipment_and_emergency_management.medicinesShelflife</t>
+  </si>
+  <si>
+    <t>form.section_a_-_facilities_supplies_equipment_and_emergency_management.medicinesTemperature</t>
+  </si>
+  <si>
+    <t>form.section_a_-_facilities_supplies_equipment_and_emergency_management.non_burn_technology</t>
+  </si>
+  <si>
+    <t>form.section_a_-_facilities_supplies_equipment_and_emergency_management.operatingBeds</t>
+  </si>
+  <si>
+    <t>form.section_a_-_facilities_supplies_equipment_and_emergency_management.operatingTheatreSoap</t>
+  </si>
+  <si>
+    <t>form.section_a_-_facilities_supplies_equipment_and_emergency_management.operatingTheatreTemperature</t>
+  </si>
+  <si>
+    <t>form.section_a_-_facilities_supplies_equipment_and_emergency_management.operatingTheatreWater</t>
+  </si>
+  <si>
+    <t>form.section_a_-_facilities_supplies_equipment_and_emergency_management.oralAnalgesics</t>
+  </si>
+  <si>
+    <t>form.section_a_-_facilities_supplies_equipment_and_emergency_management.oralAnalgesicsStockOut</t>
+  </si>
+  <si>
+    <t>form.section_a_-_facilities_supplies_equipment_and_emergency_management.packsKitsAvailable</t>
+  </si>
+  <si>
+    <t>form.section_a_-_facilities_supplies_equipment_and_emergency_management.pediatricBloodPressure</t>
+  </si>
+  <si>
+    <t>form.section_a_-_facilities_supplies_equipment_and_emergency_management.pepMedicinesAvailability</t>
+  </si>
+  <si>
+    <t>form.section_a_-_facilities_supplies_equipment_and_emergency_management.procedureroomLighting</t>
+  </si>
+  <si>
+    <t>form.section_a_-_facilities_supplies_equipment_and_emergency_management.procedureroomSpace</t>
+  </si>
+  <si>
+    <t>form.section_a_-_facilities_supplies_equipment_and_emergency_management.question1</t>
+  </si>
+  <si>
+    <t>form.section_a_-_facilities_supplies_equipment_and_emergency_management.recoveryroomLighting</t>
+  </si>
+  <si>
+    <t>form.section_a_-_facilities_supplies_equipment_and_emergency_management.recoveryroomSpace</t>
+  </si>
+  <si>
+    <t>form.section_a_-_facilities_supplies_equipment_and_emergency_management.recoveryroomTemperature</t>
+  </si>
+  <si>
+    <t>form.section_a_-_facilities_supplies_equipment_and_emergency_management.scale</t>
+  </si>
+  <si>
+    <t>form.section_a_-_facilities_supplies_equipment_and_emergency_management.scaleonSite</t>
+  </si>
+  <si>
+    <t>form.section_a_-_facilities_supplies_equipment_and_emergency_management.siteCondoms</t>
+  </si>
+  <si>
+    <t>form.section_a_-_facilities_supplies_equipment_and_emergency_management.siteType</t>
+  </si>
+  <si>
+    <t>form.section_a_-_facilities_supplies_equipment_and_emergency_management.spaceCleaniness</t>
+  </si>
+  <si>
+    <t>form.section_a_-_facilities_supplies_equipment_and_emergency_management.staffKnowledgeonReportingStructure</t>
+  </si>
+  <si>
+    <t>form.section_a_-_facilities_supplies_equipment_and_emergency_management.staffPEPTimeframe</t>
+  </si>
+  <si>
+    <t>form.section_a_-_facilities_supplies_equipment_and_emergency_management.staffPEPeligibility</t>
+  </si>
+  <si>
+    <t>form.section_a_-_facilities_supplies_equipment_and_emergency_management.staffabletoExplainEmergencyProcedures</t>
+  </si>
+  <si>
+    <t>form.section_a_-_facilities_supplies_equipment_and_emergency_management.sterileKitsCleanArea</t>
+  </si>
+  <si>
+    <t>form.section_a_-_facilities_supplies_equipment_and_emergency_management.sterileKitsElevated</t>
+  </si>
+  <si>
+    <t>form.section_a_-_facilities_supplies_equipment_and_emergency_management.sterileKitsNotTouchingCeiling</t>
+  </si>
+  <si>
+    <t>form.section_a_-_facilities_supplies_equipment_and_emergency_management.sterileKitsNotTouchingWalls</t>
+  </si>
+  <si>
+    <t>form.section_a_-_facilities_supplies_equipment_and_emergency_management.stiMedicines</t>
+  </si>
+  <si>
+    <t>form.section_a_-_facilities_supplies_equipment_and_emergency_management.stiMedicinesStockOuts</t>
+  </si>
+  <si>
+    <t>form.section_a_-_facilities_supplies_equipment_and_emergency_management.stock-outRTKs</t>
+  </si>
+  <si>
+    <t>form.section_a_-_facilities_supplies_equipment_and_emergency_management.stock-outRTKstoPatientNotTested</t>
+  </si>
+  <si>
+    <t>form.section_a_-_facilities_supplies_equipment_and_emergency_management.storageforRTKs</t>
+  </si>
+  <si>
+    <t>form.section_a_-_facilities_supplies_equipment_and_emergency_management.sufficientReusableSupply</t>
+  </si>
+  <si>
+    <t>form.section_a_-_facilities_supplies_equipment_and_emergency_management.suppliesAvailable</t>
+  </si>
+  <si>
+    <t>form.section_a_-_facilities_supplies_equipment_and_emergency_management.temperatureHIVtestKits</t>
+  </si>
+  <si>
+    <t>form.section_a_-_facilities_supplies_equipment_and_emergency_management.trainingonAdrenaline</t>
+  </si>
+  <si>
+    <t>form.section_a_-_facilities_supplies_equipment_and_emergency_management.traininingEmergencyProcedures</t>
+  </si>
+  <si>
+    <t>form.section_a_-_facilities_supplies_equipment_and_emergency_management.vmmcOperatingRooms</t>
+  </si>
+  <si>
+    <t>form.section_a_-_facilities_supplies_equipment_and_emergency_management.waitingSpace</t>
+  </si>
+  <si>
+    <t>form.section_a_-_facilities_supplies_equipment_and_emergency_management.wasteContainers</t>
+  </si>
+  <si>
+    <t>form.section_a_-_facilities_supplies_equipment_and_emergency_management.wasteContainersAtBed</t>
+  </si>
+  <si>
+    <t>form.section_a_-_facilities_supplies_equipment_and_emergency_management.wasteManagementJobAids</t>
+  </si>
+  <si>
+    <t>form.section_a_-_facilities_supplies_equipment_and_emergency_management.wastesegregated</t>
+  </si>
+  <si>
+    <t>form.section_a_-_facilities_supplies_equipment_and_emergency_management.wastetemporaryStorage</t>
+  </si>
+  <si>
+    <t>form.section_a_-_facilities_supplies_equipment_and_emergency_management.writtenProtocolMedicalDispensing</t>
+  </si>
+  <si>
+    <t>form.starting_month_to_numeric</t>
+  </si>
+  <si>
+    <t>form.totalMonths</t>
+  </si>
+  <si>
+    <t>metadata.appVersion</t>
+  </si>
+  <si>
+    <t>metadata.app_build_version</t>
+  </si>
+  <si>
+    <t>metadata.commcare_version</t>
+  </si>
+  <si>
+    <t>metadata.deviceID</t>
+  </si>
+  <si>
+    <t>metadata.drift</t>
+  </si>
+  <si>
+    <t>metadata.geo_point</t>
+  </si>
+  <si>
+    <t>metadata.instanceID</t>
+  </si>
+  <si>
+    <t>metadata.location</t>
+  </si>
+  <si>
+    <t>metadata.timeEnd</t>
+  </si>
+  <si>
+    <t>metadata.timeStart</t>
+  </si>
+  <si>
+    <t>metadata.userID</t>
+  </si>
+  <si>
+    <t>metadata.username</t>
+  </si>
+  <si>
     <t>form.demand_creation_-_strategies_by_age_bands.copy-1-of-yrs</t>
   </si>
   <si>
@@ -148,51 +574,6 @@
     <t>form.demand_creation_-_strategies_by_age_bands.yrs</t>
   </si>
   <si>
-    <t>form.ending_month_to_numeric</t>
-  </si>
-  <si>
-    <t>form.meta.@xmlns</t>
-  </si>
-  <si>
-    <t>form.meta.appVersion</t>
-  </si>
-  <si>
-    <t>form.meta.app_build_version</t>
-  </si>
-  <si>
-    <t>form.meta.commcare_version</t>
-  </si>
-  <si>
-    <t>form.meta.deviceID</t>
-  </si>
-  <si>
-    <t>form.meta.drift</t>
-  </si>
-  <si>
-    <t>form.meta.geo_point</t>
-  </si>
-  <si>
-    <t>form.meta.instanceID</t>
-  </si>
-  <si>
-    <t>form.meta.timeEnd</t>
-  </si>
-  <si>
-    <t>form.meta.timeStart</t>
-  </si>
-  <si>
-    <t>form.meta.userID</t>
-  </si>
-  <si>
-    <t>form.meta.username</t>
-  </si>
-  <si>
-    <t>form.question2.District</t>
-  </si>
-  <si>
-    <t>form.question2.facility</t>
-  </si>
-  <si>
     <t>form.section_c_-_demand_creation.abilitytoEngagewithParticipants</t>
   </si>
   <si>
@@ -271,48 +652,6 @@
     <t>form.section_c_-_demand_creation.workplanDCExpl</t>
   </si>
   <si>
-    <t>form.starting_month_to_numeric</t>
-  </si>
-  <si>
-    <t>form.totalMonths</t>
-  </si>
-  <si>
-    <t>metadata.appVersion</t>
-  </si>
-  <si>
-    <t>metadata.app_build_version</t>
-  </si>
-  <si>
-    <t>metadata.commcare_version</t>
-  </si>
-  <si>
-    <t>metadata.deviceID</t>
-  </si>
-  <si>
-    <t>metadata.drift</t>
-  </si>
-  <si>
-    <t>metadata.geo_point</t>
-  </si>
-  <si>
-    <t>metadata.instanceID</t>
-  </si>
-  <si>
-    <t>metadata.location</t>
-  </si>
-  <si>
-    <t>metadata.timeEnd</t>
-  </si>
-  <si>
-    <t>metadata.timeStart</t>
-  </si>
-  <si>
-    <t>metadata.userID</t>
-  </si>
-  <si>
-    <t>metadata.username</t>
-  </si>
-  <si>
     <t>form.copy-1-of-data_quality_assessment.copy-1-of-general_compliance</t>
   </si>
   <si>
@@ -412,345 +751,6 @@
     <t>form.period_under_review_starting_point.startingYear</t>
   </si>
   <si>
-    <t>form.section_a_-_facilities_supplies_equipment_and_emergency_management.IncineratorSecure</t>
-  </si>
-  <si>
-    <t>form.section_a_-_facilities_supplies_equipment_and_emergency_management.antibiotics</t>
-  </si>
-  <si>
-    <t>form.section_a_-_facilities_supplies_equipment_and_emergency_management.availableDrugs</t>
-  </si>
-  <si>
-    <t>form.section_a_-_facilities_supplies_equipment_and_emergency_management.availableKits</t>
-  </si>
-  <si>
-    <t>form.section_a_-_facilities_supplies_equipment_and_emergency_management.bloodPressureCuff</t>
-  </si>
-  <si>
-    <t>form.section_a_-_facilities_supplies_equipment_and_emergency_management.blood_pressure_cuff</t>
-  </si>
-  <si>
-    <t>form.section_a_-_facilities_supplies_equipment_and_emergency_management.clientHTSPrivacy</t>
-  </si>
-  <si>
-    <t>form.section_a_-_facilities_supplies_equipment_and_emergency_management.clientSpaceSize</t>
-  </si>
-  <si>
-    <t>form.section_a_-_facilities_supplies_equipment_and_emergency_management.clinicalStaffTraining</t>
-  </si>
-  <si>
-    <t>form.section_a_-_facilities_supplies_equipment_and_emergency_management.colorCodedContainers</t>
-  </si>
-  <si>
-    <t>form.section_a_-_facilities_supplies_equipment_and_emergency_management.condom-stock-outs</t>
-  </si>
-  <si>
-    <t>form.section_a_-_facilities_supplies_equipment_and_emergency_management.condomCompatibleLubricants</t>
-  </si>
-  <si>
-    <t>form.section_a_-_facilities_supplies_equipment_and_emergency_management.condomDemonstration</t>
-  </si>
-  <si>
-    <t>form.section_a_-_facilities_supplies_equipment_and_emergency_management.condomsAvailableToday</t>
-  </si>
-  <si>
-    <t>form.section_a_-_facilities_supplies_equipment_and_emergency_management.condomsExpiringStatus</t>
-  </si>
-  <si>
-    <t>form.section_a_-_facilities_supplies_equipment_and_emergency_management.copy-1-of-facilities_supplies__equipment_-_equipment_storage_visually_inspect_the_sto</t>
-  </si>
-  <si>
-    <t>form.section_a_-_facilities_supplies_equipment_and_emergency_management.copy-1-of-question1</t>
-  </si>
-  <si>
-    <t>form.section_a_-_facilities_supplies_equipment_and_emergency_management.copy-1-of-scale</t>
-  </si>
-  <si>
-    <t>form.section_a_-_facilities_supplies_equipment_and_emergency_management.copy-2-of-facilities_supplies__equipment_-_equipment_storage_visually_inspect_the_sto</t>
-  </si>
-  <si>
-    <t>form.section_a_-_facilities_supplies_equipment_and_emergency_management.copy-2-of-scale</t>
-  </si>
-  <si>
-    <t>form.section_a_-_facilities_supplies_equipment_and_emergency_management.copy-3-of-facilities_supplies__equipment_-_equipment_storage_visually_inspect_the_sto</t>
-  </si>
-  <si>
-    <t>form.section_a_-_facilities_supplies_equipment_and_emergency_management.copy-3-of-scale</t>
-  </si>
-  <si>
-    <t>form.section_a_-_facilities_supplies_equipment_and_emergency_management.copy-4-of-facilities_supplies__equipment_-_equipment_storage_visually_inspect_the_sto</t>
-  </si>
-  <si>
-    <t>form.section_a_-_facilities_supplies_equipment_and_emergency_management.copy-4-of-scale</t>
-  </si>
-  <si>
-    <t>form.section_a_-_facilities_supplies_equipment_and_emergency_management.copy-5-of-facilities_supplies__equipment_-_equipment_storage_visually_inspect_the_sto</t>
-  </si>
-  <si>
-    <t>form.section_a_-_facilities_supplies_equipment_and_emergency_management.dentalDams</t>
-  </si>
-  <si>
-    <t>form.section_a_-_facilities_supplies_equipment_and_emergency_management.dispensingRecordsUptodate</t>
-  </si>
-  <si>
-    <t>form.section_a_-_facilities_supplies_equipment_and_emergency_management.disposal_of_non_reusable_instruments</t>
-  </si>
-  <si>
-    <t>form.section_a_-_facilities_supplies_equipment_and_emergency_management.documentationStatus</t>
-  </si>
-  <si>
-    <t>form.section_a_-_facilities_supplies_equipment_and_emergency_management.documentationofMedicationsDispensed</t>
-  </si>
-  <si>
-    <t>form.section_a_-_facilities_supplies_equipment_and_emergency_management.emergencyCart</t>
-  </si>
-  <si>
-    <t>form.section_a_-_facilities_supplies_equipment_and_emergency_management.emergencyCartStatus</t>
-  </si>
-  <si>
-    <t>form.section_a_-_facilities_supplies_equipment_and_emergency_management.emergencyCartYes</t>
-  </si>
-  <si>
-    <t>form.section_a_-_facilities_supplies_equipment_and_emergency_management.emergencyMaterialsinStock</t>
-  </si>
-  <si>
-    <t>form.section_a_-_facilities_supplies_equipment_and_emergency_management.emergencySuppliesStatus</t>
-  </si>
-  <si>
-    <t>form.section_a_-_facilities_supplies_equipment_and_emergency_management.emergency_management_-_adverse_event_prevention_and_management_vmmc_emergen</t>
-  </si>
-  <si>
-    <t>form.section_a_-_facilities_supplies_equipment_and_emergency_management.emergency_management_-_emergency_practices_and_procedures</t>
-  </si>
-  <si>
-    <t>form.section_a_-_facilities_supplies_equipment_and_emergency_management.emergency_management_-_guidelines_reports_procedures_medicines_and_training</t>
-  </si>
-  <si>
-    <t>form.section_a_-_facilities_supplies_equipment_and_emergency_management.examinationroomSpace</t>
-  </si>
-  <si>
-    <t>form.section_a_-_facilities_supplies_equipment_and_emergency_management.examinationroomTemperature</t>
-  </si>
-  <si>
-    <t>form.section_a_-_facilities_supplies_equipment_and_emergency_management.examionationroomLighting</t>
-  </si>
-  <si>
-    <t>form.section_a_-_facilities_supplies_equipment_and_emergency_management.facilities_supplies__equipment_-_equipment_storage_visually_inspect_the_sto</t>
-  </si>
-  <si>
-    <t>form.section_a_-_facilities_supplies_equipment_and_emergency_management.facilities_supplies__equipment_-_medication_dispensing</t>
-  </si>
-  <si>
-    <t>form.section_a_-_facilities_supplies_equipment_and_emergency_management.facilities_supplies__equipment_-_medicines</t>
-  </si>
-  <si>
-    <t>form.section_a_-_facilities_supplies_equipment_and_emergency_management.facilities_supplies__equipment_-_waste_management</t>
-  </si>
-  <si>
-    <t>form.section_a_-_facilities_supplies_equipment_and_emergency_management.fenced_lockable_waste_disposal_area</t>
-  </si>
-  <si>
-    <t>form.section_a_-_facilities_supplies_equipment_and_emergency_management.followuptoEmergencyYes</t>
-  </si>
-  <si>
-    <t>form.section_a_-_facilities_supplies_equipment_and_emergency_management.handDryingMaterial</t>
-  </si>
-  <si>
-    <t>form.section_a_-_facilities_supplies_equipment_and_emergency_management.highlyRecommendedItems</t>
-  </si>
-  <si>
-    <t>form.section_a_-_facilities_supplies_equipment_and_emergency_management.htsContainers</t>
-  </si>
-  <si>
-    <t>form.section_a_-_facilities_supplies_equipment_and_emergency_management.htsdisposableGloves</t>
-  </si>
-  <si>
-    <t>form.section_a_-_facilities_supplies_equipment_and_emergency_management.htsroomSanitationSupplies</t>
-  </si>
-  <si>
-    <t>form.section_a_-_facilities_supplies_equipment_and_emergency_management.incinerator</t>
-  </si>
-  <si>
-    <t>form.section_a_-_facilities_supplies_equipment_and_emergency_management.incineratorAutowayPit</t>
-  </si>
-  <si>
-    <t>form.section_a_-_facilities_supplies_equipment_and_emergency_management.incineratorPollutionControl</t>
-  </si>
-  <si>
-    <t>form.section_a_-_facilities_supplies_equipment_and_emergency_management.is_there_a_plan_for_monitoring_condom_supply</t>
-  </si>
-  <si>
-    <t>form.section_a_-_facilities_supplies_equipment_and_emergency_management.local_anesthetics__has_the_site_been_free_of_stock_outs_for_the_past_3_mont</t>
-  </si>
-  <si>
-    <t>form.section_a_-_facilities_supplies_equipment_and_emergency_management.loose_non_containerized</t>
-  </si>
-  <si>
-    <t>form.section_a_-_facilities_supplies_equipment_and_emergency_management.medicineStockouts</t>
-  </si>
-  <si>
-    <t>form.section_a_-_facilities_supplies_equipment_and_emergency_management.medicineStorage</t>
-  </si>
-  <si>
-    <t>form.section_a_-_facilities_supplies_equipment_and_emergency_management.medicinesDispensed</t>
-  </si>
-  <si>
-    <t>form.section_a_-_facilities_supplies_equipment_and_emergency_management.medicinesLabelling</t>
-  </si>
-  <si>
-    <t>form.section_a_-_facilities_supplies_equipment_and_emergency_management.medicinesOrganisation</t>
-  </si>
-  <si>
-    <t>form.section_a_-_facilities_supplies_equipment_and_emergency_management.medicinesSecureArea</t>
-  </si>
-  <si>
-    <t>form.section_a_-_facilities_supplies_equipment_and_emergency_management.medicinesShelflife</t>
-  </si>
-  <si>
-    <t>form.section_a_-_facilities_supplies_equipment_and_emergency_management.medicinesTemperature</t>
-  </si>
-  <si>
-    <t>form.section_a_-_facilities_supplies_equipment_and_emergency_management.non_burn_technology</t>
-  </si>
-  <si>
-    <t>form.section_a_-_facilities_supplies_equipment_and_emergency_management.operatingBeds</t>
-  </si>
-  <si>
-    <t>form.section_a_-_facilities_supplies_equipment_and_emergency_management.operatingTheatreSoap</t>
-  </si>
-  <si>
-    <t>form.section_a_-_facilities_supplies_equipment_and_emergency_management.operatingTheatreTemperature</t>
-  </si>
-  <si>
-    <t>form.section_a_-_facilities_supplies_equipment_and_emergency_management.operatingTheatreWater</t>
-  </si>
-  <si>
-    <t>form.section_a_-_facilities_supplies_equipment_and_emergency_management.oralAnalgesics</t>
-  </si>
-  <si>
-    <t>form.section_a_-_facilities_supplies_equipment_and_emergency_management.oralAnalgesicsStockOut</t>
-  </si>
-  <si>
-    <t>form.section_a_-_facilities_supplies_equipment_and_emergency_management.packsKitsAvailable</t>
-  </si>
-  <si>
-    <t>form.section_a_-_facilities_supplies_equipment_and_emergency_management.pediatricBloodPressure</t>
-  </si>
-  <si>
-    <t>form.section_a_-_facilities_supplies_equipment_and_emergency_management.pepMedicinesAvailability</t>
-  </si>
-  <si>
-    <t>form.section_a_-_facilities_supplies_equipment_and_emergency_management.procedureroomLighting</t>
-  </si>
-  <si>
-    <t>form.section_a_-_facilities_supplies_equipment_and_emergency_management.procedureroomSpace</t>
-  </si>
-  <si>
-    <t>form.section_a_-_facilities_supplies_equipment_and_emergency_management.question1</t>
-  </si>
-  <si>
-    <t>form.section_a_-_facilities_supplies_equipment_and_emergency_management.recoveryroomLighting</t>
-  </si>
-  <si>
-    <t>form.section_a_-_facilities_supplies_equipment_and_emergency_management.recoveryroomSpace</t>
-  </si>
-  <si>
-    <t>form.section_a_-_facilities_supplies_equipment_and_emergency_management.recoveryroomTemperature</t>
-  </si>
-  <si>
-    <t>form.section_a_-_facilities_supplies_equipment_and_emergency_management.scale</t>
-  </si>
-  <si>
-    <t>form.section_a_-_facilities_supplies_equipment_and_emergency_management.scaleonSite</t>
-  </si>
-  <si>
-    <t>form.section_a_-_facilities_supplies_equipment_and_emergency_management.siteCondoms</t>
-  </si>
-  <si>
-    <t>form.section_a_-_facilities_supplies_equipment_and_emergency_management.siteType</t>
-  </si>
-  <si>
-    <t>form.section_a_-_facilities_supplies_equipment_and_emergency_management.spaceCleaniness</t>
-  </si>
-  <si>
-    <t>form.section_a_-_facilities_supplies_equipment_and_emergency_management.staffKnowledgeonReportingStructure</t>
-  </si>
-  <si>
-    <t>form.section_a_-_facilities_supplies_equipment_and_emergency_management.staffPEPTimeframe</t>
-  </si>
-  <si>
-    <t>form.section_a_-_facilities_supplies_equipment_and_emergency_management.staffPEPeligibility</t>
-  </si>
-  <si>
-    <t>form.section_a_-_facilities_supplies_equipment_and_emergency_management.staffabletoExplainEmergencyProcedures</t>
-  </si>
-  <si>
-    <t>form.section_a_-_facilities_supplies_equipment_and_emergency_management.sterileKitsCleanArea</t>
-  </si>
-  <si>
-    <t>form.section_a_-_facilities_supplies_equipment_and_emergency_management.sterileKitsElevated</t>
-  </si>
-  <si>
-    <t>form.section_a_-_facilities_supplies_equipment_and_emergency_management.sterileKitsNotTouchingCeiling</t>
-  </si>
-  <si>
-    <t>form.section_a_-_facilities_supplies_equipment_and_emergency_management.sterileKitsNotTouchingWalls</t>
-  </si>
-  <si>
-    <t>form.section_a_-_facilities_supplies_equipment_and_emergency_management.stiMedicines</t>
-  </si>
-  <si>
-    <t>form.section_a_-_facilities_supplies_equipment_and_emergency_management.stiMedicinesStockOuts</t>
-  </si>
-  <si>
-    <t>form.section_a_-_facilities_supplies_equipment_and_emergency_management.stock-outRTKs</t>
-  </si>
-  <si>
-    <t>form.section_a_-_facilities_supplies_equipment_and_emergency_management.stock-outRTKstoPatientNotTested</t>
-  </si>
-  <si>
-    <t>form.section_a_-_facilities_supplies_equipment_and_emergency_management.storageforRTKs</t>
-  </si>
-  <si>
-    <t>form.section_a_-_facilities_supplies_equipment_and_emergency_management.sufficientReusableSupply</t>
-  </si>
-  <si>
-    <t>form.section_a_-_facilities_supplies_equipment_and_emergency_management.suppliesAvailable</t>
-  </si>
-  <si>
-    <t>form.section_a_-_facilities_supplies_equipment_and_emergency_management.temperatureHIVtestKits</t>
-  </si>
-  <si>
-    <t>form.section_a_-_facilities_supplies_equipment_and_emergency_management.trainingonAdrenaline</t>
-  </si>
-  <si>
-    <t>form.section_a_-_facilities_supplies_equipment_and_emergency_management.traininingEmergencyProcedures</t>
-  </si>
-  <si>
-    <t>form.section_a_-_facilities_supplies_equipment_and_emergency_management.vmmcOperatingRooms</t>
-  </si>
-  <si>
-    <t>form.section_a_-_facilities_supplies_equipment_and_emergency_management.waitingSpace</t>
-  </si>
-  <si>
-    <t>form.section_a_-_facilities_supplies_equipment_and_emergency_management.wasteContainers</t>
-  </si>
-  <si>
-    <t>form.section_a_-_facilities_supplies_equipment_and_emergency_management.wasteContainersAtBed</t>
-  </si>
-  <si>
-    <t>form.section_a_-_facilities_supplies_equipment_and_emergency_management.wasteManagementJobAids</t>
-  </si>
-  <si>
-    <t>form.section_a_-_facilities_supplies_equipment_and_emergency_management.wastesegregated</t>
-  </si>
-  <si>
-    <t>form.section_a_-_facilities_supplies_equipment_and_emergency_management.wastetemporaryStorage</t>
-  </si>
-  <si>
-    <t>form.section_a_-_facilities_supplies_equipment_and_emergency_management.writtenProtocolMedicalDispensing</t>
-  </si>
-  <si>
     <t>0778c330a59625e988e36d5a7d0386b6</t>
   </si>
   <si>
@@ -763,15 +763,15 @@
     <t>zdip-qa</t>
   </si>
   <si>
+    <t>98807d31-d0db-45b1-9ff3-17eb79b6cd00</t>
+  </si>
+  <si>
     <t>6ab6d219-3e7f-4b0b-a2a4-d4ff22855034</t>
   </si>
   <si>
     <t>ddbf5ec7-eb69-4bb7-96b4-67b41f0117ca</t>
   </si>
   <si>
-    <t>d8dca448-c048-4f8d-b3ec-8923d5c78f8a</t>
-  </si>
-  <si>
     <t>7a630bd4-1c3a-4b20-8268-5619a15c09cc</t>
   </si>
   <si>
@@ -781,15 +781,15 @@
     <t>408dfb08-390d-4935-b938-b630afac1449</t>
   </si>
   <si>
+    <t>2025-06-26T10:05:14.685813Z</t>
+  </si>
+  <si>
     <t>2025-06-26T09:32:15.633916Z</t>
   </si>
   <si>
     <t>2025-06-26T09:29:09.027914Z</t>
   </si>
   <si>
-    <t>2025-06-26T09:25:25.772765Z</t>
-  </si>
-  <si>
     <t>2025-06-25T08:51:07.007479Z</t>
   </si>
   <si>
@@ -799,15 +799,15 @@
     <t>2025-06-25T08:33:32.605234Z</t>
   </si>
   <si>
+    <t>2025-06-26T10:04:18.925141Z</t>
+  </si>
+  <si>
     <t>2025-06-26T09:31:57.212478Z</t>
   </si>
   <si>
     <t>2025-06-26T09:29:08.906919Z</t>
   </si>
   <si>
-    <t>2025-06-26T09:25:25.606279Z</t>
-  </si>
-  <si>
     <t>2025-06-25T08:50:44.784457Z</t>
   </si>
   <si>
@@ -817,15 +817,15 @@
     <t>2025-06-25T08:33:32.335474Z</t>
   </si>
   <si>
+    <t>2025-06-26T10:04:18.973219Z</t>
+  </si>
+  <si>
     <t>2025-06-26T09:31:57.248621Z</t>
   </si>
   <si>
     <t>2025-06-26T09:29:08.970354Z</t>
   </si>
   <si>
-    <t>2025-06-26T09:25:25.688858Z</t>
-  </si>
-  <si>
     <t>2025-06-25T08:50:44.811417Z</t>
   </si>
   <si>
@@ -856,15 +856,15 @@
     <t>text/xml</t>
   </si>
   <si>
+    <t>https://zdip.zimttech.org/a/zdip-qa/api/form_attachment/v1/98807d31-d0db-45b1-9ff3-17eb79b6cd00/form.xml</t>
+  </si>
+  <si>
     <t>https://zdip.zimttech.org/a/zdip-qa/api/form_attachment/v1/6ab6d219-3e7f-4b0b-a2a4-d4ff22855034/form.xml</t>
   </si>
   <si>
     <t>https://zdip.zimttech.org/a/zdip-qa/api/form_attachment/v1/ddbf5ec7-eb69-4bb7-96b4-67b41f0117ca/form.xml</t>
   </si>
   <si>
-    <t>https://zdip.zimttech.org/a/zdip-qa/api/form_attachment/v1/d8dca448-c048-4f8d-b3ec-8923d5c78f8a/form.xml</t>
-  </si>
-  <si>
     <t>https://zdip.zimttech.org/a/zdip-qa/api/form_attachment/v1/7a630bd4-1c3a-4b20-8268-5619a15c09cc/form.xml</t>
   </si>
   <si>
@@ -880,21 +880,162 @@
     <t>http://openrosa.org/formdesigner/72526D77-6087-4854-811D-97DBBA955075</t>
   </si>
   <si>
+    <t>qa</t>
+  </si>
+  <si>
     <t>dc</t>
   </si>
   <si>
     <t>m&amp;e</t>
   </si>
   <si>
-    <t>qa</t>
-  </si>
-  <si>
     <t>SSV</t>
   </si>
   <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t>http://openrosa.org/jr/xforms</t>
+  </si>
+  <si>
+    <t>CommCare Android, version "2.56.1"(471796). App v337. CommCare Version 2.56.1. Build 471796, built on: 2025-05-12</t>
+  </si>
+  <si>
+    <t>CommCare Android, version "2.56.1"(471796). App v333. CommCare Version 2.56.1. Build 471796, built on: 2025-05-12</t>
+  </si>
+  <si>
+    <t>2.56.1</t>
+  </si>
+  <si>
+    <t>commcare_dd89ac76-97fc-4469-a940-3e15381b55b0</t>
+  </si>
+  <si>
+    <t>2025-06-26T10:04:19.189000Z</t>
+  </si>
+  <si>
+    <t>2025-06-26T09:31:57.472000Z</t>
+  </si>
+  <si>
+    <t>2025-06-26T09:29:09.169000Z</t>
+  </si>
+  <si>
+    <t>2025-06-25T08:50:44.581000Z</t>
+  </si>
+  <si>
+    <t>2025-06-25T08:36:49.003000Z</t>
+  </si>
+  <si>
+    <t>2025-06-25T08:33:32.174000Z</t>
+  </si>
+  <si>
+    <t>2025-06-26T10:01:13.378000Z</t>
+  </si>
+  <si>
+    <t>2025-06-26T09:29:13.880000Z</t>
+  </si>
+  <si>
+    <t>2025-06-26T09:25:46.871000Z</t>
+  </si>
+  <si>
+    <t>2025-06-25T08:36:56.158000Z</t>
+  </si>
+  <si>
+    <t>2025-06-25T08:33:37.534000Z</t>
+  </si>
+  <si>
+    <t>2025-06-25T08:23:41.378000Z</t>
+  </si>
+  <si>
+    <t>148b582ced074b30a11c93abdad751e5</t>
+  </si>
+  <si>
+    <t>amutenha</t>
+  </si>
+  <si>
+    <t>MARONDERA</t>
+  </si>
+  <si>
+    <t>GOKWE SOUTH</t>
+  </si>
+  <si>
+    <t>Dombotombo</t>
+  </si>
+  <si>
+    <t>Gokwe South District Hospital</t>
+  </si>
+  <si>
+    <t>yes</t>
+  </si>
+  <si>
+    <t>Amoxycillin/clavulanic_acid Erythromycin</t>
+  </si>
+  <si>
+    <t>Amoxycillin/clavulanic_acid</t>
+  </si>
+  <si>
+    <t>Ceftriaxone Metronidazole</t>
+  </si>
+  <si>
+    <t>Ceftriaxone Doxycycline</t>
+  </si>
+  <si>
+    <t>Disposablegloves ReusableDorsalKits DisposableUniversal</t>
+  </si>
+  <si>
+    <t>Disposablegloves</t>
+  </si>
+  <si>
     <t>OK</t>
   </si>
   <si>
+    <t>no</t>
+  </si>
+  <si>
+    <t>stethoscope Sphygmomanometer</t>
+  </si>
+  <si>
+    <t>stethoscope Sphygmomanometer AdultBloodPressureCuff paediatric_cuff</t>
+  </si>
+  <si>
+    <t>glucometer</t>
+  </si>
+  <si>
+    <t>glucometer GlucometerStrips Pulse-oximeter</t>
+  </si>
+  <si>
+    <t>clean_running_water soap</t>
+  </si>
+  <si>
+    <t>clean_running_water soap disinfectant hand_sanitizer</t>
+  </si>
+  <si>
+    <t>Lignocaine Bupivacaine</t>
+  </si>
+  <si>
+    <t>amoxycillinclavulanic_acid erythromycin</t>
+  </si>
+  <si>
+    <t>amoxycillinclavulanic_acid</t>
+  </si>
+  <si>
+    <t>Ceftriaxone Metronidazole Doxycycline</t>
+  </si>
+  <si>
+    <t>Disposablegloves Syringes Lancets</t>
+  </si>
+  <si>
+    <t>Disposablegloves Syringes Lancets containers</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
     <t>door to door</t>
   </si>
   <si>
@@ -928,87 +1069,6 @@
     <t>ArtisanalMiners MenWhoGoToWork</t>
   </si>
   <si>
-    <t>0</t>
-  </si>
-  <si>
-    <t>7</t>
-  </si>
-  <si>
-    <t>http://openrosa.org/jr/xforms</t>
-  </si>
-  <si>
-    <t>CommCare Android, version "2.56.1"(471796). App v337. CommCare Version 2.56.1. Build 471796, built on: 2025-05-12</t>
-  </si>
-  <si>
-    <t>CommCare Android, version "2.56.1"(471796). App v333. CommCare Version 2.56.1. Build 471796, built on: 2025-05-12</t>
-  </si>
-  <si>
-    <t>2.56.1</t>
-  </si>
-  <si>
-    <t>commcare_dd89ac76-97fc-4469-a940-3e15381b55b0</t>
-  </si>
-  <si>
-    <t>2025-06-26T09:31:57.472000Z</t>
-  </si>
-  <si>
-    <t>2025-06-26T09:29:09.169000Z</t>
-  </si>
-  <si>
-    <t>2025-06-26T09:25:25.865000Z</t>
-  </si>
-  <si>
-    <t>2025-06-25T08:50:44.581000Z</t>
-  </si>
-  <si>
-    <t>2025-06-25T08:36:49.003000Z</t>
-  </si>
-  <si>
-    <t>2025-06-25T08:33:32.174000Z</t>
-  </si>
-  <si>
-    <t>2025-06-26T09:29:13.880000Z</t>
-  </si>
-  <si>
-    <t>2025-06-26T09:25:46.871000Z</t>
-  </si>
-  <si>
-    <t>2025-06-26T09:21:33.258000Z</t>
-  </si>
-  <si>
-    <t>2025-06-25T08:36:56.158000Z</t>
-  </si>
-  <si>
-    <t>2025-06-25T08:33:37.534000Z</t>
-  </si>
-  <si>
-    <t>2025-06-25T08:23:41.378000Z</t>
-  </si>
-  <si>
-    <t>148b582ced074b30a11c93abdad751e5</t>
-  </si>
-  <si>
-    <t>amutenha</t>
-  </si>
-  <si>
-    <t>MARONDERA</t>
-  </si>
-  <si>
-    <t>GOKWE SOUTH</t>
-  </si>
-  <si>
-    <t>Dombotombo</t>
-  </si>
-  <si>
-    <t>Dimbiti Rural Health Centre</t>
-  </si>
-  <si>
-    <t>Gokwe South District Hospital</t>
-  </si>
-  <si>
-    <t>yes</t>
-  </si>
-  <si>
     <t>done well</t>
   </si>
   <si>
@@ -1030,15 +1090,9 @@
     <t>Material available for use</t>
   </si>
   <si>
-    <t>3</t>
-  </si>
-  <si>
     <t>The session was well introduced</t>
   </si>
   <si>
-    <t>5</t>
-  </si>
-  <si>
     <t>[{'calculatedMonth': 'May', 'calculatedYear': '2024', 'calculated_month_numeric': '5', 'cifno': '12', 'copy-1-of-calculated_month_numeric': 'OK', 'copy-1-of-cifno': '12', 'current_iteration': '0', 'mrfmcs': '12', 'registermcs': '12', 'zazicmcs': '12'}, {'calculatedMonth': 'June', 'calculatedYear': '2024', 'calculated_month_numeric': '6', 'cifno': '13', 'copy-1-of-calculated_month_numeric': 'OK', 'copy-1-of-cifno': '13', 'current_iteration': '1', 'mrfmcs': '13', 'registermcs': '13', 'zazicmcs': '13'}, {'calculatedMonth': 'July', 'calculatedYear': '2024', 'calculated_month_numeric': '7', 'cifno': '5', 'copy-1-of-calculated_month_numeric': 'OK', 'copy-1-of-cifno': '5', 'current_iteration': '2', 'mrfmcs': '5', 'registermcs': '5', 'zazicmcs': '5'}]</t>
   </si>
   <si>
@@ -1052,60 +1106,6 @@
   </si>
   <si>
     <t>May</t>
-  </si>
-  <si>
-    <t>Amoxycillin/clavulanic_acid Erythromycin</t>
-  </si>
-  <si>
-    <t>Amoxycillin/clavulanic_acid</t>
-  </si>
-  <si>
-    <t>Ceftriaxone Doxycycline</t>
-  </si>
-  <si>
-    <t>Disposablegloves ReusableDorsalKits DisposableUniversal</t>
-  </si>
-  <si>
-    <t>Disposablegloves</t>
-  </si>
-  <si>
-    <t>no</t>
-  </si>
-  <si>
-    <t>stethoscope Sphygmomanometer AdultBloodPressureCuff</t>
-  </si>
-  <si>
-    <t>stethoscope Sphygmomanometer AdultBloodPressureCuff paediatric_cuff</t>
-  </si>
-  <si>
-    <t>glucometer</t>
-  </si>
-  <si>
-    <t>glucometer GlucometerStrips Pulse-oximeter</t>
-  </si>
-  <si>
-    <t>clean_running_water soap</t>
-  </si>
-  <si>
-    <t>clean_running_water soap disinfectant hand_sanitizer</t>
-  </si>
-  <si>
-    <t>Lignocaine Bupivacaine</t>
-  </si>
-  <si>
-    <t>amoxycillinclavulanic_acid erythromycin</t>
-  </si>
-  <si>
-    <t>amoxycillinclavulanic_acid</t>
-  </si>
-  <si>
-    <t>Ceftriaxone Metronidazole Doxycycline</t>
-  </si>
-  <si>
-    <t>Disposablegloves Syringes Lancets</t>
-  </si>
-  <si>
-    <t>Disposablegloves Syringes Lancets containers</t>
   </si>
 </sst>
 </file>
@@ -2269,7 +2269,7 @@
         <v>279</v>
       </c>
       <c r="U2">
-        <v>2946</v>
+        <v>8221</v>
       </c>
       <c r="V2" s="2" t="s">
         <v>280</v>
@@ -2298,164 +2298,413 @@
       <c r="AD2" t="s">
         <v>292</v>
       </c>
-      <c r="AE2" t="s">
-        <v>293</v>
+      <c r="AE2" s="2" t="s">
+        <v>294</v>
       </c>
       <c r="AF2" t="s">
         <v>295</v>
       </c>
-      <c r="AG2" t="s">
-        <v>294</v>
+      <c r="AG2">
+        <v>337</v>
+      </c>
+      <c r="AH2" t="s">
+        <v>297</v>
       </c>
       <c r="AI2" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="AJ2" t="s">
-        <v>297</v>
+        <v>292</v>
+      </c>
+      <c r="AL2" t="s">
+        <v>249</v>
       </c>
       <c r="AM2" t="s">
         <v>299</v>
       </c>
       <c r="AN2" t="s">
-        <v>300</v>
+        <v>305</v>
+      </c>
+      <c r="AO2" t="s">
+        <v>311</v>
       </c>
       <c r="AP2" t="s">
-        <v>303</v>
+        <v>312</v>
+      </c>
+      <c r="AQ2" t="s">
+        <v>313</v>
       </c>
       <c r="AR2" t="s">
+        <v>315</v>
+      </c>
+      <c r="AS2" t="s">
+        <v>317</v>
+      </c>
+      <c r="AT2" t="s">
+        <v>318</v>
+      </c>
+      <c r="AU2" t="s">
+        <v>320</v>
+      </c>
+      <c r="AV2" t="s">
+        <v>322</v>
+      </c>
+      <c r="AW2" t="s">
+        <v>317</v>
+      </c>
+      <c r="AX2" t="s">
+        <v>324</v>
+      </c>
+      <c r="AY2" t="s">
+        <v>317</v>
+      </c>
+      <c r="AZ2" t="s">
+        <v>317</v>
+      </c>
+      <c r="BA2" t="s">
+        <v>317</v>
+      </c>
+      <c r="BB2" t="s">
+        <v>317</v>
+      </c>
+      <c r="BC2" t="s">
+        <v>317</v>
+      </c>
+      <c r="BD2" t="s">
+        <v>317</v>
+      </c>
+      <c r="BE2" t="s">
+        <v>317</v>
+      </c>
+      <c r="BF2" t="s">
+        <v>317</v>
+      </c>
+      <c r="BG2" t="s">
+        <v>317</v>
+      </c>
+      <c r="BH2" t="s">
+        <v>324</v>
+      </c>
+      <c r="BI2" t="s">
+        <v>324</v>
+      </c>
+      <c r="BJ2" t="s">
+        <v>324</v>
+      </c>
+      <c r="BK2" t="s">
+        <v>324</v>
+      </c>
+      <c r="BL2" t="s">
+        <v>324</v>
+      </c>
+      <c r="BM2" t="s">
+        <v>324</v>
+      </c>
+      <c r="BN2" t="s">
+        <v>324</v>
+      </c>
+      <c r="BO2" t="s">
+        <v>324</v>
+      </c>
+      <c r="BP2" t="s">
+        <v>324</v>
+      </c>
+      <c r="BQ2" t="s">
+        <v>324</v>
+      </c>
+      <c r="BR2" t="s">
+        <v>317</v>
+      </c>
+      <c r="BS2" t="s">
+        <v>317</v>
+      </c>
+      <c r="BT2" t="s">
+        <v>317</v>
+      </c>
+      <c r="BU2" t="s">
+        <v>317</v>
+      </c>
+      <c r="BV2" t="s">
+        <v>317</v>
+      </c>
+      <c r="BW2" t="s">
+        <v>317</v>
+      </c>
+      <c r="BX2" t="s">
+        <v>317</v>
+      </c>
+      <c r="BY2" t="s">
+        <v>317</v>
+      </c>
+      <c r="BZ2" t="s">
+        <v>317</v>
+      </c>
+      <c r="CA2" t="s">
+        <v>326</v>
+      </c>
+      <c r="CB2" t="s">
+        <v>324</v>
+      </c>
+      <c r="CC2" t="s">
+        <v>324</v>
+      </c>
+      <c r="CD2" t="s">
+        <v>324</v>
+      </c>
+      <c r="CE2" t="s">
+        <v>317</v>
+      </c>
+      <c r="CF2" t="s">
+        <v>325</v>
+      </c>
+      <c r="CG2" t="s">
+        <v>317</v>
+      </c>
+      <c r="CH2" t="s">
+        <v>324</v>
+      </c>
+      <c r="CI2" t="s">
+        <v>324</v>
+      </c>
+      <c r="CJ2" t="s">
+        <v>324</v>
+      </c>
+      <c r="CK2" t="s">
+        <v>324</v>
+      </c>
+      <c r="CL2" t="s">
+        <v>317</v>
+      </c>
+      <c r="CM2" t="s">
+        <v>317</v>
+      </c>
+      <c r="CN2" t="s">
+        <v>317</v>
+      </c>
+      <c r="CO2" t="s">
+        <v>328</v>
+      </c>
+      <c r="CP2" t="s">
+        <v>317</v>
+      </c>
+      <c r="CQ2" t="s">
+        <v>317</v>
+      </c>
+      <c r="CR2" t="s">
+        <v>330</v>
+      </c>
+      <c r="CS2" t="s">
+        <v>317</v>
+      </c>
+      <c r="CT2" t="s">
+        <v>317</v>
+      </c>
+      <c r="CU2" t="s">
+        <v>317</v>
+      </c>
+      <c r="CV2" t="s">
+        <v>317</v>
+      </c>
+      <c r="CW2" t="s">
+        <v>332</v>
+      </c>
+      <c r="CX2" t="s">
+        <v>317</v>
+      </c>
+      <c r="CY2" t="s">
+        <v>333</v>
+      </c>
+      <c r="CZ2" t="s">
+        <v>317</v>
+      </c>
+      <c r="DA2" t="s">
+        <v>317</v>
+      </c>
+      <c r="DB2" t="s">
+        <v>317</v>
+      </c>
+      <c r="DC2" t="s">
+        <v>317</v>
+      </c>
+      <c r="DD2" t="s">
+        <v>325</v>
+      </c>
+      <c r="DE2" t="s">
+        <v>317</v>
+      </c>
+      <c r="DF2" t="s">
+        <v>317</v>
+      </c>
+      <c r="DG2" t="s">
+        <v>317</v>
+      </c>
+      <c r="DH2" t="s">
+        <v>317</v>
+      </c>
+      <c r="DI2" t="s">
+        <v>317</v>
+      </c>
+      <c r="DJ2" t="s">
+        <v>317</v>
+      </c>
+      <c r="DK2" t="s">
+        <v>317</v>
+      </c>
+      <c r="DL2" t="s">
+        <v>317</v>
+      </c>
+      <c r="DM2" t="s">
+        <v>317</v>
+      </c>
+      <c r="DN2" t="s">
+        <v>317</v>
+      </c>
+      <c r="DO2" t="s">
+        <v>317</v>
+      </c>
+      <c r="DP2" t="s">
+        <v>317</v>
+      </c>
+      <c r="DQ2" t="s">
+        <v>317</v>
+      </c>
+      <c r="DR2" t="s">
+        <v>317</v>
+      </c>
+      <c r="DS2" t="s">
+        <v>324</v>
+      </c>
+      <c r="DT2" t="s">
+        <v>317</v>
+      </c>
+      <c r="DU2" t="s">
+        <v>317</v>
+      </c>
+      <c r="DV2" t="s">
+        <v>317</v>
+      </c>
+      <c r="DW2" t="s">
+        <v>324</v>
+      </c>
+      <c r="DX2" t="s">
+        <v>317</v>
+      </c>
+      <c r="DY2" t="s">
+        <v>317</v>
+      </c>
+      <c r="DZ2" t="s">
+        <v>317</v>
+      </c>
+      <c r="EA2" t="s">
+        <v>325</v>
+      </c>
+      <c r="EB2" t="s">
+        <v>317</v>
+      </c>
+      <c r="EC2" t="s">
+        <v>317</v>
+      </c>
+      <c r="ED2" t="s">
+        <v>317</v>
+      </c>
+      <c r="EE2" t="s">
+        <v>317</v>
+      </c>
+      <c r="EF2" t="s">
+        <v>317</v>
+      </c>
+      <c r="EG2" t="s">
+        <v>317</v>
+      </c>
+      <c r="EH2" t="s">
+        <v>317</v>
+      </c>
+      <c r="EI2" t="s">
+        <v>317</v>
+      </c>
+      <c r="EJ2" t="s">
+        <v>317</v>
+      </c>
+      <c r="EL2" t="s">
+        <v>317</v>
+      </c>
+      <c r="EM2" t="s">
+        <v>317</v>
+      </c>
+      <c r="EN2" t="s">
+        <v>317</v>
+      </c>
+      <c r="EO2" t="s">
+        <v>317</v>
+      </c>
+      <c r="EP2" t="s">
+        <v>336</v>
+      </c>
+      <c r="EQ2" t="s">
+        <v>317</v>
+      </c>
+      <c r="ER2" t="s">
+        <v>317</v>
+      </c>
+      <c r="ES2" t="s">
+        <v>317</v>
+      </c>
+      <c r="ET2" t="s">
+        <v>317</v>
+      </c>
+      <c r="EU2" t="s">
+        <v>317</v>
+      </c>
+      <c r="EV2" t="s">
+        <v>317</v>
+      </c>
+      <c r="EW2" t="s">
+        <v>317</v>
+      </c>
+      <c r="EX2" t="s">
+        <v>317</v>
+      </c>
+      <c r="EY2" t="s">
+        <v>317</v>
+      </c>
+      <c r="EZ2" t="s">
+        <v>317</v>
+      </c>
+      <c r="FA2" t="s">
+        <v>317</v>
+      </c>
+      <c r="FB2" t="s">
         <v>292</v>
       </c>
-      <c r="AS2" t="s">
+      <c r="FD2" t="s">
+        <v>295</v>
+      </c>
+      <c r="FE2">
+        <v>337</v>
+      </c>
+      <c r="FF2" t="s">
+        <v>297</v>
+      </c>
+      <c r="FG2" t="s">
+        <v>298</v>
+      </c>
+      <c r="FH2" t="s">
         <v>292</v>
       </c>
-      <c r="AT2" t="s">
-        <v>304</v>
-      </c>
-      <c r="AU2" s="2" t="s">
-        <v>306</v>
-      </c>
-      <c r="AV2" t="s">
-        <v>307</v>
-      </c>
-      <c r="AW2">
-        <v>337</v>
-      </c>
-      <c r="AX2" t="s">
-        <v>309</v>
-      </c>
-      <c r="AY2" t="s">
-        <v>310</v>
-      </c>
-      <c r="AZ2" t="s">
-        <v>304</v>
-      </c>
-      <c r="BB2" t="s">
+      <c r="FJ2" t="s">
         <v>249</v>
       </c>
-      <c r="BC2" t="s">
+      <c r="FL2" t="s">
+        <v>299</v>
+      </c>
+      <c r="FM2" t="s">
+        <v>305</v>
+      </c>
+      <c r="FN2" t="s">
         <v>311</v>
       </c>
-      <c r="BD2" t="s">
-        <v>317</v>
-      </c>
-      <c r="BE2" t="s">
-        <v>323</v>
-      </c>
-      <c r="BF2" t="s">
-        <v>324</v>
-      </c>
-      <c r="BG2" t="s">
-        <v>325</v>
-      </c>
-      <c r="BH2" t="s">
-        <v>327</v>
-      </c>
-      <c r="BI2" t="s">
-        <v>330</v>
-      </c>
-      <c r="BK2" t="s">
-        <v>330</v>
-      </c>
-      <c r="BM2" t="s">
-        <v>332</v>
-      </c>
-      <c r="BN2" t="s">
-        <v>330</v>
-      </c>
-      <c r="BP2" t="s">
-        <v>330</v>
-      </c>
-      <c r="BR2" t="s">
-        <v>330</v>
-      </c>
-      <c r="BT2" t="s">
-        <v>330</v>
-      </c>
-      <c r="BU2" t="s">
-        <v>292</v>
-      </c>
-      <c r="BV2" t="s">
-        <v>330</v>
-      </c>
-      <c r="BW2" t="s">
-        <v>337</v>
-      </c>
-      <c r="BX2" t="s">
-        <v>338</v>
-      </c>
-      <c r="BY2" t="s">
-        <v>330</v>
-      </c>
-      <c r="CA2" t="s">
-        <v>292</v>
-      </c>
-      <c r="CB2" t="s">
-        <v>330</v>
-      </c>
-      <c r="CC2" t="s">
-        <v>292</v>
-      </c>
-      <c r="CD2" t="s">
-        <v>330</v>
-      </c>
-      <c r="CF2" t="s">
-        <v>292</v>
-      </c>
-      <c r="CG2" t="s">
-        <v>330</v>
-      </c>
-      <c r="CI2" t="s">
-        <v>304</v>
-      </c>
-      <c r="CK2" t="s">
-        <v>307</v>
-      </c>
-      <c r="CL2">
-        <v>337</v>
-      </c>
-      <c r="CM2" t="s">
-        <v>309</v>
-      </c>
-      <c r="CN2" t="s">
-        <v>310</v>
-      </c>
-      <c r="CO2" t="s">
-        <v>304</v>
-      </c>
-      <c r="CQ2" t="s">
-        <v>249</v>
-      </c>
-      <c r="CS2" t="s">
-        <v>311</v>
-      </c>
-      <c r="CT2" t="s">
-        <v>317</v>
-      </c>
-      <c r="CU2" t="s">
-        <v>323</v>
-      </c>
-      <c r="CV2" t="s">
-        <v>324</v>
+      <c r="FO2" t="s">
+        <v>312</v>
       </c>
     </row>
     <row r="3" spans="1:246">
@@ -2508,7 +2757,7 @@
         <v>279</v>
       </c>
       <c r="U3">
-        <v>4581</v>
+        <v>2946</v>
       </c>
       <c r="V3" s="2" t="s">
         <v>281</v>
@@ -2534,182 +2783,167 @@
       <c r="AC3" t="s">
         <v>291</v>
       </c>
-      <c r="AT3" t="s">
-        <v>305</v>
-      </c>
-      <c r="AU3" s="2" t="s">
+      <c r="AD3" t="s">
+        <v>292</v>
+      </c>
+      <c r="AE3" s="2" t="s">
+        <v>294</v>
+      </c>
+      <c r="AF3" t="s">
+        <v>295</v>
+      </c>
+      <c r="AG3">
+        <v>337</v>
+      </c>
+      <c r="AH3" t="s">
+        <v>297</v>
+      </c>
+      <c r="AI3" t="s">
+        <v>298</v>
+      </c>
+      <c r="AJ3" t="s">
+        <v>292</v>
+      </c>
+      <c r="AL3" t="s">
+        <v>250</v>
+      </c>
+      <c r="AM3" t="s">
+        <v>300</v>
+      </c>
+      <c r="AN3" t="s">
         <v>306</v>
       </c>
-      <c r="AV3" t="s">
-        <v>307</v>
-      </c>
-      <c r="AW3">
+      <c r="AO3" t="s">
+        <v>311</v>
+      </c>
+      <c r="AP3" t="s">
+        <v>312</v>
+      </c>
+      <c r="AQ3" t="s">
+        <v>313</v>
+      </c>
+      <c r="AR3" t="s">
+        <v>315</v>
+      </c>
+      <c r="FB3" t="s">
+        <v>292</v>
+      </c>
+      <c r="FD3" t="s">
+        <v>295</v>
+      </c>
+      <c r="FE3">
         <v>337</v>
       </c>
-      <c r="AX3" t="s">
-        <v>309</v>
-      </c>
-      <c r="AY3" t="s">
-        <v>310</v>
-      </c>
-      <c r="AZ3" t="s">
-        <v>304</v>
-      </c>
-      <c r="BB3" t="s">
+      <c r="FF3" t="s">
+        <v>297</v>
+      </c>
+      <c r="FG3" t="s">
+        <v>298</v>
+      </c>
+      <c r="FH3" t="s">
+        <v>292</v>
+      </c>
+      <c r="FJ3" t="s">
         <v>250</v>
       </c>
-      <c r="BC3" t="s">
+      <c r="FL3" t="s">
+        <v>300</v>
+      </c>
+      <c r="FM3" t="s">
+        <v>306</v>
+      </c>
+      <c r="FN3" t="s">
+        <v>311</v>
+      </c>
+      <c r="FO3" t="s">
         <v>312</v>
       </c>
-      <c r="BD3" t="s">
-        <v>318</v>
-      </c>
-      <c r="BE3" t="s">
-        <v>323</v>
-      </c>
-      <c r="BF3" t="s">
-        <v>324</v>
-      </c>
-      <c r="BG3" t="s">
-        <v>325</v>
-      </c>
-      <c r="BH3" t="s">
-        <v>327</v>
-      </c>
-      <c r="CI3" t="s">
+      <c r="FP3" t="s">
+        <v>324</v>
+      </c>
+      <c r="FQ3" t="s">
         <v>340</v>
       </c>
-      <c r="CJ3" t="s">
-        <v>338</v>
-      </c>
-      <c r="CK3" t="s">
-        <v>307</v>
-      </c>
-      <c r="CL3">
-        <v>337</v>
-      </c>
-      <c r="CM3" t="s">
-        <v>309</v>
-      </c>
-      <c r="CN3" t="s">
-        <v>310</v>
-      </c>
-      <c r="CO3" t="s">
-        <v>304</v>
-      </c>
-      <c r="CQ3" t="s">
-        <v>250</v>
-      </c>
-      <c r="CS3" t="s">
-        <v>312</v>
-      </c>
-      <c r="CT3" t="s">
-        <v>318</v>
-      </c>
-      <c r="CU3" t="s">
-        <v>323</v>
-      </c>
-      <c r="CV3" t="s">
-        <v>324</v>
-      </c>
-      <c r="CW3" t="s">
-        <v>292</v>
-      </c>
-      <c r="CX3" t="s">
-        <v>292</v>
-      </c>
-      <c r="CY3" t="s">
-        <v>292</v>
-      </c>
-      <c r="CZ3" t="s">
-        <v>292</v>
-      </c>
-      <c r="DA3" t="s">
-        <v>292</v>
-      </c>
-      <c r="DB3" t="s">
-        <v>292</v>
-      </c>
-      <c r="DC3" t="s">
-        <v>292</v>
-      </c>
-      <c r="DD3" t="s">
-        <v>292</v>
-      </c>
-      <c r="DE3" t="s">
-        <v>292</v>
-      </c>
-      <c r="DF3" t="s">
-        <v>330</v>
-      </c>
-      <c r="DG3" t="s">
-        <v>330</v>
-      </c>
-      <c r="DH3" t="s">
-        <v>330</v>
-      </c>
-      <c r="DI3" t="s">
-        <v>330</v>
-      </c>
-      <c r="DJ3" t="s">
-        <v>330</v>
-      </c>
-      <c r="DK3" t="s">
-        <v>330</v>
-      </c>
-      <c r="DL3" t="s">
-        <v>330</v>
-      </c>
-      <c r="DM3" t="s">
-        <v>330</v>
-      </c>
-      <c r="DN3" t="s">
-        <v>330</v>
-      </c>
-      <c r="DO3" t="s">
-        <v>330</v>
-      </c>
-      <c r="DP3" t="s">
-        <v>330</v>
-      </c>
-      <c r="DQ3" t="s">
-        <v>330</v>
-      </c>
-      <c r="DR3" t="s">
-        <v>330</v>
-      </c>
-      <c r="DS3" t="s">
-        <v>330</v>
-      </c>
-      <c r="DT3" t="s">
-        <v>330</v>
-      </c>
-      <c r="DU3" t="s">
-        <v>330</v>
-      </c>
-      <c r="DV3" t="s">
-        <v>330</v>
-      </c>
-      <c r="DW3" t="s">
-        <v>330</v>
-      </c>
-      <c r="DX3" t="s">
-        <v>292</v>
-      </c>
-      <c r="DY3" t="s">
+      <c r="FR3" t="s">
+        <v>342</v>
+      </c>
+      <c r="FS3" t="s">
         <v>341</v>
       </c>
-      <c r="DZ3" t="s">
+      <c r="FU3" t="s">
         <v>343</v>
       </c>
-      <c r="EA3" t="s">
+      <c r="FV3" t="s">
         <v>344</v>
       </c>
-      <c r="EB3" t="s">
-        <v>345</v>
-      </c>
-      <c r="EC3" t="s">
-        <v>344</v>
+      <c r="FY3" t="s">
+        <v>346</v>
+      </c>
+      <c r="FZ3" t="s">
+        <v>347</v>
+      </c>
+      <c r="GB3" t="s">
+        <v>350</v>
+      </c>
+      <c r="GD3" t="s">
+        <v>324</v>
+      </c>
+      <c r="GE3" t="s">
+        <v>324</v>
+      </c>
+      <c r="GF3" t="s">
+        <v>317</v>
+      </c>
+      <c r="GH3" t="s">
+        <v>317</v>
+      </c>
+      <c r="GJ3" t="s">
+        <v>352</v>
+      </c>
+      <c r="GK3" t="s">
+        <v>317</v>
+      </c>
+      <c r="GM3" t="s">
+        <v>317</v>
+      </c>
+      <c r="GO3" t="s">
+        <v>317</v>
+      </c>
+      <c r="GQ3" t="s">
+        <v>317</v>
+      </c>
+      <c r="GR3" t="s">
+        <v>324</v>
+      </c>
+      <c r="GS3" t="s">
+        <v>317</v>
+      </c>
+      <c r="GT3" t="s">
+        <v>357</v>
+      </c>
+      <c r="GU3" t="s">
+        <v>339</v>
+      </c>
+      <c r="GV3" t="s">
+        <v>317</v>
+      </c>
+      <c r="GX3" t="s">
+        <v>324</v>
+      </c>
+      <c r="GY3" t="s">
+        <v>317</v>
+      </c>
+      <c r="GZ3" t="s">
+        <v>324</v>
+      </c>
+      <c r="HA3" t="s">
+        <v>317</v>
+      </c>
+      <c r="HC3" t="s">
+        <v>324</v>
+      </c>
+      <c r="HD3" t="s">
+        <v>317</v>
       </c>
     </row>
     <row r="4" spans="1:246">
@@ -2762,7 +2996,7 @@
         <v>279</v>
       </c>
       <c r="U4">
-        <v>8184</v>
+        <v>4581</v>
       </c>
       <c r="V4" s="2" t="s">
         <v>282</v>
@@ -2788,410 +3022,182 @@
       <c r="AC4" t="s">
         <v>291</v>
       </c>
-      <c r="AT4" t="s">
-        <v>304</v>
-      </c>
-      <c r="AU4" s="2" t="s">
-        <v>306</v>
-      </c>
-      <c r="AV4" t="s">
+      <c r="AD4" t="s">
+        <v>293</v>
+      </c>
+      <c r="AE4" s="2" t="s">
+        <v>294</v>
+      </c>
+      <c r="AF4" t="s">
+        <v>295</v>
+      </c>
+      <c r="AG4">
+        <v>337</v>
+      </c>
+      <c r="AH4" t="s">
+        <v>297</v>
+      </c>
+      <c r="AI4" t="s">
+        <v>298</v>
+      </c>
+      <c r="AJ4" t="s">
+        <v>292</v>
+      </c>
+      <c r="AL4" t="s">
+        <v>251</v>
+      </c>
+      <c r="AM4" t="s">
+        <v>301</v>
+      </c>
+      <c r="AN4" t="s">
         <v>307</v>
       </c>
-      <c r="AW4">
+      <c r="AO4" t="s">
+        <v>311</v>
+      </c>
+      <c r="AP4" t="s">
+        <v>312</v>
+      </c>
+      <c r="AQ4" t="s">
+        <v>313</v>
+      </c>
+      <c r="AR4" t="s">
+        <v>315</v>
+      </c>
+      <c r="FB4" t="s">
+        <v>338</v>
+      </c>
+      <c r="FC4" t="s">
+        <v>339</v>
+      </c>
+      <c r="FD4" t="s">
+        <v>295</v>
+      </c>
+      <c r="FE4">
         <v>337</v>
       </c>
-      <c r="AX4" t="s">
-        <v>309</v>
-      </c>
-      <c r="AY4" t="s">
-        <v>310</v>
-      </c>
-      <c r="AZ4" t="s">
-        <v>304</v>
-      </c>
-      <c r="BB4" t="s">
+      <c r="FF4" t="s">
+        <v>297</v>
+      </c>
+      <c r="FG4" t="s">
+        <v>298</v>
+      </c>
+      <c r="FH4" t="s">
+        <v>292</v>
+      </c>
+      <c r="FJ4" t="s">
         <v>251</v>
       </c>
-      <c r="BC4" t="s">
-        <v>313</v>
-      </c>
-      <c r="BD4" t="s">
-        <v>319</v>
-      </c>
-      <c r="BE4" t="s">
-        <v>323</v>
-      </c>
-      <c r="BF4" t="s">
-        <v>324</v>
-      </c>
-      <c r="BG4" t="s">
-        <v>325</v>
-      </c>
-      <c r="BH4" t="s">
-        <v>328</v>
-      </c>
-      <c r="CI4" t="s">
-        <v>304</v>
-      </c>
-      <c r="CK4" t="s">
+      <c r="FL4" t="s">
+        <v>301</v>
+      </c>
+      <c r="FM4" t="s">
         <v>307</v>
       </c>
-      <c r="CL4">
-        <v>337</v>
-      </c>
-      <c r="CM4" t="s">
-        <v>309</v>
-      </c>
-      <c r="CN4" t="s">
-        <v>310</v>
-      </c>
-      <c r="CO4" t="s">
-        <v>304</v>
-      </c>
-      <c r="CQ4" t="s">
-        <v>251</v>
-      </c>
-      <c r="CS4" t="s">
-        <v>313</v>
-      </c>
-      <c r="CT4" t="s">
-        <v>319</v>
-      </c>
-      <c r="CU4" t="s">
-        <v>323</v>
-      </c>
-      <c r="CV4" t="s">
-        <v>324</v>
-      </c>
-      <c r="ED4" t="s">
-        <v>330</v>
-      </c>
-      <c r="EE4" t="s">
-        <v>346</v>
-      </c>
-      <c r="EG4" t="s">
-        <v>349</v>
-      </c>
-      <c r="EH4" t="s">
-        <v>351</v>
-      </c>
-      <c r="EI4" t="s">
-        <v>292</v>
-      </c>
-      <c r="EJ4" t="s">
-        <v>330</v>
-      </c>
-      <c r="EK4" t="s">
-        <v>330</v>
-      </c>
-      <c r="EL4" t="s">
-        <v>330</v>
-      </c>
-      <c r="EM4" t="s">
-        <v>330</v>
-      </c>
-      <c r="EN4" t="s">
-        <v>330</v>
-      </c>
-      <c r="EO4" t="s">
-        <v>330</v>
-      </c>
-      <c r="EP4" t="s">
-        <v>330</v>
-      </c>
-      <c r="EQ4" t="s">
-        <v>330</v>
-      </c>
-      <c r="ER4" t="s">
-        <v>330</v>
-      </c>
-      <c r="ES4" t="s">
-        <v>292</v>
-      </c>
-      <c r="ET4" t="s">
-        <v>292</v>
-      </c>
-      <c r="EU4" t="s">
-        <v>292</v>
-      </c>
-      <c r="EV4" t="s">
-        <v>292</v>
-      </c>
-      <c r="EW4" t="s">
-        <v>292</v>
-      </c>
-      <c r="EX4" t="s">
-        <v>292</v>
-      </c>
-      <c r="EY4" t="s">
-        <v>292</v>
-      </c>
-      <c r="EZ4" t="s">
-        <v>292</v>
-      </c>
-      <c r="FA4" t="s">
-        <v>292</v>
-      </c>
-      <c r="FB4" t="s">
-        <v>292</v>
-      </c>
-      <c r="FC4" t="s">
-        <v>330</v>
-      </c>
-      <c r="FD4" t="s">
-        <v>330</v>
-      </c>
-      <c r="FE4" t="s">
-        <v>330</v>
-      </c>
-      <c r="FF4" t="s">
-        <v>330</v>
-      </c>
-      <c r="FG4" t="s">
-        <v>330</v>
-      </c>
-      <c r="FH4" t="s">
-        <v>330</v>
-      </c>
-      <c r="FI4" t="s">
-        <v>330</v>
-      </c>
-      <c r="FJ4" t="s">
-        <v>330</v>
-      </c>
-      <c r="FK4" t="s">
-        <v>330</v>
-      </c>
-      <c r="FL4" t="s">
-        <v>352</v>
-      </c>
-      <c r="FM4" t="s">
-        <v>292</v>
-      </c>
       <c r="FN4" t="s">
-        <v>292</v>
+        <v>311</v>
       </c>
       <c r="FO4" t="s">
-        <v>292</v>
-      </c>
-      <c r="FP4" t="s">
-        <v>330</v>
-      </c>
-      <c r="FQ4" t="s">
-        <v>330</v>
-      </c>
-      <c r="FR4" t="s">
-        <v>330</v>
-      </c>
-      <c r="FS4" t="s">
-        <v>292</v>
-      </c>
-      <c r="FT4" t="s">
-        <v>292</v>
-      </c>
-      <c r="FU4" t="s">
-        <v>292</v>
-      </c>
-      <c r="FV4" t="s">
-        <v>292</v>
-      </c>
-      <c r="FW4" t="s">
-        <v>330</v>
-      </c>
-      <c r="FX4" t="s">
-        <v>330</v>
-      </c>
-      <c r="FY4" t="s">
-        <v>330</v>
-      </c>
-      <c r="FZ4" t="s">
-        <v>354</v>
-      </c>
-      <c r="GA4" t="s">
-        <v>330</v>
-      </c>
-      <c r="GB4" t="s">
-        <v>330</v>
-      </c>
-      <c r="GC4" t="s">
-        <v>356</v>
-      </c>
-      <c r="GD4" t="s">
-        <v>330</v>
-      </c>
-      <c r="GE4" t="s">
-        <v>330</v>
-      </c>
-      <c r="GF4" t="s">
-        <v>330</v>
-      </c>
-      <c r="GG4" t="s">
-        <v>330</v>
-      </c>
-      <c r="GH4" t="s">
-        <v>358</v>
-      </c>
-      <c r="GI4" t="s">
-        <v>330</v>
-      </c>
-      <c r="GJ4" t="s">
+        <v>312</v>
+      </c>
+      <c r="HF4" t="s">
+        <v>324</v>
+      </c>
+      <c r="HG4" t="s">
+        <v>324</v>
+      </c>
+      <c r="HH4" t="s">
+        <v>324</v>
+      </c>
+      <c r="HI4" t="s">
+        <v>324</v>
+      </c>
+      <c r="HJ4" t="s">
+        <v>324</v>
+      </c>
+      <c r="HK4" t="s">
+        <v>324</v>
+      </c>
+      <c r="HL4" t="s">
+        <v>324</v>
+      </c>
+      <c r="HM4" t="s">
+        <v>324</v>
+      </c>
+      <c r="HN4" t="s">
+        <v>324</v>
+      </c>
+      <c r="HO4" t="s">
+        <v>317</v>
+      </c>
+      <c r="HP4" t="s">
+        <v>317</v>
+      </c>
+      <c r="HQ4" t="s">
+        <v>317</v>
+      </c>
+      <c r="HR4" t="s">
+        <v>317</v>
+      </c>
+      <c r="HS4" t="s">
+        <v>317</v>
+      </c>
+      <c r="HT4" t="s">
+        <v>317</v>
+      </c>
+      <c r="HU4" t="s">
+        <v>317</v>
+      </c>
+      <c r="HV4" t="s">
+        <v>317</v>
+      </c>
+      <c r="HW4" t="s">
+        <v>317</v>
+      </c>
+      <c r="HX4" t="s">
+        <v>317</v>
+      </c>
+      <c r="HY4" t="s">
+        <v>317</v>
+      </c>
+      <c r="HZ4" t="s">
+        <v>317</v>
+      </c>
+      <c r="IA4" t="s">
+        <v>317</v>
+      </c>
+      <c r="IB4" t="s">
+        <v>317</v>
+      </c>
+      <c r="IC4" t="s">
+        <v>317</v>
+      </c>
+      <c r="ID4" t="s">
+        <v>317</v>
+      </c>
+      <c r="IE4" t="s">
+        <v>317</v>
+      </c>
+      <c r="IF4" t="s">
+        <v>317</v>
+      </c>
+      <c r="IG4" t="s">
+        <v>324</v>
+      </c>
+      <c r="IH4" t="s">
         <v>359</v>
       </c>
-      <c r="GK4" t="s">
-        <v>330</v>
-      </c>
-      <c r="GL4" t="s">
-        <v>330</v>
-      </c>
-      <c r="GM4" t="s">
-        <v>330</v>
-      </c>
-      <c r="GN4" t="s">
-        <v>330</v>
-      </c>
-      <c r="GO4" t="s">
-        <v>330</v>
-      </c>
-      <c r="GP4" t="s">
-        <v>330</v>
-      </c>
-      <c r="GQ4" t="s">
-        <v>330</v>
-      </c>
-      <c r="GR4" t="s">
-        <v>330</v>
-      </c>
-      <c r="GS4" t="s">
-        <v>330</v>
-      </c>
-      <c r="GT4" t="s">
-        <v>330</v>
-      </c>
-      <c r="GU4" t="s">
-        <v>330</v>
-      </c>
-      <c r="GV4" t="s">
-        <v>330</v>
-      </c>
-      <c r="GW4" t="s">
-        <v>330</v>
-      </c>
-      <c r="GX4" t="s">
-        <v>330</v>
-      </c>
-      <c r="GY4" t="s">
-        <v>330</v>
-      </c>
-      <c r="GZ4" t="s">
-        <v>330</v>
-      </c>
-      <c r="HA4" t="s">
-        <v>330</v>
-      </c>
-      <c r="HB4" t="s">
-        <v>330</v>
-      </c>
-      <c r="HC4" t="s">
-        <v>330</v>
-      </c>
-      <c r="HD4" t="s">
-        <v>292</v>
-      </c>
-      <c r="HE4" t="s">
-        <v>330</v>
-      </c>
-      <c r="HF4" t="s">
-        <v>330</v>
-      </c>
-      <c r="HG4" t="s">
-        <v>330</v>
-      </c>
-      <c r="HH4" t="s">
-        <v>292</v>
-      </c>
-      <c r="HI4" t="s">
-        <v>351</v>
-      </c>
-      <c r="HJ4" t="s">
-        <v>330</v>
-      </c>
-      <c r="HK4" t="s">
-        <v>351</v>
-      </c>
-      <c r="HL4" t="s">
-        <v>351</v>
-      </c>
-      <c r="HM4" t="s">
-        <v>330</v>
-      </c>
-      <c r="HN4" t="s">
-        <v>330</v>
-      </c>
-      <c r="HO4" t="s">
-        <v>330</v>
-      </c>
-      <c r="HP4" t="s">
-        <v>330</v>
-      </c>
-      <c r="HQ4" t="s">
-        <v>330</v>
-      </c>
-      <c r="HR4" t="s">
-        <v>330</v>
-      </c>
-      <c r="HS4" t="s">
-        <v>330</v>
-      </c>
-      <c r="HT4" t="s">
-        <v>330</v>
-      </c>
-      <c r="HU4" t="s">
-        <v>330</v>
-      </c>
-      <c r="HW4" t="s">
-        <v>330</v>
-      </c>
-      <c r="HY4" t="s">
-        <v>330</v>
-      </c>
-      <c r="HZ4" t="s">
-        <v>330</v>
-      </c>
-      <c r="IA4" t="s">
+      <c r="II4" t="s">
+        <v>361</v>
+      </c>
+      <c r="IJ4" t="s">
         <v>362</v>
       </c>
-      <c r="IB4" t="s">
-        <v>330</v>
-      </c>
-      <c r="IC4" t="s">
-        <v>330</v>
-      </c>
-      <c r="ID4" t="s">
-        <v>330</v>
-      </c>
-      <c r="IE4" t="s">
-        <v>330</v>
-      </c>
-      <c r="IF4" t="s">
-        <v>351</v>
-      </c>
-      <c r="IG4" t="s">
-        <v>330</v>
-      </c>
-      <c r="IH4" t="s">
-        <v>330</v>
-      </c>
-      <c r="II4" t="s">
-        <v>330</v>
-      </c>
-      <c r="IJ4" t="s">
-        <v>330</v>
-      </c>
       <c r="IK4" t="s">
-        <v>330</v>
+        <v>363</v>
       </c>
       <c r="IL4" t="s">
-        <v>330</v>
+        <v>362</v>
       </c>
     </row>
     <row r="5" spans="1:246">
@@ -3265,187 +3271,187 @@
         <v>287</v>
       </c>
       <c r="AB5" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="AD5" t="s">
         <v>292</v>
       </c>
-      <c r="AE5" t="s">
+      <c r="AE5" s="2" t="s">
         <v>294</v>
       </c>
+      <c r="AF5" t="s">
+        <v>296</v>
+      </c>
+      <c r="AG5">
+        <v>333</v>
+      </c>
+      <c r="AH5" t="s">
+        <v>297</v>
+      </c>
       <c r="AI5" t="s">
-        <v>293</v>
+        <v>298</v>
       </c>
       <c r="AJ5" t="s">
+        <v>292</v>
+      </c>
+      <c r="AL5" t="s">
+        <v>252</v>
+      </c>
+      <c r="AM5" t="s">
+        <v>302</v>
+      </c>
+      <c r="AN5" t="s">
+        <v>308</v>
+      </c>
+      <c r="AO5" t="s">
+        <v>311</v>
+      </c>
+      <c r="AP5" t="s">
+        <v>312</v>
+      </c>
+      <c r="AQ5" t="s">
+        <v>314</v>
+      </c>
+      <c r="AR5" t="s">
+        <v>316</v>
+      </c>
+      <c r="FB5" t="s">
+        <v>292</v>
+      </c>
+      <c r="FD5" t="s">
+        <v>296</v>
+      </c>
+      <c r="FE5">
+        <v>333</v>
+      </c>
+      <c r="FF5" t="s">
+        <v>297</v>
+      </c>
+      <c r="FG5" t="s">
         <v>298</v>
       </c>
-      <c r="AM5" t="s">
-        <v>299</v>
-      </c>
-      <c r="AN5" t="s">
-        <v>301</v>
-      </c>
-      <c r="AO5" t="s">
+      <c r="FH5" t="s">
+        <v>292</v>
+      </c>
+      <c r="FJ5" t="s">
+        <v>252</v>
+      </c>
+      <c r="FL5" t="s">
         <v>302</v>
       </c>
-      <c r="AP5" t="s">
-        <v>303</v>
-      </c>
-      <c r="AR5" t="s">
-        <v>292</v>
-      </c>
-      <c r="AS5" t="s">
-        <v>292</v>
-      </c>
-      <c r="AT5" t="s">
-        <v>304</v>
-      </c>
-      <c r="AU5" s="2" t="s">
-        <v>306</v>
-      </c>
-      <c r="AV5" t="s">
+      <c r="FM5" t="s">
         <v>308</v>
       </c>
-      <c r="AW5">
-        <v>333</v>
-      </c>
-      <c r="AX5" t="s">
-        <v>309</v>
-      </c>
-      <c r="AY5" t="s">
-        <v>310</v>
-      </c>
-      <c r="AZ5" t="s">
-        <v>304</v>
-      </c>
-      <c r="BB5" t="s">
-        <v>252</v>
-      </c>
-      <c r="BC5" t="s">
-        <v>314</v>
-      </c>
-      <c r="BD5" t="s">
-        <v>320</v>
-      </c>
-      <c r="BE5" t="s">
-        <v>323</v>
-      </c>
-      <c r="BF5" t="s">
-        <v>324</v>
-      </c>
-      <c r="BG5" t="s">
-        <v>326</v>
-      </c>
-      <c r="BH5" t="s">
-        <v>329</v>
-      </c>
-      <c r="BI5" t="s">
-        <v>330</v>
-      </c>
-      <c r="BJ5" t="s">
-        <v>331</v>
-      </c>
-      <c r="BK5" t="s">
-        <v>330</v>
-      </c>
-      <c r="BL5" t="s">
-        <v>331</v>
-      </c>
-      <c r="BM5" t="s">
-        <v>333</v>
-      </c>
-      <c r="BN5" t="s">
-        <v>330</v>
-      </c>
-      <c r="BO5" t="s">
-        <v>334</v>
-      </c>
-      <c r="BP5" t="s">
-        <v>330</v>
-      </c>
-      <c r="BQ5" t="s">
-        <v>335</v>
-      </c>
-      <c r="BR5" t="s">
-        <v>330</v>
-      </c>
-      <c r="BS5" t="s">
-        <v>336</v>
-      </c>
-      <c r="BT5" t="s">
-        <v>330</v>
-      </c>
-      <c r="BU5" t="s">
-        <v>292</v>
-      </c>
-      <c r="BV5" t="s">
-        <v>330</v>
-      </c>
-      <c r="BX5" t="s">
+      <c r="FN5" t="s">
+        <v>311</v>
+      </c>
+      <c r="FO5" t="s">
+        <v>312</v>
+      </c>
+      <c r="FP5" t="s">
+        <v>324</v>
+      </c>
+      <c r="FQ5" t="s">
+        <v>341</v>
+      </c>
+      <c r="FU5" t="s">
+        <v>340</v>
+      </c>
+      <c r="FV5" t="s">
+        <v>345</v>
+      </c>
+      <c r="FY5" t="s">
+        <v>346</v>
+      </c>
+      <c r="FZ5" t="s">
+        <v>348</v>
+      </c>
+      <c r="GA5" t="s">
+        <v>349</v>
+      </c>
+      <c r="GB5" t="s">
+        <v>350</v>
+      </c>
+      <c r="GD5" t="s">
+        <v>324</v>
+      </c>
+      <c r="GE5" t="s">
+        <v>324</v>
+      </c>
+      <c r="GF5" t="s">
+        <v>317</v>
+      </c>
+      <c r="GG5" t="s">
+        <v>351</v>
+      </c>
+      <c r="GH5" t="s">
+        <v>317</v>
+      </c>
+      <c r="GI5" t="s">
+        <v>351</v>
+      </c>
+      <c r="GJ5" t="s">
+        <v>353</v>
+      </c>
+      <c r="GK5" t="s">
+        <v>317</v>
+      </c>
+      <c r="GL5" t="s">
+        <v>354</v>
+      </c>
+      <c r="GM5" t="s">
+        <v>317</v>
+      </c>
+      <c r="GN5" t="s">
+        <v>355</v>
+      </c>
+      <c r="GO5" t="s">
+        <v>317</v>
+      </c>
+      <c r="GP5" t="s">
+        <v>356</v>
+      </c>
+      <c r="GQ5" t="s">
+        <v>317</v>
+      </c>
+      <c r="GR5" t="s">
+        <v>324</v>
+      </c>
+      <c r="GS5" t="s">
+        <v>317</v>
+      </c>
+      <c r="GU5" t="s">
         <v>276</v>
       </c>
-      <c r="BY5" t="s">
-        <v>330</v>
-      </c>
-      <c r="BZ5" t="s">
-        <v>339</v>
-      </c>
-      <c r="CA5" t="s">
-        <v>292</v>
-      </c>
-      <c r="CB5" t="s">
-        <v>330</v>
-      </c>
-      <c r="CC5" t="s">
-        <v>292</v>
-      </c>
-      <c r="CD5" t="s">
-        <v>330</v>
-      </c>
-      <c r="CE5" t="s">
-        <v>334</v>
-      </c>
-      <c r="CF5" t="s">
-        <v>292</v>
-      </c>
-      <c r="CG5" t="s">
-        <v>330</v>
-      </c>
-      <c r="CH5" t="s">
-        <v>334</v>
-      </c>
-      <c r="CI5" t="s">
-        <v>304</v>
-      </c>
-      <c r="CK5" t="s">
-        <v>308</v>
-      </c>
-      <c r="CL5">
-        <v>333</v>
-      </c>
-      <c r="CM5" t="s">
-        <v>309</v>
-      </c>
-      <c r="CN5" t="s">
-        <v>310</v>
-      </c>
-      <c r="CO5" t="s">
-        <v>304</v>
-      </c>
-      <c r="CQ5" t="s">
-        <v>252</v>
-      </c>
-      <c r="CS5" t="s">
-        <v>314</v>
-      </c>
-      <c r="CT5" t="s">
-        <v>320</v>
-      </c>
-      <c r="CU5" t="s">
-        <v>323</v>
-      </c>
-      <c r="CV5" t="s">
-        <v>324</v>
+      <c r="GV5" t="s">
+        <v>317</v>
+      </c>
+      <c r="GW5" t="s">
+        <v>358</v>
+      </c>
+      <c r="GX5" t="s">
+        <v>324</v>
+      </c>
+      <c r="GY5" t="s">
+        <v>317</v>
+      </c>
+      <c r="GZ5" t="s">
+        <v>324</v>
+      </c>
+      <c r="HA5" t="s">
+        <v>317</v>
+      </c>
+      <c r="HB5" t="s">
+        <v>354</v>
+      </c>
+      <c r="HC5" t="s">
+        <v>324</v>
+      </c>
+      <c r="HD5" t="s">
+        <v>317</v>
+      </c>
+      <c r="HE5" t="s">
+        <v>354</v>
       </c>
     </row>
     <row r="6" spans="1:246">
@@ -3519,184 +3525,184 @@
         <v>287</v>
       </c>
       <c r="AB6" t="s">
-        <v>289</v>
-      </c>
-      <c r="AT6" t="s">
-        <v>305</v>
-      </c>
-      <c r="AU6" s="2" t="s">
-        <v>306</v>
-      </c>
-      <c r="AV6" t="s">
-        <v>308</v>
-      </c>
-      <c r="AW6">
+        <v>290</v>
+      </c>
+      <c r="AD6" t="s">
+        <v>293</v>
+      </c>
+      <c r="AE6" s="2" t="s">
+        <v>294</v>
+      </c>
+      <c r="AF6" t="s">
+        <v>296</v>
+      </c>
+      <c r="AG6">
         <v>333</v>
       </c>
-      <c r="AX6" t="s">
+      <c r="AH6" t="s">
+        <v>297</v>
+      </c>
+      <c r="AI6" t="s">
+        <v>298</v>
+      </c>
+      <c r="AJ6" t="s">
+        <v>292</v>
+      </c>
+      <c r="AL6" t="s">
+        <v>253</v>
+      </c>
+      <c r="AM6" t="s">
+        <v>303</v>
+      </c>
+      <c r="AN6" t="s">
         <v>309</v>
       </c>
-      <c r="AY6" t="s">
-        <v>310</v>
-      </c>
-      <c r="AZ6" t="s">
-        <v>304</v>
-      </c>
-      <c r="BB6" t="s">
+      <c r="AO6" t="s">
+        <v>311</v>
+      </c>
+      <c r="AP6" t="s">
+        <v>312</v>
+      </c>
+      <c r="AQ6" t="s">
+        <v>314</v>
+      </c>
+      <c r="AR6" t="s">
+        <v>316</v>
+      </c>
+      <c r="FB6" t="s">
+        <v>338</v>
+      </c>
+      <c r="FC6" t="s">
+        <v>339</v>
+      </c>
+      <c r="FD6" t="s">
+        <v>296</v>
+      </c>
+      <c r="FE6">
+        <v>333</v>
+      </c>
+      <c r="FF6" t="s">
+        <v>297</v>
+      </c>
+      <c r="FG6" t="s">
+        <v>298</v>
+      </c>
+      <c r="FH6" t="s">
+        <v>292</v>
+      </c>
+      <c r="FJ6" t="s">
         <v>253</v>
       </c>
-      <c r="BC6" t="s">
-        <v>315</v>
-      </c>
-      <c r="BD6" t="s">
-        <v>321</v>
-      </c>
-      <c r="BE6" t="s">
-        <v>323</v>
-      </c>
-      <c r="BF6" t="s">
-        <v>324</v>
-      </c>
-      <c r="BG6" t="s">
-        <v>326</v>
-      </c>
-      <c r="BH6" t="s">
-        <v>329</v>
-      </c>
-      <c r="CI6" t="s">
-        <v>340</v>
-      </c>
-      <c r="CJ6" t="s">
-        <v>338</v>
-      </c>
-      <c r="CK6" t="s">
-        <v>308</v>
-      </c>
-      <c r="CL6">
-        <v>333</v>
-      </c>
-      <c r="CM6" t="s">
+      <c r="FL6" t="s">
+        <v>303</v>
+      </c>
+      <c r="FM6" t="s">
         <v>309</v>
       </c>
-      <c r="CN6" t="s">
-        <v>310</v>
-      </c>
-      <c r="CO6" t="s">
-        <v>304</v>
-      </c>
-      <c r="CQ6" t="s">
-        <v>253</v>
-      </c>
-      <c r="CS6" t="s">
-        <v>315</v>
-      </c>
-      <c r="CT6" t="s">
-        <v>321</v>
-      </c>
-      <c r="CU6" t="s">
-        <v>323</v>
-      </c>
-      <c r="CV6" t="s">
-        <v>324</v>
-      </c>
-      <c r="CW6" t="s">
-        <v>292</v>
-      </c>
-      <c r="CX6" t="s">
-        <v>292</v>
-      </c>
-      <c r="CY6" t="s">
-        <v>292</v>
-      </c>
-      <c r="CZ6" t="s">
-        <v>292</v>
-      </c>
-      <c r="DA6" t="s">
-        <v>292</v>
-      </c>
-      <c r="DB6" t="s">
-        <v>292</v>
-      </c>
-      <c r="DC6" t="s">
-        <v>292</v>
-      </c>
-      <c r="DD6" t="s">
-        <v>292</v>
-      </c>
-      <c r="DE6" t="s">
-        <v>292</v>
-      </c>
-      <c r="DF6" t="s">
-        <v>330</v>
-      </c>
-      <c r="DG6" t="s">
-        <v>330</v>
-      </c>
-      <c r="DH6" t="s">
-        <v>330</v>
-      </c>
-      <c r="DI6" t="s">
-        <v>330</v>
-      </c>
-      <c r="DJ6" t="s">
-        <v>330</v>
-      </c>
-      <c r="DK6" t="s">
-        <v>330</v>
-      </c>
-      <c r="DL6" t="s">
-        <v>330</v>
-      </c>
-      <c r="DM6" t="s">
-        <v>330</v>
-      </c>
-      <c r="DN6" t="s">
-        <v>330</v>
-      </c>
-      <c r="DO6" t="s">
-        <v>330</v>
-      </c>
-      <c r="DP6" t="s">
-        <v>330</v>
-      </c>
-      <c r="DQ6" t="s">
-        <v>330</v>
-      </c>
-      <c r="DR6" t="s">
-        <v>330</v>
-      </c>
-      <c r="DS6" t="s">
-        <v>330</v>
-      </c>
-      <c r="DT6" t="s">
-        <v>330</v>
-      </c>
-      <c r="DU6" t="s">
-        <v>330</v>
-      </c>
-      <c r="DV6" t="s">
-        <v>330</v>
-      </c>
-      <c r="DW6" t="s">
-        <v>330</v>
-      </c>
-      <c r="DX6" t="s">
-        <v>292</v>
-      </c>
-      <c r="DY6" t="s">
-        <v>342</v>
-      </c>
-      <c r="DZ6" t="s">
-        <v>343</v>
-      </c>
-      <c r="EA6" t="s">
-        <v>344</v>
-      </c>
-      <c r="EB6" t="s">
-        <v>345</v>
-      </c>
-      <c r="EC6" t="s">
-        <v>344</v>
+      <c r="FN6" t="s">
+        <v>311</v>
+      </c>
+      <c r="FO6" t="s">
+        <v>312</v>
+      </c>
+      <c r="HF6" t="s">
+        <v>324</v>
+      </c>
+      <c r="HG6" t="s">
+        <v>324</v>
+      </c>
+      <c r="HH6" t="s">
+        <v>324</v>
+      </c>
+      <c r="HI6" t="s">
+        <v>324</v>
+      </c>
+      <c r="HJ6" t="s">
+        <v>324</v>
+      </c>
+      <c r="HK6" t="s">
+        <v>324</v>
+      </c>
+      <c r="HL6" t="s">
+        <v>324</v>
+      </c>
+      <c r="HM6" t="s">
+        <v>324</v>
+      </c>
+      <c r="HN6" t="s">
+        <v>324</v>
+      </c>
+      <c r="HO6" t="s">
+        <v>317</v>
+      </c>
+      <c r="HP6" t="s">
+        <v>317</v>
+      </c>
+      <c r="HQ6" t="s">
+        <v>317</v>
+      </c>
+      <c r="HR6" t="s">
+        <v>317</v>
+      </c>
+      <c r="HS6" t="s">
+        <v>317</v>
+      </c>
+      <c r="HT6" t="s">
+        <v>317</v>
+      </c>
+      <c r="HU6" t="s">
+        <v>317</v>
+      </c>
+      <c r="HV6" t="s">
+        <v>317</v>
+      </c>
+      <c r="HW6" t="s">
+        <v>317</v>
+      </c>
+      <c r="HX6" t="s">
+        <v>317</v>
+      </c>
+      <c r="HY6" t="s">
+        <v>317</v>
+      </c>
+      <c r="HZ6" t="s">
+        <v>317</v>
+      </c>
+      <c r="IA6" t="s">
+        <v>317</v>
+      </c>
+      <c r="IB6" t="s">
+        <v>317</v>
+      </c>
+      <c r="IC6" t="s">
+        <v>317</v>
+      </c>
+      <c r="ID6" t="s">
+        <v>317</v>
+      </c>
+      <c r="IE6" t="s">
+        <v>317</v>
+      </c>
+      <c r="IF6" t="s">
+        <v>317</v>
+      </c>
+      <c r="IG6" t="s">
+        <v>324</v>
+      </c>
+      <c r="IH6" t="s">
+        <v>360</v>
+      </c>
+      <c r="II6" t="s">
+        <v>361</v>
+      </c>
+      <c r="IJ6" t="s">
+        <v>362</v>
+      </c>
+      <c r="IK6" t="s">
+        <v>363</v>
+      </c>
+      <c r="IL6" t="s">
+        <v>362</v>
       </c>
     </row>
     <row r="7" spans="1:246">
@@ -3770,443 +3776,443 @@
         <v>287</v>
       </c>
       <c r="AB7" t="s">
-        <v>290</v>
+        <v>288</v>
+      </c>
+      <c r="AD7" t="s">
+        <v>292</v>
+      </c>
+      <c r="AE7" s="2" t="s">
+        <v>294</v>
+      </c>
+      <c r="AF7" t="s">
+        <v>296</v>
+      </c>
+      <c r="AG7">
+        <v>333</v>
+      </c>
+      <c r="AH7" t="s">
+        <v>297</v>
+      </c>
+      <c r="AI7" t="s">
+        <v>298</v>
+      </c>
+      <c r="AJ7" t="s">
+        <v>292</v>
+      </c>
+      <c r="AL7" t="s">
+        <v>254</v>
+      </c>
+      <c r="AM7" t="s">
+        <v>304</v>
+      </c>
+      <c r="AN7" t="s">
+        <v>310</v>
+      </c>
+      <c r="AO7" t="s">
+        <v>311</v>
+      </c>
+      <c r="AP7" t="s">
+        <v>312</v>
+      </c>
+      <c r="AQ7" t="s">
+        <v>314</v>
+      </c>
+      <c r="AR7" t="s">
+        <v>316</v>
+      </c>
+      <c r="AS7" t="s">
+        <v>317</v>
       </c>
       <c r="AT7" t="s">
-        <v>304</v>
-      </c>
-      <c r="AU7" s="2" t="s">
-        <v>306</v>
+        <v>319</v>
+      </c>
+      <c r="AU7" t="s">
+        <v>321</v>
       </c>
       <c r="AV7" t="s">
-        <v>308</v>
-      </c>
-      <c r="AW7">
-        <v>333</v>
+        <v>323</v>
+      </c>
+      <c r="AW7" t="s">
+        <v>317</v>
       </c>
       <c r="AX7" t="s">
-        <v>309</v>
+        <v>324</v>
       </c>
       <c r="AY7" t="s">
-        <v>310</v>
+        <v>317</v>
       </c>
       <c r="AZ7" t="s">
-        <v>304</v>
+        <v>317</v>
+      </c>
+      <c r="BA7" t="s">
+        <v>317</v>
       </c>
       <c r="BB7" t="s">
-        <v>254</v>
+        <v>317</v>
       </c>
       <c r="BC7" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="BD7" t="s">
-        <v>322</v>
+        <v>317</v>
       </c>
       <c r="BE7" t="s">
-        <v>323</v>
+        <v>317</v>
       </c>
       <c r="BF7" t="s">
-        <v>324</v>
+        <v>317</v>
       </c>
       <c r="BG7" t="s">
-        <v>326</v>
+        <v>317</v>
       </c>
       <c r="BH7" t="s">
+        <v>324</v>
+      </c>
+      <c r="BI7" t="s">
+        <v>324</v>
+      </c>
+      <c r="BJ7" t="s">
+        <v>324</v>
+      </c>
+      <c r="BK7" t="s">
+        <v>324</v>
+      </c>
+      <c r="BL7" t="s">
+        <v>324</v>
+      </c>
+      <c r="BM7" t="s">
+        <v>324</v>
+      </c>
+      <c r="BN7" t="s">
+        <v>324</v>
+      </c>
+      <c r="BO7" t="s">
+        <v>324</v>
+      </c>
+      <c r="BP7" t="s">
+        <v>324</v>
+      </c>
+      <c r="BQ7" t="s">
+        <v>324</v>
+      </c>
+      <c r="BR7" t="s">
+        <v>325</v>
+      </c>
+      <c r="BS7" t="s">
+        <v>317</v>
+      </c>
+      <c r="BT7" t="s">
+        <v>317</v>
+      </c>
+      <c r="BU7" t="s">
+        <v>317</v>
+      </c>
+      <c r="BV7" t="s">
+        <v>317</v>
+      </c>
+      <c r="BW7" t="s">
+        <v>317</v>
+      </c>
+      <c r="BX7" t="s">
+        <v>317</v>
+      </c>
+      <c r="BY7" t="s">
+        <v>317</v>
+      </c>
+      <c r="BZ7" t="s">
+        <v>317</v>
+      </c>
+      <c r="CA7" t="s">
+        <v>327</v>
+      </c>
+      <c r="CB7" t="s">
+        <v>324</v>
+      </c>
+      <c r="CC7" t="s">
+        <v>324</v>
+      </c>
+      <c r="CD7" t="s">
+        <v>324</v>
+      </c>
+      <c r="CE7" t="s">
+        <v>317</v>
+      </c>
+      <c r="CF7" t="s">
+        <v>317</v>
+      </c>
+      <c r="CG7" t="s">
+        <v>317</v>
+      </c>
+      <c r="CH7" t="s">
+        <v>324</v>
+      </c>
+      <c r="CI7" t="s">
+        <v>324</v>
+      </c>
+      <c r="CJ7" t="s">
+        <v>324</v>
+      </c>
+      <c r="CK7" t="s">
+        <v>324</v>
+      </c>
+      <c r="CL7" t="s">
+        <v>317</v>
+      </c>
+      <c r="CM7" t="s">
+        <v>317</v>
+      </c>
+      <c r="CN7" t="s">
+        <v>317</v>
+      </c>
+      <c r="CO7" t="s">
         <v>329</v>
       </c>
-      <c r="CI7" t="s">
-        <v>304</v>
-      </c>
-      <c r="CK7" t="s">
-        <v>308</v>
-      </c>
-      <c r="CL7">
-        <v>333</v>
-      </c>
-      <c r="CM7" t="s">
-        <v>309</v>
-      </c>
-      <c r="CN7" t="s">
-        <v>310</v>
-      </c>
-      <c r="CO7" t="s">
-        <v>304</v>
+      <c r="CP7" t="s">
+        <v>317</v>
       </c>
       <c r="CQ7" t="s">
-        <v>254</v>
+        <v>317</v>
+      </c>
+      <c r="CR7" t="s">
+        <v>331</v>
       </c>
       <c r="CS7" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="CT7" t="s">
-        <v>322</v>
+        <v>317</v>
       </c>
       <c r="CU7" t="s">
-        <v>323</v>
+        <v>317</v>
       </c>
       <c r="CV7" t="s">
-        <v>324</v>
+        <v>317</v>
+      </c>
+      <c r="CW7" t="s">
+        <v>332</v>
+      </c>
+      <c r="CX7" t="s">
+        <v>317</v>
+      </c>
+      <c r="CY7" t="s">
+        <v>334</v>
+      </c>
+      <c r="CZ7" t="s">
+        <v>317</v>
+      </c>
+      <c r="DA7" t="s">
+        <v>317</v>
+      </c>
+      <c r="DB7" t="s">
+        <v>325</v>
+      </c>
+      <c r="DC7" t="s">
+        <v>317</v>
+      </c>
+      <c r="DD7" t="s">
+        <v>317</v>
+      </c>
+      <c r="DE7" t="s">
+        <v>317</v>
+      </c>
+      <c r="DF7" t="s">
+        <v>317</v>
+      </c>
+      <c r="DG7" t="s">
+        <v>317</v>
+      </c>
+      <c r="DH7" t="s">
+        <v>317</v>
+      </c>
+      <c r="DI7" t="s">
+        <v>317</v>
+      </c>
+      <c r="DJ7" t="s">
+        <v>317</v>
+      </c>
+      <c r="DK7" t="s">
+        <v>317</v>
+      </c>
+      <c r="DL7" t="s">
+        <v>317</v>
+      </c>
+      <c r="DM7" t="s">
+        <v>317</v>
+      </c>
+      <c r="DN7" t="s">
+        <v>317</v>
+      </c>
+      <c r="DO7" t="s">
+        <v>317</v>
+      </c>
+      <c r="DP7" t="s">
+        <v>317</v>
+      </c>
+      <c r="DQ7" t="s">
+        <v>317</v>
+      </c>
+      <c r="DR7" t="s">
+        <v>317</v>
+      </c>
+      <c r="DS7" t="s">
+        <v>324</v>
+      </c>
+      <c r="DT7" t="s">
+        <v>317</v>
+      </c>
+      <c r="DU7" t="s">
+        <v>317</v>
+      </c>
+      <c r="DV7" t="s">
+        <v>317</v>
+      </c>
+      <c r="DW7" t="s">
+        <v>324</v>
+      </c>
+      <c r="DX7" t="s">
+        <v>317</v>
+      </c>
+      <c r="DY7" t="s">
+        <v>317</v>
+      </c>
+      <c r="DZ7" t="s">
+        <v>317</v>
+      </c>
+      <c r="EA7" t="s">
+        <v>317</v>
+      </c>
+      <c r="EB7" t="s">
+        <v>317</v>
+      </c>
+      <c r="EC7" t="s">
+        <v>317</v>
       </c>
       <c r="ED7" t="s">
-        <v>330</v>
+        <v>317</v>
       </c>
       <c r="EE7" t="s">
-        <v>347</v>
+        <v>317</v>
       </c>
       <c r="EF7" t="s">
-        <v>348</v>
+        <v>317</v>
       </c>
       <c r="EG7" t="s">
-        <v>350</v>
+        <v>317</v>
       </c>
       <c r="EH7" t="s">
-        <v>330</v>
+        <v>317</v>
       </c>
       <c r="EI7" t="s">
-        <v>292</v>
+        <v>317</v>
       </c>
       <c r="EJ7" t="s">
-        <v>330</v>
+        <v>317</v>
       </c>
       <c r="EK7" t="s">
-        <v>330</v>
+        <v>335</v>
       </c>
       <c r="EL7" t="s">
-        <v>330</v>
+        <v>325</v>
       </c>
       <c r="EM7" t="s">
-        <v>330</v>
+        <v>325</v>
       </c>
       <c r="EN7" t="s">
-        <v>330</v>
+        <v>317</v>
       </c>
       <c r="EO7" t="s">
-        <v>330</v>
+        <v>317</v>
       </c>
       <c r="EP7" t="s">
-        <v>330</v>
+        <v>337</v>
       </c>
       <c r="EQ7" t="s">
-        <v>330</v>
+        <v>317</v>
       </c>
       <c r="ER7" t="s">
-        <v>330</v>
+        <v>317</v>
       </c>
       <c r="ES7" t="s">
-        <v>292</v>
+        <v>317</v>
       </c>
       <c r="ET7" t="s">
-        <v>292</v>
+        <v>317</v>
       </c>
       <c r="EU7" t="s">
-        <v>292</v>
+        <v>317</v>
       </c>
       <c r="EV7" t="s">
-        <v>292</v>
+        <v>317</v>
       </c>
       <c r="EW7" t="s">
-        <v>292</v>
+        <v>317</v>
       </c>
       <c r="EX7" t="s">
-        <v>292</v>
+        <v>317</v>
       </c>
       <c r="EY7" t="s">
-        <v>292</v>
+        <v>317</v>
       </c>
       <c r="EZ7" t="s">
-        <v>292</v>
+        <v>317</v>
       </c>
       <c r="FA7" t="s">
-        <v>292</v>
+        <v>317</v>
       </c>
       <c r="FB7" t="s">
         <v>292</v>
       </c>
-      <c r="FC7" t="s">
-        <v>351</v>
-      </c>
       <c r="FD7" t="s">
-        <v>330</v>
-      </c>
-      <c r="FE7" t="s">
-        <v>330</v>
+        <v>296</v>
+      </c>
+      <c r="FE7">
+        <v>333</v>
       </c>
       <c r="FF7" t="s">
-        <v>330</v>
+        <v>297</v>
       </c>
       <c r="FG7" t="s">
-        <v>330</v>
+        <v>298</v>
       </c>
       <c r="FH7" t="s">
-        <v>330</v>
-      </c>
-      <c r="FI7" t="s">
-        <v>330</v>
+        <v>292</v>
       </c>
       <c r="FJ7" t="s">
-        <v>330</v>
-      </c>
-      <c r="FK7" t="s">
-        <v>330</v>
+        <v>254</v>
       </c>
       <c r="FL7" t="s">
-        <v>353</v>
+        <v>304</v>
       </c>
       <c r="FM7" t="s">
-        <v>292</v>
+        <v>310</v>
       </c>
       <c r="FN7" t="s">
-        <v>292</v>
+        <v>311</v>
       </c>
       <c r="FO7" t="s">
-        <v>292</v>
-      </c>
-      <c r="FP7" t="s">
-        <v>330</v>
-      </c>
-      <c r="FQ7" t="s">
-        <v>330</v>
-      </c>
-      <c r="FR7" t="s">
-        <v>330</v>
-      </c>
-      <c r="FS7" t="s">
-        <v>292</v>
-      </c>
-      <c r="FT7" t="s">
-        <v>292</v>
-      </c>
-      <c r="FU7" t="s">
-        <v>292</v>
-      </c>
-      <c r="FV7" t="s">
-        <v>292</v>
-      </c>
-      <c r="FW7" t="s">
-        <v>330</v>
-      </c>
-      <c r="FX7" t="s">
-        <v>330</v>
-      </c>
-      <c r="FY7" t="s">
-        <v>330</v>
-      </c>
-      <c r="FZ7" t="s">
-        <v>355</v>
-      </c>
-      <c r="GA7" t="s">
-        <v>330</v>
-      </c>
-      <c r="GB7" t="s">
-        <v>330</v>
-      </c>
-      <c r="GC7" t="s">
-        <v>357</v>
-      </c>
-      <c r="GD7" t="s">
-        <v>330</v>
-      </c>
-      <c r="GE7" t="s">
-        <v>330</v>
-      </c>
-      <c r="GF7" t="s">
-        <v>330</v>
-      </c>
-      <c r="GG7" t="s">
-        <v>330</v>
-      </c>
-      <c r="GH7" t="s">
-        <v>358</v>
-      </c>
-      <c r="GI7" t="s">
-        <v>330</v>
-      </c>
-      <c r="GJ7" t="s">
-        <v>360</v>
-      </c>
-      <c r="GK7" t="s">
-        <v>330</v>
-      </c>
-      <c r="GL7" t="s">
-        <v>330</v>
-      </c>
-      <c r="GM7" t="s">
-        <v>351</v>
-      </c>
-      <c r="GN7" t="s">
-        <v>330</v>
-      </c>
-      <c r="GO7" t="s">
-        <v>330</v>
-      </c>
-      <c r="GP7" t="s">
-        <v>330</v>
-      </c>
-      <c r="GQ7" t="s">
-        <v>330</v>
-      </c>
-      <c r="GR7" t="s">
-        <v>330</v>
-      </c>
-      <c r="GS7" t="s">
-        <v>330</v>
-      </c>
-      <c r="GT7" t="s">
-        <v>330</v>
-      </c>
-      <c r="GU7" t="s">
-        <v>330</v>
-      </c>
-      <c r="GV7" t="s">
-        <v>330</v>
-      </c>
-      <c r="GW7" t="s">
-        <v>330</v>
-      </c>
-      <c r="GX7" t="s">
-        <v>330</v>
-      </c>
-      <c r="GY7" t="s">
-        <v>330</v>
-      </c>
-      <c r="GZ7" t="s">
-        <v>330</v>
-      </c>
-      <c r="HA7" t="s">
-        <v>330</v>
-      </c>
-      <c r="HB7" t="s">
-        <v>330</v>
-      </c>
-      <c r="HC7" t="s">
-        <v>330</v>
-      </c>
-      <c r="HD7" t="s">
-        <v>292</v>
-      </c>
-      <c r="HE7" t="s">
-        <v>330</v>
-      </c>
-      <c r="HF7" t="s">
-        <v>330</v>
-      </c>
-      <c r="HG7" t="s">
-        <v>330</v>
-      </c>
-      <c r="HH7" t="s">
-        <v>292</v>
-      </c>
-      <c r="HI7" t="s">
-        <v>330</v>
-      </c>
-      <c r="HJ7" t="s">
-        <v>330</v>
-      </c>
-      <c r="HK7" t="s">
-        <v>330</v>
-      </c>
-      <c r="HL7" t="s">
-        <v>330</v>
-      </c>
-      <c r="HM7" t="s">
-        <v>330</v>
-      </c>
-      <c r="HN7" t="s">
-        <v>330</v>
-      </c>
-      <c r="HO7" t="s">
-        <v>330</v>
-      </c>
-      <c r="HP7" t="s">
-        <v>330</v>
-      </c>
-      <c r="HQ7" t="s">
-        <v>330</v>
-      </c>
-      <c r="HR7" t="s">
-        <v>330</v>
-      </c>
-      <c r="HS7" t="s">
-        <v>330</v>
-      </c>
-      <c r="HT7" t="s">
-        <v>330</v>
-      </c>
-      <c r="HU7" t="s">
-        <v>330</v>
-      </c>
-      <c r="HV7" t="s">
-        <v>361</v>
-      </c>
-      <c r="HW7" t="s">
-        <v>351</v>
-      </c>
-      <c r="HX7" t="s">
-        <v>351</v>
-      </c>
-      <c r="HY7" t="s">
-        <v>330</v>
-      </c>
-      <c r="HZ7" t="s">
-        <v>330</v>
-      </c>
-      <c r="IA7" t="s">
-        <v>363</v>
-      </c>
-      <c r="IB7" t="s">
-        <v>330</v>
-      </c>
-      <c r="IC7" t="s">
-        <v>330</v>
-      </c>
-      <c r="ID7" t="s">
-        <v>330</v>
-      </c>
-      <c r="IE7" t="s">
-        <v>330</v>
-      </c>
-      <c r="IF7" t="s">
-        <v>330</v>
-      </c>
-      <c r="IG7" t="s">
-        <v>330</v>
-      </c>
-      <c r="IH7" t="s">
-        <v>330</v>
-      </c>
-      <c r="II7" t="s">
-        <v>330</v>
-      </c>
-      <c r="IJ7" t="s">
-        <v>330</v>
-      </c>
-      <c r="IK7" t="s">
-        <v>330</v>
-      </c>
-      <c r="IL7" t="s">
-        <v>330</v>
+        <v>312</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="V2" r:id="rId1"/>
     <hyperlink ref="AA2" r:id="rId2"/>
-    <hyperlink ref="AU2" r:id="rId3"/>
+    <hyperlink ref="AE2" r:id="rId3"/>
     <hyperlink ref="V3" r:id="rId4"/>
     <hyperlink ref="AA3" r:id="rId5"/>
-    <hyperlink ref="AU3" r:id="rId6"/>
+    <hyperlink ref="AE3" r:id="rId6"/>
     <hyperlink ref="V4" r:id="rId7"/>
     <hyperlink ref="AA4" r:id="rId8"/>
-    <hyperlink ref="AU4" r:id="rId9"/>
+    <hyperlink ref="AE4" r:id="rId9"/>
     <hyperlink ref="V5" r:id="rId10"/>
     <hyperlink ref="AA5" r:id="rId11"/>
-    <hyperlink ref="AU5" r:id="rId12"/>
+    <hyperlink ref="AE5" r:id="rId12"/>
     <hyperlink ref="V6" r:id="rId13"/>
     <hyperlink ref="AA6" r:id="rId14"/>
-    <hyperlink ref="AU6" r:id="rId15"/>
+    <hyperlink ref="AE6" r:id="rId15"/>
     <hyperlink ref="V7" r:id="rId16"/>
     <hyperlink ref="AA7" r:id="rId17"/>
-    <hyperlink ref="AU7" r:id="rId18"/>
+    <hyperlink ref="AE7" r:id="rId18"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/test.xlsx
+++ b/test.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1137" uniqueCount="594">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1837" uniqueCount="672">
   <si>
     <t>app_id</t>
   </si>
@@ -298,552 +298,558 @@
     <t>form.copy-3-of-question1.clientdeclineHIVTested</t>
   </si>
   <si>
+    <t>form.copy-3-of-question1.clientsTreatedwithRespect</t>
+  </si>
+  <si>
+    <t>form.copy-3-of-question1.confedentiallityAssuredHTSCounseling</t>
+  </si>
+  <si>
+    <t>form.copy-3-of-question1.disposalofLancetandLotion</t>
+  </si>
+  <si>
+    <t>form.copy-3-of-question1.emphasisedRetestingAfter3Months</t>
+  </si>
+  <si>
+    <t>form.copy-3-of-question1.gloves</t>
+  </si>
+  <si>
+    <t>form.copy-3-of-question1.hivmisconceptionsAddressed</t>
+  </si>
+  <si>
+    <t>form.copy-3-of-question1.htsAlgorithm</t>
+  </si>
+  <si>
+    <t>form.copy-3-of-question1.htsBenefitsandLimitations</t>
+  </si>
+  <si>
+    <t>form.copy-3-of-question1.htsProcessExplained</t>
+  </si>
+  <si>
+    <t>form.copy-3-of-question1.htsScrrenToolUsage</t>
+  </si>
+  <si>
+    <t>form.copy-3-of-question1.informationPresentedClearly</t>
+  </si>
+  <si>
+    <t>form.copy-3-of-question1.partnerTesting</t>
+  </si>
+  <si>
+    <t>form.copy-3-of-question1.reinforcementofHIVRisks</t>
+  </si>
+  <si>
+    <t>form.copy-3-of-question1.remindedVMMCisPartialProtectionofHIV</t>
+  </si>
+  <si>
+    <t>form.copy-3-of-question1.resultsWithHeld</t>
+  </si>
+  <si>
+    <t>form.copy-3-of-question1.reviwedActualHIVCounsellingSession</t>
+  </si>
+  <si>
+    <t>form.copy-3-of-question1.testResultNegative</t>
+  </si>
+  <si>
+    <t>form.copy-3-of-question1.testResultsProvidedTimeously</t>
+  </si>
+  <si>
+    <t>form.copy-3-of-question1.testingKitCurrent</t>
+  </si>
+  <si>
+    <t>form.copy-3-of-question1.testingSpace</t>
+  </si>
+  <si>
+    <t>form.copy-3-of-question1.testingTimeInterval</t>
+  </si>
+  <si>
+    <t>form.copy-3-of-question1.testingatLaterDate</t>
+  </si>
+  <si>
+    <t>form.copy-3-of-question1.understandingChecked</t>
+  </si>
+  <si>
+    <t>form.copy-3-of-question1.workingTimePiece</t>
+  </si>
+  <si>
+    <t>form.copy-4-of-question1.Addressed_client_HIV_understanding_and_misperceptions</t>
+  </si>
+  <si>
+    <t>form.copy-4-of-question1.Affirmed_client_VMMC_decision</t>
+  </si>
+  <si>
+    <t>form.copy-4-of-question1.Affirmed_clients_VMMC_decision</t>
+  </si>
+  <si>
+    <t>form.copy-4-of-question1.Affirmed_that_client_could_still_undergo_VMMC</t>
+  </si>
+  <si>
+    <t>form.copy-4-of-question1.Care_provider_completed_a_physical_exam</t>
+  </si>
+  <si>
+    <t>form.copy-4-of-question1.Checked_for_client_understanding_throughout_session</t>
+  </si>
+  <si>
+    <t>form.copy-4-of-question1.Checked_for_client_understanding_throughout_sessionFu</t>
+  </si>
+  <si>
+    <t>form.copy-4-of-question1.Clinic_staff_can_explain_or_show_how_they_use_these_materials_in_client_education_and_counseling</t>
+  </si>
+  <si>
+    <t>form.copy-4-of-question1.Communicated_in_clear_simple_terms</t>
+  </si>
+  <si>
+    <t>form.copy-4-of-question1.Communicated_in_clear_simple_termsFu</t>
+  </si>
+  <si>
+    <t>form.copy-4-of-question1.Communication_to_Clients</t>
+  </si>
+  <si>
+    <t>form.copy-4-of-question1.Communication_to_Clients_-_HIV_and_MCEducation</t>
+  </si>
+  <si>
+    <t>form.copy-4-of-question1.Communication_to_Clients_-_HIV_and_MCEducationFu</t>
+  </si>
+  <si>
+    <t>form.copy-4-of-question1.Communication_to_Clients_-_Information_on_Materials</t>
+  </si>
+  <si>
+    <t>form.copy-4-of-question1.Conducted_confirmatory_test_according_to_national_algorithm</t>
+  </si>
+  <si>
+    <t>form.copy-4-of-question1.Delivered_positive_results_directly_and_clearly</t>
+  </si>
+  <si>
+    <t>form.copy-4-of-question1.Described_warning_signs_of_adverse_events_and_recommendations_for_managing</t>
+  </si>
+  <si>
+    <t>form.copy-4-of-question1.Discussed_warning_signs_of_adverse_events</t>
+  </si>
+  <si>
+    <t>form.copy-4-of-question1.Emergency_contact_number_operational</t>
+  </si>
+  <si>
+    <t>form.copy-4-of-question1.Emphasized_how_VMMC_must_be_combined_with_condom</t>
+  </si>
+  <si>
+    <t>form.copy-4-of-question1.Emphasized_importance_of_consistent_proper_condom_use</t>
+  </si>
+  <si>
+    <t>form.copy-4-of-question1.Emphasized_the_need_for_six_week_abstinence_period_during_VMMC_healing</t>
+  </si>
+  <si>
+    <t>form.copy-4-of-question1.Emphasized_ways_to_improve_compliance_with_abstinence</t>
+  </si>
+  <si>
+    <t>form.copy-4-of-question1.Emphasized_ways_to_improve_compliance_with_abstinenceFu</t>
+  </si>
+  <si>
+    <t>form.copy-4-of-question1.Encourage_partner_and_family_HIV_testing</t>
+  </si>
+  <si>
+    <t>form.copy-4-of-question1.Encouraged_disclosure_to_partners_and_offered_assistance</t>
+  </si>
+  <si>
+    <t>form.copy-4-of-question1.Engaged_client_with_respect_and_without_judgment</t>
+  </si>
+  <si>
+    <t>form.copy-4-of-question1.Engaged_client_with_respect_and_without_judgmentFu</t>
+  </si>
+  <si>
+    <t>form.copy-4-of-question1.Examine_all_in-service_communication_materials</t>
+  </si>
+  <si>
+    <t>form.copy-4-of-question1.Examine_all_in-service_communication_materialsFu</t>
+  </si>
+  <si>
+    <t>form.copy-4-of-question1.Explained_effective_wound_care_and_pain_management</t>
+  </si>
+  <si>
+    <t>form.copy-4-of-question1.Explained_importance_of_not_applying_any_home_or_traditional_remedies</t>
+  </si>
+  <si>
+    <t>form.copy-4-of-question1.Explained_that_VMMC_recovery_may_take_longer_when_HIV_positive</t>
+  </si>
+  <si>
+    <t>form.copy-4-of-question1.Gave_accurate_information</t>
+  </si>
+  <si>
+    <t>form.copy-4-of-question1.Gave_accurate_information_note_errors_of_fact</t>
+  </si>
+  <si>
+    <t>form.copy-4-of-question1.Gave_oral_and_written_instructions_for_contacting_VMMC_staff</t>
+  </si>
+  <si>
+    <t>form.copy-4-of-question1.Gave_procedures_for_contacting_VMMC_staff</t>
+  </si>
+  <si>
+    <t>form.copy-4-of-question1.Guidance_for_reducing_individual_HIV_risk</t>
+  </si>
+  <si>
+    <t>form.copy-4-of-question1.Information_on_need_for_abstinence_during_VMMC_healing</t>
+  </si>
+  <si>
+    <t>form.copy-4-of-question1.Initiated_referral_linkage_to_HIV_care_and_treatment</t>
+  </si>
+  <si>
+    <t>form.copy-4-of-question1.Is_this_a_follow_up_clinic_visit_post_VMMC</t>
+  </si>
+  <si>
+    <t>form.copy-4-of-question1.Materials_are_legible_and_in_good-condition</t>
+  </si>
+  <si>
+    <t>form.copy-4-of-question1.Materials_tailored_to_specific_audiences_are_available</t>
+  </si>
+  <si>
+    <t>form.copy-4-of-question1.Modes_of_HIV_transmission_and_relative_HIV-risk_assessment</t>
+  </si>
+  <si>
+    <t>form.copy-4-of-question1.Offered_client_appropriate_emotional_support</t>
+  </si>
+  <si>
+    <t>form.copy-4-of-question1.On-site_materials_adequately_support_in-service_communication</t>
+  </si>
+  <si>
+    <t>form.copy-4-of-question1.On-site_signage_is_sufficient_to_direct_clients</t>
+  </si>
+  <si>
+    <t>form.copy-4-of-question1.On-site_signage_is_sufficient_to_direct_clients_to_VMMC_service_locations</t>
+  </si>
+  <si>
+    <t>form.copy-4-of-question1.Provided_information_on_positive_living_for_persons_testing_HIV_positive</t>
+  </si>
+  <si>
+    <t>form.copy-4-of-question1.Provided_instructions_for_pain_management</t>
+  </si>
+  <si>
+    <t>form.copy-4-of-question1.Provided_wound_care_flier_and_clear_accurate_instructions_on_wound_care</t>
+  </si>
+  <si>
+    <t>form.copy-4-of-question1.Provider_ensured_client_privacy_during_examination</t>
+  </si>
+  <si>
+    <t>form.copy-4-of-question1.Reaffirmed_need_for_six_week_abstinence_period_during_VMMC_healing</t>
+  </si>
+  <si>
+    <t>form.copy-4-of-question1.Recorded_client_blood_pressure_15_minutes_after_arrival</t>
+  </si>
+  <si>
+    <t>form.copy-4-of-question1.Recorded_client_blood_pressure_on_arrival</t>
+  </si>
+  <si>
+    <t>form.copy-4-of-question1.Recorded_client_pulse_and_respiration_rate_15_minutes_after_arrival</t>
+  </si>
+  <si>
+    <t>form.copy-4-of-question1.Recorded_client_pulse_and_respiration_rate_on_arrival</t>
+  </si>
+  <si>
+    <t>form.copy-4-of-question1.Recorded_client_temperature_15_minutes_after_arrival</t>
+  </si>
+  <si>
+    <t>form.copy-4-of-question1.Recorded_client_temperature_on_arrival</t>
+  </si>
+  <si>
+    <t>form.copy-4-of-question1.Reviewer_observed_follow-up_clinic_visit_on</t>
+  </si>
+  <si>
+    <t>form.copy-4-of-question1.Specific_contact_information_for_reaching_VMMC_staff</t>
+  </si>
+  <si>
+    <t>form.copy-4-of-question1.Warned_against_applying_any_home_or_traditional_remedies</t>
+  </si>
+  <si>
+    <t>form.copy-4-of-question1.Warning_against_applying_any_home_or_tradional_remedies</t>
+  </si>
+  <si>
+    <t>form.copy-4-of-question1.Was_the_test_result_Positive</t>
+  </si>
+  <si>
+    <t>form.copy-4-of-question1.Was_the_visit_documented_in_CIR_and_Register</t>
+  </si>
+  <si>
+    <t>form.copy-4-of-question1.Was_the_visit_documented_in_CIR_and_RegisterFu</t>
+  </si>
+  <si>
+    <t>form.copy-4-of-question1.Withheld_results_Positive</t>
+  </si>
+  <si>
+    <t>form.copy-4-of-question1.Wound_care_instructions</t>
+  </si>
+  <si>
+    <t>form.copy-4-of-question1.ageofClientfollowup</t>
+  </si>
+  <si>
+    <t>form.copy-4-of-question1.basic_hiv_and_aids_risk_reduction_information_including_other_stis</t>
+  </si>
+  <si>
+    <t>form.copy-4-of-question1.disposalofLancetandLotion</t>
+  </si>
+  <si>
+    <t>form.copy-4-of-question1.emphasisedRetestingAfter3Months</t>
+  </si>
+  <si>
+    <t>form.copy-4-of-question1.give_overall_comment_communication</t>
+  </si>
+  <si>
+    <t>form.copy-4-of-question1.gloves</t>
+  </si>
+  <si>
+    <t>form.copy-4-of-question1.htsAlgorithm</t>
+  </si>
+  <si>
+    <t>form.copy-4-of-question1.information_on_the_status_of_clients_healing</t>
+  </si>
+  <si>
+    <t>form.copy-4-of-question1.materials_provide_accurate_and_adequate_information_in_the_following_areas_</t>
+  </si>
+  <si>
+    <t>form.copy-4-of-question1.remindedVMMCisPartialProtectionofHIV</t>
+  </si>
+  <si>
+    <t>form.copy-4-of-question1.resultsWithHeld</t>
+  </si>
+  <si>
+    <t>form.copy-4-of-question1.testResultNegative</t>
+  </si>
+  <si>
+    <t>form.copy-4-of-question1.testResultsProvidedTimeously</t>
+  </si>
+  <si>
+    <t>form.copy-4-of-question1.testingKitCurrent</t>
+  </si>
+  <si>
+    <t>form.copy-4-of-question1.testingSpace</t>
+  </si>
+  <si>
+    <t>form.copy-4-of-question1.testingTimeInterval</t>
+  </si>
+  <si>
+    <t>form.copy-4-of-question1.workingTimePiece</t>
+  </si>
+  <si>
+    <t>form.ending_month_to_numeric</t>
+  </si>
+  <si>
+    <t>form.meta.@xmlns</t>
+  </si>
+  <si>
+    <t>form.meta.appVersion</t>
+  </si>
+  <si>
+    <t>form.meta.app_build_version</t>
+  </si>
+  <si>
+    <t>form.meta.commcare_version</t>
+  </si>
+  <si>
+    <t>form.meta.deviceID</t>
+  </si>
+  <si>
+    <t>form.meta.drift</t>
+  </si>
+  <si>
+    <t>form.meta.geo_point</t>
+  </si>
+  <si>
+    <t>form.meta.instanceID</t>
+  </si>
+  <si>
+    <t>form.meta.timeEnd</t>
+  </si>
+  <si>
+    <t>form.meta.timeStart</t>
+  </si>
+  <si>
+    <t>form.meta.userID</t>
+  </si>
+  <si>
+    <t>form.meta.username</t>
+  </si>
+  <si>
+    <t>form.question1.IndividualCounsellingComment</t>
+  </si>
+  <si>
+    <t>form.question1.clientAssuredConfidentialityInd</t>
+  </si>
+  <si>
+    <t>form.question1.clientTreatmentInd</t>
+  </si>
+  <si>
+    <t>form.question1.clientsParticipationEncouragementInd</t>
+  </si>
+  <si>
+    <t>form.question1.communication_to_clients_-_individual_counseling_sessions</t>
+  </si>
+  <si>
+    <t>form.question1.condomDemoFemaleInd</t>
+  </si>
+  <si>
+    <t>form.question1.condomDemoInd</t>
+  </si>
+  <si>
+    <t>form.question1.contentTailoredByAge</t>
+  </si>
+  <si>
+    <t>form.question1.counsellingSpacePrivacyInd</t>
+  </si>
+  <si>
+    <t>form.question1.counselorAudibleInd</t>
+  </si>
+  <si>
+    <t>form.question1.counselorChecksUnderstandingInd</t>
+  </si>
+  <si>
+    <t>form.question1.easyObservationofPropsInd</t>
+  </si>
+  <si>
+    <t>form.question1.elicitationofClientAge</t>
+  </si>
+  <si>
+    <t>form.question1.informationClearInd</t>
+  </si>
+  <si>
+    <t>form.question1.probingofMentalStatus</t>
+  </si>
+  <si>
+    <t>form.question1.probingofSRHIssues</t>
+  </si>
+  <si>
+    <t>form.question1.probingofSocialCircumstances</t>
+  </si>
+  <si>
+    <t>form.question1.reviewOfActualSession</t>
+  </si>
+  <si>
+    <t>form.question1.sessionNotInterruptedInd</t>
+  </si>
+  <si>
+    <t>form.question1.through_direct_observation_optimal_or_interviews_with_counselors_determine_</t>
+  </si>
+  <si>
+    <t>form.question2.District</t>
+  </si>
+  <si>
+    <t>form.question2.facility</t>
+  </si>
+  <si>
+    <t>form.section_e_-_communication.Pre-OPGroupCommunicationComment</t>
+  </si>
+  <si>
+    <t>form.section_e_-_communication.actualObservedSession</t>
+  </si>
+  <si>
+    <t>form.section_e_-_communication.appropriateGroupAssembling</t>
+  </si>
+  <si>
+    <t>form.section_e_-_communication.clearPresentationofInformation</t>
+  </si>
+  <si>
+    <t>form.section_e_-_communication.clientsAssuredofConfidentiality</t>
+  </si>
+  <si>
+    <t>form.section_e_-_communication.communication_to_clients_-_pre-op_group_counseling</t>
+  </si>
+  <si>
+    <t>form.section_e_-_communication.condomDemoFemale</t>
+  </si>
+  <si>
+    <t>form.section_e_-_communication.condomDemoMale</t>
+  </si>
+  <si>
+    <t>form.section_e_-_communication.councelorChecksforUnderstanding</t>
+  </si>
+  <si>
+    <t>form.section_e_-_communication.councelorTreatmentofClients</t>
+  </si>
+  <si>
+    <t>form.section_e_-_communication.counsellingSpacePrivacyPreOp</t>
+  </si>
+  <si>
+    <t>form.section_e_-_communication.counselorAudible</t>
+  </si>
+  <si>
+    <t>form.section_e_-_communication.counsolorManagementofGroupDynamics</t>
+  </si>
+  <si>
+    <t>form.section_e_-_communication.directObservationofCounselorsonCommunication</t>
+  </si>
+  <si>
+    <t>form.section_e_-_communication.easyObservationOfProps</t>
+  </si>
+  <si>
+    <t>form.section_e_-_communication.encouragementofQuestionsandClientParticipation</t>
+  </si>
+  <si>
+    <t>form.section_e_-_communication.separtionofClientByAge</t>
+  </si>
+  <si>
+    <t>form.section_e_-_communication.sessionNotInterruptedPreOp</t>
+  </si>
+  <si>
+    <t>form.starting_month_to_numeric</t>
+  </si>
+  <si>
+    <t>form.totalMonths</t>
+  </si>
+  <si>
+    <t>metadata.appVersion</t>
+  </si>
+  <si>
+    <t>metadata.app_build_version</t>
+  </si>
+  <si>
+    <t>metadata.commcare_version</t>
+  </si>
+  <si>
+    <t>metadata.deviceID</t>
+  </si>
+  <si>
+    <t>metadata.drift</t>
+  </si>
+  <si>
+    <t>metadata.geo_point</t>
+  </si>
+  <si>
+    <t>metadata.instanceID</t>
+  </si>
+  <si>
+    <t>metadata.location</t>
+  </si>
+  <si>
+    <t>metadata.timeEnd</t>
+  </si>
+  <si>
+    <t>metadata.timeStart</t>
+  </si>
+  <si>
+    <t>metadata.userID</t>
+  </si>
+  <si>
+    <t>metadata.username</t>
+  </si>
+  <si>
     <t>form.copy-3-of-question1.clientdeclineHIVTestedProbedReasons</t>
   </si>
   <si>
     <t>form.copy-3-of-question1.clientdeclineHIVTestedRespected</t>
   </si>
   <si>
-    <t>form.copy-3-of-question1.clientsTreatedwithRespect</t>
-  </si>
-  <si>
-    <t>form.copy-3-of-question1.confedentiallityAssuredHTSCounseling</t>
-  </si>
-  <si>
-    <t>form.copy-3-of-question1.disposalofLancetandLotion</t>
-  </si>
-  <si>
-    <t>form.copy-3-of-question1.emphasisedRetestingAfter3Months</t>
-  </si>
-  <si>
-    <t>form.copy-3-of-question1.gloves</t>
-  </si>
-  <si>
     <t>form.copy-3-of-question1.high_alert_-_client_must_proceed_to_hts_services</t>
   </si>
   <si>
-    <t>form.copy-3-of-question1.hivmisconceptionsAddressed</t>
-  </si>
-  <si>
-    <t>form.copy-3-of-question1.htsAlgorithm</t>
-  </si>
-  <si>
-    <t>form.copy-3-of-question1.htsBenefitsandLimitations</t>
-  </si>
-  <si>
-    <t>form.copy-3-of-question1.htsProcessExplained</t>
-  </si>
-  <si>
-    <t>form.copy-3-of-question1.htsScrrenToolUsage</t>
-  </si>
-  <si>
-    <t>form.copy-3-of-question1.informationPresentedClearly</t>
-  </si>
-  <si>
-    <t>form.copy-3-of-question1.partnerTesting</t>
-  </si>
-  <si>
-    <t>form.copy-3-of-question1.reinforcementofHIVRisks</t>
-  </si>
-  <si>
-    <t>form.copy-3-of-question1.remindedVMMCisPartialProtectionofHIV</t>
-  </si>
-  <si>
-    <t>form.copy-3-of-question1.resultsWithHeld</t>
-  </si>
-  <si>
-    <t>form.copy-3-of-question1.reviwedActualHIVCounsellingSession</t>
-  </si>
-  <si>
-    <t>form.copy-3-of-question1.testResultNegative</t>
-  </si>
-  <si>
-    <t>form.copy-3-of-question1.testResultsProvidedTimeously</t>
-  </si>
-  <si>
-    <t>form.copy-3-of-question1.testingKitCurrent</t>
-  </si>
-  <si>
-    <t>form.copy-3-of-question1.testingSpace</t>
-  </si>
-  <si>
-    <t>form.copy-3-of-question1.testingTimeInterval</t>
-  </si>
-  <si>
-    <t>form.copy-3-of-question1.testingatLaterDate</t>
-  </si>
-  <si>
-    <t>form.copy-3-of-question1.understandingChecked</t>
-  </si>
-  <si>
-    <t>form.copy-3-of-question1.workingTimePiece</t>
-  </si>
-  <si>
-    <t>form.copy-4-of-question1.Addressed_client_HIV_understanding_and_misperceptions</t>
-  </si>
-  <si>
-    <t>form.copy-4-of-question1.Affirmed_client_VMMC_decision</t>
-  </si>
-  <si>
-    <t>form.copy-4-of-question1.Affirmed_clients_VMMC_decision</t>
-  </si>
-  <si>
-    <t>form.copy-4-of-question1.Affirmed_that_client_could_still_undergo_VMMC</t>
-  </si>
-  <si>
-    <t>form.copy-4-of-question1.Care_provider_completed_a_physical_exam</t>
-  </si>
-  <si>
-    <t>form.copy-4-of-question1.Checked_for_client_understanding_throughout_session</t>
-  </si>
-  <si>
-    <t>form.copy-4-of-question1.Checked_for_client_understanding_throughout_sessionFu</t>
-  </si>
-  <si>
-    <t>form.copy-4-of-question1.Clinic_staff_can_explain_or_show_how_they_use_these_materials_in_client_education_and_counseling</t>
-  </si>
-  <si>
-    <t>form.copy-4-of-question1.Communicated_in_clear_simple_terms</t>
-  </si>
-  <si>
-    <t>form.copy-4-of-question1.Communicated_in_clear_simple_termsFu</t>
-  </si>
-  <si>
-    <t>form.copy-4-of-question1.Communication_to_Clients</t>
-  </si>
-  <si>
-    <t>form.copy-4-of-question1.Communication_to_Clients_-_HIV_and_MCEducation</t>
-  </si>
-  <si>
-    <t>form.copy-4-of-question1.Communication_to_Clients_-_HIV_and_MCEducationFu</t>
-  </si>
-  <si>
-    <t>form.copy-4-of-question1.Communication_to_Clients_-_Information_on_Materials</t>
-  </si>
-  <si>
-    <t>form.copy-4-of-question1.Conducted_confirmatory_test_according_to_national_algorithm</t>
-  </si>
-  <si>
-    <t>form.copy-4-of-question1.Delivered_positive_results_directly_and_clearly</t>
-  </si>
-  <si>
-    <t>form.copy-4-of-question1.Described_warning_signs_of_adverse_events_and_recommendations_for_managing</t>
-  </si>
-  <si>
-    <t>form.copy-4-of-question1.Discussed_warning_signs_of_adverse_events</t>
-  </si>
-  <si>
-    <t>form.copy-4-of-question1.Emergency_contact_number_operational</t>
-  </si>
-  <si>
-    <t>form.copy-4-of-question1.Emphasized_how_VMMC_must_be_combined_with_condom</t>
-  </si>
-  <si>
-    <t>form.copy-4-of-question1.Emphasized_importance_of_consistent_proper_condom_use</t>
-  </si>
-  <si>
-    <t>form.copy-4-of-question1.Emphasized_the_need_for_six_week_abstinence_period_during_VMMC_healing</t>
-  </si>
-  <si>
-    <t>form.copy-4-of-question1.Emphasized_ways_to_improve_compliance_with_abstinence</t>
-  </si>
-  <si>
-    <t>form.copy-4-of-question1.Emphasized_ways_to_improve_compliance_with_abstinenceFu</t>
-  </si>
-  <si>
-    <t>form.copy-4-of-question1.Encourage_partner_and_family_HIV_testing</t>
-  </si>
-  <si>
-    <t>form.copy-4-of-question1.Encouraged_disclosure_to_partners_and_offered_assistance</t>
-  </si>
-  <si>
-    <t>form.copy-4-of-question1.Engaged_client_with_respect_and_without_judgment</t>
-  </si>
-  <si>
-    <t>form.copy-4-of-question1.Engaged_client_with_respect_and_without_judgmentFu</t>
-  </si>
-  <si>
-    <t>form.copy-4-of-question1.Examine_all_in-service_communication_materials</t>
-  </si>
-  <si>
-    <t>form.copy-4-of-question1.Examine_all_in-service_communication_materialsFu</t>
-  </si>
-  <si>
-    <t>form.copy-4-of-question1.Explained_effective_wound_care_and_pain_management</t>
-  </si>
-  <si>
-    <t>form.copy-4-of-question1.Explained_importance_of_not_applying_any_home_or_traditional_remedies</t>
-  </si>
-  <si>
-    <t>form.copy-4-of-question1.Explained_that_VMMC_recovery_may_take_longer_when_HIV_positive</t>
-  </si>
-  <si>
-    <t>form.copy-4-of-question1.Gave_accurate_information</t>
-  </si>
-  <si>
-    <t>form.copy-4-of-question1.Gave_accurate_information_note_errors_of_fact</t>
-  </si>
-  <si>
-    <t>form.copy-4-of-question1.Gave_oral_and_written_instructions_for_contacting_VMMC_staff</t>
-  </si>
-  <si>
-    <t>form.copy-4-of-question1.Gave_procedures_for_contacting_VMMC_staff</t>
-  </si>
-  <si>
-    <t>form.copy-4-of-question1.Guidance_for_reducing_individual_HIV_risk</t>
-  </si>
-  <si>
-    <t>form.copy-4-of-question1.Information_on_need_for_abstinence_during_VMMC_healing</t>
-  </si>
-  <si>
-    <t>form.copy-4-of-question1.Initiated_referral_linkage_to_HIV_care_and_treatment</t>
-  </si>
-  <si>
-    <t>form.copy-4-of-question1.Is_this_a_follow_up_clinic_visit_post_VMMC</t>
-  </si>
-  <si>
-    <t>form.copy-4-of-question1.Materials_are_legible_and_in_good-condition</t>
-  </si>
-  <si>
-    <t>form.copy-4-of-question1.Materials_tailored_to_specific_audiences_are_available</t>
-  </si>
-  <si>
-    <t>form.copy-4-of-question1.Modes_of_HIV_transmission_and_relative_HIV-risk_assessment</t>
-  </si>
-  <si>
-    <t>form.copy-4-of-question1.Offered_client_appropriate_emotional_support</t>
-  </si>
-  <si>
-    <t>form.copy-4-of-question1.On-site_materials_adequately_support_in-service_communication</t>
-  </si>
-  <si>
-    <t>form.copy-4-of-question1.On-site_signage_is_sufficient_to_direct_clients</t>
-  </si>
-  <si>
-    <t>form.copy-4-of-question1.On-site_signage_is_sufficient_to_direct_clients_to_VMMC_service_locations</t>
-  </si>
-  <si>
-    <t>form.copy-4-of-question1.Provided_information_on_positive_living_for_persons_testing_HIV_positive</t>
-  </si>
-  <si>
-    <t>form.copy-4-of-question1.Provided_instructions_for_pain_management</t>
-  </si>
-  <si>
-    <t>form.copy-4-of-question1.Provided_wound_care_flier_and_clear_accurate_instructions_on_wound_care</t>
-  </si>
-  <si>
-    <t>form.copy-4-of-question1.Provider_ensured_client_privacy_during_examination</t>
-  </si>
-  <si>
-    <t>form.copy-4-of-question1.Reaffirmed_need_for_six_week_abstinence_period_during_VMMC_healing</t>
-  </si>
-  <si>
-    <t>form.copy-4-of-question1.Recorded_client_blood_pressure_15_minutes_after_arrival</t>
-  </si>
-  <si>
-    <t>form.copy-4-of-question1.Recorded_client_blood_pressure_on_arrival</t>
-  </si>
-  <si>
-    <t>form.copy-4-of-question1.Recorded_client_pulse_and_respiration_rate_15_minutes_after_arrival</t>
-  </si>
-  <si>
-    <t>form.copy-4-of-question1.Recorded_client_pulse_and_respiration_rate_on_arrival</t>
-  </si>
-  <si>
-    <t>form.copy-4-of-question1.Recorded_client_temperature_15_minutes_after_arrival</t>
-  </si>
-  <si>
-    <t>form.copy-4-of-question1.Recorded_client_temperature_on_arrival</t>
-  </si>
-  <si>
-    <t>form.copy-4-of-question1.Reviewer_observed_follow-up_clinic_visit_on</t>
-  </si>
-  <si>
-    <t>form.copy-4-of-question1.Specific_contact_information_for_reaching_VMMC_staff</t>
-  </si>
-  <si>
-    <t>form.copy-4-of-question1.Warned_against_applying_any_home_or_traditional_remedies</t>
-  </si>
-  <si>
-    <t>form.copy-4-of-question1.Warning_against_applying_any_home_or_tradional_remedies</t>
-  </si>
-  <si>
-    <t>form.copy-4-of-question1.Was_the_test_result_Positive</t>
-  </si>
-  <si>
-    <t>form.copy-4-of-question1.Was_the_visit_documented_in_CIR_and_Register</t>
-  </si>
-  <si>
-    <t>form.copy-4-of-question1.Was_the_visit_documented_in_CIR_and_RegisterFu</t>
-  </si>
-  <si>
-    <t>form.copy-4-of-question1.Withheld_results_Positive</t>
-  </si>
-  <si>
-    <t>form.copy-4-of-question1.Wound_care_instructions</t>
-  </si>
-  <si>
-    <t>form.copy-4-of-question1.ageofClientfollowup</t>
-  </si>
-  <si>
-    <t>form.copy-4-of-question1.basic_hiv_and_aids_risk_reduction_information_including_other_stis</t>
-  </si>
-  <si>
-    <t>form.copy-4-of-question1.disposalofLancetandLotion</t>
-  </si>
-  <si>
-    <t>form.copy-4-of-question1.emphasisedRetestingAfter3Months</t>
-  </si>
-  <si>
-    <t>form.copy-4-of-question1.give_overall_comment_communication</t>
-  </si>
-  <si>
-    <t>form.copy-4-of-question1.gloves</t>
-  </si>
-  <si>
-    <t>form.copy-4-of-question1.htsAlgorithm</t>
-  </si>
-  <si>
-    <t>form.copy-4-of-question1.information_on_the_status_of_clients_healing</t>
-  </si>
-  <si>
-    <t>form.copy-4-of-question1.materials_provide_accurate_and_adequate_information_in_the_following_areas_</t>
-  </si>
-  <si>
-    <t>form.copy-4-of-question1.remindedVMMCisPartialProtectionofHIV</t>
-  </si>
-  <si>
-    <t>form.copy-4-of-question1.resultsWithHeld</t>
-  </si>
-  <si>
-    <t>form.copy-4-of-question1.testResultNegative</t>
-  </si>
-  <si>
-    <t>form.copy-4-of-question1.testResultsProvidedTimeously</t>
-  </si>
-  <si>
-    <t>form.copy-4-of-question1.testingKitCurrent</t>
-  </si>
-  <si>
-    <t>form.copy-4-of-question1.testingSpace</t>
-  </si>
-  <si>
-    <t>form.copy-4-of-question1.testingTimeInterval</t>
-  </si>
-  <si>
-    <t>form.copy-4-of-question1.workingTimePiece</t>
-  </si>
-  <si>
-    <t>form.ending_month_to_numeric</t>
-  </si>
-  <si>
-    <t>form.meta.@xmlns</t>
-  </si>
-  <si>
-    <t>form.meta.appVersion</t>
-  </si>
-  <si>
-    <t>form.meta.app_build_version</t>
-  </si>
-  <si>
-    <t>form.meta.commcare_version</t>
-  </si>
-  <si>
-    <t>form.meta.deviceID</t>
-  </si>
-  <si>
-    <t>form.meta.drift</t>
-  </si>
-  <si>
-    <t>form.meta.geo_point</t>
-  </si>
-  <si>
-    <t>form.meta.instanceID</t>
-  </si>
-  <si>
-    <t>form.meta.timeEnd</t>
-  </si>
-  <si>
-    <t>form.meta.timeStart</t>
-  </si>
-  <si>
-    <t>form.meta.userID</t>
-  </si>
-  <si>
-    <t>form.meta.username</t>
-  </si>
-  <si>
-    <t>form.question1.IndividualCounsellingComment</t>
-  </si>
-  <si>
-    <t>form.question1.clientAssuredConfidentialityInd</t>
-  </si>
-  <si>
-    <t>form.question1.clientTreatmentInd</t>
-  </si>
-  <si>
-    <t>form.question1.clientsParticipationEncouragementInd</t>
-  </si>
-  <si>
-    <t>form.question1.communication_to_clients_-_individual_counseling_sessions</t>
-  </si>
-  <si>
-    <t>form.question1.condomDemoFemaleInd</t>
-  </si>
-  <si>
-    <t>form.question1.condomDemoInd</t>
-  </si>
-  <si>
-    <t>form.question1.contentTailoredByAge</t>
-  </si>
-  <si>
-    <t>form.question1.counsellingSpacePrivacyInd</t>
-  </si>
-  <si>
-    <t>form.question1.counselorAudibleInd</t>
-  </si>
-  <si>
-    <t>form.question1.counselorChecksUnderstandingInd</t>
-  </si>
-  <si>
-    <t>form.question1.easyObservationofPropsInd</t>
-  </si>
-  <si>
-    <t>form.question1.elicitationofClientAge</t>
-  </si>
-  <si>
-    <t>form.question1.informationClearInd</t>
-  </si>
-  <si>
-    <t>form.question1.probingofMentalStatus</t>
-  </si>
-  <si>
-    <t>form.question1.probingofSRHIssues</t>
-  </si>
-  <si>
-    <t>form.question1.probingofSocialCircumstances</t>
-  </si>
-  <si>
-    <t>form.question1.reviewOfActualSession</t>
-  </si>
-  <si>
-    <t>form.question1.sessionNotInterruptedInd</t>
-  </si>
-  <si>
-    <t>form.question1.through_direct_observation_optimal_or_interviews_with_counselors_determine_</t>
-  </si>
-  <si>
-    <t>form.question2.District</t>
-  </si>
-  <si>
-    <t>form.question2.facility</t>
-  </si>
-  <si>
-    <t>form.section_e_-_communication.Pre-OPGroupCommunicationComment</t>
-  </si>
-  <si>
-    <t>form.section_e_-_communication.actualObservedSession</t>
-  </si>
-  <si>
-    <t>form.section_e_-_communication.appropriateGroupAssembling</t>
-  </si>
-  <si>
-    <t>form.section_e_-_communication.clearPresentationofInformation</t>
-  </si>
-  <si>
-    <t>form.section_e_-_communication.clientsAssuredofConfidentiality</t>
-  </si>
-  <si>
-    <t>form.section_e_-_communication.communication_to_clients_-_pre-op_group_counseling</t>
-  </si>
-  <si>
-    <t>form.section_e_-_communication.condomDemoFemale</t>
-  </si>
-  <si>
-    <t>form.section_e_-_communication.condomDemoMale</t>
-  </si>
-  <si>
-    <t>form.section_e_-_communication.councelorChecksforUnderstanding</t>
-  </si>
-  <si>
-    <t>form.section_e_-_communication.councelorTreatmentofClients</t>
-  </si>
-  <si>
-    <t>form.section_e_-_communication.counsellingSpacePrivacyPreOp</t>
-  </si>
-  <si>
-    <t>form.section_e_-_communication.counselorAudible</t>
-  </si>
-  <si>
-    <t>form.section_e_-_communication.counsolorManagementofGroupDynamics</t>
-  </si>
-  <si>
-    <t>form.section_e_-_communication.directObservationofCounselorsonCommunication</t>
-  </si>
-  <si>
-    <t>form.section_e_-_communication.easyObservationOfProps</t>
-  </si>
-  <si>
-    <t>form.section_e_-_communication.encouragementofQuestionsandClientParticipation</t>
-  </si>
-  <si>
-    <t>form.section_e_-_communication.separtionofClientByAge</t>
-  </si>
-  <si>
-    <t>form.section_e_-_communication.sessionNotInterruptedPreOp</t>
-  </si>
-  <si>
-    <t>form.starting_month_to_numeric</t>
-  </si>
-  <si>
-    <t>form.totalMonths</t>
-  </si>
-  <si>
-    <t>metadata.appVersion</t>
-  </si>
-  <si>
-    <t>metadata.app_build_version</t>
-  </si>
-  <si>
-    <t>metadata.commcare_version</t>
-  </si>
-  <si>
-    <t>metadata.deviceID</t>
-  </si>
-  <si>
-    <t>metadata.drift</t>
-  </si>
-  <si>
-    <t>metadata.geo_point</t>
-  </si>
-  <si>
-    <t>metadata.instanceID</t>
-  </si>
-  <si>
-    <t>metadata.location</t>
-  </si>
-  <si>
-    <t>metadata.timeEnd</t>
-  </si>
-  <si>
-    <t>metadata.timeStart</t>
-  </si>
-  <si>
-    <t>metadata.userID</t>
-  </si>
-  <si>
-    <t>metadata.username</t>
-  </si>
-  <si>
     <t>form.section_d_-_sops_guidelines_policies_and_job_aids_-_sops_guidelines_policie.SOPOverallComment</t>
   </si>
   <si>
     <t>form.section_d_-_sops_guidelines_policies_and_job_aids_-_sops_guidelines_policie.adequateStaff</t>
   </si>
   <si>
+    <t>form.section_d_-_sops_guidelines_policies_and_job_aids_-_sops_guidelines_policie.aeDocumentation</t>
+  </si>
+  <si>
     <t>form.section_d_-_sops_guidelines_policies_and_job_aids_-_sops_guidelines_policie.aeRegister</t>
   </si>
   <si>
+    <t>form.section_d_-_sops_guidelines_policies_and_job_aids_-_sops_guidelines_policie.aeRegisterClientCapturing</t>
+  </si>
+  <si>
     <t>form.section_d_-_sops_guidelines_policies_and_job_aids_-_sops_guidelines_policie.aeReviewMinutes</t>
   </si>
   <si>
@@ -961,546 +967,552 @@
     <t>form.demand_creation_-_undersaved_populations__community_involvement.copy-1-of-dcTargetPopulation</t>
   </si>
   <si>
+    <t>form.demand_creation_-_undersaved_populations__community_involvement.dcCommunityCadres</t>
+  </si>
+  <si>
+    <t>form.demand_creation_-_undersaved_populations__community_involvement.dcInnovation</t>
+  </si>
+  <si>
+    <t>form.demand_creation_-_undersaved_populations__community_involvement.dcTargetPopulation</t>
+  </si>
+  <si>
+    <t>form.demand_creation_-_undersaved_populations__community_involvement.give_overall_comment_demand_creation</t>
+  </si>
+  <si>
+    <t>form.demand_creation_-_undersaved_populations__community_involvement.innovation</t>
+  </si>
+  <si>
+    <t>form.section_c_-_demand_creation.abilitytoEngagewithParticipants</t>
+  </si>
+  <si>
+    <t>form.section_c_-_demand_creation.abilitytoWindupSession</t>
+  </si>
+  <si>
+    <t>form.section_c_-_demand_creation.activeMobilisers</t>
+  </si>
+  <si>
+    <t>form.section_c_-_demand_creation.age15-24dcStrategy</t>
+  </si>
+  <si>
+    <t>form.section_c_-_demand_creation.age25-24dcStrategy</t>
+  </si>
+  <si>
+    <t>form.section_c_-_demand_creation.consentFormsDC</t>
+  </si>
+  <si>
+    <t>form.section_c_-_demand_creation.contentAccuracy</t>
+  </si>
+  <si>
+    <t>form.section_c_-_demand_creation.contentRelevance</t>
+  </si>
+  <si>
+    <t>form.section_c_-_demand_creation.dcComment</t>
+  </si>
+  <si>
+    <t>form.section_c_-_demand_creation.dcPlanObjectives</t>
+  </si>
+  <si>
+    <t>form.section_c_-_demand_creation.hrh_for_demand_creation</t>
+  </si>
+  <si>
+    <t>form.section_c_-_demand_creation.iecMaterial</t>
+  </si>
+  <si>
+    <t>form.section_c_-_demand_creation.inactiveMobilisers</t>
+  </si>
+  <si>
+    <t>form.section_c_-_demand_creation.intergrationOfKeyHIVPreventionMsgs</t>
+  </si>
+  <si>
+    <t>form.section_c_-_demand_creation.intergrationOfOtherHealthMsgs</t>
+  </si>
+  <si>
+    <t>form.section_c_-_demand_creation.introductionDC</t>
+  </si>
+  <si>
+    <t>form.section_c_-_demand_creation.key_strategies_by_age_group</t>
+  </si>
+  <si>
+    <t>form.section_c_-_demand_creation.observe_demand_creation_if_available</t>
+  </si>
+  <si>
+    <t>form.section_c_-_demand_creation.posters</t>
+  </si>
+  <si>
+    <t>form.section_c_-_demand_creation.programme_visibility</t>
+  </si>
+  <si>
+    <t>form.section_c_-_demand_creation.sessionDurationDC</t>
+  </si>
+  <si>
+    <t>form.section_c_-_demand_creation.work_plan</t>
+  </si>
+  <si>
+    <t>form.section_c_-_demand_creation.workplanDC</t>
+  </si>
+  <si>
+    <t>form.copy-1-of-data_quality_assessment.adverseEvents2WT</t>
+  </si>
+  <si>
+    <t>form.copy-1-of-data_quality_assessment.clientConcerns2WT</t>
+  </si>
+  <si>
+    <t>form.copy-1-of-data_quality_assessment.clientSatisfaction2WT</t>
+  </si>
+  <si>
+    <t>form.copy-1-of-data_quality_assessment.dataAccuracy2WT</t>
+  </si>
+  <si>
+    <t>form.copy-1-of-data_quality_assessment.demographicAnalysis2WT</t>
+  </si>
+  <si>
+    <t>form.copy-1-of-data_quality_assessment.ehrEnrollmentRate</t>
+  </si>
+  <si>
+    <t>form.copy-1-of-data_quality_assessment.ehrUsage</t>
+  </si>
+  <si>
+    <t>form.copy-1-of-data_quality_assessment.electronic_health_record_ehr_-_look_at_total_number_of_clients_circumcised_</t>
+  </si>
+  <si>
+    <t>form.copy-1-of-data_quality_assessment.enrollmentRate2WT</t>
+  </si>
+  <si>
+    <t>form.copy-1-of-data_quality_assessment.linkages_and_referrals</t>
+  </si>
+  <si>
+    <t>form.copy-1-of-data_quality_assessment.look_at_total_number_of_clients_circumcised_by_the_site_in_the_past_three_m</t>
+  </si>
+  <si>
+    <t>form.copy-1-of-data_quality_assessment.optOurRate2WT</t>
+  </si>
+  <si>
+    <t>form.copy-1-of-data_quality_assessment.referralDocumentation</t>
+  </si>
+  <si>
+    <t>form.copy-1-of-data_quality_assessment.staffTraining2WT</t>
+  </si>
+  <si>
+    <t>form.copy-1-of-data_quality_assessment.twoWayComment</t>
+  </si>
+  <si>
+    <t>form.data_quality_assessment.aeDocumentation</t>
+  </si>
+  <si>
+    <t>form.data_quality_assessment.client_record_review_-_the_assesors_should_sample_at_least_twenty_five_25_c</t>
+  </si>
+  <si>
+    <t>form.data_quality_assessment.consentForms</t>
+  </si>
+  <si>
+    <t>form.data_quality_assessment.data_triangulation</t>
+  </si>
+  <si>
+    <t>form.data_quality_assessment.meOverallComment</t>
+  </si>
+  <si>
+    <t>form.data_quality_assessment.month_year_repeat_group</t>
+  </si>
+  <si>
+    <t>form.data_quality_assessment.recordFilling</t>
+  </si>
+  <si>
+    <t>form.data_quality_assessment.recordsSecure</t>
+  </si>
+  <si>
+    <t>form.data_quality_assessment.sampleCIFChecking</t>
+  </si>
+  <si>
+    <t>form.period_under_review_starting_point.period_under_review_ending_point.endingMonth</t>
+  </si>
+  <si>
+    <t>form.period_under_review_starting_point.period_under_review_ending_point.endingYear</t>
+  </si>
+  <si>
+    <t>form.period_under_review_starting_point.startingMonth</t>
+  </si>
+  <si>
+    <t>form.period_under_review_starting_point.startingYear</t>
+  </si>
+  <si>
+    <t>form.question3.availableKits</t>
+  </si>
+  <si>
+    <t>form.question3.copy-1-of-facilities_supplies__equipment_-_equipment_storage_visually_inspect_the_sto</t>
+  </si>
+  <si>
+    <t>form.question3.copy-2-of-facilities_supplies__equipment_-_equipment_storage_visually_inspect_the_sto</t>
+  </si>
+  <si>
+    <t>form.question3.copy-3-of-facilities_supplies__equipment_-_equipment_storage_visually_inspect_the_sto</t>
+  </si>
+  <si>
+    <t>form.question3.copy-4-of-scale</t>
+  </si>
+  <si>
+    <t>form.question3.facilities_supplies__equipment_-_equipment_storage_visually_inspect_the_sto</t>
+  </si>
+  <si>
+    <t>form.question3.sterileKitsCleanArea</t>
+  </si>
+  <si>
+    <t>form.question3.sterileKitsElevated</t>
+  </si>
+  <si>
+    <t>form.question3.sterileKitsNotTouchingCeiling</t>
+  </si>
+  <si>
+    <t>form.question3.sterileKitsNotTouchingWalls</t>
+  </si>
+  <si>
+    <t>form.question3.stock-outRTKs</t>
+  </si>
+  <si>
+    <t>form.question3.stock-outRTKstoPatientNotTested</t>
+  </si>
+  <si>
+    <t>form.question3.storageforRTKs</t>
+  </si>
+  <si>
+    <t>form.question3.sufficientReusableSupply</t>
+  </si>
+  <si>
+    <t>form.question3.sufficientReusableSupplyReason</t>
+  </si>
+  <si>
+    <t>form.question3.suppliesAvailable</t>
+  </si>
+  <si>
+    <t>form.question3.suppliesComment</t>
+  </si>
+  <si>
+    <t>form.question3.temperatureHIVtestKits</t>
+  </si>
+  <si>
+    <t>form.question5.clientHTSPrivacy</t>
+  </si>
+  <si>
+    <t>form.question5.condom-stock-outs</t>
+  </si>
+  <si>
+    <t>form.question5.condomCompatibleLubricants</t>
+  </si>
+  <si>
+    <t>form.question5.condomDemonstration</t>
+  </si>
+  <si>
+    <t>form.question5.condomsAvailableToday</t>
+  </si>
+  <si>
+    <t>form.question5.condomsExpiringStatus</t>
+  </si>
+  <si>
+    <t>form.question5.copy-4-of-facilities_supplies__equipment_-_equipment_storage_visually_inspect_the_sto</t>
+  </si>
+  <si>
+    <t>form.question5.copy-5-of-facilities_supplies__equipment_-_equipment_storage_visually_inspect_the_sto</t>
+  </si>
+  <si>
+    <t>form.question5.dentalDams</t>
+  </si>
+  <si>
+    <t>form.question5.htsContainers</t>
+  </si>
+  <si>
+    <t>form.question5.htsandSTIComment</t>
+  </si>
+  <si>
+    <t>form.question5.htsdisposableGloves</t>
+  </si>
+  <si>
+    <t>form.question5.htsroomSanitationSupplies</t>
+  </si>
+  <si>
+    <t>form.question5.is_there_a_plan_for_monitoring_condom_supply</t>
+  </si>
+  <si>
+    <t>form.question5.siteCondoms</t>
+  </si>
+  <si>
+    <t>form.question6.antibiotics</t>
+  </si>
+  <si>
+    <t>form.question6.availableDrugs</t>
+  </si>
+  <si>
+    <t>form.question6.facilities_supplies__equipment_-_medicines</t>
+  </si>
+  <si>
+    <t>form.question6.local_anesthetics__has_the_site_been_free_of_stock_outs_for_the_past_3_mont</t>
+  </si>
+  <si>
+    <t>form.question6.medicineStockouts</t>
+  </si>
+  <si>
+    <t>form.question6.medicineStorage</t>
+  </si>
+  <si>
+    <t>form.question6.medicinesComment</t>
+  </si>
+  <si>
+    <t>form.question6.medicinesDispensed</t>
+  </si>
+  <si>
+    <t>form.question6.medicinesLabelling</t>
+  </si>
+  <si>
+    <t>form.question6.medicinesOrganisation</t>
+  </si>
+  <si>
+    <t>form.question6.medicinesSecureArea</t>
+  </si>
+  <si>
+    <t>form.question6.medicinesShelflife</t>
+  </si>
+  <si>
+    <t>form.question6.medicinesTemperature</t>
+  </si>
+  <si>
+    <t>form.question6.oralAnalgesics</t>
+  </si>
+  <si>
+    <t>form.question6.oralAnalgesicsStockOut</t>
+  </si>
+  <si>
+    <t>form.question6.stiMedicines</t>
+  </si>
+  <si>
+    <t>form.question6.stiMedicinesStockOuts</t>
+  </si>
+  <si>
+    <t>form.question7.IncineratorSecure</t>
+  </si>
+  <si>
+    <t>form.question7.colorCodedContainers</t>
+  </si>
+  <si>
+    <t>form.question7.dispensingRecordsUptodate</t>
+  </si>
+  <si>
+    <t>form.question7.disposal_of_non_reusable_instruments</t>
+  </si>
+  <si>
+    <t>form.question7.documentationofMedicationsDispensed</t>
+  </si>
+  <si>
+    <t>form.question7.facilities_supplies__equipment_-_medication_dispensing</t>
+  </si>
+  <si>
+    <t>form.question7.facilities_supplies__equipment_-_waste_management</t>
+  </si>
+  <si>
+    <t>form.question7.fenced_lockable_waste_disposal_area</t>
+  </si>
+  <si>
+    <t>form.question7.incinerator</t>
+  </si>
+  <si>
+    <t>form.question7.incineratorAutowayPit</t>
+  </si>
+  <si>
+    <t>form.question7.incineratorPollutionControl</t>
+  </si>
+  <si>
+    <t>form.question7.loose_non_containerized</t>
+  </si>
+  <si>
+    <t>form.question7.medicineDispensingComment</t>
+  </si>
+  <si>
+    <t>form.question7.non_burn_technology</t>
+  </si>
+  <si>
+    <t>form.question7.wasteContainers</t>
+  </si>
+  <si>
+    <t>form.question7.wasteContainersAtBed</t>
+  </si>
+  <si>
+    <t>form.question7.wasteManagementJobAids</t>
+  </si>
+  <si>
+    <t>form.question7.wastesegregated</t>
+  </si>
+  <si>
+    <t>form.question7.wastetemporaryStorage</t>
+  </si>
+  <si>
+    <t>form.question7.writtenProtocolMedicalDispensing</t>
+  </si>
+  <si>
+    <t>form.question8.clinicalStaffTraining</t>
+  </si>
+  <si>
+    <t>form.question8.documentationStatus</t>
+  </si>
+  <si>
+    <t>form.question8.emergencyCart</t>
+  </si>
+  <si>
+    <t>form.question8.emergencyCartStatus</t>
+  </si>
+  <si>
+    <t>form.question8.emergencyCartYes</t>
+  </si>
+  <si>
+    <t>form.question8.emergencyManagementComment</t>
+  </si>
+  <si>
+    <t>form.question8.emergencyMaterialsinStock</t>
+  </si>
+  <si>
+    <t>form.question8.emergencySuppliesStatus</t>
+  </si>
+  <si>
+    <t>form.question8.emergency_management_-_adverse_event_prevention_and_management_vmmc_emergen</t>
+  </si>
+  <si>
+    <t>form.question8.emergency_management_-_emergency_practices_and_procedures</t>
+  </si>
+  <si>
+    <t>form.question8.emergency_management_-_guidelines_reports_procedures_medicines_and_training</t>
+  </si>
+  <si>
+    <t>form.question8.followuptoEmergencyYes</t>
+  </si>
+  <si>
+    <t>form.question8.highlyRecommendedItems</t>
+  </si>
+  <si>
+    <t>form.question8.packsKitsAvailable</t>
+  </si>
+  <si>
+    <t>form.question8.pepMedicinesAvailability</t>
+  </si>
+  <si>
+    <t>form.question8.siteType</t>
+  </si>
+  <si>
+    <t>form.question8.staffKnowledgeonReportingStructure</t>
+  </si>
+  <si>
+    <t>form.question8.staffPEPTimeframe</t>
+  </si>
+  <si>
+    <t>form.question8.staffPEPeligibility</t>
+  </si>
+  <si>
+    <t>form.question8.staffabletoExplainEmergencyProcedures</t>
+  </si>
+  <si>
+    <t>form.question8.trainingonAdrenaline</t>
+  </si>
+  <si>
+    <t>form.question8.traininingEmergencyProcedures</t>
+  </si>
+  <si>
+    <t>form.section_a_-_facilities_supplies_equipment_and_emergency_management.OperatingTheatreComment</t>
+  </si>
+  <si>
+    <t>form.section_a_-_facilities_supplies_equipment_and_emergency_management.anaestheticDosingCharts</t>
+  </si>
+  <si>
+    <t>form.section_a_-_facilities_supplies_equipment_and_emergency_management.bloodPressureCuff</t>
+  </si>
+  <si>
+    <t>form.section_a_-_facilities_supplies_equipment_and_emergency_management.blood_pressure_cuff</t>
+  </si>
+  <si>
+    <t>form.section_a_-_facilities_supplies_equipment_and_emergency_management.clientSpaceSize</t>
+  </si>
+  <si>
+    <t>form.section_a_-_facilities_supplies_equipment_and_emergency_management.copy-1-of-question1</t>
+  </si>
+  <si>
+    <t>form.section_a_-_facilities_supplies_equipment_and_emergency_management.copy-1-of-scale</t>
+  </si>
+  <si>
+    <t>form.section_a_-_facilities_supplies_equipment_and_emergency_management.copy-2-of-scale</t>
+  </si>
+  <si>
+    <t>form.section_a_-_facilities_supplies_equipment_and_emergency_management.copy-3-of-scale</t>
+  </si>
+  <si>
+    <t>form.section_a_-_facilities_supplies_equipment_and_emergency_management.examinationroomSpace</t>
+  </si>
+  <si>
+    <t>form.section_a_-_facilities_supplies_equipment_and_emergency_management.examinationroomTemperature</t>
+  </si>
+  <si>
+    <t>form.section_a_-_facilities_supplies_equipment_and_emergency_management.examionationroomLighting</t>
+  </si>
+  <si>
+    <t>form.section_a_-_facilities_supplies_equipment_and_emergency_management.handDryingMaterial</t>
+  </si>
+  <si>
+    <t>form.section_a_-_facilities_supplies_equipment_and_emergency_management.operatingBeds</t>
+  </si>
+  <si>
+    <t>form.section_a_-_facilities_supplies_equipment_and_emergency_management.operatingTheatreSoap</t>
+  </si>
+  <si>
+    <t>form.section_a_-_facilities_supplies_equipment_and_emergency_management.operatingTheatreTemperature</t>
+  </si>
+  <si>
+    <t>form.section_a_-_facilities_supplies_equipment_and_emergency_management.operatingTheatreVisualPrivacy</t>
+  </si>
+  <si>
+    <t>form.section_a_-_facilities_supplies_equipment_and_emergency_management.operatingTheatreWater</t>
+  </si>
+  <si>
+    <t>form.section_a_-_facilities_supplies_equipment_and_emergency_management.procedureroomLighting</t>
+  </si>
+  <si>
+    <t>form.section_a_-_facilities_supplies_equipment_and_emergency_management.procedureroomSpace</t>
+  </si>
+  <si>
+    <t>form.section_a_-_facilities_supplies_equipment_and_emergency_management.question1</t>
+  </si>
+  <si>
+    <t>form.section_a_-_facilities_supplies_equipment_and_emergency_management.recoveryroomLighting</t>
+  </si>
+  <si>
+    <t>form.section_a_-_facilities_supplies_equipment_and_emergency_management.recoveryroomSpace</t>
+  </si>
+  <si>
+    <t>form.section_a_-_facilities_supplies_equipment_and_emergency_management.recoveryroomTemperature</t>
+  </si>
+  <si>
+    <t>form.section_a_-_facilities_supplies_equipment_and_emergency_management.scale</t>
+  </si>
+  <si>
+    <t>form.section_a_-_facilities_supplies_equipment_and_emergency_management.scaleonSite</t>
+  </si>
+  <si>
+    <t>form.section_a_-_facilities_supplies_equipment_and_emergency_management.spaceCleaniness</t>
+  </si>
+  <si>
+    <t>form.section_a_-_facilities_supplies_equipment_and_emergency_management.vmmcOperatingRooms</t>
+  </si>
+  <si>
+    <t>form.section_a_-_facilities_supplies_equipment_and_emergency_management.waitingSpace</t>
+  </si>
+  <si>
     <t>form.demand_creation_-_undersaved_populations__community_involvement.copy-1-of-dcTargetPopulationComment</t>
   </si>
   <si>
-    <t>form.demand_creation_-_undersaved_populations__community_involvement.dcCommunityCadres</t>
-  </si>
-  <si>
     <t>form.demand_creation_-_undersaved_populations__community_involvement.dcCommunityCadresComment</t>
   </si>
   <si>
-    <t>form.demand_creation_-_undersaved_populations__community_involvement.dcInnovation</t>
-  </si>
-  <si>
-    <t>form.demand_creation_-_undersaved_populations__community_involvement.dcTargetPopulation</t>
-  </si>
-  <si>
     <t>form.demand_creation_-_undersaved_populations__community_involvement.dcTargetPopulationComment</t>
   </si>
   <si>
-    <t>form.demand_creation_-_undersaved_populations__community_involvement.give_overall_comment_demand_creation</t>
-  </si>
-  <si>
-    <t>form.demand_creation_-_undersaved_populations__community_involvement.innovation</t>
-  </si>
-  <si>
-    <t>form.section_c_-_demand_creation.abilitytoEngagewithParticipants</t>
-  </si>
-  <si>
-    <t>form.section_c_-_demand_creation.abilitytoWindupSession</t>
-  </si>
-  <si>
-    <t>form.section_c_-_demand_creation.activeMobilisers</t>
-  </si>
-  <si>
-    <t>form.section_c_-_demand_creation.age15-24dcStrategy</t>
-  </si>
-  <si>
-    <t>form.section_c_-_demand_creation.age25-24dcStrategy</t>
-  </si>
-  <si>
-    <t>form.section_c_-_demand_creation.consentFormsDC</t>
-  </si>
-  <si>
-    <t>form.section_c_-_demand_creation.contentAccuracy</t>
-  </si>
-  <si>
-    <t>form.section_c_-_demand_creation.contentRelevance</t>
-  </si>
-  <si>
-    <t>form.section_c_-_demand_creation.dcComment</t>
-  </si>
-  <si>
-    <t>form.section_c_-_demand_creation.dcPlanObjectives</t>
-  </si>
-  <si>
-    <t>form.section_c_-_demand_creation.hrh_for_demand_creation</t>
-  </si>
-  <si>
-    <t>form.section_c_-_demand_creation.iecMaterial</t>
-  </si>
-  <si>
-    <t>form.section_c_-_demand_creation.inactiveMobilisers</t>
-  </si>
-  <si>
-    <t>form.section_c_-_demand_creation.intergrationOfKeyHIVPreventionMsgs</t>
-  </si>
-  <si>
-    <t>form.section_c_-_demand_creation.intergrationOfOtherHealthMsgs</t>
-  </si>
-  <si>
-    <t>form.section_c_-_demand_creation.introductionDC</t>
-  </si>
-  <si>
-    <t>form.section_c_-_demand_creation.key_strategies_by_age_group</t>
-  </si>
-  <si>
-    <t>form.section_c_-_demand_creation.observe_demand_creation_if_available</t>
-  </si>
-  <si>
-    <t>form.section_c_-_demand_creation.posters</t>
-  </si>
-  <si>
-    <t>form.section_c_-_demand_creation.programme_visibility</t>
-  </si>
-  <si>
-    <t>form.section_c_-_demand_creation.sessionDurationDC</t>
-  </si>
-  <si>
-    <t>form.section_c_-_demand_creation.work_plan</t>
-  </si>
-  <si>
-    <t>form.section_c_-_demand_creation.workplanDC</t>
-  </si>
-  <si>
-    <t>form.copy-1-of-data_quality_assessment.adverseEvents2WT</t>
-  </si>
-  <si>
-    <t>form.copy-1-of-data_quality_assessment.clientConcerns2WT</t>
-  </si>
-  <si>
-    <t>form.copy-1-of-data_quality_assessment.clientSatisfaction2WT</t>
-  </si>
-  <si>
-    <t>form.copy-1-of-data_quality_assessment.dataAccuracy2WT</t>
-  </si>
-  <si>
-    <t>form.copy-1-of-data_quality_assessment.demographicAnalysis2WT</t>
-  </si>
-  <si>
-    <t>form.copy-1-of-data_quality_assessment.ehrEnrollmentRate</t>
-  </si>
-  <si>
-    <t>form.copy-1-of-data_quality_assessment.ehrUsage</t>
-  </si>
-  <si>
-    <t>form.copy-1-of-data_quality_assessment.electronic_health_record_ehr_-_look_at_total_number_of_clients_circumcised_</t>
-  </si>
-  <si>
-    <t>form.copy-1-of-data_quality_assessment.enrollmentRate2WT</t>
-  </si>
-  <si>
-    <t>form.copy-1-of-data_quality_assessment.linkages_and_referrals</t>
-  </si>
-  <si>
-    <t>form.copy-1-of-data_quality_assessment.look_at_total_number_of_clients_circumcised_by_the_site_in_the_past_three_m</t>
-  </si>
-  <si>
-    <t>form.copy-1-of-data_quality_assessment.optOurRate2WT</t>
-  </si>
-  <si>
-    <t>form.copy-1-of-data_quality_assessment.referralDocumentation</t>
-  </si>
-  <si>
-    <t>form.copy-1-of-data_quality_assessment.staffTraining2WT</t>
-  </si>
-  <si>
-    <t>form.copy-1-of-data_quality_assessment.twoWayComment</t>
-  </si>
-  <si>
-    <t>form.data_quality_assessment.aeDocumentation</t>
-  </si>
-  <si>
-    <t>form.data_quality_assessment.client_record_review_-_the_assesors_should_sample_at_least_twenty_five_25_c</t>
-  </si>
-  <si>
-    <t>form.data_quality_assessment.consentForms</t>
-  </si>
-  <si>
-    <t>form.data_quality_assessment.data_triangulation</t>
-  </si>
-  <si>
-    <t>form.data_quality_assessment.meOverallComment</t>
-  </si>
-  <si>
-    <t>form.data_quality_assessment.month_year_repeat_group</t>
-  </si>
-  <si>
-    <t>form.data_quality_assessment.recordFilling</t>
-  </si>
-  <si>
-    <t>form.data_quality_assessment.recordsSecure</t>
-  </si>
-  <si>
-    <t>form.data_quality_assessment.sampleCIFChecking</t>
-  </si>
-  <si>
-    <t>form.period_under_review_starting_point.period_under_review_ending_point.endingMonth</t>
-  </si>
-  <si>
-    <t>form.period_under_review_starting_point.period_under_review_ending_point.endingYear</t>
-  </si>
-  <si>
-    <t>form.period_under_review_starting_point.startingMonth</t>
-  </si>
-  <si>
-    <t>form.period_under_review_starting_point.startingYear</t>
-  </si>
-  <si>
-    <t>form.question3.availableKits</t>
-  </si>
-  <si>
-    <t>form.question3.copy-1-of-facilities_supplies__equipment_-_equipment_storage_visually_inspect_the_sto</t>
-  </si>
-  <si>
-    <t>form.question3.copy-2-of-facilities_supplies__equipment_-_equipment_storage_visually_inspect_the_sto</t>
-  </si>
-  <si>
-    <t>form.question3.copy-3-of-facilities_supplies__equipment_-_equipment_storage_visually_inspect_the_sto</t>
-  </si>
-  <si>
-    <t>form.question3.copy-4-of-scale</t>
-  </si>
-  <si>
-    <t>form.question3.facilities_supplies__equipment_-_equipment_storage_visually_inspect_the_sto</t>
-  </si>
-  <si>
-    <t>form.question3.sterileKitsCleanArea</t>
-  </si>
-  <si>
-    <t>form.question3.sterileKitsElevated</t>
-  </si>
-  <si>
-    <t>form.question3.sterileKitsNotTouchingCeiling</t>
-  </si>
-  <si>
-    <t>form.question3.sterileKitsNotTouchingWalls</t>
-  </si>
-  <si>
-    <t>form.question3.stock-outRTKs</t>
-  </si>
-  <si>
-    <t>form.question3.stock-outRTKstoPatientNotTested</t>
-  </si>
-  <si>
-    <t>form.question3.storageforRTKs</t>
-  </si>
-  <si>
-    <t>form.question3.sufficientReusableSupply</t>
-  </si>
-  <si>
-    <t>form.question3.sufficientReusableSupplyReason</t>
-  </si>
-  <si>
-    <t>form.question3.suppliesAvailable</t>
-  </si>
-  <si>
-    <t>form.question3.suppliesComment</t>
-  </si>
-  <si>
-    <t>form.question3.temperatureHIVtestKits</t>
-  </si>
-  <si>
-    <t>form.question5.clientHTSPrivacy</t>
-  </si>
-  <si>
-    <t>form.question5.condom-stock-outs</t>
-  </si>
-  <si>
-    <t>form.question5.condomCompatibleLubricants</t>
-  </si>
-  <si>
-    <t>form.question5.condomDemonstration</t>
-  </si>
-  <si>
-    <t>form.question5.condomsAvailableToday</t>
-  </si>
-  <si>
-    <t>form.question5.condomsExpiringStatus</t>
-  </si>
-  <si>
-    <t>form.question5.copy-4-of-facilities_supplies__equipment_-_equipment_storage_visually_inspect_the_sto</t>
-  </si>
-  <si>
-    <t>form.question5.copy-5-of-facilities_supplies__equipment_-_equipment_storage_visually_inspect_the_sto</t>
-  </si>
-  <si>
-    <t>form.question5.dentalDams</t>
-  </si>
-  <si>
-    <t>form.question5.htsContainers</t>
-  </si>
-  <si>
-    <t>form.question5.htsandSTIComment</t>
-  </si>
-  <si>
-    <t>form.question5.htsdisposableGloves</t>
-  </si>
-  <si>
-    <t>form.question5.htsroomSanitationSupplies</t>
-  </si>
-  <si>
-    <t>form.question5.is_there_a_plan_for_monitoring_condom_supply</t>
-  </si>
-  <si>
-    <t>form.question5.siteCondoms</t>
-  </si>
-  <si>
-    <t>form.question6.antibiotics</t>
-  </si>
-  <si>
-    <t>form.question6.availableDrugs</t>
-  </si>
-  <si>
-    <t>form.question6.facilities_supplies__equipment_-_medicines</t>
-  </si>
-  <si>
-    <t>form.question6.local_anesthetics__has_the_site_been_free_of_stock_outs_for_the_past_3_mont</t>
-  </si>
-  <si>
-    <t>form.question6.medicineStockouts</t>
-  </si>
-  <si>
-    <t>form.question6.medicineStorage</t>
-  </si>
-  <si>
-    <t>form.question6.medicinesComment</t>
-  </si>
-  <si>
-    <t>form.question6.medicinesDispensed</t>
-  </si>
-  <si>
-    <t>form.question6.medicinesLabelling</t>
-  </si>
-  <si>
-    <t>form.question6.medicinesOrganisation</t>
-  </si>
-  <si>
-    <t>form.question6.medicinesSecureArea</t>
-  </si>
-  <si>
-    <t>form.question6.medicinesShelflife</t>
-  </si>
-  <si>
-    <t>form.question6.medicinesTemperature</t>
-  </si>
-  <si>
-    <t>form.question6.oralAnalgesics</t>
-  </si>
-  <si>
-    <t>form.question6.oralAnalgesicsStockOut</t>
-  </si>
-  <si>
-    <t>form.question6.stiMedicines</t>
-  </si>
-  <si>
-    <t>form.question6.stiMedicinesStockOuts</t>
-  </si>
-  <si>
-    <t>form.question7.IncineratorSecure</t>
-  </si>
-  <si>
-    <t>form.question7.colorCodedContainers</t>
-  </si>
-  <si>
-    <t>form.question7.dispensingRecordsUptodate</t>
-  </si>
-  <si>
-    <t>form.question7.disposal_of_non_reusable_instruments</t>
-  </si>
-  <si>
-    <t>form.question7.documentationofMedicationsDispensed</t>
-  </si>
-  <si>
-    <t>form.question7.facilities_supplies__equipment_-_medication_dispensing</t>
-  </si>
-  <si>
-    <t>form.question7.facilities_supplies__equipment_-_waste_management</t>
-  </si>
-  <si>
-    <t>form.question7.fenced_lockable_waste_disposal_area</t>
-  </si>
-  <si>
-    <t>form.question7.incinerator</t>
-  </si>
-  <si>
-    <t>form.question7.incineratorAutowayPit</t>
-  </si>
-  <si>
-    <t>form.question7.incineratorPollutionControl</t>
-  </si>
-  <si>
-    <t>form.question7.loose_non_containerized</t>
-  </si>
-  <si>
-    <t>form.question7.medicineDispensingComment</t>
-  </si>
-  <si>
-    <t>form.question7.non_burn_technology</t>
-  </si>
-  <si>
-    <t>form.question7.wasteContainers</t>
-  </si>
-  <si>
-    <t>form.question7.wasteContainersAtBed</t>
-  </si>
-  <si>
-    <t>form.question7.wasteManagementJobAids</t>
-  </si>
-  <si>
-    <t>form.question7.wastesegregated</t>
-  </si>
-  <si>
-    <t>form.question7.wastetemporaryStorage</t>
-  </si>
-  <si>
-    <t>form.question7.writtenProtocolMedicalDispensing</t>
-  </si>
-  <si>
-    <t>form.question8.clinicalStaffTraining</t>
-  </si>
-  <si>
-    <t>form.question8.documentationStatus</t>
-  </si>
-  <si>
-    <t>form.question8.emergencyCart</t>
-  </si>
-  <si>
-    <t>form.question8.emergencyCartStatus</t>
-  </si>
-  <si>
-    <t>form.question8.emergencyManagementComment</t>
-  </si>
-  <si>
-    <t>form.question8.emergencyMaterialsinStock</t>
-  </si>
-  <si>
-    <t>form.question8.emergencySuppliesStatus</t>
-  </si>
-  <si>
-    <t>form.question8.emergency_management_-_adverse_event_prevention_and_management_vmmc_emergen</t>
-  </si>
-  <si>
-    <t>form.question8.emergency_management_-_emergency_practices_and_procedures</t>
-  </si>
-  <si>
-    <t>form.question8.emergency_management_-_guidelines_reports_procedures_medicines_and_training</t>
-  </si>
-  <si>
-    <t>form.question8.followuptoEmergencyYes</t>
-  </si>
-  <si>
-    <t>form.question8.highlyRecommendedItems</t>
-  </si>
-  <si>
-    <t>form.question8.packsKitsAvailable</t>
-  </si>
-  <si>
-    <t>form.question8.pepMedicinesAvailability</t>
-  </si>
-  <si>
-    <t>form.question8.siteType</t>
-  </si>
-  <si>
-    <t>form.question8.staffKnowledgeonReportingStructure</t>
-  </si>
-  <si>
-    <t>form.question8.staffPEPTimeframe</t>
-  </si>
-  <si>
-    <t>form.question8.staffPEPeligibility</t>
-  </si>
-  <si>
-    <t>form.question8.staffabletoExplainEmergencyProcedures</t>
-  </si>
-  <si>
-    <t>form.question8.trainingonAdrenaline</t>
-  </si>
-  <si>
-    <t>form.question8.traininingEmergencyProcedures</t>
-  </si>
-  <si>
-    <t>form.section_a_-_facilities_supplies_equipment_and_emergency_management.OperatingTheatreComment</t>
-  </si>
-  <si>
-    <t>form.section_a_-_facilities_supplies_equipment_and_emergency_management.anaestheticDosingCharts</t>
-  </si>
-  <si>
-    <t>form.section_a_-_facilities_supplies_equipment_and_emergency_management.bloodPressureCuff</t>
-  </si>
-  <si>
-    <t>form.section_a_-_facilities_supplies_equipment_and_emergency_management.blood_pressure_cuff</t>
-  </si>
-  <si>
-    <t>form.section_a_-_facilities_supplies_equipment_and_emergency_management.clientSpaceSize</t>
-  </si>
-  <si>
-    <t>form.section_a_-_facilities_supplies_equipment_and_emergency_management.copy-1-of-question1</t>
-  </si>
-  <si>
-    <t>form.section_a_-_facilities_supplies_equipment_and_emergency_management.copy-1-of-scale</t>
-  </si>
-  <si>
-    <t>form.section_a_-_facilities_supplies_equipment_and_emergency_management.copy-2-of-scale</t>
-  </si>
-  <si>
-    <t>form.section_a_-_facilities_supplies_equipment_and_emergency_management.copy-3-of-scale</t>
-  </si>
-  <si>
-    <t>form.section_a_-_facilities_supplies_equipment_and_emergency_management.examinationroomSpace</t>
-  </si>
-  <si>
-    <t>form.section_a_-_facilities_supplies_equipment_and_emergency_management.examinationroomTemperature</t>
-  </si>
-  <si>
-    <t>form.section_a_-_facilities_supplies_equipment_and_emergency_management.examionationroomLighting</t>
-  </si>
-  <si>
-    <t>form.section_a_-_facilities_supplies_equipment_and_emergency_management.handDryingMaterial</t>
-  </si>
-  <si>
-    <t>form.section_a_-_facilities_supplies_equipment_and_emergency_management.operatingBeds</t>
-  </si>
-  <si>
-    <t>form.section_a_-_facilities_supplies_equipment_and_emergency_management.operatingTheatreSoap</t>
-  </si>
-  <si>
-    <t>form.section_a_-_facilities_supplies_equipment_and_emergency_management.operatingTheatreTemperature</t>
-  </si>
-  <si>
-    <t>form.section_a_-_facilities_supplies_equipment_and_emergency_management.operatingTheatreVisualPrivacy</t>
-  </si>
-  <si>
-    <t>form.section_a_-_facilities_supplies_equipment_and_emergency_management.operatingTheatreWater</t>
-  </si>
-  <si>
-    <t>form.section_a_-_facilities_supplies_equipment_and_emergency_management.procedureroomLighting</t>
-  </si>
-  <si>
-    <t>form.section_a_-_facilities_supplies_equipment_and_emergency_management.procedureroomSpace</t>
-  </si>
-  <si>
-    <t>form.section_a_-_facilities_supplies_equipment_and_emergency_management.question1</t>
-  </si>
-  <si>
-    <t>form.section_a_-_facilities_supplies_equipment_and_emergency_management.recoveryroomLighting</t>
-  </si>
-  <si>
-    <t>form.section_a_-_facilities_supplies_equipment_and_emergency_management.recoveryroomSpace</t>
-  </si>
-  <si>
-    <t>form.section_a_-_facilities_supplies_equipment_and_emergency_management.recoveryroomTemperature</t>
-  </si>
-  <si>
-    <t>form.section_a_-_facilities_supplies_equipment_and_emergency_management.scale</t>
-  </si>
-  <si>
-    <t>form.section_a_-_facilities_supplies_equipment_and_emergency_management.scaleonSite</t>
-  </si>
-  <si>
-    <t>form.section_a_-_facilities_supplies_equipment_and_emergency_management.spaceCleaniness</t>
-  </si>
-  <si>
-    <t>form.section_a_-_facilities_supplies_equipment_and_emergency_management.vmmcOperatingRooms</t>
-  </si>
-  <si>
-    <t>form.section_a_-_facilities_supplies_equipment_and_emergency_management.waitingSpace</t>
-  </si>
-  <si>
     <t>0778c330a59625e988e36d5a7d0386b6</t>
   </si>
   <si>
+    <t>e2544365dbd4495297f39707aab5ba62</t>
+  </si>
+  <si>
     <t>a0eac329e9cc4cb6909e9e6eb4bad3f0</t>
   </si>
   <si>
@@ -1513,6 +1525,24 @@
     <t>zdip-qa</t>
   </si>
   <si>
+    <t>265916d1-05c3-471f-a747-709e99552fc3</t>
+  </si>
+  <si>
+    <t>9038657b-7386-45b4-b922-d6f0f3121e1e</t>
+  </si>
+  <si>
+    <t>5c9c9a8f-343f-4d35-9858-2daae3500845</t>
+  </si>
+  <si>
+    <t>ebe03cf1-a141-4d52-bd59-0d688d730a8c</t>
+  </si>
+  <si>
+    <t>fd877788-e19f-4e42-8719-99a69f9f03bd</t>
+  </si>
+  <si>
+    <t>03a9217a-7813-4cd6-83d0-d17c9dcea85a</t>
+  </si>
+  <si>
     <t>295f78e0-a306-4db5-aae8-61ce50d62ec7</t>
   </si>
   <si>
@@ -1528,6 +1558,24 @@
     <t>a20d1e38-3261-4940-ab0d-894d0c78b0d1</t>
   </si>
   <si>
+    <t>2025-06-28T08:50:59.428003Z</t>
+  </si>
+  <si>
+    <t>2025-06-28T08:47:04.388527Z</t>
+  </si>
+  <si>
+    <t>2025-06-28T08:41:05.905530Z</t>
+  </si>
+  <si>
+    <t>2025-06-28T08:38:33.194573Z</t>
+  </si>
+  <si>
+    <t>2025-06-28T08:19:49.354234Z</t>
+  </si>
+  <si>
+    <t>2025-06-28T08:10:58.454194Z</t>
+  </si>
+  <si>
     <t>2025-06-27T17:32:40.798674Z</t>
   </si>
   <si>
@@ -1543,6 +1591,24 @@
     <t>2025-06-27T17:06:09.311792Z</t>
   </si>
   <si>
+    <t>2025-06-28T08:50:59.231581Z</t>
+  </si>
+  <si>
+    <t>2025-06-28T08:47:04.336179Z</t>
+  </si>
+  <si>
+    <t>2025-06-28T08:41:05.800777Z</t>
+  </si>
+  <si>
+    <t>2025-06-28T08:38:33.051525Z</t>
+  </si>
+  <si>
+    <t>2025-06-28T08:19:48.560738Z</t>
+  </si>
+  <si>
+    <t>2025-06-28T08:10:58.247144Z</t>
+  </si>
+  <si>
     <t>2025-06-27T17:32:40.730283Z</t>
   </si>
   <si>
@@ -1558,6 +1624,24 @@
     <t>2025-06-27T17:06:09.110083Z</t>
   </si>
   <si>
+    <t>2025-06-28T08:50:59.327437Z</t>
+  </si>
+  <si>
+    <t>2025-06-28T08:47:04.360033Z</t>
+  </si>
+  <si>
+    <t>2025-06-28T08:41:05.869487Z</t>
+  </si>
+  <si>
+    <t>2025-06-28T08:38:33.146964Z</t>
+  </si>
+  <si>
+    <t>2025-06-28T08:19:48.651958Z</t>
+  </si>
+  <si>
+    <t>2025-06-28T08:10:58.370238Z</t>
+  </si>
+  <si>
     <t>2025-06-27T17:32:40.753562Z</t>
   </si>
   <si>
@@ -1573,6 +1657,9 @@
     <t>2025-06-27T17:06:09.198105Z</t>
   </si>
   <si>
+    <t>77.246.52.58</t>
+  </si>
+  <si>
     <t>77.246.52.39</t>
   </si>
   <si>
@@ -1582,6 +1669,9 @@
     <t>1</t>
   </si>
   <si>
+    <t>664</t>
+  </si>
+  <si>
     <t>650</t>
   </si>
   <si>
@@ -1594,6 +1684,24 @@
     <t>text/xml</t>
   </si>
   <si>
+    <t>https://zdip.zimttech.org/a/zdip-qa/api/form_attachment/v1/265916d1-05c3-471f-a747-709e99552fc3/form.xml</t>
+  </si>
+  <si>
+    <t>https://zdip.zimttech.org/a/zdip-qa/api/form_attachment/v1/9038657b-7386-45b4-b922-d6f0f3121e1e/form.xml</t>
+  </si>
+  <si>
+    <t>https://zdip.zimttech.org/a/zdip-qa/api/form_attachment/v1/5c9c9a8f-343f-4d35-9858-2daae3500845/form.xml</t>
+  </si>
+  <si>
+    <t>https://zdip.zimttech.org/a/zdip-qa/api/form_attachment/v1/ebe03cf1-a141-4d52-bd59-0d688d730a8c/form.xml</t>
+  </si>
+  <si>
+    <t>https://zdip.zimttech.org/a/zdip-qa/api/form_attachment/v1/fd877788-e19f-4e42-8719-99a69f9f03bd/form.xml</t>
+  </si>
+  <si>
+    <t>https://zdip.zimttech.org/a/zdip-qa/api/form_attachment/v1/03a9217a-7813-4cd6-83d0-d17c9dcea85a/form.xml</t>
+  </si>
+  <si>
     <t>https://zdip.zimttech.org/a/zdip-qa/api/form_attachment/v1/295f78e0-a306-4db5-aae8-61ce50d62ec7/form.xml</t>
   </si>
   <si>
@@ -1630,6 +1738,9 @@
     <t>a</t>
   </si>
   <si>
+    <t>done well</t>
+  </si>
+  <si>
     <t>well done</t>
   </si>
   <si>
@@ -1645,12 +1756,18 @@
     <t>0</t>
   </si>
   <si>
+    <t>8</t>
+  </si>
+  <si>
     <t>6</t>
   </si>
   <si>
     <t>http://openrosa.org/jr/xforms</t>
   </si>
   <si>
+    <t>CommCare Android, version "2.56.1"(471796). App v664. CommCare Version 2.56.1. Build 471796, built on: 2025-05-12</t>
+  </si>
+  <si>
     <t>CommCare Android, version "2.56.1"(471796). App v650. CommCare Version 2.56.1. Build 471796, built on: 2025-05-12</t>
   </si>
   <si>
@@ -1663,9 +1780,30 @@
     <t>2.56.1</t>
   </si>
   <si>
+    <t>commcare_dd89ac76-97fc-4469-a940-3e15381b55b0</t>
+  </si>
+  <si>
     <t>commcare_c0bf9f85-6d1f-4563-a7b5-e60f61118366</t>
   </si>
   <si>
+    <t>2025-06-28T08:50:59.002000Z</t>
+  </si>
+  <si>
+    <t>2025-06-28T08:47:03.968000Z</t>
+  </si>
+  <si>
+    <t>2025-06-28T08:41:05.474000Z</t>
+  </si>
+  <si>
+    <t>2025-06-28T08:38:32.959000Z</t>
+  </si>
+  <si>
+    <t>2025-06-28T08:19:48.320000Z</t>
+  </si>
+  <si>
+    <t>2025-06-28T08:10:57.661000Z</t>
+  </si>
+  <si>
     <t>2025-06-27T17:32:36.625000Z</t>
   </si>
   <si>
@@ -1681,6 +1819,24 @@
     <t>2025-06-27T17:06:06.136000Z</t>
   </si>
   <si>
+    <t>2025-06-28T08:47:13.265000Z</t>
+  </si>
+  <si>
+    <t>2025-06-28T08:41:10.797000Z</t>
+  </si>
+  <si>
+    <t>2025-06-28T08:39:33.847000Z</t>
+  </si>
+  <si>
+    <t>2025-06-28T08:35:43.106000Z</t>
+  </si>
+  <si>
+    <t>2025-06-28T08:11:27.823000Z</t>
+  </si>
+  <si>
+    <t>2025-06-28T07:56:30.073000Z</t>
+  </si>
+  <si>
     <t>2025-06-27T17:27:13.723000Z</t>
   </si>
   <si>
@@ -1702,12 +1858,24 @@
     <t>amutenha</t>
   </si>
   <si>
+    <t>Condom Use was  properly demonstrated</t>
+  </si>
+  <si>
+    <t>HURUNGWE</t>
+  </si>
+  <si>
     <t>GOKWE SOUTH</t>
   </si>
   <si>
+    <t>Karoi District Hospital</t>
+  </si>
+  <si>
     <t>Sai Clinic</t>
   </si>
   <si>
+    <t>Counseller delivered the session very well</t>
+  </si>
+  <si>
     <t>All it Order</t>
   </si>
   <si>
@@ -1717,57 +1885,108 @@
     <t>3</t>
   </si>
   <si>
+    <t>Facility is doing ok</t>
+  </si>
+  <si>
     <t>Under staffing</t>
   </si>
   <si>
+    <t>VMMC_Nurse_Counsellors VMMC_circumcisors:_Nursing VMMC_circumcisors:_Doctors Cleaners/Theatre_Hands/Runners Community_Health_Workers</t>
+  </si>
+  <si>
     <t>VMMC_Nurse_Counsellors VMMC_circumcisors:_Nursing</t>
   </si>
   <si>
+    <t>Health_Promotional_Officer Community_Nursing DAC</t>
+  </si>
+  <si>
     <t>Health_Promotional_Officer Community_Nursing</t>
   </si>
   <si>
+    <t>Chiefs Headmen Councilors</t>
+  </si>
+  <si>
     <t>Chiefs Headmen</t>
   </si>
   <si>
+    <t>Yes , they introduced talk shows that are hosted after every two months</t>
+  </si>
+  <si>
     <t>Yes have introduced the Vmmc - viac linkage system</t>
   </si>
   <si>
+    <t>Artisanal_Miners Men_who_go_to_work</t>
+  </si>
+  <si>
     <t>Artisanal_Miners Men_who_go_to_work Other_highly_mobile_men Remote_Communities</t>
   </si>
   <si>
+    <t>Facility is doing relatively well</t>
+  </si>
+  <si>
+    <t>Standards were met</t>
+  </si>
+  <si>
     <t>Door to door were the main activites for age group 15-24 and market place mobilisatiin for the older age group</t>
   </si>
   <si>
+    <t>Facility is doing well. There are only data discepencies in DHIS2 that needs to be corrected</t>
+  </si>
+  <si>
     <t>2WT system is working well</t>
   </si>
   <si>
+    <t>There are issues with data in DHIS2</t>
+  </si>
+  <si>
     <t>All data tallied</t>
   </si>
   <si>
+    <t>[{'calculatedMonth': 'June', 'calculatedYear': '2025', 'calculated_month_numeric': '6', 'cifno': '15', 'copy-1-of-calculated_month_numeric': 'OK', 'copy-1-of-cifno': '13', 'current_iteration': '0', 'mrfmcs': '15', 'registermcs': '15'}, {'calculatedMonth': 'July', 'calculatedYear': '2025', 'calculated_month_numeric': '7', 'cifno': '6', 'copy-1-of-calculated_month_numeric': 'OK', 'copy-1-of-cifno': '6', 'current_iteration': '1', 'mrfmcs': '6', 'registermcs': '6'}, {'calculatedMonth': 'August', 'calculatedYear': '2025', 'calculated_month_numeric': '8', 'cifno': '9', 'copy-1-of-calculated_month_numeric': 'OK', 'copy-1-of-cifno': '6', 'current_iteration': '2', 'mrfmcs': '9', 'registermcs': '9'}]</t>
+  </si>
+  <si>
     <t>[{'calculatedMonth': 'April', 'calculatedYear': '2024', 'calculated_month_numeric': '4', 'cifno': '0', 'copy-1-of-calculated_month_numeric': 'OK', 'copy-1-of-cifno': '0', 'current_iteration': '0', 'mrfmcs': '0', 'registermcs': '0'}, {'calculatedMonth': 'May', 'calculatedYear': '2024', 'calculated_month_numeric': '5', 'cifno': '12', 'copy-1-of-calculated_month_numeric': 'OK', 'copy-1-of-cifno': '12', 'current_iteration': '1', 'mrfmcs': '12', 'registermcs': '12'}, {'calculatedMonth': 'June', 'calculatedYear': '2024', 'calculated_month_numeric': '6', 'cifno': '9', 'copy-1-of-calculated_month_numeric': 'OK', 'copy-1-of-cifno': '9', 'current_iteration': '2', 'mrfmcs': '9', 'registermcs': '9'}]</t>
   </si>
   <si>
     <t>Client_Name Client_Address dob MC_Method HIV_Testing_Offered_/HIV_Status_Data Medical_Screening_and_Physical_Examination</t>
   </si>
   <si>
+    <t>August</t>
+  </si>
+  <si>
     <t>June</t>
   </si>
   <si>
+    <t>2025</t>
+  </si>
+  <si>
     <t>2024</t>
   </si>
   <si>
     <t>April</t>
   </si>
   <si>
+    <t>Disposable_Dorsal_slit Reusable_Dorsal_slit</t>
+  </si>
+  <si>
     <t>Reusable_Dorsal_slit Device_removal_kit</t>
   </si>
   <si>
     <t>No Funding</t>
   </si>
   <si>
+    <t>Disposable_gloves Syringes_with_needles</t>
+  </si>
+  <si>
     <t>Disposable_gloves Syringes_with_needles Lancets_for_adults_and_pediatric_capillary_blood_drawing Rigid_WHO-approved_sharps_containers</t>
   </si>
   <si>
+    <t>Room for improvement</t>
+  </si>
+  <si>
+    <t>There is room for improvement</t>
+  </si>
+  <si>
     <t>All HTS and STI regulations meet</t>
   </si>
   <si>
@@ -1786,13 +2005,28 @@
     <t>amoxycillinclavulanic_acid erythromycin</t>
   </si>
   <si>
+    <t>Doing well</t>
+  </si>
+  <si>
+    <t>doing relatively well</t>
+  </si>
+  <si>
     <t>No Bins in the rooms</t>
   </si>
   <si>
+    <t>Facility is doing relatively well save for issues to do with examination room that needs attention</t>
+  </si>
+  <si>
+    <t>Stethoscope Sphygmomanometer Adult_Blood_pressure_cuff Sphygmomanometer_Batteries Sodium_Chloride Tourniquet IV_Infusion_Tubing 3_sizes_of_IV_Catheters Adrenaline Hydrocortisone 2_Sizes_of_Syringes 2_Sizes_of_Needles Oxygen_and_accessories Bags_and_Masks_for_children Bags_and_Masks_for_adults Exam_gloves Alcohol_Swabs Gauze Adhesive_Tape Oropharyngeal_Airways Stethoscope_is_not_shared sphygmomanometer_dedicated_to_Emergency_Cart_and_is_not_shared</t>
+  </si>
+  <si>
     <t>Stethoscope Sphygmomanometer Adult_Blood_pressure_cuff Sphygmomanometer_Batteries Sodium_Chloride Tourniquet IV_Infusion_Tubing 3_sizes_of_IV_Catheters Adrenaline</t>
   </si>
   <si>
     <t>glucometer Glucometer_Strips Pulse-oximeter</t>
+  </si>
+  <si>
+    <t>Didn't meet all required expections</t>
   </si>
   <si>
     <t>The Facility has meet all Standards in th Operating theatre and recovery room</t>
@@ -2166,13 +2400,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:SA6"/>
+  <dimension ref="A1:SD12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:495">
+    <row r="1" spans="1:498">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3655,28 +3889,37 @@
       <c r="SA1" s="1" t="s">
         <v>493</v>
       </c>
+      <c r="SB1" s="1" t="s">
+        <v>494</v>
+      </c>
+      <c r="SC1" s="1" t="s">
+        <v>495</v>
+      </c>
+      <c r="SD1" s="1" t="s">
+        <v>496</v>
+      </c>
     </row>
-    <row r="2" spans="1:495">
+    <row r="2" spans="1:498">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>494</v>
+        <v>497</v>
       </c>
       <c r="C2" t="b">
         <v>0</v>
       </c>
       <c r="D2" t="s">
-        <v>495</v>
+        <v>498</v>
       </c>
       <c r="E2" t="s">
-        <v>498</v>
+        <v>502</v>
       </c>
       <c r="H2" t="s">
-        <v>499</v>
+        <v>503</v>
       </c>
       <c r="I2" t="s">
-        <v>504</v>
+        <v>514</v>
       </c>
       <c r="J2" t="b">
         <v>1</v>
@@ -3685,795 +3928,417 @@
         <v>1</v>
       </c>
       <c r="M2" t="s">
-        <v>509</v>
+        <v>525</v>
       </c>
       <c r="O2" t="s">
-        <v>514</v>
+        <v>536</v>
       </c>
       <c r="P2" t="s">
-        <v>519</v>
+        <v>547</v>
       </c>
       <c r="Q2" t="s">
-        <v>520</v>
+        <v>549</v>
       </c>
       <c r="R2" t="s">
-        <v>521</v>
+        <v>550</v>
       </c>
       <c r="S2" t="s">
-        <v>522</v>
+        <v>551</v>
       </c>
       <c r="T2" t="s">
-        <v>525</v>
+        <v>555</v>
       </c>
       <c r="U2">
-        <v>19241</v>
+        <v>14692</v>
       </c>
       <c r="V2" s="2" t="s">
-        <v>526</v>
+        <v>556</v>
       </c>
       <c r="W2" t="s">
-        <v>520</v>
+        <v>549</v>
       </c>
       <c r="X2" t="s">
-        <v>531</v>
+        <v>567</v>
       </c>
       <c r="Y2" t="s">
-        <v>521</v>
+        <v>550</v>
       </c>
       <c r="Z2" t="s">
-        <v>522</v>
+        <v>551</v>
       </c>
       <c r="AA2" s="2" t="s">
-        <v>532</v>
+        <v>568</v>
       </c>
       <c r="AB2" t="s">
-        <v>533</v>
-      </c>
-      <c r="AC2" t="s">
-        <v>538</v>
-      </c>
-      <c r="AD2" t="s">
-        <v>539</v>
-      </c>
-      <c r="AE2" t="s">
-        <v>539</v>
+        <v>569</v>
       </c>
       <c r="AF2" t="s">
-        <v>540</v>
-      </c>
-      <c r="AG2" t="s">
-        <v>539</v>
-      </c>
-      <c r="AH2" t="s">
-        <v>539</v>
-      </c>
-      <c r="AI2" t="s">
-        <v>539</v>
-      </c>
-      <c r="AJ2" t="s">
-        <v>539</v>
-      </c>
-      <c r="AK2" t="s">
-        <v>539</v>
-      </c>
-      <c r="AL2" t="s">
-        <v>539</v>
-      </c>
-      <c r="AM2" t="s">
-        <v>539</v>
-      </c>
-      <c r="AN2" t="s">
-        <v>539</v>
-      </c>
-      <c r="AO2" t="s">
-        <v>539</v>
-      </c>
-      <c r="AP2" t="s">
-        <v>539</v>
-      </c>
-      <c r="AQ2" t="s">
-        <v>538</v>
-      </c>
-      <c r="AR2" t="s">
-        <v>539</v>
-      </c>
-      <c r="AS2" t="s">
-        <v>539</v>
+        <v>577</v>
       </c>
       <c r="AT2" t="s">
-        <v>540</v>
-      </c>
-      <c r="AU2" t="s">
-        <v>539</v>
-      </c>
-      <c r="AV2" t="s">
-        <v>539</v>
-      </c>
-      <c r="AW2" t="s">
-        <v>541</v>
-      </c>
-      <c r="AX2" t="s">
-        <v>539</v>
-      </c>
-      <c r="AY2" t="s">
-        <v>539</v>
-      </c>
-      <c r="AZ2" t="s">
-        <v>539</v>
-      </c>
-      <c r="BA2" t="s">
-        <v>539</v>
-      </c>
-      <c r="BB2" t="s">
-        <v>539</v>
-      </c>
-      <c r="BC2" t="s">
-        <v>539</v>
-      </c>
-      <c r="BD2" t="s">
-        <v>539</v>
-      </c>
-      <c r="BE2" t="s">
-        <v>539</v>
-      </c>
-      <c r="BF2" t="s">
-        <v>539</v>
-      </c>
-      <c r="BG2" t="s">
-        <v>539</v>
-      </c>
-      <c r="BH2" t="s">
-        <v>539</v>
-      </c>
-      <c r="BI2" t="s">
-        <v>539</v>
-      </c>
-      <c r="BJ2" t="s">
-        <v>539</v>
-      </c>
-      <c r="BK2" t="s">
-        <v>539</v>
-      </c>
-      <c r="BL2" t="s">
-        <v>539</v>
-      </c>
-      <c r="BM2" t="s">
-        <v>539</v>
-      </c>
-      <c r="BN2" t="s">
-        <v>539</v>
-      </c>
-      <c r="BO2" t="s">
-        <v>539</v>
-      </c>
-      <c r="BP2" t="s">
-        <v>539</v>
-      </c>
-      <c r="BQ2" t="s">
-        <v>539</v>
-      </c>
-      <c r="BR2" t="s">
-        <v>539</v>
-      </c>
-      <c r="BS2" t="s">
-        <v>539</v>
-      </c>
-      <c r="BT2" t="s">
-        <v>539</v>
-      </c>
-      <c r="BU2" t="s">
-        <v>538</v>
-      </c>
-      <c r="BV2" t="s">
-        <v>539</v>
-      </c>
-      <c r="BW2" t="s">
-        <v>539</v>
-      </c>
-      <c r="BX2" t="s">
-        <v>539</v>
-      </c>
-      <c r="BY2" t="s">
-        <v>539</v>
-      </c>
-      <c r="BZ2" t="s">
-        <v>539</v>
-      </c>
-      <c r="CA2" t="s">
-        <v>539</v>
-      </c>
-      <c r="CB2" t="s">
-        <v>539</v>
-      </c>
-      <c r="CC2" t="s">
-        <v>539</v>
-      </c>
-      <c r="CD2" t="s">
-        <v>539</v>
-      </c>
-      <c r="CE2" t="s">
-        <v>539</v>
-      </c>
-      <c r="CF2" t="s">
-        <v>539</v>
-      </c>
-      <c r="CG2" t="s">
-        <v>539</v>
-      </c>
-      <c r="CH2" t="s">
-        <v>539</v>
-      </c>
-      <c r="CI2" t="s">
-        <v>539</v>
-      </c>
-      <c r="CJ2" t="s">
-        <v>541</v>
-      </c>
-      <c r="CK2" t="s">
-        <v>539</v>
-      </c>
-      <c r="CL2" t="s">
-        <v>539</v>
-      </c>
-      <c r="CM2" t="s">
-        <v>539</v>
-      </c>
-      <c r="CN2" t="s">
-        <v>539</v>
-      </c>
-      <c r="CO2" t="s">
-        <v>539</v>
-      </c>
-      <c r="CP2" t="s">
-        <v>539</v>
-      </c>
-      <c r="CQ2" t="s">
-        <v>539</v>
-      </c>
-      <c r="CR2" t="s">
-        <v>539</v>
-      </c>
-      <c r="CS2" t="s">
-        <v>539</v>
-      </c>
-      <c r="CT2" t="s">
-        <v>539</v>
-      </c>
-      <c r="CU2" t="s">
-        <v>539</v>
-      </c>
-      <c r="CV2" t="s">
-        <v>539</v>
-      </c>
-      <c r="CW2" t="s">
-        <v>539</v>
-      </c>
-      <c r="CX2" t="s">
-        <v>539</v>
-      </c>
-      <c r="CY2" t="s">
-        <v>540</v>
-      </c>
-      <c r="CZ2" t="s">
-        <v>539</v>
-      </c>
-      <c r="DA2" t="s">
-        <v>539</v>
-      </c>
-      <c r="DB2" t="s">
-        <v>539</v>
-      </c>
-      <c r="DC2" t="s">
-        <v>539</v>
-      </c>
-      <c r="DD2" t="s">
-        <v>539</v>
-      </c>
-      <c r="DE2" t="s">
-        <v>539</v>
-      </c>
-      <c r="DF2" t="s">
-        <v>539</v>
-      </c>
-      <c r="DG2" t="s">
-        <v>539</v>
-      </c>
-      <c r="DH2" t="s">
-        <v>539</v>
-      </c>
-      <c r="DI2" t="s">
-        <v>539</v>
-      </c>
-      <c r="DJ2" t="s">
-        <v>539</v>
-      </c>
-      <c r="DK2" t="s">
-        <v>539</v>
-      </c>
-      <c r="DL2" t="s">
-        <v>539</v>
-      </c>
-      <c r="DM2" t="s">
-        <v>539</v>
-      </c>
-      <c r="DN2" t="s">
-        <v>539</v>
-      </c>
-      <c r="DO2" t="s">
-        <v>539</v>
+        <v>577</v>
       </c>
       <c r="DP2" t="s">
-        <v>539</v>
+        <v>576</v>
       </c>
       <c r="DQ2" t="s">
-        <v>539</v>
+        <v>576</v>
       </c>
       <c r="DR2" t="s">
-        <v>539</v>
+        <v>576</v>
       </c>
       <c r="DS2" t="s">
-        <v>539</v>
+        <v>576</v>
       </c>
       <c r="DT2" t="s">
-        <v>541</v>
+        <v>576</v>
       </c>
       <c r="DU2" t="s">
-        <v>539</v>
+        <v>576</v>
       </c>
       <c r="DV2" t="s">
-        <v>539</v>
+        <v>576</v>
       </c>
       <c r="DW2" t="s">
-        <v>539</v>
+        <v>576</v>
       </c>
       <c r="DX2" t="s">
-        <v>539</v>
+        <v>576</v>
       </c>
       <c r="DY2" t="s">
-        <v>539</v>
+        <v>576</v>
       </c>
       <c r="DZ2" t="s">
-        <v>539</v>
+        <v>576</v>
       </c>
       <c r="EA2" t="s">
-        <v>539</v>
+        <v>576</v>
       </c>
       <c r="EB2" t="s">
-        <v>539</v>
+        <v>576</v>
       </c>
       <c r="EC2" t="s">
-        <v>539</v>
+        <v>576</v>
       </c>
       <c r="ED2" t="s">
-        <v>541</v>
+        <v>576</v>
       </c>
       <c r="EE2" t="s">
-        <v>539</v>
+        <v>576</v>
       </c>
       <c r="EF2" t="s">
-        <v>539</v>
+        <v>576</v>
       </c>
       <c r="EG2" t="s">
-        <v>539</v>
+        <v>576</v>
       </c>
       <c r="EH2" t="s">
-        <v>539</v>
+        <v>576</v>
       </c>
       <c r="EI2" t="s">
-        <v>539</v>
+        <v>576</v>
       </c>
       <c r="EJ2" t="s">
-        <v>539</v>
+        <v>576</v>
       </c>
       <c r="EK2" t="s">
-        <v>539</v>
+        <v>576</v>
       </c>
       <c r="EL2" t="s">
-        <v>541</v>
+        <v>576</v>
       </c>
       <c r="EM2" t="s">
-        <v>539</v>
+        <v>576</v>
       </c>
       <c r="EN2" t="s">
-        <v>539</v>
+        <v>576</v>
       </c>
       <c r="EO2" t="s">
-        <v>539</v>
+        <v>576</v>
       </c>
       <c r="EP2" t="s">
-        <v>539</v>
+        <v>576</v>
       </c>
       <c r="EQ2" t="s">
-        <v>539</v>
+        <v>576</v>
       </c>
       <c r="ER2" t="s">
-        <v>539</v>
+        <v>576</v>
       </c>
       <c r="ES2" t="s">
-        <v>539</v>
+        <v>576</v>
+      </c>
+      <c r="ET2" t="s">
+        <v>576</v>
       </c>
       <c r="EU2" t="s">
-        <v>539</v>
+        <v>576</v>
       </c>
       <c r="EV2" t="s">
-        <v>539</v>
+        <v>576</v>
       </c>
       <c r="EW2" t="s">
-        <v>539</v>
+        <v>576</v>
       </c>
       <c r="EX2" t="s">
-        <v>539</v>
+        <v>576</v>
       </c>
       <c r="EY2" t="s">
-        <v>539</v>
+        <v>576</v>
       </c>
       <c r="EZ2" t="s">
-        <v>539</v>
+        <v>576</v>
       </c>
       <c r="FA2" t="s">
-        <v>539</v>
+        <v>576</v>
       </c>
       <c r="FB2" t="s">
-        <v>539</v>
+        <v>576</v>
       </c>
       <c r="FC2" t="s">
-        <v>539</v>
+        <v>576</v>
       </c>
       <c r="FD2" t="s">
-        <v>539</v>
+        <v>576</v>
       </c>
       <c r="FE2" t="s">
-        <v>539</v>
+        <v>576</v>
       </c>
       <c r="FF2" t="s">
-        <v>539</v>
+        <v>576</v>
       </c>
       <c r="FG2" t="s">
-        <v>539</v>
+        <v>576</v>
       </c>
       <c r="FH2" t="s">
-        <v>539</v>
+        <v>576</v>
       </c>
       <c r="FI2" t="s">
-        <v>539</v>
+        <v>576</v>
       </c>
       <c r="FJ2" t="s">
-        <v>539</v>
+        <v>576</v>
       </c>
       <c r="FK2" t="s">
-        <v>539</v>
+        <v>576</v>
       </c>
       <c r="FL2" t="s">
-        <v>539</v>
+        <v>576</v>
       </c>
       <c r="FM2" t="s">
-        <v>541</v>
+        <v>576</v>
       </c>
       <c r="FN2" t="s">
-        <v>539</v>
+        <v>576</v>
       </c>
       <c r="FO2" t="s">
-        <v>539</v>
+        <v>576</v>
       </c>
       <c r="FP2" t="s">
-        <v>539</v>
+        <v>576</v>
       </c>
       <c r="FQ2" t="s">
-        <v>539</v>
+        <v>576</v>
       </c>
       <c r="FR2" t="s">
-        <v>539</v>
+        <v>576</v>
       </c>
       <c r="FS2" t="s">
-        <v>539</v>
+        <v>576</v>
       </c>
       <c r="FT2" t="s">
-        <v>539</v>
+        <v>576</v>
       </c>
       <c r="FU2" t="s">
-        <v>541</v>
+        <v>576</v>
       </c>
       <c r="FV2" t="s">
-        <v>539</v>
+        <v>576</v>
       </c>
       <c r="FW2" t="s">
-        <v>539</v>
+        <v>576</v>
       </c>
       <c r="FX2" t="s">
-        <v>539</v>
+        <v>576</v>
       </c>
       <c r="FY2" t="s">
-        <v>539</v>
+        <v>576</v>
       </c>
       <c r="FZ2" t="s">
-        <v>539</v>
+        <v>576</v>
       </c>
       <c r="GA2" t="s">
-        <v>539</v>
+        <v>576</v>
       </c>
       <c r="GB2" t="s">
-        <v>539</v>
+        <v>576</v>
       </c>
       <c r="GC2" t="s">
-        <v>539</v>
+        <v>576</v>
       </c>
       <c r="GD2" t="s">
-        <v>539</v>
+        <v>576</v>
       </c>
       <c r="GE2" t="s">
-        <v>541</v>
+        <v>576</v>
       </c>
       <c r="GF2" t="s">
-        <v>539</v>
+        <v>576</v>
       </c>
       <c r="GG2" t="s">
-        <v>541</v>
+        <v>576</v>
       </c>
       <c r="GH2" t="s">
-        <v>539</v>
+        <v>576</v>
       </c>
       <c r="GI2" t="s">
-        <v>539</v>
+        <v>576</v>
       </c>
       <c r="GJ2" t="s">
-        <v>539</v>
+        <v>574</v>
       </c>
       <c r="GK2" t="s">
-        <v>541</v>
+        <v>576</v>
       </c>
       <c r="GL2" t="s">
-        <v>539</v>
+        <v>576</v>
       </c>
       <c r="GM2" t="s">
-        <v>538</v>
+        <v>576</v>
       </c>
       <c r="GN2" t="s">
-        <v>541</v>
+        <v>577</v>
       </c>
       <c r="GO2" t="s">
-        <v>539</v>
+        <v>576</v>
       </c>
       <c r="GP2" t="s">
-        <v>539</v>
+        <v>576</v>
       </c>
       <c r="GQ2" t="s">
-        <v>540</v>
+        <v>576</v>
       </c>
       <c r="GR2" t="s">
-        <v>539</v>
+        <v>576</v>
       </c>
       <c r="GS2" t="s">
-        <v>539</v>
+        <v>576</v>
       </c>
       <c r="GT2" t="s">
-        <v>539</v>
+        <v>576</v>
       </c>
       <c r="GU2" t="s">
-        <v>541</v>
+        <v>576</v>
       </c>
       <c r="GV2" t="s">
-        <v>539</v>
+        <v>576</v>
       </c>
       <c r="GW2" t="s">
-        <v>539</v>
-      </c>
-      <c r="GX2" t="s">
-        <v>541</v>
+        <v>579</v>
+      </c>
+      <c r="GX2" s="2" t="s">
+        <v>582</v>
       </c>
       <c r="GY2" t="s">
-        <v>539</v>
-      </c>
-      <c r="GZ2" t="s">
-        <v>542</v>
-      </c>
-      <c r="HA2" s="2" t="s">
-        <v>544</v>
+        <v>583</v>
+      </c>
+      <c r="GZ2">
+        <v>664</v>
+      </c>
+      <c r="HA2" t="s">
+        <v>587</v>
       </c>
       <c r="HB2" t="s">
-        <v>545</v>
-      </c>
-      <c r="HC2">
-        <v>650</v>
-      </c>
-      <c r="HD2" t="s">
-        <v>548</v>
+        <v>588</v>
+      </c>
+      <c r="HC2" t="s">
+        <v>579</v>
       </c>
       <c r="HE2" t="s">
-        <v>549</v>
+        <v>503</v>
       </c>
       <c r="HF2" t="s">
-        <v>542</v>
+        <v>590</v>
+      </c>
+      <c r="HG2" t="s">
+        <v>601</v>
       </c>
       <c r="HH2" t="s">
-        <v>499</v>
+        <v>612</v>
       </c>
       <c r="HI2" t="s">
-        <v>550</v>
-      </c>
-      <c r="HJ2" t="s">
-        <v>555</v>
-      </c>
-      <c r="HK2" t="s">
-        <v>560</v>
-      </c>
-      <c r="HL2" t="s">
-        <v>561</v>
-      </c>
-      <c r="HM2" t="s">
-        <v>538</v>
+        <v>613</v>
       </c>
       <c r="HN2" t="s">
-        <v>539</v>
-      </c>
-      <c r="HO2" t="s">
-        <v>539</v>
-      </c>
-      <c r="HP2" t="s">
-        <v>539</v>
-      </c>
-      <c r="HQ2" t="s">
-        <v>540</v>
-      </c>
-      <c r="HR2" t="s">
-        <v>539</v>
-      </c>
-      <c r="HS2" t="s">
-        <v>539</v>
-      </c>
-      <c r="HT2" t="s">
-        <v>539</v>
-      </c>
-      <c r="HU2" t="s">
-        <v>539</v>
-      </c>
-      <c r="HV2" t="s">
-        <v>539</v>
-      </c>
-      <c r="HW2" t="s">
-        <v>539</v>
-      </c>
-      <c r="HX2" t="s">
-        <v>539</v>
-      </c>
-      <c r="HY2" t="s">
-        <v>539</v>
-      </c>
-      <c r="HZ2" t="s">
-        <v>539</v>
-      </c>
-      <c r="IA2" t="s">
-        <v>539</v>
-      </c>
-      <c r="IB2" t="s">
-        <v>539</v>
+        <v>577</v>
       </c>
       <c r="IC2" t="s">
-        <v>539</v>
+        <v>577</v>
       </c>
       <c r="ID2" t="s">
-        <v>539</v>
+        <v>615</v>
       </c>
       <c r="IE2" t="s">
-        <v>539</v>
-      </c>
-      <c r="IF2" t="s">
-        <v>540</v>
-      </c>
-      <c r="IG2" t="s">
-        <v>562</v>
-      </c>
-      <c r="IH2" t="s">
-        <v>563</v>
-      </c>
-      <c r="II2" t="s">
-        <v>564</v>
-      </c>
-      <c r="IJ2" t="s">
-        <v>539</v>
+        <v>617</v>
       </c>
       <c r="IK2" t="s">
-        <v>539</v>
-      </c>
-      <c r="IL2" t="s">
-        <v>539</v>
-      </c>
-      <c r="IM2" t="s">
-        <v>539</v>
-      </c>
-      <c r="IN2" t="s">
-        <v>540</v>
-      </c>
-      <c r="IO2" t="s">
-        <v>539</v>
-      </c>
-      <c r="IP2" t="s">
-        <v>539</v>
-      </c>
-      <c r="IQ2" t="s">
-        <v>539</v>
-      </c>
-      <c r="IR2" t="s">
-        <v>539</v>
-      </c>
-      <c r="IS2" t="s">
-        <v>539</v>
-      </c>
-      <c r="IT2" t="s">
-        <v>539</v>
-      </c>
-      <c r="IU2" t="s">
-        <v>539</v>
-      </c>
-      <c r="IV2" t="s">
-        <v>539</v>
-      </c>
-      <c r="IW2" t="s">
-        <v>539</v>
+        <v>577</v>
       </c>
       <c r="IX2" t="s">
-        <v>539</v>
-      </c>
-      <c r="IY2" t="s">
-        <v>539</v>
+        <v>579</v>
       </c>
       <c r="IZ2" t="s">
-        <v>539</v>
-      </c>
-      <c r="JA2" t="s">
-        <v>542</v>
+        <v>583</v>
+      </c>
+      <c r="JA2">
+        <v>664</v>
+      </c>
+      <c r="JB2" t="s">
+        <v>587</v>
       </c>
       <c r="JC2" t="s">
-        <v>545</v>
-      </c>
-      <c r="JD2">
-        <v>650</v>
-      </c>
-      <c r="JE2" t="s">
-        <v>548</v>
+        <v>588</v>
+      </c>
+      <c r="JD2" t="s">
+        <v>579</v>
       </c>
       <c r="JF2" t="s">
-        <v>549</v>
-      </c>
-      <c r="JG2" t="s">
-        <v>542</v>
+        <v>503</v>
+      </c>
+      <c r="JH2" t="s">
+        <v>590</v>
       </c>
       <c r="JI2" t="s">
-        <v>499</v>
+        <v>601</v>
+      </c>
+      <c r="JJ2" t="s">
+        <v>612</v>
       </c>
       <c r="JK2" t="s">
-        <v>550</v>
-      </c>
-      <c r="JL2" t="s">
-        <v>555</v>
-      </c>
-      <c r="JM2" t="s">
-        <v>560</v>
-      </c>
-      <c r="JN2" t="s">
-        <v>561</v>
+        <v>613</v>
       </c>
     </row>
-    <row r="3" spans="1:495">
+    <row r="3" spans="1:498">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>494</v>
+        <v>497</v>
       </c>
       <c r="C3" t="b">
         <v>0</v>
       </c>
       <c r="D3" t="s">
-        <v>495</v>
+        <v>498</v>
       </c>
       <c r="E3" t="s">
-        <v>498</v>
+        <v>502</v>
       </c>
       <c r="H3" t="s">
-        <v>500</v>
+        <v>504</v>
       </c>
       <c r="I3" t="s">
-        <v>505</v>
+        <v>515</v>
       </c>
       <c r="J3" t="b">
         <v>1</v>
@@ -4482,270 +4347,546 @@
         <v>1</v>
       </c>
       <c r="M3" t="s">
-        <v>510</v>
+        <v>526</v>
       </c>
       <c r="O3" t="s">
-        <v>515</v>
+        <v>537</v>
       </c>
       <c r="P3" t="s">
-        <v>519</v>
+        <v>547</v>
       </c>
       <c r="Q3" t="s">
-        <v>520</v>
+        <v>549</v>
       </c>
       <c r="R3" t="s">
-        <v>521</v>
+        <v>550</v>
       </c>
       <c r="S3" t="s">
-        <v>522</v>
+        <v>551</v>
       </c>
       <c r="T3" t="s">
-        <v>525</v>
+        <v>555</v>
       </c>
       <c r="U3">
-        <v>3313</v>
+        <v>15278</v>
       </c>
       <c r="V3" s="2" t="s">
-        <v>527</v>
+        <v>557</v>
       </c>
       <c r="W3" t="s">
-        <v>520</v>
+        <v>549</v>
       </c>
       <c r="X3" t="s">
-        <v>531</v>
+        <v>567</v>
       </c>
       <c r="Y3" t="s">
-        <v>521</v>
+        <v>550</v>
       </c>
       <c r="Z3" t="s">
-        <v>522</v>
+        <v>551</v>
       </c>
       <c r="AA3" s="2" t="s">
-        <v>532</v>
+        <v>568</v>
       </c>
       <c r="AB3" t="s">
-        <v>534</v>
-      </c>
-      <c r="GZ3" t="s">
-        <v>542</v>
-      </c>
-      <c r="HA3" s="2" t="s">
-        <v>544</v>
+        <v>569</v>
+      </c>
+      <c r="AC3" t="s">
+        <v>574</v>
+      </c>
+      <c r="AD3" t="s">
+        <v>576</v>
+      </c>
+      <c r="AE3" t="s">
+        <v>576</v>
+      </c>
+      <c r="AF3" t="s">
+        <v>577</v>
+      </c>
+      <c r="AG3" t="s">
+        <v>576</v>
+      </c>
+      <c r="AH3" t="s">
+        <v>576</v>
+      </c>
+      <c r="AI3" t="s">
+        <v>576</v>
+      </c>
+      <c r="AJ3" t="s">
+        <v>576</v>
+      </c>
+      <c r="AK3" t="s">
+        <v>576</v>
+      </c>
+      <c r="AL3" t="s">
+        <v>576</v>
+      </c>
+      <c r="AM3" t="s">
+        <v>576</v>
+      </c>
+      <c r="AN3" t="s">
+        <v>576</v>
+      </c>
+      <c r="AO3" t="s">
+        <v>576</v>
+      </c>
+      <c r="AP3" t="s">
+        <v>576</v>
+      </c>
+      <c r="AQ3" t="s">
+        <v>574</v>
+      </c>
+      <c r="AR3" t="s">
+        <v>576</v>
+      </c>
+      <c r="AS3" t="s">
+        <v>576</v>
+      </c>
+      <c r="AT3" t="s">
+        <v>577</v>
+      </c>
+      <c r="AU3" t="s">
+        <v>576</v>
+      </c>
+      <c r="AV3" t="s">
+        <v>576</v>
+      </c>
+      <c r="AW3" t="s">
+        <v>576</v>
+      </c>
+      <c r="AX3" t="s">
+        <v>576</v>
+      </c>
+      <c r="AY3" t="s">
+        <v>576</v>
+      </c>
+      <c r="AZ3" t="s">
+        <v>576</v>
+      </c>
+      <c r="BA3" t="s">
+        <v>576</v>
+      </c>
+      <c r="BB3" t="s">
+        <v>576</v>
+      </c>
+      <c r="BC3" t="s">
+        <v>576</v>
+      </c>
+      <c r="BD3" t="s">
+        <v>576</v>
+      </c>
+      <c r="BE3" t="s">
+        <v>576</v>
+      </c>
+      <c r="BF3" t="s">
+        <v>576</v>
+      </c>
+      <c r="BG3" t="s">
+        <v>576</v>
+      </c>
+      <c r="BH3" t="s">
+        <v>576</v>
+      </c>
+      <c r="BI3" t="s">
+        <v>576</v>
+      </c>
+      <c r="BJ3" t="s">
+        <v>576</v>
+      </c>
+      <c r="BK3" t="s">
+        <v>576</v>
+      </c>
+      <c r="BL3" t="s">
+        <v>576</v>
+      </c>
+      <c r="BM3" t="s">
+        <v>576</v>
+      </c>
+      <c r="BN3" t="s">
+        <v>576</v>
+      </c>
+      <c r="BO3" t="s">
+        <v>576</v>
+      </c>
+      <c r="BP3" t="s">
+        <v>576</v>
+      </c>
+      <c r="BQ3" t="s">
+        <v>576</v>
+      </c>
+      <c r="BR3" t="s">
+        <v>576</v>
+      </c>
+      <c r="BS3" t="s">
+        <v>576</v>
+      </c>
+      <c r="BT3" t="s">
+        <v>576</v>
+      </c>
+      <c r="BU3" t="s">
+        <v>574</v>
+      </c>
+      <c r="BV3" t="s">
+        <v>576</v>
+      </c>
+      <c r="BW3" t="s">
+        <v>576</v>
+      </c>
+      <c r="BX3" t="s">
+        <v>576</v>
+      </c>
+      <c r="BY3" t="s">
+        <v>576</v>
+      </c>
+      <c r="BZ3" t="s">
+        <v>576</v>
+      </c>
+      <c r="CA3" t="s">
+        <v>576</v>
+      </c>
+      <c r="CB3" t="s">
+        <v>576</v>
+      </c>
+      <c r="CC3" t="s">
+        <v>576</v>
+      </c>
+      <c r="CD3" t="s">
+        <v>576</v>
+      </c>
+      <c r="CE3" t="s">
+        <v>576</v>
+      </c>
+      <c r="CF3" t="s">
+        <v>576</v>
+      </c>
+      <c r="CG3" t="s">
+        <v>576</v>
+      </c>
+      <c r="CH3" t="s">
+        <v>576</v>
+      </c>
+      <c r="CI3" t="s">
+        <v>576</v>
+      </c>
+      <c r="CJ3" t="s">
+        <v>576</v>
+      </c>
+      <c r="CK3" t="s">
+        <v>576</v>
+      </c>
+      <c r="CL3" t="s">
+        <v>576</v>
+      </c>
+      <c r="CM3" t="s">
+        <v>576</v>
+      </c>
+      <c r="CN3" t="s">
+        <v>576</v>
+      </c>
+      <c r="CO3" t="s">
+        <v>576</v>
+      </c>
+      <c r="CP3" t="s">
+        <v>576</v>
+      </c>
+      <c r="CQ3" t="s">
+        <v>576</v>
+      </c>
+      <c r="CR3" t="s">
+        <v>576</v>
+      </c>
+      <c r="CS3" t="s">
+        <v>576</v>
+      </c>
+      <c r="CT3" t="s">
+        <v>576</v>
+      </c>
+      <c r="CU3" t="s">
+        <v>576</v>
+      </c>
+      <c r="CV3" t="s">
+        <v>576</v>
+      </c>
+      <c r="CW3" t="s">
+        <v>576</v>
+      </c>
+      <c r="CX3" t="s">
+        <v>576</v>
+      </c>
+      <c r="CY3" t="s">
+        <v>576</v>
+      </c>
+      <c r="CZ3" t="s">
+        <v>576</v>
+      </c>
+      <c r="DA3" t="s">
+        <v>576</v>
+      </c>
+      <c r="DB3" t="s">
+        <v>576</v>
+      </c>
+      <c r="DC3" t="s">
+        <v>576</v>
+      </c>
+      <c r="DD3" t="s">
+        <v>576</v>
+      </c>
+      <c r="DE3" t="s">
+        <v>576</v>
+      </c>
+      <c r="DF3" t="s">
+        <v>576</v>
+      </c>
+      <c r="DG3" t="s">
+        <v>576</v>
+      </c>
+      <c r="DH3" t="s">
+        <v>576</v>
+      </c>
+      <c r="DI3" t="s">
+        <v>576</v>
+      </c>
+      <c r="DJ3" t="s">
+        <v>576</v>
+      </c>
+      <c r="DK3" t="s">
+        <v>576</v>
+      </c>
+      <c r="DL3" t="s">
+        <v>576</v>
+      </c>
+      <c r="DM3" t="s">
+        <v>576</v>
+      </c>
+      <c r="DN3" t="s">
+        <v>576</v>
+      </c>
+      <c r="DO3" t="s">
+        <v>576</v>
+      </c>
+      <c r="GN3" t="s">
+        <v>577</v>
+      </c>
+      <c r="GW3" t="s">
+        <v>579</v>
+      </c>
+      <c r="GX3" s="2" t="s">
+        <v>582</v>
+      </c>
+      <c r="GY3" t="s">
+        <v>583</v>
+      </c>
+      <c r="GZ3">
+        <v>664</v>
+      </c>
+      <c r="HA3" t="s">
+        <v>587</v>
       </c>
       <c r="HB3" t="s">
-        <v>545</v>
-      </c>
-      <c r="HC3">
-        <v>650</v>
-      </c>
-      <c r="HD3" t="s">
-        <v>548</v>
+        <v>588</v>
+      </c>
+      <c r="HC3" t="s">
+        <v>579</v>
       </c>
       <c r="HE3" t="s">
-        <v>549</v>
+        <v>504</v>
       </c>
       <c r="HF3" t="s">
-        <v>542</v>
+        <v>591</v>
+      </c>
+      <c r="HG3" t="s">
+        <v>602</v>
       </c>
       <c r="HH3" t="s">
-        <v>500</v>
+        <v>612</v>
       </c>
       <c r="HI3" t="s">
-        <v>551</v>
+        <v>613</v>
       </c>
       <c r="HJ3" t="s">
-        <v>556</v>
+        <v>614</v>
       </c>
       <c r="HK3" t="s">
-        <v>560</v>
+        <v>576</v>
       </c>
       <c r="HL3" t="s">
-        <v>561</v>
+        <v>576</v>
+      </c>
+      <c r="HM3" t="s">
+        <v>576</v>
+      </c>
+      <c r="HN3" t="s">
+        <v>577</v>
+      </c>
+      <c r="HO3" t="s">
+        <v>576</v>
+      </c>
+      <c r="HP3" t="s">
+        <v>576</v>
+      </c>
+      <c r="HQ3" t="s">
+        <v>576</v>
+      </c>
+      <c r="HR3" t="s">
+        <v>576</v>
+      </c>
+      <c r="HS3" t="s">
+        <v>576</v>
+      </c>
+      <c r="HT3" t="s">
+        <v>576</v>
+      </c>
+      <c r="HU3" t="s">
+        <v>576</v>
+      </c>
+      <c r="HV3" t="s">
+        <v>576</v>
+      </c>
+      <c r="HW3" t="s">
+        <v>576</v>
+      </c>
+      <c r="HX3" t="s">
+        <v>576</v>
+      </c>
+      <c r="HY3" t="s">
+        <v>576</v>
+      </c>
+      <c r="HZ3" t="s">
+        <v>576</v>
+      </c>
+      <c r="IA3" t="s">
+        <v>576</v>
+      </c>
+      <c r="IB3" t="s">
+        <v>576</v>
+      </c>
+      <c r="IC3" t="s">
+        <v>577</v>
+      </c>
+      <c r="ID3" t="s">
+        <v>615</v>
+      </c>
+      <c r="IE3" t="s">
+        <v>617</v>
+      </c>
+      <c r="IF3" t="s">
+        <v>619</v>
       </c>
       <c r="IG3" t="s">
-        <v>562</v>
+        <v>576</v>
       </c>
       <c r="IH3" t="s">
-        <v>563</v>
-      </c>
-      <c r="JA3" t="s">
-        <v>542</v>
+        <v>576</v>
+      </c>
+      <c r="II3" t="s">
+        <v>576</v>
+      </c>
+      <c r="IJ3" t="s">
+        <v>576</v>
+      </c>
+      <c r="IK3" t="s">
+        <v>577</v>
+      </c>
+      <c r="IL3" t="s">
+        <v>576</v>
+      </c>
+      <c r="IM3" t="s">
+        <v>576</v>
+      </c>
+      <c r="IN3" t="s">
+        <v>576</v>
+      </c>
+      <c r="IO3" t="s">
+        <v>576</v>
+      </c>
+      <c r="IP3" t="s">
+        <v>576</v>
+      </c>
+      <c r="IQ3" t="s">
+        <v>576</v>
+      </c>
+      <c r="IR3" t="s">
+        <v>576</v>
+      </c>
+      <c r="IS3" t="s">
+        <v>576</v>
+      </c>
+      <c r="IT3" t="s">
+        <v>576</v>
+      </c>
+      <c r="IU3" t="s">
+        <v>576</v>
+      </c>
+      <c r="IV3" t="s">
+        <v>576</v>
+      </c>
+      <c r="IW3" t="s">
+        <v>576</v>
+      </c>
+      <c r="IX3" t="s">
+        <v>579</v>
+      </c>
+      <c r="IZ3" t="s">
+        <v>583</v>
+      </c>
+      <c r="JA3">
+        <v>664</v>
+      </c>
+      <c r="JB3" t="s">
+        <v>587</v>
       </c>
       <c r="JC3" t="s">
-        <v>545</v>
-      </c>
-      <c r="JD3">
-        <v>650</v>
-      </c>
-      <c r="JE3" t="s">
-        <v>548</v>
+        <v>588</v>
+      </c>
+      <c r="JD3" t="s">
+        <v>579</v>
       </c>
       <c r="JF3" t="s">
-        <v>549</v>
-      </c>
-      <c r="JG3" t="s">
-        <v>542</v>
+        <v>504</v>
+      </c>
+      <c r="JH3" t="s">
+        <v>591</v>
       </c>
       <c r="JI3" t="s">
-        <v>500</v>
+        <v>602</v>
+      </c>
+      <c r="JJ3" t="s">
+        <v>612</v>
       </c>
       <c r="JK3" t="s">
-        <v>551</v>
+        <v>613</v>
       </c>
       <c r="JL3" t="s">
-        <v>556</v>
+        <v>576</v>
       </c>
       <c r="JM3" t="s">
-        <v>560</v>
+        <v>576</v>
       </c>
       <c r="JN3" t="s">
-        <v>561</v>
-      </c>
-      <c r="JO3" t="s">
-        <v>567</v>
-      </c>
-      <c r="JP3" t="s">
-        <v>539</v>
-      </c>
-      <c r="JQ3" t="s">
-        <v>541</v>
-      </c>
-      <c r="JR3" t="s">
-        <v>539</v>
-      </c>
-      <c r="JS3" t="s">
-        <v>539</v>
-      </c>
-      <c r="JT3" t="s">
-        <v>539</v>
-      </c>
-      <c r="JU3" t="s">
-        <v>539</v>
-      </c>
-      <c r="JV3" t="s">
-        <v>541</v>
-      </c>
-      <c r="JW3" t="s">
-        <v>539</v>
-      </c>
-      <c r="JX3" t="s">
-        <v>539</v>
-      </c>
-      <c r="JY3" t="s">
-        <v>539</v>
-      </c>
-      <c r="JZ3" t="s">
-        <v>568</v>
-      </c>
-      <c r="KA3" t="s">
-        <v>539</v>
-      </c>
-      <c r="KB3" t="s">
-        <v>539</v>
-      </c>
-      <c r="KC3" t="s">
-        <v>539</v>
-      </c>
-      <c r="KD3" t="s">
-        <v>539</v>
-      </c>
-      <c r="KE3" t="s">
-        <v>539</v>
-      </c>
-      <c r="KF3" t="s">
-        <v>539</v>
-      </c>
-      <c r="KG3" t="s">
-        <v>539</v>
-      </c>
-      <c r="KH3" t="s">
-        <v>539</v>
-      </c>
-      <c r="KI3" t="s">
-        <v>539</v>
-      </c>
-      <c r="KJ3" t="s">
-        <v>539</v>
-      </c>
-      <c r="KK3" t="s">
-        <v>541</v>
-      </c>
-      <c r="KL3" t="s">
-        <v>541</v>
-      </c>
-      <c r="KM3" t="s">
-        <v>539</v>
-      </c>
-      <c r="KN3" t="s">
-        <v>539</v>
-      </c>
-      <c r="KO3" t="s">
-        <v>540</v>
-      </c>
-      <c r="KP3" t="s">
-        <v>539</v>
-      </c>
-      <c r="KQ3" t="s">
-        <v>540</v>
-      </c>
-      <c r="KR3" t="s">
-        <v>539</v>
-      </c>
-      <c r="KS3" t="s">
-        <v>539</v>
-      </c>
-      <c r="KT3" t="s">
-        <v>539</v>
-      </c>
-      <c r="KU3" t="s">
-        <v>539</v>
-      </c>
-      <c r="KV3" t="s">
-        <v>540</v>
-      </c>
-      <c r="KW3" t="s">
-        <v>541</v>
-      </c>
-      <c r="KX3" t="s">
-        <v>539</v>
-      </c>
-      <c r="KY3" t="s">
-        <v>539</v>
-      </c>
-      <c r="KZ3" t="s">
-        <v>539</v>
-      </c>
-      <c r="LA3" t="s">
-        <v>539</v>
-      </c>
-      <c r="LB3" t="s">
-        <v>540</v>
-      </c>
-      <c r="LC3" t="s">
-        <v>539</v>
+        <v>577</v>
       </c>
     </row>
-    <row r="4" spans="1:495">
+    <row r="4" spans="1:498">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>494</v>
+        <v>497</v>
       </c>
       <c r="C4" t="b">
         <v>0</v>
       </c>
       <c r="D4" t="s">
-        <v>495</v>
+        <v>498</v>
       </c>
       <c r="E4" t="s">
-        <v>498</v>
+        <v>502</v>
       </c>
       <c r="H4" t="s">
-        <v>501</v>
+        <v>505</v>
       </c>
       <c r="I4" t="s">
-        <v>506</v>
+        <v>516</v>
       </c>
       <c r="J4" t="b">
         <v>1</v>
@@ -4754,231 +4895,276 @@
         <v>1</v>
       </c>
       <c r="M4" t="s">
-        <v>511</v>
+        <v>527</v>
       </c>
       <c r="O4" t="s">
-        <v>516</v>
+        <v>538</v>
       </c>
       <c r="P4" t="s">
-        <v>519</v>
+        <v>547</v>
       </c>
       <c r="Q4" t="s">
-        <v>520</v>
+        <v>549</v>
       </c>
       <c r="R4" t="s">
-        <v>521</v>
+        <v>550</v>
       </c>
       <c r="S4" t="s">
-        <v>522</v>
+        <v>551</v>
       </c>
       <c r="T4" t="s">
-        <v>525</v>
+        <v>555</v>
       </c>
       <c r="U4">
-        <v>2971</v>
+        <v>3513</v>
       </c>
       <c r="V4" s="2" t="s">
-        <v>528</v>
+        <v>558</v>
       </c>
       <c r="W4" t="s">
-        <v>520</v>
+        <v>549</v>
       </c>
       <c r="X4" t="s">
-        <v>531</v>
+        <v>567</v>
       </c>
       <c r="Y4" t="s">
-        <v>521</v>
+        <v>550</v>
       </c>
       <c r="Z4" t="s">
-        <v>522</v>
+        <v>551</v>
       </c>
       <c r="AA4" s="2" t="s">
-        <v>532</v>
+        <v>568</v>
       </c>
       <c r="AB4" t="s">
-        <v>535</v>
-      </c>
-      <c r="GZ4" t="s">
-        <v>542</v>
-      </c>
-      <c r="HA4" s="2" t="s">
-        <v>544</v>
+        <v>570</v>
+      </c>
+      <c r="GW4" t="s">
+        <v>579</v>
+      </c>
+      <c r="GX4" s="2" t="s">
+        <v>582</v>
+      </c>
+      <c r="GY4" t="s">
+        <v>583</v>
+      </c>
+      <c r="GZ4">
+        <v>664</v>
+      </c>
+      <c r="HA4" t="s">
+        <v>587</v>
       </c>
       <c r="HB4" t="s">
-        <v>545</v>
-      </c>
-      <c r="HC4">
-        <v>650</v>
-      </c>
-      <c r="HD4" t="s">
-        <v>548</v>
+        <v>588</v>
+      </c>
+      <c r="HC4" t="s">
+        <v>579</v>
       </c>
       <c r="HE4" t="s">
-        <v>549</v>
+        <v>505</v>
       </c>
       <c r="HF4" t="s">
-        <v>542</v>
+        <v>592</v>
+      </c>
+      <c r="HG4" t="s">
+        <v>603</v>
       </c>
       <c r="HH4" t="s">
-        <v>501</v>
+        <v>612</v>
       </c>
       <c r="HI4" t="s">
-        <v>552</v>
-      </c>
-      <c r="HJ4" t="s">
-        <v>557</v>
-      </c>
-      <c r="HK4" t="s">
-        <v>560</v>
-      </c>
-      <c r="HL4" t="s">
-        <v>561</v>
-      </c>
-      <c r="IG4" t="s">
-        <v>562</v>
-      </c>
-      <c r="IH4" t="s">
-        <v>563</v>
-      </c>
-      <c r="JA4" t="s">
-        <v>542</v>
+        <v>613</v>
+      </c>
+      <c r="ID4" t="s">
+        <v>615</v>
+      </c>
+      <c r="IE4" t="s">
+        <v>617</v>
+      </c>
+      <c r="IX4" t="s">
+        <v>579</v>
+      </c>
+      <c r="IZ4" t="s">
+        <v>583</v>
+      </c>
+      <c r="JA4">
+        <v>664</v>
+      </c>
+      <c r="JB4" t="s">
+        <v>587</v>
       </c>
       <c r="JC4" t="s">
-        <v>545</v>
-      </c>
-      <c r="JD4">
-        <v>650</v>
-      </c>
-      <c r="JE4" t="s">
-        <v>548</v>
+        <v>588</v>
+      </c>
+      <c r="JD4" t="s">
+        <v>579</v>
       </c>
       <c r="JF4" t="s">
-        <v>549</v>
-      </c>
-      <c r="JG4" t="s">
-        <v>542</v>
+        <v>505</v>
+      </c>
+      <c r="JH4" t="s">
+        <v>592</v>
       </c>
       <c r="JI4" t="s">
-        <v>501</v>
+        <v>603</v>
+      </c>
+      <c r="JJ4" t="s">
+        <v>612</v>
       </c>
       <c r="JK4" t="s">
-        <v>552</v>
-      </c>
-      <c r="JL4" t="s">
-        <v>557</v>
-      </c>
-      <c r="JM4" t="s">
-        <v>560</v>
-      </c>
-      <c r="JN4" t="s">
-        <v>561</v>
+        <v>613</v>
+      </c>
+      <c r="JO4" t="s">
+        <v>623</v>
+      </c>
+      <c r="JP4" t="s">
+        <v>576</v>
+      </c>
+      <c r="JQ4" t="s">
+        <v>576</v>
+      </c>
+      <c r="JR4" t="s">
+        <v>576</v>
+      </c>
+      <c r="JS4" t="s">
+        <v>576</v>
+      </c>
+      <c r="JT4" t="s">
+        <v>576</v>
+      </c>
+      <c r="JU4" t="s">
+        <v>576</v>
+      </c>
+      <c r="JV4" t="s">
+        <v>576</v>
+      </c>
+      <c r="JW4" t="s">
+        <v>576</v>
+      </c>
+      <c r="JX4" t="s">
+        <v>576</v>
+      </c>
+      <c r="JY4" t="s">
+        <v>576</v>
+      </c>
+      <c r="JZ4" t="s">
+        <v>576</v>
+      </c>
+      <c r="KA4" t="s">
+        <v>576</v>
+      </c>
+      <c r="KB4" t="s">
+        <v>625</v>
+      </c>
+      <c r="KC4" t="s">
+        <v>576</v>
+      </c>
+      <c r="KD4" t="s">
+        <v>576</v>
+      </c>
+      <c r="KE4" t="s">
+        <v>576</v>
+      </c>
+      <c r="KF4" t="s">
+        <v>576</v>
+      </c>
+      <c r="KG4" t="s">
+        <v>576</v>
+      </c>
+      <c r="KH4" t="s">
+        <v>576</v>
+      </c>
+      <c r="KI4" t="s">
+        <v>576</v>
+      </c>
+      <c r="KJ4" t="s">
+        <v>576</v>
+      </c>
+      <c r="KK4" t="s">
+        <v>576</v>
+      </c>
+      <c r="KL4" t="s">
+        <v>576</v>
+      </c>
+      <c r="KM4" t="s">
+        <v>576</v>
+      </c>
+      <c r="KN4" t="s">
+        <v>576</v>
+      </c>
+      <c r="KO4" t="s">
+        <v>576</v>
+      </c>
+      <c r="KP4" t="s">
+        <v>576</v>
+      </c>
+      <c r="KQ4" t="s">
+        <v>577</v>
+      </c>
+      <c r="KR4" t="s">
+        <v>576</v>
+      </c>
+      <c r="KS4" t="s">
+        <v>577</v>
+      </c>
+      <c r="KT4" t="s">
+        <v>576</v>
+      </c>
+      <c r="KU4" t="s">
+        <v>576</v>
+      </c>
+      <c r="KV4" t="s">
+        <v>576</v>
+      </c>
+      <c r="KW4" t="s">
+        <v>576</v>
+      </c>
+      <c r="KX4" t="s">
+        <v>577</v>
+      </c>
+      <c r="KY4" t="s">
+        <v>576</v>
+      </c>
+      <c r="KZ4" t="s">
+        <v>576</v>
+      </c>
+      <c r="LA4" t="s">
+        <v>576</v>
+      </c>
+      <c r="LB4" t="s">
+        <v>576</v>
+      </c>
+      <c r="LC4" t="s">
+        <v>576</v>
       </c>
       <c r="LD4" t="s">
-        <v>569</v>
-      </c>
-      <c r="LF4" t="s">
-        <v>570</v>
-      </c>
-      <c r="LH4" t="s">
-        <v>571</v>
-      </c>
-      <c r="LI4" t="s">
-        <v>572</v>
-      </c>
-      <c r="LL4" t="s">
-        <v>540</v>
-      </c>
-      <c r="LM4" t="s">
-        <v>539</v>
-      </c>
-      <c r="LN4" t="s">
-        <v>539</v>
-      </c>
-      <c r="LO4" t="s">
-        <v>539</v>
-      </c>
-      <c r="LP4" t="s">
-        <v>539</v>
-      </c>
-      <c r="LQ4" t="s">
-        <v>539</v>
-      </c>
-      <c r="LR4" t="s">
-        <v>539</v>
-      </c>
-      <c r="LS4" t="s">
-        <v>539</v>
-      </c>
-      <c r="LT4" t="s">
-        <v>539</v>
-      </c>
-      <c r="LU4" t="s">
-        <v>573</v>
-      </c>
-      <c r="LV4" t="s">
-        <v>539</v>
-      </c>
-      <c r="LW4" t="s">
-        <v>540</v>
-      </c>
-      <c r="LX4" t="s">
-        <v>539</v>
-      </c>
-      <c r="LY4" t="s">
-        <v>539</v>
-      </c>
-      <c r="LZ4" t="s">
-        <v>539</v>
-      </c>
-      <c r="MA4" t="s">
-        <v>539</v>
-      </c>
-      <c r="MB4" t="s">
-        <v>539</v>
-      </c>
-      <c r="MC4" t="s">
-        <v>540</v>
-      </c>
-      <c r="MD4" t="s">
-        <v>540</v>
-      </c>
-      <c r="ME4" t="s">
-        <v>539</v>
-      </c>
-      <c r="MF4" t="s">
-        <v>540</v>
-      </c>
-      <c r="MG4" t="s">
-        <v>539</v>
-      </c>
-      <c r="MH4" t="s">
-        <v>540</v>
-      </c>
-      <c r="MI4" t="s">
-        <v>539</v>
+        <v>577</v>
+      </c>
+      <c r="LE4" t="s">
+        <v>576</v>
       </c>
     </row>
-    <row r="5" spans="1:495">
+    <row r="5" spans="1:498">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>494</v>
+        <v>497</v>
       </c>
       <c r="C5" t="b">
         <v>0</v>
       </c>
       <c r="D5" t="s">
-        <v>496</v>
+        <v>498</v>
       </c>
       <c r="E5" t="s">
-        <v>498</v>
+        <v>502</v>
       </c>
       <c r="H5" t="s">
-        <v>502</v>
+        <v>506</v>
       </c>
       <c r="I5" t="s">
-        <v>507</v>
+        <v>517</v>
       </c>
       <c r="J5" t="b">
         <v>1</v>
@@ -4987,234 +5173,234 @@
         <v>1</v>
       </c>
       <c r="M5" t="s">
-        <v>512</v>
+        <v>528</v>
       </c>
       <c r="O5" t="s">
-        <v>517</v>
+        <v>539</v>
       </c>
       <c r="P5" t="s">
-        <v>519</v>
+        <v>547</v>
       </c>
       <c r="Q5" t="s">
-        <v>520</v>
+        <v>549</v>
       </c>
       <c r="R5" t="s">
-        <v>521</v>
+        <v>550</v>
       </c>
       <c r="S5" t="s">
-        <v>523</v>
+        <v>551</v>
       </c>
       <c r="T5" t="s">
-        <v>525</v>
+        <v>555</v>
       </c>
       <c r="U5">
-        <v>4133</v>
+        <v>2856</v>
       </c>
       <c r="V5" s="2" t="s">
-        <v>529</v>
+        <v>559</v>
       </c>
       <c r="W5" t="s">
-        <v>520</v>
+        <v>549</v>
       </c>
       <c r="X5" t="s">
-        <v>531</v>
+        <v>567</v>
       </c>
       <c r="Y5" t="s">
-        <v>521</v>
+        <v>550</v>
       </c>
       <c r="Z5" t="s">
-        <v>523</v>
+        <v>551</v>
       </c>
       <c r="AA5" s="2" t="s">
-        <v>532</v>
+        <v>568</v>
       </c>
       <c r="AB5" t="s">
-        <v>536</v>
-      </c>
-      <c r="GZ5" t="s">
-        <v>543</v>
-      </c>
-      <c r="HA5" s="2" t="s">
-        <v>544</v>
+        <v>571</v>
+      </c>
+      <c r="GW5" t="s">
+        <v>579</v>
+      </c>
+      <c r="GX5" s="2" t="s">
+        <v>582</v>
+      </c>
+      <c r="GY5" t="s">
+        <v>583</v>
+      </c>
+      <c r="GZ5">
+        <v>664</v>
+      </c>
+      <c r="HA5" t="s">
+        <v>587</v>
       </c>
       <c r="HB5" t="s">
-        <v>546</v>
-      </c>
-      <c r="HC5">
-        <v>649</v>
-      </c>
-      <c r="HD5" t="s">
-        <v>548</v>
+        <v>588</v>
+      </c>
+      <c r="HC5" t="s">
+        <v>579</v>
       </c>
       <c r="HE5" t="s">
-        <v>549</v>
+        <v>506</v>
       </c>
       <c r="HF5" t="s">
-        <v>542</v>
+        <v>593</v>
+      </c>
+      <c r="HG5" t="s">
+        <v>604</v>
       </c>
       <c r="HH5" t="s">
-        <v>502</v>
+        <v>612</v>
       </c>
       <c r="HI5" t="s">
-        <v>553</v>
-      </c>
-      <c r="HJ5" t="s">
-        <v>558</v>
-      </c>
-      <c r="HK5" t="s">
-        <v>560</v>
-      </c>
-      <c r="HL5" t="s">
-        <v>561</v>
-      </c>
-      <c r="IG5" t="s">
-        <v>562</v>
-      </c>
-      <c r="IH5" t="s">
-        <v>563</v>
-      </c>
-      <c r="JA5" t="s">
-        <v>565</v>
+        <v>613</v>
+      </c>
+      <c r="ID5" t="s">
+        <v>615</v>
+      </c>
+      <c r="IE5" t="s">
+        <v>617</v>
+      </c>
+      <c r="IX5" t="s">
+        <v>579</v>
+      </c>
+      <c r="IZ5" t="s">
+        <v>583</v>
+      </c>
+      <c r="JA5">
+        <v>664</v>
       </c>
       <c r="JB5" t="s">
-        <v>566</v>
+        <v>587</v>
       </c>
       <c r="JC5" t="s">
-        <v>546</v>
-      </c>
-      <c r="JD5">
-        <v>649</v>
-      </c>
-      <c r="JE5" t="s">
-        <v>548</v>
+        <v>588</v>
+      </c>
+      <c r="JD5" t="s">
+        <v>579</v>
       </c>
       <c r="JF5" t="s">
-        <v>549</v>
-      </c>
-      <c r="JG5" t="s">
-        <v>542</v>
+        <v>506</v>
+      </c>
+      <c r="JH5" t="s">
+        <v>593</v>
       </c>
       <c r="JI5" t="s">
-        <v>502</v>
+        <v>604</v>
+      </c>
+      <c r="JJ5" t="s">
+        <v>612</v>
       </c>
       <c r="JK5" t="s">
-        <v>553</v>
-      </c>
-      <c r="JL5" t="s">
-        <v>558</v>
-      </c>
-      <c r="JM5" t="s">
-        <v>560</v>
-      </c>
-      <c r="JN5" t="s">
-        <v>561</v>
-      </c>
-      <c r="MJ5" t="s">
-        <v>539</v>
-      </c>
-      <c r="MK5" t="s">
-        <v>539</v>
-      </c>
-      <c r="ML5" t="s">
-        <v>539</v>
-      </c>
-      <c r="MM5" t="s">
-        <v>539</v>
-      </c>
-      <c r="MN5" t="s">
-        <v>539</v>
-      </c>
-      <c r="MO5" t="s">
-        <v>539</v>
-      </c>
-      <c r="MP5" t="s">
-        <v>539</v>
-      </c>
-      <c r="MQ5" t="s">
-        <v>540</v>
-      </c>
-      <c r="MR5" t="s">
-        <v>539</v>
-      </c>
-      <c r="MS5" t="s">
-        <v>540</v>
-      </c>
-      <c r="MT5" t="s">
-        <v>540</v>
-      </c>
-      <c r="MU5" t="s">
-        <v>539</v>
-      </c>
-      <c r="MV5" t="s">
-        <v>539</v>
-      </c>
-      <c r="MW5" t="s">
-        <v>539</v>
-      </c>
-      <c r="MX5" t="s">
-        <v>574</v>
-      </c>
-      <c r="MY5" t="s">
-        <v>539</v>
-      </c>
-      <c r="MZ5" t="s">
-        <v>540</v>
-      </c>
-      <c r="NA5" t="s">
-        <v>539</v>
-      </c>
-      <c r="NB5" t="s">
-        <v>540</v>
-      </c>
-      <c r="NC5" t="s">
-        <v>575</v>
-      </c>
-      <c r="ND5" t="s">
-        <v>576</v>
-      </c>
-      <c r="NE5" t="s">
-        <v>541</v>
-      </c>
-      <c r="NF5" t="s">
-        <v>539</v>
-      </c>
-      <c r="NG5" t="s">
-        <v>577</v>
-      </c>
-      <c r="NH5" t="s">
-        <v>578</v>
-      </c>
-      <c r="NI5" t="s">
-        <v>579</v>
-      </c>
-      <c r="NJ5" t="s">
-        <v>580</v>
-      </c>
-      <c r="NK5" t="s">
-        <v>579</v>
+        <v>613</v>
+      </c>
+      <c r="LF5" t="s">
+        <v>627</v>
+      </c>
+      <c r="LG5" t="s">
+        <v>629</v>
+      </c>
+      <c r="LH5" t="s">
+        <v>631</v>
+      </c>
+      <c r="LI5" t="s">
+        <v>633</v>
+      </c>
+      <c r="LJ5" t="s">
+        <v>635</v>
+      </c>
+      <c r="LK5" t="s">
+        <v>577</v>
+      </c>
+      <c r="LL5" t="s">
+        <v>576</v>
+      </c>
+      <c r="LM5" t="s">
+        <v>576</v>
+      </c>
+      <c r="LN5" t="s">
+        <v>576</v>
+      </c>
+      <c r="LO5" t="s">
+        <v>576</v>
+      </c>
+      <c r="LP5" t="s">
+        <v>576</v>
+      </c>
+      <c r="LQ5" t="s">
+        <v>576</v>
+      </c>
+      <c r="LR5" t="s">
+        <v>576</v>
+      </c>
+      <c r="LS5" t="s">
+        <v>576</v>
+      </c>
+      <c r="LT5" t="s">
+        <v>636</v>
+      </c>
+      <c r="LU5" t="s">
+        <v>576</v>
+      </c>
+      <c r="LV5" t="s">
+        <v>577</v>
+      </c>
+      <c r="LW5" t="s">
+        <v>576</v>
+      </c>
+      <c r="LX5" t="s">
+        <v>576</v>
+      </c>
+      <c r="LY5" t="s">
+        <v>576</v>
+      </c>
+      <c r="LZ5" t="s">
+        <v>576</v>
+      </c>
+      <c r="MA5" t="s">
+        <v>576</v>
+      </c>
+      <c r="MB5" t="s">
+        <v>577</v>
+      </c>
+      <c r="MC5" t="s">
+        <v>577</v>
+      </c>
+      <c r="MD5" t="s">
+        <v>576</v>
+      </c>
+      <c r="ME5" t="s">
+        <v>577</v>
+      </c>
+      <c r="MF5" t="s">
+        <v>576</v>
+      </c>
+      <c r="MG5" t="s">
+        <v>577</v>
+      </c>
+      <c r="MH5" t="s">
+        <v>576</v>
       </c>
     </row>
-    <row r="6" spans="1:495">
+    <row r="6" spans="1:498">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>494</v>
+        <v>497</v>
       </c>
       <c r="C6" t="b">
         <v>0</v>
       </c>
       <c r="D6" t="s">
-        <v>497</v>
+        <v>499</v>
       </c>
       <c r="E6" t="s">
-        <v>498</v>
+        <v>502</v>
       </c>
       <c r="H6" t="s">
-        <v>503</v>
+        <v>507</v>
       </c>
       <c r="I6" t="s">
-        <v>508</v>
+        <v>518</v>
       </c>
       <c r="J6" t="b">
         <v>1</v>
@@ -5223,500 +5409,2804 @@
         <v>1</v>
       </c>
       <c r="M6" t="s">
+        <v>529</v>
+      </c>
+      <c r="O6" t="s">
+        <v>540</v>
+      </c>
+      <c r="P6" t="s">
+        <v>547</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>549</v>
+      </c>
+      <c r="R6" t="s">
+        <v>550</v>
+      </c>
+      <c r="S6" t="s">
+        <v>552</v>
+      </c>
+      <c r="T6" t="s">
+        <v>555</v>
+      </c>
+      <c r="U6">
+        <v>4232</v>
+      </c>
+      <c r="V6" s="2" t="s">
+        <v>560</v>
+      </c>
+      <c r="W6" t="s">
+        <v>549</v>
+      </c>
+      <c r="X6" t="s">
+        <v>567</v>
+      </c>
+      <c r="Y6" t="s">
+        <v>550</v>
+      </c>
+      <c r="Z6" t="s">
+        <v>552</v>
+      </c>
+      <c r="AA6" s="2" t="s">
+        <v>568</v>
+      </c>
+      <c r="AB6" t="s">
+        <v>572</v>
+      </c>
+      <c r="GW6" t="s">
+        <v>580</v>
+      </c>
+      <c r="GX6" s="2" t="s">
+        <v>582</v>
+      </c>
+      <c r="GY6" t="s">
+        <v>584</v>
+      </c>
+      <c r="GZ6">
+        <v>650</v>
+      </c>
+      <c r="HA6" t="s">
+        <v>587</v>
+      </c>
+      <c r="HB6" t="s">
+        <v>588</v>
+      </c>
+      <c r="HC6" t="s">
+        <v>579</v>
+      </c>
+      <c r="HE6" t="s">
+        <v>507</v>
+      </c>
+      <c r="HF6" t="s">
+        <v>594</v>
+      </c>
+      <c r="HG6" t="s">
+        <v>605</v>
+      </c>
+      <c r="HH6" t="s">
+        <v>612</v>
+      </c>
+      <c r="HI6" t="s">
+        <v>613</v>
+      </c>
+      <c r="ID6" t="s">
+        <v>615</v>
+      </c>
+      <c r="IE6" t="s">
+        <v>617</v>
+      </c>
+      <c r="IX6" t="s">
+        <v>581</v>
+      </c>
+      <c r="IY6" t="s">
+        <v>622</v>
+      </c>
+      <c r="IZ6" t="s">
+        <v>584</v>
+      </c>
+      <c r="JA6">
+        <v>650</v>
+      </c>
+      <c r="JB6" t="s">
+        <v>587</v>
+      </c>
+      <c r="JC6" t="s">
+        <v>588</v>
+      </c>
+      <c r="JD6" t="s">
+        <v>579</v>
+      </c>
+      <c r="JF6" t="s">
+        <v>507</v>
+      </c>
+      <c r="JH6" t="s">
+        <v>594</v>
+      </c>
+      <c r="JI6" t="s">
+        <v>605</v>
+      </c>
+      <c r="JJ6" t="s">
+        <v>612</v>
+      </c>
+      <c r="JK6" t="s">
+        <v>613</v>
+      </c>
+      <c r="MI6" t="s">
+        <v>576</v>
+      </c>
+      <c r="MJ6" t="s">
+        <v>576</v>
+      </c>
+      <c r="MK6" t="s">
+        <v>576</v>
+      </c>
+      <c r="ML6" t="s">
+        <v>576</v>
+      </c>
+      <c r="MM6" t="s">
+        <v>576</v>
+      </c>
+      <c r="MN6" t="s">
+        <v>576</v>
+      </c>
+      <c r="MO6" t="s">
+        <v>576</v>
+      </c>
+      <c r="MP6" t="s">
+        <v>577</v>
+      </c>
+      <c r="MQ6" t="s">
+        <v>576</v>
+      </c>
+      <c r="MR6" t="s">
+        <v>577</v>
+      </c>
+      <c r="MS6" t="s">
+        <v>577</v>
+      </c>
+      <c r="MT6" t="s">
+        <v>576</v>
+      </c>
+      <c r="MU6" t="s">
+        <v>576</v>
+      </c>
+      <c r="MV6" t="s">
+        <v>576</v>
+      </c>
+      <c r="MW6" t="s">
+        <v>638</v>
+      </c>
+      <c r="MX6" t="s">
+        <v>576</v>
+      </c>
+      <c r="MY6" t="s">
+        <v>577</v>
+      </c>
+      <c r="MZ6" t="s">
+        <v>576</v>
+      </c>
+      <c r="NA6" t="s">
+        <v>577</v>
+      </c>
+      <c r="NB6" t="s">
+        <v>640</v>
+      </c>
+      <c r="NC6" t="s">
+        <v>642</v>
+      </c>
+      <c r="ND6" t="s">
+        <v>576</v>
+      </c>
+      <c r="NE6" t="s">
+        <v>576</v>
+      </c>
+      <c r="NF6" t="s">
+        <v>644</v>
+      </c>
+      <c r="NG6" t="s">
+        <v>645</v>
+      </c>
+      <c r="NH6" t="s">
+        <v>647</v>
+      </c>
+      <c r="NI6" t="s">
+        <v>646</v>
+      </c>
+      <c r="NJ6" t="s">
+        <v>647</v>
+      </c>
+    </row>
+    <row r="7" spans="1:498">
+      <c r="A7" s="1">
+        <v>5</v>
+      </c>
+      <c r="B7" t="s">
+        <v>497</v>
+      </c>
+      <c r="C7" t="b">
+        <v>0</v>
+      </c>
+      <c r="D7" t="s">
+        <v>499</v>
+      </c>
+      <c r="E7" t="s">
+        <v>502</v>
+      </c>
+      <c r="H7" t="s">
+        <v>508</v>
+      </c>
+      <c r="I7" t="s">
+        <v>519</v>
+      </c>
+      <c r="J7" t="b">
+        <v>1</v>
+      </c>
+      <c r="K7" t="b">
+        <v>1</v>
+      </c>
+      <c r="M7" t="s">
+        <v>530</v>
+      </c>
+      <c r="O7" t="s">
+        <v>541</v>
+      </c>
+      <c r="P7" t="s">
+        <v>547</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>549</v>
+      </c>
+      <c r="R7" t="s">
+        <v>550</v>
+      </c>
+      <c r="S7" t="s">
+        <v>552</v>
+      </c>
+      <c r="T7" t="s">
+        <v>555</v>
+      </c>
+      <c r="U7">
+        <v>9470</v>
+      </c>
+      <c r="V7" s="2" t="s">
+        <v>561</v>
+      </c>
+      <c r="W7" t="s">
+        <v>549</v>
+      </c>
+      <c r="X7" t="s">
+        <v>567</v>
+      </c>
+      <c r="Y7" t="s">
+        <v>550</v>
+      </c>
+      <c r="Z7" t="s">
+        <v>552</v>
+      </c>
+      <c r="AA7" s="2" t="s">
+        <v>568</v>
+      </c>
+      <c r="AB7" t="s">
+        <v>573</v>
+      </c>
+      <c r="GW7" t="s">
+        <v>579</v>
+      </c>
+      <c r="GX7" s="2" t="s">
+        <v>582</v>
+      </c>
+      <c r="GY7" t="s">
+        <v>584</v>
+      </c>
+      <c r="GZ7">
+        <v>650</v>
+      </c>
+      <c r="HA7" t="s">
+        <v>587</v>
+      </c>
+      <c r="HB7" t="s">
+        <v>588</v>
+      </c>
+      <c r="HC7" t="s">
+        <v>579</v>
+      </c>
+      <c r="HE7" t="s">
+        <v>508</v>
+      </c>
+      <c r="HF7" t="s">
+        <v>595</v>
+      </c>
+      <c r="HG7" t="s">
+        <v>606</v>
+      </c>
+      <c r="HH7" t="s">
+        <v>612</v>
+      </c>
+      <c r="HI7" t="s">
+        <v>613</v>
+      </c>
+      <c r="ID7" t="s">
+        <v>615</v>
+      </c>
+      <c r="IE7" t="s">
+        <v>617</v>
+      </c>
+      <c r="IX7" t="s">
+        <v>579</v>
+      </c>
+      <c r="IZ7" t="s">
+        <v>584</v>
+      </c>
+      <c r="JA7">
+        <v>650</v>
+      </c>
+      <c r="JB7" t="s">
+        <v>587</v>
+      </c>
+      <c r="JC7" t="s">
+        <v>588</v>
+      </c>
+      <c r="JD7" t="s">
+        <v>579</v>
+      </c>
+      <c r="JF7" t="s">
+        <v>508</v>
+      </c>
+      <c r="JH7" t="s">
+        <v>595</v>
+      </c>
+      <c r="JI7" t="s">
+        <v>606</v>
+      </c>
+      <c r="JJ7" t="s">
+        <v>612</v>
+      </c>
+      <c r="JK7" t="s">
+        <v>613</v>
+      </c>
+      <c r="NK7" t="s">
+        <v>650</v>
+      </c>
+      <c r="NL7" t="s">
+        <v>577</v>
+      </c>
+      <c r="NM7" t="s">
+        <v>577</v>
+      </c>
+      <c r="NN7" t="s">
+        <v>577</v>
+      </c>
+      <c r="NO7" t="s">
+        <v>577</v>
+      </c>
+      <c r="NP7" t="s">
+        <v>577</v>
+      </c>
+      <c r="NQ7" t="s">
+        <v>576</v>
+      </c>
+      <c r="NR7" t="s">
+        <v>576</v>
+      </c>
+      <c r="NS7" t="s">
+        <v>576</v>
+      </c>
+      <c r="NT7" t="s">
+        <v>576</v>
+      </c>
+      <c r="NU7" t="s">
+        <v>576</v>
+      </c>
+      <c r="NV7" t="s">
+        <v>576</v>
+      </c>
+      <c r="NW7" t="s">
+        <v>576</v>
+      </c>
+      <c r="NX7" t="s">
+        <v>578</v>
+      </c>
+      <c r="NY7" t="s">
+        <v>652</v>
+      </c>
+      <c r="NZ7" t="s">
+        <v>653</v>
+      </c>
+      <c r="OA7" t="s">
+        <v>655</v>
+      </c>
+      <c r="OB7" t="s">
+        <v>576</v>
+      </c>
+      <c r="OC7" t="s">
+        <v>576</v>
+      </c>
+      <c r="OD7" t="s">
+        <v>576</v>
+      </c>
+      <c r="OE7" t="s">
+        <v>576</v>
+      </c>
+      <c r="OF7" t="s">
+        <v>576</v>
+      </c>
+      <c r="OG7" t="s">
+        <v>576</v>
+      </c>
+      <c r="OH7" t="s">
+        <v>576</v>
+      </c>
+      <c r="OI7" t="s">
+        <v>577</v>
+      </c>
+      <c r="OJ7" t="s">
+        <v>577</v>
+      </c>
+      <c r="OK7" t="s">
+        <v>578</v>
+      </c>
+      <c r="OL7" t="s">
+        <v>576</v>
+      </c>
+      <c r="OM7" t="s">
+        <v>656</v>
+      </c>
+      <c r="ON7" t="s">
+        <v>576</v>
+      </c>
+      <c r="OO7" t="s">
+        <v>658</v>
+      </c>
+      <c r="OP7" t="s">
+        <v>576</v>
+      </c>
+      <c r="OQ7" t="s">
+        <v>576</v>
+      </c>
+      <c r="OR7" t="s">
+        <v>659</v>
+      </c>
+      <c r="OS7" t="s">
+        <v>660</v>
+      </c>
+      <c r="OT7" t="s">
+        <v>577</v>
+      </c>
+      <c r="OU7" t="s">
+        <v>661</v>
+      </c>
+      <c r="OV7" t="s">
+        <v>662</v>
+      </c>
+      <c r="OW7" t="s">
+        <v>576</v>
+      </c>
+      <c r="OX7" t="s">
+        <v>663</v>
+      </c>
+      <c r="OY7" t="s">
+        <v>576</v>
+      </c>
+      <c r="OZ7" t="s">
+        <v>576</v>
+      </c>
+      <c r="PA7" t="s">
+        <v>576</v>
+      </c>
+      <c r="PB7" t="s">
+        <v>576</v>
+      </c>
+      <c r="PC7" t="s">
+        <v>576</v>
+      </c>
+      <c r="PD7" t="s">
+        <v>576</v>
+      </c>
+      <c r="PE7" t="s">
+        <v>576</v>
+      </c>
+      <c r="PF7" t="s">
+        <v>576</v>
+      </c>
+      <c r="PG7" t="s">
+        <v>576</v>
+      </c>
+      <c r="PH7" t="s">
+        <v>660</v>
+      </c>
+      <c r="PI7" t="s">
+        <v>576</v>
+      </c>
+      <c r="PJ7" t="s">
+        <v>576</v>
+      </c>
+      <c r="PK7" t="s">
+        <v>576</v>
+      </c>
+      <c r="PL7" t="s">
+        <v>576</v>
+      </c>
+      <c r="PM7" t="s">
+        <v>576</v>
+      </c>
+      <c r="PN7" t="s">
+        <v>577</v>
+      </c>
+      <c r="PO7" t="s">
+        <v>577</v>
+      </c>
+      <c r="PP7" t="s">
+        <v>576</v>
+      </c>
+      <c r="PQ7" t="s">
+        <v>576</v>
+      </c>
+      <c r="PR7" t="s">
+        <v>576</v>
+      </c>
+      <c r="PS7" t="s">
+        <v>576</v>
+      </c>
+      <c r="PT7" t="s">
+        <v>576</v>
+      </c>
+      <c r="PU7" t="s">
+        <v>664</v>
+      </c>
+      <c r="PV7" t="s">
+        <v>576</v>
+      </c>
+      <c r="PW7" t="s">
+        <v>576</v>
+      </c>
+      <c r="PX7" t="s">
+        <v>576</v>
+      </c>
+      <c r="PY7" t="s">
+        <v>576</v>
+      </c>
+      <c r="PZ7" t="s">
+        <v>576</v>
+      </c>
+      <c r="QA7" t="s">
+        <v>576</v>
+      </c>
+      <c r="QB7" t="s">
+        <v>576</v>
+      </c>
+      <c r="QC7" t="s">
+        <v>576</v>
+      </c>
+      <c r="QD7" t="s">
+        <v>576</v>
+      </c>
+      <c r="QE7" t="s">
+        <v>576</v>
+      </c>
+      <c r="QF7" t="s">
+        <v>576</v>
+      </c>
+      <c r="QG7" t="s">
+        <v>576</v>
+      </c>
+      <c r="QH7" t="s">
+        <v>666</v>
+      </c>
+      <c r="QI7" t="s">
+        <v>576</v>
+      </c>
+      <c r="QJ7" t="s">
+        <v>667</v>
+      </c>
+      <c r="QK7" t="s">
+        <v>577</v>
+      </c>
+      <c r="QL7" t="s">
+        <v>577</v>
+      </c>
+      <c r="QM7" t="s">
+        <v>577</v>
+      </c>
+      <c r="QN7" t="s">
+        <v>576</v>
+      </c>
+      <c r="QO7" t="s">
+        <v>669</v>
+      </c>
+      <c r="QP7" t="s">
+        <v>576</v>
+      </c>
+      <c r="QQ7" t="s">
+        <v>576</v>
+      </c>
+      <c r="QR7" t="s">
+        <v>576</v>
+      </c>
+      <c r="QS7" t="s">
+        <v>576</v>
+      </c>
+      <c r="QT7" t="s">
+        <v>576</v>
+      </c>
+      <c r="QU7" t="s">
+        <v>576</v>
+      </c>
+      <c r="QV7" t="s">
+        <v>576</v>
+      </c>
+      <c r="QW7" t="s">
+        <v>576</v>
+      </c>
+      <c r="QX7" t="s">
+        <v>576</v>
+      </c>
+      <c r="QY7" t="s">
+        <v>670</v>
+      </c>
+      <c r="QZ7" t="s">
+        <v>576</v>
+      </c>
+      <c r="RA7" t="s">
+        <v>578</v>
+      </c>
+      <c r="RB7" t="s">
+        <v>577</v>
+      </c>
+      <c r="RC7" t="s">
+        <v>576</v>
+      </c>
+      <c r="RD7" t="s">
+        <v>577</v>
+      </c>
+      <c r="RE7" t="s">
+        <v>577</v>
+      </c>
+      <c r="RF7" t="s">
+        <v>577</v>
+      </c>
+      <c r="RG7" t="s">
+        <v>577</v>
+      </c>
+      <c r="RH7" t="s">
+        <v>578</v>
+      </c>
+      <c r="RI7" t="s">
+        <v>578</v>
+      </c>
+      <c r="RJ7" t="s">
+        <v>578</v>
+      </c>
+      <c r="RK7" t="s">
+        <v>576</v>
+      </c>
+      <c r="RL7" t="s">
+        <v>576</v>
+      </c>
+      <c r="RM7" t="s">
+        <v>576</v>
+      </c>
+      <c r="RN7" t="s">
+        <v>576</v>
+      </c>
+      <c r="RO7" t="s">
+        <v>576</v>
+      </c>
+      <c r="RP7" t="s">
+        <v>578</v>
+      </c>
+      <c r="RQ7" t="s">
+        <v>576</v>
+      </c>
+      <c r="RR7" t="s">
+        <v>576</v>
+      </c>
+      <c r="RS7" t="s">
+        <v>577</v>
+      </c>
+      <c r="RT7" t="s">
+        <v>576</v>
+      </c>
+      <c r="RU7" t="s">
+        <v>576</v>
+      </c>
+      <c r="RV7" t="s">
+        <v>576</v>
+      </c>
+      <c r="RW7" t="s">
+        <v>577</v>
+      </c>
+      <c r="RX7" t="s">
+        <v>578</v>
+      </c>
+      <c r="RY7" t="s">
+        <v>576</v>
+      </c>
+      <c r="RZ7" t="s">
+        <v>576</v>
+      </c>
+      <c r="SA7" t="s">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="8" spans="1:498">
+      <c r="A8" s="1">
+        <v>6</v>
+      </c>
+      <c r="B8" t="s">
+        <v>497</v>
+      </c>
+      <c r="C8" t="b">
+        <v>0</v>
+      </c>
+      <c r="D8" t="s">
+        <v>499</v>
+      </c>
+      <c r="E8" t="s">
+        <v>502</v>
+      </c>
+      <c r="H8" t="s">
+        <v>509</v>
+      </c>
+      <c r="I8" t="s">
+        <v>520</v>
+      </c>
+      <c r="J8" t="b">
+        <v>1</v>
+      </c>
+      <c r="K8" t="b">
+        <v>1</v>
+      </c>
+      <c r="M8" t="s">
+        <v>531</v>
+      </c>
+      <c r="O8" t="s">
+        <v>542</v>
+      </c>
+      <c r="P8" t="s">
+        <v>548</v>
+      </c>
+      <c r="Q8" t="s">
+        <v>549</v>
+      </c>
+      <c r="R8" t="s">
+        <v>550</v>
+      </c>
+      <c r="S8" t="s">
+        <v>552</v>
+      </c>
+      <c r="T8" t="s">
+        <v>555</v>
+      </c>
+      <c r="U8">
+        <v>19241</v>
+      </c>
+      <c r="V8" s="2" t="s">
+        <v>562</v>
+      </c>
+      <c r="W8" t="s">
+        <v>549</v>
+      </c>
+      <c r="X8" t="s">
+        <v>567</v>
+      </c>
+      <c r="Y8" t="s">
+        <v>550</v>
+      </c>
+      <c r="Z8" t="s">
+        <v>552</v>
+      </c>
+      <c r="AA8" s="2" t="s">
+        <v>568</v>
+      </c>
+      <c r="AB8" t="s">
+        <v>569</v>
+      </c>
+      <c r="AC8" t="s">
+        <v>575</v>
+      </c>
+      <c r="AD8" t="s">
+        <v>576</v>
+      </c>
+      <c r="AE8" t="s">
+        <v>576</v>
+      </c>
+      <c r="AF8" t="s">
+        <v>577</v>
+      </c>
+      <c r="AG8" t="s">
+        <v>576</v>
+      </c>
+      <c r="AH8" t="s">
+        <v>576</v>
+      </c>
+      <c r="AI8" t="s">
+        <v>576</v>
+      </c>
+      <c r="AJ8" t="s">
+        <v>576</v>
+      </c>
+      <c r="AK8" t="s">
+        <v>576</v>
+      </c>
+      <c r="AL8" t="s">
+        <v>576</v>
+      </c>
+      <c r="AM8" t="s">
+        <v>576</v>
+      </c>
+      <c r="AN8" t="s">
+        <v>576</v>
+      </c>
+      <c r="AO8" t="s">
+        <v>576</v>
+      </c>
+      <c r="AP8" t="s">
+        <v>576</v>
+      </c>
+      <c r="AQ8" t="s">
+        <v>575</v>
+      </c>
+      <c r="AR8" t="s">
+        <v>576</v>
+      </c>
+      <c r="AS8" t="s">
+        <v>576</v>
+      </c>
+      <c r="AT8" t="s">
+        <v>577</v>
+      </c>
+      <c r="AU8" t="s">
+        <v>576</v>
+      </c>
+      <c r="AV8" t="s">
+        <v>576</v>
+      </c>
+      <c r="AW8" t="s">
+        <v>578</v>
+      </c>
+      <c r="AX8" t="s">
+        <v>576</v>
+      </c>
+      <c r="AY8" t="s">
+        <v>576</v>
+      </c>
+      <c r="AZ8" t="s">
+        <v>576</v>
+      </c>
+      <c r="BA8" t="s">
+        <v>576</v>
+      </c>
+      <c r="BB8" t="s">
+        <v>576</v>
+      </c>
+      <c r="BC8" t="s">
+        <v>576</v>
+      </c>
+      <c r="BD8" t="s">
+        <v>576</v>
+      </c>
+      <c r="BE8" t="s">
+        <v>576</v>
+      </c>
+      <c r="BF8" t="s">
+        <v>576</v>
+      </c>
+      <c r="BG8" t="s">
+        <v>576</v>
+      </c>
+      <c r="BH8" t="s">
+        <v>576</v>
+      </c>
+      <c r="BI8" t="s">
+        <v>576</v>
+      </c>
+      <c r="BJ8" t="s">
+        <v>576</v>
+      </c>
+      <c r="BK8" t="s">
+        <v>576</v>
+      </c>
+      <c r="BL8" t="s">
+        <v>576</v>
+      </c>
+      <c r="BM8" t="s">
+        <v>576</v>
+      </c>
+      <c r="BN8" t="s">
+        <v>576</v>
+      </c>
+      <c r="BO8" t="s">
+        <v>576</v>
+      </c>
+      <c r="BP8" t="s">
+        <v>576</v>
+      </c>
+      <c r="BQ8" t="s">
+        <v>576</v>
+      </c>
+      <c r="BR8" t="s">
+        <v>576</v>
+      </c>
+      <c r="BS8" t="s">
+        <v>576</v>
+      </c>
+      <c r="BT8" t="s">
+        <v>576</v>
+      </c>
+      <c r="BU8" t="s">
+        <v>575</v>
+      </c>
+      <c r="BV8" t="s">
+        <v>576</v>
+      </c>
+      <c r="BW8" t="s">
+        <v>576</v>
+      </c>
+      <c r="BX8" t="s">
+        <v>576</v>
+      </c>
+      <c r="BY8" t="s">
+        <v>576</v>
+      </c>
+      <c r="BZ8" t="s">
+        <v>576</v>
+      </c>
+      <c r="CA8" t="s">
+        <v>576</v>
+      </c>
+      <c r="CB8" t="s">
+        <v>576</v>
+      </c>
+      <c r="CC8" t="s">
+        <v>576</v>
+      </c>
+      <c r="CD8" t="s">
+        <v>576</v>
+      </c>
+      <c r="CE8" t="s">
+        <v>576</v>
+      </c>
+      <c r="CF8" t="s">
+        <v>576</v>
+      </c>
+      <c r="CG8" t="s">
+        <v>576</v>
+      </c>
+      <c r="CH8" t="s">
+        <v>576</v>
+      </c>
+      <c r="CI8" t="s">
+        <v>576</v>
+      </c>
+      <c r="CJ8" t="s">
+        <v>578</v>
+      </c>
+      <c r="CK8" t="s">
+        <v>576</v>
+      </c>
+      <c r="CL8" t="s">
+        <v>576</v>
+      </c>
+      <c r="CM8" t="s">
+        <v>576</v>
+      </c>
+      <c r="CN8" t="s">
+        <v>576</v>
+      </c>
+      <c r="CO8" t="s">
+        <v>576</v>
+      </c>
+      <c r="CP8" t="s">
+        <v>576</v>
+      </c>
+      <c r="CQ8" t="s">
+        <v>576</v>
+      </c>
+      <c r="CR8" t="s">
+        <v>576</v>
+      </c>
+      <c r="CS8" t="s">
+        <v>576</v>
+      </c>
+      <c r="CT8" t="s">
+        <v>576</v>
+      </c>
+      <c r="CU8" t="s">
+        <v>576</v>
+      </c>
+      <c r="CV8" t="s">
+        <v>576</v>
+      </c>
+      <c r="CW8" t="s">
+        <v>576</v>
+      </c>
+      <c r="CX8" t="s">
+        <v>576</v>
+      </c>
+      <c r="CY8" t="s">
+        <v>576</v>
+      </c>
+      <c r="CZ8" t="s">
+        <v>576</v>
+      </c>
+      <c r="DA8" t="s">
+        <v>576</v>
+      </c>
+      <c r="DB8" t="s">
+        <v>576</v>
+      </c>
+      <c r="DC8" t="s">
+        <v>576</v>
+      </c>
+      <c r="DD8" t="s">
+        <v>576</v>
+      </c>
+      <c r="DE8" t="s">
+        <v>576</v>
+      </c>
+      <c r="DF8" t="s">
+        <v>576</v>
+      </c>
+      <c r="DG8" t="s">
+        <v>576</v>
+      </c>
+      <c r="DH8" t="s">
+        <v>576</v>
+      </c>
+      <c r="DI8" t="s">
+        <v>576</v>
+      </c>
+      <c r="DJ8" t="s">
+        <v>576</v>
+      </c>
+      <c r="DK8" t="s">
+        <v>576</v>
+      </c>
+      <c r="DL8" t="s">
+        <v>576</v>
+      </c>
+      <c r="DM8" t="s">
+        <v>576</v>
+      </c>
+      <c r="DN8" t="s">
+        <v>576</v>
+      </c>
+      <c r="DO8" t="s">
+        <v>576</v>
+      </c>
+      <c r="DP8" t="s">
+        <v>576</v>
+      </c>
+      <c r="DQ8" t="s">
+        <v>578</v>
+      </c>
+      <c r="DR8" t="s">
+        <v>576</v>
+      </c>
+      <c r="DS8" t="s">
+        <v>576</v>
+      </c>
+      <c r="DT8" t="s">
+        <v>576</v>
+      </c>
+      <c r="DU8" t="s">
+        <v>576</v>
+      </c>
+      <c r="DV8" t="s">
+        <v>576</v>
+      </c>
+      <c r="DW8" t="s">
+        <v>576</v>
+      </c>
+      <c r="DX8" t="s">
+        <v>576</v>
+      </c>
+      <c r="DY8" t="s">
+        <v>576</v>
+      </c>
+      <c r="DZ8" t="s">
+        <v>576</v>
+      </c>
+      <c r="EA8" t="s">
+        <v>578</v>
+      </c>
+      <c r="EB8" t="s">
+        <v>576</v>
+      </c>
+      <c r="EC8" t="s">
+        <v>576</v>
+      </c>
+      <c r="ED8" t="s">
+        <v>576</v>
+      </c>
+      <c r="EE8" t="s">
+        <v>576</v>
+      </c>
+      <c r="EF8" t="s">
+        <v>576</v>
+      </c>
+      <c r="EG8" t="s">
+        <v>576</v>
+      </c>
+      <c r="EH8" t="s">
+        <v>576</v>
+      </c>
+      <c r="EI8" t="s">
+        <v>578</v>
+      </c>
+      <c r="EJ8" t="s">
+        <v>576</v>
+      </c>
+      <c r="EK8" t="s">
+        <v>576</v>
+      </c>
+      <c r="EL8" t="s">
+        <v>576</v>
+      </c>
+      <c r="EM8" t="s">
+        <v>576</v>
+      </c>
+      <c r="EN8" t="s">
+        <v>576</v>
+      </c>
+      <c r="EO8" t="s">
+        <v>576</v>
+      </c>
+      <c r="EP8" t="s">
+        <v>576</v>
+      </c>
+      <c r="ER8" t="s">
+        <v>576</v>
+      </c>
+      <c r="ES8" t="s">
+        <v>576</v>
+      </c>
+      <c r="ET8" t="s">
+        <v>576</v>
+      </c>
+      <c r="EU8" t="s">
+        <v>576</v>
+      </c>
+      <c r="EV8" t="s">
+        <v>576</v>
+      </c>
+      <c r="EW8" t="s">
+        <v>576</v>
+      </c>
+      <c r="EX8" t="s">
+        <v>576</v>
+      </c>
+      <c r="EY8" t="s">
+        <v>576</v>
+      </c>
+      <c r="EZ8" t="s">
+        <v>576</v>
+      </c>
+      <c r="FA8" t="s">
+        <v>576</v>
+      </c>
+      <c r="FB8" t="s">
+        <v>576</v>
+      </c>
+      <c r="FC8" t="s">
+        <v>576</v>
+      </c>
+      <c r="FD8" t="s">
+        <v>576</v>
+      </c>
+      <c r="FE8" t="s">
+        <v>576</v>
+      </c>
+      <c r="FF8" t="s">
+        <v>576</v>
+      </c>
+      <c r="FG8" t="s">
+        <v>576</v>
+      </c>
+      <c r="FH8" t="s">
+        <v>576</v>
+      </c>
+      <c r="FI8" t="s">
+        <v>576</v>
+      </c>
+      <c r="FJ8" t="s">
+        <v>578</v>
+      </c>
+      <c r="FK8" t="s">
+        <v>576</v>
+      </c>
+      <c r="FL8" t="s">
+        <v>576</v>
+      </c>
+      <c r="FM8" t="s">
+        <v>576</v>
+      </c>
+      <c r="FN8" t="s">
+        <v>576</v>
+      </c>
+      <c r="FO8" t="s">
+        <v>576</v>
+      </c>
+      <c r="FP8" t="s">
+        <v>576</v>
+      </c>
+      <c r="FQ8" t="s">
+        <v>576</v>
+      </c>
+      <c r="FR8" t="s">
+        <v>578</v>
+      </c>
+      <c r="FS8" t="s">
+        <v>576</v>
+      </c>
+      <c r="FT8" t="s">
+        <v>576</v>
+      </c>
+      <c r="FU8" t="s">
+        <v>576</v>
+      </c>
+      <c r="FV8" t="s">
+        <v>576</v>
+      </c>
+      <c r="FW8" t="s">
+        <v>576</v>
+      </c>
+      <c r="FX8" t="s">
+        <v>576</v>
+      </c>
+      <c r="FY8" t="s">
+        <v>576</v>
+      </c>
+      <c r="FZ8" t="s">
+        <v>576</v>
+      </c>
+      <c r="GA8" t="s">
+        <v>576</v>
+      </c>
+      <c r="GB8" t="s">
+        <v>578</v>
+      </c>
+      <c r="GC8" t="s">
+        <v>576</v>
+      </c>
+      <c r="GD8" t="s">
+        <v>578</v>
+      </c>
+      <c r="GE8" t="s">
+        <v>576</v>
+      </c>
+      <c r="GF8" t="s">
+        <v>576</v>
+      </c>
+      <c r="GG8" t="s">
+        <v>576</v>
+      </c>
+      <c r="GH8" t="s">
+        <v>578</v>
+      </c>
+      <c r="GI8" t="s">
+        <v>576</v>
+      </c>
+      <c r="GJ8" t="s">
+        <v>575</v>
+      </c>
+      <c r="GK8" t="s">
+        <v>578</v>
+      </c>
+      <c r="GL8" t="s">
+        <v>576</v>
+      </c>
+      <c r="GM8" t="s">
+        <v>576</v>
+      </c>
+      <c r="GN8" t="s">
+        <v>577</v>
+      </c>
+      <c r="GO8" t="s">
+        <v>576</v>
+      </c>
+      <c r="GP8" t="s">
+        <v>576</v>
+      </c>
+      <c r="GQ8" t="s">
+        <v>576</v>
+      </c>
+      <c r="GR8" t="s">
+        <v>578</v>
+      </c>
+      <c r="GS8" t="s">
+        <v>576</v>
+      </c>
+      <c r="GT8" t="s">
+        <v>576</v>
+      </c>
+      <c r="GU8" t="s">
+        <v>578</v>
+      </c>
+      <c r="GV8" t="s">
+        <v>576</v>
+      </c>
+      <c r="GW8" t="s">
+        <v>579</v>
+      </c>
+      <c r="GX8" s="2" t="s">
+        <v>582</v>
+      </c>
+      <c r="GY8" t="s">
+        <v>584</v>
+      </c>
+      <c r="GZ8">
+        <v>650</v>
+      </c>
+      <c r="HA8" t="s">
+        <v>587</v>
+      </c>
+      <c r="HB8" t="s">
+        <v>589</v>
+      </c>
+      <c r="HC8" t="s">
+        <v>579</v>
+      </c>
+      <c r="HE8" t="s">
+        <v>509</v>
+      </c>
+      <c r="HF8" t="s">
+        <v>596</v>
+      </c>
+      <c r="HG8" t="s">
+        <v>607</v>
+      </c>
+      <c r="HH8" t="s">
+        <v>612</v>
+      </c>
+      <c r="HI8" t="s">
+        <v>613</v>
+      </c>
+      <c r="HJ8" t="s">
+        <v>575</v>
+      </c>
+      <c r="HK8" t="s">
+        <v>576</v>
+      </c>
+      <c r="HL8" t="s">
+        <v>576</v>
+      </c>
+      <c r="HM8" t="s">
+        <v>576</v>
+      </c>
+      <c r="HN8" t="s">
+        <v>577</v>
+      </c>
+      <c r="HO8" t="s">
+        <v>576</v>
+      </c>
+      <c r="HP8" t="s">
+        <v>576</v>
+      </c>
+      <c r="HQ8" t="s">
+        <v>576</v>
+      </c>
+      <c r="HR8" t="s">
+        <v>576</v>
+      </c>
+      <c r="HS8" t="s">
+        <v>576</v>
+      </c>
+      <c r="HT8" t="s">
+        <v>576</v>
+      </c>
+      <c r="HU8" t="s">
+        <v>576</v>
+      </c>
+      <c r="HV8" t="s">
+        <v>576</v>
+      </c>
+      <c r="HW8" t="s">
+        <v>576</v>
+      </c>
+      <c r="HX8" t="s">
+        <v>576</v>
+      </c>
+      <c r="HY8" t="s">
+        <v>576</v>
+      </c>
+      <c r="HZ8" t="s">
+        <v>576</v>
+      </c>
+      <c r="IA8" t="s">
+        <v>576</v>
+      </c>
+      <c r="IB8" t="s">
+        <v>576</v>
+      </c>
+      <c r="IC8" t="s">
+        <v>577</v>
+      </c>
+      <c r="ID8" t="s">
+        <v>616</v>
+      </c>
+      <c r="IE8" t="s">
+        <v>618</v>
+      </c>
+      <c r="IF8" t="s">
+        <v>620</v>
+      </c>
+      <c r="IG8" t="s">
+        <v>576</v>
+      </c>
+      <c r="IH8" t="s">
+        <v>576</v>
+      </c>
+      <c r="II8" t="s">
+        <v>576</v>
+      </c>
+      <c r="IJ8" t="s">
+        <v>576</v>
+      </c>
+      <c r="IK8" t="s">
+        <v>577</v>
+      </c>
+      <c r="IL8" t="s">
+        <v>576</v>
+      </c>
+      <c r="IM8" t="s">
+        <v>576</v>
+      </c>
+      <c r="IN8" t="s">
+        <v>576</v>
+      </c>
+      <c r="IO8" t="s">
+        <v>576</v>
+      </c>
+      <c r="IP8" t="s">
+        <v>576</v>
+      </c>
+      <c r="IQ8" t="s">
+        <v>576</v>
+      </c>
+      <c r="IR8" t="s">
+        <v>576</v>
+      </c>
+      <c r="IS8" t="s">
+        <v>576</v>
+      </c>
+      <c r="IT8" t="s">
+        <v>576</v>
+      </c>
+      <c r="IU8" t="s">
+        <v>576</v>
+      </c>
+      <c r="IV8" t="s">
+        <v>576</v>
+      </c>
+      <c r="IW8" t="s">
+        <v>576</v>
+      </c>
+      <c r="IX8" t="s">
+        <v>579</v>
+      </c>
+      <c r="IZ8" t="s">
+        <v>584</v>
+      </c>
+      <c r="JA8">
+        <v>650</v>
+      </c>
+      <c r="JB8" t="s">
+        <v>587</v>
+      </c>
+      <c r="JC8" t="s">
+        <v>589</v>
+      </c>
+      <c r="JD8" t="s">
+        <v>579</v>
+      </c>
+      <c r="JF8" t="s">
+        <v>509</v>
+      </c>
+      <c r="JH8" t="s">
+        <v>596</v>
+      </c>
+      <c r="JI8" t="s">
+        <v>607</v>
+      </c>
+      <c r="JJ8" t="s">
+        <v>612</v>
+      </c>
+      <c r="JK8" t="s">
+        <v>613</v>
+      </c>
+      <c r="JL8" t="s">
+        <v>576</v>
+      </c>
+      <c r="JM8" t="s">
+        <v>576</v>
+      </c>
+      <c r="JN8" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="9" spans="1:498">
+      <c r="A9" s="1">
+        <v>7</v>
+      </c>
+      <c r="B9" t="s">
+        <v>497</v>
+      </c>
+      <c r="C9" t="b">
+        <v>0</v>
+      </c>
+      <c r="D9" t="s">
+        <v>499</v>
+      </c>
+      <c r="E9" t="s">
+        <v>502</v>
+      </c>
+      <c r="H9" t="s">
+        <v>510</v>
+      </c>
+      <c r="I9" t="s">
+        <v>521</v>
+      </c>
+      <c r="J9" t="b">
+        <v>1</v>
+      </c>
+      <c r="K9" t="b">
+        <v>1</v>
+      </c>
+      <c r="M9" t="s">
+        <v>532</v>
+      </c>
+      <c r="O9" t="s">
+        <v>543</v>
+      </c>
+      <c r="P9" t="s">
+        <v>548</v>
+      </c>
+      <c r="Q9" t="s">
+        <v>549</v>
+      </c>
+      <c r="R9" t="s">
+        <v>550</v>
+      </c>
+      <c r="S9" t="s">
+        <v>552</v>
+      </c>
+      <c r="T9" t="s">
+        <v>555</v>
+      </c>
+      <c r="U9">
+        <v>3313</v>
+      </c>
+      <c r="V9" s="2" t="s">
+        <v>563</v>
+      </c>
+      <c r="W9" t="s">
+        <v>549</v>
+      </c>
+      <c r="X9" t="s">
+        <v>567</v>
+      </c>
+      <c r="Y9" t="s">
+        <v>550</v>
+      </c>
+      <c r="Z9" t="s">
+        <v>552</v>
+      </c>
+      <c r="AA9" s="2" t="s">
+        <v>568</v>
+      </c>
+      <c r="AB9" t="s">
+        <v>570</v>
+      </c>
+      <c r="GW9" t="s">
+        <v>579</v>
+      </c>
+      <c r="GX9" s="2" t="s">
+        <v>582</v>
+      </c>
+      <c r="GY9" t="s">
+        <v>584</v>
+      </c>
+      <c r="GZ9">
+        <v>650</v>
+      </c>
+      <c r="HA9" t="s">
+        <v>587</v>
+      </c>
+      <c r="HB9" t="s">
+        <v>589</v>
+      </c>
+      <c r="HC9" t="s">
+        <v>579</v>
+      </c>
+      <c r="HE9" t="s">
+        <v>510</v>
+      </c>
+      <c r="HF9" t="s">
+        <v>597</v>
+      </c>
+      <c r="HG9" t="s">
+        <v>608</v>
+      </c>
+      <c r="HH9" t="s">
+        <v>612</v>
+      </c>
+      <c r="HI9" t="s">
+        <v>613</v>
+      </c>
+      <c r="ID9" t="s">
+        <v>616</v>
+      </c>
+      <c r="IE9" t="s">
+        <v>618</v>
+      </c>
+      <c r="IX9" t="s">
+        <v>579</v>
+      </c>
+      <c r="IZ9" t="s">
+        <v>584</v>
+      </c>
+      <c r="JA9">
+        <v>650</v>
+      </c>
+      <c r="JB9" t="s">
+        <v>587</v>
+      </c>
+      <c r="JC9" t="s">
+        <v>589</v>
+      </c>
+      <c r="JD9" t="s">
+        <v>579</v>
+      </c>
+      <c r="JF9" t="s">
+        <v>510</v>
+      </c>
+      <c r="JH9" t="s">
+        <v>597</v>
+      </c>
+      <c r="JI9" t="s">
+        <v>608</v>
+      </c>
+      <c r="JJ9" t="s">
+        <v>612</v>
+      </c>
+      <c r="JK9" t="s">
+        <v>613</v>
+      </c>
+      <c r="JO9" t="s">
+        <v>624</v>
+      </c>
+      <c r="JP9" t="s">
+        <v>576</v>
+      </c>
+      <c r="JR9" t="s">
+        <v>578</v>
+      </c>
+      <c r="JT9" t="s">
+        <v>576</v>
+      </c>
+      <c r="JU9" t="s">
+        <v>576</v>
+      </c>
+      <c r="JV9" t="s">
+        <v>576</v>
+      </c>
+      <c r="JW9" t="s">
+        <v>576</v>
+      </c>
+      <c r="JX9" t="s">
+        <v>578</v>
+      </c>
+      <c r="JY9" t="s">
+        <v>576</v>
+      </c>
+      <c r="JZ9" t="s">
+        <v>576</v>
+      </c>
+      <c r="KA9" t="s">
+        <v>576</v>
+      </c>
+      <c r="KB9" t="s">
+        <v>626</v>
+      </c>
+      <c r="KC9" t="s">
+        <v>576</v>
+      </c>
+      <c r="KD9" t="s">
+        <v>576</v>
+      </c>
+      <c r="KE9" t="s">
+        <v>576</v>
+      </c>
+      <c r="KF9" t="s">
+        <v>576</v>
+      </c>
+      <c r="KG9" t="s">
+        <v>576</v>
+      </c>
+      <c r="KH9" t="s">
+        <v>576</v>
+      </c>
+      <c r="KI9" t="s">
+        <v>576</v>
+      </c>
+      <c r="KJ9" t="s">
+        <v>576</v>
+      </c>
+      <c r="KK9" t="s">
+        <v>576</v>
+      </c>
+      <c r="KL9" t="s">
+        <v>576</v>
+      </c>
+      <c r="KM9" t="s">
+        <v>578</v>
+      </c>
+      <c r="KN9" t="s">
+        <v>578</v>
+      </c>
+      <c r="KO9" t="s">
+        <v>576</v>
+      </c>
+      <c r="KP9" t="s">
+        <v>576</v>
+      </c>
+      <c r="KQ9" t="s">
+        <v>577</v>
+      </c>
+      <c r="KR9" t="s">
+        <v>576</v>
+      </c>
+      <c r="KS9" t="s">
+        <v>577</v>
+      </c>
+      <c r="KT9" t="s">
+        <v>576</v>
+      </c>
+      <c r="KU9" t="s">
+        <v>576</v>
+      </c>
+      <c r="KV9" t="s">
+        <v>576</v>
+      </c>
+      <c r="KW9" t="s">
+        <v>576</v>
+      </c>
+      <c r="KX9" t="s">
+        <v>577</v>
+      </c>
+      <c r="KY9" t="s">
+        <v>578</v>
+      </c>
+      <c r="KZ9" t="s">
+        <v>576</v>
+      </c>
+      <c r="LA9" t="s">
+        <v>576</v>
+      </c>
+      <c r="LB9" t="s">
+        <v>576</v>
+      </c>
+      <c r="LC9" t="s">
+        <v>576</v>
+      </c>
+      <c r="LD9" t="s">
+        <v>577</v>
+      </c>
+      <c r="LE9" t="s">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="10" spans="1:498">
+      <c r="A10" s="1">
+        <v>8</v>
+      </c>
+      <c r="B10" t="s">
+        <v>497</v>
+      </c>
+      <c r="C10" t="b">
+        <v>0</v>
+      </c>
+      <c r="D10" t="s">
+        <v>499</v>
+      </c>
+      <c r="E10" t="s">
+        <v>502</v>
+      </c>
+      <c r="H10" t="s">
+        <v>511</v>
+      </c>
+      <c r="I10" t="s">
+        <v>522</v>
+      </c>
+      <c r="J10" t="b">
+        <v>1</v>
+      </c>
+      <c r="K10" t="b">
+        <v>1</v>
+      </c>
+      <c r="M10" t="s">
+        <v>533</v>
+      </c>
+      <c r="O10" t="s">
+        <v>544</v>
+      </c>
+      <c r="P10" t="s">
+        <v>548</v>
+      </c>
+      <c r="Q10" t="s">
+        <v>549</v>
+      </c>
+      <c r="R10" t="s">
+        <v>550</v>
+      </c>
+      <c r="S10" t="s">
+        <v>552</v>
+      </c>
+      <c r="T10" t="s">
+        <v>555</v>
+      </c>
+      <c r="U10">
+        <v>2971</v>
+      </c>
+      <c r="V10" s="2" t="s">
+        <v>564</v>
+      </c>
+      <c r="W10" t="s">
+        <v>549</v>
+      </c>
+      <c r="X10" t="s">
+        <v>567</v>
+      </c>
+      <c r="Y10" t="s">
+        <v>550</v>
+      </c>
+      <c r="Z10" t="s">
+        <v>552</v>
+      </c>
+      <c r="AA10" s="2" t="s">
+        <v>568</v>
+      </c>
+      <c r="AB10" t="s">
+        <v>571</v>
+      </c>
+      <c r="GW10" t="s">
+        <v>579</v>
+      </c>
+      <c r="GX10" s="2" t="s">
+        <v>582</v>
+      </c>
+      <c r="GY10" t="s">
+        <v>584</v>
+      </c>
+      <c r="GZ10">
+        <v>650</v>
+      </c>
+      <c r="HA10" t="s">
+        <v>587</v>
+      </c>
+      <c r="HB10" t="s">
+        <v>589</v>
+      </c>
+      <c r="HC10" t="s">
+        <v>579</v>
+      </c>
+      <c r="HE10" t="s">
+        <v>511</v>
+      </c>
+      <c r="HF10" t="s">
+        <v>598</v>
+      </c>
+      <c r="HG10" t="s">
+        <v>609</v>
+      </c>
+      <c r="HH10" t="s">
+        <v>612</v>
+      </c>
+      <c r="HI10" t="s">
+        <v>613</v>
+      </c>
+      <c r="ID10" t="s">
+        <v>616</v>
+      </c>
+      <c r="IE10" t="s">
+        <v>618</v>
+      </c>
+      <c r="IX10" t="s">
+        <v>579</v>
+      </c>
+      <c r="IZ10" t="s">
+        <v>584</v>
+      </c>
+      <c r="JA10">
+        <v>650</v>
+      </c>
+      <c r="JB10" t="s">
+        <v>587</v>
+      </c>
+      <c r="JC10" t="s">
+        <v>589</v>
+      </c>
+      <c r="JD10" t="s">
+        <v>579</v>
+      </c>
+      <c r="JF10" t="s">
+        <v>511</v>
+      </c>
+      <c r="JH10" t="s">
+        <v>598</v>
+      </c>
+      <c r="JI10" t="s">
+        <v>609</v>
+      </c>
+      <c r="JJ10" t="s">
+        <v>612</v>
+      </c>
+      <c r="JK10" t="s">
+        <v>613</v>
+      </c>
+      <c r="LF10" t="s">
+        <v>628</v>
+      </c>
+      <c r="LG10" t="s">
+        <v>630</v>
+      </c>
+      <c r="LH10" t="s">
+        <v>632</v>
+      </c>
+      <c r="LI10" t="s">
+        <v>634</v>
+      </c>
+      <c r="LK10" t="s">
+        <v>577</v>
+      </c>
+      <c r="LL10" t="s">
+        <v>576</v>
+      </c>
+      <c r="LM10" t="s">
+        <v>576</v>
+      </c>
+      <c r="LN10" t="s">
+        <v>576</v>
+      </c>
+      <c r="LO10" t="s">
+        <v>576</v>
+      </c>
+      <c r="LP10" t="s">
+        <v>576</v>
+      </c>
+      <c r="LQ10" t="s">
+        <v>576</v>
+      </c>
+      <c r="LR10" t="s">
+        <v>576</v>
+      </c>
+      <c r="LS10" t="s">
+        <v>576</v>
+      </c>
+      <c r="LT10" t="s">
+        <v>637</v>
+      </c>
+      <c r="LU10" t="s">
+        <v>576</v>
+      </c>
+      <c r="LV10" t="s">
+        <v>577</v>
+      </c>
+      <c r="LW10" t="s">
+        <v>576</v>
+      </c>
+      <c r="LX10" t="s">
+        <v>576</v>
+      </c>
+      <c r="LY10" t="s">
+        <v>576</v>
+      </c>
+      <c r="LZ10" t="s">
+        <v>576</v>
+      </c>
+      <c r="MA10" t="s">
+        <v>576</v>
+      </c>
+      <c r="MB10" t="s">
+        <v>577</v>
+      </c>
+      <c r="MC10" t="s">
+        <v>577</v>
+      </c>
+      <c r="MD10" t="s">
+        <v>576</v>
+      </c>
+      <c r="ME10" t="s">
+        <v>577</v>
+      </c>
+      <c r="MF10" t="s">
+        <v>576</v>
+      </c>
+      <c r="MG10" t="s">
+        <v>577</v>
+      </c>
+      <c r="MH10" t="s">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="11" spans="1:498">
+      <c r="A11" s="1">
+        <v>9</v>
+      </c>
+      <c r="B11" t="s">
+        <v>497</v>
+      </c>
+      <c r="C11" t="b">
+        <v>0</v>
+      </c>
+      <c r="D11" t="s">
+        <v>500</v>
+      </c>
+      <c r="E11" t="s">
+        <v>502</v>
+      </c>
+      <c r="H11" t="s">
+        <v>512</v>
+      </c>
+      <c r="I11" t="s">
+        <v>523</v>
+      </c>
+      <c r="J11" t="b">
+        <v>1</v>
+      </c>
+      <c r="K11" t="b">
+        <v>1</v>
+      </c>
+      <c r="M11" t="s">
+        <v>534</v>
+      </c>
+      <c r="O11" t="s">
+        <v>545</v>
+      </c>
+      <c r="P11" t="s">
+        <v>548</v>
+      </c>
+      <c r="Q11" t="s">
+        <v>549</v>
+      </c>
+      <c r="R11" t="s">
+        <v>550</v>
+      </c>
+      <c r="S11" t="s">
+        <v>553</v>
+      </c>
+      <c r="T11" t="s">
+        <v>555</v>
+      </c>
+      <c r="U11">
+        <v>4133</v>
+      </c>
+      <c r="V11" s="2" t="s">
+        <v>565</v>
+      </c>
+      <c r="W11" t="s">
+        <v>549</v>
+      </c>
+      <c r="X11" t="s">
+        <v>567</v>
+      </c>
+      <c r="Y11" t="s">
+        <v>550</v>
+      </c>
+      <c r="Z11" t="s">
+        <v>553</v>
+      </c>
+      <c r="AA11" s="2" t="s">
+        <v>568</v>
+      </c>
+      <c r="AB11" t="s">
+        <v>572</v>
+      </c>
+      <c r="GW11" t="s">
+        <v>581</v>
+      </c>
+      <c r="GX11" s="2" t="s">
+        <v>582</v>
+      </c>
+      <c r="GY11" t="s">
+        <v>585</v>
+      </c>
+      <c r="GZ11">
+        <v>649</v>
+      </c>
+      <c r="HA11" t="s">
+        <v>587</v>
+      </c>
+      <c r="HB11" t="s">
+        <v>589</v>
+      </c>
+      <c r="HC11" t="s">
+        <v>579</v>
+      </c>
+      <c r="HE11" t="s">
+        <v>512</v>
+      </c>
+      <c r="HF11" t="s">
+        <v>599</v>
+      </c>
+      <c r="HG11" t="s">
+        <v>610</v>
+      </c>
+      <c r="HH11" t="s">
+        <v>612</v>
+      </c>
+      <c r="HI11" t="s">
+        <v>613</v>
+      </c>
+      <c r="ID11" t="s">
+        <v>616</v>
+      </c>
+      <c r="IE11" t="s">
+        <v>618</v>
+      </c>
+      <c r="IX11" t="s">
+        <v>621</v>
+      </c>
+      <c r="IY11" t="s">
+        <v>622</v>
+      </c>
+      <c r="IZ11" t="s">
+        <v>585</v>
+      </c>
+      <c r="JA11">
+        <v>649</v>
+      </c>
+      <c r="JB11" t="s">
+        <v>587</v>
+      </c>
+      <c r="JC11" t="s">
+        <v>589</v>
+      </c>
+      <c r="JD11" t="s">
+        <v>579</v>
+      </c>
+      <c r="JF11" t="s">
+        <v>512</v>
+      </c>
+      <c r="JH11" t="s">
+        <v>599</v>
+      </c>
+      <c r="JI11" t="s">
+        <v>610</v>
+      </c>
+      <c r="JJ11" t="s">
+        <v>612</v>
+      </c>
+      <c r="JK11" t="s">
+        <v>613</v>
+      </c>
+      <c r="MI11" t="s">
+        <v>576</v>
+      </c>
+      <c r="MJ11" t="s">
+        <v>576</v>
+      </c>
+      <c r="MK11" t="s">
+        <v>576</v>
+      </c>
+      <c r="ML11" t="s">
+        <v>576</v>
+      </c>
+      <c r="MM11" t="s">
+        <v>576</v>
+      </c>
+      <c r="MN11" t="s">
+        <v>576</v>
+      </c>
+      <c r="MO11" t="s">
+        <v>576</v>
+      </c>
+      <c r="MP11" t="s">
+        <v>577</v>
+      </c>
+      <c r="MQ11" t="s">
+        <v>576</v>
+      </c>
+      <c r="MR11" t="s">
+        <v>577</v>
+      </c>
+      <c r="MS11" t="s">
+        <v>577</v>
+      </c>
+      <c r="MT11" t="s">
+        <v>576</v>
+      </c>
+      <c r="MU11" t="s">
+        <v>576</v>
+      </c>
+      <c r="MV11" t="s">
+        <v>576</v>
+      </c>
+      <c r="MW11" t="s">
+        <v>639</v>
+      </c>
+      <c r="MX11" t="s">
+        <v>576</v>
+      </c>
+      <c r="MY11" t="s">
+        <v>577</v>
+      </c>
+      <c r="MZ11" t="s">
+        <v>576</v>
+      </c>
+      <c r="NA11" t="s">
+        <v>577</v>
+      </c>
+      <c r="NB11" t="s">
+        <v>641</v>
+      </c>
+      <c r="NC11" t="s">
+        <v>643</v>
+      </c>
+      <c r="ND11" t="s">
+        <v>578</v>
+      </c>
+      <c r="NE11" t="s">
+        <v>576</v>
+      </c>
+      <c r="NF11" t="s">
+        <v>644</v>
+      </c>
+      <c r="NG11" t="s">
+        <v>646</v>
+      </c>
+      <c r="NH11" t="s">
+        <v>648</v>
+      </c>
+      <c r="NI11" t="s">
+        <v>649</v>
+      </c>
+      <c r="NJ11" t="s">
+        <v>648</v>
+      </c>
+    </row>
+    <row r="12" spans="1:498">
+      <c r="A12" s="1">
+        <v>10</v>
+      </c>
+      <c r="B12" t="s">
+        <v>497</v>
+      </c>
+      <c r="C12" t="b">
+        <v>0</v>
+      </c>
+      <c r="D12" t="s">
+        <v>501</v>
+      </c>
+      <c r="E12" t="s">
+        <v>502</v>
+      </c>
+      <c r="H12" t="s">
         <v>513</v>
       </c>
-      <c r="O6" t="s">
-        <v>518</v>
-      </c>
-      <c r="P6" t="s">
-        <v>519</v>
-      </c>
-      <c r="Q6" t="s">
-        <v>520</v>
-      </c>
-      <c r="R6" t="s">
-        <v>521</v>
-      </c>
-      <c r="S6" t="s">
+      <c r="I12" t="s">
         <v>524</v>
       </c>
-      <c r="T6" t="s">
-        <v>525</v>
-      </c>
-      <c r="U6">
+      <c r="J12" t="b">
+        <v>1</v>
+      </c>
+      <c r="K12" t="b">
+        <v>1</v>
+      </c>
+      <c r="M12" t="s">
+        <v>535</v>
+      </c>
+      <c r="O12" t="s">
+        <v>546</v>
+      </c>
+      <c r="P12" t="s">
+        <v>548</v>
+      </c>
+      <c r="Q12" t="s">
+        <v>549</v>
+      </c>
+      <c r="R12" t="s">
+        <v>550</v>
+      </c>
+      <c r="S12" t="s">
+        <v>554</v>
+      </c>
+      <c r="T12" t="s">
+        <v>555</v>
+      </c>
+      <c r="U12">
         <v>9143</v>
       </c>
-      <c r="V6" s="2" t="s">
-        <v>530</v>
-      </c>
-      <c r="W6" t="s">
-        <v>520</v>
-      </c>
-      <c r="X6" t="s">
-        <v>531</v>
-      </c>
-      <c r="Y6" t="s">
-        <v>521</v>
-      </c>
-      <c r="Z6" t="s">
-        <v>524</v>
-      </c>
-      <c r="AA6" s="2" t="s">
-        <v>532</v>
-      </c>
-      <c r="AB6" t="s">
-        <v>537</v>
-      </c>
-      <c r="GZ6" t="s">
-        <v>542</v>
-      </c>
-      <c r="HA6" s="2" t="s">
-        <v>544</v>
-      </c>
-      <c r="HB6" t="s">
-        <v>547</v>
-      </c>
-      <c r="HC6">
+      <c r="V12" s="2" t="s">
+        <v>566</v>
+      </c>
+      <c r="W12" t="s">
+        <v>549</v>
+      </c>
+      <c r="X12" t="s">
+        <v>567</v>
+      </c>
+      <c r="Y12" t="s">
+        <v>550</v>
+      </c>
+      <c r="Z12" t="s">
+        <v>554</v>
+      </c>
+      <c r="AA12" s="2" t="s">
+        <v>568</v>
+      </c>
+      <c r="AB12" t="s">
+        <v>573</v>
+      </c>
+      <c r="GW12" t="s">
+        <v>579</v>
+      </c>
+      <c r="GX12" s="2" t="s">
+        <v>582</v>
+      </c>
+      <c r="GY12" t="s">
+        <v>586</v>
+      </c>
+      <c r="GZ12">
         <v>646</v>
       </c>
-      <c r="HD6" t="s">
-        <v>548</v>
-      </c>
-      <c r="HE6" t="s">
-        <v>549</v>
-      </c>
-      <c r="HF6" t="s">
-        <v>542</v>
-      </c>
-      <c r="HH6" t="s">
-        <v>503</v>
-      </c>
-      <c r="HI6" t="s">
-        <v>554</v>
-      </c>
-      <c r="HJ6" t="s">
-        <v>559</v>
-      </c>
-      <c r="HK6" t="s">
-        <v>560</v>
-      </c>
-      <c r="HL6" t="s">
-        <v>561</v>
-      </c>
-      <c r="IG6" t="s">
-        <v>562</v>
-      </c>
-      <c r="IH6" t="s">
-        <v>563</v>
-      </c>
-      <c r="JA6" t="s">
-        <v>542</v>
-      </c>
-      <c r="JC6" t="s">
-        <v>547</v>
-      </c>
-      <c r="JD6">
+      <c r="HA12" t="s">
+        <v>587</v>
+      </c>
+      <c r="HB12" t="s">
+        <v>589</v>
+      </c>
+      <c r="HC12" t="s">
+        <v>579</v>
+      </c>
+      <c r="HE12" t="s">
+        <v>513</v>
+      </c>
+      <c r="HF12" t="s">
+        <v>600</v>
+      </c>
+      <c r="HG12" t="s">
+        <v>611</v>
+      </c>
+      <c r="HH12" t="s">
+        <v>612</v>
+      </c>
+      <c r="HI12" t="s">
+        <v>613</v>
+      </c>
+      <c r="ID12" t="s">
+        <v>616</v>
+      </c>
+      <c r="IE12" t="s">
+        <v>618</v>
+      </c>
+      <c r="IX12" t="s">
+        <v>579</v>
+      </c>
+      <c r="IZ12" t="s">
+        <v>586</v>
+      </c>
+      <c r="JA12">
         <v>646</v>
       </c>
-      <c r="JE6" t="s">
-        <v>548</v>
-      </c>
-      <c r="JF6" t="s">
-        <v>549</v>
-      </c>
-      <c r="JG6" t="s">
-        <v>542</v>
-      </c>
-      <c r="JI6" t="s">
-        <v>503</v>
-      </c>
-      <c r="JK6" t="s">
-        <v>554</v>
-      </c>
-      <c r="JL6" t="s">
-        <v>559</v>
-      </c>
-      <c r="JM6" t="s">
-        <v>560</v>
-      </c>
-      <c r="JN6" t="s">
-        <v>561</v>
-      </c>
-      <c r="NL6" t="s">
-        <v>581</v>
-      </c>
-      <c r="NM6" t="s">
-        <v>540</v>
-      </c>
-      <c r="NN6" t="s">
-        <v>540</v>
-      </c>
-      <c r="NO6" t="s">
-        <v>540</v>
-      </c>
-      <c r="NP6" t="s">
-        <v>540</v>
-      </c>
-      <c r="NQ6" t="s">
-        <v>540</v>
-      </c>
-      <c r="NR6" t="s">
-        <v>539</v>
-      </c>
-      <c r="NS6" t="s">
-        <v>539</v>
-      </c>
-      <c r="NT6" t="s">
-        <v>539</v>
-      </c>
-      <c r="NU6" t="s">
-        <v>539</v>
-      </c>
-      <c r="NV6" t="s">
-        <v>539</v>
-      </c>
-      <c r="NW6" t="s">
-        <v>539</v>
-      </c>
-      <c r="NX6" t="s">
-        <v>539</v>
-      </c>
-      <c r="NY6" t="s">
-        <v>541</v>
-      </c>
-      <c r="NZ6" t="s">
-        <v>582</v>
-      </c>
-      <c r="OA6" t="s">
-        <v>583</v>
-      </c>
-      <c r="OC6" t="s">
-        <v>539</v>
-      </c>
-      <c r="OD6" t="s">
-        <v>539</v>
-      </c>
-      <c r="OE6" t="s">
-        <v>539</v>
-      </c>
-      <c r="OF6" t="s">
-        <v>539</v>
-      </c>
-      <c r="OG6" t="s">
-        <v>539</v>
-      </c>
-      <c r="OH6" t="s">
-        <v>539</v>
-      </c>
-      <c r="OI6" t="s">
-        <v>539</v>
-      </c>
-      <c r="OJ6" t="s">
-        <v>540</v>
-      </c>
-      <c r="OK6" t="s">
-        <v>540</v>
-      </c>
-      <c r="OL6" t="s">
-        <v>539</v>
-      </c>
-      <c r="OM6" t="s">
-        <v>541</v>
-      </c>
-      <c r="ON6" t="s">
-        <v>584</v>
-      </c>
-      <c r="OO6" t="s">
-        <v>539</v>
-      </c>
-      <c r="OP6" t="s">
-        <v>585</v>
-      </c>
-      <c r="OQ6" t="s">
-        <v>539</v>
-      </c>
-      <c r="OR6" t="s">
-        <v>539</v>
-      </c>
-      <c r="OS6" t="s">
-        <v>586</v>
-      </c>
-      <c r="OT6" t="s">
+      <c r="JB12" t="s">
         <v>587</v>
       </c>
-      <c r="OU6" t="s">
-        <v>540</v>
-      </c>
-      <c r="OV6" t="s">
-        <v>588</v>
-      </c>
-      <c r="OW6" t="s">
+      <c r="JC12" t="s">
         <v>589</v>
       </c>
-      <c r="OX6" t="s">
-        <v>539</v>
-      </c>
-      <c r="OY6" t="s">
-        <v>538</v>
-      </c>
-      <c r="OZ6" t="s">
-        <v>539</v>
-      </c>
-      <c r="PA6" t="s">
-        <v>539</v>
-      </c>
-      <c r="PB6" t="s">
-        <v>539</v>
-      </c>
-      <c r="PC6" t="s">
-        <v>539</v>
-      </c>
-      <c r="PD6" t="s">
-        <v>539</v>
-      </c>
-      <c r="PE6" t="s">
-        <v>539</v>
-      </c>
-      <c r="PF6" t="s">
-        <v>539</v>
-      </c>
-      <c r="PG6" t="s">
-        <v>539</v>
-      </c>
-      <c r="PH6" t="s">
-        <v>539</v>
-      </c>
-      <c r="PI6" t="s">
-        <v>587</v>
-      </c>
-      <c r="PJ6" t="s">
-        <v>539</v>
-      </c>
-      <c r="PK6" t="s">
-        <v>541</v>
-      </c>
-      <c r="PL6" t="s">
-        <v>539</v>
-      </c>
-      <c r="PM6" t="s">
-        <v>539</v>
-      </c>
-      <c r="PN6" t="s">
-        <v>539</v>
-      </c>
-      <c r="PO6" t="s">
-        <v>540</v>
-      </c>
-      <c r="PP6" t="s">
-        <v>540</v>
-      </c>
-      <c r="PQ6" t="s">
-        <v>539</v>
-      </c>
-      <c r="PR6" t="s">
-        <v>539</v>
-      </c>
-      <c r="PS6" t="s">
-        <v>539</v>
-      </c>
-      <c r="PT6" t="s">
-        <v>539</v>
-      </c>
-      <c r="PU6" t="s">
-        <v>539</v>
-      </c>
-      <c r="PV6" t="s">
-        <v>590</v>
-      </c>
-      <c r="PW6" t="s">
-        <v>539</v>
-      </c>
-      <c r="PX6" t="s">
-        <v>539</v>
-      </c>
-      <c r="PY6" t="s">
-        <v>539</v>
-      </c>
-      <c r="PZ6" t="s">
-        <v>539</v>
-      </c>
-      <c r="QA6" t="s">
-        <v>539</v>
-      </c>
-      <c r="QB6" t="s">
-        <v>539</v>
-      </c>
-      <c r="QC6" t="s">
-        <v>539</v>
-      </c>
-      <c r="QD6" t="s">
-        <v>539</v>
-      </c>
-      <c r="QE6" t="s">
-        <v>539</v>
-      </c>
-      <c r="QF6" t="s">
-        <v>541</v>
-      </c>
-      <c r="QG6" t="s">
-        <v>541</v>
-      </c>
-      <c r="QH6" t="s">
-        <v>538</v>
-      </c>
-      <c r="QI6" t="s">
-        <v>539</v>
-      </c>
-      <c r="QJ6" t="s">
-        <v>591</v>
-      </c>
-      <c r="QK6" t="s">
-        <v>540</v>
-      </c>
-      <c r="QL6" t="s">
-        <v>540</v>
-      </c>
-      <c r="QM6" t="s">
-        <v>540</v>
-      </c>
-      <c r="QN6" t="s">
-        <v>539</v>
-      </c>
-      <c r="QO6" t="s">
-        <v>592</v>
-      </c>
-      <c r="QP6" t="s">
-        <v>539</v>
-      </c>
-      <c r="QQ6" t="s">
-        <v>539</v>
-      </c>
-      <c r="QR6" t="s">
-        <v>539</v>
-      </c>
-      <c r="QS6" t="s">
-        <v>539</v>
-      </c>
-      <c r="QT6" t="s">
-        <v>539</v>
-      </c>
-      <c r="QU6" t="s">
-        <v>539</v>
-      </c>
-      <c r="QV6" t="s">
-        <v>539</v>
-      </c>
-      <c r="QW6" t="s">
-        <v>539</v>
-      </c>
-      <c r="QX6" t="s">
-        <v>539</v>
-      </c>
-      <c r="QY6" t="s">
-        <v>593</v>
-      </c>
-      <c r="QZ6" t="s">
-        <v>539</v>
-      </c>
-      <c r="RA6" t="s">
-        <v>539</v>
-      </c>
-      <c r="RB6" t="s">
-        <v>540</v>
-      </c>
-      <c r="RC6" t="s">
-        <v>539</v>
-      </c>
-      <c r="RD6" t="s">
-        <v>540</v>
-      </c>
-      <c r="RE6" t="s">
-        <v>540</v>
-      </c>
-      <c r="RF6" t="s">
-        <v>540</v>
-      </c>
-      <c r="RG6" t="s">
-        <v>540</v>
-      </c>
-      <c r="RH6" t="s">
-        <v>539</v>
-      </c>
-      <c r="RI6" t="s">
-        <v>539</v>
-      </c>
-      <c r="RJ6" t="s">
-        <v>539</v>
-      </c>
-      <c r="RK6" t="s">
-        <v>539</v>
-      </c>
-      <c r="RL6" t="s">
-        <v>539</v>
-      </c>
-      <c r="RM6" t="s">
-        <v>539</v>
-      </c>
-      <c r="RN6" t="s">
-        <v>539</v>
-      </c>
-      <c r="RO6" t="s">
-        <v>539</v>
-      </c>
-      <c r="RP6" t="s">
-        <v>539</v>
-      </c>
-      <c r="RQ6" t="s">
-        <v>539</v>
-      </c>
-      <c r="RR6" t="s">
-        <v>539</v>
-      </c>
-      <c r="RS6" t="s">
-        <v>540</v>
-      </c>
-      <c r="RT6" t="s">
-        <v>539</v>
-      </c>
-      <c r="RU6" t="s">
-        <v>539</v>
-      </c>
-      <c r="RV6" t="s">
-        <v>539</v>
-      </c>
-      <c r="RW6" t="s">
-        <v>540</v>
-      </c>
-      <c r="RX6" t="s">
-        <v>539</v>
-      </c>
-      <c r="RY6" t="s">
-        <v>539</v>
-      </c>
-      <c r="RZ6" t="s">
-        <v>539</v>
-      </c>
-      <c r="SA6" t="s">
-        <v>539</v>
+      <c r="JD12" t="s">
+        <v>579</v>
+      </c>
+      <c r="JF12" t="s">
+        <v>513</v>
+      </c>
+      <c r="JH12" t="s">
+        <v>600</v>
+      </c>
+      <c r="JI12" t="s">
+        <v>611</v>
+      </c>
+      <c r="JJ12" t="s">
+        <v>612</v>
+      </c>
+      <c r="JK12" t="s">
+        <v>613</v>
+      </c>
+      <c r="NK12" t="s">
+        <v>651</v>
+      </c>
+      <c r="NL12" t="s">
+        <v>577</v>
+      </c>
+      <c r="NM12" t="s">
+        <v>577</v>
+      </c>
+      <c r="NN12" t="s">
+        <v>577</v>
+      </c>
+      <c r="NO12" t="s">
+        <v>577</v>
+      </c>
+      <c r="NP12" t="s">
+        <v>577</v>
+      </c>
+      <c r="NQ12" t="s">
+        <v>576</v>
+      </c>
+      <c r="NR12" t="s">
+        <v>576</v>
+      </c>
+      <c r="NS12" t="s">
+        <v>576</v>
+      </c>
+      <c r="NT12" t="s">
+        <v>576</v>
+      </c>
+      <c r="NU12" t="s">
+        <v>576</v>
+      </c>
+      <c r="NV12" t="s">
+        <v>576</v>
+      </c>
+      <c r="NW12" t="s">
+        <v>576</v>
+      </c>
+      <c r="NX12" t="s">
+        <v>578</v>
+      </c>
+      <c r="NY12" t="s">
+        <v>652</v>
+      </c>
+      <c r="NZ12" t="s">
+        <v>654</v>
+      </c>
+      <c r="OB12" t="s">
+        <v>576</v>
+      </c>
+      <c r="OC12" t="s">
+        <v>576</v>
+      </c>
+      <c r="OD12" t="s">
+        <v>576</v>
+      </c>
+      <c r="OE12" t="s">
+        <v>576</v>
+      </c>
+      <c r="OF12" t="s">
+        <v>576</v>
+      </c>
+      <c r="OG12" t="s">
+        <v>576</v>
+      </c>
+      <c r="OH12" t="s">
+        <v>576</v>
+      </c>
+      <c r="OI12" t="s">
+        <v>577</v>
+      </c>
+      <c r="OJ12" t="s">
+        <v>577</v>
+      </c>
+      <c r="OK12" t="s">
+        <v>576</v>
+      </c>
+      <c r="OL12" t="s">
+        <v>578</v>
+      </c>
+      <c r="OM12" t="s">
+        <v>657</v>
+      </c>
+      <c r="ON12" t="s">
+        <v>576</v>
+      </c>
+      <c r="OO12" t="s">
+        <v>658</v>
+      </c>
+      <c r="OP12" t="s">
+        <v>576</v>
+      </c>
+      <c r="OQ12" t="s">
+        <v>576</v>
+      </c>
+      <c r="OR12" t="s">
+        <v>659</v>
+      </c>
+      <c r="OS12" t="s">
+        <v>660</v>
+      </c>
+      <c r="OT12" t="s">
+        <v>577</v>
+      </c>
+      <c r="OU12" t="s">
+        <v>661</v>
+      </c>
+      <c r="OV12" t="s">
+        <v>662</v>
+      </c>
+      <c r="OW12" t="s">
+        <v>576</v>
+      </c>
+      <c r="OX12" t="s">
+        <v>575</v>
+      </c>
+      <c r="OY12" t="s">
+        <v>576</v>
+      </c>
+      <c r="OZ12" t="s">
+        <v>576</v>
+      </c>
+      <c r="PA12" t="s">
+        <v>576</v>
+      </c>
+      <c r="PB12" t="s">
+        <v>576</v>
+      </c>
+      <c r="PC12" t="s">
+        <v>576</v>
+      </c>
+      <c r="PD12" t="s">
+        <v>576</v>
+      </c>
+      <c r="PE12" t="s">
+        <v>576</v>
+      </c>
+      <c r="PF12" t="s">
+        <v>576</v>
+      </c>
+      <c r="PG12" t="s">
+        <v>576</v>
+      </c>
+      <c r="PH12" t="s">
+        <v>660</v>
+      </c>
+      <c r="PI12" t="s">
+        <v>576</v>
+      </c>
+      <c r="PJ12" t="s">
+        <v>578</v>
+      </c>
+      <c r="PK12" t="s">
+        <v>576</v>
+      </c>
+      <c r="PL12" t="s">
+        <v>576</v>
+      </c>
+      <c r="PM12" t="s">
+        <v>576</v>
+      </c>
+      <c r="PN12" t="s">
+        <v>577</v>
+      </c>
+      <c r="PO12" t="s">
+        <v>577</v>
+      </c>
+      <c r="PP12" t="s">
+        <v>576</v>
+      </c>
+      <c r="PQ12" t="s">
+        <v>576</v>
+      </c>
+      <c r="PR12" t="s">
+        <v>576</v>
+      </c>
+      <c r="PS12" t="s">
+        <v>576</v>
+      </c>
+      <c r="PT12" t="s">
+        <v>576</v>
+      </c>
+      <c r="PU12" t="s">
+        <v>665</v>
+      </c>
+      <c r="PV12" t="s">
+        <v>576</v>
+      </c>
+      <c r="PW12" t="s">
+        <v>576</v>
+      </c>
+      <c r="PX12" t="s">
+        <v>576</v>
+      </c>
+      <c r="PY12" t="s">
+        <v>576</v>
+      </c>
+      <c r="PZ12" t="s">
+        <v>576</v>
+      </c>
+      <c r="QA12" t="s">
+        <v>576</v>
+      </c>
+      <c r="QB12" t="s">
+        <v>576</v>
+      </c>
+      <c r="QC12" t="s">
+        <v>576</v>
+      </c>
+      <c r="QD12" t="s">
+        <v>576</v>
+      </c>
+      <c r="QE12" t="s">
+        <v>578</v>
+      </c>
+      <c r="QF12" t="s">
+        <v>578</v>
+      </c>
+      <c r="QH12" t="s">
+        <v>575</v>
+      </c>
+      <c r="QI12" t="s">
+        <v>576</v>
+      </c>
+      <c r="QJ12" t="s">
+        <v>668</v>
+      </c>
+      <c r="QK12" t="s">
+        <v>577</v>
+      </c>
+      <c r="QL12" t="s">
+        <v>577</v>
+      </c>
+      <c r="QM12" t="s">
+        <v>577</v>
+      </c>
+      <c r="QN12" t="s">
+        <v>576</v>
+      </c>
+      <c r="QO12" t="s">
+        <v>669</v>
+      </c>
+      <c r="QP12" t="s">
+        <v>576</v>
+      </c>
+      <c r="QQ12" t="s">
+        <v>576</v>
+      </c>
+      <c r="QR12" t="s">
+        <v>576</v>
+      </c>
+      <c r="QS12" t="s">
+        <v>576</v>
+      </c>
+      <c r="QT12" t="s">
+        <v>576</v>
+      </c>
+      <c r="QU12" t="s">
+        <v>576</v>
+      </c>
+      <c r="QV12" t="s">
+        <v>576</v>
+      </c>
+      <c r="QW12" t="s">
+        <v>576</v>
+      </c>
+      <c r="QX12" t="s">
+        <v>576</v>
+      </c>
+      <c r="QY12" t="s">
+        <v>671</v>
+      </c>
+      <c r="QZ12" t="s">
+        <v>576</v>
+      </c>
+      <c r="RA12" t="s">
+        <v>576</v>
+      </c>
+      <c r="RB12" t="s">
+        <v>577</v>
+      </c>
+      <c r="RC12" t="s">
+        <v>576</v>
+      </c>
+      <c r="RD12" t="s">
+        <v>577</v>
+      </c>
+      <c r="RE12" t="s">
+        <v>577</v>
+      </c>
+      <c r="RF12" t="s">
+        <v>577</v>
+      </c>
+      <c r="RG12" t="s">
+        <v>577</v>
+      </c>
+      <c r="RH12" t="s">
+        <v>576</v>
+      </c>
+      <c r="RI12" t="s">
+        <v>576</v>
+      </c>
+      <c r="RJ12" t="s">
+        <v>576</v>
+      </c>
+      <c r="RK12" t="s">
+        <v>576</v>
+      </c>
+      <c r="RL12" t="s">
+        <v>576</v>
+      </c>
+      <c r="RM12" t="s">
+        <v>576</v>
+      </c>
+      <c r="RN12" t="s">
+        <v>576</v>
+      </c>
+      <c r="RO12" t="s">
+        <v>576</v>
+      </c>
+      <c r="RP12" t="s">
+        <v>576</v>
+      </c>
+      <c r="RQ12" t="s">
+        <v>576</v>
+      </c>
+      <c r="RR12" t="s">
+        <v>576</v>
+      </c>
+      <c r="RS12" t="s">
+        <v>577</v>
+      </c>
+      <c r="RT12" t="s">
+        <v>576</v>
+      </c>
+      <c r="RU12" t="s">
+        <v>576</v>
+      </c>
+      <c r="RV12" t="s">
+        <v>576</v>
+      </c>
+      <c r="RW12" t="s">
+        <v>577</v>
+      </c>
+      <c r="RX12" t="s">
+        <v>576</v>
+      </c>
+      <c r="RY12" t="s">
+        <v>576</v>
+      </c>
+      <c r="RZ12" t="s">
+        <v>576</v>
+      </c>
+      <c r="SA12" t="s">
+        <v>576</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="V2" r:id="rId1"/>
     <hyperlink ref="AA2" r:id="rId2"/>
-    <hyperlink ref="HA2" r:id="rId3"/>
+    <hyperlink ref="GX2" r:id="rId3"/>
     <hyperlink ref="V3" r:id="rId4"/>
     <hyperlink ref="AA3" r:id="rId5"/>
-    <hyperlink ref="HA3" r:id="rId6"/>
+    <hyperlink ref="GX3" r:id="rId6"/>
     <hyperlink ref="V4" r:id="rId7"/>
     <hyperlink ref="AA4" r:id="rId8"/>
-    <hyperlink ref="HA4" r:id="rId9"/>
+    <hyperlink ref="GX4" r:id="rId9"/>
     <hyperlink ref="V5" r:id="rId10"/>
     <hyperlink ref="AA5" r:id="rId11"/>
-    <hyperlink ref="HA5" r:id="rId12"/>
+    <hyperlink ref="GX5" r:id="rId12"/>
     <hyperlink ref="V6" r:id="rId13"/>
     <hyperlink ref="AA6" r:id="rId14"/>
-    <hyperlink ref="HA6" r:id="rId15"/>
+    <hyperlink ref="GX6" r:id="rId15"/>
+    <hyperlink ref="V7" r:id="rId16"/>
+    <hyperlink ref="AA7" r:id="rId17"/>
+    <hyperlink ref="GX7" r:id="rId18"/>
+    <hyperlink ref="V8" r:id="rId19"/>
+    <hyperlink ref="AA8" r:id="rId20"/>
+    <hyperlink ref="GX8" r:id="rId21"/>
+    <hyperlink ref="V9" r:id="rId22"/>
+    <hyperlink ref="AA9" r:id="rId23"/>
+    <hyperlink ref="GX9" r:id="rId24"/>
+    <hyperlink ref="V10" r:id="rId25"/>
+    <hyperlink ref="AA10" r:id="rId26"/>
+    <hyperlink ref="GX10" r:id="rId27"/>
+    <hyperlink ref="V11" r:id="rId28"/>
+    <hyperlink ref="AA11" r:id="rId29"/>
+    <hyperlink ref="GX11" r:id="rId30"/>
+    <hyperlink ref="V12" r:id="rId31"/>
+    <hyperlink ref="AA12" r:id="rId32"/>
+    <hyperlink ref="GX12" r:id="rId33"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/test.xlsx
+++ b/test.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="621" uniqueCount="415">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="749" uniqueCount="468">
   <si>
     <t>app_id</t>
   </si>
@@ -97,6 +97,222 @@
     <t>form.activity_and_time_period_under_review.section</t>
   </si>
   <si>
+    <t>form.ending_month_to_numeric</t>
+  </si>
+  <si>
+    <t>form.meta.@xmlns</t>
+  </si>
+  <si>
+    <t>form.meta.appVersion</t>
+  </si>
+  <si>
+    <t>form.meta.app_build_version</t>
+  </si>
+  <si>
+    <t>form.meta.commcare_version</t>
+  </si>
+  <si>
+    <t>form.meta.deviceID</t>
+  </si>
+  <si>
+    <t>form.meta.drift</t>
+  </si>
+  <si>
+    <t>form.meta.geo_point</t>
+  </si>
+  <si>
+    <t>form.meta.instanceID</t>
+  </si>
+  <si>
+    <t>form.meta.timeEnd</t>
+  </si>
+  <si>
+    <t>form.meta.timeStart</t>
+  </si>
+  <si>
+    <t>form.meta.userID</t>
+  </si>
+  <si>
+    <t>form.meta.username</t>
+  </si>
+  <si>
+    <t>form.question2.District</t>
+  </si>
+  <si>
+    <t>form.question2.facility</t>
+  </si>
+  <si>
+    <t>form.section_d_-_sops_guidelines_policies_and_job_aids_-_sops_guidelines_policie.SOPOverallComment</t>
+  </si>
+  <si>
+    <t>form.section_d_-_sops_guidelines_policies_and_job_aids_-_sops_guidelines_policie.adequateStaff</t>
+  </si>
+  <si>
+    <t>form.section_d_-_sops_guidelines_policies_and_job_aids_-_sops_guidelines_policie.aeDocumentation</t>
+  </si>
+  <si>
+    <t>form.section_d_-_sops_guidelines_policies_and_job_aids_-_sops_guidelines_policie.aeRegister</t>
+  </si>
+  <si>
+    <t>form.section_d_-_sops_guidelines_policies_and_job_aids_-_sops_guidelines_policie.aeRegisterClientCapturing</t>
+  </si>
+  <si>
+    <t>form.section_d_-_sops_guidelines_policies_and_job_aids_-_sops_guidelines_policie.aeReviewMinutes</t>
+  </si>
+  <si>
+    <t>form.section_d_-_sops_guidelines_policies_and_job_aids_-_sops_guidelines_policie.aeSOP</t>
+  </si>
+  <si>
+    <t>form.section_d_-_sops_guidelines_policies_and_job_aids_-_sops_guidelines_policie.cifAvailability</t>
+  </si>
+  <si>
+    <t>form.section_d_-_sops_guidelines_policies_and_job_aids_-_sops_guidelines_policie.clientRegisterAvailability</t>
+  </si>
+  <si>
+    <t>form.section_d_-_sops_guidelines_policies_and_job_aids_-_sops_guidelines_policie.condomDemo</t>
+  </si>
+  <si>
+    <t>form.section_d_-_sops_guidelines_policies_and_job_aids_-_sops_guidelines_policie.condomInsertionModels</t>
+  </si>
+  <si>
+    <t>form.section_d_-_sops_guidelines_policies_and_job_aids_-_sops_guidelines_policie.condomsAvailability</t>
+  </si>
+  <si>
+    <t>form.section_d_-_sops_guidelines_policies_and_job_aids_-_sops_guidelines_policie.condomsAvailabilitySOP</t>
+  </si>
+  <si>
+    <t>form.section_d_-_sops_guidelines_policies_and_job_aids_-_sops_guidelines_policie.copy-1-of-adequateStaff</t>
+  </si>
+  <si>
+    <t>form.section_d_-_sops_guidelines_policies_and_job_aids_-_sops_guidelines_policie.dataCollectionToolsCurrentVersion</t>
+  </si>
+  <si>
+    <t>form.section_d_-_sops_guidelines_policies_and_job_aids_-_sops_guidelines_policie.htsCounselingSOP</t>
+  </si>
+  <si>
+    <t>form.section_d_-_sops_guidelines_policies_and_job_aids_-_sops_guidelines_policie.htsCounselingSOPFollowUp</t>
+  </si>
+  <si>
+    <t>form.section_d_-_sops_guidelines_policies_and_job_aids_-_sops_guidelines_policie.htsQualityAssurance</t>
+  </si>
+  <si>
+    <t>form.section_d_-_sops_guidelines_policies_and_job_aids_-_sops_guidelines_policie.htsStaffRefresherTraining</t>
+  </si>
+  <si>
+    <t>form.section_d_-_sops_guidelines_policies_and_job_aids_-_sops_guidelines_policie.internalControls</t>
+  </si>
+  <si>
+    <t>form.section_d_-_sops_guidelines_policies_and_job_aids_-_sops_guidelines_policie.medicalEmergencySOP</t>
+  </si>
+  <si>
+    <t>form.section_d_-_sops_guidelines_policies_and_job_aids_-_sops_guidelines_policie.patientRightFollowUp</t>
+  </si>
+  <si>
+    <t>form.section_d_-_sops_guidelines_policies_and_job_aids_-_sops_guidelines_policie.patientRights</t>
+  </si>
+  <si>
+    <t>form.section_d_-_sops_guidelines_policies_and_job_aids_-_sops_guidelines_policie.postCouncellingCoverageonHTSLinkages</t>
+  </si>
+  <si>
+    <t>form.section_d_-_sops_guidelines_policies_and_job_aids_-_sops_guidelines_policie.postOperativeCareGuidelines</t>
+  </si>
+  <si>
+    <t>form.section_d_-_sops_guidelines_policies_and_job_aids_-_sops_guidelines_policie.postOperativeFollowUpProtocol</t>
+  </si>
+  <si>
+    <t>form.section_d_-_sops_guidelines_policies_and_job_aids_-_sops_guidelines_policie.postOperativeWrittenInstructions</t>
+  </si>
+  <si>
+    <t>form.section_d_-_sops_guidelines_policies_and_job_aids_-_sops_guidelines_policie.pretestInformationRelevance</t>
+  </si>
+  <si>
+    <t>form.section_d_-_sops_guidelines_policies_and_job_aids_-_sops_guidelines_policie.programme_visibility</t>
+  </si>
+  <si>
+    <t>form.section_d_-_sops_guidelines_policies_and_job_aids_-_sops_guidelines_policie.qualityImprovementMinutes</t>
+  </si>
+  <si>
+    <t>form.section_d_-_sops_guidelines_policies_and_job_aids_-_sops_guidelines_policie.question31</t>
+  </si>
+  <si>
+    <t>form.section_d_-_sops_guidelines_policies_and_job_aids_-_sops_guidelines_policie.referralLinkageForms</t>
+  </si>
+  <si>
+    <t>form.section_d_-_sops_guidelines_policies_and_job_aids_-_sops_guidelines_policie.referralTrackingStandards</t>
+  </si>
+  <si>
+    <t>form.section_d_-_sops_guidelines_policies_and_job_aids_-_sops_guidelines_policie.registerCompletion</t>
+  </si>
+  <si>
+    <t>form.section_d_-_sops_guidelines_policies_and_job_aids_-_sops_guidelines_policie.saeReportingForm</t>
+  </si>
+  <si>
+    <t>form.section_d_-_sops_guidelines_policies_and_job_aids_-_sops_guidelines_policie.sops_guidelines_policies_and_job_aids_-_sticondom</t>
+  </si>
+  <si>
+    <t>form.section_d_-_sops_guidelines_policies_and_job_aids_-_sops_guidelines_policie.spaceforPostTestingCounselling</t>
+  </si>
+  <si>
+    <t>form.section_d_-_sops_guidelines_policies_and_job_aids_-_sops_guidelines_policie.staffJobDescription</t>
+  </si>
+  <si>
+    <t>form.section_d_-_sops_guidelines_policies_and_job_aids_-_sops_guidelines_policie.stiRegister</t>
+  </si>
+  <si>
+    <t>form.section_d_-_sops_guidelines_policies_and_job_aids_-_sops_guidelines_policie.vmmcSurgicalManual</t>
+  </si>
+  <si>
+    <t>form.section_d_-_sops_guidelines_policies_and_job_aids_-_sops_guidelines_policie.wasteDisposalSOP</t>
+  </si>
+  <si>
+    <t>form.section_d_-_sops_guidelines_policies_and_job_aids_-_sops_guidelines_policie.work_plan</t>
+  </si>
+  <si>
+    <t>form.section_d_-_sops_guidelines_policies_and_job_aids_-_sops_guidelines_policie.writtenGuidance</t>
+  </si>
+  <si>
+    <t>form.starting_month_to_numeric</t>
+  </si>
+  <si>
+    <t>form.totalMonths</t>
+  </si>
+  <si>
+    <t>metadata.appVersion</t>
+  </si>
+  <si>
+    <t>metadata.app_build_version</t>
+  </si>
+  <si>
+    <t>metadata.commcare_version</t>
+  </si>
+  <si>
+    <t>metadata.deviceID</t>
+  </si>
+  <si>
+    <t>metadata.drift</t>
+  </si>
+  <si>
+    <t>metadata.geo_point</t>
+  </si>
+  <si>
+    <t>metadata.instanceID</t>
+  </si>
+  <si>
+    <t>metadata.location</t>
+  </si>
+  <si>
+    <t>metadata.timeEnd</t>
+  </si>
+  <si>
+    <t>metadata.timeStart</t>
+  </si>
+  <si>
+    <t>metadata.userID</t>
+  </si>
+  <si>
+    <t>metadata.username</t>
+  </si>
+  <si>
     <t>form.copy-1-of-question1.InformationCommunicationComment</t>
   </si>
   <si>
@@ -625,45 +841,6 @@
     <t>form.copy-4-of-question1.workingTimePiece</t>
   </si>
   <si>
-    <t>form.ending_month_to_numeric</t>
-  </si>
-  <si>
-    <t>form.meta.@xmlns</t>
-  </si>
-  <si>
-    <t>form.meta.appVersion</t>
-  </si>
-  <si>
-    <t>form.meta.app_build_version</t>
-  </si>
-  <si>
-    <t>form.meta.commcare_version</t>
-  </si>
-  <si>
-    <t>form.meta.deviceID</t>
-  </si>
-  <si>
-    <t>form.meta.drift</t>
-  </si>
-  <si>
-    <t>form.meta.geo_point</t>
-  </si>
-  <si>
-    <t>form.meta.instanceID</t>
-  </si>
-  <si>
-    <t>form.meta.timeEnd</t>
-  </si>
-  <si>
-    <t>form.meta.timeStart</t>
-  </si>
-  <si>
-    <t>form.meta.userID</t>
-  </si>
-  <si>
-    <t>form.meta.username</t>
-  </si>
-  <si>
     <t>form.question1.IndividualCounsellingComment</t>
   </si>
   <si>
@@ -724,12 +901,6 @@
     <t>form.question1.through_direct_observation_optimal_or_interviews_with_counselors_determine_</t>
   </si>
   <si>
-    <t>form.question2.District</t>
-  </si>
-  <si>
-    <t>form.question2.facility</t>
-  </si>
-  <si>
     <t>form.section_e_-_communication.Pre-OPGroupCommunicationComment</t>
   </si>
   <si>
@@ -784,48 +955,6 @@
     <t>form.section_e_-_communication.sessionNotInterruptedPreOp</t>
   </si>
   <si>
-    <t>form.starting_month_to_numeric</t>
-  </si>
-  <si>
-    <t>form.totalMonths</t>
-  </si>
-  <si>
-    <t>metadata.appVersion</t>
-  </si>
-  <si>
-    <t>metadata.app_build_version</t>
-  </si>
-  <si>
-    <t>metadata.commcare_version</t>
-  </si>
-  <si>
-    <t>metadata.deviceID</t>
-  </si>
-  <si>
-    <t>metadata.drift</t>
-  </si>
-  <si>
-    <t>metadata.geo_point</t>
-  </si>
-  <si>
-    <t>metadata.instanceID</t>
-  </si>
-  <si>
-    <t>metadata.location</t>
-  </si>
-  <si>
-    <t>metadata.timeEnd</t>
-  </si>
-  <si>
-    <t>metadata.timeStart</t>
-  </si>
-  <si>
-    <t>metadata.userID</t>
-  </si>
-  <si>
-    <t>metadata.username</t>
-  </si>
-  <si>
     <t>form.copy-1-of-data_quality_assessment.adverseEvents2WT</t>
   </si>
   <si>
@@ -1006,6 +1135,9 @@
     <t>zdip-qa</t>
   </si>
   <si>
+    <t>c60eec85-9970-4d06-948f-cf2994caf8c0</t>
+  </si>
+  <si>
     <t>850491e3-2a0c-4091-84c8-f9b6592f6d55</t>
   </si>
   <si>
@@ -1018,6 +1150,9 @@
     <t>a2abb0db-ac10-41fb-9d6b-67afa0100c3a</t>
   </si>
   <si>
+    <t>2025-06-30T12:32:56.039259Z</t>
+  </si>
+  <si>
     <t>2025-06-30T11:59:36.379938Z</t>
   </si>
   <si>
@@ -1030,6 +1165,9 @@
     <t>2025-06-30T05:42:07.802779Z</t>
   </si>
   <si>
+    <t>2025-06-30T12:32:34.958766Z</t>
+  </si>
+  <si>
     <t>2025-06-30T11:59:36.289790Z</t>
   </si>
   <si>
@@ -1042,6 +1180,9 @@
     <t>2025-06-30T05:42:07.558273Z</t>
   </si>
   <si>
+    <t>2025-06-30T12:32:35.005216Z</t>
+  </si>
+  <si>
     <t>2025-06-30T11:59:36.324061Z</t>
   </si>
   <si>
@@ -1075,6 +1216,9 @@
     <t>text/xml</t>
   </si>
   <si>
+    <t>https://zdip.zimttech.org/a/zdip-qa/api/form_attachment/v1/c60eec85-9970-4d06-948f-cf2994caf8c0/form.xml</t>
+  </si>
+  <si>
     <t>https://zdip.zimttech.org/a/zdip-qa/api/form_attachment/v1/850491e3-2a0c-4091-84c8-f9b6592f6d55/form.xml</t>
   </si>
   <si>
@@ -1093,6 +1237,9 @@
     <t>http://openrosa.org/formdesigner/72526D77-6087-4854-811D-97DBBA955075</t>
   </si>
   <si>
+    <t>d</t>
+  </si>
+  <si>
     <t>e</t>
   </si>
   <si>
@@ -1102,109 +1249,121 @@
     <t>c</t>
   </si>
   <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>http://openrosa.org/jr/xforms</t>
+  </si>
+  <si>
+    <t>CommCare Android, version "2.56.1"(471796). App v669. CommCare Version 2.56.1. Build 471796, built on: 2025-05-12</t>
+  </si>
+  <si>
+    <t>2.56.1</t>
+  </si>
+  <si>
+    <t>commcare_51deb0f1-b0d0-487f-bc8a-4479d5af3f73</t>
+  </si>
+  <si>
+    <t>commcare_c0bf9f85-6d1f-4563-a7b5-e60f61118366</t>
+  </si>
+  <si>
+    <t>commcare_e2aaff39-b9d3-4312-aef9-5e872dbbeec7</t>
+  </si>
+  <si>
+    <t>2025-06-30T12:32:34.119000Z</t>
+  </si>
+  <si>
+    <t>2025-06-30T11:56:42.703000Z</t>
+  </si>
+  <si>
+    <t>2025-06-30T11:51:02.624000Z</t>
+  </si>
+  <si>
+    <t>2025-06-30T06:18:42.920000Z</t>
+  </si>
+  <si>
+    <t>2025-06-30T05:42:04.719000Z</t>
+  </si>
+  <si>
+    <t>2025-06-30T12:01:37.902000Z</t>
+  </si>
+  <si>
+    <t>2025-06-30T10:24:38.615000Z</t>
+  </si>
+  <si>
+    <t>2025-06-30T10:37:10.016000Z</t>
+  </si>
+  <si>
+    <t>2025-06-30T06:12:46.496000Z</t>
+  </si>
+  <si>
+    <t>2025-06-30T05:39:11.832000Z</t>
+  </si>
+  <si>
+    <t>8aec26eba6c94a8a995d425584311644</t>
+  </si>
+  <si>
+    <t>148b582ced074b30a11c93abdad751e5</t>
+  </si>
+  <si>
+    <t>faa9986b11024e209d426230ef5dca1a</t>
+  </si>
+  <si>
+    <t>jgavhera</t>
+  </si>
+  <si>
+    <t>amutenha</t>
+  </si>
+  <si>
+    <t>fgwenzi</t>
+  </si>
+  <si>
+    <t>MARONDERA</t>
+  </si>
+  <si>
+    <t>SANYATI</t>
+  </si>
+  <si>
+    <t>MBIRE</t>
+  </si>
+  <si>
+    <t>Dombotombo</t>
+  </si>
+  <si>
+    <t>Jompani</t>
+  </si>
+  <si>
+    <t>Angwa Clinic</t>
+  </si>
+  <si>
+    <t>All available</t>
+  </si>
+  <si>
+    <t>yes</t>
+  </si>
+  <si>
+    <t>VMMC_Nurse_Counsellors VMMC_circumcisors:_Nursing Cleaners/Theatre_Hands/Runners Data_Clerks Receptionists Nurse_Testers Primary_Care_Counsellors</t>
+  </si>
+  <si>
+    <t>no</t>
+  </si>
+  <si>
+    <t>OK</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>8</t>
+  </si>
+  <si>
     <t>clear</t>
   </si>
   <si>
-    <t>yes</t>
-  </si>
-  <si>
-    <t>OK</t>
-  </si>
-  <si>
-    <t>no</t>
-  </si>
-  <si>
-    <t>0</t>
-  </si>
-  <si>
-    <t>5</t>
-  </si>
-  <si>
-    <t>http://openrosa.org/jr/xforms</t>
-  </si>
-  <si>
-    <t>CommCare Android, version "2.56.1"(471796). App v669. CommCare Version 2.56.1. Build 471796, built on: 2025-05-12</t>
-  </si>
-  <si>
-    <t>2.56.1</t>
-  </si>
-  <si>
-    <t>commcare_51deb0f1-b0d0-487f-bc8a-4479d5af3f73</t>
-  </si>
-  <si>
-    <t>commcare_c0bf9f85-6d1f-4563-a7b5-e60f61118366</t>
-  </si>
-  <si>
-    <t>commcare_e2aaff39-b9d3-4312-aef9-5e872dbbeec7</t>
-  </si>
-  <si>
-    <t>2025-06-30T11:56:42.703000Z</t>
-  </si>
-  <si>
-    <t>2025-06-30T11:51:02.624000Z</t>
-  </si>
-  <si>
-    <t>2025-06-30T06:18:42.920000Z</t>
-  </si>
-  <si>
-    <t>2025-06-30T05:42:04.719000Z</t>
-  </si>
-  <si>
-    <t>2025-06-30T10:24:38.615000Z</t>
-  </si>
-  <si>
-    <t>2025-06-30T10:37:10.016000Z</t>
-  </si>
-  <si>
-    <t>2025-06-30T06:12:46.496000Z</t>
-  </si>
-  <si>
-    <t>2025-06-30T05:39:11.832000Z</t>
-  </si>
-  <si>
-    <t>8aec26eba6c94a8a995d425584311644</t>
-  </si>
-  <si>
-    <t>148b582ced074b30a11c93abdad751e5</t>
-  </si>
-  <si>
-    <t>faa9986b11024e209d426230ef5dca1a</t>
-  </si>
-  <si>
-    <t>jgavhera</t>
-  </si>
-  <si>
-    <t>amutenha</t>
-  </si>
-  <si>
-    <t>fgwenzi</t>
-  </si>
-  <si>
-    <t>MARONDERA</t>
-  </si>
-  <si>
-    <t>SANYATI</t>
-  </si>
-  <si>
-    <t>MBIRE</t>
-  </si>
-  <si>
-    <t>Dombotombo</t>
-  </si>
-  <si>
-    <t>Jompani</t>
-  </si>
-  <si>
-    <t>Angwa Clinic</t>
-  </si>
-  <si>
     <t>complete and engaging. Clients showed learning tool place.</t>
-  </si>
-  <si>
-    <t>10</t>
-  </si>
-  <si>
-    <t>8</t>
   </si>
   <si>
     <t>Facility not using EHR</t>
@@ -1635,13 +1794,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:LP5"/>
+  <dimension ref="A1:NG6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:328">
+    <row r="1" spans="1:371">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2623,28 +2782,157 @@
       <c r="LP1" s="1" t="s">
         <v>326</v>
       </c>
+      <c r="LQ1" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="LR1" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="LS1" s="1" t="s">
+        <v>329</v>
+      </c>
+      <c r="LT1" s="1" t="s">
+        <v>330</v>
+      </c>
+      <c r="LU1" s="1" t="s">
+        <v>331</v>
+      </c>
+      <c r="LV1" s="1" t="s">
+        <v>332</v>
+      </c>
+      <c r="LW1" s="1" t="s">
+        <v>333</v>
+      </c>
+      <c r="LX1" s="1" t="s">
+        <v>334</v>
+      </c>
+      <c r="LY1" s="1" t="s">
+        <v>335</v>
+      </c>
+      <c r="LZ1" s="1" t="s">
+        <v>336</v>
+      </c>
+      <c r="MA1" s="1" t="s">
+        <v>337</v>
+      </c>
+      <c r="MB1" s="1" t="s">
+        <v>338</v>
+      </c>
+      <c r="MC1" s="1" t="s">
+        <v>339</v>
+      </c>
+      <c r="MD1" s="1" t="s">
+        <v>340</v>
+      </c>
+      <c r="ME1" s="1" t="s">
+        <v>341</v>
+      </c>
+      <c r="MF1" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="MG1" s="1" t="s">
+        <v>343</v>
+      </c>
+      <c r="MH1" s="1" t="s">
+        <v>344</v>
+      </c>
+      <c r="MI1" s="1" t="s">
+        <v>345</v>
+      </c>
+      <c r="MJ1" s="1" t="s">
+        <v>346</v>
+      </c>
+      <c r="MK1" s="1" t="s">
+        <v>347</v>
+      </c>
+      <c r="ML1" s="1" t="s">
+        <v>348</v>
+      </c>
+      <c r="MM1" s="1" t="s">
+        <v>349</v>
+      </c>
+      <c r="MN1" s="1" t="s">
+        <v>350</v>
+      </c>
+      <c r="MO1" s="1" t="s">
+        <v>351</v>
+      </c>
+      <c r="MP1" s="1" t="s">
+        <v>352</v>
+      </c>
+      <c r="MQ1" s="1" t="s">
+        <v>353</v>
+      </c>
+      <c r="MR1" s="1" t="s">
+        <v>354</v>
+      </c>
+      <c r="MS1" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="MT1" s="1" t="s">
+        <v>356</v>
+      </c>
+      <c r="MU1" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="MV1" s="1" t="s">
+        <v>358</v>
+      </c>
+      <c r="MW1" s="1" t="s">
+        <v>359</v>
+      </c>
+      <c r="MX1" s="1" t="s">
+        <v>360</v>
+      </c>
+      <c r="MY1" s="1" t="s">
+        <v>361</v>
+      </c>
+      <c r="MZ1" s="1" t="s">
+        <v>362</v>
+      </c>
+      <c r="NA1" s="1" t="s">
+        <v>363</v>
+      </c>
+      <c r="NB1" s="1" t="s">
+        <v>364</v>
+      </c>
+      <c r="NC1" s="1" t="s">
+        <v>365</v>
+      </c>
+      <c r="ND1" s="1" t="s">
+        <v>366</v>
+      </c>
+      <c r="NE1" s="1" t="s">
+        <v>367</v>
+      </c>
+      <c r="NF1" s="1" t="s">
+        <v>368</v>
+      </c>
+      <c r="NG1" s="1" t="s">
+        <v>369</v>
+      </c>
     </row>
-    <row r="2" spans="1:328">
+    <row r="2" spans="1:371">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>327</v>
+        <v>370</v>
       </c>
       <c r="C2" t="b">
         <v>0</v>
       </c>
       <c r="D2" t="s">
-        <v>328</v>
+        <v>371</v>
       </c>
       <c r="E2" t="s">
-        <v>329</v>
+        <v>372</v>
       </c>
       <c r="H2" t="s">
-        <v>330</v>
+        <v>373</v>
       </c>
       <c r="I2" t="s">
-        <v>334</v>
+        <v>378</v>
       </c>
       <c r="J2" t="b">
         <v>1</v>
@@ -2653,342 +2941,276 @@
         <v>1</v>
       </c>
       <c r="M2" t="s">
-        <v>338</v>
+        <v>383</v>
       </c>
       <c r="O2" t="s">
-        <v>342</v>
+        <v>388</v>
       </c>
       <c r="P2" t="s">
-        <v>346</v>
+        <v>393</v>
       </c>
       <c r="Q2" t="s">
-        <v>349</v>
+        <v>396</v>
       </c>
       <c r="R2" t="s">
-        <v>350</v>
+        <v>397</v>
       </c>
       <c r="S2" t="s">
-        <v>351</v>
+        <v>398</v>
       </c>
       <c r="T2" t="s">
-        <v>352</v>
+        <v>399</v>
       </c>
       <c r="U2">
-        <v>12359</v>
+        <v>3505</v>
       </c>
       <c r="V2" s="2" t="s">
-        <v>353</v>
+        <v>400</v>
       </c>
       <c r="W2" t="s">
-        <v>349</v>
+        <v>396</v>
       </c>
       <c r="X2" t="s">
-        <v>357</v>
+        <v>405</v>
       </c>
       <c r="Y2" t="s">
-        <v>350</v>
+        <v>397</v>
       </c>
       <c r="Z2" t="s">
-        <v>351</v>
+        <v>398</v>
       </c>
       <c r="AA2" s="2" t="s">
-        <v>358</v>
+        <v>406</v>
       </c>
       <c r="AB2" t="s">
-        <v>359</v>
+        <v>407</v>
       </c>
       <c r="AC2" t="s">
-        <v>362</v>
-      </c>
-      <c r="AD2" t="s">
-        <v>363</v>
+        <v>411</v>
+      </c>
+      <c r="AD2" s="2" t="s">
+        <v>413</v>
       </c>
       <c r="AE2" t="s">
-        <v>363</v>
-      </c>
-      <c r="AF2" t="s">
-        <v>364</v>
+        <v>414</v>
+      </c>
+      <c r="AF2">
+        <v>669</v>
       </c>
       <c r="AG2" t="s">
-        <v>363</v>
+        <v>415</v>
       </c>
       <c r="AH2" t="s">
-        <v>363</v>
+        <v>416</v>
       </c>
       <c r="AI2" t="s">
-        <v>363</v>
-      </c>
-      <c r="AJ2" t="s">
-        <v>363</v>
+        <v>411</v>
       </c>
       <c r="AK2" t="s">
-        <v>363</v>
+        <v>373</v>
       </c>
       <c r="AL2" t="s">
-        <v>363</v>
+        <v>419</v>
       </c>
       <c r="AM2" t="s">
-        <v>363</v>
+        <v>424</v>
       </c>
       <c r="AN2" t="s">
-        <v>363</v>
+        <v>429</v>
       </c>
       <c r="AO2" t="s">
-        <v>365</v>
+        <v>432</v>
       </c>
       <c r="AP2" t="s">
-        <v>363</v>
+        <v>435</v>
       </c>
       <c r="AQ2" t="s">
-        <v>362</v>
+        <v>438</v>
       </c>
       <c r="AR2" t="s">
-        <v>363</v>
+        <v>441</v>
       </c>
       <c r="AS2" t="s">
-        <v>363</v>
+        <v>442</v>
       </c>
       <c r="AT2" t="s">
-        <v>364</v>
+        <v>442</v>
       </c>
       <c r="AU2" t="s">
-        <v>363</v>
+        <v>442</v>
       </c>
       <c r="AV2" t="s">
-        <v>363</v>
+        <v>442</v>
       </c>
       <c r="AW2" t="s">
-        <v>363</v>
+        <v>442</v>
       </c>
       <c r="AX2" t="s">
-        <v>363</v>
+        <v>442</v>
       </c>
       <c r="AY2" t="s">
-        <v>363</v>
+        <v>442</v>
       </c>
       <c r="AZ2" t="s">
-        <v>363</v>
+        <v>442</v>
       </c>
       <c r="BA2" t="s">
-        <v>363</v>
+        <v>442</v>
       </c>
       <c r="BB2" t="s">
-        <v>365</v>
+        <v>442</v>
       </c>
       <c r="BC2" t="s">
-        <v>363</v>
-      </c>
-      <c r="GN2" t="s">
-        <v>364</v>
-      </c>
-      <c r="GW2" t="s">
-        <v>366</v>
-      </c>
-      <c r="GX2" s="2" t="s">
-        <v>368</v>
-      </c>
-      <c r="GY2" t="s">
-        <v>369</v>
-      </c>
-      <c r="GZ2">
+        <v>442</v>
+      </c>
+      <c r="BD2" t="s">
+        <v>442</v>
+      </c>
+      <c r="BE2" t="s">
+        <v>443</v>
+      </c>
+      <c r="BF2" t="s">
+        <v>442</v>
+      </c>
+      <c r="BG2" t="s">
+        <v>442</v>
+      </c>
+      <c r="BH2" t="s">
+        <v>442</v>
+      </c>
+      <c r="BI2" t="s">
+        <v>442</v>
+      </c>
+      <c r="BJ2" t="s">
+        <v>444</v>
+      </c>
+      <c r="BK2" t="s">
+        <v>444</v>
+      </c>
+      <c r="BL2" t="s">
+        <v>442</v>
+      </c>
+      <c r="BM2" t="s">
+        <v>442</v>
+      </c>
+      <c r="BN2" t="s">
+        <v>442</v>
+      </c>
+      <c r="BO2" t="s">
+        <v>442</v>
+      </c>
+      <c r="BP2" t="s">
+        <v>442</v>
+      </c>
+      <c r="BQ2" t="s">
+        <v>442</v>
+      </c>
+      <c r="BR2" t="s">
+        <v>442</v>
+      </c>
+      <c r="BS2" t="s">
+        <v>442</v>
+      </c>
+      <c r="BT2" t="s">
+        <v>445</v>
+      </c>
+      <c r="BU2" t="s">
+        <v>442</v>
+      </c>
+      <c r="BV2" t="s">
+        <v>445</v>
+      </c>
+      <c r="BW2" t="s">
+        <v>442</v>
+      </c>
+      <c r="BX2" t="s">
+        <v>442</v>
+      </c>
+      <c r="BY2" t="s">
+        <v>442</v>
+      </c>
+      <c r="BZ2" t="s">
+        <v>442</v>
+      </c>
+      <c r="CA2" t="s">
+        <v>445</v>
+      </c>
+      <c r="CB2" t="s">
+        <v>442</v>
+      </c>
+      <c r="CC2" t="s">
+        <v>442</v>
+      </c>
+      <c r="CD2" t="s">
+        <v>442</v>
+      </c>
+      <c r="CE2" t="s">
+        <v>442</v>
+      </c>
+      <c r="CF2" t="s">
+        <v>442</v>
+      </c>
+      <c r="CG2" t="s">
+        <v>445</v>
+      </c>
+      <c r="CH2" t="s">
+        <v>442</v>
+      </c>
+      <c r="CI2" t="s">
+        <v>411</v>
+      </c>
+      <c r="CK2" t="s">
+        <v>414</v>
+      </c>
+      <c r="CL2">
         <v>669</v>
       </c>
-      <c r="HA2" t="s">
-        <v>370</v>
-      </c>
-      <c r="HB2" t="s">
-        <v>371</v>
-      </c>
-      <c r="HC2" t="s">
-        <v>366</v>
-      </c>
-      <c r="HE2" t="s">
-        <v>330</v>
-      </c>
-      <c r="HF2" t="s">
-        <v>374</v>
-      </c>
-      <c r="HG2" t="s">
-        <v>378</v>
-      </c>
-      <c r="HH2" t="s">
-        <v>382</v>
-      </c>
-      <c r="HI2" t="s">
-        <v>385</v>
-      </c>
-      <c r="HK2" t="s">
-        <v>363</v>
-      </c>
-      <c r="HL2" t="s">
-        <v>363</v>
-      </c>
-      <c r="HM2" t="s">
-        <v>363</v>
-      </c>
-      <c r="HN2" t="s">
-        <v>364</v>
-      </c>
-      <c r="HO2" t="s">
-        <v>365</v>
-      </c>
-      <c r="HP2" t="s">
-        <v>365</v>
-      </c>
-      <c r="HQ2" t="s">
-        <v>363</v>
-      </c>
-      <c r="HR2" t="s">
-        <v>363</v>
-      </c>
-      <c r="HS2" t="s">
-        <v>363</v>
-      </c>
-      <c r="HT2" t="s">
-        <v>363</v>
-      </c>
-      <c r="HU2" t="s">
-        <v>363</v>
-      </c>
-      <c r="HV2" t="s">
-        <v>363</v>
-      </c>
-      <c r="HW2" t="s">
-        <v>363</v>
-      </c>
-      <c r="HX2" t="s">
-        <v>365</v>
-      </c>
-      <c r="HY2" t="s">
-        <v>365</v>
-      </c>
-      <c r="HZ2" t="s">
-        <v>363</v>
-      </c>
-      <c r="IA2" t="s">
-        <v>363</v>
-      </c>
-      <c r="IB2" t="s">
-        <v>363</v>
-      </c>
-      <c r="IC2" t="s">
-        <v>364</v>
-      </c>
-      <c r="ID2" t="s">
-        <v>388</v>
-      </c>
-      <c r="IE2" t="s">
-        <v>391</v>
-      </c>
-      <c r="IF2" t="s">
-        <v>394</v>
-      </c>
-      <c r="IG2" t="s">
-        <v>363</v>
-      </c>
-      <c r="IH2" t="s">
-        <v>363</v>
-      </c>
-      <c r="II2" t="s">
-        <v>363</v>
-      </c>
-      <c r="IJ2" t="s">
-        <v>363</v>
-      </c>
-      <c r="IK2" t="s">
-        <v>364</v>
-      </c>
-      <c r="IL2" t="s">
-        <v>363</v>
-      </c>
-      <c r="IM2" t="s">
-        <v>363</v>
-      </c>
-      <c r="IN2" t="s">
-        <v>363</v>
-      </c>
-      <c r="IO2" t="s">
-        <v>363</v>
-      </c>
-      <c r="IP2" t="s">
-        <v>363</v>
-      </c>
-      <c r="IQ2" t="s">
-        <v>363</v>
-      </c>
-      <c r="IR2" t="s">
-        <v>363</v>
-      </c>
-      <c r="IS2" t="s">
-        <v>363</v>
-      </c>
-      <c r="IT2" t="s">
-        <v>363</v>
-      </c>
-      <c r="IU2" t="s">
-        <v>363</v>
-      </c>
-      <c r="IV2" t="s">
-        <v>363</v>
-      </c>
-      <c r="IW2" t="s">
-        <v>363</v>
-      </c>
-      <c r="IX2" t="s">
-        <v>366</v>
-      </c>
-      <c r="IZ2" t="s">
-        <v>369</v>
-      </c>
-      <c r="JA2">
-        <v>669</v>
-      </c>
-      <c r="JB2" t="s">
-        <v>370</v>
-      </c>
-      <c r="JC2" t="s">
-        <v>371</v>
-      </c>
-      <c r="JD2" t="s">
-        <v>366</v>
-      </c>
-      <c r="JF2" t="s">
-        <v>330</v>
-      </c>
-      <c r="JH2" t="s">
-        <v>374</v>
-      </c>
-      <c r="JI2" t="s">
-        <v>378</v>
-      </c>
-      <c r="JJ2" t="s">
-        <v>382</v>
-      </c>
-      <c r="JK2" t="s">
-        <v>385</v>
+      <c r="CM2" t="s">
+        <v>415</v>
+      </c>
+      <c r="CN2" t="s">
+        <v>416</v>
+      </c>
+      <c r="CO2" t="s">
+        <v>411</v>
+      </c>
+      <c r="CQ2" t="s">
+        <v>373</v>
+      </c>
+      <c r="CS2" t="s">
+        <v>419</v>
+      </c>
+      <c r="CT2" t="s">
+        <v>424</v>
+      </c>
+      <c r="CU2" t="s">
+        <v>429</v>
+      </c>
+      <c r="CV2" t="s">
+        <v>432</v>
       </c>
     </row>
-    <row r="3" spans="1:328">
+    <row r="3" spans="1:371">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>327</v>
+        <v>370</v>
       </c>
       <c r="C3" t="b">
         <v>0</v>
       </c>
       <c r="D3" t="s">
-        <v>328</v>
+        <v>371</v>
       </c>
       <c r="E3" t="s">
-        <v>329</v>
+        <v>372</v>
       </c>
       <c r="H3" t="s">
-        <v>331</v>
+        <v>374</v>
       </c>
       <c r="I3" t="s">
-        <v>335</v>
+        <v>379</v>
       </c>
       <c r="J3" t="b">
         <v>1</v>
@@ -2997,231 +3219,342 @@
         <v>1</v>
       </c>
       <c r="M3" t="s">
-        <v>339</v>
+        <v>384</v>
       </c>
       <c r="O3" t="s">
-        <v>343</v>
+        <v>389</v>
       </c>
       <c r="P3" t="s">
-        <v>347</v>
+        <v>393</v>
       </c>
       <c r="Q3" t="s">
-        <v>349</v>
+        <v>396</v>
       </c>
       <c r="R3" t="s">
-        <v>350</v>
+        <v>397</v>
       </c>
       <c r="S3" t="s">
-        <v>351</v>
+        <v>398</v>
       </c>
       <c r="T3" t="s">
-        <v>352</v>
+        <v>399</v>
       </c>
       <c r="U3">
-        <v>6371</v>
+        <v>12359</v>
       </c>
       <c r="V3" s="2" t="s">
-        <v>354</v>
+        <v>401</v>
       </c>
       <c r="W3" t="s">
-        <v>349</v>
+        <v>396</v>
       </c>
       <c r="X3" t="s">
-        <v>357</v>
+        <v>405</v>
       </c>
       <c r="Y3" t="s">
-        <v>350</v>
+        <v>397</v>
       </c>
       <c r="Z3" t="s">
-        <v>351</v>
+        <v>398</v>
       </c>
       <c r="AA3" s="2" t="s">
-        <v>358</v>
+        <v>406</v>
       </c>
       <c r="AB3" t="s">
-        <v>360</v>
-      </c>
-      <c r="GW3" t="s">
-        <v>367</v>
-      </c>
-      <c r="GX3" s="2" t="s">
-        <v>368</v>
-      </c>
-      <c r="GY3" t="s">
-        <v>369</v>
-      </c>
-      <c r="GZ3">
+        <v>408</v>
+      </c>
+      <c r="AC3" t="s">
+        <v>411</v>
+      </c>
+      <c r="AD3" s="2" t="s">
+        <v>413</v>
+      </c>
+      <c r="AE3" t="s">
+        <v>414</v>
+      </c>
+      <c r="AF3">
         <v>669</v>
       </c>
-      <c r="HA3" t="s">
-        <v>370</v>
-      </c>
-      <c r="HB3" t="s">
-        <v>372</v>
-      </c>
-      <c r="HC3" t="s">
-        <v>366</v>
-      </c>
-      <c r="HE3" t="s">
-        <v>331</v>
-      </c>
-      <c r="HF3" t="s">
-        <v>375</v>
-      </c>
-      <c r="HG3" t="s">
-        <v>379</v>
-      </c>
-      <c r="HH3" t="s">
-        <v>383</v>
-      </c>
-      <c r="HI3" t="s">
-        <v>386</v>
-      </c>
-      <c r="ID3" t="s">
-        <v>388</v>
-      </c>
-      <c r="IE3" t="s">
-        <v>391</v>
-      </c>
-      <c r="IX3" t="s">
-        <v>395</v>
-      </c>
-      <c r="IY3" t="s">
-        <v>396</v>
-      </c>
-      <c r="IZ3" t="s">
-        <v>369</v>
-      </c>
-      <c r="JA3">
+      <c r="AG3" t="s">
+        <v>415</v>
+      </c>
+      <c r="AH3" t="s">
+        <v>416</v>
+      </c>
+      <c r="AI3" t="s">
+        <v>411</v>
+      </c>
+      <c r="AK3" t="s">
+        <v>374</v>
+      </c>
+      <c r="AL3" t="s">
+        <v>420</v>
+      </c>
+      <c r="AM3" t="s">
+        <v>425</v>
+      </c>
+      <c r="AN3" t="s">
+        <v>429</v>
+      </c>
+      <c r="AO3" t="s">
+        <v>432</v>
+      </c>
+      <c r="AP3" t="s">
+        <v>435</v>
+      </c>
+      <c r="AQ3" t="s">
+        <v>438</v>
+      </c>
+      <c r="CI3" t="s">
+        <v>411</v>
+      </c>
+      <c r="CK3" t="s">
+        <v>414</v>
+      </c>
+      <c r="CL3">
         <v>669</v>
       </c>
-      <c r="JB3" t="s">
-        <v>370</v>
-      </c>
-      <c r="JC3" t="s">
-        <v>372</v>
-      </c>
-      <c r="JD3" t="s">
-        <v>366</v>
-      </c>
-      <c r="JF3" t="s">
-        <v>331</v>
+      <c r="CM3" t="s">
+        <v>415</v>
+      </c>
+      <c r="CN3" t="s">
+        <v>416</v>
+      </c>
+      <c r="CO3" t="s">
+        <v>411</v>
+      </c>
+      <c r="CQ3" t="s">
+        <v>374</v>
+      </c>
+      <c r="CS3" t="s">
+        <v>420</v>
+      </c>
+      <c r="CT3" t="s">
+        <v>425</v>
+      </c>
+      <c r="CU3" t="s">
+        <v>429</v>
+      </c>
+      <c r="CV3" t="s">
+        <v>432</v>
+      </c>
+      <c r="CW3" t="s">
+        <v>448</v>
+      </c>
+      <c r="CX3" t="s">
+        <v>442</v>
+      </c>
+      <c r="CY3" t="s">
+        <v>442</v>
+      </c>
+      <c r="CZ3" t="s">
+        <v>445</v>
+      </c>
+      <c r="DA3" t="s">
+        <v>442</v>
+      </c>
+      <c r="DB3" t="s">
+        <v>442</v>
+      </c>
+      <c r="DC3" t="s">
+        <v>442</v>
+      </c>
+      <c r="DD3" t="s">
+        <v>442</v>
+      </c>
+      <c r="DE3" t="s">
+        <v>442</v>
+      </c>
+      <c r="DF3" t="s">
+        <v>442</v>
+      </c>
+      <c r="DG3" t="s">
+        <v>442</v>
+      </c>
+      <c r="DH3" t="s">
+        <v>442</v>
+      </c>
+      <c r="DI3" t="s">
+        <v>444</v>
+      </c>
+      <c r="DJ3" t="s">
+        <v>442</v>
+      </c>
+      <c r="DK3" t="s">
+        <v>448</v>
+      </c>
+      <c r="DL3" t="s">
+        <v>442</v>
+      </c>
+      <c r="DM3" t="s">
+        <v>442</v>
+      </c>
+      <c r="DN3" t="s">
+        <v>445</v>
+      </c>
+      <c r="DO3" t="s">
+        <v>442</v>
+      </c>
+      <c r="DP3" t="s">
+        <v>442</v>
+      </c>
+      <c r="DQ3" t="s">
+        <v>442</v>
+      </c>
+      <c r="DR3" t="s">
+        <v>442</v>
+      </c>
+      <c r="DS3" t="s">
+        <v>442</v>
+      </c>
+      <c r="DT3" t="s">
+        <v>442</v>
+      </c>
+      <c r="DU3" t="s">
+        <v>442</v>
+      </c>
+      <c r="DV3" t="s">
+        <v>444</v>
+      </c>
+      <c r="DW3" t="s">
+        <v>442</v>
       </c>
       <c r="JH3" t="s">
-        <v>375</v>
-      </c>
-      <c r="JI3" t="s">
-        <v>379</v>
-      </c>
-      <c r="JJ3" t="s">
-        <v>383</v>
-      </c>
-      <c r="JK3" t="s">
-        <v>386</v>
-      </c>
-      <c r="JL3" t="s">
-        <v>365</v>
-      </c>
-      <c r="JM3" t="s">
-        <v>363</v>
-      </c>
-      <c r="JN3" t="s">
-        <v>363</v>
-      </c>
-      <c r="JO3" t="s">
-        <v>365</v>
-      </c>
-      <c r="JP3" t="s">
-        <v>365</v>
+        <v>445</v>
       </c>
       <c r="JR3" t="s">
-        <v>365</v>
+        <v>442</v>
       </c>
       <c r="JS3" t="s">
-        <v>364</v>
+        <v>442</v>
       </c>
       <c r="JT3" t="s">
-        <v>365</v>
+        <v>442</v>
       </c>
       <c r="JU3" t="s">
-        <v>364</v>
+        <v>445</v>
       </c>
       <c r="JV3" t="s">
-        <v>364</v>
+        <v>444</v>
       </c>
       <c r="JW3" t="s">
-        <v>365</v>
+        <v>444</v>
       </c>
       <c r="JX3" t="s">
-        <v>363</v>
+        <v>442</v>
       </c>
       <c r="JY3" t="s">
-        <v>363</v>
+        <v>442</v>
       </c>
       <c r="JZ3" t="s">
-        <v>397</v>
+        <v>442</v>
       </c>
       <c r="KA3" t="s">
-        <v>363</v>
+        <v>442</v>
       </c>
       <c r="KB3" t="s">
-        <v>364</v>
+        <v>442</v>
       </c>
       <c r="KC3" t="s">
-        <v>365</v>
+        <v>442</v>
       </c>
       <c r="KD3" t="s">
-        <v>364</v>
+        <v>442</v>
       </c>
       <c r="KE3" t="s">
-        <v>398</v>
+        <v>444</v>
       </c>
       <c r="KF3" t="s">
-        <v>399</v>
+        <v>444</v>
       </c>
       <c r="KG3" t="s">
-        <v>363</v>
+        <v>442</v>
       </c>
       <c r="KH3" t="s">
-        <v>363</v>
+        <v>442</v>
       </c>
       <c r="KI3" t="s">
-        <v>400</v>
+        <v>442</v>
       </c>
       <c r="KJ3" t="s">
-        <v>401</v>
+        <v>445</v>
       </c>
       <c r="KK3" t="s">
-        <v>402</v>
+        <v>449</v>
       </c>
       <c r="KL3" t="s">
-        <v>403</v>
+        <v>442</v>
       </c>
       <c r="KM3" t="s">
-        <v>404</v>
+        <v>442</v>
+      </c>
+      <c r="KN3" t="s">
+        <v>442</v>
+      </c>
+      <c r="KO3" t="s">
+        <v>442</v>
+      </c>
+      <c r="KP3" t="s">
+        <v>445</v>
+      </c>
+      <c r="KQ3" t="s">
+        <v>442</v>
+      </c>
+      <c r="KR3" t="s">
+        <v>442</v>
+      </c>
+      <c r="KS3" t="s">
+        <v>442</v>
+      </c>
+      <c r="KT3" t="s">
+        <v>442</v>
+      </c>
+      <c r="KU3" t="s">
+        <v>442</v>
+      </c>
+      <c r="KV3" t="s">
+        <v>442</v>
+      </c>
+      <c r="KW3" t="s">
+        <v>442</v>
+      </c>
+      <c r="KX3" t="s">
+        <v>442</v>
+      </c>
+      <c r="KY3" t="s">
+        <v>442</v>
+      </c>
+      <c r="KZ3" t="s">
+        <v>442</v>
+      </c>
+      <c r="LA3" t="s">
+        <v>442</v>
+      </c>
+      <c r="LB3" t="s">
+        <v>442</v>
       </c>
     </row>
-    <row r="4" spans="1:328">
+    <row r="4" spans="1:371">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>327</v>
+        <v>370</v>
       </c>
       <c r="C4" t="b">
         <v>0</v>
       </c>
       <c r="D4" t="s">
-        <v>328</v>
+        <v>371</v>
       </c>
       <c r="E4" t="s">
-        <v>329</v>
+        <v>372</v>
       </c>
       <c r="H4" t="s">
-        <v>332</v>
+        <v>375</v>
       </c>
       <c r="I4" t="s">
-        <v>336</v>
+        <v>380</v>
       </c>
       <c r="J4" t="b">
         <v>1</v>
@@ -3230,189 +3563,231 @@
         <v>1</v>
       </c>
       <c r="M4" t="s">
-        <v>340</v>
+        <v>385</v>
       </c>
       <c r="O4" t="s">
-        <v>344</v>
+        <v>390</v>
       </c>
       <c r="P4" t="s">
-        <v>348</v>
+        <v>394</v>
       </c>
       <c r="Q4" t="s">
-        <v>349</v>
+        <v>396</v>
       </c>
       <c r="R4" t="s">
-        <v>350</v>
+        <v>397</v>
       </c>
       <c r="S4" t="s">
-        <v>351</v>
+        <v>398</v>
       </c>
       <c r="T4" t="s">
-        <v>352</v>
+        <v>399</v>
       </c>
       <c r="U4">
-        <v>2314</v>
+        <v>6371</v>
       </c>
       <c r="V4" s="2" t="s">
-        <v>355</v>
+        <v>402</v>
       </c>
       <c r="W4" t="s">
-        <v>349</v>
+        <v>396</v>
       </c>
       <c r="X4" t="s">
-        <v>357</v>
+        <v>405</v>
       </c>
       <c r="Y4" t="s">
-        <v>350</v>
+        <v>397</v>
       </c>
       <c r="Z4" t="s">
-        <v>351</v>
+        <v>398</v>
       </c>
       <c r="AA4" s="2" t="s">
-        <v>358</v>
+        <v>406</v>
       </c>
       <c r="AB4" t="s">
-        <v>361</v>
-      </c>
-      <c r="GW4" t="s">
-        <v>366</v>
-      </c>
-      <c r="GX4" s="2" t="s">
-        <v>368</v>
-      </c>
-      <c r="GY4" t="s">
-        <v>369</v>
-      </c>
-      <c r="GZ4">
+        <v>409</v>
+      </c>
+      <c r="AC4" t="s">
+        <v>412</v>
+      </c>
+      <c r="AD4" s="2" t="s">
+        <v>413</v>
+      </c>
+      <c r="AE4" t="s">
+        <v>414</v>
+      </c>
+      <c r="AF4">
         <v>669</v>
       </c>
-      <c r="HA4" t="s">
-        <v>370</v>
-      </c>
-      <c r="HB4" t="s">
-        <v>373</v>
-      </c>
-      <c r="HC4" t="s">
-        <v>366</v>
-      </c>
-      <c r="HE4" t="s">
-        <v>332</v>
-      </c>
-      <c r="HF4" t="s">
-        <v>376</v>
-      </c>
-      <c r="HG4" t="s">
-        <v>380</v>
-      </c>
-      <c r="HH4" t="s">
-        <v>384</v>
-      </c>
-      <c r="HI4" t="s">
-        <v>387</v>
-      </c>
-      <c r="ID4" t="s">
-        <v>389</v>
-      </c>
-      <c r="IE4" t="s">
-        <v>392</v>
-      </c>
-      <c r="IX4" t="s">
-        <v>366</v>
-      </c>
-      <c r="IZ4" t="s">
-        <v>369</v>
-      </c>
-      <c r="JA4">
+      <c r="AG4" t="s">
+        <v>415</v>
+      </c>
+      <c r="AH4" t="s">
+        <v>417</v>
+      </c>
+      <c r="AI4" t="s">
+        <v>411</v>
+      </c>
+      <c r="AK4" t="s">
+        <v>375</v>
+      </c>
+      <c r="AL4" t="s">
+        <v>421</v>
+      </c>
+      <c r="AM4" t="s">
+        <v>426</v>
+      </c>
+      <c r="AN4" t="s">
+        <v>430</v>
+      </c>
+      <c r="AO4" t="s">
+        <v>433</v>
+      </c>
+      <c r="AP4" t="s">
+        <v>435</v>
+      </c>
+      <c r="AQ4" t="s">
+        <v>438</v>
+      </c>
+      <c r="CI4" t="s">
+        <v>446</v>
+      </c>
+      <c r="CJ4" t="s">
+        <v>447</v>
+      </c>
+      <c r="CK4" t="s">
+        <v>414</v>
+      </c>
+      <c r="CL4">
         <v>669</v>
       </c>
-      <c r="JB4" t="s">
-        <v>370</v>
-      </c>
-      <c r="JC4" t="s">
-        <v>373</v>
-      </c>
-      <c r="JD4" t="s">
-        <v>366</v>
-      </c>
-      <c r="JF4" t="s">
-        <v>332</v>
-      </c>
-      <c r="JH4" t="s">
-        <v>376</v>
-      </c>
-      <c r="JI4" t="s">
-        <v>380</v>
-      </c>
-      <c r="JJ4" t="s">
-        <v>384</v>
-      </c>
-      <c r="JK4" t="s">
-        <v>387</v>
-      </c>
-      <c r="KN4" t="s">
-        <v>405</v>
-      </c>
-      <c r="KP4" t="s">
-        <v>408</v>
-      </c>
-      <c r="KQ4" t="s">
-        <v>410</v>
-      </c>
-      <c r="KS4" t="s">
-        <v>364</v>
-      </c>
-      <c r="KW4" t="s">
-        <v>363</v>
-      </c>
-      <c r="LB4" t="s">
-        <v>413</v>
+      <c r="CM4" t="s">
+        <v>415</v>
+      </c>
+      <c r="CN4" t="s">
+        <v>417</v>
+      </c>
+      <c r="CO4" t="s">
+        <v>411</v>
+      </c>
+      <c r="CQ4" t="s">
+        <v>375</v>
+      </c>
+      <c r="CS4" t="s">
+        <v>421</v>
+      </c>
+      <c r="CT4" t="s">
+        <v>426</v>
+      </c>
+      <c r="CU4" t="s">
+        <v>430</v>
+      </c>
+      <c r="CV4" t="s">
+        <v>433</v>
       </c>
       <c r="LC4" t="s">
-        <v>363</v>
+        <v>444</v>
       </c>
       <c r="LD4" t="s">
-        <v>364</v>
+        <v>442</v>
+      </c>
+      <c r="LE4" t="s">
+        <v>442</v>
+      </c>
+      <c r="LF4" t="s">
+        <v>444</v>
+      </c>
+      <c r="LG4" t="s">
+        <v>444</v>
+      </c>
+      <c r="LI4" t="s">
+        <v>444</v>
       </c>
       <c r="LJ4" t="s">
-        <v>364</v>
+        <v>445</v>
       </c>
       <c r="LK4" t="s">
-        <v>364</v>
+        <v>444</v>
       </c>
       <c r="LL4" t="s">
-        <v>363</v>
+        <v>445</v>
       </c>
       <c r="LM4" t="s">
-        <v>364</v>
+        <v>445</v>
+      </c>
+      <c r="LN4" t="s">
+        <v>444</v>
       </c>
       <c r="LO4" t="s">
-        <v>364</v>
+        <v>442</v>
       </c>
       <c r="LP4" t="s">
-        <v>365</v>
+        <v>442</v>
+      </c>
+      <c r="LQ4" t="s">
+        <v>450</v>
+      </c>
+      <c r="LR4" t="s">
+        <v>442</v>
+      </c>
+      <c r="LS4" t="s">
+        <v>445</v>
+      </c>
+      <c r="LT4" t="s">
+        <v>444</v>
+      </c>
+      <c r="LU4" t="s">
+        <v>445</v>
+      </c>
+      <c r="LV4" t="s">
+        <v>451</v>
+      </c>
+      <c r="LW4" t="s">
+        <v>452</v>
+      </c>
+      <c r="LX4" t="s">
+        <v>442</v>
+      </c>
+      <c r="LY4" t="s">
+        <v>442</v>
+      </c>
+      <c r="LZ4" t="s">
+        <v>453</v>
+      </c>
+      <c r="MA4" t="s">
+        <v>454</v>
+      </c>
+      <c r="MB4" t="s">
+        <v>455</v>
+      </c>
+      <c r="MC4" t="s">
+        <v>456</v>
+      </c>
+      <c r="MD4" t="s">
+        <v>457</v>
       </c>
     </row>
-    <row r="5" spans="1:328">
+    <row r="5" spans="1:371">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>327</v>
+        <v>370</v>
       </c>
       <c r="C5" t="b">
         <v>0</v>
       </c>
       <c r="D5" t="s">
-        <v>328</v>
+        <v>371</v>
       </c>
       <c r="E5" t="s">
-        <v>329</v>
+        <v>372</v>
       </c>
       <c r="H5" t="s">
-        <v>333</v>
+        <v>376</v>
       </c>
       <c r="I5" t="s">
-        <v>337</v>
+        <v>381</v>
       </c>
       <c r="J5" t="b">
         <v>1</v>
@@ -3421,197 +3796,391 @@
         <v>1</v>
       </c>
       <c r="M5" t="s">
-        <v>341</v>
+        <v>386</v>
       </c>
       <c r="O5" t="s">
-        <v>345</v>
+        <v>391</v>
       </c>
       <c r="P5" t="s">
-        <v>348</v>
+        <v>395</v>
       </c>
       <c r="Q5" t="s">
-        <v>349</v>
+        <v>396</v>
       </c>
       <c r="R5" t="s">
-        <v>350</v>
+        <v>397</v>
       </c>
       <c r="S5" t="s">
-        <v>351</v>
+        <v>398</v>
       </c>
       <c r="T5" t="s">
-        <v>352</v>
+        <v>399</v>
       </c>
       <c r="U5">
+        <v>2314</v>
+      </c>
+      <c r="V5" s="2" t="s">
+        <v>403</v>
+      </c>
+      <c r="W5" t="s">
+        <v>396</v>
+      </c>
+      <c r="X5" t="s">
+        <v>405</v>
+      </c>
+      <c r="Y5" t="s">
+        <v>397</v>
+      </c>
+      <c r="Z5" t="s">
+        <v>398</v>
+      </c>
+      <c r="AA5" s="2" t="s">
+        <v>406</v>
+      </c>
+      <c r="AB5" t="s">
+        <v>410</v>
+      </c>
+      <c r="AC5" t="s">
+        <v>411</v>
+      </c>
+      <c r="AD5" s="2" t="s">
+        <v>413</v>
+      </c>
+      <c r="AE5" t="s">
+        <v>414</v>
+      </c>
+      <c r="AF5">
+        <v>669</v>
+      </c>
+      <c r="AG5" t="s">
+        <v>415</v>
+      </c>
+      <c r="AH5" t="s">
+        <v>418</v>
+      </c>
+      <c r="AI5" t="s">
+        <v>411</v>
+      </c>
+      <c r="AK5" t="s">
+        <v>376</v>
+      </c>
+      <c r="AL5" t="s">
+        <v>422</v>
+      </c>
+      <c r="AM5" t="s">
+        <v>427</v>
+      </c>
+      <c r="AN5" t="s">
+        <v>431</v>
+      </c>
+      <c r="AO5" t="s">
+        <v>434</v>
+      </c>
+      <c r="AP5" t="s">
+        <v>436</v>
+      </c>
+      <c r="AQ5" t="s">
+        <v>439</v>
+      </c>
+      <c r="CI5" t="s">
+        <v>411</v>
+      </c>
+      <c r="CK5" t="s">
+        <v>414</v>
+      </c>
+      <c r="CL5">
+        <v>669</v>
+      </c>
+      <c r="CM5" t="s">
+        <v>415</v>
+      </c>
+      <c r="CN5" t="s">
+        <v>418</v>
+      </c>
+      <c r="CO5" t="s">
+        <v>411</v>
+      </c>
+      <c r="CQ5" t="s">
+        <v>376</v>
+      </c>
+      <c r="CS5" t="s">
+        <v>422</v>
+      </c>
+      <c r="CT5" t="s">
+        <v>427</v>
+      </c>
+      <c r="CU5" t="s">
+        <v>431</v>
+      </c>
+      <c r="CV5" t="s">
+        <v>434</v>
+      </c>
+      <c r="ME5" t="s">
+        <v>458</v>
+      </c>
+      <c r="MG5" t="s">
+        <v>461</v>
+      </c>
+      <c r="MH5" t="s">
+        <v>463</v>
+      </c>
+      <c r="MJ5" t="s">
+        <v>445</v>
+      </c>
+      <c r="MN5" t="s">
+        <v>442</v>
+      </c>
+      <c r="MS5" t="s">
+        <v>466</v>
+      </c>
+      <c r="MT5" t="s">
+        <v>442</v>
+      </c>
+      <c r="MU5" t="s">
+        <v>445</v>
+      </c>
+      <c r="NA5" t="s">
+        <v>445</v>
+      </c>
+      <c r="NB5" t="s">
+        <v>445</v>
+      </c>
+      <c r="NC5" t="s">
+        <v>442</v>
+      </c>
+      <c r="ND5" t="s">
+        <v>445</v>
+      </c>
+      <c r="NF5" t="s">
+        <v>445</v>
+      </c>
+      <c r="NG5" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="6" spans="1:371">
+      <c r="A6" s="1">
+        <v>4</v>
+      </c>
+      <c r="B6" t="s">
+        <v>370</v>
+      </c>
+      <c r="C6" t="b">
+        <v>0</v>
+      </c>
+      <c r="D6" t="s">
+        <v>371</v>
+      </c>
+      <c r="E6" t="s">
+        <v>372</v>
+      </c>
+      <c r="H6" t="s">
+        <v>377</v>
+      </c>
+      <c r="I6" t="s">
+        <v>382</v>
+      </c>
+      <c r="J6" t="b">
+        <v>1</v>
+      </c>
+      <c r="K6" t="b">
+        <v>1</v>
+      </c>
+      <c r="M6" t="s">
+        <v>387</v>
+      </c>
+      <c r="O6" t="s">
+        <v>392</v>
+      </c>
+      <c r="P6" t="s">
+        <v>395</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>396</v>
+      </c>
+      <c r="R6" t="s">
+        <v>397</v>
+      </c>
+      <c r="S6" t="s">
+        <v>398</v>
+      </c>
+      <c r="T6" t="s">
+        <v>399</v>
+      </c>
+      <c r="U6">
         <v>2626</v>
       </c>
-      <c r="V5" s="2" t="s">
-        <v>356</v>
-      </c>
-      <c r="W5" t="s">
-        <v>349</v>
-      </c>
-      <c r="X5" t="s">
-        <v>357</v>
-      </c>
-      <c r="Y5" t="s">
-        <v>350</v>
-      </c>
-      <c r="Z5" t="s">
-        <v>351</v>
-      </c>
-      <c r="AA5" s="2" t="s">
-        <v>358</v>
-      </c>
-      <c r="AB5" t="s">
-        <v>361</v>
-      </c>
-      <c r="GW5" t="s">
-        <v>366</v>
-      </c>
-      <c r="GX5" s="2" t="s">
-        <v>368</v>
-      </c>
-      <c r="GY5" t="s">
-        <v>369</v>
-      </c>
-      <c r="GZ5">
+      <c r="V6" s="2" t="s">
+        <v>404</v>
+      </c>
+      <c r="W6" t="s">
+        <v>396</v>
+      </c>
+      <c r="X6" t="s">
+        <v>405</v>
+      </c>
+      <c r="Y6" t="s">
+        <v>397</v>
+      </c>
+      <c r="Z6" t="s">
+        <v>398</v>
+      </c>
+      <c r="AA6" s="2" t="s">
+        <v>406</v>
+      </c>
+      <c r="AB6" t="s">
+        <v>410</v>
+      </c>
+      <c r="AC6" t="s">
+        <v>411</v>
+      </c>
+      <c r="AD6" s="2" t="s">
+        <v>413</v>
+      </c>
+      <c r="AE6" t="s">
+        <v>414</v>
+      </c>
+      <c r="AF6">
         <v>669</v>
       </c>
-      <c r="HA5" t="s">
-        <v>370</v>
-      </c>
-      <c r="HB5" t="s">
-        <v>372</v>
-      </c>
-      <c r="HC5" t="s">
-        <v>366</v>
-      </c>
-      <c r="HE5" t="s">
-        <v>333</v>
-      </c>
-      <c r="HF5" t="s">
+      <c r="AG6" t="s">
+        <v>415</v>
+      </c>
+      <c r="AH6" t="s">
+        <v>417</v>
+      </c>
+      <c r="AI6" t="s">
+        <v>411</v>
+      </c>
+      <c r="AK6" t="s">
         <v>377</v>
       </c>
-      <c r="HG5" t="s">
-        <v>381</v>
-      </c>
-      <c r="HH5" t="s">
-        <v>383</v>
-      </c>
-      <c r="HI5" t="s">
-        <v>386</v>
-      </c>
-      <c r="ID5" t="s">
-        <v>390</v>
-      </c>
-      <c r="IE5" t="s">
-        <v>393</v>
-      </c>
-      <c r="IX5" t="s">
-        <v>366</v>
-      </c>
-      <c r="IZ5" t="s">
-        <v>369</v>
-      </c>
-      <c r="JA5">
+      <c r="AL6" t="s">
+        <v>423</v>
+      </c>
+      <c r="AM6" t="s">
+        <v>428</v>
+      </c>
+      <c r="AN6" t="s">
+        <v>430</v>
+      </c>
+      <c r="AO6" t="s">
+        <v>433</v>
+      </c>
+      <c r="AP6" t="s">
+        <v>437</v>
+      </c>
+      <c r="AQ6" t="s">
+        <v>440</v>
+      </c>
+      <c r="CI6" t="s">
+        <v>411</v>
+      </c>
+      <c r="CK6" t="s">
+        <v>414</v>
+      </c>
+      <c r="CL6">
         <v>669</v>
       </c>
-      <c r="JB5" t="s">
-        <v>370</v>
-      </c>
-      <c r="JC5" t="s">
-        <v>372</v>
-      </c>
-      <c r="JD5" t="s">
-        <v>366</v>
-      </c>
-      <c r="JF5" t="s">
-        <v>333</v>
-      </c>
-      <c r="JH5" t="s">
+      <c r="CM6" t="s">
+        <v>415</v>
+      </c>
+      <c r="CN6" t="s">
+        <v>417</v>
+      </c>
+      <c r="CO6" t="s">
+        <v>411</v>
+      </c>
+      <c r="CQ6" t="s">
         <v>377</v>
       </c>
-      <c r="JI5" t="s">
-        <v>381</v>
-      </c>
-      <c r="JJ5" t="s">
-        <v>383</v>
-      </c>
-      <c r="JK5" t="s">
-        <v>386</v>
-      </c>
-      <c r="KN5" t="s">
-        <v>406</v>
-      </c>
-      <c r="KO5" t="s">
-        <v>407</v>
-      </c>
-      <c r="KP5" t="s">
-        <v>409</v>
-      </c>
-      <c r="KQ5" t="s">
-        <v>411</v>
-      </c>
-      <c r="KR5" t="s">
-        <v>412</v>
-      </c>
-      <c r="KS5" t="s">
-        <v>364</v>
-      </c>
-      <c r="KV5" t="s">
-        <v>363</v>
-      </c>
-      <c r="KW5" t="s">
-        <v>363</v>
-      </c>
-      <c r="KX5" t="s">
-        <v>363</v>
-      </c>
-      <c r="LB5" t="s">
-        <v>414</v>
-      </c>
-      <c r="LC5" t="s">
-        <v>363</v>
-      </c>
-      <c r="LD5" t="s">
-        <v>364</v>
-      </c>
-      <c r="LE5" t="s">
-        <v>363</v>
-      </c>
-      <c r="LJ5" t="s">
-        <v>364</v>
-      </c>
-      <c r="LK5" t="s">
-        <v>364</v>
-      </c>
-      <c r="LL5" t="s">
-        <v>363</v>
-      </c>
-      <c r="LM5" t="s">
-        <v>364</v>
-      </c>
-      <c r="LO5" t="s">
-        <v>364</v>
-      </c>
-      <c r="LP5" t="s">
-        <v>363</v>
+      <c r="CS6" t="s">
+        <v>423</v>
+      </c>
+      <c r="CT6" t="s">
+        <v>428</v>
+      </c>
+      <c r="CU6" t="s">
+        <v>430</v>
+      </c>
+      <c r="CV6" t="s">
+        <v>433</v>
+      </c>
+      <c r="ME6" t="s">
+        <v>459</v>
+      </c>
+      <c r="MF6" t="s">
+        <v>460</v>
+      </c>
+      <c r="MG6" t="s">
+        <v>462</v>
+      </c>
+      <c r="MH6" t="s">
+        <v>464</v>
+      </c>
+      <c r="MI6" t="s">
+        <v>465</v>
+      </c>
+      <c r="MJ6" t="s">
+        <v>445</v>
+      </c>
+      <c r="MM6" t="s">
+        <v>442</v>
+      </c>
+      <c r="MN6" t="s">
+        <v>442</v>
+      </c>
+      <c r="MO6" t="s">
+        <v>442</v>
+      </c>
+      <c r="MS6" t="s">
+        <v>467</v>
+      </c>
+      <c r="MT6" t="s">
+        <v>442</v>
+      </c>
+      <c r="MU6" t="s">
+        <v>445</v>
+      </c>
+      <c r="MV6" t="s">
+        <v>442</v>
+      </c>
+      <c r="NA6" t="s">
+        <v>445</v>
+      </c>
+      <c r="NB6" t="s">
+        <v>445</v>
+      </c>
+      <c r="NC6" t="s">
+        <v>442</v>
+      </c>
+      <c r="ND6" t="s">
+        <v>445</v>
+      </c>
+      <c r="NF6" t="s">
+        <v>445</v>
+      </c>
+      <c r="NG6" t="s">
+        <v>442</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="V2" r:id="rId1"/>
     <hyperlink ref="AA2" r:id="rId2"/>
-    <hyperlink ref="GX2" r:id="rId3"/>
+    <hyperlink ref="AD2" r:id="rId3"/>
     <hyperlink ref="V3" r:id="rId4"/>
     <hyperlink ref="AA3" r:id="rId5"/>
-    <hyperlink ref="GX3" r:id="rId6"/>
+    <hyperlink ref="AD3" r:id="rId6"/>
     <hyperlink ref="V4" r:id="rId7"/>
     <hyperlink ref="AA4" r:id="rId8"/>
-    <hyperlink ref="GX4" r:id="rId9"/>
+    <hyperlink ref="AD4" r:id="rId9"/>
     <hyperlink ref="V5" r:id="rId10"/>
     <hyperlink ref="AA5" r:id="rId11"/>
-    <hyperlink ref="GX5" r:id="rId12"/>
+    <hyperlink ref="AD5" r:id="rId12"/>
+    <hyperlink ref="V6" r:id="rId13"/>
+    <hyperlink ref="AA6" r:id="rId14"/>
+    <hyperlink ref="AD6" r:id="rId15"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/test.xlsx
+++ b/test.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="749" uniqueCount="468">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1154" uniqueCount="635">
   <si>
     <t>app_id</t>
   </si>
@@ -142,6 +142,408 @@
     <t>form.question2.facility</t>
   </si>
   <si>
+    <t>form.question3.availableKits</t>
+  </si>
+  <si>
+    <t>form.question3.copy-1-of-facilities_supplies__equipment_-_equipment_storage_visually_inspect_the_sto</t>
+  </si>
+  <si>
+    <t>form.question3.copy-2-of-facilities_supplies__equipment_-_equipment_storage_visually_inspect_the_sto</t>
+  </si>
+  <si>
+    <t>form.question3.copy-3-of-facilities_supplies__equipment_-_equipment_storage_visually_inspect_the_sto</t>
+  </si>
+  <si>
+    <t>form.question3.copy-4-of-scale</t>
+  </si>
+  <si>
+    <t>form.question3.facilities_supplies__equipment_-_equipment_storage_visually_inspect_the_sto</t>
+  </si>
+  <si>
+    <t>form.question3.sterileKitsCleanArea</t>
+  </si>
+  <si>
+    <t>form.question3.sterileKitsElevated</t>
+  </si>
+  <si>
+    <t>form.question3.sterileKitsNotTouchingCeiling</t>
+  </si>
+  <si>
+    <t>form.question3.sterileKitsNotTouchingWalls</t>
+  </si>
+  <si>
+    <t>form.question3.stock-outRTKs</t>
+  </si>
+  <si>
+    <t>form.question3.stock-outRTKstoPatientNotTested</t>
+  </si>
+  <si>
+    <t>form.question3.storageforRTKs</t>
+  </si>
+  <si>
+    <t>form.question3.sufficientReusableSupply</t>
+  </si>
+  <si>
+    <t>form.question3.suppliesAvailable</t>
+  </si>
+  <si>
+    <t>form.question3.suppliesComment</t>
+  </si>
+  <si>
+    <t>form.question3.temperatureHIVtestKits</t>
+  </si>
+  <si>
+    <t>form.question5.clientHTSPrivacy</t>
+  </si>
+  <si>
+    <t>form.question5.condom-stock-outs</t>
+  </si>
+  <si>
+    <t>form.question5.condomCompatibleLubricants</t>
+  </si>
+  <si>
+    <t>form.question5.condomDemonstration</t>
+  </si>
+  <si>
+    <t>form.question5.condomsAvailableToday</t>
+  </si>
+  <si>
+    <t>form.question5.condomsExpiringStatus</t>
+  </si>
+  <si>
+    <t>form.question5.copy-4-of-facilities_supplies__equipment_-_equipment_storage_visually_inspect_the_sto</t>
+  </si>
+  <si>
+    <t>form.question5.copy-5-of-facilities_supplies__equipment_-_equipment_storage_visually_inspect_the_sto</t>
+  </si>
+  <si>
+    <t>form.question5.dentalDams</t>
+  </si>
+  <si>
+    <t>form.question5.htsContainers</t>
+  </si>
+  <si>
+    <t>form.question5.htsandSTIComment</t>
+  </si>
+  <si>
+    <t>form.question5.htsdisposableGloves</t>
+  </si>
+  <si>
+    <t>form.question5.htsroomSanitationSupplies</t>
+  </si>
+  <si>
+    <t>form.question5.is_there_a_plan_for_monitoring_condom_supply</t>
+  </si>
+  <si>
+    <t>form.question5.siteCondoms</t>
+  </si>
+  <si>
+    <t>form.question6.antibiotics</t>
+  </si>
+  <si>
+    <t>form.question6.availableDrugs</t>
+  </si>
+  <si>
+    <t>form.question6.facilities_supplies__equipment_-_medicines</t>
+  </si>
+  <si>
+    <t>form.question6.local_anesthetics__has_the_site_been_free_of_stock_outs_for_the_past_3_mont</t>
+  </si>
+  <si>
+    <t>form.question6.medicineStockouts</t>
+  </si>
+  <si>
+    <t>form.question6.medicineStorage</t>
+  </si>
+  <si>
+    <t>form.question6.medicinesComment</t>
+  </si>
+  <si>
+    <t>form.question6.medicinesDispensed</t>
+  </si>
+  <si>
+    <t>form.question6.medicinesLabelling</t>
+  </si>
+  <si>
+    <t>form.question6.medicinesOrganisation</t>
+  </si>
+  <si>
+    <t>form.question6.medicinesSecureArea</t>
+  </si>
+  <si>
+    <t>form.question6.medicinesShelflife</t>
+  </si>
+  <si>
+    <t>form.question6.medicinesTemperature</t>
+  </si>
+  <si>
+    <t>form.question6.oralAnalgesics</t>
+  </si>
+  <si>
+    <t>form.question6.oralAnalgesicsStockOut</t>
+  </si>
+  <si>
+    <t>form.question6.stiMedicines</t>
+  </si>
+  <si>
+    <t>form.question6.stiMedicinesStockOuts</t>
+  </si>
+  <si>
+    <t>form.question7.IncineratorSecure</t>
+  </si>
+  <si>
+    <t>form.question7.colorCodedContainers</t>
+  </si>
+  <si>
+    <t>form.question7.dispensingRecordsUptodate</t>
+  </si>
+  <si>
+    <t>form.question7.disposal_of_non_reusable_instruments</t>
+  </si>
+  <si>
+    <t>form.question7.documentationofMedicationsDispensed</t>
+  </si>
+  <si>
+    <t>form.question7.facilities_supplies__equipment_-_medication_dispensing</t>
+  </si>
+  <si>
+    <t>form.question7.facilities_supplies__equipment_-_waste_management</t>
+  </si>
+  <si>
+    <t>form.question7.fenced_lockable_waste_disposal_area</t>
+  </si>
+  <si>
+    <t>form.question7.incinerator</t>
+  </si>
+  <si>
+    <t>form.question7.incineratorAutowayPit</t>
+  </si>
+  <si>
+    <t>form.question7.incineratorPollutionControl</t>
+  </si>
+  <si>
+    <t>form.question7.loose_non_containerized</t>
+  </si>
+  <si>
+    <t>form.question7.medicineDispensingComment</t>
+  </si>
+  <si>
+    <t>form.question7.non_burn_technology</t>
+  </si>
+  <si>
+    <t>form.question7.wasteContainers</t>
+  </si>
+  <si>
+    <t>form.question7.wasteContainersAtBed</t>
+  </si>
+  <si>
+    <t>form.question7.wasteManagementJobAids</t>
+  </si>
+  <si>
+    <t>form.question7.wastesegregated</t>
+  </si>
+  <si>
+    <t>form.question7.wastetemporaryStorage</t>
+  </si>
+  <si>
+    <t>form.question7.writtenProtocolMedicalDispensing</t>
+  </si>
+  <si>
+    <t>form.question8.clinicalStaffTraining</t>
+  </si>
+  <si>
+    <t>form.question8.documentationStatus</t>
+  </si>
+  <si>
+    <t>form.question8.emergencyCart</t>
+  </si>
+  <si>
+    <t>form.question8.emergencyCartStatus</t>
+  </si>
+  <si>
+    <t>form.question8.emergencyCartYes</t>
+  </si>
+  <si>
+    <t>form.question8.emergencyManagementComment</t>
+  </si>
+  <si>
+    <t>form.question8.emergencyMaterialsinStock</t>
+  </si>
+  <si>
+    <t>form.question8.emergencySuppliesStatus</t>
+  </si>
+  <si>
+    <t>form.question8.emergency_management_-_adverse_event_prevention_and_management_vmmc_emergen</t>
+  </si>
+  <si>
+    <t>form.question8.emergency_management_-_emergency_practices_and_procedures</t>
+  </si>
+  <si>
+    <t>form.question8.emergency_management_-_guidelines_reports_procedures_medicines_and_training</t>
+  </si>
+  <si>
+    <t>form.question8.followuptoEmergencyYes</t>
+  </si>
+  <si>
+    <t>form.question8.highlyRecommendedItems</t>
+  </si>
+  <si>
+    <t>form.question8.packsKitsAvailable</t>
+  </si>
+  <si>
+    <t>form.question8.pepMedicinesAvailability</t>
+  </si>
+  <si>
+    <t>form.question8.siteType</t>
+  </si>
+  <si>
+    <t>form.question8.staffKnowledgeonReportingStructure</t>
+  </si>
+  <si>
+    <t>form.question8.staffPEPTimeframe</t>
+  </si>
+  <si>
+    <t>form.question8.staffPEPeligibility</t>
+  </si>
+  <si>
+    <t>form.question8.staffabletoExplainEmergencyProcedures</t>
+  </si>
+  <si>
+    <t>form.question8.trainingonAdrenaline</t>
+  </si>
+  <si>
+    <t>form.question8.traininingEmergencyProcedures</t>
+  </si>
+  <si>
+    <t>form.section_a_-_facilities_supplies_equipment_and_emergency_management.OperatingTheatreComment</t>
+  </si>
+  <si>
+    <t>form.section_a_-_facilities_supplies_equipment_and_emergency_management.anaestheticDosingCharts</t>
+  </si>
+  <si>
+    <t>form.section_a_-_facilities_supplies_equipment_and_emergency_management.bloodPressureCuff</t>
+  </si>
+  <si>
+    <t>form.section_a_-_facilities_supplies_equipment_and_emergency_management.blood_pressure_cuff</t>
+  </si>
+  <si>
+    <t>form.section_a_-_facilities_supplies_equipment_and_emergency_management.clientSpaceSize</t>
+  </si>
+  <si>
+    <t>form.section_a_-_facilities_supplies_equipment_and_emergency_management.copy-1-of-question1</t>
+  </si>
+  <si>
+    <t>form.section_a_-_facilities_supplies_equipment_and_emergency_management.copy-1-of-scale</t>
+  </si>
+  <si>
+    <t>form.section_a_-_facilities_supplies_equipment_and_emergency_management.copy-2-of-scale</t>
+  </si>
+  <si>
+    <t>form.section_a_-_facilities_supplies_equipment_and_emergency_management.copy-3-of-scale</t>
+  </si>
+  <si>
+    <t>form.section_a_-_facilities_supplies_equipment_and_emergency_management.examinationroomSpace</t>
+  </si>
+  <si>
+    <t>form.section_a_-_facilities_supplies_equipment_and_emergency_management.examinationroomTemperature</t>
+  </si>
+  <si>
+    <t>form.section_a_-_facilities_supplies_equipment_and_emergency_management.examionationroomLighting</t>
+  </si>
+  <si>
+    <t>form.section_a_-_facilities_supplies_equipment_and_emergency_management.handDryingMaterial</t>
+  </si>
+  <si>
+    <t>form.section_a_-_facilities_supplies_equipment_and_emergency_management.operatingBeds</t>
+  </si>
+  <si>
+    <t>form.section_a_-_facilities_supplies_equipment_and_emergency_management.operatingTheatreSoap</t>
+  </si>
+  <si>
+    <t>form.section_a_-_facilities_supplies_equipment_and_emergency_management.operatingTheatreTemperature</t>
+  </si>
+  <si>
+    <t>form.section_a_-_facilities_supplies_equipment_and_emergency_management.operatingTheatreVisualPrivacy</t>
+  </si>
+  <si>
+    <t>form.section_a_-_facilities_supplies_equipment_and_emergency_management.operatingTheatreWater</t>
+  </si>
+  <si>
+    <t>form.section_a_-_facilities_supplies_equipment_and_emergency_management.procedureroomLighting</t>
+  </si>
+  <si>
+    <t>form.section_a_-_facilities_supplies_equipment_and_emergency_management.procedureroomSpace</t>
+  </si>
+  <si>
+    <t>form.section_a_-_facilities_supplies_equipment_and_emergency_management.question1</t>
+  </si>
+  <si>
+    <t>form.section_a_-_facilities_supplies_equipment_and_emergency_management.recoveryroomLighting</t>
+  </si>
+  <si>
+    <t>form.section_a_-_facilities_supplies_equipment_and_emergency_management.recoveryroomSpace</t>
+  </si>
+  <si>
+    <t>form.section_a_-_facilities_supplies_equipment_and_emergency_management.recoveryroomTemperature</t>
+  </si>
+  <si>
+    <t>form.section_a_-_facilities_supplies_equipment_and_emergency_management.scale</t>
+  </si>
+  <si>
+    <t>form.section_a_-_facilities_supplies_equipment_and_emergency_management.scaleonSite</t>
+  </si>
+  <si>
+    <t>form.section_a_-_facilities_supplies_equipment_and_emergency_management.spaceCleaniness</t>
+  </si>
+  <si>
+    <t>form.section_a_-_facilities_supplies_equipment_and_emergency_management.vmmcOperatingRooms</t>
+  </si>
+  <si>
+    <t>form.section_a_-_facilities_supplies_equipment_and_emergency_management.waitingSpace</t>
+  </si>
+  <si>
+    <t>form.starting_month_to_numeric</t>
+  </si>
+  <si>
+    <t>form.totalMonths</t>
+  </si>
+  <si>
+    <t>metadata.appVersion</t>
+  </si>
+  <si>
+    <t>metadata.app_build_version</t>
+  </si>
+  <si>
+    <t>metadata.commcare_version</t>
+  </si>
+  <si>
+    <t>metadata.deviceID</t>
+  </si>
+  <si>
+    <t>metadata.drift</t>
+  </si>
+  <si>
+    <t>metadata.geo_point</t>
+  </si>
+  <si>
+    <t>metadata.instanceID</t>
+  </si>
+  <si>
+    <t>metadata.location</t>
+  </si>
+  <si>
+    <t>metadata.timeEnd</t>
+  </si>
+  <si>
+    <t>metadata.timeStart</t>
+  </si>
+  <si>
+    <t>metadata.userID</t>
+  </si>
+  <si>
+    <t>metadata.username</t>
+  </si>
+  <si>
     <t>form.section_d_-_sops_guidelines_policies_and_job_aids_-_sops_guidelines_policie.SOPOverallComment</t>
   </si>
   <si>
@@ -271,46 +673,91 @@
     <t>form.section_d_-_sops_guidelines_policies_and_job_aids_-_sops_guidelines_policie.writtenGuidance</t>
   </si>
   <si>
-    <t>form.starting_month_to_numeric</t>
-  </si>
-  <si>
-    <t>form.totalMonths</t>
-  </si>
-  <si>
-    <t>metadata.appVersion</t>
-  </si>
-  <si>
-    <t>metadata.app_build_version</t>
-  </si>
-  <si>
-    <t>metadata.commcare_version</t>
-  </si>
-  <si>
-    <t>metadata.deviceID</t>
-  </si>
-  <si>
-    <t>metadata.drift</t>
-  </si>
-  <si>
-    <t>metadata.geo_point</t>
-  </si>
-  <si>
-    <t>metadata.instanceID</t>
-  </si>
-  <si>
-    <t>metadata.location</t>
-  </si>
-  <si>
-    <t>metadata.timeEnd</t>
-  </si>
-  <si>
-    <t>metadata.timeStart</t>
-  </si>
-  <si>
-    <t>metadata.userID</t>
-  </si>
-  <si>
-    <t>metadata.username</t>
+    <t>form.demand_creation_-_undersaved_populations__community_involvement.copy-1-of-dcTargetPopulation</t>
+  </si>
+  <si>
+    <t>form.demand_creation_-_undersaved_populations__community_involvement.dcCommunityCadres</t>
+  </si>
+  <si>
+    <t>form.demand_creation_-_undersaved_populations__community_involvement.dcInnovation</t>
+  </si>
+  <si>
+    <t>form.demand_creation_-_undersaved_populations__community_involvement.dcTargetPopulation</t>
+  </si>
+  <si>
+    <t>form.demand_creation_-_undersaved_populations__community_involvement.give_overall_comment_demand_creation</t>
+  </si>
+  <si>
+    <t>form.demand_creation_-_undersaved_populations__community_involvement.innovation</t>
+  </si>
+  <si>
+    <t>form.section_c_-_demand_creation.abilitytoEngagewithParticipants</t>
+  </si>
+  <si>
+    <t>form.section_c_-_demand_creation.abilitytoWindupSession</t>
+  </si>
+  <si>
+    <t>form.section_c_-_demand_creation.activeMobilisers</t>
+  </si>
+  <si>
+    <t>form.section_c_-_demand_creation.age15-24dcStrategy</t>
+  </si>
+  <si>
+    <t>form.section_c_-_demand_creation.age25-24dcStrategy</t>
+  </si>
+  <si>
+    <t>form.section_c_-_demand_creation.consentFormsDC</t>
+  </si>
+  <si>
+    <t>form.section_c_-_demand_creation.contentAccuracy</t>
+  </si>
+  <si>
+    <t>form.section_c_-_demand_creation.contentRelevance</t>
+  </si>
+  <si>
+    <t>form.section_c_-_demand_creation.dcComment</t>
+  </si>
+  <si>
+    <t>form.section_c_-_demand_creation.dcPlanObjectives</t>
+  </si>
+  <si>
+    <t>form.section_c_-_demand_creation.hrh_for_demand_creation</t>
+  </si>
+  <si>
+    <t>form.section_c_-_demand_creation.iecMaterial</t>
+  </si>
+  <si>
+    <t>form.section_c_-_demand_creation.inactiveMobilisers</t>
+  </si>
+  <si>
+    <t>form.section_c_-_demand_creation.intergrationOfKeyHIVPreventionMsgs</t>
+  </si>
+  <si>
+    <t>form.section_c_-_demand_creation.intergrationOfOtherHealthMsgs</t>
+  </si>
+  <si>
+    <t>form.section_c_-_demand_creation.introductionDC</t>
+  </si>
+  <si>
+    <t>form.section_c_-_demand_creation.key_strategies_by_age_group</t>
+  </si>
+  <si>
+    <t>form.section_c_-_demand_creation.observe_demand_creation_if_available</t>
+  </si>
+  <si>
+    <t>form.section_c_-_demand_creation.posters</t>
+  </si>
+  <si>
+    <t>form.section_c_-_demand_creation.programme_visibility</t>
+  </si>
+  <si>
+    <t>form.section_c_-_demand_creation.sessionDurationDC</t>
+  </si>
+  <si>
+    <t>form.section_c_-_demand_creation.work_plan</t>
+  </si>
+  <si>
+    <t>form.section_c_-_demand_creation.workplanDC</t>
   </si>
   <si>
     <t>form.copy-1-of-question1.InformationCommunicationComment</t>
@@ -1039,93 +1486,6 @@
     <t>form.period_under_review_starting_point.startingYear</t>
   </si>
   <si>
-    <t>form.demand_creation_-_undersaved_populations__community_involvement.copy-1-of-dcTargetPopulation</t>
-  </si>
-  <si>
-    <t>form.demand_creation_-_undersaved_populations__community_involvement.dcCommunityCadres</t>
-  </si>
-  <si>
-    <t>form.demand_creation_-_undersaved_populations__community_involvement.dcInnovation</t>
-  </si>
-  <si>
-    <t>form.demand_creation_-_undersaved_populations__community_involvement.dcTargetPopulation</t>
-  </si>
-  <si>
-    <t>form.demand_creation_-_undersaved_populations__community_involvement.give_overall_comment_demand_creation</t>
-  </si>
-  <si>
-    <t>form.demand_creation_-_undersaved_populations__community_involvement.innovation</t>
-  </si>
-  <si>
-    <t>form.section_c_-_demand_creation.abilitytoEngagewithParticipants</t>
-  </si>
-  <si>
-    <t>form.section_c_-_demand_creation.abilitytoWindupSession</t>
-  </si>
-  <si>
-    <t>form.section_c_-_demand_creation.activeMobilisers</t>
-  </si>
-  <si>
-    <t>form.section_c_-_demand_creation.age15-24dcStrategy</t>
-  </si>
-  <si>
-    <t>form.section_c_-_demand_creation.age25-24dcStrategy</t>
-  </si>
-  <si>
-    <t>form.section_c_-_demand_creation.consentFormsDC</t>
-  </si>
-  <si>
-    <t>form.section_c_-_demand_creation.contentAccuracy</t>
-  </si>
-  <si>
-    <t>form.section_c_-_demand_creation.contentRelevance</t>
-  </si>
-  <si>
-    <t>form.section_c_-_demand_creation.dcComment</t>
-  </si>
-  <si>
-    <t>form.section_c_-_demand_creation.dcPlanObjectives</t>
-  </si>
-  <si>
-    <t>form.section_c_-_demand_creation.hrh_for_demand_creation</t>
-  </si>
-  <si>
-    <t>form.section_c_-_demand_creation.iecMaterial</t>
-  </si>
-  <si>
-    <t>form.section_c_-_demand_creation.inactiveMobilisers</t>
-  </si>
-  <si>
-    <t>form.section_c_-_demand_creation.intergrationOfKeyHIVPreventionMsgs</t>
-  </si>
-  <si>
-    <t>form.section_c_-_demand_creation.intergrationOfOtherHealthMsgs</t>
-  </si>
-  <si>
-    <t>form.section_c_-_demand_creation.introductionDC</t>
-  </si>
-  <si>
-    <t>form.section_c_-_demand_creation.key_strategies_by_age_group</t>
-  </si>
-  <si>
-    <t>form.section_c_-_demand_creation.observe_demand_creation_if_available</t>
-  </si>
-  <si>
-    <t>form.section_c_-_demand_creation.posters</t>
-  </si>
-  <si>
-    <t>form.section_c_-_demand_creation.programme_visibility</t>
-  </si>
-  <si>
-    <t>form.section_c_-_demand_creation.sessionDurationDC</t>
-  </si>
-  <si>
-    <t>form.section_c_-_demand_creation.work_plan</t>
-  </si>
-  <si>
-    <t>form.section_c_-_demand_creation.workplanDC</t>
-  </si>
-  <si>
     <t>0778c330a59625e988e36d5a7d0386b6</t>
   </si>
   <si>
@@ -1135,6 +1495,15 @@
     <t>zdip-qa</t>
   </si>
   <si>
+    <t>cc7729ee-ada1-4027-ade3-f891e0a37361</t>
+  </si>
+  <si>
+    <t>a3446677-e85f-4e6c-9c9e-4e28155dc1db</t>
+  </si>
+  <si>
+    <t>64e9409e-e84e-4fff-9482-f08917ddf91b</t>
+  </si>
+  <si>
     <t>c60eec85-9970-4d06-948f-cf2994caf8c0</t>
   </si>
   <si>
@@ -1150,6 +1519,15 @@
     <t>a2abb0db-ac10-41fb-9d6b-67afa0100c3a</t>
   </si>
   <si>
+    <t>2025-06-30T13:40:51.579918Z</t>
+  </si>
+  <si>
+    <t>2025-06-30T13:26:58.064450Z</t>
+  </si>
+  <si>
+    <t>2025-06-30T13:25:52.526041Z</t>
+  </si>
+  <si>
     <t>2025-06-30T12:32:56.039259Z</t>
   </si>
   <si>
@@ -1165,6 +1543,15 @@
     <t>2025-06-30T05:42:07.802779Z</t>
   </si>
   <si>
+    <t>2025-06-30T13:40:04.045084Z</t>
+  </si>
+  <si>
+    <t>2025-06-30T13:26:57.941855Z</t>
+  </si>
+  <si>
+    <t>2025-06-30T13:25:47.843612Z</t>
+  </si>
+  <si>
     <t>2025-06-30T12:32:34.958766Z</t>
   </si>
   <si>
@@ -1180,6 +1567,15 @@
     <t>2025-06-30T05:42:07.558273Z</t>
   </si>
   <si>
+    <t>2025-06-30T13:40:04.127781Z</t>
+  </si>
+  <si>
+    <t>2025-06-30T13:26:57.986367Z</t>
+  </si>
+  <si>
+    <t>2025-06-30T13:25:47.882134Z</t>
+  </si>
+  <si>
     <t>2025-06-30T12:32:35.005216Z</t>
   </si>
   <si>
@@ -1195,6 +1591,12 @@
     <t>2025-06-30T05:42:07.666045Z</t>
   </si>
   <si>
+    <t>102.128.79.238</t>
+  </si>
+  <si>
+    <t>77.246.55.161</t>
+  </si>
+  <si>
     <t>77.246.55.236</t>
   </si>
   <si>
@@ -1216,6 +1618,15 @@
     <t>text/xml</t>
   </si>
   <si>
+    <t>https://zdip.zimttech.org/a/zdip-qa/api/form_attachment/v1/cc7729ee-ada1-4027-ade3-f891e0a37361/form.xml</t>
+  </si>
+  <si>
+    <t>https://zdip.zimttech.org/a/zdip-qa/api/form_attachment/v1/a3446677-e85f-4e6c-9c9e-4e28155dc1db/form.xml</t>
+  </si>
+  <si>
+    <t>https://zdip.zimttech.org/a/zdip-qa/api/form_attachment/v1/64e9409e-e84e-4fff-9482-f08917ddf91b/form.xml</t>
+  </si>
+  <si>
     <t>https://zdip.zimttech.org/a/zdip-qa/api/form_attachment/v1/c60eec85-9970-4d06-948f-cf2994caf8c0/form.xml</t>
   </si>
   <si>
@@ -1237,18 +1648,21 @@
     <t>http://openrosa.org/formdesigner/72526D77-6087-4854-811D-97DBBA955075</t>
   </si>
   <si>
+    <t>a</t>
+  </si>
+  <si>
     <t>d</t>
   </si>
   <si>
+    <t>c</t>
+  </si>
+  <si>
     <t>e</t>
   </si>
   <si>
     <t>b</t>
   </si>
   <si>
-    <t>c</t>
-  </si>
-  <si>
     <t>0</t>
   </si>
   <si>
@@ -1264,13 +1678,25 @@
     <t>2.56.1</t>
   </si>
   <si>
+    <t>commcare_caa24215-9754-41e7-a95e-8cc46f9c911d</t>
+  </si>
+  <si>
+    <t>commcare_e2aaff39-b9d3-4312-aef9-5e872dbbeec7</t>
+  </si>
+  <si>
     <t>commcare_51deb0f1-b0d0-487f-bc8a-4479d5af3f73</t>
   </si>
   <si>
     <t>commcare_c0bf9f85-6d1f-4563-a7b5-e60f61118366</t>
   </si>
   <si>
-    <t>commcare_e2aaff39-b9d3-4312-aef9-5e872dbbeec7</t>
+    <t>2025-06-30T13:40:03.178000Z</t>
+  </si>
+  <si>
+    <t>2025-06-30T13:26:58.564000Z</t>
+  </si>
+  <si>
+    <t>2025-06-30T12:49:16.954000Z</t>
   </si>
   <si>
     <t>2025-06-30T12:32:34.119000Z</t>
@@ -1288,6 +1714,15 @@
     <t>2025-06-30T05:42:04.719000Z</t>
   </si>
   <si>
+    <t>2025-06-30T13:26:52.774000Z</t>
+  </si>
+  <si>
+    <t>2025-06-30T12:24:10.698000Z</t>
+  </si>
+  <si>
+    <t>2025-06-30T12:17:12.971000Z</t>
+  </si>
+  <si>
     <t>2025-06-30T12:01:37.902000Z</t>
   </si>
   <si>
@@ -1303,13 +1738,22 @@
     <t>2025-06-30T05:39:11.832000Z</t>
   </si>
   <si>
+    <t>84b17c17f402448cace92dac4fabcce2</t>
+  </si>
+  <si>
+    <t>faa9986b11024e209d426230ef5dca1a</t>
+  </si>
+  <si>
     <t>8aec26eba6c94a8a995d425584311644</t>
   </si>
   <si>
     <t>148b582ced074b30a11c93abdad751e5</t>
   </si>
   <si>
-    <t>faa9986b11024e209d426230ef5dca1a</t>
+    <t>tmunyaradzi</t>
+  </si>
+  <si>
+    <t>fgwenzi</t>
   </si>
   <si>
     <t>jgavhera</t>
@@ -1318,9 +1762,6 @@
     <t>amutenha</t>
   </si>
   <si>
-    <t>fgwenzi</t>
-  </si>
-  <si>
     <t>MARONDERA</t>
   </si>
   <si>
@@ -1333,31 +1774,136 @@
     <t>Dombotombo</t>
   </si>
   <si>
+    <t>Rimuka</t>
+  </si>
+  <si>
     <t>Jompani</t>
   </si>
   <si>
     <t>Angwa Clinic</t>
   </si>
   <si>
+    <t>Reusable_Dorsal_slit Device_placement_kit Device_removal_kit other</t>
+  </si>
+  <si>
+    <t>OK</t>
+  </si>
+  <si>
+    <t>yes</t>
+  </si>
+  <si>
+    <t>Disposable_gloves Syringes_with_needles Lancets_for_adults_and_pediatric_capillary_blood_drawing</t>
+  </si>
+  <si>
+    <t>no sharps tins</t>
+  </si>
+  <si>
+    <t>Amoxycillin/clavulanic_acid Erythromycin</t>
+  </si>
+  <si>
+    <t>Ceftriaxone Doxycycline</t>
+  </si>
+  <si>
+    <t>Lignocaine Bupivacaine</t>
+  </si>
+  <si>
+    <t>amoxycillinclavulanic_acid erythromycin</t>
+  </si>
+  <si>
+    <t>Ceftriaxone Metronidazole</t>
+  </si>
+  <si>
+    <t>no</t>
+  </si>
+  <si>
+    <t>Stethoscope Sphygmomanometer Adult_Blood_pressure_cuff Sodium_Chloride Tourniquet IV_Infusion_Tubing 3_sizes_of_IV_Catheters Adrenaline Hydrocortisone 2_Sizes_of_Syringes 2_Sizes_of_Needles Bags_and_Masks_for_children Bags_and_Masks_for_adults Exam_gloves Alcohol_Swabs Gauze Adhesive_Tape Oropharyngeal_Airways</t>
+  </si>
+  <si>
+    <t>glucometer Glucometer_Strips Pulse-oximeter</t>
+  </si>
+  <si>
+    <t>Caravan in use no formal rooms available</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>8</t>
+  </si>
+  <si>
+    <t>Comments
+Most SOPs seen as well as registers but however 
+-Minute book seen does not include AEs
+- Linkages register not seen in VMMC department but in OI department
+- Female condoms expired March 25
+- AE register outdated
+- Adequate staffing
+- No staff member trained in STI Management 
+Recommendations
+- Staff encouraged to include AE identification, reporting and management 
+-To get a linkages register
+- Get a current AE register
+- Acquire unexpired condoms and discard the expires ones</t>
+  </si>
+  <si>
     <t>All available</t>
   </si>
   <si>
-    <t>yes</t>
+    <t>VMMC_Nurse_Counsellors VMMC_circumcisors:_Nursing Cleaners/Theatre_Hands/Runners Community_Health_Workers Data_Clerks Receptionists Nurse_Testers</t>
   </si>
   <si>
     <t>VMMC_Nurse_Counsellors VMMC_circumcisors:_Nursing Cleaners/Theatre_Hands/Runners Data_Clerks Receptionists Nurse_Testers Primary_Care_Counsellors</t>
   </si>
   <si>
-    <t>no</t>
-  </si>
-  <si>
-    <t>OK</t>
-  </si>
-  <si>
-    <t>10</t>
-  </si>
-  <si>
-    <t>8</t>
+    <t>Community_Nursing Environmental_Health_Technicians Other_Health_Programmers</t>
+  </si>
+  <si>
+    <t>Health_Promotional_Officer</t>
+  </si>
+  <si>
+    <t>Health_Promotional_Officer Community_Nursing</t>
+  </si>
+  <si>
+    <t>Chiefs Headmen Councilors</t>
+  </si>
+  <si>
+    <t>Chiefs Headmen Village_Heads</t>
+  </si>
+  <si>
+    <t>Yes chain champion DC in the Marondera rank with use of promo material as the motivator for the champions. This was discovered during the recent tandem review.</t>
+  </si>
+  <si>
+    <t>Yes. Moonlight.</t>
+  </si>
+  <si>
+    <t>Yes, they introduced inter program collaboration</t>
+  </si>
+  <si>
+    <t>Men_who_go_to_work Remote_Communities</t>
+  </si>
+  <si>
+    <t>Artisanal_Miners</t>
+  </si>
+  <si>
+    <t>Artisanal_Miners Men_who_go_to_work</t>
+  </si>
+  <si>
+    <t>Outreach site need to be empowered in terms of DC workplans and engagement of mobilisers in the clinic jurisdiction especially considering the site is in urban setting.</t>
+  </si>
+  <si>
+    <t>Site is doing very well
+encouraged to:
+come up with more mobilisation efforts</t>
+  </si>
+  <si>
+    <t>Strategies for ages 15-24 included schools campaigns and soccer tournaments.  For ages 25-34 included work based DC in industries and farms.
+Work plan was not found at Dombotombo outreach site but at static site it is present.</t>
+  </si>
+  <si>
+    <t>Old posters.</t>
+  </si>
+  <si>
+    <t>The DC team is doing very well</t>
   </si>
   <si>
     <t>clear</t>
@@ -1392,38 +1938,6 @@
   </si>
   <si>
     <t>2024</t>
-  </si>
-  <si>
-    <t>Health_Promotional_Officer</t>
-  </si>
-  <si>
-    <t>Health_Promotional_Officer Community_Nursing</t>
-  </si>
-  <si>
-    <t>Chiefs Headmen Village_Heads</t>
-  </si>
-  <si>
-    <t>Yes. Moonlight.</t>
-  </si>
-  <si>
-    <t>Yes, they introduced inter program collaboration</t>
-  </si>
-  <si>
-    <t>Artisanal_Miners</t>
-  </si>
-  <si>
-    <t>Artisanal_Miners Men_who_go_to_work</t>
-  </si>
-  <si>
-    <t>Site is doing very well
-encouraged to:
-come up with more mobilisation efforts</t>
-  </si>
-  <si>
-    <t>Old posters.</t>
-  </si>
-  <si>
-    <t>The DC team is doing very well</t>
   </si>
 </sst>
 </file>
@@ -1794,13 +2308,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:NG6"/>
+  <dimension ref="A1:RW9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:371">
+    <row r="1" spans="1:491">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2911,28 +3425,388 @@
       <c r="NG1" s="1" t="s">
         <v>369</v>
       </c>
+      <c r="NH1" s="1" t="s">
+        <v>370</v>
+      </c>
+      <c r="NI1" s="1" t="s">
+        <v>371</v>
+      </c>
+      <c r="NJ1" s="1" t="s">
+        <v>372</v>
+      </c>
+      <c r="NK1" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="NL1" s="1" t="s">
+        <v>374</v>
+      </c>
+      <c r="NM1" s="1" t="s">
+        <v>375</v>
+      </c>
+      <c r="NN1" s="1" t="s">
+        <v>376</v>
+      </c>
+      <c r="NO1" s="1" t="s">
+        <v>377</v>
+      </c>
+      <c r="NP1" s="1" t="s">
+        <v>378</v>
+      </c>
+      <c r="NQ1" s="1" t="s">
+        <v>379</v>
+      </c>
+      <c r="NR1" s="1" t="s">
+        <v>380</v>
+      </c>
+      <c r="NS1" s="1" t="s">
+        <v>381</v>
+      </c>
+      <c r="NT1" s="1" t="s">
+        <v>382</v>
+      </c>
+      <c r="NU1" s="1" t="s">
+        <v>383</v>
+      </c>
+      <c r="NV1" s="1" t="s">
+        <v>384</v>
+      </c>
+      <c r="NW1" s="1" t="s">
+        <v>385</v>
+      </c>
+      <c r="NX1" s="1" t="s">
+        <v>386</v>
+      </c>
+      <c r="NY1" s="1" t="s">
+        <v>387</v>
+      </c>
+      <c r="NZ1" s="1" t="s">
+        <v>388</v>
+      </c>
+      <c r="OA1" s="1" t="s">
+        <v>389</v>
+      </c>
+      <c r="OB1" s="1" t="s">
+        <v>390</v>
+      </c>
+      <c r="OC1" s="1" t="s">
+        <v>391</v>
+      </c>
+      <c r="OD1" s="1" t="s">
+        <v>392</v>
+      </c>
+      <c r="OE1" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="OF1" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="OG1" s="1" t="s">
+        <v>395</v>
+      </c>
+      <c r="OH1" s="1" t="s">
+        <v>396</v>
+      </c>
+      <c r="OI1" s="1" t="s">
+        <v>397</v>
+      </c>
+      <c r="OJ1" s="1" t="s">
+        <v>398</v>
+      </c>
+      <c r="OK1" s="1" t="s">
+        <v>399</v>
+      </c>
+      <c r="OL1" s="1" t="s">
+        <v>400</v>
+      </c>
+      <c r="OM1" s="1" t="s">
+        <v>401</v>
+      </c>
+      <c r="ON1" s="1" t="s">
+        <v>402</v>
+      </c>
+      <c r="OO1" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="OP1" s="1" t="s">
+        <v>404</v>
+      </c>
+      <c r="OQ1" s="1" t="s">
+        <v>405</v>
+      </c>
+      <c r="OR1" s="1" t="s">
+        <v>406</v>
+      </c>
+      <c r="OS1" s="1" t="s">
+        <v>407</v>
+      </c>
+      <c r="OT1" s="1" t="s">
+        <v>408</v>
+      </c>
+      <c r="OU1" s="1" t="s">
+        <v>409</v>
+      </c>
+      <c r="OV1" s="1" t="s">
+        <v>410</v>
+      </c>
+      <c r="OW1" s="1" t="s">
+        <v>411</v>
+      </c>
+      <c r="OX1" s="1" t="s">
+        <v>412</v>
+      </c>
+      <c r="OY1" s="1" t="s">
+        <v>413</v>
+      </c>
+      <c r="OZ1" s="1" t="s">
+        <v>414</v>
+      </c>
+      <c r="PA1" s="1" t="s">
+        <v>415</v>
+      </c>
+      <c r="PB1" s="1" t="s">
+        <v>416</v>
+      </c>
+      <c r="PC1" s="1" t="s">
+        <v>417</v>
+      </c>
+      <c r="PD1" s="1" t="s">
+        <v>418</v>
+      </c>
+      <c r="PE1" s="1" t="s">
+        <v>419</v>
+      </c>
+      <c r="PF1" s="1" t="s">
+        <v>420</v>
+      </c>
+      <c r="PG1" s="1" t="s">
+        <v>421</v>
+      </c>
+      <c r="PH1" s="1" t="s">
+        <v>422</v>
+      </c>
+      <c r="PI1" s="1" t="s">
+        <v>423</v>
+      </c>
+      <c r="PJ1" s="1" t="s">
+        <v>424</v>
+      </c>
+      <c r="PK1" s="1" t="s">
+        <v>425</v>
+      </c>
+      <c r="PL1" s="1" t="s">
+        <v>426</v>
+      </c>
+      <c r="PM1" s="1" t="s">
+        <v>427</v>
+      </c>
+      <c r="PN1" s="1" t="s">
+        <v>428</v>
+      </c>
+      <c r="PO1" s="1" t="s">
+        <v>429</v>
+      </c>
+      <c r="PP1" s="1" t="s">
+        <v>430</v>
+      </c>
+      <c r="PQ1" s="1" t="s">
+        <v>431</v>
+      </c>
+      <c r="PR1" s="1" t="s">
+        <v>432</v>
+      </c>
+      <c r="PS1" s="1" t="s">
+        <v>433</v>
+      </c>
+      <c r="PT1" s="1" t="s">
+        <v>434</v>
+      </c>
+      <c r="PU1" s="1" t="s">
+        <v>435</v>
+      </c>
+      <c r="PV1" s="1" t="s">
+        <v>436</v>
+      </c>
+      <c r="PW1" s="1" t="s">
+        <v>437</v>
+      </c>
+      <c r="PX1" s="1" t="s">
+        <v>438</v>
+      </c>
+      <c r="PY1" s="1" t="s">
+        <v>439</v>
+      </c>
+      <c r="PZ1" s="1" t="s">
+        <v>440</v>
+      </c>
+      <c r="QA1" s="1" t="s">
+        <v>441</v>
+      </c>
+      <c r="QB1" s="1" t="s">
+        <v>442</v>
+      </c>
+      <c r="QC1" s="1" t="s">
+        <v>443</v>
+      </c>
+      <c r="QD1" s="1" t="s">
+        <v>444</v>
+      </c>
+      <c r="QE1" s="1" t="s">
+        <v>445</v>
+      </c>
+      <c r="QF1" s="1" t="s">
+        <v>446</v>
+      </c>
+      <c r="QG1" s="1" t="s">
+        <v>447</v>
+      </c>
+      <c r="QH1" s="1" t="s">
+        <v>448</v>
+      </c>
+      <c r="QI1" s="1" t="s">
+        <v>449</v>
+      </c>
+      <c r="QJ1" s="1" t="s">
+        <v>450</v>
+      </c>
+      <c r="QK1" s="1" t="s">
+        <v>451</v>
+      </c>
+      <c r="QL1" s="1" t="s">
+        <v>452</v>
+      </c>
+      <c r="QM1" s="1" t="s">
+        <v>453</v>
+      </c>
+      <c r="QN1" s="1" t="s">
+        <v>454</v>
+      </c>
+      <c r="QO1" s="1" t="s">
+        <v>455</v>
+      </c>
+      <c r="QP1" s="1" t="s">
+        <v>456</v>
+      </c>
+      <c r="QQ1" s="1" t="s">
+        <v>457</v>
+      </c>
+      <c r="QR1" s="1" t="s">
+        <v>458</v>
+      </c>
+      <c r="QS1" s="1" t="s">
+        <v>459</v>
+      </c>
+      <c r="QT1" s="1" t="s">
+        <v>460</v>
+      </c>
+      <c r="QU1" s="1" t="s">
+        <v>461</v>
+      </c>
+      <c r="QV1" s="1" t="s">
+        <v>462</v>
+      </c>
+      <c r="QW1" s="1" t="s">
+        <v>463</v>
+      </c>
+      <c r="QX1" s="1" t="s">
+        <v>464</v>
+      </c>
+      <c r="QY1" s="1" t="s">
+        <v>465</v>
+      </c>
+      <c r="QZ1" s="1" t="s">
+        <v>466</v>
+      </c>
+      <c r="RA1" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="RB1" s="1" t="s">
+        <v>468</v>
+      </c>
+      <c r="RC1" s="1" t="s">
+        <v>469</v>
+      </c>
+      <c r="RD1" s="1" t="s">
+        <v>470</v>
+      </c>
+      <c r="RE1" s="1" t="s">
+        <v>471</v>
+      </c>
+      <c r="RF1" s="1" t="s">
+        <v>472</v>
+      </c>
+      <c r="RG1" s="1" t="s">
+        <v>473</v>
+      </c>
+      <c r="RH1" s="1" t="s">
+        <v>474</v>
+      </c>
+      <c r="RI1" s="1" t="s">
+        <v>475</v>
+      </c>
+      <c r="RJ1" s="1" t="s">
+        <v>476</v>
+      </c>
+      <c r="RK1" s="1" t="s">
+        <v>477</v>
+      </c>
+      <c r="RL1" s="1" t="s">
+        <v>478</v>
+      </c>
+      <c r="RM1" s="1" t="s">
+        <v>479</v>
+      </c>
+      <c r="RN1" s="1" t="s">
+        <v>480</v>
+      </c>
+      <c r="RO1" s="1" t="s">
+        <v>481</v>
+      </c>
+      <c r="RP1" s="1" t="s">
+        <v>482</v>
+      </c>
+      <c r="RQ1" s="1" t="s">
+        <v>483</v>
+      </c>
+      <c r="RR1" s="1" t="s">
+        <v>484</v>
+      </c>
+      <c r="RS1" s="1" t="s">
+        <v>485</v>
+      </c>
+      <c r="RT1" s="1" t="s">
+        <v>486</v>
+      </c>
+      <c r="RU1" s="1" t="s">
+        <v>487</v>
+      </c>
+      <c r="RV1" s="1" t="s">
+        <v>488</v>
+      </c>
+      <c r="RW1" s="1" t="s">
+        <v>489</v>
+      </c>
     </row>
-    <row r="2" spans="1:371">
+    <row r="2" spans="1:491">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>370</v>
+        <v>490</v>
       </c>
       <c r="C2" t="b">
         <v>0</v>
       </c>
       <c r="D2" t="s">
-        <v>371</v>
+        <v>491</v>
       </c>
       <c r="E2" t="s">
-        <v>372</v>
+        <v>492</v>
       </c>
       <c r="H2" t="s">
-        <v>373</v>
+        <v>493</v>
       </c>
       <c r="I2" t="s">
-        <v>378</v>
+        <v>501</v>
       </c>
       <c r="J2" t="b">
         <v>1</v>
@@ -2941,276 +3815,408 @@
         <v>1</v>
       </c>
       <c r="M2" t="s">
-        <v>383</v>
+        <v>509</v>
       </c>
       <c r="O2" t="s">
-        <v>388</v>
+        <v>517</v>
       </c>
       <c r="P2" t="s">
-        <v>393</v>
+        <v>525</v>
       </c>
       <c r="Q2" t="s">
-        <v>396</v>
+        <v>530</v>
       </c>
       <c r="R2" t="s">
-        <v>397</v>
+        <v>531</v>
       </c>
       <c r="S2" t="s">
-        <v>398</v>
+        <v>532</v>
       </c>
       <c r="T2" t="s">
-        <v>399</v>
+        <v>533</v>
       </c>
       <c r="U2">
-        <v>3505</v>
+        <v>8273</v>
       </c>
       <c r="V2" s="2" t="s">
-        <v>400</v>
+        <v>534</v>
       </c>
       <c r="W2" t="s">
-        <v>396</v>
+        <v>530</v>
       </c>
       <c r="X2" t="s">
-        <v>405</v>
+        <v>542</v>
       </c>
       <c r="Y2" t="s">
-        <v>397</v>
+        <v>531</v>
       </c>
       <c r="Z2" t="s">
-        <v>398</v>
+        <v>532</v>
       </c>
       <c r="AA2" s="2" t="s">
-        <v>406</v>
+        <v>543</v>
       </c>
       <c r="AB2" t="s">
-        <v>407</v>
+        <v>544</v>
       </c>
       <c r="AC2" t="s">
-        <v>411</v>
+        <v>549</v>
       </c>
       <c r="AD2" s="2" t="s">
-        <v>413</v>
+        <v>551</v>
       </c>
       <c r="AE2" t="s">
-        <v>414</v>
+        <v>552</v>
       </c>
       <c r="AF2">
         <v>669</v>
       </c>
       <c r="AG2" t="s">
-        <v>415</v>
+        <v>553</v>
       </c>
       <c r="AH2" t="s">
-        <v>416</v>
+        <v>554</v>
       </c>
       <c r="AI2" t="s">
-        <v>411</v>
+        <v>549</v>
       </c>
       <c r="AK2" t="s">
-        <v>373</v>
+        <v>493</v>
       </c>
       <c r="AL2" t="s">
-        <v>419</v>
+        <v>558</v>
       </c>
       <c r="AM2" t="s">
-        <v>424</v>
+        <v>566</v>
       </c>
       <c r="AN2" t="s">
-        <v>429</v>
+        <v>574</v>
       </c>
       <c r="AO2" t="s">
-        <v>432</v>
+        <v>578</v>
       </c>
       <c r="AP2" t="s">
-        <v>435</v>
+        <v>582</v>
       </c>
       <c r="AQ2" t="s">
-        <v>438</v>
+        <v>585</v>
       </c>
       <c r="AR2" t="s">
-        <v>441</v>
+        <v>589</v>
       </c>
       <c r="AS2" t="s">
-        <v>442</v>
+        <v>590</v>
       </c>
       <c r="AT2" t="s">
-        <v>442</v>
+        <v>590</v>
       </c>
       <c r="AU2" t="s">
-        <v>442</v>
+        <v>590</v>
       </c>
       <c r="AV2" t="s">
-        <v>442</v>
+        <v>590</v>
       </c>
       <c r="AW2" t="s">
-        <v>442</v>
+        <v>590</v>
       </c>
       <c r="AX2" t="s">
-        <v>442</v>
-      </c>
-      <c r="AY2" t="s">
-        <v>442</v>
-      </c>
-      <c r="AZ2" t="s">
-        <v>442</v>
-      </c>
-      <c r="BA2" t="s">
-        <v>442</v>
+        <v>591</v>
       </c>
       <c r="BB2" t="s">
-        <v>442</v>
+        <v>591</v>
       </c>
       <c r="BC2" t="s">
-        <v>442</v>
+        <v>591</v>
       </c>
       <c r="BD2" t="s">
-        <v>442</v>
+        <v>591</v>
       </c>
       <c r="BE2" t="s">
-        <v>443</v>
+        <v>591</v>
       </c>
       <c r="BF2" t="s">
-        <v>442</v>
+        <v>592</v>
       </c>
       <c r="BG2" t="s">
-        <v>442</v>
+        <v>593</v>
       </c>
       <c r="BH2" t="s">
-        <v>442</v>
-      </c>
-      <c r="BI2" t="s">
-        <v>442</v>
-      </c>
-      <c r="BJ2" t="s">
-        <v>444</v>
-      </c>
-      <c r="BK2" t="s">
-        <v>444</v>
-      </c>
-      <c r="BL2" t="s">
-        <v>442</v>
-      </c>
-      <c r="BM2" t="s">
-        <v>442</v>
-      </c>
-      <c r="BN2" t="s">
-        <v>442</v>
+        <v>591</v>
       </c>
       <c r="BO2" t="s">
-        <v>442</v>
+        <v>590</v>
       </c>
       <c r="BP2" t="s">
-        <v>442</v>
-      </c>
-      <c r="BQ2" t="s">
-        <v>442</v>
-      </c>
-      <c r="BR2" t="s">
-        <v>442</v>
-      </c>
-      <c r="BS2" t="s">
-        <v>442</v>
-      </c>
-      <c r="BT2" t="s">
-        <v>445</v>
-      </c>
-      <c r="BU2" t="s">
-        <v>442</v>
-      </c>
-      <c r="BV2" t="s">
-        <v>445</v>
-      </c>
-      <c r="BW2" t="s">
-        <v>442</v>
+        <v>590</v>
       </c>
       <c r="BX2" t="s">
-        <v>442</v>
+        <v>594</v>
       </c>
       <c r="BY2" t="s">
-        <v>442</v>
+        <v>595</v>
       </c>
       <c r="BZ2" t="s">
-        <v>442</v>
+        <v>590</v>
       </c>
       <c r="CA2" t="s">
-        <v>445</v>
+        <v>596</v>
       </c>
       <c r="CB2" t="s">
-        <v>442</v>
+        <v>597</v>
       </c>
       <c r="CC2" t="s">
-        <v>442</v>
-      </c>
-      <c r="CD2" t="s">
-        <v>442</v>
+        <v>591</v>
       </c>
       <c r="CE2" t="s">
-        <v>442</v>
+        <v>591</v>
       </c>
       <c r="CF2" t="s">
-        <v>442</v>
+        <v>591</v>
       </c>
       <c r="CG2" t="s">
-        <v>445</v>
+        <v>591</v>
       </c>
       <c r="CH2" t="s">
-        <v>442</v>
+        <v>591</v>
       </c>
       <c r="CI2" t="s">
-        <v>411</v>
+        <v>591</v>
+      </c>
+      <c r="CJ2" t="s">
+        <v>591</v>
       </c>
       <c r="CK2" t="s">
-        <v>414</v>
-      </c>
-      <c r="CL2">
+        <v>591</v>
+      </c>
+      <c r="CL2" t="s">
+        <v>591</v>
+      </c>
+      <c r="CM2" t="s">
+        <v>591</v>
+      </c>
+      <c r="CN2" t="s">
+        <v>598</v>
+      </c>
+      <c r="CQ2" t="s">
+        <v>591</v>
+      </c>
+      <c r="CS2" t="s">
+        <v>591</v>
+      </c>
+      <c r="CT2" t="s">
+        <v>590</v>
+      </c>
+      <c r="CU2" t="s">
+        <v>590</v>
+      </c>
+      <c r="DH2" t="s">
+        <v>591</v>
+      </c>
+      <c r="DI2" t="s">
+        <v>591</v>
+      </c>
+      <c r="DJ2" t="s">
+        <v>591</v>
+      </c>
+      <c r="DK2" t="s">
+        <v>591</v>
+      </c>
+      <c r="DL2" t="s">
+        <v>599</v>
+      </c>
+      <c r="DM2" t="s">
+        <v>591</v>
+      </c>
+      <c r="DO2" t="s">
+        <v>599</v>
+      </c>
+      <c r="DP2" t="s">
+        <v>600</v>
+      </c>
+      <c r="DQ2" t="s">
+        <v>590</v>
+      </c>
+      <c r="DR2" t="s">
+        <v>590</v>
+      </c>
+      <c r="DS2" t="s">
+        <v>590</v>
+      </c>
+      <c r="DT2" t="s">
+        <v>591</v>
+      </c>
+      <c r="DU2" t="s">
+        <v>601</v>
+      </c>
+      <c r="DV2" t="s">
+        <v>599</v>
+      </c>
+      <c r="DW2" t="s">
+        <v>591</v>
+      </c>
+      <c r="DX2" t="s">
+        <v>591</v>
+      </c>
+      <c r="DY2" t="s">
+        <v>591</v>
+      </c>
+      <c r="DZ2" t="s">
+        <v>591</v>
+      </c>
+      <c r="EA2" t="s">
+        <v>591</v>
+      </c>
+      <c r="EB2" t="s">
+        <v>591</v>
+      </c>
+      <c r="EC2" t="s">
+        <v>591</v>
+      </c>
+      <c r="ED2" t="s">
+        <v>591</v>
+      </c>
+      <c r="EE2" t="s">
+        <v>602</v>
+      </c>
+      <c r="EF2" t="s">
+        <v>591</v>
+      </c>
+      <c r="EG2" t="s">
+        <v>591</v>
+      </c>
+      <c r="EH2" t="s">
+        <v>590</v>
+      </c>
+      <c r="EI2" t="s">
+        <v>591</v>
+      </c>
+      <c r="EJ2" t="s">
+        <v>590</v>
+      </c>
+      <c r="EK2" t="s">
+        <v>590</v>
+      </c>
+      <c r="EL2" t="s">
+        <v>590</v>
+      </c>
+      <c r="EM2" t="s">
+        <v>590</v>
+      </c>
+      <c r="EN2" t="s">
+        <v>591</v>
+      </c>
+      <c r="EO2" t="s">
+        <v>591</v>
+      </c>
+      <c r="EP2" t="s">
+        <v>591</v>
+      </c>
+      <c r="EQ2" t="s">
+        <v>599</v>
+      </c>
+      <c r="ER2" t="s">
+        <v>591</v>
+      </c>
+      <c r="ES2" t="s">
+        <v>591</v>
+      </c>
+      <c r="ET2" t="s">
+        <v>591</v>
+      </c>
+      <c r="EU2" t="s">
+        <v>591</v>
+      </c>
+      <c r="EV2" t="s">
+        <v>591</v>
+      </c>
+      <c r="EW2" t="s">
+        <v>591</v>
+      </c>
+      <c r="EX2" t="s">
+        <v>591</v>
+      </c>
+      <c r="EY2" t="s">
+        <v>590</v>
+      </c>
+      <c r="EZ2" t="s">
+        <v>591</v>
+      </c>
+      <c r="FA2" t="s">
+        <v>599</v>
+      </c>
+      <c r="FB2" t="s">
+        <v>599</v>
+      </c>
+      <c r="FC2" t="s">
+        <v>590</v>
+      </c>
+      <c r="FD2" t="s">
+        <v>591</v>
+      </c>
+      <c r="FE2" t="s">
+        <v>591</v>
+      </c>
+      <c r="FF2" t="s">
+        <v>591</v>
+      </c>
+      <c r="FG2" t="s">
+        <v>591</v>
+      </c>
+      <c r="FH2" t="s">
+        <v>549</v>
+      </c>
+      <c r="FJ2" t="s">
+        <v>552</v>
+      </c>
+      <c r="FK2">
         <v>669</v>
       </c>
-      <c r="CM2" t="s">
-        <v>415</v>
-      </c>
-      <c r="CN2" t="s">
-        <v>416</v>
-      </c>
-      <c r="CO2" t="s">
-        <v>411</v>
-      </c>
-      <c r="CQ2" t="s">
-        <v>373</v>
-      </c>
-      <c r="CS2" t="s">
-        <v>419</v>
-      </c>
-      <c r="CT2" t="s">
-        <v>424</v>
-      </c>
-      <c r="CU2" t="s">
-        <v>429</v>
-      </c>
-      <c r="CV2" t="s">
-        <v>432</v>
+      <c r="FL2" t="s">
+        <v>553</v>
+      </c>
+      <c r="FM2" t="s">
+        <v>554</v>
+      </c>
+      <c r="FN2" t="s">
+        <v>549</v>
+      </c>
+      <c r="FP2" t="s">
+        <v>493</v>
+      </c>
+      <c r="FR2" t="s">
+        <v>558</v>
+      </c>
+      <c r="FS2" t="s">
+        <v>566</v>
+      </c>
+      <c r="FT2" t="s">
+        <v>574</v>
+      </c>
+      <c r="FU2" t="s">
+        <v>578</v>
       </c>
     </row>
-    <row r="3" spans="1:371">
+    <row r="3" spans="1:491">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>370</v>
+        <v>490</v>
       </c>
       <c r="C3" t="b">
         <v>0</v>
       </c>
       <c r="D3" t="s">
-        <v>371</v>
+        <v>491</v>
       </c>
       <c r="E3" t="s">
-        <v>372</v>
+        <v>492</v>
       </c>
       <c r="H3" t="s">
-        <v>374</v>
+        <v>494</v>
       </c>
       <c r="I3" t="s">
-        <v>379</v>
+        <v>502</v>
       </c>
       <c r="J3" t="b">
         <v>1</v>
@@ -3219,342 +4225,276 @@
         <v>1</v>
       </c>
       <c r="M3" t="s">
-        <v>384</v>
+        <v>510</v>
       </c>
       <c r="O3" t="s">
-        <v>389</v>
+        <v>518</v>
       </c>
       <c r="P3" t="s">
-        <v>393</v>
+        <v>526</v>
       </c>
       <c r="Q3" t="s">
-        <v>396</v>
+        <v>530</v>
       </c>
       <c r="R3" t="s">
-        <v>397</v>
+        <v>531</v>
       </c>
       <c r="S3" t="s">
-        <v>398</v>
+        <v>532</v>
       </c>
       <c r="T3" t="s">
-        <v>399</v>
+        <v>533</v>
       </c>
       <c r="U3">
-        <v>12359</v>
+        <v>3975</v>
       </c>
       <c r="V3" s="2" t="s">
-        <v>401</v>
+        <v>535</v>
       </c>
       <c r="W3" t="s">
-        <v>396</v>
+        <v>530</v>
       </c>
       <c r="X3" t="s">
-        <v>405</v>
+        <v>542</v>
       </c>
       <c r="Y3" t="s">
-        <v>397</v>
+        <v>531</v>
       </c>
       <c r="Z3" t="s">
-        <v>398</v>
+        <v>532</v>
       </c>
       <c r="AA3" s="2" t="s">
-        <v>406</v>
+        <v>543</v>
       </c>
       <c r="AB3" t="s">
-        <v>408</v>
+        <v>545</v>
       </c>
       <c r="AC3" t="s">
-        <v>411</v>
+        <v>549</v>
       </c>
       <c r="AD3" s="2" t="s">
-        <v>413</v>
+        <v>551</v>
       </c>
       <c r="AE3" t="s">
-        <v>414</v>
+        <v>552</v>
       </c>
       <c r="AF3">
         <v>669</v>
       </c>
       <c r="AG3" t="s">
-        <v>415</v>
+        <v>553</v>
       </c>
       <c r="AH3" t="s">
-        <v>416</v>
+        <v>555</v>
       </c>
       <c r="AI3" t="s">
-        <v>411</v>
+        <v>549</v>
       </c>
       <c r="AK3" t="s">
-        <v>374</v>
+        <v>494</v>
       </c>
       <c r="AL3" t="s">
-        <v>420</v>
+        <v>559</v>
       </c>
       <c r="AM3" t="s">
-        <v>425</v>
+        <v>567</v>
       </c>
       <c r="AN3" t="s">
-        <v>429</v>
+        <v>575</v>
       </c>
       <c r="AO3" t="s">
-        <v>432</v>
+        <v>579</v>
       </c>
       <c r="AP3" t="s">
-        <v>435</v>
+        <v>583</v>
       </c>
       <c r="AQ3" t="s">
-        <v>438</v>
-      </c>
-      <c r="CI3" t="s">
-        <v>411</v>
-      </c>
-      <c r="CK3" t="s">
-        <v>414</v>
-      </c>
-      <c r="CL3">
+        <v>586</v>
+      </c>
+      <c r="FH3" t="s">
+        <v>549</v>
+      </c>
+      <c r="FJ3" t="s">
+        <v>552</v>
+      </c>
+      <c r="FK3">
         <v>669</v>
       </c>
-      <c r="CM3" t="s">
-        <v>415</v>
-      </c>
-      <c r="CN3" t="s">
-        <v>416</v>
-      </c>
-      <c r="CO3" t="s">
-        <v>411</v>
-      </c>
-      <c r="CQ3" t="s">
-        <v>374</v>
-      </c>
-      <c r="CS3" t="s">
-        <v>420</v>
-      </c>
-      <c r="CT3" t="s">
-        <v>425</v>
-      </c>
-      <c r="CU3" t="s">
-        <v>429</v>
-      </c>
-      <c r="CV3" t="s">
-        <v>432</v>
-      </c>
-      <c r="CW3" t="s">
-        <v>448</v>
-      </c>
-      <c r="CX3" t="s">
-        <v>442</v>
-      </c>
-      <c r="CY3" t="s">
-        <v>442</v>
-      </c>
-      <c r="CZ3" t="s">
-        <v>445</v>
-      </c>
-      <c r="DA3" t="s">
-        <v>442</v>
-      </c>
-      <c r="DB3" t="s">
-        <v>442</v>
-      </c>
-      <c r="DC3" t="s">
-        <v>442</v>
-      </c>
-      <c r="DD3" t="s">
-        <v>442</v>
-      </c>
-      <c r="DE3" t="s">
-        <v>442</v>
-      </c>
-      <c r="DF3" t="s">
-        <v>442</v>
-      </c>
-      <c r="DG3" t="s">
-        <v>442</v>
-      </c>
-      <c r="DH3" t="s">
-        <v>442</v>
-      </c>
-      <c r="DI3" t="s">
-        <v>444</v>
-      </c>
-      <c r="DJ3" t="s">
-        <v>442</v>
-      </c>
-      <c r="DK3" t="s">
-        <v>448</v>
-      </c>
-      <c r="DL3" t="s">
-        <v>442</v>
-      </c>
-      <c r="DM3" t="s">
-        <v>442</v>
-      </c>
-      <c r="DN3" t="s">
-        <v>445</v>
-      </c>
-      <c r="DO3" t="s">
-        <v>442</v>
-      </c>
-      <c r="DP3" t="s">
-        <v>442</v>
-      </c>
-      <c r="DQ3" t="s">
-        <v>442</v>
-      </c>
-      <c r="DR3" t="s">
-        <v>442</v>
-      </c>
-      <c r="DS3" t="s">
-        <v>442</v>
-      </c>
-      <c r="DT3" t="s">
-        <v>442</v>
-      </c>
-      <c r="DU3" t="s">
-        <v>442</v>
-      </c>
-      <c r="DV3" t="s">
-        <v>444</v>
-      </c>
-      <c r="DW3" t="s">
-        <v>442</v>
-      </c>
-      <c r="JH3" t="s">
-        <v>445</v>
-      </c>
-      <c r="JR3" t="s">
-        <v>442</v>
-      </c>
-      <c r="JS3" t="s">
-        <v>442</v>
-      </c>
-      <c r="JT3" t="s">
-        <v>442</v>
-      </c>
-      <c r="JU3" t="s">
-        <v>445</v>
-      </c>
-      <c r="JV3" t="s">
-        <v>444</v>
-      </c>
-      <c r="JW3" t="s">
-        <v>444</v>
-      </c>
-      <c r="JX3" t="s">
-        <v>442</v>
-      </c>
-      <c r="JY3" t="s">
-        <v>442</v>
-      </c>
-      <c r="JZ3" t="s">
-        <v>442</v>
-      </c>
-      <c r="KA3" t="s">
-        <v>442</v>
-      </c>
-      <c r="KB3" t="s">
-        <v>442</v>
-      </c>
-      <c r="KC3" t="s">
-        <v>442</v>
-      </c>
-      <c r="KD3" t="s">
-        <v>442</v>
-      </c>
-      <c r="KE3" t="s">
-        <v>444</v>
-      </c>
-      <c r="KF3" t="s">
-        <v>444</v>
-      </c>
-      <c r="KG3" t="s">
-        <v>442</v>
-      </c>
-      <c r="KH3" t="s">
-        <v>442</v>
-      </c>
-      <c r="KI3" t="s">
-        <v>442</v>
-      </c>
-      <c r="KJ3" t="s">
-        <v>445</v>
-      </c>
-      <c r="KK3" t="s">
-        <v>449</v>
-      </c>
-      <c r="KL3" t="s">
-        <v>442</v>
-      </c>
-      <c r="KM3" t="s">
-        <v>442</v>
-      </c>
-      <c r="KN3" t="s">
-        <v>442</v>
-      </c>
-      <c r="KO3" t="s">
-        <v>442</v>
-      </c>
-      <c r="KP3" t="s">
-        <v>445</v>
-      </c>
-      <c r="KQ3" t="s">
-        <v>442</v>
-      </c>
-      <c r="KR3" t="s">
-        <v>442</v>
-      </c>
-      <c r="KS3" t="s">
-        <v>442</v>
-      </c>
-      <c r="KT3" t="s">
-        <v>442</v>
-      </c>
-      <c r="KU3" t="s">
-        <v>442</v>
-      </c>
-      <c r="KV3" t="s">
-        <v>442</v>
-      </c>
-      <c r="KW3" t="s">
-        <v>442</v>
-      </c>
-      <c r="KX3" t="s">
-        <v>442</v>
-      </c>
-      <c r="KY3" t="s">
-        <v>442</v>
-      </c>
-      <c r="KZ3" t="s">
-        <v>442</v>
-      </c>
-      <c r="LA3" t="s">
-        <v>442</v>
-      </c>
-      <c r="LB3" t="s">
-        <v>442</v>
+      <c r="FL3" t="s">
+        <v>553</v>
+      </c>
+      <c r="FM3" t="s">
+        <v>555</v>
+      </c>
+      <c r="FN3" t="s">
+        <v>549</v>
+      </c>
+      <c r="FP3" t="s">
+        <v>494</v>
+      </c>
+      <c r="FR3" t="s">
+        <v>559</v>
+      </c>
+      <c r="FS3" t="s">
+        <v>567</v>
+      </c>
+      <c r="FT3" t="s">
+        <v>575</v>
+      </c>
+      <c r="FU3" t="s">
+        <v>579</v>
+      </c>
+      <c r="FV3" t="s">
+        <v>605</v>
+      </c>
+      <c r="FW3" t="s">
+        <v>591</v>
+      </c>
+      <c r="FX3" t="s">
+        <v>591</v>
+      </c>
+      <c r="FY3" t="s">
+        <v>591</v>
+      </c>
+      <c r="FZ3" t="s">
+        <v>591</v>
+      </c>
+      <c r="GA3" t="s">
+        <v>599</v>
+      </c>
+      <c r="GB3" t="s">
+        <v>599</v>
+      </c>
+      <c r="GC3" t="s">
+        <v>591</v>
+      </c>
+      <c r="GD3" t="s">
+        <v>591</v>
+      </c>
+      <c r="GE3" t="s">
+        <v>591</v>
+      </c>
+      <c r="GF3" t="s">
+        <v>591</v>
+      </c>
+      <c r="GG3" t="s">
+        <v>591</v>
+      </c>
+      <c r="GH3" t="s">
+        <v>591</v>
+      </c>
+      <c r="GI3" t="s">
+        <v>607</v>
+      </c>
+      <c r="GJ3" t="s">
+        <v>591</v>
+      </c>
+      <c r="GK3" t="s">
+        <v>591</v>
+      </c>
+      <c r="GL3" t="s">
+        <v>591</v>
+      </c>
+      <c r="GM3" t="s">
+        <v>591</v>
+      </c>
+      <c r="GN3" t="s">
+        <v>599</v>
+      </c>
+      <c r="GO3" t="s">
+        <v>591</v>
+      </c>
+      <c r="GP3" t="s">
+        <v>591</v>
+      </c>
+      <c r="GQ3" t="s">
+        <v>591</v>
+      </c>
+      <c r="GR3" t="s">
+        <v>591</v>
+      </c>
+      <c r="GS3" t="s">
+        <v>591</v>
+      </c>
+      <c r="GT3" t="s">
+        <v>591</v>
+      </c>
+      <c r="GU3" t="s">
+        <v>591</v>
+      </c>
+      <c r="GV3" t="s">
+        <v>591</v>
+      </c>
+      <c r="GW3" t="s">
+        <v>591</v>
+      </c>
+      <c r="GX3" t="s">
+        <v>590</v>
+      </c>
+      <c r="GY3" t="s">
+        <v>591</v>
+      </c>
+      <c r="GZ3" t="s">
+        <v>590</v>
+      </c>
+      <c r="HA3" t="s">
+        <v>591</v>
+      </c>
+      <c r="HB3" t="s">
+        <v>599</v>
+      </c>
+      <c r="HC3" t="s">
+        <v>591</v>
+      </c>
+      <c r="HD3" t="s">
+        <v>591</v>
+      </c>
+      <c r="HE3" t="s">
+        <v>590</v>
+      </c>
+      <c r="HF3" t="s">
+        <v>591</v>
+      </c>
+      <c r="HG3" t="s">
+        <v>591</v>
+      </c>
+      <c r="HH3" t="s">
+        <v>591</v>
+      </c>
+      <c r="HI3" t="s">
+        <v>591</v>
+      </c>
+      <c r="HJ3" t="s">
+        <v>591</v>
+      </c>
+      <c r="HK3" t="s">
+        <v>590</v>
+      </c>
+      <c r="HL3" t="s">
+        <v>591</v>
       </c>
     </row>
-    <row r="4" spans="1:371">
+    <row r="4" spans="1:491">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>370</v>
+        <v>490</v>
       </c>
       <c r="C4" t="b">
         <v>0</v>
       </c>
       <c r="D4" t="s">
-        <v>371</v>
+        <v>491</v>
       </c>
       <c r="E4" t="s">
-        <v>372</v>
+        <v>492</v>
       </c>
       <c r="H4" t="s">
-        <v>375</v>
+        <v>495</v>
       </c>
       <c r="I4" t="s">
-        <v>380</v>
+        <v>503</v>
       </c>
       <c r="J4" t="b">
         <v>1</v>
@@ -3563,231 +4503,234 @@
         <v>1</v>
       </c>
       <c r="M4" t="s">
-        <v>385</v>
+        <v>511</v>
       </c>
       <c r="O4" t="s">
-        <v>390</v>
+        <v>519</v>
       </c>
       <c r="P4" t="s">
-        <v>394</v>
+        <v>525</v>
       </c>
       <c r="Q4" t="s">
-        <v>396</v>
+        <v>530</v>
       </c>
       <c r="R4" t="s">
-        <v>397</v>
+        <v>531</v>
       </c>
       <c r="S4" t="s">
-        <v>398</v>
+        <v>532</v>
       </c>
       <c r="T4" t="s">
-        <v>399</v>
+        <v>533</v>
       </c>
       <c r="U4">
-        <v>6371</v>
+        <v>3305</v>
       </c>
       <c r="V4" s="2" t="s">
-        <v>402</v>
+        <v>536</v>
       </c>
       <c r="W4" t="s">
-        <v>396</v>
+        <v>530</v>
       </c>
       <c r="X4" t="s">
-        <v>405</v>
+        <v>542</v>
       </c>
       <c r="Y4" t="s">
-        <v>397</v>
+        <v>531</v>
       </c>
       <c r="Z4" t="s">
-        <v>398</v>
+        <v>532</v>
       </c>
       <c r="AA4" s="2" t="s">
-        <v>406</v>
+        <v>543</v>
       </c>
       <c r="AB4" t="s">
-        <v>409</v>
+        <v>546</v>
       </c>
       <c r="AC4" t="s">
-        <v>412</v>
+        <v>549</v>
       </c>
       <c r="AD4" s="2" t="s">
-        <v>413</v>
+        <v>551</v>
       </c>
       <c r="AE4" t="s">
-        <v>414</v>
+        <v>552</v>
       </c>
       <c r="AF4">
         <v>669</v>
       </c>
       <c r="AG4" t="s">
-        <v>415</v>
+        <v>553</v>
       </c>
       <c r="AH4" t="s">
-        <v>417</v>
+        <v>554</v>
       </c>
       <c r="AI4" t="s">
-        <v>411</v>
+        <v>549</v>
       </c>
       <c r="AK4" t="s">
-        <v>375</v>
+        <v>495</v>
       </c>
       <c r="AL4" t="s">
-        <v>421</v>
+        <v>560</v>
       </c>
       <c r="AM4" t="s">
-        <v>426</v>
+        <v>568</v>
       </c>
       <c r="AN4" t="s">
-        <v>430</v>
+        <v>574</v>
       </c>
       <c r="AO4" t="s">
-        <v>433</v>
+        <v>578</v>
       </c>
       <c r="AP4" t="s">
-        <v>435</v>
+        <v>582</v>
       </c>
       <c r="AQ4" t="s">
-        <v>438</v>
-      </c>
-      <c r="CI4" t="s">
-        <v>446</v>
-      </c>
-      <c r="CJ4" t="s">
-        <v>447</v>
-      </c>
-      <c r="CK4" t="s">
-        <v>414</v>
-      </c>
-      <c r="CL4">
+        <v>585</v>
+      </c>
+      <c r="FH4" t="s">
+        <v>549</v>
+      </c>
+      <c r="FJ4" t="s">
+        <v>552</v>
+      </c>
+      <c r="FK4">
         <v>669</v>
       </c>
-      <c r="CM4" t="s">
-        <v>415</v>
-      </c>
-      <c r="CN4" t="s">
-        <v>417</v>
-      </c>
-      <c r="CO4" t="s">
-        <v>411</v>
-      </c>
-      <c r="CQ4" t="s">
-        <v>375</v>
-      </c>
-      <c r="CS4" t="s">
-        <v>421</v>
-      </c>
-      <c r="CT4" t="s">
-        <v>426</v>
-      </c>
-      <c r="CU4" t="s">
-        <v>430</v>
-      </c>
-      <c r="CV4" t="s">
-        <v>433</v>
-      </c>
-      <c r="LC4" t="s">
-        <v>444</v>
-      </c>
-      <c r="LD4" t="s">
-        <v>442</v>
-      </c>
-      <c r="LE4" t="s">
-        <v>442</v>
-      </c>
-      <c r="LF4" t="s">
-        <v>444</v>
-      </c>
-      <c r="LG4" t="s">
-        <v>444</v>
-      </c>
-      <c r="LI4" t="s">
-        <v>444</v>
-      </c>
-      <c r="LJ4" t="s">
-        <v>445</v>
-      </c>
-      <c r="LK4" t="s">
-        <v>444</v>
-      </c>
-      <c r="LL4" t="s">
-        <v>445</v>
-      </c>
-      <c r="LM4" t="s">
-        <v>445</v>
-      </c>
-      <c r="LN4" t="s">
-        <v>444</v>
-      </c>
-      <c r="LO4" t="s">
-        <v>442</v>
-      </c>
-      <c r="LP4" t="s">
-        <v>442</v>
-      </c>
-      <c r="LQ4" t="s">
-        <v>450</v>
-      </c>
-      <c r="LR4" t="s">
-        <v>442</v>
-      </c>
-      <c r="LS4" t="s">
-        <v>445</v>
-      </c>
-      <c r="LT4" t="s">
-        <v>444</v>
-      </c>
-      <c r="LU4" t="s">
-        <v>445</v>
-      </c>
-      <c r="LV4" t="s">
-        <v>451</v>
-      </c>
-      <c r="LW4" t="s">
-        <v>452</v>
-      </c>
-      <c r="LX4" t="s">
-        <v>442</v>
-      </c>
-      <c r="LY4" t="s">
-        <v>442</v>
-      </c>
-      <c r="LZ4" t="s">
-        <v>453</v>
-      </c>
-      <c r="MA4" t="s">
-        <v>454</v>
-      </c>
-      <c r="MB4" t="s">
-        <v>455</v>
-      </c>
-      <c r="MC4" t="s">
-        <v>456</v>
-      </c>
-      <c r="MD4" t="s">
-        <v>457</v>
+      <c r="FL4" t="s">
+        <v>553</v>
+      </c>
+      <c r="FM4" t="s">
+        <v>554</v>
+      </c>
+      <c r="FN4" t="s">
+        <v>549</v>
+      </c>
+      <c r="FP4" t="s">
+        <v>495</v>
+      </c>
+      <c r="FR4" t="s">
+        <v>560</v>
+      </c>
+      <c r="FS4" t="s">
+        <v>568</v>
+      </c>
+      <c r="FT4" t="s">
+        <v>574</v>
+      </c>
+      <c r="FU4" t="s">
+        <v>578</v>
+      </c>
+      <c r="HM4" t="s">
+        <v>609</v>
+      </c>
+      <c r="HN4" t="s">
+        <v>612</v>
+      </c>
+      <c r="HO4" t="s">
+        <v>614</v>
+      </c>
+      <c r="HP4" t="s">
+        <v>617</v>
+      </c>
+      <c r="HQ4" t="s">
+        <v>620</v>
+      </c>
+      <c r="HR4" t="s">
+        <v>590</v>
+      </c>
+      <c r="HS4" t="s">
+        <v>591</v>
+      </c>
+      <c r="HT4" t="s">
+        <v>591</v>
+      </c>
+      <c r="HU4" t="s">
+        <v>591</v>
+      </c>
+      <c r="HV4" t="s">
+        <v>591</v>
+      </c>
+      <c r="HW4" t="s">
+        <v>591</v>
+      </c>
+      <c r="HX4" t="s">
+        <v>591</v>
+      </c>
+      <c r="HY4" t="s">
+        <v>591</v>
+      </c>
+      <c r="HZ4" t="s">
+        <v>591</v>
+      </c>
+      <c r="IA4" t="s">
+        <v>622</v>
+      </c>
+      <c r="IB4" t="s">
+        <v>599</v>
+      </c>
+      <c r="IC4" t="s">
+        <v>590</v>
+      </c>
+      <c r="ID4" t="s">
+        <v>591</v>
+      </c>
+      <c r="IE4" t="s">
+        <v>591</v>
+      </c>
+      <c r="IF4" t="s">
+        <v>591</v>
+      </c>
+      <c r="IG4" t="s">
+        <v>591</v>
+      </c>
+      <c r="IH4" t="s">
+        <v>591</v>
+      </c>
+      <c r="II4" t="s">
+        <v>590</v>
+      </c>
+      <c r="IJ4" t="s">
+        <v>590</v>
+      </c>
+      <c r="IK4" t="s">
+        <v>591</v>
+      </c>
+      <c r="IL4" t="s">
+        <v>590</v>
+      </c>
+      <c r="IM4" t="s">
+        <v>591</v>
+      </c>
+      <c r="IN4" t="s">
+        <v>590</v>
+      </c>
+      <c r="IO4" t="s">
+        <v>599</v>
       </c>
     </row>
-    <row r="5" spans="1:371">
+    <row r="5" spans="1:491">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>370</v>
+        <v>490</v>
       </c>
       <c r="C5" t="b">
         <v>0</v>
       </c>
       <c r="D5" t="s">
-        <v>371</v>
+        <v>491</v>
       </c>
       <c r="E5" t="s">
-        <v>372</v>
+        <v>492</v>
       </c>
       <c r="H5" t="s">
-        <v>376</v>
+        <v>496</v>
       </c>
       <c r="I5" t="s">
-        <v>381</v>
+        <v>504</v>
       </c>
       <c r="J5" t="b">
         <v>1</v>
@@ -3796,189 +4739,276 @@
         <v>1</v>
       </c>
       <c r="M5" t="s">
-        <v>386</v>
+        <v>512</v>
       </c>
       <c r="O5" t="s">
-        <v>391</v>
+        <v>520</v>
       </c>
       <c r="P5" t="s">
-        <v>395</v>
+        <v>527</v>
       </c>
       <c r="Q5" t="s">
-        <v>396</v>
+        <v>530</v>
       </c>
       <c r="R5" t="s">
-        <v>397</v>
+        <v>531</v>
       </c>
       <c r="S5" t="s">
-        <v>398</v>
+        <v>532</v>
       </c>
       <c r="T5" t="s">
-        <v>399</v>
+        <v>533</v>
       </c>
       <c r="U5">
-        <v>2314</v>
+        <v>3505</v>
       </c>
       <c r="V5" s="2" t="s">
-        <v>403</v>
+        <v>537</v>
       </c>
       <c r="W5" t="s">
-        <v>396</v>
+        <v>530</v>
       </c>
       <c r="X5" t="s">
-        <v>405</v>
+        <v>542</v>
       </c>
       <c r="Y5" t="s">
-        <v>397</v>
+        <v>531</v>
       </c>
       <c r="Z5" t="s">
-        <v>398</v>
+        <v>532</v>
       </c>
       <c r="AA5" s="2" t="s">
-        <v>406</v>
+        <v>543</v>
       </c>
       <c r="AB5" t="s">
-        <v>410</v>
+        <v>545</v>
       </c>
       <c r="AC5" t="s">
-        <v>411</v>
+        <v>549</v>
       </c>
       <c r="AD5" s="2" t="s">
-        <v>413</v>
+        <v>551</v>
       </c>
       <c r="AE5" t="s">
-        <v>414</v>
+        <v>552</v>
       </c>
       <c r="AF5">
         <v>669</v>
       </c>
       <c r="AG5" t="s">
-        <v>415</v>
+        <v>553</v>
       </c>
       <c r="AH5" t="s">
-        <v>418</v>
+        <v>556</v>
       </c>
       <c r="AI5" t="s">
-        <v>411</v>
+        <v>549</v>
       </c>
       <c r="AK5" t="s">
-        <v>376</v>
+        <v>496</v>
       </c>
       <c r="AL5" t="s">
-        <v>422</v>
+        <v>561</v>
       </c>
       <c r="AM5" t="s">
-        <v>427</v>
+        <v>569</v>
       </c>
       <c r="AN5" t="s">
-        <v>431</v>
+        <v>576</v>
       </c>
       <c r="AO5" t="s">
-        <v>434</v>
+        <v>580</v>
       </c>
       <c r="AP5" t="s">
-        <v>436</v>
+        <v>582</v>
       </c>
       <c r="AQ5" t="s">
-        <v>439</v>
-      </c>
-      <c r="CI5" t="s">
-        <v>411</v>
-      </c>
-      <c r="CK5" t="s">
-        <v>414</v>
-      </c>
-      <c r="CL5">
+        <v>585</v>
+      </c>
+      <c r="FH5" t="s">
+        <v>549</v>
+      </c>
+      <c r="FJ5" t="s">
+        <v>552</v>
+      </c>
+      <c r="FK5">
         <v>669</v>
       </c>
-      <c r="CM5" t="s">
-        <v>415</v>
-      </c>
-      <c r="CN5" t="s">
-        <v>418</v>
-      </c>
-      <c r="CO5" t="s">
-        <v>411</v>
-      </c>
-      <c r="CQ5" t="s">
-        <v>376</v>
-      </c>
-      <c r="CS5" t="s">
-        <v>422</v>
-      </c>
-      <c r="CT5" t="s">
-        <v>427</v>
-      </c>
-      <c r="CU5" t="s">
-        <v>431</v>
-      </c>
-      <c r="CV5" t="s">
-        <v>434</v>
-      </c>
-      <c r="ME5" t="s">
-        <v>458</v>
-      </c>
-      <c r="MG5" t="s">
-        <v>461</v>
-      </c>
-      <c r="MH5" t="s">
-        <v>463</v>
-      </c>
-      <c r="MJ5" t="s">
-        <v>445</v>
-      </c>
-      <c r="MN5" t="s">
-        <v>442</v>
-      </c>
-      <c r="MS5" t="s">
-        <v>466</v>
-      </c>
-      <c r="MT5" t="s">
-        <v>442</v>
-      </c>
-      <c r="MU5" t="s">
-        <v>445</v>
-      </c>
-      <c r="NA5" t="s">
-        <v>445</v>
-      </c>
-      <c r="NB5" t="s">
-        <v>445</v>
-      </c>
-      <c r="NC5" t="s">
-        <v>442</v>
-      </c>
-      <c r="ND5" t="s">
-        <v>445</v>
-      </c>
-      <c r="NF5" t="s">
-        <v>445</v>
-      </c>
-      <c r="NG5" t="s">
-        <v>444</v>
+      <c r="FL5" t="s">
+        <v>553</v>
+      </c>
+      <c r="FM5" t="s">
+        <v>556</v>
+      </c>
+      <c r="FN5" t="s">
+        <v>549</v>
+      </c>
+      <c r="FP5" t="s">
+        <v>496</v>
+      </c>
+      <c r="FR5" t="s">
+        <v>561</v>
+      </c>
+      <c r="FS5" t="s">
+        <v>569</v>
+      </c>
+      <c r="FT5" t="s">
+        <v>576</v>
+      </c>
+      <c r="FU5" t="s">
+        <v>580</v>
+      </c>
+      <c r="FV5" t="s">
+        <v>606</v>
+      </c>
+      <c r="FW5" t="s">
+        <v>591</v>
+      </c>
+      <c r="FX5" t="s">
+        <v>591</v>
+      </c>
+      <c r="FY5" t="s">
+        <v>591</v>
+      </c>
+      <c r="FZ5" t="s">
+        <v>591</v>
+      </c>
+      <c r="GA5" t="s">
+        <v>591</v>
+      </c>
+      <c r="GB5" t="s">
+        <v>591</v>
+      </c>
+      <c r="GC5" t="s">
+        <v>591</v>
+      </c>
+      <c r="GD5" t="s">
+        <v>591</v>
+      </c>
+      <c r="GE5" t="s">
+        <v>591</v>
+      </c>
+      <c r="GF5" t="s">
+        <v>591</v>
+      </c>
+      <c r="GG5" t="s">
+        <v>591</v>
+      </c>
+      <c r="GH5" t="s">
+        <v>591</v>
+      </c>
+      <c r="GI5" t="s">
+        <v>608</v>
+      </c>
+      <c r="GJ5" t="s">
+        <v>591</v>
+      </c>
+      <c r="GK5" t="s">
+        <v>591</v>
+      </c>
+      <c r="GL5" t="s">
+        <v>591</v>
+      </c>
+      <c r="GM5" t="s">
+        <v>591</v>
+      </c>
+      <c r="GN5" t="s">
+        <v>599</v>
+      </c>
+      <c r="GO5" t="s">
+        <v>599</v>
+      </c>
+      <c r="GP5" t="s">
+        <v>591</v>
+      </c>
+      <c r="GQ5" t="s">
+        <v>591</v>
+      </c>
+      <c r="GR5" t="s">
+        <v>591</v>
+      </c>
+      <c r="GS5" t="s">
+        <v>591</v>
+      </c>
+      <c r="GT5" t="s">
+        <v>591</v>
+      </c>
+      <c r="GU5" t="s">
+        <v>591</v>
+      </c>
+      <c r="GV5" t="s">
+        <v>591</v>
+      </c>
+      <c r="GW5" t="s">
+        <v>591</v>
+      </c>
+      <c r="GX5" t="s">
+        <v>590</v>
+      </c>
+      <c r="GY5" t="s">
+        <v>591</v>
+      </c>
+      <c r="GZ5" t="s">
+        <v>590</v>
+      </c>
+      <c r="HA5" t="s">
+        <v>591</v>
+      </c>
+      <c r="HB5" t="s">
+        <v>591</v>
+      </c>
+      <c r="HC5" t="s">
+        <v>591</v>
+      </c>
+      <c r="HD5" t="s">
+        <v>591</v>
+      </c>
+      <c r="HE5" t="s">
+        <v>590</v>
+      </c>
+      <c r="HF5" t="s">
+        <v>591</v>
+      </c>
+      <c r="HG5" t="s">
+        <v>591</v>
+      </c>
+      <c r="HH5" t="s">
+        <v>591</v>
+      </c>
+      <c r="HI5" t="s">
+        <v>591</v>
+      </c>
+      <c r="HJ5" t="s">
+        <v>591</v>
+      </c>
+      <c r="HK5" t="s">
+        <v>590</v>
+      </c>
+      <c r="HL5" t="s">
+        <v>591</v>
       </c>
     </row>
-    <row r="6" spans="1:371">
+    <row r="6" spans="1:491">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>370</v>
+        <v>490</v>
       </c>
       <c r="C6" t="b">
         <v>0</v>
       </c>
       <c r="D6" t="s">
-        <v>371</v>
+        <v>491</v>
       </c>
       <c r="E6" t="s">
-        <v>372</v>
+        <v>492</v>
       </c>
       <c r="H6" t="s">
-        <v>377</v>
+        <v>497</v>
       </c>
       <c r="I6" t="s">
-        <v>382</v>
+        <v>505</v>
       </c>
       <c r="J6" t="b">
         <v>1</v>
@@ -3987,181 +5017,949 @@
         <v>1</v>
       </c>
       <c r="M6" t="s">
-        <v>387</v>
+        <v>513</v>
       </c>
       <c r="O6" t="s">
-        <v>392</v>
+        <v>521</v>
       </c>
       <c r="P6" t="s">
-        <v>395</v>
+        <v>527</v>
       </c>
       <c r="Q6" t="s">
-        <v>396</v>
+        <v>530</v>
       </c>
       <c r="R6" t="s">
-        <v>397</v>
+        <v>531</v>
       </c>
       <c r="S6" t="s">
-        <v>398</v>
+        <v>532</v>
       </c>
       <c r="T6" t="s">
-        <v>399</v>
+        <v>533</v>
       </c>
       <c r="U6">
-        <v>2626</v>
+        <v>12359</v>
       </c>
       <c r="V6" s="2" t="s">
-        <v>404</v>
+        <v>538</v>
       </c>
       <c r="W6" t="s">
-        <v>396</v>
+        <v>530</v>
       </c>
       <c r="X6" t="s">
-        <v>405</v>
+        <v>542</v>
       </c>
       <c r="Y6" t="s">
-        <v>397</v>
+        <v>531</v>
       </c>
       <c r="Z6" t="s">
-        <v>398</v>
+        <v>532</v>
       </c>
       <c r="AA6" s="2" t="s">
-        <v>406</v>
+        <v>543</v>
       </c>
       <c r="AB6" t="s">
-        <v>410</v>
+        <v>547</v>
       </c>
       <c r="AC6" t="s">
-        <v>411</v>
+        <v>549</v>
       </c>
       <c r="AD6" s="2" t="s">
-        <v>413</v>
+        <v>551</v>
       </c>
       <c r="AE6" t="s">
-        <v>414</v>
+        <v>552</v>
       </c>
       <c r="AF6">
         <v>669</v>
       </c>
       <c r="AG6" t="s">
-        <v>415</v>
+        <v>553</v>
       </c>
       <c r="AH6" t="s">
-        <v>417</v>
+        <v>556</v>
       </c>
       <c r="AI6" t="s">
-        <v>411</v>
+        <v>549</v>
       </c>
       <c r="AK6" t="s">
-        <v>377</v>
+        <v>497</v>
       </c>
       <c r="AL6" t="s">
-        <v>423</v>
+        <v>562</v>
       </c>
       <c r="AM6" t="s">
-        <v>428</v>
+        <v>570</v>
       </c>
       <c r="AN6" t="s">
-        <v>430</v>
+        <v>576</v>
       </c>
       <c r="AO6" t="s">
-        <v>433</v>
+        <v>580</v>
       </c>
       <c r="AP6" t="s">
-        <v>437</v>
+        <v>582</v>
       </c>
       <c r="AQ6" t="s">
-        <v>440</v>
-      </c>
-      <c r="CI6" t="s">
-        <v>411</v>
-      </c>
-      <c r="CK6" t="s">
-        <v>414</v>
-      </c>
-      <c r="CL6">
+        <v>585</v>
+      </c>
+      <c r="FH6" t="s">
+        <v>549</v>
+      </c>
+      <c r="FJ6" t="s">
+        <v>552</v>
+      </c>
+      <c r="FK6">
         <v>669</v>
       </c>
-      <c r="CM6" t="s">
-        <v>415</v>
-      </c>
-      <c r="CN6" t="s">
-        <v>417</v>
-      </c>
-      <c r="CO6" t="s">
-        <v>411</v>
-      </c>
-      <c r="CQ6" t="s">
-        <v>377</v>
-      </c>
-      <c r="CS6" t="s">
-        <v>423</v>
-      </c>
-      <c r="CT6" t="s">
-        <v>428</v>
-      </c>
-      <c r="CU6" t="s">
-        <v>430</v>
-      </c>
-      <c r="CV6" t="s">
-        <v>433</v>
-      </c>
-      <c r="ME6" t="s">
-        <v>459</v>
-      </c>
-      <c r="MF6" t="s">
-        <v>460</v>
-      </c>
-      <c r="MG6" t="s">
-        <v>462</v>
-      </c>
-      <c r="MH6" t="s">
-        <v>464</v>
-      </c>
-      <c r="MI6" t="s">
-        <v>465</v>
-      </c>
-      <c r="MJ6" t="s">
-        <v>445</v>
-      </c>
-      <c r="MM6" t="s">
-        <v>442</v>
-      </c>
-      <c r="MN6" t="s">
-        <v>442</v>
-      </c>
-      <c r="MO6" t="s">
-        <v>442</v>
-      </c>
-      <c r="MS6" t="s">
-        <v>467</v>
-      </c>
-      <c r="MT6" t="s">
-        <v>442</v>
-      </c>
-      <c r="MU6" t="s">
-        <v>445</v>
-      </c>
-      <c r="MV6" t="s">
-        <v>442</v>
-      </c>
-      <c r="NA6" t="s">
-        <v>445</v>
-      </c>
-      <c r="NB6" t="s">
-        <v>445</v>
-      </c>
-      <c r="NC6" t="s">
-        <v>442</v>
-      </c>
-      <c r="ND6" t="s">
-        <v>445</v>
-      </c>
-      <c r="NF6" t="s">
-        <v>445</v>
-      </c>
-      <c r="NG6" t="s">
-        <v>442</v>
+      <c r="FL6" t="s">
+        <v>553</v>
+      </c>
+      <c r="FM6" t="s">
+        <v>556</v>
+      </c>
+      <c r="FN6" t="s">
+        <v>549</v>
+      </c>
+      <c r="FP6" t="s">
+        <v>497</v>
+      </c>
+      <c r="FR6" t="s">
+        <v>562</v>
+      </c>
+      <c r="FS6" t="s">
+        <v>570</v>
+      </c>
+      <c r="FT6" t="s">
+        <v>576</v>
+      </c>
+      <c r="FU6" t="s">
+        <v>580</v>
+      </c>
+      <c r="IP6" t="s">
+        <v>625</v>
+      </c>
+      <c r="IQ6" t="s">
+        <v>591</v>
+      </c>
+      <c r="IR6" t="s">
+        <v>591</v>
+      </c>
+      <c r="IS6" t="s">
+        <v>590</v>
+      </c>
+      <c r="IT6" t="s">
+        <v>591</v>
+      </c>
+      <c r="IU6" t="s">
+        <v>591</v>
+      </c>
+      <c r="IV6" t="s">
+        <v>591</v>
+      </c>
+      <c r="IW6" t="s">
+        <v>591</v>
+      </c>
+      <c r="IX6" t="s">
+        <v>591</v>
+      </c>
+      <c r="IY6" t="s">
+        <v>591</v>
+      </c>
+      <c r="IZ6" t="s">
+        <v>591</v>
+      </c>
+      <c r="JA6" t="s">
+        <v>591</v>
+      </c>
+      <c r="JB6" t="s">
+        <v>599</v>
+      </c>
+      <c r="JC6" t="s">
+        <v>591</v>
+      </c>
+      <c r="JD6" t="s">
+        <v>625</v>
+      </c>
+      <c r="JE6" t="s">
+        <v>591</v>
+      </c>
+      <c r="JF6" t="s">
+        <v>591</v>
+      </c>
+      <c r="JG6" t="s">
+        <v>590</v>
+      </c>
+      <c r="JH6" t="s">
+        <v>591</v>
+      </c>
+      <c r="JI6" t="s">
+        <v>591</v>
+      </c>
+      <c r="JJ6" t="s">
+        <v>591</v>
+      </c>
+      <c r="JK6" t="s">
+        <v>591</v>
+      </c>
+      <c r="JL6" t="s">
+        <v>591</v>
+      </c>
+      <c r="JM6" t="s">
+        <v>591</v>
+      </c>
+      <c r="JN6" t="s">
+        <v>591</v>
+      </c>
+      <c r="JO6" t="s">
+        <v>599</v>
+      </c>
+      <c r="JP6" t="s">
+        <v>591</v>
+      </c>
+      <c r="PA6" t="s">
+        <v>590</v>
+      </c>
+      <c r="PK6" t="s">
+        <v>591</v>
+      </c>
+      <c r="PL6" t="s">
+        <v>591</v>
+      </c>
+      <c r="PM6" t="s">
+        <v>591</v>
+      </c>
+      <c r="PN6" t="s">
+        <v>590</v>
+      </c>
+      <c r="PO6" t="s">
+        <v>599</v>
+      </c>
+      <c r="PP6" t="s">
+        <v>599</v>
+      </c>
+      <c r="PQ6" t="s">
+        <v>591</v>
+      </c>
+      <c r="PR6" t="s">
+        <v>591</v>
+      </c>
+      <c r="PS6" t="s">
+        <v>591</v>
+      </c>
+      <c r="PT6" t="s">
+        <v>591</v>
+      </c>
+      <c r="PU6" t="s">
+        <v>591</v>
+      </c>
+      <c r="PV6" t="s">
+        <v>591</v>
+      </c>
+      <c r="PW6" t="s">
+        <v>591</v>
+      </c>
+      <c r="PX6" t="s">
+        <v>599</v>
+      </c>
+      <c r="PY6" t="s">
+        <v>599</v>
+      </c>
+      <c r="PZ6" t="s">
+        <v>591</v>
+      </c>
+      <c r="QA6" t="s">
+        <v>591</v>
+      </c>
+      <c r="QB6" t="s">
+        <v>591</v>
+      </c>
+      <c r="QC6" t="s">
+        <v>590</v>
+      </c>
+      <c r="QD6" t="s">
+        <v>626</v>
+      </c>
+      <c r="QE6" t="s">
+        <v>591</v>
+      </c>
+      <c r="QF6" t="s">
+        <v>591</v>
+      </c>
+      <c r="QG6" t="s">
+        <v>591</v>
+      </c>
+      <c r="QH6" t="s">
+        <v>591</v>
+      </c>
+      <c r="QI6" t="s">
+        <v>590</v>
+      </c>
+      <c r="QJ6" t="s">
+        <v>591</v>
+      </c>
+      <c r="QK6" t="s">
+        <v>591</v>
+      </c>
+      <c r="QL6" t="s">
+        <v>591</v>
+      </c>
+      <c r="QM6" t="s">
+        <v>591</v>
+      </c>
+      <c r="QN6" t="s">
+        <v>591</v>
+      </c>
+      <c r="QO6" t="s">
+        <v>591</v>
+      </c>
+      <c r="QP6" t="s">
+        <v>591</v>
+      </c>
+      <c r="QQ6" t="s">
+        <v>591</v>
+      </c>
+      <c r="QR6" t="s">
+        <v>591</v>
+      </c>
+      <c r="QS6" t="s">
+        <v>591</v>
+      </c>
+      <c r="QT6" t="s">
+        <v>591</v>
+      </c>
+      <c r="QU6" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="7" spans="1:491">
+      <c r="A7" s="1">
+        <v>5</v>
+      </c>
+      <c r="B7" t="s">
+        <v>490</v>
+      </c>
+      <c r="C7" t="b">
+        <v>0</v>
+      </c>
+      <c r="D7" t="s">
+        <v>491</v>
+      </c>
+      <c r="E7" t="s">
+        <v>492</v>
+      </c>
+      <c r="H7" t="s">
+        <v>498</v>
+      </c>
+      <c r="I7" t="s">
+        <v>506</v>
+      </c>
+      <c r="J7" t="b">
+        <v>1</v>
+      </c>
+      <c r="K7" t="b">
+        <v>1</v>
+      </c>
+      <c r="M7" t="s">
+        <v>514</v>
+      </c>
+      <c r="O7" t="s">
+        <v>522</v>
+      </c>
+      <c r="P7" t="s">
+        <v>528</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>530</v>
+      </c>
+      <c r="R7" t="s">
+        <v>531</v>
+      </c>
+      <c r="S7" t="s">
+        <v>532</v>
+      </c>
+      <c r="T7" t="s">
+        <v>533</v>
+      </c>
+      <c r="U7">
+        <v>6371</v>
+      </c>
+      <c r="V7" s="2" t="s">
+        <v>539</v>
+      </c>
+      <c r="W7" t="s">
+        <v>530</v>
+      </c>
+      <c r="X7" t="s">
+        <v>542</v>
+      </c>
+      <c r="Y7" t="s">
+        <v>531</v>
+      </c>
+      <c r="Z7" t="s">
+        <v>532</v>
+      </c>
+      <c r="AA7" s="2" t="s">
+        <v>543</v>
+      </c>
+      <c r="AB7" t="s">
+        <v>548</v>
+      </c>
+      <c r="AC7" t="s">
+        <v>550</v>
+      </c>
+      <c r="AD7" s="2" t="s">
+        <v>551</v>
+      </c>
+      <c r="AE7" t="s">
+        <v>552</v>
+      </c>
+      <c r="AF7">
+        <v>669</v>
+      </c>
+      <c r="AG7" t="s">
+        <v>553</v>
+      </c>
+      <c r="AH7" t="s">
+        <v>557</v>
+      </c>
+      <c r="AI7" t="s">
+        <v>549</v>
+      </c>
+      <c r="AK7" t="s">
+        <v>498</v>
+      </c>
+      <c r="AL7" t="s">
+        <v>563</v>
+      </c>
+      <c r="AM7" t="s">
+        <v>571</v>
+      </c>
+      <c r="AN7" t="s">
+        <v>577</v>
+      </c>
+      <c r="AO7" t="s">
+        <v>581</v>
+      </c>
+      <c r="AP7" t="s">
+        <v>582</v>
+      </c>
+      <c r="AQ7" t="s">
+        <v>585</v>
+      </c>
+      <c r="FH7" t="s">
+        <v>603</v>
+      </c>
+      <c r="FI7" t="s">
+        <v>604</v>
+      </c>
+      <c r="FJ7" t="s">
+        <v>552</v>
+      </c>
+      <c r="FK7">
+        <v>669</v>
+      </c>
+      <c r="FL7" t="s">
+        <v>553</v>
+      </c>
+      <c r="FM7" t="s">
+        <v>557</v>
+      </c>
+      <c r="FN7" t="s">
+        <v>549</v>
+      </c>
+      <c r="FP7" t="s">
+        <v>498</v>
+      </c>
+      <c r="FR7" t="s">
+        <v>563</v>
+      </c>
+      <c r="FS7" t="s">
+        <v>571</v>
+      </c>
+      <c r="FT7" t="s">
+        <v>577</v>
+      </c>
+      <c r="FU7" t="s">
+        <v>581</v>
+      </c>
+      <c r="QV7" t="s">
+        <v>599</v>
+      </c>
+      <c r="QW7" t="s">
+        <v>591</v>
+      </c>
+      <c r="QX7" t="s">
+        <v>591</v>
+      </c>
+      <c r="QY7" t="s">
+        <v>599</v>
+      </c>
+      <c r="QZ7" t="s">
+        <v>599</v>
+      </c>
+      <c r="RB7" t="s">
+        <v>599</v>
+      </c>
+      <c r="RC7" t="s">
+        <v>590</v>
+      </c>
+      <c r="RD7" t="s">
+        <v>599</v>
+      </c>
+      <c r="RE7" t="s">
+        <v>590</v>
+      </c>
+      <c r="RF7" t="s">
+        <v>590</v>
+      </c>
+      <c r="RG7" t="s">
+        <v>599</v>
+      </c>
+      <c r="RH7" t="s">
+        <v>591</v>
+      </c>
+      <c r="RI7" t="s">
+        <v>591</v>
+      </c>
+      <c r="RJ7" t="s">
+        <v>627</v>
+      </c>
+      <c r="RK7" t="s">
+        <v>591</v>
+      </c>
+      <c r="RL7" t="s">
+        <v>590</v>
+      </c>
+      <c r="RM7" t="s">
+        <v>599</v>
+      </c>
+      <c r="RN7" t="s">
+        <v>590</v>
+      </c>
+      <c r="RO7" t="s">
+        <v>628</v>
+      </c>
+      <c r="RP7" t="s">
+        <v>629</v>
+      </c>
+      <c r="RQ7" t="s">
+        <v>591</v>
+      </c>
+      <c r="RR7" t="s">
+        <v>591</v>
+      </c>
+      <c r="RS7" t="s">
+        <v>630</v>
+      </c>
+      <c r="RT7" t="s">
+        <v>631</v>
+      </c>
+      <c r="RU7" t="s">
+        <v>632</v>
+      </c>
+      <c r="RV7" t="s">
+        <v>633</v>
+      </c>
+      <c r="RW7" t="s">
+        <v>634</v>
+      </c>
+    </row>
+    <row r="8" spans="1:491">
+      <c r="A8" s="1">
+        <v>6</v>
+      </c>
+      <c r="B8" t="s">
+        <v>490</v>
+      </c>
+      <c r="C8" t="b">
+        <v>0</v>
+      </c>
+      <c r="D8" t="s">
+        <v>491</v>
+      </c>
+      <c r="E8" t="s">
+        <v>492</v>
+      </c>
+      <c r="H8" t="s">
+        <v>499</v>
+      </c>
+      <c r="I8" t="s">
+        <v>507</v>
+      </c>
+      <c r="J8" t="b">
+        <v>1</v>
+      </c>
+      <c r="K8" t="b">
+        <v>1</v>
+      </c>
+      <c r="M8" t="s">
+        <v>515</v>
+      </c>
+      <c r="O8" t="s">
+        <v>523</v>
+      </c>
+      <c r="P8" t="s">
+        <v>529</v>
+      </c>
+      <c r="Q8" t="s">
+        <v>530</v>
+      </c>
+      <c r="R8" t="s">
+        <v>531</v>
+      </c>
+      <c r="S8" t="s">
+        <v>532</v>
+      </c>
+      <c r="T8" t="s">
+        <v>533</v>
+      </c>
+      <c r="U8">
+        <v>2314</v>
+      </c>
+      <c r="V8" s="2" t="s">
+        <v>540</v>
+      </c>
+      <c r="W8" t="s">
+        <v>530</v>
+      </c>
+      <c r="X8" t="s">
+        <v>542</v>
+      </c>
+      <c r="Y8" t="s">
+        <v>531</v>
+      </c>
+      <c r="Z8" t="s">
+        <v>532</v>
+      </c>
+      <c r="AA8" s="2" t="s">
+        <v>543</v>
+      </c>
+      <c r="AB8" t="s">
+        <v>546</v>
+      </c>
+      <c r="AC8" t="s">
+        <v>549</v>
+      </c>
+      <c r="AD8" s="2" t="s">
+        <v>551</v>
+      </c>
+      <c r="AE8" t="s">
+        <v>552</v>
+      </c>
+      <c r="AF8">
+        <v>669</v>
+      </c>
+      <c r="AG8" t="s">
+        <v>553</v>
+      </c>
+      <c r="AH8" t="s">
+        <v>555</v>
+      </c>
+      <c r="AI8" t="s">
+        <v>549</v>
+      </c>
+      <c r="AK8" t="s">
+        <v>499</v>
+      </c>
+      <c r="AL8" t="s">
+        <v>564</v>
+      </c>
+      <c r="AM8" t="s">
+        <v>572</v>
+      </c>
+      <c r="AN8" t="s">
+        <v>575</v>
+      </c>
+      <c r="AO8" t="s">
+        <v>579</v>
+      </c>
+      <c r="AP8" t="s">
+        <v>583</v>
+      </c>
+      <c r="AQ8" t="s">
+        <v>587</v>
+      </c>
+      <c r="FH8" t="s">
+        <v>549</v>
+      </c>
+      <c r="FJ8" t="s">
+        <v>552</v>
+      </c>
+      <c r="FK8">
+        <v>669</v>
+      </c>
+      <c r="FL8" t="s">
+        <v>553</v>
+      </c>
+      <c r="FM8" t="s">
+        <v>555</v>
+      </c>
+      <c r="FN8" t="s">
+        <v>549</v>
+      </c>
+      <c r="FP8" t="s">
+        <v>499</v>
+      </c>
+      <c r="FR8" t="s">
+        <v>564</v>
+      </c>
+      <c r="FS8" t="s">
+        <v>572</v>
+      </c>
+      <c r="FT8" t="s">
+        <v>575</v>
+      </c>
+      <c r="FU8" t="s">
+        <v>579</v>
+      </c>
+      <c r="HM8" t="s">
+        <v>610</v>
+      </c>
+      <c r="HO8" t="s">
+        <v>615</v>
+      </c>
+      <c r="HP8" t="s">
+        <v>618</v>
+      </c>
+      <c r="HR8" t="s">
+        <v>590</v>
+      </c>
+      <c r="HV8" t="s">
+        <v>591</v>
+      </c>
+      <c r="IA8" t="s">
+        <v>623</v>
+      </c>
+      <c r="IB8" t="s">
+        <v>591</v>
+      </c>
+      <c r="IC8" t="s">
+        <v>590</v>
+      </c>
+      <c r="II8" t="s">
+        <v>590</v>
+      </c>
+      <c r="IJ8" t="s">
+        <v>590</v>
+      </c>
+      <c r="IK8" t="s">
+        <v>591</v>
+      </c>
+      <c r="IL8" t="s">
+        <v>590</v>
+      </c>
+      <c r="IN8" t="s">
+        <v>590</v>
+      </c>
+      <c r="IO8" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="9" spans="1:491">
+      <c r="A9" s="1">
+        <v>7</v>
+      </c>
+      <c r="B9" t="s">
+        <v>490</v>
+      </c>
+      <c r="C9" t="b">
+        <v>0</v>
+      </c>
+      <c r="D9" t="s">
+        <v>491</v>
+      </c>
+      <c r="E9" t="s">
+        <v>492</v>
+      </c>
+      <c r="H9" t="s">
+        <v>500</v>
+      </c>
+      <c r="I9" t="s">
+        <v>508</v>
+      </c>
+      <c r="J9" t="b">
+        <v>1</v>
+      </c>
+      <c r="K9" t="b">
+        <v>1</v>
+      </c>
+      <c r="M9" t="s">
+        <v>516</v>
+      </c>
+      <c r="O9" t="s">
+        <v>524</v>
+      </c>
+      <c r="P9" t="s">
+        <v>529</v>
+      </c>
+      <c r="Q9" t="s">
+        <v>530</v>
+      </c>
+      <c r="R9" t="s">
+        <v>531</v>
+      </c>
+      <c r="S9" t="s">
+        <v>532</v>
+      </c>
+      <c r="T9" t="s">
+        <v>533</v>
+      </c>
+      <c r="U9">
+        <v>2626</v>
+      </c>
+      <c r="V9" s="2" t="s">
+        <v>541</v>
+      </c>
+      <c r="W9" t="s">
+        <v>530</v>
+      </c>
+      <c r="X9" t="s">
+        <v>542</v>
+      </c>
+      <c r="Y9" t="s">
+        <v>531</v>
+      </c>
+      <c r="Z9" t="s">
+        <v>532</v>
+      </c>
+      <c r="AA9" s="2" t="s">
+        <v>543</v>
+      </c>
+      <c r="AB9" t="s">
+        <v>546</v>
+      </c>
+      <c r="AC9" t="s">
+        <v>549</v>
+      </c>
+      <c r="AD9" s="2" t="s">
+        <v>551</v>
+      </c>
+      <c r="AE9" t="s">
+        <v>552</v>
+      </c>
+      <c r="AF9">
+        <v>669</v>
+      </c>
+      <c r="AG9" t="s">
+        <v>553</v>
+      </c>
+      <c r="AH9" t="s">
+        <v>557</v>
+      </c>
+      <c r="AI9" t="s">
+        <v>549</v>
+      </c>
+      <c r="AK9" t="s">
+        <v>500</v>
+      </c>
+      <c r="AL9" t="s">
+        <v>565</v>
+      </c>
+      <c r="AM9" t="s">
+        <v>573</v>
+      </c>
+      <c r="AN9" t="s">
+        <v>577</v>
+      </c>
+      <c r="AO9" t="s">
+        <v>581</v>
+      </c>
+      <c r="AP9" t="s">
+        <v>584</v>
+      </c>
+      <c r="AQ9" t="s">
+        <v>588</v>
+      </c>
+      <c r="FH9" t="s">
+        <v>549</v>
+      </c>
+      <c r="FJ9" t="s">
+        <v>552</v>
+      </c>
+      <c r="FK9">
+        <v>669</v>
+      </c>
+      <c r="FL9" t="s">
+        <v>553</v>
+      </c>
+      <c r="FM9" t="s">
+        <v>557</v>
+      </c>
+      <c r="FN9" t="s">
+        <v>549</v>
+      </c>
+      <c r="FP9" t="s">
+        <v>500</v>
+      </c>
+      <c r="FR9" t="s">
+        <v>565</v>
+      </c>
+      <c r="FS9" t="s">
+        <v>573</v>
+      </c>
+      <c r="FT9" t="s">
+        <v>577</v>
+      </c>
+      <c r="FU9" t="s">
+        <v>581</v>
+      </c>
+      <c r="HM9" t="s">
+        <v>611</v>
+      </c>
+      <c r="HN9" t="s">
+        <v>613</v>
+      </c>
+      <c r="HO9" t="s">
+        <v>616</v>
+      </c>
+      <c r="HP9" t="s">
+        <v>619</v>
+      </c>
+      <c r="HQ9" t="s">
+        <v>621</v>
+      </c>
+      <c r="HR9" t="s">
+        <v>590</v>
+      </c>
+      <c r="HU9" t="s">
+        <v>591</v>
+      </c>
+      <c r="HV9" t="s">
+        <v>591</v>
+      </c>
+      <c r="HW9" t="s">
+        <v>591</v>
+      </c>
+      <c r="IA9" t="s">
+        <v>624</v>
+      </c>
+      <c r="IB9" t="s">
+        <v>591</v>
+      </c>
+      <c r="IC9" t="s">
+        <v>590</v>
+      </c>
+      <c r="ID9" t="s">
+        <v>591</v>
+      </c>
+      <c r="II9" t="s">
+        <v>590</v>
+      </c>
+      <c r="IJ9" t="s">
+        <v>590</v>
+      </c>
+      <c r="IK9" t="s">
+        <v>591</v>
+      </c>
+      <c r="IL9" t="s">
+        <v>590</v>
+      </c>
+      <c r="IN9" t="s">
+        <v>590</v>
+      </c>
+      <c r="IO9" t="s">
+        <v>591</v>
       </c>
     </row>
   </sheetData>
@@ -4181,6 +5979,15 @@
     <hyperlink ref="V6" r:id="rId13"/>
     <hyperlink ref="AA6" r:id="rId14"/>
     <hyperlink ref="AD6" r:id="rId15"/>
+    <hyperlink ref="V7" r:id="rId16"/>
+    <hyperlink ref="AA7" r:id="rId17"/>
+    <hyperlink ref="AD7" r:id="rId18"/>
+    <hyperlink ref="V8" r:id="rId19"/>
+    <hyperlink ref="AA8" r:id="rId20"/>
+    <hyperlink ref="AD8" r:id="rId21"/>
+    <hyperlink ref="V9" r:id="rId22"/>
+    <hyperlink ref="AA9" r:id="rId23"/>
+    <hyperlink ref="AD9" r:id="rId24"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/test.xlsx
+++ b/test.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1154" uniqueCount="635">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1225" uniqueCount="649">
   <si>
     <t>app_id</t>
   </si>
@@ -97,6 +97,78 @@
     <t>form.activity_and_time_period_under_review.section</t>
   </si>
   <si>
+    <t>form.copy-1-of-data_quality_assessment.adverseEvents2WT</t>
+  </si>
+  <si>
+    <t>form.copy-1-of-data_quality_assessment.clientConcerns2WT</t>
+  </si>
+  <si>
+    <t>form.copy-1-of-data_quality_assessment.clientSatisfaction2WT</t>
+  </si>
+  <si>
+    <t>form.copy-1-of-data_quality_assessment.dataAccuracy2WT</t>
+  </si>
+  <si>
+    <t>form.copy-1-of-data_quality_assessment.demographicAnalysis2WT</t>
+  </si>
+  <si>
+    <t>form.copy-1-of-data_quality_assessment.ehrEnrollmentRate</t>
+  </si>
+  <si>
+    <t>form.copy-1-of-data_quality_assessment.ehrUsage</t>
+  </si>
+  <si>
+    <t>form.copy-1-of-data_quality_assessment.electronic_health_record_ehr_-_look_at_total_number_of_clients_circumcised_</t>
+  </si>
+  <si>
+    <t>form.copy-1-of-data_quality_assessment.enrollmentRate2WT</t>
+  </si>
+  <si>
+    <t>form.copy-1-of-data_quality_assessment.linkages_and_referrals</t>
+  </si>
+  <si>
+    <t>form.copy-1-of-data_quality_assessment.look_at_total_number_of_clients_circumcised_by_the_site_in_the_past_three_m</t>
+  </si>
+  <si>
+    <t>form.copy-1-of-data_quality_assessment.optOurRate2WT</t>
+  </si>
+  <si>
+    <t>form.copy-1-of-data_quality_assessment.referralDocumentation</t>
+  </si>
+  <si>
+    <t>form.copy-1-of-data_quality_assessment.staffTraining2WT</t>
+  </si>
+  <si>
+    <t>form.copy-1-of-data_quality_assessment.twoWayComment</t>
+  </si>
+  <si>
+    <t>form.data_quality_assessment.aeDocumentation</t>
+  </si>
+  <si>
+    <t>form.data_quality_assessment.client_record_review_-_the_assesors_should_sample_at_least_twenty_five_25_c</t>
+  </si>
+  <si>
+    <t>form.data_quality_assessment.consentForms</t>
+  </si>
+  <si>
+    <t>form.data_quality_assessment.data_triangulation</t>
+  </si>
+  <si>
+    <t>form.data_quality_assessment.meOverallComment</t>
+  </si>
+  <si>
+    <t>form.data_quality_assessment.month_year_repeat_group</t>
+  </si>
+  <si>
+    <t>form.data_quality_assessment.recordFilling</t>
+  </si>
+  <si>
+    <t>form.data_quality_assessment.recordsSecure</t>
+  </si>
+  <si>
+    <t>form.data_quality_assessment.sampleCIFChecking</t>
+  </si>
+  <si>
     <t>form.ending_month_to_numeric</t>
   </si>
   <si>
@@ -136,12 +208,66 @@
     <t>form.meta.username</t>
   </si>
   <si>
+    <t>form.period_under_review_starting_point.period_under_review_ending_point.endingMonth</t>
+  </si>
+  <si>
+    <t>form.period_under_review_starting_point.period_under_review_ending_point.endingYear</t>
+  </si>
+  <si>
+    <t>form.period_under_review_starting_point.startingMonth</t>
+  </si>
+  <si>
+    <t>form.period_under_review_starting_point.startingYear</t>
+  </si>
+  <si>
     <t>form.question2.District</t>
   </si>
   <si>
     <t>form.question2.facility</t>
   </si>
   <si>
+    <t>form.starting_month_to_numeric</t>
+  </si>
+  <si>
+    <t>form.totalMonths</t>
+  </si>
+  <si>
+    <t>metadata.appVersion</t>
+  </si>
+  <si>
+    <t>metadata.app_build_version</t>
+  </si>
+  <si>
+    <t>metadata.commcare_version</t>
+  </si>
+  <si>
+    <t>metadata.deviceID</t>
+  </si>
+  <si>
+    <t>metadata.drift</t>
+  </si>
+  <si>
+    <t>metadata.geo_point</t>
+  </si>
+  <si>
+    <t>metadata.instanceID</t>
+  </si>
+  <si>
+    <t>metadata.location</t>
+  </si>
+  <si>
+    <t>metadata.timeEnd</t>
+  </si>
+  <si>
+    <t>metadata.timeStart</t>
+  </si>
+  <si>
+    <t>metadata.userID</t>
+  </si>
+  <si>
+    <t>metadata.username</t>
+  </si>
+  <si>
     <t>form.question3.availableKits</t>
   </si>
   <si>
@@ -502,48 +628,6 @@
     <t>form.section_a_-_facilities_supplies_equipment_and_emergency_management.waitingSpace</t>
   </si>
   <si>
-    <t>form.starting_month_to_numeric</t>
-  </si>
-  <si>
-    <t>form.totalMonths</t>
-  </si>
-  <si>
-    <t>metadata.appVersion</t>
-  </si>
-  <si>
-    <t>metadata.app_build_version</t>
-  </si>
-  <si>
-    <t>metadata.commcare_version</t>
-  </si>
-  <si>
-    <t>metadata.deviceID</t>
-  </si>
-  <si>
-    <t>metadata.drift</t>
-  </si>
-  <si>
-    <t>metadata.geo_point</t>
-  </si>
-  <si>
-    <t>metadata.instanceID</t>
-  </si>
-  <si>
-    <t>metadata.location</t>
-  </si>
-  <si>
-    <t>metadata.timeEnd</t>
-  </si>
-  <si>
-    <t>metadata.timeStart</t>
-  </si>
-  <si>
-    <t>metadata.userID</t>
-  </si>
-  <si>
-    <t>metadata.username</t>
-  </si>
-  <si>
     <t>form.section_d_-_sops_guidelines_policies_and_job_aids_-_sops_guidelines_policie.SOPOverallComment</t>
   </si>
   <si>
@@ -1402,90 +1486,6 @@
     <t>form.section_e_-_communication.sessionNotInterruptedPreOp</t>
   </si>
   <si>
-    <t>form.copy-1-of-data_quality_assessment.adverseEvents2WT</t>
-  </si>
-  <si>
-    <t>form.copy-1-of-data_quality_assessment.clientConcerns2WT</t>
-  </si>
-  <si>
-    <t>form.copy-1-of-data_quality_assessment.clientSatisfaction2WT</t>
-  </si>
-  <si>
-    <t>form.copy-1-of-data_quality_assessment.dataAccuracy2WT</t>
-  </si>
-  <si>
-    <t>form.copy-1-of-data_quality_assessment.demographicAnalysis2WT</t>
-  </si>
-  <si>
-    <t>form.copy-1-of-data_quality_assessment.ehrEnrollmentRate</t>
-  </si>
-  <si>
-    <t>form.copy-1-of-data_quality_assessment.ehrUsage</t>
-  </si>
-  <si>
-    <t>form.copy-1-of-data_quality_assessment.electronic_health_record_ehr_-_look_at_total_number_of_clients_circumcised_</t>
-  </si>
-  <si>
-    <t>form.copy-1-of-data_quality_assessment.enrollmentRate2WT</t>
-  </si>
-  <si>
-    <t>form.copy-1-of-data_quality_assessment.linkages_and_referrals</t>
-  </si>
-  <si>
-    <t>form.copy-1-of-data_quality_assessment.look_at_total_number_of_clients_circumcised_by_the_site_in_the_past_three_m</t>
-  </si>
-  <si>
-    <t>form.copy-1-of-data_quality_assessment.optOurRate2WT</t>
-  </si>
-  <si>
-    <t>form.copy-1-of-data_quality_assessment.referralDocumentation</t>
-  </si>
-  <si>
-    <t>form.copy-1-of-data_quality_assessment.staffTraining2WT</t>
-  </si>
-  <si>
-    <t>form.copy-1-of-data_quality_assessment.twoWayComment</t>
-  </si>
-  <si>
-    <t>form.data_quality_assessment.aeDocumentation</t>
-  </si>
-  <si>
-    <t>form.data_quality_assessment.client_record_review_-_the_assesors_should_sample_at_least_twenty_five_25_c</t>
-  </si>
-  <si>
-    <t>form.data_quality_assessment.consentForms</t>
-  </si>
-  <si>
-    <t>form.data_quality_assessment.data_triangulation</t>
-  </si>
-  <si>
-    <t>form.data_quality_assessment.meOverallComment</t>
-  </si>
-  <si>
-    <t>form.data_quality_assessment.month_year_repeat_group</t>
-  </si>
-  <si>
-    <t>form.data_quality_assessment.recordFilling</t>
-  </si>
-  <si>
-    <t>form.data_quality_assessment.recordsSecure</t>
-  </si>
-  <si>
-    <t>form.data_quality_assessment.sampleCIFChecking</t>
-  </si>
-  <si>
-    <t>form.period_under_review_starting_point.period_under_review_ending_point.endingMonth</t>
-  </si>
-  <si>
-    <t>form.period_under_review_starting_point.period_under_review_ending_point.endingYear</t>
-  </si>
-  <si>
-    <t>form.period_under_review_starting_point.startingMonth</t>
-  </si>
-  <si>
-    <t>form.period_under_review_starting_point.startingYear</t>
-  </si>
-  <si>
     <t>0778c330a59625e988e36d5a7d0386b6</t>
   </si>
   <si>
@@ -1495,6 +1495,9 @@
     <t>zdip-qa</t>
   </si>
   <si>
+    <t>790f6955-16b9-4c5c-a546-76700864c7fe</t>
+  </si>
+  <si>
     <t>cc7729ee-ada1-4027-ade3-f891e0a37361</t>
   </si>
   <si>
@@ -1519,6 +1522,9 @@
     <t>a2abb0db-ac10-41fb-9d6b-67afa0100c3a</t>
   </si>
   <si>
+    <t>2025-06-30T16:51:35.935701Z</t>
+  </si>
+  <si>
     <t>2025-06-30T13:40:51.579918Z</t>
   </si>
   <si>
@@ -1543,6 +1549,9 @@
     <t>2025-06-30T05:42:07.802779Z</t>
   </si>
   <si>
+    <t>2025-06-30T16:51:35.768086Z</t>
+  </si>
+  <si>
     <t>2025-06-30T13:40:04.045084Z</t>
   </si>
   <si>
@@ -1567,6 +1576,9 @@
     <t>2025-06-30T05:42:07.558273Z</t>
   </si>
   <si>
+    <t>2025-06-30T16:51:35.863935Z</t>
+  </si>
+  <si>
     <t>2025-06-30T13:40:04.127781Z</t>
   </si>
   <si>
@@ -1591,6 +1603,9 @@
     <t>2025-06-30T05:42:07.666045Z</t>
   </si>
   <si>
+    <t>77.246.50.113</t>
+  </si>
+  <si>
     <t>102.128.79.238</t>
   </si>
   <si>
@@ -1618,6 +1633,9 @@
     <t>text/xml</t>
   </si>
   <si>
+    <t>https://zdip.zimttech.org/a/zdip-qa/api/form_attachment/v1/790f6955-16b9-4c5c-a546-76700864c7fe/form.xml</t>
+  </si>
+  <si>
     <t>https://zdip.zimttech.org/a/zdip-qa/api/form_attachment/v1/cc7729ee-ada1-4027-ade3-f891e0a37361/form.xml</t>
   </si>
   <si>
@@ -1648,6 +1666,9 @@
     <t>http://openrosa.org/formdesigner/72526D77-6087-4854-811D-97DBBA955075</t>
   </si>
   <si>
+    <t>b</t>
+  </si>
+  <si>
     <t>a</t>
   </si>
   <si>
@@ -1660,24 +1681,69 @@
     <t>e</t>
   </si>
   <si>
-    <t>b</t>
+    <t>yes</t>
+  </si>
+  <si>
+    <t>no</t>
+  </si>
+  <si>
+    <t>OK</t>
+  </si>
+  <si>
+    <t>1. The is a best practice case on Linkages documentation and reporting
+2. Site is enrolling into 2WT system
+3. Site should start enrolling clients into EHR</t>
+  </si>
+  <si>
+    <t>Facility not using EHR</t>
+  </si>
+  <si>
+    <t>1. Site documenting linkages on monthly summaries
+2. Summaries indicating HIV tested
+3. Site not entering clients into EHR
+4. Discrepancies noted between Reg , CIF and MRF</t>
+  </si>
+  <si>
+    <t>Data didnt tally for November 2024 and December 2024
+Recommendations:
+1) Facility MRFs for November and December had errors and need to be corrected to reflect the actual MCs that were conducted.
+2) CIF to be completed correctly, completely
+and without cancellations</t>
+  </si>
+  <si>
+    <t>[{'calculatedMonth': 'October', 'calculatedYear': '2024', 'calculated_month_numeric': '10', 'cifno': '86', 'copy-1-of-calculated_month_numeric': 'OK', 'copy-1-of-cifno': '86', 'current_iteration': '0', 'mrfmcs': '86', 'registermcs': '86'}, {'calculatedMonth': 'November', 'calculatedYear': '2024', 'calculated_month_numeric': '11', 'cifno': '73', 'copy-1-of-calculated_month_numeric': 'OK', 'copy-1-of-cifno': '73', 'current_iteration': '1', 'mrfmcs': '73', 'registermcs': '73'}, {'calculatedMonth': 'December', 'calculatedYear': '2024', 'calculated_month_numeric': '12', 'cifno': '55', 'copy-1-of-calculated_month_numeric': 'OK', 'copy-1-of-cifno': '55', 'current_iteration': '2', 'mrfmcs': '55', 'registermcs': '55'}, {'calculatedMonth': 'January', 'calculatedYear': '2025', 'calculated_month_numeric': '13', 'cifno': '50', 'copy-1-of-calculated_month_numeric': 'OK', 'copy-1-of-cifno': '0', 'current_iteration': '3', 'mrfmcs': '47', 'registermcs': '51'}, {'calculatedMonth': 'February', 'calculatedYear': '2025', 'calculated_month_numeric': '2', 'cifno': '49', 'copy-1-of-calculated_month_numeric': 'OK', 'copy-1-of-cifno': '49', 'current_iteration': '4', 'mrfmcs': '49', 'registermcs': '49'}, {'calculatedMonth': 'March', 'calculatedYear': '2025', 'calculated_month_numeric': '3', 'cifno': '92', 'copy-1-of-calculated_month_numeric': 'OK', 'copy-1-of-cifno': '92', 'current_iteration': '5', 'mrfmcs': '92', 'registermcs': '92'}, {'calculatedMonth': 'April', 'calculatedYear': '2025', 'calculated_month_numeric': '4', 'cifno': '88', 'copy-1-of-calculated_month_numeric': 'OK', 'copy-1-of-cifno': '88', 'current_iteration': '6', 'mrfmcs': '88', 'registermcs': '88'}, {'calculatedMonth': 'May', 'calculatedYear': '2025', 'calculated_month_numeric': '5', 'cifno': '104', 'copy-1-of-calculated_month_numeric': 'OK', 'copy-1-of-cifno': '104', 'current_iteration': '7', 'mrfmcs': '104', 'registermcs': '104'}]</t>
+  </si>
+  <si>
+    <t>[{'calculatedMonth': 'October', 'calculatedYear': '2024', 'calculated_month_numeric': '10', 'cifno': '15', 'copy-1-of-calculated_month_numeric': 'OK', 'copy-1-of-cifno': '15', 'current_iteration': '0', 'mrfmcs': '15', 'registermcs': '15'}, {'calculatedMonth': 'November', 'calculatedYear': '2024', 'calculated_month_numeric': '11', 'cifno': '50', 'copy-1-of-calculated_month_numeric': 'OK', 'copy-1-of-cifno': '47', 'current_iteration': '1', 'mrfmcs': '47', 'registermcs': '50'}, {'calculatedMonth': 'December', 'calculatedYear': '2024', 'calculated_month_numeric': '12', 'cifno': '24', 'copy-1-of-calculated_month_numeric': 'OK', 'copy-1-of-cifno': '21', 'current_iteration': '2', 'mrfmcs': '21', 'registermcs': '24'}, {'calculatedMonth': 'January', 'calculatedYear': '2025', 'calculated_month_numeric': '13', 'cifno': '9', 'copy-1-of-calculated_month_numeric': 'OK', 'copy-1-of-cifno': '9', 'current_iteration': '3', 'mrfmcs': '9', 'registermcs': '9'}, {'calculatedMonth': 'February', 'calculatedYear': '2025', 'calculated_month_numeric': '2', 'cifno': '24', 'copy-1-of-calculated_month_numeric': 'OK', 'copy-1-of-cifno': '24', 'current_iteration': '4', 'mrfmcs': '24', 'registermcs': '24'}, {'calculatedMonth': 'March', 'calculatedYear': '2025', 'calculated_month_numeric': '3', 'cifno': '22', 'copy-1-of-calculated_month_numeric': 'OK', 'copy-1-of-cifno': '22', 'current_iteration': '5', 'mrfmcs': '22', 'registermcs': '22'}, {'calculatedMonth': 'April', 'calculatedYear': '2025', 'calculated_month_numeric': '4', 'cifno': '30', 'copy-1-of-calculated_month_numeric': 'OK', 'copy-1-of-cifno': '30', 'current_iteration': '6', 'mrfmcs': '30', 'registermcs': '30'}, {'calculatedMonth': 'May', 'calculatedYear': '2025', 'calculated_month_numeric': '5', 'cifno': '31', 'copy-1-of-calculated_month_numeric': 'OK', 'copy-1-of-cifno': '31', 'current_iteration': '7', 'mrfmcs': '31', 'registermcs': '31'}]</t>
+  </si>
+  <si>
+    <t>Client_Name Client_Address dob MC_Method HIV_Testing_Offered_/HIV_Status_Data Medical_Screening_and_Physical_Examination</t>
+  </si>
+  <si>
+    <t>5</t>
   </si>
   <si>
     <t>0</t>
   </si>
   <si>
-    <t>5</t>
-  </si>
-  <si>
     <t>http://openrosa.org/jr/xforms</t>
   </si>
   <si>
+    <t>CommCare Android, version "2.57.0"(474021). App v669. CommCare Version 2.57.0. Build 474021, built on: 2025-06-13</t>
+  </si>
+  <si>
     <t>CommCare Android, version "2.56.1"(471796). App v669. CommCare Version 2.56.1. Build 471796, built on: 2025-05-12</t>
   </si>
   <si>
+    <t>2.57.0</t>
+  </si>
+  <si>
     <t>2.56.1</t>
   </si>
   <si>
+    <t>commcare_5c46f849-95c5-4b35-81a6-ef7089af885e</t>
+  </si>
+  <si>
     <t>commcare_caa24215-9754-41e7-a95e-8cc46f9c911d</t>
   </si>
   <si>
@@ -1690,6 +1756,9 @@
     <t>commcare_c0bf9f85-6d1f-4563-a7b5-e60f61118366</t>
   </si>
   <si>
+    <t>2025-06-30T16:51:34.453000Z</t>
+  </si>
+  <si>
     <t>2025-06-30T13:40:03.178000Z</t>
   </si>
   <si>
@@ -1714,6 +1783,9 @@
     <t>2025-06-30T05:42:04.719000Z</t>
   </si>
   <si>
+    <t>2025-06-30T14:24:47.412000Z</t>
+  </si>
+  <si>
     <t>2025-06-30T13:26:52.774000Z</t>
   </si>
   <si>
@@ -1738,60 +1810,72 @@
     <t>2025-06-30T05:39:11.832000Z</t>
   </si>
   <si>
+    <t>faa9986b11024e209d426230ef5dca1a</t>
+  </si>
+  <si>
     <t>84b17c17f402448cace92dac4fabcce2</t>
   </si>
   <si>
-    <t>faa9986b11024e209d426230ef5dca1a</t>
-  </si>
-  <si>
     <t>8aec26eba6c94a8a995d425584311644</t>
   </si>
   <si>
     <t>148b582ced074b30a11c93abdad751e5</t>
   </si>
   <si>
+    <t>fgwenzi</t>
+  </si>
+  <si>
     <t>tmunyaradzi</t>
   </si>
   <si>
-    <t>fgwenzi</t>
-  </si>
-  <si>
     <t>jgavhera</t>
   </si>
   <si>
     <t>amutenha</t>
   </si>
   <si>
+    <t>May</t>
+  </si>
+  <si>
+    <t>2025</t>
+  </si>
+  <si>
+    <t>October</t>
+  </si>
+  <si>
+    <t>2024</t>
+  </si>
+  <si>
+    <t>SANYATI</t>
+  </si>
+  <si>
     <t>MARONDERA</t>
   </si>
   <si>
-    <t>SANYATI</t>
-  </si>
-  <si>
     <t>MBIRE</t>
   </si>
   <si>
+    <t>Rimuka</t>
+  </si>
+  <si>
     <t>Dombotombo</t>
   </si>
   <si>
-    <t>Rimuka</t>
-  </si>
-  <si>
     <t>Jompani</t>
   </si>
   <si>
     <t>Angwa Clinic</t>
   </si>
   <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>8</t>
+  </si>
+  <si>
     <t>Reusable_Dorsal_slit Device_placement_kit Device_removal_kit other</t>
   </si>
   <si>
-    <t>OK</t>
-  </si>
-  <si>
-    <t>yes</t>
-  </si>
-  <si>
     <t>Disposable_gloves Syringes_with_needles Lancets_for_adults_and_pediatric_capillary_blood_drawing</t>
   </si>
   <si>
@@ -1813,9 +1897,6 @@
     <t>Ceftriaxone Metronidazole</t>
   </si>
   <si>
-    <t>no</t>
-  </si>
-  <si>
     <t>Stethoscope Sphygmomanometer Adult_Blood_pressure_cuff Sodium_Chloride Tourniquet IV_Infusion_Tubing 3_sizes_of_IV_Catheters Adrenaline Hydrocortisone 2_Sizes_of_Syringes 2_Sizes_of_Needles Bags_and_Masks_for_children Bags_and_Masks_for_adults Exam_gloves Alcohol_Swabs Gauze Adhesive_Tape Oropharyngeal_Airways</t>
   </si>
   <si>
@@ -1823,12 +1904,6 @@
   </si>
   <si>
     <t>Caravan in use no formal rooms available</t>
-  </si>
-  <si>
-    <t>10</t>
-  </si>
-  <si>
-    <t>8</t>
   </si>
   <si>
     <t>Comments
@@ -1910,34 +1985,6 @@
   </si>
   <si>
     <t>complete and engaging. Clients showed learning tool place.</t>
-  </si>
-  <si>
-    <t>Facility not using EHR</t>
-  </si>
-  <si>
-    <t>Data didnt tally for November 2024 and December 2024
-Recommendations:
-1) Facility MRFs for November and December had errors and need to be corrected to reflect the actual MCs that were conducted.
-2) CIF to be completed correctly, completely
-and without cancellations</t>
-  </si>
-  <si>
-    <t>[{'calculatedMonth': 'October', 'calculatedYear': '2024', 'calculated_month_numeric': '10', 'cifno': '15', 'copy-1-of-calculated_month_numeric': 'OK', 'copy-1-of-cifno': '15', 'current_iteration': '0', 'mrfmcs': '15', 'registermcs': '15'}, {'calculatedMonth': 'November', 'calculatedYear': '2024', 'calculated_month_numeric': '11', 'cifno': '50', 'copy-1-of-calculated_month_numeric': 'OK', 'copy-1-of-cifno': '47', 'current_iteration': '1', 'mrfmcs': '47', 'registermcs': '50'}, {'calculatedMonth': 'December', 'calculatedYear': '2024', 'calculated_month_numeric': '12', 'cifno': '24', 'copy-1-of-calculated_month_numeric': 'OK', 'copy-1-of-cifno': '21', 'current_iteration': '2', 'mrfmcs': '21', 'registermcs': '24'}, {'calculatedMonth': 'January', 'calculatedYear': '2025', 'calculated_month_numeric': '13', 'cifno': '9', 'copy-1-of-calculated_month_numeric': 'OK', 'copy-1-of-cifno': '9', 'current_iteration': '3', 'mrfmcs': '9', 'registermcs': '9'}, {'calculatedMonth': 'February', 'calculatedYear': '2025', 'calculated_month_numeric': '2', 'cifno': '24', 'copy-1-of-calculated_month_numeric': 'OK', 'copy-1-of-cifno': '24', 'current_iteration': '4', 'mrfmcs': '24', 'registermcs': '24'}, {'calculatedMonth': 'March', 'calculatedYear': '2025', 'calculated_month_numeric': '3', 'cifno': '22', 'copy-1-of-calculated_month_numeric': 'OK', 'copy-1-of-cifno': '22', 'current_iteration': '5', 'mrfmcs': '22', 'registermcs': '22'}, {'calculatedMonth': 'April', 'calculatedYear': '2025', 'calculated_month_numeric': '4', 'cifno': '30', 'copy-1-of-calculated_month_numeric': 'OK', 'copy-1-of-cifno': '30', 'current_iteration': '6', 'mrfmcs': '30', 'registermcs': '30'}, {'calculatedMonth': 'May', 'calculatedYear': '2025', 'calculated_month_numeric': '5', 'cifno': '31', 'copy-1-of-calculated_month_numeric': 'OK', 'copy-1-of-cifno': '31', 'current_iteration': '7', 'mrfmcs': '31', 'registermcs': '31'}]</t>
-  </si>
-  <si>
-    <t>Client_Name Client_Address dob MC_Method HIV_Testing_Offered_/HIV_Status_Data Medical_Screening_and_Physical_Examination</t>
-  </si>
-  <si>
-    <t>May</t>
-  </si>
-  <si>
-    <t>2025</t>
-  </si>
-  <si>
-    <t>October</t>
-  </si>
-  <si>
-    <t>2024</t>
   </si>
 </sst>
 </file>
@@ -2308,7 +2355,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:RW9"/>
+  <dimension ref="A1:RW10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -3806,7 +3853,7 @@
         <v>493</v>
       </c>
       <c r="I2" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="J2" t="b">
         <v>1</v>
@@ -3815,385 +3862,211 @@
         <v>1</v>
       </c>
       <c r="M2" t="s">
-        <v>509</v>
+        <v>511</v>
       </c>
       <c r="O2" t="s">
-        <v>517</v>
+        <v>520</v>
       </c>
       <c r="P2" t="s">
-        <v>525</v>
+        <v>529</v>
       </c>
       <c r="Q2" t="s">
-        <v>530</v>
+        <v>535</v>
       </c>
       <c r="R2" t="s">
-        <v>531</v>
+        <v>536</v>
       </c>
       <c r="S2" t="s">
-        <v>532</v>
+        <v>537</v>
       </c>
       <c r="T2" t="s">
-        <v>533</v>
+        <v>538</v>
       </c>
       <c r="U2">
-        <v>8273</v>
+        <v>6430</v>
       </c>
       <c r="V2" s="2" t="s">
-        <v>534</v>
+        <v>539</v>
       </c>
       <c r="W2" t="s">
-        <v>530</v>
+        <v>535</v>
       </c>
       <c r="X2" t="s">
-        <v>542</v>
+        <v>548</v>
       </c>
       <c r="Y2" t="s">
-        <v>531</v>
+        <v>536</v>
       </c>
       <c r="Z2" t="s">
-        <v>532</v>
+        <v>537</v>
       </c>
       <c r="AA2" s="2" t="s">
-        <v>543</v>
+        <v>549</v>
       </c>
       <c r="AB2" t="s">
-        <v>544</v>
+        <v>550</v>
       </c>
       <c r="AC2" t="s">
-        <v>549</v>
-      </c>
-      <c r="AD2" s="2" t="s">
-        <v>551</v>
+        <v>555</v>
+      </c>
+      <c r="AD2" t="s">
+        <v>555</v>
       </c>
       <c r="AE2" t="s">
-        <v>552</v>
-      </c>
-      <c r="AF2">
+        <v>555</v>
+      </c>
+      <c r="AF2" t="s">
+        <v>555</v>
+      </c>
+      <c r="AG2" t="s">
+        <v>556</v>
+      </c>
+      <c r="AH2" t="s">
+        <v>556</v>
+      </c>
+      <c r="AI2" t="s">
+        <v>556</v>
+      </c>
+      <c r="AJ2" t="s">
+        <v>557</v>
+      </c>
+      <c r="AK2" t="s">
+        <v>555</v>
+      </c>
+      <c r="AL2" t="s">
+        <v>557</v>
+      </c>
+      <c r="AM2" t="s">
+        <v>557</v>
+      </c>
+      <c r="AN2" t="s">
+        <v>556</v>
+      </c>
+      <c r="AO2" t="s">
+        <v>555</v>
+      </c>
+      <c r="AP2" t="s">
+        <v>555</v>
+      </c>
+      <c r="AQ2" t="s">
+        <v>558</v>
+      </c>
+      <c r="AR2" t="s">
+        <v>555</v>
+      </c>
+      <c r="AS2" t="s">
+        <v>557</v>
+      </c>
+      <c r="AT2" t="s">
+        <v>555</v>
+      </c>
+      <c r="AU2" t="s">
+        <v>557</v>
+      </c>
+      <c r="AV2" t="s">
+        <v>560</v>
+      </c>
+      <c r="AW2" t="s">
+        <v>562</v>
+      </c>
+      <c r="AX2" t="s">
+        <v>556</v>
+      </c>
+      <c r="AY2" t="s">
+        <v>555</v>
+      </c>
+      <c r="AZ2" t="s">
+        <v>564</v>
+      </c>
+      <c r="BA2" t="s">
+        <v>565</v>
+      </c>
+      <c r="BB2" s="2" t="s">
+        <v>567</v>
+      </c>
+      <c r="BC2" t="s">
+        <v>568</v>
+      </c>
+      <c r="BD2">
         <v>669</v>
       </c>
-      <c r="AG2" t="s">
-        <v>553</v>
-      </c>
-      <c r="AH2" t="s">
-        <v>554</v>
-      </c>
-      <c r="AI2" t="s">
-        <v>549</v>
-      </c>
-      <c r="AK2" t="s">
+      <c r="BE2" t="s">
+        <v>570</v>
+      </c>
+      <c r="BF2" t="s">
+        <v>572</v>
+      </c>
+      <c r="BG2" t="s">
+        <v>566</v>
+      </c>
+      <c r="BI2" t="s">
         <v>493</v>
       </c>
-      <c r="AL2" t="s">
-        <v>558</v>
-      </c>
-      <c r="AM2" t="s">
+      <c r="BJ2" t="s">
+        <v>577</v>
+      </c>
+      <c r="BK2" t="s">
+        <v>586</v>
+      </c>
+      <c r="BL2" t="s">
+        <v>595</v>
+      </c>
+      <c r="BM2" t="s">
+        <v>599</v>
+      </c>
+      <c r="BN2" t="s">
+        <v>603</v>
+      </c>
+      <c r="BO2" t="s">
+        <v>604</v>
+      </c>
+      <c r="BP2" t="s">
+        <v>605</v>
+      </c>
+      <c r="BQ2" t="s">
+        <v>606</v>
+      </c>
+      <c r="BR2" t="s">
+        <v>607</v>
+      </c>
+      <c r="BS2" t="s">
+        <v>610</v>
+      </c>
+      <c r="BT2" t="s">
+        <v>614</v>
+      </c>
+      <c r="BU2" t="s">
+        <v>615</v>
+      </c>
+      <c r="BV2" t="s">
+        <v>568</v>
+      </c>
+      <c r="BW2">
+        <v>669</v>
+      </c>
+      <c r="BX2" t="s">
+        <v>570</v>
+      </c>
+      <c r="BY2" t="s">
+        <v>572</v>
+      </c>
+      <c r="BZ2" t="s">
         <v>566</v>
       </c>
-      <c r="AN2" t="s">
-        <v>574</v>
-      </c>
-      <c r="AO2" t="s">
-        <v>578</v>
-      </c>
-      <c r="AP2" t="s">
-        <v>582</v>
-      </c>
-      <c r="AQ2" t="s">
-        <v>585</v>
-      </c>
-      <c r="AR2" t="s">
-        <v>589</v>
-      </c>
-      <c r="AS2" t="s">
-        <v>590</v>
-      </c>
-      <c r="AT2" t="s">
-        <v>590</v>
-      </c>
-      <c r="AU2" t="s">
-        <v>590</v>
-      </c>
-      <c r="AV2" t="s">
-        <v>590</v>
-      </c>
-      <c r="AW2" t="s">
-        <v>590</v>
-      </c>
-      <c r="AX2" t="s">
-        <v>591</v>
-      </c>
-      <c r="BB2" t="s">
-        <v>591</v>
-      </c>
-      <c r="BC2" t="s">
-        <v>591</v>
-      </c>
-      <c r="BD2" t="s">
-        <v>591</v>
-      </c>
-      <c r="BE2" t="s">
-        <v>591</v>
-      </c>
-      <c r="BF2" t="s">
-        <v>592</v>
-      </c>
-      <c r="BG2" t="s">
-        <v>593</v>
-      </c>
-      <c r="BH2" t="s">
-        <v>591</v>
-      </c>
-      <c r="BO2" t="s">
-        <v>590</v>
-      </c>
-      <c r="BP2" t="s">
-        <v>590</v>
-      </c>
-      <c r="BX2" t="s">
-        <v>594</v>
-      </c>
-      <c r="BY2" t="s">
+      <c r="CB2" t="s">
+        <v>493</v>
+      </c>
+      <c r="CD2" t="s">
+        <v>577</v>
+      </c>
+      <c r="CE2" t="s">
+        <v>586</v>
+      </c>
+      <c r="CF2" t="s">
         <v>595</v>
       </c>
-      <c r="BZ2" t="s">
-        <v>590</v>
-      </c>
-      <c r="CA2" t="s">
-        <v>596</v>
-      </c>
-      <c r="CB2" t="s">
-        <v>597</v>
-      </c>
-      <c r="CC2" t="s">
-        <v>591</v>
-      </c>
-      <c r="CE2" t="s">
-        <v>591</v>
-      </c>
-      <c r="CF2" t="s">
-        <v>591</v>
-      </c>
       <c r="CG2" t="s">
-        <v>591</v>
-      </c>
-      <c r="CH2" t="s">
-        <v>591</v>
-      </c>
-      <c r="CI2" t="s">
-        <v>591</v>
-      </c>
-      <c r="CJ2" t="s">
-        <v>591</v>
-      </c>
-      <c r="CK2" t="s">
-        <v>591</v>
-      </c>
-      <c r="CL2" t="s">
-        <v>591</v>
-      </c>
-      <c r="CM2" t="s">
-        <v>591</v>
-      </c>
-      <c r="CN2" t="s">
-        <v>598</v>
-      </c>
-      <c r="CQ2" t="s">
-        <v>591</v>
-      </c>
-      <c r="CS2" t="s">
-        <v>591</v>
-      </c>
-      <c r="CT2" t="s">
-        <v>590</v>
-      </c>
-      <c r="CU2" t="s">
-        <v>590</v>
-      </c>
-      <c r="DH2" t="s">
-        <v>591</v>
-      </c>
-      <c r="DI2" t="s">
-        <v>591</v>
-      </c>
-      <c r="DJ2" t="s">
-        <v>591</v>
-      </c>
-      <c r="DK2" t="s">
-        <v>591</v>
-      </c>
-      <c r="DL2" t="s">
         <v>599</v>
-      </c>
-      <c r="DM2" t="s">
-        <v>591</v>
-      </c>
-      <c r="DO2" t="s">
-        <v>599</v>
-      </c>
-      <c r="DP2" t="s">
-        <v>600</v>
-      </c>
-      <c r="DQ2" t="s">
-        <v>590</v>
-      </c>
-      <c r="DR2" t="s">
-        <v>590</v>
-      </c>
-      <c r="DS2" t="s">
-        <v>590</v>
-      </c>
-      <c r="DT2" t="s">
-        <v>591</v>
-      </c>
-      <c r="DU2" t="s">
-        <v>601</v>
-      </c>
-      <c r="DV2" t="s">
-        <v>599</v>
-      </c>
-      <c r="DW2" t="s">
-        <v>591</v>
-      </c>
-      <c r="DX2" t="s">
-        <v>591</v>
-      </c>
-      <c r="DY2" t="s">
-        <v>591</v>
-      </c>
-      <c r="DZ2" t="s">
-        <v>591</v>
-      </c>
-      <c r="EA2" t="s">
-        <v>591</v>
-      </c>
-      <c r="EB2" t="s">
-        <v>591</v>
-      </c>
-      <c r="EC2" t="s">
-        <v>591</v>
-      </c>
-      <c r="ED2" t="s">
-        <v>591</v>
-      </c>
-      <c r="EE2" t="s">
-        <v>602</v>
-      </c>
-      <c r="EF2" t="s">
-        <v>591</v>
-      </c>
-      <c r="EG2" t="s">
-        <v>591</v>
-      </c>
-      <c r="EH2" t="s">
-        <v>590</v>
-      </c>
-      <c r="EI2" t="s">
-        <v>591</v>
-      </c>
-      <c r="EJ2" t="s">
-        <v>590</v>
-      </c>
-      <c r="EK2" t="s">
-        <v>590</v>
-      </c>
-      <c r="EL2" t="s">
-        <v>590</v>
-      </c>
-      <c r="EM2" t="s">
-        <v>590</v>
-      </c>
-      <c r="EN2" t="s">
-        <v>591</v>
-      </c>
-      <c r="EO2" t="s">
-        <v>591</v>
-      </c>
-      <c r="EP2" t="s">
-        <v>591</v>
-      </c>
-      <c r="EQ2" t="s">
-        <v>599</v>
-      </c>
-      <c r="ER2" t="s">
-        <v>591</v>
-      </c>
-      <c r="ES2" t="s">
-        <v>591</v>
-      </c>
-      <c r="ET2" t="s">
-        <v>591</v>
-      </c>
-      <c r="EU2" t="s">
-        <v>591</v>
-      </c>
-      <c r="EV2" t="s">
-        <v>591</v>
-      </c>
-      <c r="EW2" t="s">
-        <v>591</v>
-      </c>
-      <c r="EX2" t="s">
-        <v>591</v>
-      </c>
-      <c r="EY2" t="s">
-        <v>590</v>
-      </c>
-      <c r="EZ2" t="s">
-        <v>591</v>
-      </c>
-      <c r="FA2" t="s">
-        <v>599</v>
-      </c>
-      <c r="FB2" t="s">
-        <v>599</v>
-      </c>
-      <c r="FC2" t="s">
-        <v>590</v>
-      </c>
-      <c r="FD2" t="s">
-        <v>591</v>
-      </c>
-      <c r="FE2" t="s">
-        <v>591</v>
-      </c>
-      <c r="FF2" t="s">
-        <v>591</v>
-      </c>
-      <c r="FG2" t="s">
-        <v>591</v>
-      </c>
-      <c r="FH2" t="s">
-        <v>549</v>
-      </c>
-      <c r="FJ2" t="s">
-        <v>552</v>
-      </c>
-      <c r="FK2">
-        <v>669</v>
-      </c>
-      <c r="FL2" t="s">
-        <v>553</v>
-      </c>
-      <c r="FM2" t="s">
-        <v>554</v>
-      </c>
-      <c r="FN2" t="s">
-        <v>549</v>
-      </c>
-      <c r="FP2" t="s">
-        <v>493</v>
-      </c>
-      <c r="FR2" t="s">
-        <v>558</v>
-      </c>
-      <c r="FS2" t="s">
-        <v>566</v>
-      </c>
-      <c r="FT2" t="s">
-        <v>574</v>
-      </c>
-      <c r="FU2" t="s">
-        <v>578</v>
       </c>
     </row>
     <row r="3" spans="1:491">
@@ -4216,7 +4089,7 @@
         <v>494</v>
       </c>
       <c r="I3" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="J3" t="b">
         <v>1</v>
@@ -4225,253 +4098,385 @@
         <v>1</v>
       </c>
       <c r="M3" t="s">
-        <v>510</v>
+        <v>512</v>
       </c>
       <c r="O3" t="s">
-        <v>518</v>
+        <v>521</v>
       </c>
       <c r="P3" t="s">
-        <v>526</v>
+        <v>530</v>
       </c>
       <c r="Q3" t="s">
-        <v>530</v>
+        <v>535</v>
       </c>
       <c r="R3" t="s">
-        <v>531</v>
+        <v>536</v>
       </c>
       <c r="S3" t="s">
-        <v>532</v>
+        <v>537</v>
       </c>
       <c r="T3" t="s">
-        <v>533</v>
+        <v>538</v>
       </c>
       <c r="U3">
-        <v>3975</v>
+        <v>8273</v>
       </c>
       <c r="V3" s="2" t="s">
+        <v>540</v>
+      </c>
+      <c r="W3" t="s">
         <v>535</v>
       </c>
-      <c r="W3" t="s">
-        <v>530</v>
-      </c>
       <c r="X3" t="s">
-        <v>542</v>
+        <v>548</v>
       </c>
       <c r="Y3" t="s">
-        <v>531</v>
+        <v>536</v>
       </c>
       <c r="Z3" t="s">
-        <v>532</v>
+        <v>537</v>
       </c>
       <c r="AA3" s="2" t="s">
-        <v>543</v>
+        <v>549</v>
       </c>
       <c r="AB3" t="s">
-        <v>545</v>
-      </c>
-      <c r="AC3" t="s">
-        <v>549</v>
-      </c>
-      <c r="AD3" s="2" t="s">
         <v>551</v>
       </c>
-      <c r="AE3" t="s">
-        <v>552</v>
-      </c>
-      <c r="AF3">
+      <c r="BA3" t="s">
+        <v>566</v>
+      </c>
+      <c r="BB3" s="2" t="s">
+        <v>567</v>
+      </c>
+      <c r="BC3" t="s">
+        <v>569</v>
+      </c>
+      <c r="BD3">
         <v>669</v>
       </c>
-      <c r="AG3" t="s">
-        <v>553</v>
-      </c>
-      <c r="AH3" t="s">
-        <v>555</v>
-      </c>
-      <c r="AI3" t="s">
-        <v>549</v>
-      </c>
-      <c r="AK3" t="s">
+      <c r="BE3" t="s">
+        <v>571</v>
+      </c>
+      <c r="BF3" t="s">
+        <v>573</v>
+      </c>
+      <c r="BG3" t="s">
+        <v>566</v>
+      </c>
+      <c r="BI3" t="s">
         <v>494</v>
       </c>
-      <c r="AL3" t="s">
-        <v>559</v>
-      </c>
-      <c r="AM3" t="s">
-        <v>567</v>
-      </c>
-      <c r="AN3" t="s">
-        <v>575</v>
-      </c>
-      <c r="AO3" t="s">
-        <v>579</v>
-      </c>
-      <c r="AP3" t="s">
-        <v>583</v>
-      </c>
-      <c r="AQ3" t="s">
-        <v>586</v>
+      <c r="BJ3" t="s">
+        <v>578</v>
+      </c>
+      <c r="BK3" t="s">
+        <v>587</v>
+      </c>
+      <c r="BL3" t="s">
+        <v>596</v>
+      </c>
+      <c r="BM3" t="s">
+        <v>600</v>
+      </c>
+      <c r="BR3" t="s">
+        <v>608</v>
+      </c>
+      <c r="BS3" t="s">
+        <v>611</v>
+      </c>
+      <c r="BT3" t="s">
+        <v>566</v>
+      </c>
+      <c r="BV3" t="s">
+        <v>569</v>
+      </c>
+      <c r="BW3">
+        <v>669</v>
+      </c>
+      <c r="BX3" t="s">
+        <v>571</v>
+      </c>
+      <c r="BY3" t="s">
+        <v>573</v>
+      </c>
+      <c r="BZ3" t="s">
+        <v>566</v>
+      </c>
+      <c r="CB3" t="s">
+        <v>494</v>
+      </c>
+      <c r="CD3" t="s">
+        <v>578</v>
+      </c>
+      <c r="CE3" t="s">
+        <v>587</v>
+      </c>
+      <c r="CF3" t="s">
+        <v>596</v>
+      </c>
+      <c r="CG3" t="s">
+        <v>600</v>
+      </c>
+      <c r="CH3" t="s">
+        <v>616</v>
+      </c>
+      <c r="CI3" t="s">
+        <v>557</v>
+      </c>
+      <c r="CJ3" t="s">
+        <v>557</v>
+      </c>
+      <c r="CK3" t="s">
+        <v>557</v>
+      </c>
+      <c r="CL3" t="s">
+        <v>557</v>
+      </c>
+      <c r="CM3" t="s">
+        <v>557</v>
+      </c>
+      <c r="CN3" t="s">
+        <v>555</v>
+      </c>
+      <c r="CR3" t="s">
+        <v>555</v>
+      </c>
+      <c r="CS3" t="s">
+        <v>555</v>
+      </c>
+      <c r="CT3" t="s">
+        <v>555</v>
+      </c>
+      <c r="CU3" t="s">
+        <v>555</v>
+      </c>
+      <c r="CV3" t="s">
+        <v>617</v>
+      </c>
+      <c r="CW3" t="s">
+        <v>618</v>
+      </c>
+      <c r="CX3" t="s">
+        <v>555</v>
+      </c>
+      <c r="DE3" t="s">
+        <v>557</v>
+      </c>
+      <c r="DF3" t="s">
+        <v>557</v>
+      </c>
+      <c r="DN3" t="s">
+        <v>619</v>
+      </c>
+      <c r="DO3" t="s">
+        <v>620</v>
+      </c>
+      <c r="DP3" t="s">
+        <v>557</v>
+      </c>
+      <c r="DQ3" t="s">
+        <v>621</v>
+      </c>
+      <c r="DR3" t="s">
+        <v>622</v>
+      </c>
+      <c r="DS3" t="s">
+        <v>555</v>
+      </c>
+      <c r="DU3" t="s">
+        <v>555</v>
+      </c>
+      <c r="DV3" t="s">
+        <v>555</v>
+      </c>
+      <c r="DW3" t="s">
+        <v>555</v>
+      </c>
+      <c r="DX3" t="s">
+        <v>555</v>
+      </c>
+      <c r="DY3" t="s">
+        <v>555</v>
+      </c>
+      <c r="DZ3" t="s">
+        <v>555</v>
+      </c>
+      <c r="EA3" t="s">
+        <v>555</v>
+      </c>
+      <c r="EB3" t="s">
+        <v>555</v>
+      </c>
+      <c r="EC3" t="s">
+        <v>555</v>
+      </c>
+      <c r="ED3" t="s">
+        <v>623</v>
+      </c>
+      <c r="EG3" t="s">
+        <v>555</v>
+      </c>
+      <c r="EI3" t="s">
+        <v>555</v>
+      </c>
+      <c r="EJ3" t="s">
+        <v>557</v>
+      </c>
+      <c r="EK3" t="s">
+        <v>557</v>
+      </c>
+      <c r="EX3" t="s">
+        <v>555</v>
+      </c>
+      <c r="EY3" t="s">
+        <v>555</v>
+      </c>
+      <c r="EZ3" t="s">
+        <v>555</v>
+      </c>
+      <c r="FA3" t="s">
+        <v>555</v>
+      </c>
+      <c r="FB3" t="s">
+        <v>556</v>
+      </c>
+      <c r="FC3" t="s">
+        <v>555</v>
+      </c>
+      <c r="FE3" t="s">
+        <v>556</v>
+      </c>
+      <c r="FF3" t="s">
+        <v>624</v>
+      </c>
+      <c r="FG3" t="s">
+        <v>557</v>
       </c>
       <c r="FH3" t="s">
-        <v>549</v>
+        <v>557</v>
+      </c>
+      <c r="FI3" t="s">
+        <v>557</v>
       </c>
       <c r="FJ3" t="s">
-        <v>552</v>
-      </c>
-      <c r="FK3">
-        <v>669</v>
+        <v>555</v>
+      </c>
+      <c r="FK3" t="s">
+        <v>625</v>
       </c>
       <c r="FL3" t="s">
-        <v>553</v>
+        <v>556</v>
       </c>
       <c r="FM3" t="s">
         <v>555</v>
       </c>
       <c r="FN3" t="s">
-        <v>549</v>
+        <v>555</v>
+      </c>
+      <c r="FO3" t="s">
+        <v>555</v>
       </c>
       <c r="FP3" t="s">
-        <v>494</v>
+        <v>555</v>
+      </c>
+      <c r="FQ3" t="s">
+        <v>555</v>
       </c>
       <c r="FR3" t="s">
-        <v>559</v>
+        <v>555</v>
       </c>
       <c r="FS3" t="s">
-        <v>567</v>
+        <v>555</v>
       </c>
       <c r="FT3" t="s">
-        <v>575</v>
+        <v>555</v>
       </c>
       <c r="FU3" t="s">
-        <v>579</v>
+        <v>626</v>
       </c>
       <c r="FV3" t="s">
-        <v>605</v>
+        <v>555</v>
       </c>
       <c r="FW3" t="s">
-        <v>591</v>
+        <v>555</v>
       </c>
       <c r="FX3" t="s">
-        <v>591</v>
+        <v>557</v>
       </c>
       <c r="FY3" t="s">
-        <v>591</v>
+        <v>555</v>
       </c>
       <c r="FZ3" t="s">
-        <v>591</v>
+        <v>557</v>
       </c>
       <c r="GA3" t="s">
-        <v>599</v>
+        <v>557</v>
       </c>
       <c r="GB3" t="s">
-        <v>599</v>
+        <v>557</v>
       </c>
       <c r="GC3" t="s">
-        <v>591</v>
+        <v>557</v>
       </c>
       <c r="GD3" t="s">
-        <v>591</v>
+        <v>555</v>
       </c>
       <c r="GE3" t="s">
-        <v>591</v>
+        <v>555</v>
       </c>
       <c r="GF3" t="s">
-        <v>591</v>
+        <v>555</v>
       </c>
       <c r="GG3" t="s">
-        <v>591</v>
+        <v>556</v>
       </c>
       <c r="GH3" t="s">
-        <v>591</v>
+        <v>555</v>
       </c>
       <c r="GI3" t="s">
-        <v>607</v>
+        <v>555</v>
       </c>
       <c r="GJ3" t="s">
-        <v>591</v>
+        <v>555</v>
       </c>
       <c r="GK3" t="s">
-        <v>591</v>
+        <v>555</v>
       </c>
       <c r="GL3" t="s">
-        <v>591</v>
+        <v>555</v>
       </c>
       <c r="GM3" t="s">
-        <v>591</v>
+        <v>555</v>
       </c>
       <c r="GN3" t="s">
-        <v>599</v>
+        <v>555</v>
       </c>
       <c r="GO3" t="s">
-        <v>591</v>
+        <v>557</v>
       </c>
       <c r="GP3" t="s">
-        <v>591</v>
+        <v>555</v>
       </c>
       <c r="GQ3" t="s">
-        <v>591</v>
+        <v>556</v>
       </c>
       <c r="GR3" t="s">
-        <v>591</v>
+        <v>556</v>
       </c>
       <c r="GS3" t="s">
-        <v>591</v>
+        <v>557</v>
       </c>
       <c r="GT3" t="s">
-        <v>591</v>
+        <v>555</v>
       </c>
       <c r="GU3" t="s">
-        <v>591</v>
+        <v>555</v>
       </c>
       <c r="GV3" t="s">
-        <v>591</v>
+        <v>555</v>
       </c>
       <c r="GW3" t="s">
-        <v>591</v>
-      </c>
-      <c r="GX3" t="s">
-        <v>590</v>
-      </c>
-      <c r="GY3" t="s">
-        <v>591</v>
-      </c>
-      <c r="GZ3" t="s">
-        <v>590</v>
-      </c>
-      <c r="HA3" t="s">
-        <v>591</v>
-      </c>
-      <c r="HB3" t="s">
-        <v>599</v>
-      </c>
-      <c r="HC3" t="s">
-        <v>591</v>
-      </c>
-      <c r="HD3" t="s">
-        <v>591</v>
-      </c>
-      <c r="HE3" t="s">
-        <v>590</v>
-      </c>
-      <c r="HF3" t="s">
-        <v>591</v>
-      </c>
-      <c r="HG3" t="s">
-        <v>591</v>
-      </c>
-      <c r="HH3" t="s">
-        <v>591</v>
-      </c>
-      <c r="HI3" t="s">
-        <v>591</v>
-      </c>
-      <c r="HJ3" t="s">
-        <v>591</v>
-      </c>
-      <c r="HK3" t="s">
-        <v>590</v>
-      </c>
-      <c r="HL3" t="s">
-        <v>591</v>
+        <v>555</v>
       </c>
     </row>
     <row r="4" spans="1:491">
@@ -4494,7 +4499,7 @@
         <v>495</v>
       </c>
       <c r="I4" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="J4" t="b">
         <v>1</v>
@@ -4503,211 +4508,253 @@
         <v>1</v>
       </c>
       <c r="M4" t="s">
-        <v>511</v>
+        <v>513</v>
       </c>
       <c r="O4" t="s">
-        <v>519</v>
+        <v>522</v>
       </c>
       <c r="P4" t="s">
-        <v>525</v>
+        <v>531</v>
       </c>
       <c r="Q4" t="s">
-        <v>530</v>
+        <v>535</v>
       </c>
       <c r="R4" t="s">
-        <v>531</v>
+        <v>536</v>
       </c>
       <c r="S4" t="s">
-        <v>532</v>
+        <v>537</v>
       </c>
       <c r="T4" t="s">
-        <v>533</v>
+        <v>538</v>
       </c>
       <c r="U4">
-        <v>3305</v>
+        <v>3975</v>
       </c>
       <c r="V4" s="2" t="s">
+        <v>541</v>
+      </c>
+      <c r="W4" t="s">
+        <v>535</v>
+      </c>
+      <c r="X4" t="s">
+        <v>548</v>
+      </c>
+      <c r="Y4" t="s">
         <v>536</v>
       </c>
-      <c r="W4" t="s">
-        <v>530</v>
-      </c>
-      <c r="X4" t="s">
-        <v>542</v>
-      </c>
-      <c r="Y4" t="s">
-        <v>531</v>
-      </c>
       <c r="Z4" t="s">
-        <v>532</v>
+        <v>537</v>
       </c>
       <c r="AA4" s="2" t="s">
-        <v>543</v>
+        <v>549</v>
       </c>
       <c r="AB4" t="s">
-        <v>546</v>
-      </c>
-      <c r="AC4" t="s">
-        <v>549</v>
-      </c>
-      <c r="AD4" s="2" t="s">
-        <v>551</v>
-      </c>
-      <c r="AE4" t="s">
         <v>552</v>
       </c>
-      <c r="AF4">
+      <c r="BA4" t="s">
+        <v>566</v>
+      </c>
+      <c r="BB4" s="2" t="s">
+        <v>567</v>
+      </c>
+      <c r="BC4" t="s">
+        <v>569</v>
+      </c>
+      <c r="BD4">
         <v>669</v>
       </c>
-      <c r="AG4" t="s">
-        <v>553</v>
-      </c>
-      <c r="AH4" t="s">
-        <v>554</v>
-      </c>
-      <c r="AI4" t="s">
-        <v>549</v>
-      </c>
-      <c r="AK4" t="s">
+      <c r="BE4" t="s">
+        <v>571</v>
+      </c>
+      <c r="BF4" t="s">
+        <v>574</v>
+      </c>
+      <c r="BG4" t="s">
+        <v>566</v>
+      </c>
+      <c r="BI4" t="s">
         <v>495</v>
       </c>
-      <c r="AL4" t="s">
-        <v>560</v>
-      </c>
-      <c r="AM4" t="s">
-        <v>568</v>
-      </c>
-      <c r="AN4" t="s">
+      <c r="BJ4" t="s">
+        <v>579</v>
+      </c>
+      <c r="BK4" t="s">
+        <v>588</v>
+      </c>
+      <c r="BL4" t="s">
+        <v>595</v>
+      </c>
+      <c r="BM4" t="s">
+        <v>599</v>
+      </c>
+      <c r="BR4" t="s">
+        <v>607</v>
+      </c>
+      <c r="BS4" t="s">
+        <v>610</v>
+      </c>
+      <c r="BT4" t="s">
+        <v>566</v>
+      </c>
+      <c r="BV4" t="s">
+        <v>569</v>
+      </c>
+      <c r="BW4">
+        <v>669</v>
+      </c>
+      <c r="BX4" t="s">
+        <v>571</v>
+      </c>
+      <c r="BY4" t="s">
         <v>574</v>
       </c>
-      <c r="AO4" t="s">
-        <v>578</v>
-      </c>
-      <c r="AP4" t="s">
-        <v>582</v>
-      </c>
-      <c r="AQ4" t="s">
-        <v>585</v>
-      </c>
-      <c r="FH4" t="s">
-        <v>549</v>
-      </c>
-      <c r="FJ4" t="s">
-        <v>552</v>
-      </c>
-      <c r="FK4">
-        <v>669</v>
-      </c>
-      <c r="FL4" t="s">
-        <v>553</v>
-      </c>
-      <c r="FM4" t="s">
-        <v>554</v>
-      </c>
-      <c r="FN4" t="s">
-        <v>549</v>
-      </c>
-      <c r="FP4" t="s">
+      <c r="BZ4" t="s">
+        <v>566</v>
+      </c>
+      <c r="CB4" t="s">
         <v>495</v>
       </c>
-      <c r="FR4" t="s">
-        <v>560</v>
-      </c>
-      <c r="FS4" t="s">
-        <v>568</v>
-      </c>
-      <c r="FT4" t="s">
-        <v>574</v>
-      </c>
-      <c r="FU4" t="s">
-        <v>578</v>
+      <c r="CD4" t="s">
+        <v>579</v>
+      </c>
+      <c r="CE4" t="s">
+        <v>588</v>
+      </c>
+      <c r="CF4" t="s">
+        <v>595</v>
+      </c>
+      <c r="CG4" t="s">
+        <v>599</v>
+      </c>
+      <c r="GX4" t="s">
+        <v>627</v>
+      </c>
+      <c r="GY4" t="s">
+        <v>555</v>
+      </c>
+      <c r="GZ4" t="s">
+        <v>555</v>
+      </c>
+      <c r="HA4" t="s">
+        <v>555</v>
+      </c>
+      <c r="HB4" t="s">
+        <v>555</v>
+      </c>
+      <c r="HC4" t="s">
+        <v>556</v>
+      </c>
+      <c r="HD4" t="s">
+        <v>556</v>
+      </c>
+      <c r="HE4" t="s">
+        <v>555</v>
+      </c>
+      <c r="HF4" t="s">
+        <v>555</v>
+      </c>
+      <c r="HG4" t="s">
+        <v>555</v>
+      </c>
+      <c r="HH4" t="s">
+        <v>555</v>
+      </c>
+      <c r="HI4" t="s">
+        <v>555</v>
+      </c>
+      <c r="HJ4" t="s">
+        <v>555</v>
+      </c>
+      <c r="HK4" t="s">
+        <v>629</v>
+      </c>
+      <c r="HL4" t="s">
+        <v>555</v>
       </c>
       <c r="HM4" t="s">
-        <v>609</v>
+        <v>555</v>
       </c>
       <c r="HN4" t="s">
-        <v>612</v>
+        <v>555</v>
       </c>
       <c r="HO4" t="s">
-        <v>614</v>
+        <v>555</v>
       </c>
       <c r="HP4" t="s">
-        <v>617</v>
+        <v>556</v>
       </c>
       <c r="HQ4" t="s">
-        <v>620</v>
+        <v>555</v>
       </c>
       <c r="HR4" t="s">
-        <v>590</v>
+        <v>555</v>
       </c>
       <c r="HS4" t="s">
-        <v>591</v>
+        <v>555</v>
       </c>
       <c r="HT4" t="s">
-        <v>591</v>
+        <v>555</v>
       </c>
       <c r="HU4" t="s">
-        <v>591</v>
+        <v>555</v>
       </c>
       <c r="HV4" t="s">
-        <v>591</v>
+        <v>555</v>
       </c>
       <c r="HW4" t="s">
-        <v>591</v>
+        <v>555</v>
       </c>
       <c r="HX4" t="s">
-        <v>591</v>
+        <v>555</v>
       </c>
       <c r="HY4" t="s">
-        <v>591</v>
+        <v>555</v>
       </c>
       <c r="HZ4" t="s">
-        <v>591</v>
+        <v>557</v>
       </c>
       <c r="IA4" t="s">
-        <v>622</v>
+        <v>555</v>
       </c>
       <c r="IB4" t="s">
-        <v>599</v>
+        <v>557</v>
       </c>
       <c r="IC4" t="s">
-        <v>590</v>
+        <v>555</v>
       </c>
       <c r="ID4" t="s">
-        <v>591</v>
+        <v>556</v>
       </c>
       <c r="IE4" t="s">
-        <v>591</v>
+        <v>555</v>
       </c>
       <c r="IF4" t="s">
-        <v>591</v>
+        <v>555</v>
       </c>
       <c r="IG4" t="s">
-        <v>591</v>
+        <v>557</v>
       </c>
       <c r="IH4" t="s">
-        <v>591</v>
+        <v>555</v>
       </c>
       <c r="II4" t="s">
-        <v>590</v>
+        <v>555</v>
       </c>
       <c r="IJ4" t="s">
-        <v>590</v>
+        <v>555</v>
       </c>
       <c r="IK4" t="s">
-        <v>591</v>
+        <v>555</v>
       </c>
       <c r="IL4" t="s">
-        <v>590</v>
+        <v>555</v>
       </c>
       <c r="IM4" t="s">
-        <v>591</v>
+        <v>557</v>
       </c>
       <c r="IN4" t="s">
-        <v>590</v>
-      </c>
-      <c r="IO4" t="s">
-        <v>599</v>
+        <v>555</v>
       </c>
     </row>
     <row r="5" spans="1:491">
@@ -4730,7 +4777,7 @@
         <v>496</v>
       </c>
       <c r="I5" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="J5" t="b">
         <v>1</v>
@@ -4739,253 +4786,211 @@
         <v>1</v>
       </c>
       <c r="M5" t="s">
-        <v>512</v>
+        <v>514</v>
       </c>
       <c r="O5" t="s">
-        <v>520</v>
+        <v>523</v>
       </c>
       <c r="P5" t="s">
-        <v>527</v>
+        <v>530</v>
       </c>
       <c r="Q5" t="s">
-        <v>530</v>
+        <v>535</v>
       </c>
       <c r="R5" t="s">
-        <v>531</v>
+        <v>536</v>
       </c>
       <c r="S5" t="s">
-        <v>532</v>
+        <v>537</v>
       </c>
       <c r="T5" t="s">
-        <v>533</v>
+        <v>538</v>
       </c>
       <c r="U5">
-        <v>3505</v>
+        <v>3305</v>
       </c>
       <c r="V5" s="2" t="s">
+        <v>542</v>
+      </c>
+      <c r="W5" t="s">
+        <v>535</v>
+      </c>
+      <c r="X5" t="s">
+        <v>548</v>
+      </c>
+      <c r="Y5" t="s">
+        <v>536</v>
+      </c>
+      <c r="Z5" t="s">
         <v>537</v>
       </c>
-      <c r="W5" t="s">
-        <v>530</v>
-      </c>
-      <c r="X5" t="s">
-        <v>542</v>
-      </c>
-      <c r="Y5" t="s">
-        <v>531</v>
-      </c>
-      <c r="Z5" t="s">
-        <v>532</v>
-      </c>
       <c r="AA5" s="2" t="s">
-        <v>543</v>
+        <v>549</v>
       </c>
       <c r="AB5" t="s">
-        <v>545</v>
-      </c>
-      <c r="AC5" t="s">
-        <v>549</v>
-      </c>
-      <c r="AD5" s="2" t="s">
-        <v>551</v>
-      </c>
-      <c r="AE5" t="s">
-        <v>552</v>
-      </c>
-      <c r="AF5">
+        <v>553</v>
+      </c>
+      <c r="BA5" t="s">
+        <v>566</v>
+      </c>
+      <c r="BB5" s="2" t="s">
+        <v>567</v>
+      </c>
+      <c r="BC5" t="s">
+        <v>569</v>
+      </c>
+      <c r="BD5">
         <v>669</v>
       </c>
-      <c r="AG5" t="s">
-        <v>553</v>
-      </c>
-      <c r="AH5" t="s">
+      <c r="BE5" t="s">
+        <v>571</v>
+      </c>
+      <c r="BF5" t="s">
+        <v>573</v>
+      </c>
+      <c r="BG5" t="s">
+        <v>566</v>
+      </c>
+      <c r="BI5" t="s">
+        <v>496</v>
+      </c>
+      <c r="BJ5" t="s">
+        <v>580</v>
+      </c>
+      <c r="BK5" t="s">
+        <v>589</v>
+      </c>
+      <c r="BL5" t="s">
+        <v>596</v>
+      </c>
+      <c r="BM5" t="s">
+        <v>600</v>
+      </c>
+      <c r="BR5" t="s">
+        <v>608</v>
+      </c>
+      <c r="BS5" t="s">
+        <v>611</v>
+      </c>
+      <c r="BT5" t="s">
+        <v>566</v>
+      </c>
+      <c r="BV5" t="s">
+        <v>569</v>
+      </c>
+      <c r="BW5">
+        <v>669</v>
+      </c>
+      <c r="BX5" t="s">
+        <v>571</v>
+      </c>
+      <c r="BY5" t="s">
+        <v>573</v>
+      </c>
+      <c r="BZ5" t="s">
+        <v>566</v>
+      </c>
+      <c r="CB5" t="s">
+        <v>496</v>
+      </c>
+      <c r="CD5" t="s">
+        <v>580</v>
+      </c>
+      <c r="CE5" t="s">
+        <v>589</v>
+      </c>
+      <c r="CF5" t="s">
+        <v>596</v>
+      </c>
+      <c r="CG5" t="s">
+        <v>600</v>
+      </c>
+      <c r="IO5" t="s">
+        <v>631</v>
+      </c>
+      <c r="IP5" t="s">
+        <v>634</v>
+      </c>
+      <c r="IQ5" t="s">
+        <v>636</v>
+      </c>
+      <c r="IR5" t="s">
+        <v>639</v>
+      </c>
+      <c r="IS5" t="s">
+        <v>642</v>
+      </c>
+      <c r="IT5" t="s">
+        <v>557</v>
+      </c>
+      <c r="IU5" t="s">
+        <v>555</v>
+      </c>
+      <c r="IV5" t="s">
+        <v>555</v>
+      </c>
+      <c r="IW5" t="s">
+        <v>555</v>
+      </c>
+      <c r="IX5" t="s">
+        <v>555</v>
+      </c>
+      <c r="IY5" t="s">
+        <v>555</v>
+      </c>
+      <c r="IZ5" t="s">
+        <v>555</v>
+      </c>
+      <c r="JA5" t="s">
+        <v>555</v>
+      </c>
+      <c r="JB5" t="s">
+        <v>555</v>
+      </c>
+      <c r="JC5" t="s">
+        <v>644</v>
+      </c>
+      <c r="JD5" t="s">
         <v>556</v>
       </c>
-      <c r="AI5" t="s">
-        <v>549</v>
-      </c>
-      <c r="AK5" t="s">
-        <v>496</v>
-      </c>
-      <c r="AL5" t="s">
-        <v>561</v>
-      </c>
-      <c r="AM5" t="s">
-        <v>569</v>
-      </c>
-      <c r="AN5" t="s">
-        <v>576</v>
-      </c>
-      <c r="AO5" t="s">
-        <v>580</v>
-      </c>
-      <c r="AP5" t="s">
-        <v>582</v>
-      </c>
-      <c r="AQ5" t="s">
-        <v>585</v>
-      </c>
-      <c r="FH5" t="s">
-        <v>549</v>
-      </c>
-      <c r="FJ5" t="s">
-        <v>552</v>
-      </c>
-      <c r="FK5">
-        <v>669</v>
-      </c>
-      <c r="FL5" t="s">
-        <v>553</v>
-      </c>
-      <c r="FM5" t="s">
+      <c r="JE5" t="s">
+        <v>557</v>
+      </c>
+      <c r="JF5" t="s">
+        <v>555</v>
+      </c>
+      <c r="JG5" t="s">
+        <v>555</v>
+      </c>
+      <c r="JH5" t="s">
+        <v>555</v>
+      </c>
+      <c r="JI5" t="s">
+        <v>555</v>
+      </c>
+      <c r="JJ5" t="s">
+        <v>555</v>
+      </c>
+      <c r="JK5" t="s">
+        <v>557</v>
+      </c>
+      <c r="JL5" t="s">
+        <v>557</v>
+      </c>
+      <c r="JM5" t="s">
+        <v>555</v>
+      </c>
+      <c r="JN5" t="s">
+        <v>557</v>
+      </c>
+      <c r="JO5" t="s">
+        <v>555</v>
+      </c>
+      <c r="JP5" t="s">
+        <v>557</v>
+      </c>
+      <c r="JQ5" t="s">
         <v>556</v>
-      </c>
-      <c r="FN5" t="s">
-        <v>549</v>
-      </c>
-      <c r="FP5" t="s">
-        <v>496</v>
-      </c>
-      <c r="FR5" t="s">
-        <v>561</v>
-      </c>
-      <c r="FS5" t="s">
-        <v>569</v>
-      </c>
-      <c r="FT5" t="s">
-        <v>576</v>
-      </c>
-      <c r="FU5" t="s">
-        <v>580</v>
-      </c>
-      <c r="FV5" t="s">
-        <v>606</v>
-      </c>
-      <c r="FW5" t="s">
-        <v>591</v>
-      </c>
-      <c r="FX5" t="s">
-        <v>591</v>
-      </c>
-      <c r="FY5" t="s">
-        <v>591</v>
-      </c>
-      <c r="FZ5" t="s">
-        <v>591</v>
-      </c>
-      <c r="GA5" t="s">
-        <v>591</v>
-      </c>
-      <c r="GB5" t="s">
-        <v>591</v>
-      </c>
-      <c r="GC5" t="s">
-        <v>591</v>
-      </c>
-      <c r="GD5" t="s">
-        <v>591</v>
-      </c>
-      <c r="GE5" t="s">
-        <v>591</v>
-      </c>
-      <c r="GF5" t="s">
-        <v>591</v>
-      </c>
-      <c r="GG5" t="s">
-        <v>591</v>
-      </c>
-      <c r="GH5" t="s">
-        <v>591</v>
-      </c>
-      <c r="GI5" t="s">
-        <v>608</v>
-      </c>
-      <c r="GJ5" t="s">
-        <v>591</v>
-      </c>
-      <c r="GK5" t="s">
-        <v>591</v>
-      </c>
-      <c r="GL5" t="s">
-        <v>591</v>
-      </c>
-      <c r="GM5" t="s">
-        <v>591</v>
-      </c>
-      <c r="GN5" t="s">
-        <v>599</v>
-      </c>
-      <c r="GO5" t="s">
-        <v>599</v>
-      </c>
-      <c r="GP5" t="s">
-        <v>591</v>
-      </c>
-      <c r="GQ5" t="s">
-        <v>591</v>
-      </c>
-      <c r="GR5" t="s">
-        <v>591</v>
-      </c>
-      <c r="GS5" t="s">
-        <v>591</v>
-      </c>
-      <c r="GT5" t="s">
-        <v>591</v>
-      </c>
-      <c r="GU5" t="s">
-        <v>591</v>
-      </c>
-      <c r="GV5" t="s">
-        <v>591</v>
-      </c>
-      <c r="GW5" t="s">
-        <v>591</v>
-      </c>
-      <c r="GX5" t="s">
-        <v>590</v>
-      </c>
-      <c r="GY5" t="s">
-        <v>591</v>
-      </c>
-      <c r="GZ5" t="s">
-        <v>590</v>
-      </c>
-      <c r="HA5" t="s">
-        <v>591</v>
-      </c>
-      <c r="HB5" t="s">
-        <v>591</v>
-      </c>
-      <c r="HC5" t="s">
-        <v>591</v>
-      </c>
-      <c r="HD5" t="s">
-        <v>591</v>
-      </c>
-      <c r="HE5" t="s">
-        <v>590</v>
-      </c>
-      <c r="HF5" t="s">
-        <v>591</v>
-      </c>
-      <c r="HG5" t="s">
-        <v>591</v>
-      </c>
-      <c r="HH5" t="s">
-        <v>591</v>
-      </c>
-      <c r="HI5" t="s">
-        <v>591</v>
-      </c>
-      <c r="HJ5" t="s">
-        <v>591</v>
-      </c>
-      <c r="HK5" t="s">
-        <v>590</v>
-      </c>
-      <c r="HL5" t="s">
-        <v>591</v>
       </c>
     </row>
     <row r="6" spans="1:491">
@@ -5008,7 +5013,7 @@
         <v>497</v>
       </c>
       <c r="I6" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="J6" t="b">
         <v>1</v>
@@ -5017,319 +5022,253 @@
         <v>1</v>
       </c>
       <c r="M6" t="s">
-        <v>513</v>
+        <v>515</v>
       </c>
       <c r="O6" t="s">
-        <v>521</v>
+        <v>524</v>
       </c>
       <c r="P6" t="s">
-        <v>527</v>
+        <v>532</v>
       </c>
       <c r="Q6" t="s">
-        <v>530</v>
+        <v>535</v>
       </c>
       <c r="R6" t="s">
-        <v>531</v>
+        <v>536</v>
       </c>
       <c r="S6" t="s">
-        <v>532</v>
+        <v>537</v>
       </c>
       <c r="T6" t="s">
-        <v>533</v>
+        <v>538</v>
       </c>
       <c r="U6">
-        <v>12359</v>
+        <v>3505</v>
       </c>
       <c r="V6" s="2" t="s">
-        <v>538</v>
+        <v>543</v>
       </c>
       <c r="W6" t="s">
-        <v>530</v>
+        <v>535</v>
       </c>
       <c r="X6" t="s">
-        <v>542</v>
+        <v>548</v>
       </c>
       <c r="Y6" t="s">
-        <v>531</v>
+        <v>536</v>
       </c>
       <c r="Z6" t="s">
-        <v>532</v>
+        <v>537</v>
       </c>
       <c r="AA6" s="2" t="s">
-        <v>543</v>
+        <v>549</v>
       </c>
       <c r="AB6" t="s">
-        <v>547</v>
-      </c>
-      <c r="AC6" t="s">
-        <v>549</v>
-      </c>
-      <c r="AD6" s="2" t="s">
-        <v>551</v>
-      </c>
-      <c r="AE6" t="s">
         <v>552</v>
       </c>
-      <c r="AF6">
+      <c r="BA6" t="s">
+        <v>566</v>
+      </c>
+      <c r="BB6" s="2" t="s">
+        <v>567</v>
+      </c>
+      <c r="BC6" t="s">
+        <v>569</v>
+      </c>
+      <c r="BD6">
         <v>669</v>
       </c>
-      <c r="AG6" t="s">
-        <v>553</v>
-      </c>
-      <c r="AH6" t="s">
+      <c r="BE6" t="s">
+        <v>571</v>
+      </c>
+      <c r="BF6" t="s">
+        <v>575</v>
+      </c>
+      <c r="BG6" t="s">
+        <v>566</v>
+      </c>
+      <c r="BI6" t="s">
+        <v>497</v>
+      </c>
+      <c r="BJ6" t="s">
+        <v>581</v>
+      </c>
+      <c r="BK6" t="s">
+        <v>590</v>
+      </c>
+      <c r="BL6" t="s">
+        <v>597</v>
+      </c>
+      <c r="BM6" t="s">
+        <v>601</v>
+      </c>
+      <c r="BR6" t="s">
+        <v>608</v>
+      </c>
+      <c r="BS6" t="s">
+        <v>611</v>
+      </c>
+      <c r="BT6" t="s">
+        <v>566</v>
+      </c>
+      <c r="BV6" t="s">
+        <v>569</v>
+      </c>
+      <c r="BW6">
+        <v>669</v>
+      </c>
+      <c r="BX6" t="s">
+        <v>571</v>
+      </c>
+      <c r="BY6" t="s">
+        <v>575</v>
+      </c>
+      <c r="BZ6" t="s">
+        <v>566</v>
+      </c>
+      <c r="CB6" t="s">
+        <v>497</v>
+      </c>
+      <c r="CD6" t="s">
+        <v>581</v>
+      </c>
+      <c r="CE6" t="s">
+        <v>590</v>
+      </c>
+      <c r="CF6" t="s">
+        <v>597</v>
+      </c>
+      <c r="CG6" t="s">
+        <v>601</v>
+      </c>
+      <c r="GX6" t="s">
+        <v>628</v>
+      </c>
+      <c r="GY6" t="s">
+        <v>555</v>
+      </c>
+      <c r="GZ6" t="s">
+        <v>555</v>
+      </c>
+      <c r="HA6" t="s">
+        <v>555</v>
+      </c>
+      <c r="HB6" t="s">
+        <v>555</v>
+      </c>
+      <c r="HC6" t="s">
+        <v>555</v>
+      </c>
+      <c r="HD6" t="s">
+        <v>555</v>
+      </c>
+      <c r="HE6" t="s">
+        <v>555</v>
+      </c>
+      <c r="HF6" t="s">
+        <v>555</v>
+      </c>
+      <c r="HG6" t="s">
+        <v>555</v>
+      </c>
+      <c r="HH6" t="s">
+        <v>555</v>
+      </c>
+      <c r="HI6" t="s">
+        <v>555</v>
+      </c>
+      <c r="HJ6" t="s">
+        <v>555</v>
+      </c>
+      <c r="HK6" t="s">
+        <v>630</v>
+      </c>
+      <c r="HL6" t="s">
+        <v>555</v>
+      </c>
+      <c r="HM6" t="s">
+        <v>555</v>
+      </c>
+      <c r="HN6" t="s">
+        <v>555</v>
+      </c>
+      <c r="HO6" t="s">
+        <v>555</v>
+      </c>
+      <c r="HP6" t="s">
         <v>556</v>
       </c>
-      <c r="AI6" t="s">
-        <v>549</v>
-      </c>
-      <c r="AK6" t="s">
-        <v>497</v>
-      </c>
-      <c r="AL6" t="s">
-        <v>562</v>
-      </c>
-      <c r="AM6" t="s">
-        <v>570</v>
-      </c>
-      <c r="AN6" t="s">
-        <v>576</v>
-      </c>
-      <c r="AO6" t="s">
-        <v>580</v>
-      </c>
-      <c r="AP6" t="s">
-        <v>582</v>
-      </c>
-      <c r="AQ6" t="s">
-        <v>585</v>
-      </c>
-      <c r="FH6" t="s">
-        <v>549</v>
-      </c>
-      <c r="FJ6" t="s">
-        <v>552</v>
-      </c>
-      <c r="FK6">
-        <v>669</v>
-      </c>
-      <c r="FL6" t="s">
-        <v>553</v>
-      </c>
-      <c r="FM6" t="s">
+      <c r="HQ6" t="s">
         <v>556</v>
       </c>
-      <c r="FN6" t="s">
-        <v>549</v>
-      </c>
-      <c r="FP6" t="s">
-        <v>497</v>
-      </c>
-      <c r="FR6" t="s">
-        <v>562</v>
-      </c>
-      <c r="FS6" t="s">
-        <v>570</v>
-      </c>
-      <c r="FT6" t="s">
-        <v>576</v>
-      </c>
-      <c r="FU6" t="s">
-        <v>580</v>
-      </c>
-      <c r="IP6" t="s">
-        <v>625</v>
-      </c>
-      <c r="IQ6" t="s">
-        <v>591</v>
-      </c>
-      <c r="IR6" t="s">
-        <v>591</v>
-      </c>
-      <c r="IS6" t="s">
-        <v>590</v>
-      </c>
-      <c r="IT6" t="s">
-        <v>591</v>
-      </c>
-      <c r="IU6" t="s">
-        <v>591</v>
-      </c>
-      <c r="IV6" t="s">
-        <v>591</v>
-      </c>
-      <c r="IW6" t="s">
-        <v>591</v>
-      </c>
-      <c r="IX6" t="s">
-        <v>591</v>
-      </c>
-      <c r="IY6" t="s">
-        <v>591</v>
-      </c>
-      <c r="IZ6" t="s">
-        <v>591</v>
-      </c>
-      <c r="JA6" t="s">
-        <v>591</v>
-      </c>
-      <c r="JB6" t="s">
-        <v>599</v>
-      </c>
-      <c r="JC6" t="s">
-        <v>591</v>
-      </c>
-      <c r="JD6" t="s">
-        <v>625</v>
-      </c>
-      <c r="JE6" t="s">
-        <v>591</v>
-      </c>
-      <c r="JF6" t="s">
-        <v>591</v>
-      </c>
-      <c r="JG6" t="s">
-        <v>590</v>
-      </c>
-      <c r="JH6" t="s">
-        <v>591</v>
-      </c>
-      <c r="JI6" t="s">
-        <v>591</v>
-      </c>
-      <c r="JJ6" t="s">
-        <v>591</v>
-      </c>
-      <c r="JK6" t="s">
-        <v>591</v>
-      </c>
-      <c r="JL6" t="s">
-        <v>591</v>
-      </c>
-      <c r="JM6" t="s">
-        <v>591</v>
-      </c>
-      <c r="JN6" t="s">
-        <v>591</v>
-      </c>
-      <c r="JO6" t="s">
-        <v>599</v>
-      </c>
-      <c r="JP6" t="s">
-        <v>591</v>
-      </c>
-      <c r="PA6" t="s">
-        <v>590</v>
-      </c>
-      <c r="PK6" t="s">
-        <v>591</v>
-      </c>
-      <c r="PL6" t="s">
-        <v>591</v>
-      </c>
-      <c r="PM6" t="s">
-        <v>591</v>
-      </c>
-      <c r="PN6" t="s">
-        <v>590</v>
-      </c>
-      <c r="PO6" t="s">
-        <v>599</v>
-      </c>
-      <c r="PP6" t="s">
-        <v>599</v>
-      </c>
-      <c r="PQ6" t="s">
-        <v>591</v>
-      </c>
-      <c r="PR6" t="s">
-        <v>591</v>
-      </c>
-      <c r="PS6" t="s">
-        <v>591</v>
-      </c>
-      <c r="PT6" t="s">
-        <v>591</v>
-      </c>
-      <c r="PU6" t="s">
-        <v>591</v>
-      </c>
-      <c r="PV6" t="s">
-        <v>591</v>
-      </c>
-      <c r="PW6" t="s">
-        <v>591</v>
-      </c>
-      <c r="PX6" t="s">
-        <v>599</v>
-      </c>
-      <c r="PY6" t="s">
-        <v>599</v>
-      </c>
-      <c r="PZ6" t="s">
-        <v>591</v>
-      </c>
-      <c r="QA6" t="s">
-        <v>591</v>
-      </c>
-      <c r="QB6" t="s">
-        <v>591</v>
-      </c>
-      <c r="QC6" t="s">
-        <v>590</v>
-      </c>
-      <c r="QD6" t="s">
-        <v>626</v>
-      </c>
-      <c r="QE6" t="s">
-        <v>591</v>
-      </c>
-      <c r="QF6" t="s">
-        <v>591</v>
-      </c>
-      <c r="QG6" t="s">
-        <v>591</v>
-      </c>
-      <c r="QH6" t="s">
-        <v>591</v>
-      </c>
-      <c r="QI6" t="s">
-        <v>590</v>
-      </c>
-      <c r="QJ6" t="s">
-        <v>591</v>
-      </c>
-      <c r="QK6" t="s">
-        <v>591</v>
-      </c>
-      <c r="QL6" t="s">
-        <v>591</v>
-      </c>
-      <c r="QM6" t="s">
-        <v>591</v>
-      </c>
-      <c r="QN6" t="s">
-        <v>591</v>
-      </c>
-      <c r="QO6" t="s">
-        <v>591</v>
-      </c>
-      <c r="QP6" t="s">
-        <v>591</v>
-      </c>
-      <c r="QQ6" t="s">
-        <v>591</v>
-      </c>
-      <c r="QR6" t="s">
-        <v>591</v>
-      </c>
-      <c r="QS6" t="s">
-        <v>591</v>
-      </c>
-      <c r="QT6" t="s">
-        <v>591</v>
-      </c>
-      <c r="QU6" t="s">
-        <v>591</v>
+      <c r="HR6" t="s">
+        <v>555</v>
+      </c>
+      <c r="HS6" t="s">
+        <v>555</v>
+      </c>
+      <c r="HT6" t="s">
+        <v>555</v>
+      </c>
+      <c r="HU6" t="s">
+        <v>555</v>
+      </c>
+      <c r="HV6" t="s">
+        <v>555</v>
+      </c>
+      <c r="HW6" t="s">
+        <v>555</v>
+      </c>
+      <c r="HX6" t="s">
+        <v>555</v>
+      </c>
+      <c r="HY6" t="s">
+        <v>555</v>
+      </c>
+      <c r="HZ6" t="s">
+        <v>557</v>
+      </c>
+      <c r="IA6" t="s">
+        <v>555</v>
+      </c>
+      <c r="IB6" t="s">
+        <v>557</v>
+      </c>
+      <c r="IC6" t="s">
+        <v>555</v>
+      </c>
+      <c r="ID6" t="s">
+        <v>555</v>
+      </c>
+      <c r="IE6" t="s">
+        <v>555</v>
+      </c>
+      <c r="IF6" t="s">
+        <v>555</v>
+      </c>
+      <c r="IG6" t="s">
+        <v>557</v>
+      </c>
+      <c r="IH6" t="s">
+        <v>555</v>
+      </c>
+      <c r="II6" t="s">
+        <v>555</v>
+      </c>
+      <c r="IJ6" t="s">
+        <v>555</v>
+      </c>
+      <c r="IK6" t="s">
+        <v>555</v>
+      </c>
+      <c r="IL6" t="s">
+        <v>555</v>
+      </c>
+      <c r="IM6" t="s">
+        <v>557</v>
+      </c>
+      <c r="IN6" t="s">
+        <v>555</v>
       </c>
     </row>
     <row r="7" spans="1:491">
@@ -5352,7 +5291,7 @@
         <v>498</v>
       </c>
       <c r="I7" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="J7" t="b">
         <v>1</v>
@@ -5361,208 +5300,319 @@
         <v>1</v>
       </c>
       <c r="M7" t="s">
-        <v>514</v>
+        <v>516</v>
       </c>
       <c r="O7" t="s">
-        <v>522</v>
+        <v>525</v>
       </c>
       <c r="P7" t="s">
-        <v>528</v>
+        <v>532</v>
       </c>
       <c r="Q7" t="s">
-        <v>530</v>
+        <v>535</v>
       </c>
       <c r="R7" t="s">
-        <v>531</v>
+        <v>536</v>
       </c>
       <c r="S7" t="s">
-        <v>532</v>
+        <v>537</v>
       </c>
       <c r="T7" t="s">
-        <v>533</v>
+        <v>538</v>
       </c>
       <c r="U7">
-        <v>6371</v>
+        <v>12359</v>
       </c>
       <c r="V7" s="2" t="s">
-        <v>539</v>
+        <v>544</v>
       </c>
       <c r="W7" t="s">
-        <v>530</v>
+        <v>535</v>
       </c>
       <c r="X7" t="s">
-        <v>542</v>
+        <v>548</v>
       </c>
       <c r="Y7" t="s">
-        <v>531</v>
+        <v>536</v>
       </c>
       <c r="Z7" t="s">
-        <v>532</v>
+        <v>537</v>
       </c>
       <c r="AA7" s="2" t="s">
-        <v>543</v>
+        <v>549</v>
       </c>
       <c r="AB7" t="s">
-        <v>548</v>
-      </c>
-      <c r="AC7" t="s">
-        <v>550</v>
-      </c>
-      <c r="AD7" s="2" t="s">
-        <v>551</v>
-      </c>
-      <c r="AE7" t="s">
-        <v>552</v>
-      </c>
-      <c r="AF7">
+        <v>554</v>
+      </c>
+      <c r="BA7" t="s">
+        <v>566</v>
+      </c>
+      <c r="BB7" s="2" t="s">
+        <v>567</v>
+      </c>
+      <c r="BC7" t="s">
+        <v>569</v>
+      </c>
+      <c r="BD7">
         <v>669</v>
       </c>
-      <c r="AG7" t="s">
-        <v>553</v>
-      </c>
-      <c r="AH7" t="s">
+      <c r="BE7" t="s">
+        <v>571</v>
+      </c>
+      <c r="BF7" t="s">
+        <v>575</v>
+      </c>
+      <c r="BG7" t="s">
+        <v>566</v>
+      </c>
+      <c r="BI7" t="s">
+        <v>498</v>
+      </c>
+      <c r="BJ7" t="s">
+        <v>582</v>
+      </c>
+      <c r="BK7" t="s">
+        <v>591</v>
+      </c>
+      <c r="BL7" t="s">
+        <v>597</v>
+      </c>
+      <c r="BM7" t="s">
+        <v>601</v>
+      </c>
+      <c r="BR7" t="s">
+        <v>608</v>
+      </c>
+      <c r="BS7" t="s">
+        <v>611</v>
+      </c>
+      <c r="BT7" t="s">
+        <v>566</v>
+      </c>
+      <c r="BV7" t="s">
+        <v>569</v>
+      </c>
+      <c r="BW7">
+        <v>669</v>
+      </c>
+      <c r="BX7" t="s">
+        <v>571</v>
+      </c>
+      <c r="BY7" t="s">
+        <v>575</v>
+      </c>
+      <c r="BZ7" t="s">
+        <v>566</v>
+      </c>
+      <c r="CB7" t="s">
+        <v>498</v>
+      </c>
+      <c r="CD7" t="s">
+        <v>582</v>
+      </c>
+      <c r="CE7" t="s">
+        <v>591</v>
+      </c>
+      <c r="CF7" t="s">
+        <v>597</v>
+      </c>
+      <c r="CG7" t="s">
+        <v>601</v>
+      </c>
+      <c r="JR7" t="s">
+        <v>647</v>
+      </c>
+      <c r="JS7" t="s">
+        <v>555</v>
+      </c>
+      <c r="JT7" t="s">
+        <v>555</v>
+      </c>
+      <c r="JU7" t="s">
         <v>557</v>
       </c>
-      <c r="AI7" t="s">
-        <v>549</v>
-      </c>
-      <c r="AK7" t="s">
-        <v>498</v>
-      </c>
-      <c r="AL7" t="s">
-        <v>563</v>
-      </c>
-      <c r="AM7" t="s">
-        <v>571</v>
-      </c>
-      <c r="AN7" t="s">
-        <v>577</v>
-      </c>
-      <c r="AO7" t="s">
-        <v>581</v>
-      </c>
-      <c r="AP7" t="s">
-        <v>582</v>
-      </c>
-      <c r="AQ7" t="s">
-        <v>585</v>
-      </c>
-      <c r="FH7" t="s">
-        <v>603</v>
-      </c>
-      <c r="FI7" t="s">
-        <v>604</v>
-      </c>
-      <c r="FJ7" t="s">
-        <v>552</v>
-      </c>
-      <c r="FK7">
-        <v>669</v>
-      </c>
-      <c r="FL7" t="s">
-        <v>553</v>
-      </c>
-      <c r="FM7" t="s">
+      <c r="JV7" t="s">
+        <v>555</v>
+      </c>
+      <c r="JW7" t="s">
+        <v>555</v>
+      </c>
+      <c r="JX7" t="s">
+        <v>555</v>
+      </c>
+      <c r="JY7" t="s">
+        <v>555</v>
+      </c>
+      <c r="JZ7" t="s">
+        <v>555</v>
+      </c>
+      <c r="KA7" t="s">
+        <v>555</v>
+      </c>
+      <c r="KB7" t="s">
+        <v>555</v>
+      </c>
+      <c r="KC7" t="s">
+        <v>555</v>
+      </c>
+      <c r="KD7" t="s">
+        <v>556</v>
+      </c>
+      <c r="KE7" t="s">
+        <v>555</v>
+      </c>
+      <c r="KF7" t="s">
+        <v>647</v>
+      </c>
+      <c r="KG7" t="s">
+        <v>555</v>
+      </c>
+      <c r="KH7" t="s">
+        <v>555</v>
+      </c>
+      <c r="KI7" t="s">
         <v>557</v>
       </c>
-      <c r="FN7" t="s">
-        <v>549</v>
-      </c>
-      <c r="FP7" t="s">
-        <v>498</v>
-      </c>
-      <c r="FR7" t="s">
-        <v>563</v>
-      </c>
-      <c r="FS7" t="s">
-        <v>571</v>
-      </c>
-      <c r="FT7" t="s">
-        <v>577</v>
-      </c>
-      <c r="FU7" t="s">
-        <v>581</v>
+      <c r="KJ7" t="s">
+        <v>555</v>
+      </c>
+      <c r="KK7" t="s">
+        <v>555</v>
+      </c>
+      <c r="KL7" t="s">
+        <v>555</v>
+      </c>
+      <c r="KM7" t="s">
+        <v>555</v>
+      </c>
+      <c r="KN7" t="s">
+        <v>555</v>
+      </c>
+      <c r="KO7" t="s">
+        <v>555</v>
+      </c>
+      <c r="KP7" t="s">
+        <v>555</v>
+      </c>
+      <c r="KQ7" t="s">
+        <v>556</v>
+      </c>
+      <c r="KR7" t="s">
+        <v>555</v>
+      </c>
+      <c r="QC7" t="s">
+        <v>557</v>
+      </c>
+      <c r="QM7" t="s">
+        <v>555</v>
+      </c>
+      <c r="QN7" t="s">
+        <v>555</v>
+      </c>
+      <c r="QO7" t="s">
+        <v>555</v>
+      </c>
+      <c r="QP7" t="s">
+        <v>557</v>
+      </c>
+      <c r="QQ7" t="s">
+        <v>556</v>
+      </c>
+      <c r="QR7" t="s">
+        <v>556</v>
+      </c>
+      <c r="QS7" t="s">
+        <v>555</v>
+      </c>
+      <c r="QT7" t="s">
+        <v>555</v>
+      </c>
+      <c r="QU7" t="s">
+        <v>555</v>
       </c>
       <c r="QV7" t="s">
-        <v>599</v>
+        <v>555</v>
       </c>
       <c r="QW7" t="s">
-        <v>591</v>
+        <v>555</v>
       </c>
       <c r="QX7" t="s">
-        <v>591</v>
+        <v>555</v>
       </c>
       <c r="QY7" t="s">
-        <v>599</v>
+        <v>555</v>
       </c>
       <c r="QZ7" t="s">
-        <v>599</v>
+        <v>556</v>
+      </c>
+      <c r="RA7" t="s">
+        <v>556</v>
       </c>
       <c r="RB7" t="s">
-        <v>599</v>
+        <v>555</v>
       </c>
       <c r="RC7" t="s">
-        <v>590</v>
+        <v>555</v>
       </c>
       <c r="RD7" t="s">
-        <v>599</v>
+        <v>555</v>
       </c>
       <c r="RE7" t="s">
-        <v>590</v>
+        <v>557</v>
       </c>
       <c r="RF7" t="s">
-        <v>590</v>
+        <v>648</v>
       </c>
       <c r="RG7" t="s">
-        <v>599</v>
+        <v>555</v>
       </c>
       <c r="RH7" t="s">
-        <v>591</v>
+        <v>555</v>
       </c>
       <c r="RI7" t="s">
-        <v>591</v>
+        <v>555</v>
       </c>
       <c r="RJ7" t="s">
-        <v>627</v>
+        <v>555</v>
       </c>
       <c r="RK7" t="s">
-        <v>591</v>
+        <v>557</v>
       </c>
       <c r="RL7" t="s">
-        <v>590</v>
+        <v>555</v>
       </c>
       <c r="RM7" t="s">
-        <v>599</v>
+        <v>555</v>
       </c>
       <c r="RN7" t="s">
-        <v>590</v>
+        <v>555</v>
       </c>
       <c r="RO7" t="s">
-        <v>628</v>
+        <v>555</v>
       </c>
       <c r="RP7" t="s">
-        <v>629</v>
+        <v>555</v>
       </c>
       <c r="RQ7" t="s">
-        <v>591</v>
+        <v>555</v>
       </c>
       <c r="RR7" t="s">
-        <v>591</v>
+        <v>555</v>
       </c>
       <c r="RS7" t="s">
-        <v>630</v>
+        <v>555</v>
       </c>
       <c r="RT7" t="s">
-        <v>631</v>
+        <v>555</v>
       </c>
       <c r="RU7" t="s">
-        <v>632</v>
+        <v>555</v>
       </c>
       <c r="RV7" t="s">
-        <v>633</v>
+        <v>555</v>
       </c>
       <c r="RW7" t="s">
-        <v>634</v>
+        <v>555</v>
       </c>
     </row>
     <row r="8" spans="1:491">
@@ -5585,7 +5635,7 @@
         <v>499</v>
       </c>
       <c r="I8" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="J8" t="b">
         <v>1</v>
@@ -5594,166 +5644,208 @@
         <v>1</v>
       </c>
       <c r="M8" t="s">
-        <v>515</v>
+        <v>517</v>
       </c>
       <c r="O8" t="s">
-        <v>523</v>
+        <v>526</v>
       </c>
       <c r="P8" t="s">
-        <v>529</v>
+        <v>533</v>
       </c>
       <c r="Q8" t="s">
-        <v>530</v>
+        <v>535</v>
       </c>
       <c r="R8" t="s">
-        <v>531</v>
+        <v>536</v>
       </c>
       <c r="S8" t="s">
-        <v>532</v>
+        <v>537</v>
       </c>
       <c r="T8" t="s">
-        <v>533</v>
+        <v>538</v>
       </c>
       <c r="U8">
-        <v>2314</v>
+        <v>6371</v>
       </c>
       <c r="V8" s="2" t="s">
-        <v>540</v>
+        <v>545</v>
       </c>
       <c r="W8" t="s">
-        <v>530</v>
+        <v>535</v>
       </c>
       <c r="X8" t="s">
-        <v>542</v>
+        <v>548</v>
       </c>
       <c r="Y8" t="s">
-        <v>531</v>
+        <v>536</v>
       </c>
       <c r="Z8" t="s">
-        <v>532</v>
+        <v>537</v>
       </c>
       <c r="AA8" s="2" t="s">
-        <v>543</v>
+        <v>549</v>
       </c>
       <c r="AB8" t="s">
-        <v>546</v>
+        <v>550</v>
       </c>
       <c r="AC8" t="s">
-        <v>549</v>
-      </c>
-      <c r="AD8" s="2" t="s">
-        <v>551</v>
+        <v>556</v>
+      </c>
+      <c r="AD8" t="s">
+        <v>555</v>
       </c>
       <c r="AE8" t="s">
-        <v>552</v>
-      </c>
-      <c r="AF8">
+        <v>555</v>
+      </c>
+      <c r="AF8" t="s">
+        <v>556</v>
+      </c>
+      <c r="AG8" t="s">
+        <v>556</v>
+      </c>
+      <c r="AI8" t="s">
+        <v>556</v>
+      </c>
+      <c r="AJ8" t="s">
+        <v>557</v>
+      </c>
+      <c r="AK8" t="s">
+        <v>556</v>
+      </c>
+      <c r="AL8" t="s">
+        <v>557</v>
+      </c>
+      <c r="AM8" t="s">
+        <v>557</v>
+      </c>
+      <c r="AN8" t="s">
+        <v>556</v>
+      </c>
+      <c r="AO8" t="s">
+        <v>555</v>
+      </c>
+      <c r="AP8" t="s">
+        <v>555</v>
+      </c>
+      <c r="AQ8" t="s">
+        <v>559</v>
+      </c>
+      <c r="AR8" t="s">
+        <v>555</v>
+      </c>
+      <c r="AS8" t="s">
+        <v>557</v>
+      </c>
+      <c r="AT8" t="s">
+        <v>556</v>
+      </c>
+      <c r="AU8" t="s">
+        <v>557</v>
+      </c>
+      <c r="AV8" t="s">
+        <v>561</v>
+      </c>
+      <c r="AW8" t="s">
+        <v>563</v>
+      </c>
+      <c r="AX8" t="s">
+        <v>555</v>
+      </c>
+      <c r="AY8" t="s">
+        <v>555</v>
+      </c>
+      <c r="AZ8" t="s">
+        <v>564</v>
+      </c>
+      <c r="BA8" t="s">
+        <v>565</v>
+      </c>
+      <c r="BB8" s="2" t="s">
+        <v>567</v>
+      </c>
+      <c r="BC8" t="s">
+        <v>569</v>
+      </c>
+      <c r="BD8">
         <v>669</v>
       </c>
-      <c r="AG8" t="s">
-        <v>553</v>
-      </c>
-      <c r="AH8" t="s">
-        <v>555</v>
-      </c>
-      <c r="AI8" t="s">
-        <v>549</v>
-      </c>
-      <c r="AK8" t="s">
+      <c r="BE8" t="s">
+        <v>571</v>
+      </c>
+      <c r="BF8" t="s">
+        <v>576</v>
+      </c>
+      <c r="BG8" t="s">
+        <v>566</v>
+      </c>
+      <c r="BI8" t="s">
         <v>499</v>
       </c>
-      <c r="AL8" t="s">
-        <v>564</v>
-      </c>
-      <c r="AM8" t="s">
-        <v>572</v>
-      </c>
-      <c r="AN8" t="s">
-        <v>575</v>
-      </c>
-      <c r="AO8" t="s">
-        <v>579</v>
-      </c>
-      <c r="AP8" t="s">
+      <c r="BJ8" t="s">
         <v>583</v>
       </c>
-      <c r="AQ8" t="s">
-        <v>587</v>
-      </c>
-      <c r="FH8" t="s">
-        <v>549</v>
-      </c>
-      <c r="FJ8" t="s">
-        <v>552</v>
-      </c>
-      <c r="FK8">
+      <c r="BK8" t="s">
+        <v>592</v>
+      </c>
+      <c r="BL8" t="s">
+        <v>598</v>
+      </c>
+      <c r="BM8" t="s">
+        <v>602</v>
+      </c>
+      <c r="BN8" t="s">
+        <v>603</v>
+      </c>
+      <c r="BO8" t="s">
+        <v>604</v>
+      </c>
+      <c r="BP8" t="s">
+        <v>605</v>
+      </c>
+      <c r="BQ8" t="s">
+        <v>606</v>
+      </c>
+      <c r="BR8" t="s">
+        <v>608</v>
+      </c>
+      <c r="BS8" t="s">
+        <v>611</v>
+      </c>
+      <c r="BT8" t="s">
+        <v>614</v>
+      </c>
+      <c r="BU8" t="s">
+        <v>615</v>
+      </c>
+      <c r="BV8" t="s">
+        <v>569</v>
+      </c>
+      <c r="BW8">
         <v>669</v>
       </c>
-      <c r="FL8" t="s">
-        <v>553</v>
-      </c>
-      <c r="FM8" t="s">
-        <v>555</v>
-      </c>
-      <c r="FN8" t="s">
-        <v>549</v>
-      </c>
-      <c r="FP8" t="s">
+      <c r="BX8" t="s">
+        <v>571</v>
+      </c>
+      <c r="BY8" t="s">
+        <v>576</v>
+      </c>
+      <c r="BZ8" t="s">
+        <v>566</v>
+      </c>
+      <c r="CB8" t="s">
         <v>499</v>
       </c>
-      <c r="FR8" t="s">
-        <v>564</v>
-      </c>
-      <c r="FS8" t="s">
-        <v>572</v>
-      </c>
-      <c r="FT8" t="s">
-        <v>575</v>
-      </c>
-      <c r="FU8" t="s">
-        <v>579</v>
-      </c>
-      <c r="HM8" t="s">
-        <v>610</v>
-      </c>
-      <c r="HO8" t="s">
-        <v>615</v>
-      </c>
-      <c r="HP8" t="s">
-        <v>618</v>
-      </c>
-      <c r="HR8" t="s">
-        <v>590</v>
-      </c>
-      <c r="HV8" t="s">
-        <v>591</v>
-      </c>
-      <c r="IA8" t="s">
-        <v>623</v>
-      </c>
-      <c r="IB8" t="s">
-        <v>591</v>
-      </c>
-      <c r="IC8" t="s">
-        <v>590</v>
-      </c>
-      <c r="II8" t="s">
-        <v>590</v>
-      </c>
-      <c r="IJ8" t="s">
-        <v>590</v>
-      </c>
-      <c r="IK8" t="s">
-        <v>591</v>
-      </c>
-      <c r="IL8" t="s">
-        <v>590</v>
-      </c>
-      <c r="IN8" t="s">
-        <v>590</v>
-      </c>
-      <c r="IO8" t="s">
-        <v>599</v>
+      <c r="CD8" t="s">
+        <v>583</v>
+      </c>
+      <c r="CE8" t="s">
+        <v>592</v>
+      </c>
+      <c r="CF8" t="s">
+        <v>598</v>
+      </c>
+      <c r="CG8" t="s">
+        <v>602</v>
       </c>
     </row>
     <row r="9" spans="1:491">
@@ -5776,7 +5868,7 @@
         <v>500</v>
       </c>
       <c r="I9" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="J9" t="b">
         <v>1</v>
@@ -5785,209 +5877,403 @@
         <v>1</v>
       </c>
       <c r="M9" t="s">
-        <v>516</v>
+        <v>518</v>
       </c>
       <c r="O9" t="s">
-        <v>524</v>
+        <v>527</v>
       </c>
       <c r="P9" t="s">
-        <v>529</v>
+        <v>534</v>
       </c>
       <c r="Q9" t="s">
-        <v>530</v>
+        <v>535</v>
       </c>
       <c r="R9" t="s">
-        <v>531</v>
+        <v>536</v>
       </c>
       <c r="S9" t="s">
-        <v>532</v>
+        <v>537</v>
       </c>
       <c r="T9" t="s">
-        <v>533</v>
+        <v>538</v>
       </c>
       <c r="U9">
+        <v>2314</v>
+      </c>
+      <c r="V9" s="2" t="s">
+        <v>546</v>
+      </c>
+      <c r="W9" t="s">
+        <v>535</v>
+      </c>
+      <c r="X9" t="s">
+        <v>548</v>
+      </c>
+      <c r="Y9" t="s">
+        <v>536</v>
+      </c>
+      <c r="Z9" t="s">
+        <v>537</v>
+      </c>
+      <c r="AA9" s="2" t="s">
+        <v>549</v>
+      </c>
+      <c r="AB9" t="s">
+        <v>553</v>
+      </c>
+      <c r="BA9" t="s">
+        <v>566</v>
+      </c>
+      <c r="BB9" s="2" t="s">
+        <v>567</v>
+      </c>
+      <c r="BC9" t="s">
+        <v>569</v>
+      </c>
+      <c r="BD9">
+        <v>669</v>
+      </c>
+      <c r="BE9" t="s">
+        <v>571</v>
+      </c>
+      <c r="BF9" t="s">
+        <v>574</v>
+      </c>
+      <c r="BG9" t="s">
+        <v>566</v>
+      </c>
+      <c r="BI9" t="s">
+        <v>500</v>
+      </c>
+      <c r="BJ9" t="s">
+        <v>584</v>
+      </c>
+      <c r="BK9" t="s">
+        <v>593</v>
+      </c>
+      <c r="BL9" t="s">
+        <v>595</v>
+      </c>
+      <c r="BM9" t="s">
+        <v>599</v>
+      </c>
+      <c r="BR9" t="s">
+        <v>607</v>
+      </c>
+      <c r="BS9" t="s">
+        <v>612</v>
+      </c>
+      <c r="BT9" t="s">
+        <v>566</v>
+      </c>
+      <c r="BV9" t="s">
+        <v>569</v>
+      </c>
+      <c r="BW9">
+        <v>669</v>
+      </c>
+      <c r="BX9" t="s">
+        <v>571</v>
+      </c>
+      <c r="BY9" t="s">
+        <v>574</v>
+      </c>
+      <c r="BZ9" t="s">
+        <v>566</v>
+      </c>
+      <c r="CB9" t="s">
+        <v>500</v>
+      </c>
+      <c r="CD9" t="s">
+        <v>584</v>
+      </c>
+      <c r="CE9" t="s">
+        <v>593</v>
+      </c>
+      <c r="CF9" t="s">
+        <v>595</v>
+      </c>
+      <c r="CG9" t="s">
+        <v>599</v>
+      </c>
+      <c r="IO9" t="s">
+        <v>632</v>
+      </c>
+      <c r="IQ9" t="s">
+        <v>637</v>
+      </c>
+      <c r="IR9" t="s">
+        <v>640</v>
+      </c>
+      <c r="IT9" t="s">
+        <v>557</v>
+      </c>
+      <c r="IX9" t="s">
+        <v>555</v>
+      </c>
+      <c r="JC9" t="s">
+        <v>645</v>
+      </c>
+      <c r="JD9" t="s">
+        <v>555</v>
+      </c>
+      <c r="JE9" t="s">
+        <v>557</v>
+      </c>
+      <c r="JK9" t="s">
+        <v>557</v>
+      </c>
+      <c r="JL9" t="s">
+        <v>557</v>
+      </c>
+      <c r="JM9" t="s">
+        <v>555</v>
+      </c>
+      <c r="JN9" t="s">
+        <v>557</v>
+      </c>
+      <c r="JP9" t="s">
+        <v>557</v>
+      </c>
+      <c r="JQ9" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="10" spans="1:491">
+      <c r="A10" s="1">
+        <v>8</v>
+      </c>
+      <c r="B10" t="s">
+        <v>490</v>
+      </c>
+      <c r="C10" t="b">
+        <v>0</v>
+      </c>
+      <c r="D10" t="s">
+        <v>491</v>
+      </c>
+      <c r="E10" t="s">
+        <v>492</v>
+      </c>
+      <c r="H10" t="s">
+        <v>501</v>
+      </c>
+      <c r="I10" t="s">
+        <v>510</v>
+      </c>
+      <c r="J10" t="b">
+        <v>1</v>
+      </c>
+      <c r="K10" t="b">
+        <v>1</v>
+      </c>
+      <c r="M10" t="s">
+        <v>519</v>
+      </c>
+      <c r="O10" t="s">
+        <v>528</v>
+      </c>
+      <c r="P10" t="s">
+        <v>534</v>
+      </c>
+      <c r="Q10" t="s">
+        <v>535</v>
+      </c>
+      <c r="R10" t="s">
+        <v>536</v>
+      </c>
+      <c r="S10" t="s">
+        <v>537</v>
+      </c>
+      <c r="T10" t="s">
+        <v>538</v>
+      </c>
+      <c r="U10">
         <v>2626</v>
       </c>
-      <c r="V9" s="2" t="s">
-        <v>541</v>
-      </c>
-      <c r="W9" t="s">
-        <v>530</v>
-      </c>
-      <c r="X9" t="s">
-        <v>542</v>
-      </c>
-      <c r="Y9" t="s">
-        <v>531</v>
-      </c>
-      <c r="Z9" t="s">
-        <v>532</v>
-      </c>
-      <c r="AA9" s="2" t="s">
-        <v>543</v>
-      </c>
-      <c r="AB9" t="s">
-        <v>546</v>
-      </c>
-      <c r="AC9" t="s">
+      <c r="V10" s="2" t="s">
+        <v>547</v>
+      </c>
+      <c r="W10" t="s">
+        <v>535</v>
+      </c>
+      <c r="X10" t="s">
+        <v>548</v>
+      </c>
+      <c r="Y10" t="s">
+        <v>536</v>
+      </c>
+      <c r="Z10" t="s">
+        <v>537</v>
+      </c>
+      <c r="AA10" s="2" t="s">
         <v>549</v>
       </c>
-      <c r="AD9" s="2" t="s">
-        <v>551</v>
-      </c>
-      <c r="AE9" t="s">
-        <v>552</v>
-      </c>
-      <c r="AF9">
+      <c r="AB10" t="s">
+        <v>553</v>
+      </c>
+      <c r="BA10" t="s">
+        <v>566</v>
+      </c>
+      <c r="BB10" s="2" t="s">
+        <v>567</v>
+      </c>
+      <c r="BC10" t="s">
+        <v>569</v>
+      </c>
+      <c r="BD10">
         <v>669</v>
       </c>
-      <c r="AG9" t="s">
-        <v>553</v>
-      </c>
-      <c r="AH9" t="s">
+      <c r="BE10" t="s">
+        <v>571</v>
+      </c>
+      <c r="BF10" t="s">
+        <v>576</v>
+      </c>
+      <c r="BG10" t="s">
+        <v>566</v>
+      </c>
+      <c r="BI10" t="s">
+        <v>501</v>
+      </c>
+      <c r="BJ10" t="s">
+        <v>585</v>
+      </c>
+      <c r="BK10" t="s">
+        <v>594</v>
+      </c>
+      <c r="BL10" t="s">
+        <v>598</v>
+      </c>
+      <c r="BM10" t="s">
+        <v>602</v>
+      </c>
+      <c r="BR10" t="s">
+        <v>609</v>
+      </c>
+      <c r="BS10" t="s">
+        <v>613</v>
+      </c>
+      <c r="BT10" t="s">
+        <v>566</v>
+      </c>
+      <c r="BV10" t="s">
+        <v>569</v>
+      </c>
+      <c r="BW10">
+        <v>669</v>
+      </c>
+      <c r="BX10" t="s">
+        <v>571</v>
+      </c>
+      <c r="BY10" t="s">
+        <v>576</v>
+      </c>
+      <c r="BZ10" t="s">
+        <v>566</v>
+      </c>
+      <c r="CB10" t="s">
+        <v>501</v>
+      </c>
+      <c r="CD10" t="s">
+        <v>585</v>
+      </c>
+      <c r="CE10" t="s">
+        <v>594</v>
+      </c>
+      <c r="CF10" t="s">
+        <v>598</v>
+      </c>
+      <c r="CG10" t="s">
+        <v>602</v>
+      </c>
+      <c r="IO10" t="s">
+        <v>633</v>
+      </c>
+      <c r="IP10" t="s">
+        <v>635</v>
+      </c>
+      <c r="IQ10" t="s">
+        <v>638</v>
+      </c>
+      <c r="IR10" t="s">
+        <v>641</v>
+      </c>
+      <c r="IS10" t="s">
+        <v>643</v>
+      </c>
+      <c r="IT10" t="s">
         <v>557</v>
       </c>
-      <c r="AI9" t="s">
-        <v>549</v>
-      </c>
-      <c r="AK9" t="s">
-        <v>500</v>
-      </c>
-      <c r="AL9" t="s">
-        <v>565</v>
-      </c>
-      <c r="AM9" t="s">
-        <v>573</v>
-      </c>
-      <c r="AN9" t="s">
-        <v>577</v>
-      </c>
-      <c r="AO9" t="s">
-        <v>581</v>
-      </c>
-      <c r="AP9" t="s">
-        <v>584</v>
-      </c>
-      <c r="AQ9" t="s">
-        <v>588</v>
-      </c>
-      <c r="FH9" t="s">
-        <v>549</v>
-      </c>
-      <c r="FJ9" t="s">
-        <v>552</v>
-      </c>
-      <c r="FK9">
-        <v>669</v>
-      </c>
-      <c r="FL9" t="s">
-        <v>553</v>
-      </c>
-      <c r="FM9" t="s">
+      <c r="IW10" t="s">
+        <v>555</v>
+      </c>
+      <c r="IX10" t="s">
+        <v>555</v>
+      </c>
+      <c r="IY10" t="s">
+        <v>555</v>
+      </c>
+      <c r="JC10" t="s">
+        <v>646</v>
+      </c>
+      <c r="JD10" t="s">
+        <v>555</v>
+      </c>
+      <c r="JE10" t="s">
         <v>557</v>
       </c>
-      <c r="FN9" t="s">
-        <v>549</v>
-      </c>
-      <c r="FP9" t="s">
-        <v>500</v>
-      </c>
-      <c r="FR9" t="s">
-        <v>565</v>
-      </c>
-      <c r="FS9" t="s">
-        <v>573</v>
-      </c>
-      <c r="FT9" t="s">
-        <v>577</v>
-      </c>
-      <c r="FU9" t="s">
-        <v>581</v>
-      </c>
-      <c r="HM9" t="s">
-        <v>611</v>
-      </c>
-      <c r="HN9" t="s">
-        <v>613</v>
-      </c>
-      <c r="HO9" t="s">
-        <v>616</v>
-      </c>
-      <c r="HP9" t="s">
-        <v>619</v>
-      </c>
-      <c r="HQ9" t="s">
-        <v>621</v>
-      </c>
-      <c r="HR9" t="s">
-        <v>590</v>
-      </c>
-      <c r="HU9" t="s">
-        <v>591</v>
-      </c>
-      <c r="HV9" t="s">
-        <v>591</v>
-      </c>
-      <c r="HW9" t="s">
-        <v>591</v>
-      </c>
-      <c r="IA9" t="s">
-        <v>624</v>
-      </c>
-      <c r="IB9" t="s">
-        <v>591</v>
-      </c>
-      <c r="IC9" t="s">
-        <v>590</v>
-      </c>
-      <c r="ID9" t="s">
-        <v>591</v>
-      </c>
-      <c r="II9" t="s">
-        <v>590</v>
-      </c>
-      <c r="IJ9" t="s">
-        <v>590</v>
-      </c>
-      <c r="IK9" t="s">
-        <v>591</v>
-      </c>
-      <c r="IL9" t="s">
-        <v>590</v>
-      </c>
-      <c r="IN9" t="s">
-        <v>590</v>
-      </c>
-      <c r="IO9" t="s">
-        <v>591</v>
+      <c r="JF10" t="s">
+        <v>555</v>
+      </c>
+      <c r="JK10" t="s">
+        <v>557</v>
+      </c>
+      <c r="JL10" t="s">
+        <v>557</v>
+      </c>
+      <c r="JM10" t="s">
+        <v>555</v>
+      </c>
+      <c r="JN10" t="s">
+        <v>557</v>
+      </c>
+      <c r="JP10" t="s">
+        <v>557</v>
+      </c>
+      <c r="JQ10" t="s">
+        <v>555</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="V2" r:id="rId1"/>
     <hyperlink ref="AA2" r:id="rId2"/>
-    <hyperlink ref="AD2" r:id="rId3"/>
+    <hyperlink ref="BB2" r:id="rId3"/>
     <hyperlink ref="V3" r:id="rId4"/>
     <hyperlink ref="AA3" r:id="rId5"/>
-    <hyperlink ref="AD3" r:id="rId6"/>
+    <hyperlink ref="BB3" r:id="rId6"/>
     <hyperlink ref="V4" r:id="rId7"/>
     <hyperlink ref="AA4" r:id="rId8"/>
-    <hyperlink ref="AD4" r:id="rId9"/>
+    <hyperlink ref="BB4" r:id="rId9"/>
     <hyperlink ref="V5" r:id="rId10"/>
     <hyperlink ref="AA5" r:id="rId11"/>
-    <hyperlink ref="AD5" r:id="rId12"/>
+    <hyperlink ref="BB5" r:id="rId12"/>
     <hyperlink ref="V6" r:id="rId13"/>
     <hyperlink ref="AA6" r:id="rId14"/>
-    <hyperlink ref="AD6" r:id="rId15"/>
+    <hyperlink ref="BB6" r:id="rId15"/>
     <hyperlink ref="V7" r:id="rId16"/>
     <hyperlink ref="AA7" r:id="rId17"/>
-    <hyperlink ref="AD7" r:id="rId18"/>
+    <hyperlink ref="BB7" r:id="rId18"/>
     <hyperlink ref="V8" r:id="rId19"/>
     <hyperlink ref="AA8" r:id="rId20"/>
-    <hyperlink ref="AD8" r:id="rId21"/>
+    <hyperlink ref="BB8" r:id="rId21"/>
     <hyperlink ref="V9" r:id="rId22"/>
     <hyperlink ref="AA9" r:id="rId23"/>
-    <hyperlink ref="AD9" r:id="rId24"/>
+    <hyperlink ref="BB9" r:id="rId24"/>
+    <hyperlink ref="V10" r:id="rId25"/>
+    <hyperlink ref="AA10" r:id="rId26"/>
+    <hyperlink ref="BB10" r:id="rId27"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/test.xlsx
+++ b/test.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1225" uniqueCount="649">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1442" uniqueCount="681">
   <si>
     <t>app_id</t>
   </si>
@@ -97,6 +97,540 @@
     <t>form.activity_and_time_period_under_review.section</t>
   </si>
   <si>
+    <t>form.demand_creation_-_undersaved_populations__community_involvement.copy-1-of-dcTargetPopulation</t>
+  </si>
+  <si>
+    <t>form.demand_creation_-_undersaved_populations__community_involvement.dcCommunityCadres</t>
+  </si>
+  <si>
+    <t>form.demand_creation_-_undersaved_populations__community_involvement.dcInnovation</t>
+  </si>
+  <si>
+    <t>form.demand_creation_-_undersaved_populations__community_involvement.dcTargetPopulation</t>
+  </si>
+  <si>
+    <t>form.demand_creation_-_undersaved_populations__community_involvement.give_overall_comment_demand_creation</t>
+  </si>
+  <si>
+    <t>form.demand_creation_-_undersaved_populations__community_involvement.innovation</t>
+  </si>
+  <si>
+    <t>form.ending_month_to_numeric</t>
+  </si>
+  <si>
+    <t>form.meta.@xmlns</t>
+  </si>
+  <si>
+    <t>form.meta.appVersion</t>
+  </si>
+  <si>
+    <t>form.meta.app_build_version</t>
+  </si>
+  <si>
+    <t>form.meta.commcare_version</t>
+  </si>
+  <si>
+    <t>form.meta.deviceID</t>
+  </si>
+  <si>
+    <t>form.meta.drift</t>
+  </si>
+  <si>
+    <t>form.meta.geo_point</t>
+  </si>
+  <si>
+    <t>form.meta.instanceID</t>
+  </si>
+  <si>
+    <t>form.meta.timeEnd</t>
+  </si>
+  <si>
+    <t>form.meta.timeStart</t>
+  </si>
+  <si>
+    <t>form.meta.userID</t>
+  </si>
+  <si>
+    <t>form.meta.username</t>
+  </si>
+  <si>
+    <t>form.question2.District</t>
+  </si>
+  <si>
+    <t>form.question2.facility</t>
+  </si>
+  <si>
+    <t>form.section_c_-_demand_creation.abilitytoEngagewithParticipants</t>
+  </si>
+  <si>
+    <t>form.section_c_-_demand_creation.abilitytoWindupSession</t>
+  </si>
+  <si>
+    <t>form.section_c_-_demand_creation.activeMobilisers</t>
+  </si>
+  <si>
+    <t>form.section_c_-_demand_creation.age15-24dcStrategy</t>
+  </si>
+  <si>
+    <t>form.section_c_-_demand_creation.age25-24dcStrategy</t>
+  </si>
+  <si>
+    <t>form.section_c_-_demand_creation.consentFormsDC</t>
+  </si>
+  <si>
+    <t>form.section_c_-_demand_creation.contentAccuracy</t>
+  </si>
+  <si>
+    <t>form.section_c_-_demand_creation.contentRelevance</t>
+  </si>
+  <si>
+    <t>form.section_c_-_demand_creation.dcComment</t>
+  </si>
+  <si>
+    <t>form.section_c_-_demand_creation.dcPlanObjectives</t>
+  </si>
+  <si>
+    <t>form.section_c_-_demand_creation.hrh_for_demand_creation</t>
+  </si>
+  <si>
+    <t>form.section_c_-_demand_creation.iecMaterial</t>
+  </si>
+  <si>
+    <t>form.section_c_-_demand_creation.inactiveMobilisers</t>
+  </si>
+  <si>
+    <t>form.section_c_-_demand_creation.intergrationOfKeyHIVPreventionMsgs</t>
+  </si>
+  <si>
+    <t>form.section_c_-_demand_creation.intergrationOfOtherHealthMsgs</t>
+  </si>
+  <si>
+    <t>form.section_c_-_demand_creation.introductionDC</t>
+  </si>
+  <si>
+    <t>form.section_c_-_demand_creation.key_strategies_by_age_group</t>
+  </si>
+  <si>
+    <t>form.section_c_-_demand_creation.observe_demand_creation_if_available</t>
+  </si>
+  <si>
+    <t>form.section_c_-_demand_creation.posters</t>
+  </si>
+  <si>
+    <t>form.section_c_-_demand_creation.programme_visibility</t>
+  </si>
+  <si>
+    <t>form.section_c_-_demand_creation.sessionDurationDC</t>
+  </si>
+  <si>
+    <t>form.section_c_-_demand_creation.work_plan</t>
+  </si>
+  <si>
+    <t>form.section_c_-_demand_creation.workplanDC</t>
+  </si>
+  <si>
+    <t>form.starting_month_to_numeric</t>
+  </si>
+  <si>
+    <t>form.totalMonths</t>
+  </si>
+  <si>
+    <t>metadata.appVersion</t>
+  </si>
+  <si>
+    <t>metadata.app_build_version</t>
+  </si>
+  <si>
+    <t>metadata.commcare_version</t>
+  </si>
+  <si>
+    <t>metadata.deviceID</t>
+  </si>
+  <si>
+    <t>metadata.drift</t>
+  </si>
+  <si>
+    <t>metadata.geo_point</t>
+  </si>
+  <si>
+    <t>metadata.instanceID</t>
+  </si>
+  <si>
+    <t>metadata.location</t>
+  </si>
+  <si>
+    <t>metadata.timeEnd</t>
+  </si>
+  <si>
+    <t>metadata.timeStart</t>
+  </si>
+  <si>
+    <t>metadata.userID</t>
+  </si>
+  <si>
+    <t>metadata.username</t>
+  </si>
+  <si>
+    <t>form.question3.availableKits</t>
+  </si>
+  <si>
+    <t>form.question3.copy-1-of-facilities_supplies__equipment_-_equipment_storage_visually_inspect_the_sto</t>
+  </si>
+  <si>
+    <t>form.question3.copy-2-of-facilities_supplies__equipment_-_equipment_storage_visually_inspect_the_sto</t>
+  </si>
+  <si>
+    <t>form.question3.copy-3-of-facilities_supplies__equipment_-_equipment_storage_visually_inspect_the_sto</t>
+  </si>
+  <si>
+    <t>form.question3.copy-4-of-scale</t>
+  </si>
+  <si>
+    <t>form.question3.facilities_supplies__equipment_-_equipment_storage_visually_inspect_the_sto</t>
+  </si>
+  <si>
+    <t>form.question3.sterileKitsCleanArea</t>
+  </si>
+  <si>
+    <t>form.question3.sterileKitsElevated</t>
+  </si>
+  <si>
+    <t>form.question3.sterileKitsNotTouchingCeiling</t>
+  </si>
+  <si>
+    <t>form.question3.sterileKitsNotTouchingWalls</t>
+  </si>
+  <si>
+    <t>form.question3.stock-outRTKs</t>
+  </si>
+  <si>
+    <t>form.question3.stock-outRTKstoPatientNotTested</t>
+  </si>
+  <si>
+    <t>form.question3.storageforRTKs</t>
+  </si>
+  <si>
+    <t>form.question3.sufficientReusableSupply</t>
+  </si>
+  <si>
+    <t>form.question3.suppliesAvailable</t>
+  </si>
+  <si>
+    <t>form.question3.suppliesComment</t>
+  </si>
+  <si>
+    <t>form.question3.temperatureHIVtestKits</t>
+  </si>
+  <si>
+    <t>form.question5.clientHTSPrivacy</t>
+  </si>
+  <si>
+    <t>form.question5.condom-stock-outs</t>
+  </si>
+  <si>
+    <t>form.question5.condomCompatibleLubricants</t>
+  </si>
+  <si>
+    <t>form.question5.condomDemonstration</t>
+  </si>
+  <si>
+    <t>form.question5.condomsAvailableToday</t>
+  </si>
+  <si>
+    <t>form.question5.condomsExpiringStatus</t>
+  </si>
+  <si>
+    <t>form.question5.copy-4-of-facilities_supplies__equipment_-_equipment_storage_visually_inspect_the_sto</t>
+  </si>
+  <si>
+    <t>form.question5.copy-5-of-facilities_supplies__equipment_-_equipment_storage_visually_inspect_the_sto</t>
+  </si>
+  <si>
+    <t>form.question5.dentalDams</t>
+  </si>
+  <si>
+    <t>form.question5.htsContainers</t>
+  </si>
+  <si>
+    <t>form.question5.htsandSTIComment</t>
+  </si>
+  <si>
+    <t>form.question5.htsdisposableGloves</t>
+  </si>
+  <si>
+    <t>form.question5.htsroomSanitationSupplies</t>
+  </si>
+  <si>
+    <t>form.question5.is_there_a_plan_for_monitoring_condom_supply</t>
+  </si>
+  <si>
+    <t>form.question5.siteCondoms</t>
+  </si>
+  <si>
+    <t>form.question6.antibiotics</t>
+  </si>
+  <si>
+    <t>form.question6.availableDrugs</t>
+  </si>
+  <si>
+    <t>form.question6.facilities_supplies__equipment_-_medicines</t>
+  </si>
+  <si>
+    <t>form.question6.local_anesthetics__has_the_site_been_free_of_stock_outs_for_the_past_3_mont</t>
+  </si>
+  <si>
+    <t>form.question6.medicineStockouts</t>
+  </si>
+  <si>
+    <t>form.question6.medicineStorage</t>
+  </si>
+  <si>
+    <t>form.question6.medicinesComment</t>
+  </si>
+  <si>
+    <t>form.question6.medicinesDispensed</t>
+  </si>
+  <si>
+    <t>form.question6.medicinesLabelling</t>
+  </si>
+  <si>
+    <t>form.question6.medicinesOrganisation</t>
+  </si>
+  <si>
+    <t>form.question6.medicinesSecureArea</t>
+  </si>
+  <si>
+    <t>form.question6.medicinesShelflife</t>
+  </si>
+  <si>
+    <t>form.question6.medicinesTemperature</t>
+  </si>
+  <si>
+    <t>form.question6.oralAnalgesics</t>
+  </si>
+  <si>
+    <t>form.question6.oralAnalgesicsStockOut</t>
+  </si>
+  <si>
+    <t>form.question6.stiMedicines</t>
+  </si>
+  <si>
+    <t>form.question6.stiMedicinesStockOuts</t>
+  </si>
+  <si>
+    <t>form.question7.IncineratorSecure</t>
+  </si>
+  <si>
+    <t>form.question7.colorCodedContainers</t>
+  </si>
+  <si>
+    <t>form.question7.dispensingRecordsUptodate</t>
+  </si>
+  <si>
+    <t>form.question7.disposal_of_non_reusable_instruments</t>
+  </si>
+  <si>
+    <t>form.question7.documentationofMedicationsDispensed</t>
+  </si>
+  <si>
+    <t>form.question7.facilities_supplies__equipment_-_medication_dispensing</t>
+  </si>
+  <si>
+    <t>form.question7.facilities_supplies__equipment_-_waste_management</t>
+  </si>
+  <si>
+    <t>form.question7.fenced_lockable_waste_disposal_area</t>
+  </si>
+  <si>
+    <t>form.question7.incinerator</t>
+  </si>
+  <si>
+    <t>form.question7.incineratorAutowayPit</t>
+  </si>
+  <si>
+    <t>form.question7.incineratorPollutionControl</t>
+  </si>
+  <si>
+    <t>form.question7.loose_non_containerized</t>
+  </si>
+  <si>
+    <t>form.question7.medicineDispensingComment</t>
+  </si>
+  <si>
+    <t>form.question7.non_burn_technology</t>
+  </si>
+  <si>
+    <t>form.question7.wasteContainers</t>
+  </si>
+  <si>
+    <t>form.question7.wasteContainersAtBed</t>
+  </si>
+  <si>
+    <t>form.question7.wasteManagementJobAids</t>
+  </si>
+  <si>
+    <t>form.question7.wastesegregated</t>
+  </si>
+  <si>
+    <t>form.question7.wastetemporaryStorage</t>
+  </si>
+  <si>
+    <t>form.question7.writtenProtocolMedicalDispensing</t>
+  </si>
+  <si>
+    <t>form.question8.clinicalStaffTraining</t>
+  </si>
+  <si>
+    <t>form.question8.documentationStatus</t>
+  </si>
+  <si>
+    <t>form.question8.emergencyCart</t>
+  </si>
+  <si>
+    <t>form.question8.emergencyCartStatus</t>
+  </si>
+  <si>
+    <t>form.question8.emergencyCartYes</t>
+  </si>
+  <si>
+    <t>form.question8.emergencyManagementComment</t>
+  </si>
+  <si>
+    <t>form.question8.emergencyMaterialsinStock</t>
+  </si>
+  <si>
+    <t>form.question8.emergencySuppliesStatus</t>
+  </si>
+  <si>
+    <t>form.question8.emergency_management_-_adverse_event_prevention_and_management_vmmc_emergen</t>
+  </si>
+  <si>
+    <t>form.question8.emergency_management_-_emergency_practices_and_procedures</t>
+  </si>
+  <si>
+    <t>form.question8.emergency_management_-_guidelines_reports_procedures_medicines_and_training</t>
+  </si>
+  <si>
+    <t>form.question8.followuptoEmergencyYes</t>
+  </si>
+  <si>
+    <t>form.question8.highlyRecommendedItems</t>
+  </si>
+  <si>
+    <t>form.question8.packsKitsAvailable</t>
+  </si>
+  <si>
+    <t>form.question8.pepMedicinesAvailability</t>
+  </si>
+  <si>
+    <t>form.question8.siteType</t>
+  </si>
+  <si>
+    <t>form.question8.staffKnowledgeonReportingStructure</t>
+  </si>
+  <si>
+    <t>form.question8.staffPEPTimeframe</t>
+  </si>
+  <si>
+    <t>form.question8.staffPEPeligibility</t>
+  </si>
+  <si>
+    <t>form.question8.staffabletoExplainEmergencyProcedures</t>
+  </si>
+  <si>
+    <t>form.question8.trainingonAdrenaline</t>
+  </si>
+  <si>
+    <t>form.question8.traininingEmergencyProcedures</t>
+  </si>
+  <si>
+    <t>form.section_a_-_facilities_supplies_equipment_and_emergency_management.OperatingTheatreComment</t>
+  </si>
+  <si>
+    <t>form.section_a_-_facilities_supplies_equipment_and_emergency_management.anaestheticDosingCharts</t>
+  </si>
+  <si>
+    <t>form.section_a_-_facilities_supplies_equipment_and_emergency_management.bloodPressureCuff</t>
+  </si>
+  <si>
+    <t>form.section_a_-_facilities_supplies_equipment_and_emergency_management.blood_pressure_cuff</t>
+  </si>
+  <si>
+    <t>form.section_a_-_facilities_supplies_equipment_and_emergency_management.clientSpaceSize</t>
+  </si>
+  <si>
+    <t>form.section_a_-_facilities_supplies_equipment_and_emergency_management.copy-1-of-question1</t>
+  </si>
+  <si>
+    <t>form.section_a_-_facilities_supplies_equipment_and_emergency_management.copy-1-of-scale</t>
+  </si>
+  <si>
+    <t>form.section_a_-_facilities_supplies_equipment_and_emergency_management.copy-2-of-scale</t>
+  </si>
+  <si>
+    <t>form.section_a_-_facilities_supplies_equipment_and_emergency_management.copy-3-of-scale</t>
+  </si>
+  <si>
+    <t>form.section_a_-_facilities_supplies_equipment_and_emergency_management.examinationroomSpace</t>
+  </si>
+  <si>
+    <t>form.section_a_-_facilities_supplies_equipment_and_emergency_management.examinationroomTemperature</t>
+  </si>
+  <si>
+    <t>form.section_a_-_facilities_supplies_equipment_and_emergency_management.examionationroomLighting</t>
+  </si>
+  <si>
+    <t>form.section_a_-_facilities_supplies_equipment_and_emergency_management.handDryingMaterial</t>
+  </si>
+  <si>
+    <t>form.section_a_-_facilities_supplies_equipment_and_emergency_management.operatingBeds</t>
+  </si>
+  <si>
+    <t>form.section_a_-_facilities_supplies_equipment_and_emergency_management.operatingTheatreSoap</t>
+  </si>
+  <si>
+    <t>form.section_a_-_facilities_supplies_equipment_and_emergency_management.operatingTheatreTemperature</t>
+  </si>
+  <si>
+    <t>form.section_a_-_facilities_supplies_equipment_and_emergency_management.operatingTheatreVisualPrivacy</t>
+  </si>
+  <si>
+    <t>form.section_a_-_facilities_supplies_equipment_and_emergency_management.operatingTheatreWater</t>
+  </si>
+  <si>
+    <t>form.section_a_-_facilities_supplies_equipment_and_emergency_management.procedureroomLighting</t>
+  </si>
+  <si>
+    <t>form.section_a_-_facilities_supplies_equipment_and_emergency_management.procedureroomSpace</t>
+  </si>
+  <si>
+    <t>form.section_a_-_facilities_supplies_equipment_and_emergency_management.question1</t>
+  </si>
+  <si>
+    <t>form.section_a_-_facilities_supplies_equipment_and_emergency_management.recoveryroomLighting</t>
+  </si>
+  <si>
+    <t>form.section_a_-_facilities_supplies_equipment_and_emergency_management.recoveryroomSpace</t>
+  </si>
+  <si>
+    <t>form.section_a_-_facilities_supplies_equipment_and_emergency_management.recoveryroomTemperature</t>
+  </si>
+  <si>
+    <t>form.section_a_-_facilities_supplies_equipment_and_emergency_management.scale</t>
+  </si>
+  <si>
+    <t>form.section_a_-_facilities_supplies_equipment_and_emergency_management.scaleonSite</t>
+  </si>
+  <si>
+    <t>form.section_a_-_facilities_supplies_equipment_and_emergency_management.spaceCleaniness</t>
+  </si>
+  <si>
+    <t>form.section_a_-_facilities_supplies_equipment_and_emergency_management.vmmcOperatingRooms</t>
+  </si>
+  <si>
+    <t>form.section_a_-_facilities_supplies_equipment_and_emergency_management.waitingSpace</t>
+  </si>
+  <si>
     <t>form.copy-1-of-data_quality_assessment.adverseEvents2WT</t>
   </si>
   <si>
@@ -169,45 +703,6 @@
     <t>form.data_quality_assessment.sampleCIFChecking</t>
   </si>
   <si>
-    <t>form.ending_month_to_numeric</t>
-  </si>
-  <si>
-    <t>form.meta.@xmlns</t>
-  </si>
-  <si>
-    <t>form.meta.appVersion</t>
-  </si>
-  <si>
-    <t>form.meta.app_build_version</t>
-  </si>
-  <si>
-    <t>form.meta.commcare_version</t>
-  </si>
-  <si>
-    <t>form.meta.deviceID</t>
-  </si>
-  <si>
-    <t>form.meta.drift</t>
-  </si>
-  <si>
-    <t>form.meta.geo_point</t>
-  </si>
-  <si>
-    <t>form.meta.instanceID</t>
-  </si>
-  <si>
-    <t>form.meta.timeEnd</t>
-  </si>
-  <si>
-    <t>form.meta.timeStart</t>
-  </si>
-  <si>
-    <t>form.meta.userID</t>
-  </si>
-  <si>
-    <t>form.meta.username</t>
-  </si>
-  <si>
     <t>form.period_under_review_starting_point.period_under_review_ending_point.endingMonth</t>
   </si>
   <si>
@@ -220,414 +715,6 @@
     <t>form.period_under_review_starting_point.startingYear</t>
   </si>
   <si>
-    <t>form.question2.District</t>
-  </si>
-  <si>
-    <t>form.question2.facility</t>
-  </si>
-  <si>
-    <t>form.starting_month_to_numeric</t>
-  </si>
-  <si>
-    <t>form.totalMonths</t>
-  </si>
-  <si>
-    <t>metadata.appVersion</t>
-  </si>
-  <si>
-    <t>metadata.app_build_version</t>
-  </si>
-  <si>
-    <t>metadata.commcare_version</t>
-  </si>
-  <si>
-    <t>metadata.deviceID</t>
-  </si>
-  <si>
-    <t>metadata.drift</t>
-  </si>
-  <si>
-    <t>metadata.geo_point</t>
-  </si>
-  <si>
-    <t>metadata.instanceID</t>
-  </si>
-  <si>
-    <t>metadata.location</t>
-  </si>
-  <si>
-    <t>metadata.timeEnd</t>
-  </si>
-  <si>
-    <t>metadata.timeStart</t>
-  </si>
-  <si>
-    <t>metadata.userID</t>
-  </si>
-  <si>
-    <t>metadata.username</t>
-  </si>
-  <si>
-    <t>form.question3.availableKits</t>
-  </si>
-  <si>
-    <t>form.question3.copy-1-of-facilities_supplies__equipment_-_equipment_storage_visually_inspect_the_sto</t>
-  </si>
-  <si>
-    <t>form.question3.copy-2-of-facilities_supplies__equipment_-_equipment_storage_visually_inspect_the_sto</t>
-  </si>
-  <si>
-    <t>form.question3.copy-3-of-facilities_supplies__equipment_-_equipment_storage_visually_inspect_the_sto</t>
-  </si>
-  <si>
-    <t>form.question3.copy-4-of-scale</t>
-  </si>
-  <si>
-    <t>form.question3.facilities_supplies__equipment_-_equipment_storage_visually_inspect_the_sto</t>
-  </si>
-  <si>
-    <t>form.question3.sterileKitsCleanArea</t>
-  </si>
-  <si>
-    <t>form.question3.sterileKitsElevated</t>
-  </si>
-  <si>
-    <t>form.question3.sterileKitsNotTouchingCeiling</t>
-  </si>
-  <si>
-    <t>form.question3.sterileKitsNotTouchingWalls</t>
-  </si>
-  <si>
-    <t>form.question3.stock-outRTKs</t>
-  </si>
-  <si>
-    <t>form.question3.stock-outRTKstoPatientNotTested</t>
-  </si>
-  <si>
-    <t>form.question3.storageforRTKs</t>
-  </si>
-  <si>
-    <t>form.question3.sufficientReusableSupply</t>
-  </si>
-  <si>
-    <t>form.question3.suppliesAvailable</t>
-  </si>
-  <si>
-    <t>form.question3.suppliesComment</t>
-  </si>
-  <si>
-    <t>form.question3.temperatureHIVtestKits</t>
-  </si>
-  <si>
-    <t>form.question5.clientHTSPrivacy</t>
-  </si>
-  <si>
-    <t>form.question5.condom-stock-outs</t>
-  </si>
-  <si>
-    <t>form.question5.condomCompatibleLubricants</t>
-  </si>
-  <si>
-    <t>form.question5.condomDemonstration</t>
-  </si>
-  <si>
-    <t>form.question5.condomsAvailableToday</t>
-  </si>
-  <si>
-    <t>form.question5.condomsExpiringStatus</t>
-  </si>
-  <si>
-    <t>form.question5.copy-4-of-facilities_supplies__equipment_-_equipment_storage_visually_inspect_the_sto</t>
-  </si>
-  <si>
-    <t>form.question5.copy-5-of-facilities_supplies__equipment_-_equipment_storage_visually_inspect_the_sto</t>
-  </si>
-  <si>
-    <t>form.question5.dentalDams</t>
-  </si>
-  <si>
-    <t>form.question5.htsContainers</t>
-  </si>
-  <si>
-    <t>form.question5.htsandSTIComment</t>
-  </si>
-  <si>
-    <t>form.question5.htsdisposableGloves</t>
-  </si>
-  <si>
-    <t>form.question5.htsroomSanitationSupplies</t>
-  </si>
-  <si>
-    <t>form.question5.is_there_a_plan_for_monitoring_condom_supply</t>
-  </si>
-  <si>
-    <t>form.question5.siteCondoms</t>
-  </si>
-  <si>
-    <t>form.question6.antibiotics</t>
-  </si>
-  <si>
-    <t>form.question6.availableDrugs</t>
-  </si>
-  <si>
-    <t>form.question6.facilities_supplies__equipment_-_medicines</t>
-  </si>
-  <si>
-    <t>form.question6.local_anesthetics__has_the_site_been_free_of_stock_outs_for_the_past_3_mont</t>
-  </si>
-  <si>
-    <t>form.question6.medicineStockouts</t>
-  </si>
-  <si>
-    <t>form.question6.medicineStorage</t>
-  </si>
-  <si>
-    <t>form.question6.medicinesComment</t>
-  </si>
-  <si>
-    <t>form.question6.medicinesDispensed</t>
-  </si>
-  <si>
-    <t>form.question6.medicinesLabelling</t>
-  </si>
-  <si>
-    <t>form.question6.medicinesOrganisation</t>
-  </si>
-  <si>
-    <t>form.question6.medicinesSecureArea</t>
-  </si>
-  <si>
-    <t>form.question6.medicinesShelflife</t>
-  </si>
-  <si>
-    <t>form.question6.medicinesTemperature</t>
-  </si>
-  <si>
-    <t>form.question6.oralAnalgesics</t>
-  </si>
-  <si>
-    <t>form.question6.oralAnalgesicsStockOut</t>
-  </si>
-  <si>
-    <t>form.question6.stiMedicines</t>
-  </si>
-  <si>
-    <t>form.question6.stiMedicinesStockOuts</t>
-  </si>
-  <si>
-    <t>form.question7.IncineratorSecure</t>
-  </si>
-  <si>
-    <t>form.question7.colorCodedContainers</t>
-  </si>
-  <si>
-    <t>form.question7.dispensingRecordsUptodate</t>
-  </si>
-  <si>
-    <t>form.question7.disposal_of_non_reusable_instruments</t>
-  </si>
-  <si>
-    <t>form.question7.documentationofMedicationsDispensed</t>
-  </si>
-  <si>
-    <t>form.question7.facilities_supplies__equipment_-_medication_dispensing</t>
-  </si>
-  <si>
-    <t>form.question7.facilities_supplies__equipment_-_waste_management</t>
-  </si>
-  <si>
-    <t>form.question7.fenced_lockable_waste_disposal_area</t>
-  </si>
-  <si>
-    <t>form.question7.incinerator</t>
-  </si>
-  <si>
-    <t>form.question7.incineratorAutowayPit</t>
-  </si>
-  <si>
-    <t>form.question7.incineratorPollutionControl</t>
-  </si>
-  <si>
-    <t>form.question7.loose_non_containerized</t>
-  </si>
-  <si>
-    <t>form.question7.medicineDispensingComment</t>
-  </si>
-  <si>
-    <t>form.question7.non_burn_technology</t>
-  </si>
-  <si>
-    <t>form.question7.wasteContainers</t>
-  </si>
-  <si>
-    <t>form.question7.wasteContainersAtBed</t>
-  </si>
-  <si>
-    <t>form.question7.wasteManagementJobAids</t>
-  </si>
-  <si>
-    <t>form.question7.wastesegregated</t>
-  </si>
-  <si>
-    <t>form.question7.wastetemporaryStorage</t>
-  </si>
-  <si>
-    <t>form.question7.writtenProtocolMedicalDispensing</t>
-  </si>
-  <si>
-    <t>form.question8.clinicalStaffTraining</t>
-  </si>
-  <si>
-    <t>form.question8.documentationStatus</t>
-  </si>
-  <si>
-    <t>form.question8.emergencyCart</t>
-  </si>
-  <si>
-    <t>form.question8.emergencyCartStatus</t>
-  </si>
-  <si>
-    <t>form.question8.emergencyCartYes</t>
-  </si>
-  <si>
-    <t>form.question8.emergencyManagementComment</t>
-  </si>
-  <si>
-    <t>form.question8.emergencyMaterialsinStock</t>
-  </si>
-  <si>
-    <t>form.question8.emergencySuppliesStatus</t>
-  </si>
-  <si>
-    <t>form.question8.emergency_management_-_adverse_event_prevention_and_management_vmmc_emergen</t>
-  </si>
-  <si>
-    <t>form.question8.emergency_management_-_emergency_practices_and_procedures</t>
-  </si>
-  <si>
-    <t>form.question8.emergency_management_-_guidelines_reports_procedures_medicines_and_training</t>
-  </si>
-  <si>
-    <t>form.question8.followuptoEmergencyYes</t>
-  </si>
-  <si>
-    <t>form.question8.highlyRecommendedItems</t>
-  </si>
-  <si>
-    <t>form.question8.packsKitsAvailable</t>
-  </si>
-  <si>
-    <t>form.question8.pepMedicinesAvailability</t>
-  </si>
-  <si>
-    <t>form.question8.siteType</t>
-  </si>
-  <si>
-    <t>form.question8.staffKnowledgeonReportingStructure</t>
-  </si>
-  <si>
-    <t>form.question8.staffPEPTimeframe</t>
-  </si>
-  <si>
-    <t>form.question8.staffPEPeligibility</t>
-  </si>
-  <si>
-    <t>form.question8.staffabletoExplainEmergencyProcedures</t>
-  </si>
-  <si>
-    <t>form.question8.trainingonAdrenaline</t>
-  </si>
-  <si>
-    <t>form.question8.traininingEmergencyProcedures</t>
-  </si>
-  <si>
-    <t>form.section_a_-_facilities_supplies_equipment_and_emergency_management.OperatingTheatreComment</t>
-  </si>
-  <si>
-    <t>form.section_a_-_facilities_supplies_equipment_and_emergency_management.anaestheticDosingCharts</t>
-  </si>
-  <si>
-    <t>form.section_a_-_facilities_supplies_equipment_and_emergency_management.bloodPressureCuff</t>
-  </si>
-  <si>
-    <t>form.section_a_-_facilities_supplies_equipment_and_emergency_management.blood_pressure_cuff</t>
-  </si>
-  <si>
-    <t>form.section_a_-_facilities_supplies_equipment_and_emergency_management.clientSpaceSize</t>
-  </si>
-  <si>
-    <t>form.section_a_-_facilities_supplies_equipment_and_emergency_management.copy-1-of-question1</t>
-  </si>
-  <si>
-    <t>form.section_a_-_facilities_supplies_equipment_and_emergency_management.copy-1-of-scale</t>
-  </si>
-  <si>
-    <t>form.section_a_-_facilities_supplies_equipment_and_emergency_management.copy-2-of-scale</t>
-  </si>
-  <si>
-    <t>form.section_a_-_facilities_supplies_equipment_and_emergency_management.copy-3-of-scale</t>
-  </si>
-  <si>
-    <t>form.section_a_-_facilities_supplies_equipment_and_emergency_management.examinationroomSpace</t>
-  </si>
-  <si>
-    <t>form.section_a_-_facilities_supplies_equipment_and_emergency_management.examinationroomTemperature</t>
-  </si>
-  <si>
-    <t>form.section_a_-_facilities_supplies_equipment_and_emergency_management.examionationroomLighting</t>
-  </si>
-  <si>
-    <t>form.section_a_-_facilities_supplies_equipment_and_emergency_management.handDryingMaterial</t>
-  </si>
-  <si>
-    <t>form.section_a_-_facilities_supplies_equipment_and_emergency_management.operatingBeds</t>
-  </si>
-  <si>
-    <t>form.section_a_-_facilities_supplies_equipment_and_emergency_management.operatingTheatreSoap</t>
-  </si>
-  <si>
-    <t>form.section_a_-_facilities_supplies_equipment_and_emergency_management.operatingTheatreTemperature</t>
-  </si>
-  <si>
-    <t>form.section_a_-_facilities_supplies_equipment_and_emergency_management.operatingTheatreVisualPrivacy</t>
-  </si>
-  <si>
-    <t>form.section_a_-_facilities_supplies_equipment_and_emergency_management.operatingTheatreWater</t>
-  </si>
-  <si>
-    <t>form.section_a_-_facilities_supplies_equipment_and_emergency_management.procedureroomLighting</t>
-  </si>
-  <si>
-    <t>form.section_a_-_facilities_supplies_equipment_and_emergency_management.procedureroomSpace</t>
-  </si>
-  <si>
-    <t>form.section_a_-_facilities_supplies_equipment_and_emergency_management.question1</t>
-  </si>
-  <si>
-    <t>form.section_a_-_facilities_supplies_equipment_and_emergency_management.recoveryroomLighting</t>
-  </si>
-  <si>
-    <t>form.section_a_-_facilities_supplies_equipment_and_emergency_management.recoveryroomSpace</t>
-  </si>
-  <si>
-    <t>form.section_a_-_facilities_supplies_equipment_and_emergency_management.recoveryroomTemperature</t>
-  </si>
-  <si>
-    <t>form.section_a_-_facilities_supplies_equipment_and_emergency_management.scale</t>
-  </si>
-  <si>
-    <t>form.section_a_-_facilities_supplies_equipment_and_emergency_management.scaleonSite</t>
-  </si>
-  <si>
-    <t>form.section_a_-_facilities_supplies_equipment_and_emergency_management.spaceCleaniness</t>
-  </si>
-  <si>
-    <t>form.section_a_-_facilities_supplies_equipment_and_emergency_management.vmmcOperatingRooms</t>
-  </si>
-  <si>
-    <t>form.section_a_-_facilities_supplies_equipment_and_emergency_management.waitingSpace</t>
-  </si>
-  <si>
     <t>form.section_d_-_sops_guidelines_policies_and_job_aids_-_sops_guidelines_policie.SOPOverallComment</t>
   </si>
   <si>
@@ -757,93 +844,6 @@
     <t>form.section_d_-_sops_guidelines_policies_and_job_aids_-_sops_guidelines_policie.writtenGuidance</t>
   </si>
   <si>
-    <t>form.demand_creation_-_undersaved_populations__community_involvement.copy-1-of-dcTargetPopulation</t>
-  </si>
-  <si>
-    <t>form.demand_creation_-_undersaved_populations__community_involvement.dcCommunityCadres</t>
-  </si>
-  <si>
-    <t>form.demand_creation_-_undersaved_populations__community_involvement.dcInnovation</t>
-  </si>
-  <si>
-    <t>form.demand_creation_-_undersaved_populations__community_involvement.dcTargetPopulation</t>
-  </si>
-  <si>
-    <t>form.demand_creation_-_undersaved_populations__community_involvement.give_overall_comment_demand_creation</t>
-  </si>
-  <si>
-    <t>form.demand_creation_-_undersaved_populations__community_involvement.innovation</t>
-  </si>
-  <si>
-    <t>form.section_c_-_demand_creation.abilitytoEngagewithParticipants</t>
-  </si>
-  <si>
-    <t>form.section_c_-_demand_creation.abilitytoWindupSession</t>
-  </si>
-  <si>
-    <t>form.section_c_-_demand_creation.activeMobilisers</t>
-  </si>
-  <si>
-    <t>form.section_c_-_demand_creation.age15-24dcStrategy</t>
-  </si>
-  <si>
-    <t>form.section_c_-_demand_creation.age25-24dcStrategy</t>
-  </si>
-  <si>
-    <t>form.section_c_-_demand_creation.consentFormsDC</t>
-  </si>
-  <si>
-    <t>form.section_c_-_demand_creation.contentAccuracy</t>
-  </si>
-  <si>
-    <t>form.section_c_-_demand_creation.contentRelevance</t>
-  </si>
-  <si>
-    <t>form.section_c_-_demand_creation.dcComment</t>
-  </si>
-  <si>
-    <t>form.section_c_-_demand_creation.dcPlanObjectives</t>
-  </si>
-  <si>
-    <t>form.section_c_-_demand_creation.hrh_for_demand_creation</t>
-  </si>
-  <si>
-    <t>form.section_c_-_demand_creation.iecMaterial</t>
-  </si>
-  <si>
-    <t>form.section_c_-_demand_creation.inactiveMobilisers</t>
-  </si>
-  <si>
-    <t>form.section_c_-_demand_creation.intergrationOfKeyHIVPreventionMsgs</t>
-  </si>
-  <si>
-    <t>form.section_c_-_demand_creation.intergrationOfOtherHealthMsgs</t>
-  </si>
-  <si>
-    <t>form.section_c_-_demand_creation.introductionDC</t>
-  </si>
-  <si>
-    <t>form.section_c_-_demand_creation.key_strategies_by_age_group</t>
-  </si>
-  <si>
-    <t>form.section_c_-_demand_creation.observe_demand_creation_if_available</t>
-  </si>
-  <si>
-    <t>form.section_c_-_demand_creation.posters</t>
-  </si>
-  <si>
-    <t>form.section_c_-_demand_creation.programme_visibility</t>
-  </si>
-  <si>
-    <t>form.section_c_-_demand_creation.sessionDurationDC</t>
-  </si>
-  <si>
-    <t>form.section_c_-_demand_creation.work_plan</t>
-  </si>
-  <si>
-    <t>form.section_c_-_demand_creation.workplanDC</t>
-  </si>
-  <si>
     <t>form.copy-1-of-question1.InformationCommunicationComment</t>
   </si>
   <si>
@@ -1495,6 +1495,12 @@
     <t>zdip-qa</t>
   </si>
   <si>
+    <t>c048265d-ed07-48a8-ac68-f34671ba7e02</t>
+  </si>
+  <si>
+    <t>17f3b4c2-cca9-4a5b-8985-3bd85e86cec7</t>
+  </si>
+  <si>
     <t>790f6955-16b9-4c5c-a546-76700864c7fe</t>
   </si>
   <si>
@@ -1522,6 +1528,12 @@
     <t>a2abb0db-ac10-41fb-9d6b-67afa0100c3a</t>
   </si>
   <si>
+    <t>2025-07-01T06:31:52.530683Z</t>
+  </si>
+  <si>
+    <t>2025-07-01T06:30:43.379592Z</t>
+  </si>
+  <si>
     <t>2025-06-30T16:51:35.935701Z</t>
   </si>
   <si>
@@ -1549,6 +1561,12 @@
     <t>2025-06-30T05:42:07.802779Z</t>
   </si>
   <si>
+    <t>2025-07-01T06:30:43.887465Z</t>
+  </si>
+  <si>
+    <t>2025-07-01T06:30:43.262357Z</t>
+  </si>
+  <si>
     <t>2025-06-30T16:51:35.768086Z</t>
   </si>
   <si>
@@ -1576,6 +1594,12 @@
     <t>2025-06-30T05:42:07.558273Z</t>
   </si>
   <si>
+    <t>2025-07-01T06:30:43.988657Z</t>
+  </si>
+  <si>
+    <t>2025-07-01T06:30:43.317449Z</t>
+  </si>
+  <si>
     <t>2025-06-30T16:51:35.863935Z</t>
   </si>
   <si>
@@ -1603,6 +1627,9 @@
     <t>2025-06-30T05:42:07.666045Z</t>
   </si>
   <si>
+    <t>77.246.55.171</t>
+  </si>
+  <si>
     <t>77.246.50.113</t>
   </si>
   <si>
@@ -1633,6 +1660,12 @@
     <t>text/xml</t>
   </si>
   <si>
+    <t>https://zdip.zimttech.org/a/zdip-qa/api/form_attachment/v1/c048265d-ed07-48a8-ac68-f34671ba7e02/form.xml</t>
+  </si>
+  <si>
+    <t>https://zdip.zimttech.org/a/zdip-qa/api/form_attachment/v1/17f3b4c2-cca9-4a5b-8985-3bd85e86cec7/form.xml</t>
+  </si>
+  <si>
     <t>https://zdip.zimttech.org/a/zdip-qa/api/form_attachment/v1/790f6955-16b9-4c5c-a546-76700864c7fe/form.xml</t>
   </si>
   <si>
@@ -1666,28 +1699,319 @@
     <t>http://openrosa.org/formdesigner/72526D77-6087-4854-811D-97DBBA955075</t>
   </si>
   <si>
+    <t>c</t>
+  </si>
+  <si>
+    <t>a</t>
+  </si>
+  <si>
     <t>b</t>
   </si>
   <si>
-    <t>a</t>
-  </si>
-  <si>
     <t>d</t>
   </si>
   <si>
-    <t>c</t>
-  </si>
-  <si>
     <t>e</t>
   </si>
   <si>
+    <t>Community_Nursing DAC Other_Health_Programmers</t>
+  </si>
+  <si>
+    <t>Community_Nursing Environmental_Health_Technicians Other_Health_Programmers</t>
+  </si>
+  <si>
+    <t>Health_Promotional_Officer</t>
+  </si>
+  <si>
+    <t>Health_Promotional_Officer Community_Nursing</t>
+  </si>
+  <si>
+    <t>Chiefs Headmen Councilors</t>
+  </si>
+  <si>
+    <t>Chiefs Headmen Village_Heads</t>
+  </si>
+  <si>
+    <t>Yes. the team introduced Information sessions for teachers to correct myths and misconceptions as well as to promote buy-in. In addition, the team is conducting girl child empowerment sessions entailing girl-specific ASRH education (e.g., menstrual hygiene), including VMMC sensitisation. Apparently, after sensitising girls in schools, the team has increased VMMC uptake in about 3 schools through tasking the empowered girls to give boys the consent forms to take home for parental consent. Prior to this innovation, it was reported that boys would refuse to collect consent forms out of fear of being ridiculed by the girls.
+The DC team is also effectively using the caravan through stationing it at the same venue for about five days. The prolonged caravan stay allows prospective clients and their influences to relate to the caravan more closely, seeking information and consent from partners. They will then schedule a day for VMMC on a day convenient to them during the week. The DCO commented that they have since stopped the 'migratory birds' approach.</t>
+  </si>
+  <si>
+    <t>Yes chain champion DC in the Marondera rank with use of promo material as the motivator for the champions. This was discovered during the recent tandem review.</t>
+  </si>
+  <si>
+    <t>Yes. Moonlight.</t>
+  </si>
+  <si>
+    <t>Yes, they introduced inter program collaboration</t>
+  </si>
+  <si>
+    <t>Artisanal_Miners Men_who_go_to_work Other_highly_mobile_men Remote_Communities</t>
+  </si>
+  <si>
+    <t>Men_who_go_to_work Remote_Communities</t>
+  </si>
+  <si>
+    <t>Artisanal_Miners</t>
+  </si>
+  <si>
+    <t>Artisanal_Miners Men_who_go_to_work</t>
+  </si>
+  <si>
+    <t>The DC infrastructure in the district is strong.   Rimuka clinic is being supported by 5 consistently active mobilises and 3 inconsistently active ones. However, the DC system needs further strengthening through (1) promoting the more active involvement of EHTs, HPO' s office and the Community Nursing department, (2) involving the FBO sector (e.g., pastors), (3) increasing visibility through drafting and publishing success stories ( e.g., strategic involvement of girls in motivating boys to pick consent forms at school), (4) concreting the workplace through incorporating SMART objectives. The team plans to target highly mobile men such as truck drivers - and they have already identified a truck stop under construction to serve as an ideal intervention venue.   The team requested (1) an upward review of the Community Dialogue budget from $60 to $110 and (2) an increase in promotional materials to boost programme visibility.</t>
+  </si>
+  <si>
+    <t>Outreach site need to be empowered in terms of DC workplans and engagement of mobilisers in the clinic jurisdiction especially considering the site is in urban setting.</t>
+  </si>
+  <si>
+    <t>Site is doing very well
+encouraged to:
+come up with more mobilisation efforts</t>
+  </si>
+  <si>
+    <t>OK</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>http://openrosa.org/jr/xforms</t>
+  </si>
+  <si>
+    <t>CommCare Android, version "2.57.0"(474021). App v669. CommCare Version 2.57.0. Build 474021, built on: 2025-06-13</t>
+  </si>
+  <si>
+    <t>CommCare Android, version "2.56.1"(471796). App v669. CommCare Version 2.56.1. Build 471796, built on: 2025-05-12</t>
+  </si>
+  <si>
+    <t>2.57.0</t>
+  </si>
+  <si>
+    <t>2.56.1</t>
+  </si>
+  <si>
+    <t>commcare_c5a517f3-e17b-4a39-8be6-d21ff27dabfe</t>
+  </si>
+  <si>
+    <t>commcare_5c46f849-95c5-4b35-81a6-ef7089af885e</t>
+  </si>
+  <si>
+    <t>commcare_caa24215-9754-41e7-a95e-8cc46f9c911d</t>
+  </si>
+  <si>
+    <t>commcare_e2aaff39-b9d3-4312-aef9-5e872dbbeec7</t>
+  </si>
+  <si>
+    <t>commcare_51deb0f1-b0d0-487f-bc8a-4479d5af3f73</t>
+  </si>
+  <si>
+    <t>commcare_c0bf9f85-6d1f-4563-a7b5-e60f61118366</t>
+  </si>
+  <si>
+    <t>2025-06-30T19:17:13.146000Z</t>
+  </si>
+  <si>
+    <t>2025-06-30T13:10:00.153000Z</t>
+  </si>
+  <si>
+    <t>2025-06-30T16:51:34.453000Z</t>
+  </si>
+  <si>
+    <t>2025-06-30T13:40:03.178000Z</t>
+  </si>
+  <si>
+    <t>2025-06-30T13:26:58.564000Z</t>
+  </si>
+  <si>
+    <t>2025-06-30T12:49:16.954000Z</t>
+  </si>
+  <si>
+    <t>2025-06-30T12:32:34.119000Z</t>
+  </si>
+  <si>
+    <t>2025-06-30T11:56:42.703000Z</t>
+  </si>
+  <si>
+    <t>2025-06-30T11:51:02.624000Z</t>
+  </si>
+  <si>
+    <t>2025-06-30T06:18:42.920000Z</t>
+  </si>
+  <si>
+    <t>2025-06-30T05:42:04.719000Z</t>
+  </si>
+  <si>
+    <t>2025-06-30T18:14:17.451000Z</t>
+  </si>
+  <si>
+    <t>2025-06-30T12:19:59.530000Z</t>
+  </si>
+  <si>
+    <t>2025-06-30T14:24:47.412000Z</t>
+  </si>
+  <si>
+    <t>2025-06-30T13:26:52.774000Z</t>
+  </si>
+  <si>
+    <t>2025-06-30T12:24:10.698000Z</t>
+  </si>
+  <si>
+    <t>2025-06-30T12:17:12.971000Z</t>
+  </si>
+  <si>
+    <t>2025-06-30T12:01:37.902000Z</t>
+  </si>
+  <si>
+    <t>2025-06-30T10:24:38.615000Z</t>
+  </si>
+  <si>
+    <t>2025-06-30T10:37:10.016000Z</t>
+  </si>
+  <si>
+    <t>2025-06-30T06:12:46.496000Z</t>
+  </si>
+  <si>
+    <t>2025-06-30T05:39:11.832000Z</t>
+  </si>
+  <si>
+    <t>84b17c17f402448cace92dac4fabcce2</t>
+  </si>
+  <si>
+    <t>faa9986b11024e209d426230ef5dca1a</t>
+  </si>
+  <si>
+    <t>8aec26eba6c94a8a995d425584311644</t>
+  </si>
+  <si>
+    <t>148b582ced074b30a11c93abdad751e5</t>
+  </si>
+  <si>
+    <t>tmunyaradzi</t>
+  </si>
+  <si>
+    <t>fgwenzi</t>
+  </si>
+  <si>
+    <t>jgavhera</t>
+  </si>
+  <si>
+    <t>amutenha</t>
+  </si>
+  <si>
+    <t>SANYATI</t>
+  </si>
+  <si>
+    <t>MARONDERA</t>
+  </si>
+  <si>
+    <t>MBIRE</t>
+  </si>
+  <si>
+    <t>Rimuka</t>
+  </si>
+  <si>
+    <t>Dombotombo</t>
+  </si>
+  <si>
+    <t>Jompani</t>
+  </si>
+  <si>
+    <t>Angwa Clinic</t>
+  </si>
+  <si>
     <t>yes</t>
   </si>
   <si>
+    <t>For the 15-24 year age group, the DC team is effectively using Moonlight and intensive door-to-door campaigns. Moonlights are helping them to 'catch young men in places where they patronise in the evening. Door-to-door campaigns are helping them to address the target audiences in the comfort of their residences or temporary shelters.
+For the 25-34 year old, the DC team is using Community Dialogues and collaborative campaigns. However, the team is now avoiding conducting dialogues because the meetings are continuously becoming oversubscribed, thereby making it difficult for them to offer sufficient refreshments as the stipulated dialogue budget is $60. Collaborative campaigns are being conducted with various strategic partners such as Women Affairs dept, CESHHAR and Agritex (during Seed distribution).</t>
+  </si>
+  <si>
+    <t>Strategies for ages 15-24 included schools campaigns and soccer tournaments.  For ages 25-34 included work based DC in industries and farms.
+Work plan was not found at Dombotombo outreach site but at static site it is present.</t>
+  </si>
+  <si>
+    <t>Old posters.</t>
+  </si>
+  <si>
+    <t>The DC team is doing very well</t>
+  </si>
+  <si>
     <t>no</t>
   </si>
   <si>
-    <t>OK</t>
+    <t>10</t>
+  </si>
+  <si>
+    <t>8</t>
+  </si>
+  <si>
+    <t>Disposable_Dorsal_slit</t>
+  </si>
+  <si>
+    <t>Reusable_Dorsal_slit Device_placement_kit Device_removal_kit other</t>
+  </si>
+  <si>
+    <t>Disposable_gloves Syringes_with_needles Lancets_for_adults_and_pediatric_capillary_blood_drawing Rigid_WHO-approved_sharps_containers</t>
+  </si>
+  <si>
+    <t>Disposable_gloves Syringes_with_needles Lancets_for_adults_and_pediatric_capillary_blood_drawing</t>
+  </si>
+  <si>
+    <t>air conditioner not working for past month</t>
+  </si>
+  <si>
+    <t>no sharps tins</t>
+  </si>
+  <si>
+    <t>condoms in short supply</t>
+  </si>
+  <si>
+    <t>Clean_running_water Soap Disinfectant Hand_sanitizer</t>
+  </si>
+  <si>
+    <t>Amoxycillin/clavulanic_acid Erythromycin</t>
+  </si>
+  <si>
+    <t>Ceftriaxone Metronidazole Doxycycline</t>
+  </si>
+  <si>
+    <t>Ceftriaxone Doxycycline</t>
+  </si>
+  <si>
+    <t>Lignocaine</t>
+  </si>
+  <si>
+    <t>Lignocaine Bupivacaine</t>
+  </si>
+  <si>
+    <t>amoxycillinclavulanic_acid erythromycin</t>
+  </si>
+  <si>
+    <t>Ceftriaxone Metronidazole</t>
+  </si>
+  <si>
+    <t>add strength of medicines on dispensing register
+incinerator is done off site at Rimuka Maternity</t>
+  </si>
+  <si>
+    <t>Good emergency management practices</t>
+  </si>
+  <si>
+    <t>Stethoscope Sphygmomanometer Adult_Blood_pressure_cuff Sphygmomanometer_Batteries Sodium_Chloride Tourniquet IV_Infusion_Tubing 3_sizes_of_IV_Catheters Adrenaline Hydrocortisone 2_Sizes_of_Syringes 2_Sizes_of_Needles Oxygen_and_accessories Bags_and_Masks_for_children Bags_and_Masks_for_adults Exam_gloves Alcohol_Swabs Gauze Adhesive_Tape Oropharyngeal_Airways Stethoscope_is_not_shared sphygmomanometer_dedicated_to_Emergency_Cart_and_is_not_shared</t>
+  </si>
+  <si>
+    <t>Stethoscope Sphygmomanometer Adult_Blood_pressure_cuff Sodium_Chloride Tourniquet IV_Infusion_Tubing 3_sizes_of_IV_Catheters Adrenaline Hydrocortisone 2_Sizes_of_Syringes 2_Sizes_of_Needles Bags_and_Masks_for_children Bags_and_Masks_for_adults Exam_gloves Alcohol_Swabs Gauze Adhesive_Tape Oropharyngeal_Airways</t>
+  </si>
+  <si>
+    <t>glucometer Glucometer_Strips Pulse-oximeter</t>
+  </si>
+  <si>
+    <t>scrub expired 12/24 changed with unexpired 11/25</t>
+  </si>
+  <si>
+    <t>Caravan in use no formal rooms available</t>
   </si>
   <si>
     <t>1. The is a best practice case on Linkages documentation and reporting
@@ -1720,120 +2044,6 @@
     <t>Client_Name Client_Address dob MC_Method HIV_Testing_Offered_/HIV_Status_Data Medical_Screening_and_Physical_Examination</t>
   </si>
   <si>
-    <t>5</t>
-  </si>
-  <si>
-    <t>0</t>
-  </si>
-  <si>
-    <t>http://openrosa.org/jr/xforms</t>
-  </si>
-  <si>
-    <t>CommCare Android, version "2.57.0"(474021). App v669. CommCare Version 2.57.0. Build 474021, built on: 2025-06-13</t>
-  </si>
-  <si>
-    <t>CommCare Android, version "2.56.1"(471796). App v669. CommCare Version 2.56.1. Build 471796, built on: 2025-05-12</t>
-  </si>
-  <si>
-    <t>2.57.0</t>
-  </si>
-  <si>
-    <t>2.56.1</t>
-  </si>
-  <si>
-    <t>commcare_5c46f849-95c5-4b35-81a6-ef7089af885e</t>
-  </si>
-  <si>
-    <t>commcare_caa24215-9754-41e7-a95e-8cc46f9c911d</t>
-  </si>
-  <si>
-    <t>commcare_e2aaff39-b9d3-4312-aef9-5e872dbbeec7</t>
-  </si>
-  <si>
-    <t>commcare_51deb0f1-b0d0-487f-bc8a-4479d5af3f73</t>
-  </si>
-  <si>
-    <t>commcare_c0bf9f85-6d1f-4563-a7b5-e60f61118366</t>
-  </si>
-  <si>
-    <t>2025-06-30T16:51:34.453000Z</t>
-  </si>
-  <si>
-    <t>2025-06-30T13:40:03.178000Z</t>
-  </si>
-  <si>
-    <t>2025-06-30T13:26:58.564000Z</t>
-  </si>
-  <si>
-    <t>2025-06-30T12:49:16.954000Z</t>
-  </si>
-  <si>
-    <t>2025-06-30T12:32:34.119000Z</t>
-  </si>
-  <si>
-    <t>2025-06-30T11:56:42.703000Z</t>
-  </si>
-  <si>
-    <t>2025-06-30T11:51:02.624000Z</t>
-  </si>
-  <si>
-    <t>2025-06-30T06:18:42.920000Z</t>
-  </si>
-  <si>
-    <t>2025-06-30T05:42:04.719000Z</t>
-  </si>
-  <si>
-    <t>2025-06-30T14:24:47.412000Z</t>
-  </si>
-  <si>
-    <t>2025-06-30T13:26:52.774000Z</t>
-  </si>
-  <si>
-    <t>2025-06-30T12:24:10.698000Z</t>
-  </si>
-  <si>
-    <t>2025-06-30T12:17:12.971000Z</t>
-  </si>
-  <si>
-    <t>2025-06-30T12:01:37.902000Z</t>
-  </si>
-  <si>
-    <t>2025-06-30T10:24:38.615000Z</t>
-  </si>
-  <si>
-    <t>2025-06-30T10:37:10.016000Z</t>
-  </si>
-  <si>
-    <t>2025-06-30T06:12:46.496000Z</t>
-  </si>
-  <si>
-    <t>2025-06-30T05:39:11.832000Z</t>
-  </si>
-  <si>
-    <t>faa9986b11024e209d426230ef5dca1a</t>
-  </si>
-  <si>
-    <t>84b17c17f402448cace92dac4fabcce2</t>
-  </si>
-  <si>
-    <t>8aec26eba6c94a8a995d425584311644</t>
-  </si>
-  <si>
-    <t>148b582ced074b30a11c93abdad751e5</t>
-  </si>
-  <si>
-    <t>fgwenzi</t>
-  </si>
-  <si>
-    <t>tmunyaradzi</t>
-  </si>
-  <si>
-    <t>jgavhera</t>
-  </si>
-  <si>
-    <t>amutenha</t>
-  </si>
-  <si>
     <t>May</t>
   </si>
   <si>
@@ -1844,66 +2054,6 @@
   </si>
   <si>
     <t>2024</t>
-  </si>
-  <si>
-    <t>SANYATI</t>
-  </si>
-  <si>
-    <t>MARONDERA</t>
-  </si>
-  <si>
-    <t>MBIRE</t>
-  </si>
-  <si>
-    <t>Rimuka</t>
-  </si>
-  <si>
-    <t>Dombotombo</t>
-  </si>
-  <si>
-    <t>Jompani</t>
-  </si>
-  <si>
-    <t>Angwa Clinic</t>
-  </si>
-  <si>
-    <t>10</t>
-  </si>
-  <si>
-    <t>8</t>
-  </si>
-  <si>
-    <t>Reusable_Dorsal_slit Device_placement_kit Device_removal_kit other</t>
-  </si>
-  <si>
-    <t>Disposable_gloves Syringes_with_needles Lancets_for_adults_and_pediatric_capillary_blood_drawing</t>
-  </si>
-  <si>
-    <t>no sharps tins</t>
-  </si>
-  <si>
-    <t>Amoxycillin/clavulanic_acid Erythromycin</t>
-  </si>
-  <si>
-    <t>Ceftriaxone Doxycycline</t>
-  </si>
-  <si>
-    <t>Lignocaine Bupivacaine</t>
-  </si>
-  <si>
-    <t>amoxycillinclavulanic_acid erythromycin</t>
-  </si>
-  <si>
-    <t>Ceftriaxone Metronidazole</t>
-  </si>
-  <si>
-    <t>Stethoscope Sphygmomanometer Adult_Blood_pressure_cuff Sodium_Chloride Tourniquet IV_Infusion_Tubing 3_sizes_of_IV_Catheters Adrenaline Hydrocortisone 2_Sizes_of_Syringes 2_Sizes_of_Needles Bags_and_Masks_for_children Bags_and_Masks_for_adults Exam_gloves Alcohol_Swabs Gauze Adhesive_Tape Oropharyngeal_Airways</t>
-  </si>
-  <si>
-    <t>glucometer Glucometer_Strips Pulse-oximeter</t>
-  </si>
-  <si>
-    <t>Caravan in use no formal rooms available</t>
   </si>
   <si>
     <t>Comments
@@ -1928,57 +2078,6 @@
   </si>
   <si>
     <t>VMMC_Nurse_Counsellors VMMC_circumcisors:_Nursing Cleaners/Theatre_Hands/Runners Data_Clerks Receptionists Nurse_Testers Primary_Care_Counsellors</t>
-  </si>
-  <si>
-    <t>Community_Nursing Environmental_Health_Technicians Other_Health_Programmers</t>
-  </si>
-  <si>
-    <t>Health_Promotional_Officer</t>
-  </si>
-  <si>
-    <t>Health_Promotional_Officer Community_Nursing</t>
-  </si>
-  <si>
-    <t>Chiefs Headmen Councilors</t>
-  </si>
-  <si>
-    <t>Chiefs Headmen Village_Heads</t>
-  </si>
-  <si>
-    <t>Yes chain champion DC in the Marondera rank with use of promo material as the motivator for the champions. This was discovered during the recent tandem review.</t>
-  </si>
-  <si>
-    <t>Yes. Moonlight.</t>
-  </si>
-  <si>
-    <t>Yes, they introduced inter program collaboration</t>
-  </si>
-  <si>
-    <t>Men_who_go_to_work Remote_Communities</t>
-  </si>
-  <si>
-    <t>Artisanal_Miners</t>
-  </si>
-  <si>
-    <t>Artisanal_Miners Men_who_go_to_work</t>
-  </si>
-  <si>
-    <t>Outreach site need to be empowered in terms of DC workplans and engagement of mobilisers in the clinic jurisdiction especially considering the site is in urban setting.</t>
-  </si>
-  <si>
-    <t>Site is doing very well
-encouraged to:
-come up with more mobilisation efforts</t>
-  </si>
-  <si>
-    <t>Strategies for ages 15-24 included schools campaigns and soccer tournaments.  For ages 25-34 included work based DC in industries and farms.
-Work plan was not found at Dombotombo outreach site but at static site it is present.</t>
-  </si>
-  <si>
-    <t>Old posters.</t>
-  </si>
-  <si>
-    <t>The DC team is doing very well</t>
   </si>
   <si>
     <t>clear</t>
@@ -2355,7 +2454,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:RW10"/>
+  <dimension ref="A1:RW12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -3853,7 +3952,7 @@
         <v>493</v>
       </c>
       <c r="I2" t="s">
-        <v>502</v>
+        <v>504</v>
       </c>
       <c r="J2" t="b">
         <v>1</v>
@@ -3862,211 +3961,181 @@
         <v>1</v>
       </c>
       <c r="M2" t="s">
-        <v>511</v>
+        <v>515</v>
       </c>
       <c r="O2" t="s">
-        <v>520</v>
+        <v>526</v>
       </c>
       <c r="P2" t="s">
-        <v>529</v>
+        <v>537</v>
       </c>
       <c r="Q2" t="s">
-        <v>535</v>
+        <v>544</v>
       </c>
       <c r="R2" t="s">
-        <v>536</v>
+        <v>545</v>
       </c>
       <c r="S2" t="s">
-        <v>537</v>
+        <v>546</v>
       </c>
       <c r="T2" t="s">
-        <v>538</v>
+        <v>547</v>
       </c>
       <c r="U2">
-        <v>6430</v>
+        <v>5297</v>
       </c>
       <c r="V2" s="2" t="s">
-        <v>539</v>
+        <v>548</v>
       </c>
       <c r="W2" t="s">
-        <v>535</v>
+        <v>544</v>
       </c>
       <c r="X2" t="s">
-        <v>548</v>
+        <v>559</v>
       </c>
       <c r="Y2" t="s">
-        <v>536</v>
+        <v>545</v>
       </c>
       <c r="Z2" t="s">
-        <v>537</v>
+        <v>546</v>
       </c>
       <c r="AA2" s="2" t="s">
-        <v>549</v>
+        <v>560</v>
       </c>
       <c r="AB2" t="s">
-        <v>550</v>
+        <v>561</v>
       </c>
       <c r="AC2" t="s">
-        <v>555</v>
-      </c>
-      <c r="AD2" t="s">
-        <v>555</v>
+        <v>566</v>
       </c>
       <c r="AE2" t="s">
-        <v>555</v>
+        <v>572</v>
       </c>
       <c r="AF2" t="s">
-        <v>555</v>
+        <v>576</v>
       </c>
       <c r="AG2" t="s">
-        <v>556</v>
+        <v>580</v>
       </c>
       <c r="AH2" t="s">
-        <v>556</v>
+        <v>583</v>
       </c>
       <c r="AI2" t="s">
-        <v>556</v>
-      </c>
-      <c r="AJ2" t="s">
-        <v>557</v>
+        <v>584</v>
+      </c>
+      <c r="AJ2" s="2" t="s">
+        <v>586</v>
       </c>
       <c r="AK2" t="s">
-        <v>555</v>
-      </c>
-      <c r="AL2" t="s">
-        <v>557</v>
+        <v>587</v>
+      </c>
+      <c r="AL2">
+        <v>669</v>
       </c>
       <c r="AM2" t="s">
-        <v>557</v>
+        <v>589</v>
       </c>
       <c r="AN2" t="s">
-        <v>556</v>
+        <v>591</v>
       </c>
       <c r="AO2" t="s">
-        <v>555</v>
-      </c>
-      <c r="AP2" t="s">
-        <v>555</v>
+        <v>584</v>
       </c>
       <c r="AQ2" t="s">
-        <v>558</v>
+        <v>493</v>
       </c>
       <c r="AR2" t="s">
-        <v>555</v>
+        <v>597</v>
       </c>
       <c r="AS2" t="s">
-        <v>557</v>
+        <v>608</v>
       </c>
       <c r="AT2" t="s">
-        <v>555</v>
+        <v>619</v>
       </c>
       <c r="AU2" t="s">
-        <v>557</v>
+        <v>623</v>
       </c>
       <c r="AV2" t="s">
-        <v>560</v>
+        <v>627</v>
       </c>
       <c r="AW2" t="s">
-        <v>562</v>
-      </c>
-      <c r="AX2" t="s">
-        <v>556</v>
-      </c>
-      <c r="AY2" t="s">
-        <v>555</v>
+        <v>630</v>
       </c>
       <c r="AZ2" t="s">
-        <v>564</v>
+        <v>634</v>
       </c>
       <c r="BA2" t="s">
-        <v>565</v>
-      </c>
-      <c r="BB2" s="2" t="s">
-        <v>567</v>
-      </c>
-      <c r="BC2" t="s">
-        <v>568</v>
-      </c>
-      <c r="BD2">
+        <v>634</v>
+      </c>
+      <c r="BB2" t="s">
+        <v>634</v>
+      </c>
+      <c r="BF2" t="s">
+        <v>635</v>
+      </c>
+      <c r="BG2" t="s">
+        <v>639</v>
+      </c>
+      <c r="BH2" t="s">
+        <v>583</v>
+      </c>
+      <c r="BI2" t="s">
+        <v>634</v>
+      </c>
+      <c r="BJ2" t="s">
+        <v>634</v>
+      </c>
+      <c r="BN2" t="s">
+        <v>583</v>
+      </c>
+      <c r="BO2" t="s">
+        <v>583</v>
+      </c>
+      <c r="BP2" t="s">
+        <v>634</v>
+      </c>
+      <c r="BQ2" t="s">
+        <v>583</v>
+      </c>
+      <c r="BS2" t="s">
+        <v>583</v>
+      </c>
+      <c r="BT2" t="s">
+        <v>634</v>
+      </c>
+      <c r="BU2" t="s">
+        <v>584</v>
+      </c>
+      <c r="BW2" t="s">
+        <v>587</v>
+      </c>
+      <c r="BX2">
         <v>669</v>
       </c>
-      <c r="BE2" t="s">
-        <v>570</v>
-      </c>
-      <c r="BF2" t="s">
-        <v>572</v>
-      </c>
-      <c r="BG2" t="s">
-        <v>566</v>
-      </c>
-      <c r="BI2" t="s">
+      <c r="BY2" t="s">
+        <v>589</v>
+      </c>
+      <c r="BZ2" t="s">
+        <v>591</v>
+      </c>
+      <c r="CA2" t="s">
+        <v>584</v>
+      </c>
+      <c r="CC2" t="s">
         <v>493</v>
       </c>
-      <c r="BJ2" t="s">
-        <v>577</v>
-      </c>
-      <c r="BK2" t="s">
-        <v>586</v>
-      </c>
-      <c r="BL2" t="s">
-        <v>595</v>
-      </c>
-      <c r="BM2" t="s">
-        <v>599</v>
-      </c>
-      <c r="BN2" t="s">
-        <v>603</v>
-      </c>
-      <c r="BO2" t="s">
-        <v>604</v>
-      </c>
-      <c r="BP2" t="s">
-        <v>605</v>
-      </c>
-      <c r="BQ2" t="s">
-        <v>606</v>
-      </c>
-      <c r="BR2" t="s">
-        <v>607</v>
-      </c>
-      <c r="BS2" t="s">
-        <v>610</v>
-      </c>
-      <c r="BT2" t="s">
-        <v>614</v>
-      </c>
-      <c r="BU2" t="s">
-        <v>615</v>
-      </c>
-      <c r="BV2" t="s">
-        <v>568</v>
-      </c>
-      <c r="BW2">
-        <v>669</v>
-      </c>
-      <c r="BX2" t="s">
-        <v>570</v>
-      </c>
-      <c r="BY2" t="s">
-        <v>572</v>
-      </c>
-      <c r="BZ2" t="s">
-        <v>566</v>
-      </c>
-      <c r="CB2" t="s">
-        <v>493</v>
-      </c>
-      <c r="CD2" t="s">
-        <v>577</v>
-      </c>
       <c r="CE2" t="s">
-        <v>586</v>
+        <v>597</v>
       </c>
       <c r="CF2" t="s">
-        <v>595</v>
+        <v>608</v>
       </c>
       <c r="CG2" t="s">
-        <v>599</v>
+        <v>619</v>
+      </c>
+      <c r="CH2" t="s">
+        <v>623</v>
       </c>
     </row>
     <row r="3" spans="1:491">
@@ -4089,7 +4158,7 @@
         <v>494</v>
       </c>
       <c r="I3" t="s">
-        <v>503</v>
+        <v>505</v>
       </c>
       <c r="J3" t="b">
         <v>1</v>
@@ -4098,385 +4167,466 @@
         <v>1</v>
       </c>
       <c r="M3" t="s">
-        <v>512</v>
+        <v>516</v>
       </c>
       <c r="O3" t="s">
-        <v>521</v>
+        <v>527</v>
       </c>
       <c r="P3" t="s">
-        <v>530</v>
+        <v>537</v>
       </c>
       <c r="Q3" t="s">
-        <v>535</v>
+        <v>544</v>
       </c>
       <c r="R3" t="s">
-        <v>536</v>
+        <v>545</v>
       </c>
       <c r="S3" t="s">
-        <v>537</v>
+        <v>546</v>
       </c>
       <c r="T3" t="s">
-        <v>538</v>
+        <v>547</v>
       </c>
       <c r="U3">
-        <v>8273</v>
+        <v>9336</v>
       </c>
       <c r="V3" s="2" t="s">
-        <v>540</v>
+        <v>549</v>
       </c>
       <c r="W3" t="s">
-        <v>535</v>
+        <v>544</v>
       </c>
       <c r="X3" t="s">
-        <v>548</v>
+        <v>559</v>
       </c>
       <c r="Y3" t="s">
-        <v>536</v>
+        <v>545</v>
       </c>
       <c r="Z3" t="s">
-        <v>537</v>
+        <v>546</v>
       </c>
       <c r="AA3" s="2" t="s">
-        <v>549</v>
+        <v>560</v>
       </c>
       <c r="AB3" t="s">
-        <v>551</v>
-      </c>
-      <c r="BA3" t="s">
-        <v>566</v>
-      </c>
-      <c r="BB3" s="2" t="s">
-        <v>567</v>
-      </c>
-      <c r="BC3" t="s">
-        <v>569</v>
-      </c>
-      <c r="BD3">
+        <v>562</v>
+      </c>
+      <c r="AI3" t="s">
+        <v>584</v>
+      </c>
+      <c r="AJ3" s="2" t="s">
+        <v>586</v>
+      </c>
+      <c r="AK3" t="s">
+        <v>587</v>
+      </c>
+      <c r="AL3">
         <v>669</v>
       </c>
-      <c r="BE3" t="s">
-        <v>571</v>
-      </c>
-      <c r="BF3" t="s">
-        <v>573</v>
-      </c>
-      <c r="BG3" t="s">
-        <v>566</v>
-      </c>
-      <c r="BI3" t="s">
+      <c r="AM3" t="s">
+        <v>589</v>
+      </c>
+      <c r="AN3" t="s">
+        <v>591</v>
+      </c>
+      <c r="AO3" t="s">
+        <v>584</v>
+      </c>
+      <c r="AQ3" t="s">
         <v>494</v>
       </c>
-      <c r="BJ3" t="s">
-        <v>578</v>
-      </c>
-      <c r="BK3" t="s">
+      <c r="AR3" t="s">
+        <v>598</v>
+      </c>
+      <c r="AS3" t="s">
+        <v>609</v>
+      </c>
+      <c r="AT3" t="s">
+        <v>619</v>
+      </c>
+      <c r="AU3" t="s">
+        <v>623</v>
+      </c>
+      <c r="AV3" t="s">
+        <v>627</v>
+      </c>
+      <c r="AW3" t="s">
+        <v>630</v>
+      </c>
+      <c r="BU3" t="s">
+        <v>584</v>
+      </c>
+      <c r="BW3" t="s">
         <v>587</v>
       </c>
-      <c r="BL3" t="s">
-        <v>596</v>
-      </c>
-      <c r="BM3" t="s">
-        <v>600</v>
-      </c>
-      <c r="BR3" t="s">
-        <v>608</v>
-      </c>
-      <c r="BS3" t="s">
-        <v>611</v>
-      </c>
-      <c r="BT3" t="s">
-        <v>566</v>
-      </c>
-      <c r="BV3" t="s">
-        <v>569</v>
-      </c>
-      <c r="BW3">
+      <c r="BX3">
         <v>669</v>
       </c>
-      <c r="BX3" t="s">
-        <v>571</v>
-      </c>
       <c r="BY3" t="s">
-        <v>573</v>
+        <v>589</v>
       </c>
       <c r="BZ3" t="s">
-        <v>566</v>
-      </c>
-      <c r="CB3" t="s">
+        <v>591</v>
+      </c>
+      <c r="CA3" t="s">
+        <v>584</v>
+      </c>
+      <c r="CC3" t="s">
         <v>494</v>
       </c>
-      <c r="CD3" t="s">
-        <v>578</v>
-      </c>
       <c r="CE3" t="s">
-        <v>587</v>
+        <v>598</v>
       </c>
       <c r="CF3" t="s">
-        <v>596</v>
+        <v>609</v>
       </c>
       <c r="CG3" t="s">
-        <v>600</v>
+        <v>619</v>
       </c>
       <c r="CH3" t="s">
-        <v>616</v>
+        <v>623</v>
       </c>
       <c r="CI3" t="s">
-        <v>557</v>
+        <v>642</v>
       </c>
       <c r="CJ3" t="s">
-        <v>557</v>
+        <v>583</v>
       </c>
       <c r="CK3" t="s">
-        <v>557</v>
+        <v>583</v>
       </c>
       <c r="CL3" t="s">
-        <v>557</v>
+        <v>583</v>
       </c>
       <c r="CM3" t="s">
-        <v>557</v>
+        <v>583</v>
       </c>
       <c r="CN3" t="s">
-        <v>555</v>
+        <v>583</v>
+      </c>
+      <c r="CO3" t="s">
+        <v>634</v>
+      </c>
+      <c r="CP3" t="s">
+        <v>634</v>
+      </c>
+      <c r="CQ3" t="s">
+        <v>634</v>
       </c>
       <c r="CR3" t="s">
-        <v>555</v>
+        <v>634</v>
       </c>
       <c r="CS3" t="s">
-        <v>555</v>
+        <v>634</v>
       </c>
       <c r="CT3" t="s">
-        <v>555</v>
+        <v>639</v>
       </c>
       <c r="CU3" t="s">
-        <v>555</v>
+        <v>634</v>
       </c>
       <c r="CV3" t="s">
-        <v>617</v>
+        <v>634</v>
       </c>
       <c r="CW3" t="s">
-        <v>618</v>
+        <v>644</v>
       </c>
       <c r="CX3" t="s">
-        <v>555</v>
+        <v>646</v>
+      </c>
+      <c r="CY3" t="s">
+        <v>634</v>
+      </c>
+      <c r="CZ3" t="s">
+        <v>634</v>
+      </c>
+      <c r="DA3" t="s">
+        <v>639</v>
+      </c>
+      <c r="DC3" t="s">
+        <v>634</v>
+      </c>
+      <c r="DD3" t="s">
+        <v>634</v>
       </c>
       <c r="DE3" t="s">
-        <v>557</v>
+        <v>634</v>
       </c>
       <c r="DF3" t="s">
-        <v>557</v>
+        <v>583</v>
+      </c>
+      <c r="DG3" t="s">
+        <v>583</v>
+      </c>
+      <c r="DI3" t="s">
+        <v>634</v>
+      </c>
+      <c r="DJ3" t="s">
+        <v>648</v>
+      </c>
+      <c r="DK3" t="s">
+        <v>634</v>
+      </c>
+      <c r="DL3" t="s">
+        <v>649</v>
+      </c>
+      <c r="DM3" t="s">
+        <v>634</v>
       </c>
       <c r="DN3" t="s">
-        <v>619</v>
+        <v>639</v>
       </c>
       <c r="DO3" t="s">
-        <v>620</v>
+        <v>650</v>
       </c>
       <c r="DP3" t="s">
-        <v>557</v>
+        <v>651</v>
       </c>
       <c r="DQ3" t="s">
-        <v>621</v>
+        <v>583</v>
       </c>
       <c r="DR3" t="s">
-        <v>622</v>
+        <v>653</v>
       </c>
       <c r="DS3" t="s">
-        <v>555</v>
-      </c>
-      <c r="DU3" t="s">
-        <v>555</v>
+        <v>655</v>
+      </c>
+      <c r="DT3" t="s">
+        <v>634</v>
       </c>
       <c r="DV3" t="s">
-        <v>555</v>
+        <v>634</v>
       </c>
       <c r="DW3" t="s">
-        <v>555</v>
+        <v>634</v>
       </c>
       <c r="DX3" t="s">
-        <v>555</v>
+        <v>634</v>
       </c>
       <c r="DY3" t="s">
-        <v>555</v>
+        <v>634</v>
       </c>
       <c r="DZ3" t="s">
-        <v>555</v>
+        <v>634</v>
       </c>
       <c r="EA3" t="s">
-        <v>555</v>
+        <v>634</v>
       </c>
       <c r="EB3" t="s">
-        <v>555</v>
+        <v>634</v>
       </c>
       <c r="EC3" t="s">
-        <v>555</v>
+        <v>634</v>
       </c>
       <c r="ED3" t="s">
-        <v>623</v>
+        <v>634</v>
+      </c>
+      <c r="EE3" t="s">
+        <v>656</v>
       </c>
       <c r="EG3" t="s">
-        <v>555</v>
+        <v>634</v>
+      </c>
+      <c r="EH3" t="s">
+        <v>634</v>
       </c>
       <c r="EI3" t="s">
-        <v>555</v>
+        <v>634</v>
       </c>
       <c r="EJ3" t="s">
-        <v>557</v>
+        <v>634</v>
       </c>
       <c r="EK3" t="s">
-        <v>557</v>
+        <v>583</v>
+      </c>
+      <c r="EL3" t="s">
+        <v>583</v>
+      </c>
+      <c r="EM3" t="s">
+        <v>634</v>
+      </c>
+      <c r="EO3" t="s">
+        <v>639</v>
+      </c>
+      <c r="EQ3" t="s">
+        <v>634</v>
+      </c>
+      <c r="ER3" t="s">
+        <v>657</v>
+      </c>
+      <c r="ES3" t="s">
+        <v>639</v>
+      </c>
+      <c r="ET3" t="s">
+        <v>634</v>
+      </c>
+      <c r="EU3" t="s">
+        <v>634</v>
+      </c>
+      <c r="EV3" t="s">
+        <v>634</v>
+      </c>
+      <c r="EW3" t="s">
+        <v>634</v>
       </c>
       <c r="EX3" t="s">
-        <v>555</v>
+        <v>634</v>
       </c>
       <c r="EY3" t="s">
-        <v>555</v>
+        <v>634</v>
       </c>
       <c r="EZ3" t="s">
-        <v>555</v>
+        <v>634</v>
       </c>
       <c r="FA3" t="s">
-        <v>555</v>
+        <v>634</v>
       </c>
       <c r="FB3" t="s">
-        <v>556</v>
+        <v>634</v>
       </c>
       <c r="FC3" t="s">
-        <v>555</v>
+        <v>634</v>
+      </c>
+      <c r="FD3" t="s">
+        <v>634</v>
       </c>
       <c r="FE3" t="s">
-        <v>556</v>
+        <v>658</v>
       </c>
       <c r="FF3" t="s">
-        <v>624</v>
+        <v>634</v>
       </c>
       <c r="FG3" t="s">
-        <v>557</v>
+        <v>659</v>
       </c>
       <c r="FH3" t="s">
-        <v>557</v>
+        <v>583</v>
       </c>
       <c r="FI3" t="s">
-        <v>557</v>
+        <v>583</v>
       </c>
       <c r="FJ3" t="s">
-        <v>555</v>
+        <v>583</v>
       </c>
       <c r="FK3" t="s">
-        <v>625</v>
+        <v>634</v>
       </c>
       <c r="FL3" t="s">
-        <v>556</v>
+        <v>661</v>
       </c>
       <c r="FM3" t="s">
-        <v>555</v>
+        <v>634</v>
       </c>
       <c r="FN3" t="s">
-        <v>555</v>
+        <v>634</v>
       </c>
       <c r="FO3" t="s">
-        <v>555</v>
+        <v>634</v>
       </c>
       <c r="FP3" t="s">
-        <v>555</v>
+        <v>634</v>
       </c>
       <c r="FQ3" t="s">
-        <v>555</v>
+        <v>634</v>
       </c>
       <c r="FR3" t="s">
-        <v>555</v>
+        <v>634</v>
       </c>
       <c r="FS3" t="s">
-        <v>555</v>
+        <v>634</v>
       </c>
       <c r="FT3" t="s">
-        <v>555</v>
+        <v>634</v>
       </c>
       <c r="FU3" t="s">
-        <v>626</v>
+        <v>634</v>
       </c>
       <c r="FV3" t="s">
-        <v>555</v>
+        <v>662</v>
       </c>
       <c r="FW3" t="s">
-        <v>555</v>
+        <v>634</v>
       </c>
       <c r="FX3" t="s">
-        <v>557</v>
+        <v>634</v>
       </c>
       <c r="FY3" t="s">
-        <v>555</v>
+        <v>583</v>
       </c>
       <c r="FZ3" t="s">
-        <v>557</v>
+        <v>634</v>
       </c>
       <c r="GA3" t="s">
-        <v>557</v>
+        <v>583</v>
       </c>
       <c r="GB3" t="s">
-        <v>557</v>
+        <v>583</v>
       </c>
       <c r="GC3" t="s">
-        <v>557</v>
+        <v>583</v>
       </c>
       <c r="GD3" t="s">
-        <v>555</v>
+        <v>583</v>
       </c>
       <c r="GE3" t="s">
-        <v>555</v>
+        <v>634</v>
       </c>
       <c r="GF3" t="s">
-        <v>555</v>
+        <v>634</v>
       </c>
       <c r="GG3" t="s">
-        <v>556</v>
+        <v>634</v>
       </c>
       <c r="GH3" t="s">
-        <v>555</v>
+        <v>634</v>
       </c>
       <c r="GI3" t="s">
-        <v>555</v>
+        <v>634</v>
       </c>
       <c r="GJ3" t="s">
-        <v>555</v>
+        <v>634</v>
       </c>
       <c r="GK3" t="s">
-        <v>555</v>
+        <v>634</v>
       </c>
       <c r="GL3" t="s">
-        <v>555</v>
+        <v>634</v>
       </c>
       <c r="GM3" t="s">
-        <v>555</v>
+        <v>634</v>
       </c>
       <c r="GN3" t="s">
-        <v>555</v>
+        <v>634</v>
       </c>
       <c r="GO3" t="s">
-        <v>557</v>
+        <v>634</v>
       </c>
       <c r="GP3" t="s">
-        <v>555</v>
+        <v>583</v>
       </c>
       <c r="GQ3" t="s">
-        <v>556</v>
+        <v>634</v>
       </c>
       <c r="GR3" t="s">
-        <v>556</v>
+        <v>634</v>
       </c>
       <c r="GS3" t="s">
-        <v>557</v>
+        <v>634</v>
       </c>
       <c r="GT3" t="s">
-        <v>555</v>
+        <v>583</v>
       </c>
       <c r="GU3" t="s">
-        <v>555</v>
+        <v>634</v>
       </c>
       <c r="GV3" t="s">
-        <v>555</v>
+        <v>634</v>
       </c>
       <c r="GW3" t="s">
-        <v>555</v>
+        <v>634</v>
+      </c>
+      <c r="GX3" t="s">
+        <v>634</v>
       </c>
     </row>
     <row r="4" spans="1:491">
@@ -4499,7 +4649,7 @@
         <v>495</v>
       </c>
       <c r="I4" t="s">
-        <v>504</v>
+        <v>506</v>
       </c>
       <c r="J4" t="b">
         <v>1</v>
@@ -4508,253 +4658,211 @@
         <v>1</v>
       </c>
       <c r="M4" t="s">
-        <v>513</v>
+        <v>517</v>
       </c>
       <c r="O4" t="s">
-        <v>522</v>
+        <v>528</v>
       </c>
       <c r="P4" t="s">
-        <v>531</v>
+        <v>538</v>
       </c>
       <c r="Q4" t="s">
-        <v>535</v>
+        <v>544</v>
       </c>
       <c r="R4" t="s">
-        <v>536</v>
+        <v>545</v>
       </c>
       <c r="S4" t="s">
-        <v>537</v>
+        <v>546</v>
       </c>
       <c r="T4" t="s">
-        <v>538</v>
+        <v>547</v>
       </c>
       <c r="U4">
-        <v>3975</v>
+        <v>6430</v>
       </c>
       <c r="V4" s="2" t="s">
-        <v>541</v>
+        <v>550</v>
       </c>
       <c r="W4" t="s">
-        <v>535</v>
+        <v>544</v>
       </c>
       <c r="X4" t="s">
-        <v>548</v>
+        <v>559</v>
       </c>
       <c r="Y4" t="s">
-        <v>536</v>
+        <v>545</v>
       </c>
       <c r="Z4" t="s">
-        <v>537</v>
+        <v>546</v>
       </c>
       <c r="AA4" s="2" t="s">
-        <v>549</v>
+        <v>560</v>
       </c>
       <c r="AB4" t="s">
-        <v>552</v>
-      </c>
-      <c r="BA4" t="s">
-        <v>566</v>
-      </c>
-      <c r="BB4" s="2" t="s">
-        <v>567</v>
-      </c>
-      <c r="BC4" t="s">
-        <v>569</v>
-      </c>
-      <c r="BD4">
+        <v>563</v>
+      </c>
+      <c r="AI4" t="s">
+        <v>585</v>
+      </c>
+      <c r="AJ4" s="2" t="s">
+        <v>586</v>
+      </c>
+      <c r="AK4" t="s">
+        <v>587</v>
+      </c>
+      <c r="AL4">
         <v>669</v>
       </c>
-      <c r="BE4" t="s">
-        <v>571</v>
-      </c>
-      <c r="BF4" t="s">
-        <v>574</v>
-      </c>
-      <c r="BG4" t="s">
-        <v>566</v>
-      </c>
-      <c r="BI4" t="s">
+      <c r="AM4" t="s">
+        <v>589</v>
+      </c>
+      <c r="AN4" t="s">
+        <v>592</v>
+      </c>
+      <c r="AO4" t="s">
+        <v>584</v>
+      </c>
+      <c r="AQ4" t="s">
         <v>495</v>
       </c>
-      <c r="BJ4" t="s">
-        <v>579</v>
-      </c>
-      <c r="BK4" t="s">
-        <v>588</v>
-      </c>
-      <c r="BL4" t="s">
-        <v>595</v>
-      </c>
-      <c r="BM4" t="s">
+      <c r="AR4" t="s">
         <v>599</v>
       </c>
-      <c r="BR4" t="s">
-        <v>607</v>
-      </c>
-      <c r="BS4" t="s">
+      <c r="AS4" t="s">
         <v>610</v>
       </c>
-      <c r="BT4" t="s">
-        <v>566</v>
+      <c r="AT4" t="s">
+        <v>620</v>
+      </c>
+      <c r="AU4" t="s">
+        <v>624</v>
+      </c>
+      <c r="AV4" t="s">
+        <v>627</v>
+      </c>
+      <c r="AW4" t="s">
+        <v>630</v>
+      </c>
+      <c r="BU4" t="s">
+        <v>640</v>
       </c>
       <c r="BV4" t="s">
-        <v>569</v>
-      </c>
-      <c r="BW4">
+        <v>641</v>
+      </c>
+      <c r="BW4" t="s">
+        <v>587</v>
+      </c>
+      <c r="BX4">
         <v>669</v>
       </c>
-      <c r="BX4" t="s">
-        <v>571</v>
-      </c>
       <c r="BY4" t="s">
-        <v>574</v>
+        <v>589</v>
       </c>
       <c r="BZ4" t="s">
-        <v>566</v>
-      </c>
-      <c r="CB4" t="s">
+        <v>592</v>
+      </c>
+      <c r="CA4" t="s">
+        <v>584</v>
+      </c>
+      <c r="CC4" t="s">
         <v>495</v>
       </c>
-      <c r="CD4" t="s">
-        <v>579</v>
-      </c>
       <c r="CE4" t="s">
-        <v>588</v>
+        <v>599</v>
       </c>
       <c r="CF4" t="s">
-        <v>595</v>
+        <v>610</v>
       </c>
       <c r="CG4" t="s">
-        <v>599</v>
-      </c>
-      <c r="GX4" t="s">
-        <v>627</v>
+        <v>620</v>
+      </c>
+      <c r="CH4" t="s">
+        <v>624</v>
       </c>
       <c r="GY4" t="s">
-        <v>555</v>
+        <v>634</v>
       </c>
       <c r="GZ4" t="s">
-        <v>555</v>
+        <v>634</v>
       </c>
       <c r="HA4" t="s">
-        <v>555</v>
+        <v>634</v>
       </c>
       <c r="HB4" t="s">
-        <v>555</v>
+        <v>634</v>
       </c>
       <c r="HC4" t="s">
-        <v>556</v>
+        <v>639</v>
       </c>
       <c r="HD4" t="s">
-        <v>556</v>
+        <v>639</v>
       </c>
       <c r="HE4" t="s">
-        <v>555</v>
+        <v>639</v>
       </c>
       <c r="HF4" t="s">
-        <v>555</v>
+        <v>583</v>
       </c>
       <c r="HG4" t="s">
-        <v>555</v>
+        <v>634</v>
       </c>
       <c r="HH4" t="s">
-        <v>555</v>
+        <v>583</v>
       </c>
       <c r="HI4" t="s">
-        <v>555</v>
+        <v>583</v>
       </c>
       <c r="HJ4" t="s">
-        <v>555</v>
+        <v>639</v>
       </c>
       <c r="HK4" t="s">
-        <v>629</v>
+        <v>634</v>
       </c>
       <c r="HL4" t="s">
-        <v>555</v>
+        <v>634</v>
       </c>
       <c r="HM4" t="s">
-        <v>555</v>
+        <v>664</v>
       </c>
       <c r="HN4" t="s">
-        <v>555</v>
+        <v>634</v>
       </c>
       <c r="HO4" t="s">
-        <v>555</v>
+        <v>583</v>
       </c>
       <c r="HP4" t="s">
-        <v>556</v>
+        <v>634</v>
       </c>
       <c r="HQ4" t="s">
-        <v>555</v>
+        <v>583</v>
       </c>
       <c r="HR4" t="s">
-        <v>555</v>
+        <v>666</v>
       </c>
       <c r="HS4" t="s">
-        <v>555</v>
+        <v>668</v>
       </c>
       <c r="HT4" t="s">
-        <v>555</v>
+        <v>639</v>
       </c>
       <c r="HU4" t="s">
-        <v>555</v>
+        <v>634</v>
       </c>
       <c r="HV4" t="s">
-        <v>555</v>
+        <v>670</v>
       </c>
       <c r="HW4" t="s">
-        <v>555</v>
+        <v>671</v>
       </c>
       <c r="HX4" t="s">
-        <v>555</v>
+        <v>672</v>
       </c>
       <c r="HY4" t="s">
-        <v>555</v>
+        <v>673</v>
       </c>
       <c r="HZ4" t="s">
-        <v>557</v>
-      </c>
-      <c r="IA4" t="s">
-        <v>555</v>
-      </c>
-      <c r="IB4" t="s">
-        <v>557</v>
-      </c>
-      <c r="IC4" t="s">
-        <v>555</v>
-      </c>
-      <c r="ID4" t="s">
-        <v>556</v>
-      </c>
-      <c r="IE4" t="s">
-        <v>555</v>
-      </c>
-      <c r="IF4" t="s">
-        <v>555</v>
-      </c>
-      <c r="IG4" t="s">
-        <v>557</v>
-      </c>
-      <c r="IH4" t="s">
-        <v>555</v>
-      </c>
-      <c r="II4" t="s">
-        <v>555</v>
-      </c>
-      <c r="IJ4" t="s">
-        <v>555</v>
-      </c>
-      <c r="IK4" t="s">
-        <v>555</v>
-      </c>
-      <c r="IL4" t="s">
-        <v>555</v>
-      </c>
-      <c r="IM4" t="s">
-        <v>557</v>
-      </c>
-      <c r="IN4" t="s">
-        <v>555</v>
+        <v>674</v>
       </c>
     </row>
     <row r="5" spans="1:491">
@@ -4777,7 +4885,7 @@
         <v>496</v>
       </c>
       <c r="I5" t="s">
-        <v>505</v>
+        <v>507</v>
       </c>
       <c r="J5" t="b">
         <v>1</v>
@@ -4786,211 +4894,385 @@
         <v>1</v>
       </c>
       <c r="M5" t="s">
-        <v>514</v>
+        <v>518</v>
       </c>
       <c r="O5" t="s">
-        <v>523</v>
+        <v>529</v>
       </c>
       <c r="P5" t="s">
-        <v>530</v>
+        <v>539</v>
       </c>
       <c r="Q5" t="s">
-        <v>535</v>
+        <v>544</v>
       </c>
       <c r="R5" t="s">
-        <v>536</v>
+        <v>545</v>
       </c>
       <c r="S5" t="s">
-        <v>537</v>
+        <v>546</v>
       </c>
       <c r="T5" t="s">
-        <v>538</v>
+        <v>547</v>
       </c>
       <c r="U5">
-        <v>3305</v>
+        <v>8273</v>
       </c>
       <c r="V5" s="2" t="s">
-        <v>542</v>
+        <v>551</v>
       </c>
       <c r="W5" t="s">
-        <v>535</v>
+        <v>544</v>
       </c>
       <c r="X5" t="s">
-        <v>548</v>
+        <v>559</v>
       </c>
       <c r="Y5" t="s">
-        <v>536</v>
+        <v>545</v>
       </c>
       <c r="Z5" t="s">
-        <v>537</v>
+        <v>546</v>
       </c>
       <c r="AA5" s="2" t="s">
-        <v>549</v>
+        <v>560</v>
       </c>
       <c r="AB5" t="s">
-        <v>553</v>
-      </c>
-      <c r="BA5" t="s">
-        <v>566</v>
-      </c>
-      <c r="BB5" s="2" t="s">
-        <v>567</v>
-      </c>
-      <c r="BC5" t="s">
-        <v>569</v>
-      </c>
-      <c r="BD5">
+        <v>562</v>
+      </c>
+      <c r="AI5" t="s">
+        <v>584</v>
+      </c>
+      <c r="AJ5" s="2" t="s">
+        <v>586</v>
+      </c>
+      <c r="AK5" t="s">
+        <v>588</v>
+      </c>
+      <c r="AL5">
         <v>669</v>
       </c>
-      <c r="BE5" t="s">
-        <v>571</v>
-      </c>
-      <c r="BF5" t="s">
-        <v>573</v>
-      </c>
-      <c r="BG5" t="s">
-        <v>566</v>
-      </c>
-      <c r="BI5" t="s">
+      <c r="AM5" t="s">
+        <v>590</v>
+      </c>
+      <c r="AN5" t="s">
+        <v>593</v>
+      </c>
+      <c r="AO5" t="s">
+        <v>584</v>
+      </c>
+      <c r="AQ5" t="s">
         <v>496</v>
       </c>
-      <c r="BJ5" t="s">
-        <v>580</v>
-      </c>
-      <c r="BK5" t="s">
-        <v>589</v>
-      </c>
-      <c r="BL5" t="s">
-        <v>596</v>
-      </c>
-      <c r="BM5" t="s">
+      <c r="AR5" t="s">
         <v>600</v>
       </c>
-      <c r="BR5" t="s">
-        <v>608</v>
-      </c>
-      <c r="BS5" t="s">
+      <c r="AS5" t="s">
         <v>611</v>
       </c>
-      <c r="BT5" t="s">
-        <v>566</v>
-      </c>
-      <c r="BV5" t="s">
-        <v>569</v>
-      </c>
-      <c r="BW5">
+      <c r="AT5" t="s">
+        <v>619</v>
+      </c>
+      <c r="AU5" t="s">
+        <v>623</v>
+      </c>
+      <c r="AV5" t="s">
+        <v>628</v>
+      </c>
+      <c r="AW5" t="s">
+        <v>631</v>
+      </c>
+      <c r="BU5" t="s">
+        <v>584</v>
+      </c>
+      <c r="BW5" t="s">
+        <v>588</v>
+      </c>
+      <c r="BX5">
         <v>669</v>
       </c>
-      <c r="BX5" t="s">
-        <v>571</v>
-      </c>
       <c r="BY5" t="s">
-        <v>573</v>
+        <v>590</v>
       </c>
       <c r="BZ5" t="s">
-        <v>566</v>
-      </c>
-      <c r="CB5" t="s">
+        <v>593</v>
+      </c>
+      <c r="CA5" t="s">
+        <v>584</v>
+      </c>
+      <c r="CC5" t="s">
         <v>496</v>
       </c>
-      <c r="CD5" t="s">
-        <v>580</v>
-      </c>
       <c r="CE5" t="s">
-        <v>589</v>
+        <v>600</v>
       </c>
       <c r="CF5" t="s">
-        <v>596</v>
+        <v>611</v>
       </c>
       <c r="CG5" t="s">
-        <v>600</v>
-      </c>
-      <c r="IO5" t="s">
-        <v>631</v>
-      </c>
-      <c r="IP5" t="s">
-        <v>634</v>
-      </c>
-      <c r="IQ5" t="s">
-        <v>636</v>
-      </c>
-      <c r="IR5" t="s">
+        <v>619</v>
+      </c>
+      <c r="CH5" t="s">
+        <v>623</v>
+      </c>
+      <c r="CI5" t="s">
+        <v>643</v>
+      </c>
+      <c r="CJ5" t="s">
+        <v>583</v>
+      </c>
+      <c r="CK5" t="s">
+        <v>583</v>
+      </c>
+      <c r="CL5" t="s">
+        <v>583</v>
+      </c>
+      <c r="CM5" t="s">
+        <v>583</v>
+      </c>
+      <c r="CN5" t="s">
+        <v>583</v>
+      </c>
+      <c r="CO5" t="s">
+        <v>634</v>
+      </c>
+      <c r="CS5" t="s">
+        <v>634</v>
+      </c>
+      <c r="CT5" t="s">
+        <v>634</v>
+      </c>
+      <c r="CU5" t="s">
+        <v>634</v>
+      </c>
+      <c r="CV5" t="s">
+        <v>634</v>
+      </c>
+      <c r="CW5" t="s">
+        <v>645</v>
+      </c>
+      <c r="CX5" t="s">
+        <v>647</v>
+      </c>
+      <c r="CY5" t="s">
+        <v>634</v>
+      </c>
+      <c r="DF5" t="s">
+        <v>583</v>
+      </c>
+      <c r="DG5" t="s">
+        <v>583</v>
+      </c>
+      <c r="DO5" t="s">
+        <v>650</v>
+      </c>
+      <c r="DP5" t="s">
+        <v>652</v>
+      </c>
+      <c r="DQ5" t="s">
+        <v>583</v>
+      </c>
+      <c r="DR5" t="s">
+        <v>654</v>
+      </c>
+      <c r="DS5" t="s">
+        <v>655</v>
+      </c>
+      <c r="DT5" t="s">
+        <v>634</v>
+      </c>
+      <c r="DV5" t="s">
+        <v>634</v>
+      </c>
+      <c r="DW5" t="s">
+        <v>634</v>
+      </c>
+      <c r="DX5" t="s">
+        <v>634</v>
+      </c>
+      <c r="DY5" t="s">
+        <v>634</v>
+      </c>
+      <c r="DZ5" t="s">
+        <v>634</v>
+      </c>
+      <c r="EA5" t="s">
+        <v>634</v>
+      </c>
+      <c r="EB5" t="s">
+        <v>634</v>
+      </c>
+      <c r="EC5" t="s">
+        <v>634</v>
+      </c>
+      <c r="ED5" t="s">
+        <v>634</v>
+      </c>
+      <c r="EE5" t="s">
+        <v>656</v>
+      </c>
+      <c r="EH5" t="s">
+        <v>634</v>
+      </c>
+      <c r="EJ5" t="s">
+        <v>634</v>
+      </c>
+      <c r="EK5" t="s">
+        <v>583</v>
+      </c>
+      <c r="EL5" t="s">
+        <v>583</v>
+      </c>
+      <c r="EY5" t="s">
+        <v>634</v>
+      </c>
+      <c r="EZ5" t="s">
+        <v>634</v>
+      </c>
+      <c r="FA5" t="s">
+        <v>634</v>
+      </c>
+      <c r="FB5" t="s">
+        <v>634</v>
+      </c>
+      <c r="FC5" t="s">
         <v>639</v>
       </c>
-      <c r="IS5" t="s">
-        <v>642</v>
-      </c>
-      <c r="IT5" t="s">
-        <v>557</v>
-      </c>
-      <c r="IU5" t="s">
-        <v>555</v>
-      </c>
-      <c r="IV5" t="s">
-        <v>555</v>
-      </c>
-      <c r="IW5" t="s">
-        <v>555</v>
-      </c>
-      <c r="IX5" t="s">
-        <v>555</v>
-      </c>
-      <c r="IY5" t="s">
-        <v>555</v>
-      </c>
-      <c r="IZ5" t="s">
-        <v>555</v>
-      </c>
-      <c r="JA5" t="s">
-        <v>555</v>
-      </c>
-      <c r="JB5" t="s">
-        <v>555</v>
-      </c>
-      <c r="JC5" t="s">
-        <v>644</v>
-      </c>
-      <c r="JD5" t="s">
-        <v>556</v>
-      </c>
-      <c r="JE5" t="s">
-        <v>557</v>
-      </c>
-      <c r="JF5" t="s">
-        <v>555</v>
-      </c>
-      <c r="JG5" t="s">
-        <v>555</v>
-      </c>
-      <c r="JH5" t="s">
-        <v>555</v>
-      </c>
-      <c r="JI5" t="s">
-        <v>555</v>
-      </c>
-      <c r="JJ5" t="s">
-        <v>555</v>
-      </c>
-      <c r="JK5" t="s">
-        <v>557</v>
-      </c>
-      <c r="JL5" t="s">
-        <v>557</v>
-      </c>
-      <c r="JM5" t="s">
-        <v>555</v>
-      </c>
-      <c r="JN5" t="s">
-        <v>557</v>
-      </c>
-      <c r="JO5" t="s">
-        <v>555</v>
-      </c>
-      <c r="JP5" t="s">
-        <v>557</v>
-      </c>
-      <c r="JQ5" t="s">
-        <v>556</v>
+      <c r="FD5" t="s">
+        <v>634</v>
+      </c>
+      <c r="FF5" t="s">
+        <v>639</v>
+      </c>
+      <c r="FG5" t="s">
+        <v>660</v>
+      </c>
+      <c r="FH5" t="s">
+        <v>583</v>
+      </c>
+      <c r="FI5" t="s">
+        <v>583</v>
+      </c>
+      <c r="FJ5" t="s">
+        <v>583</v>
+      </c>
+      <c r="FK5" t="s">
+        <v>634</v>
+      </c>
+      <c r="FL5" t="s">
+        <v>661</v>
+      </c>
+      <c r="FM5" t="s">
+        <v>639</v>
+      </c>
+      <c r="FN5" t="s">
+        <v>634</v>
+      </c>
+      <c r="FO5" t="s">
+        <v>634</v>
+      </c>
+      <c r="FP5" t="s">
+        <v>634</v>
+      </c>
+      <c r="FQ5" t="s">
+        <v>634</v>
+      </c>
+      <c r="FR5" t="s">
+        <v>634</v>
+      </c>
+      <c r="FS5" t="s">
+        <v>634</v>
+      </c>
+      <c r="FT5" t="s">
+        <v>634</v>
+      </c>
+      <c r="FU5" t="s">
+        <v>634</v>
+      </c>
+      <c r="FV5" t="s">
+        <v>663</v>
+      </c>
+      <c r="FW5" t="s">
+        <v>634</v>
+      </c>
+      <c r="FX5" t="s">
+        <v>634</v>
+      </c>
+      <c r="FY5" t="s">
+        <v>583</v>
+      </c>
+      <c r="FZ5" t="s">
+        <v>634</v>
+      </c>
+      <c r="GA5" t="s">
+        <v>583</v>
+      </c>
+      <c r="GB5" t="s">
+        <v>583</v>
+      </c>
+      <c r="GC5" t="s">
+        <v>583</v>
+      </c>
+      <c r="GD5" t="s">
+        <v>583</v>
+      </c>
+      <c r="GE5" t="s">
+        <v>634</v>
+      </c>
+      <c r="GF5" t="s">
+        <v>634</v>
+      </c>
+      <c r="GG5" t="s">
+        <v>634</v>
+      </c>
+      <c r="GH5" t="s">
+        <v>639</v>
+      </c>
+      <c r="GI5" t="s">
+        <v>634</v>
+      </c>
+      <c r="GJ5" t="s">
+        <v>634</v>
+      </c>
+      <c r="GK5" t="s">
+        <v>634</v>
+      </c>
+      <c r="GL5" t="s">
+        <v>634</v>
+      </c>
+      <c r="GM5" t="s">
+        <v>634</v>
+      </c>
+      <c r="GN5" t="s">
+        <v>634</v>
+      </c>
+      <c r="GO5" t="s">
+        <v>634</v>
+      </c>
+      <c r="GP5" t="s">
+        <v>583</v>
+      </c>
+      <c r="GQ5" t="s">
+        <v>634</v>
+      </c>
+      <c r="GR5" t="s">
+        <v>639</v>
+      </c>
+      <c r="GS5" t="s">
+        <v>639</v>
+      </c>
+      <c r="GT5" t="s">
+        <v>583</v>
+      </c>
+      <c r="GU5" t="s">
+        <v>634</v>
+      </c>
+      <c r="GV5" t="s">
+        <v>634</v>
+      </c>
+      <c r="GW5" t="s">
+        <v>634</v>
+      </c>
+      <c r="GX5" t="s">
+        <v>634</v>
       </c>
     </row>
     <row r="6" spans="1:491">
@@ -5013,7 +5295,7 @@
         <v>497</v>
       </c>
       <c r="I6" t="s">
-        <v>506</v>
+        <v>508</v>
       </c>
       <c r="J6" t="b">
         <v>1</v>
@@ -5022,253 +5304,253 @@
         <v>1</v>
       </c>
       <c r="M6" t="s">
-        <v>515</v>
+        <v>519</v>
       </c>
       <c r="O6" t="s">
-        <v>524</v>
+        <v>530</v>
       </c>
       <c r="P6" t="s">
-        <v>532</v>
+        <v>540</v>
       </c>
       <c r="Q6" t="s">
-        <v>535</v>
+        <v>544</v>
       </c>
       <c r="R6" t="s">
-        <v>536</v>
+        <v>545</v>
       </c>
       <c r="S6" t="s">
-        <v>537</v>
+        <v>546</v>
       </c>
       <c r="T6" t="s">
-        <v>538</v>
+        <v>547</v>
       </c>
       <c r="U6">
-        <v>3505</v>
+        <v>3975</v>
       </c>
       <c r="V6" s="2" t="s">
-        <v>543</v>
+        <v>552</v>
       </c>
       <c r="W6" t="s">
-        <v>535</v>
+        <v>544</v>
       </c>
       <c r="X6" t="s">
-        <v>548</v>
+        <v>559</v>
       </c>
       <c r="Y6" t="s">
-        <v>536</v>
+        <v>545</v>
       </c>
       <c r="Z6" t="s">
-        <v>537</v>
+        <v>546</v>
       </c>
       <c r="AA6" s="2" t="s">
-        <v>549</v>
+        <v>560</v>
       </c>
       <c r="AB6" t="s">
-        <v>552</v>
-      </c>
-      <c r="BA6" t="s">
-        <v>566</v>
-      </c>
-      <c r="BB6" s="2" t="s">
-        <v>567</v>
-      </c>
-      <c r="BC6" t="s">
-        <v>569</v>
-      </c>
-      <c r="BD6">
+        <v>564</v>
+      </c>
+      <c r="AI6" t="s">
+        <v>584</v>
+      </c>
+      <c r="AJ6" s="2" t="s">
+        <v>586</v>
+      </c>
+      <c r="AK6" t="s">
+        <v>588</v>
+      </c>
+      <c r="AL6">
         <v>669</v>
       </c>
-      <c r="BE6" t="s">
-        <v>571</v>
-      </c>
-      <c r="BF6" t="s">
-        <v>575</v>
-      </c>
-      <c r="BG6" t="s">
-        <v>566</v>
-      </c>
-      <c r="BI6" t="s">
+      <c r="AM6" t="s">
+        <v>590</v>
+      </c>
+      <c r="AN6" t="s">
+        <v>594</v>
+      </c>
+      <c r="AO6" t="s">
+        <v>584</v>
+      </c>
+      <c r="AQ6" t="s">
         <v>497</v>
       </c>
-      <c r="BJ6" t="s">
-        <v>581</v>
-      </c>
-      <c r="BK6" t="s">
+      <c r="AR6" t="s">
+        <v>601</v>
+      </c>
+      <c r="AS6" t="s">
+        <v>612</v>
+      </c>
+      <c r="AT6" t="s">
+        <v>620</v>
+      </c>
+      <c r="AU6" t="s">
+        <v>624</v>
+      </c>
+      <c r="AV6" t="s">
+        <v>627</v>
+      </c>
+      <c r="AW6" t="s">
+        <v>630</v>
+      </c>
+      <c r="BU6" t="s">
+        <v>584</v>
+      </c>
+      <c r="BW6" t="s">
+        <v>588</v>
+      </c>
+      <c r="BX6">
+        <v>669</v>
+      </c>
+      <c r="BY6" t="s">
         <v>590</v>
       </c>
-      <c r="BL6" t="s">
-        <v>597</v>
-      </c>
-      <c r="BM6" t="s">
+      <c r="BZ6" t="s">
+        <v>594</v>
+      </c>
+      <c r="CA6" t="s">
+        <v>584</v>
+      </c>
+      <c r="CC6" t="s">
+        <v>497</v>
+      </c>
+      <c r="CE6" t="s">
         <v>601</v>
       </c>
-      <c r="BR6" t="s">
-        <v>608</v>
-      </c>
-      <c r="BS6" t="s">
-        <v>611</v>
-      </c>
-      <c r="BT6" t="s">
-        <v>566</v>
-      </c>
-      <c r="BV6" t="s">
-        <v>569</v>
-      </c>
-      <c r="BW6">
-        <v>669</v>
-      </c>
-      <c r="BX6" t="s">
-        <v>571</v>
-      </c>
-      <c r="BY6" t="s">
-        <v>575</v>
-      </c>
-      <c r="BZ6" t="s">
-        <v>566</v>
-      </c>
-      <c r="CB6" t="s">
-        <v>497</v>
-      </c>
-      <c r="CD6" t="s">
-        <v>581</v>
-      </c>
-      <c r="CE6" t="s">
-        <v>590</v>
-      </c>
       <c r="CF6" t="s">
-        <v>597</v>
+        <v>612</v>
       </c>
       <c r="CG6" t="s">
-        <v>601</v>
-      </c>
-      <c r="GX6" t="s">
-        <v>628</v>
-      </c>
-      <c r="GY6" t="s">
-        <v>555</v>
-      </c>
-      <c r="GZ6" t="s">
-        <v>555</v>
-      </c>
-      <c r="HA6" t="s">
-        <v>555</v>
-      </c>
-      <c r="HB6" t="s">
-        <v>555</v>
-      </c>
-      <c r="HC6" t="s">
-        <v>555</v>
-      </c>
-      <c r="HD6" t="s">
-        <v>555</v>
-      </c>
-      <c r="HE6" t="s">
-        <v>555</v>
-      </c>
-      <c r="HF6" t="s">
-        <v>555</v>
-      </c>
-      <c r="HG6" t="s">
-        <v>555</v>
-      </c>
-      <c r="HH6" t="s">
-        <v>555</v>
-      </c>
-      <c r="HI6" t="s">
-        <v>555</v>
-      </c>
-      <c r="HJ6" t="s">
-        <v>555</v>
-      </c>
-      <c r="HK6" t="s">
-        <v>630</v>
-      </c>
-      <c r="HL6" t="s">
-        <v>555</v>
-      </c>
-      <c r="HM6" t="s">
-        <v>555</v>
-      </c>
-      <c r="HN6" t="s">
-        <v>555</v>
-      </c>
-      <c r="HO6" t="s">
-        <v>555</v>
-      </c>
-      <c r="HP6" t="s">
-        <v>556</v>
-      </c>
-      <c r="HQ6" t="s">
-        <v>556</v>
-      </c>
-      <c r="HR6" t="s">
-        <v>555</v>
-      </c>
-      <c r="HS6" t="s">
-        <v>555</v>
-      </c>
-      <c r="HT6" t="s">
-        <v>555</v>
-      </c>
-      <c r="HU6" t="s">
-        <v>555</v>
-      </c>
-      <c r="HV6" t="s">
-        <v>555</v>
-      </c>
-      <c r="HW6" t="s">
-        <v>555</v>
-      </c>
-      <c r="HX6" t="s">
-        <v>555</v>
-      </c>
-      <c r="HY6" t="s">
-        <v>555</v>
-      </c>
-      <c r="HZ6" t="s">
-        <v>557</v>
+        <v>620</v>
+      </c>
+      <c r="CH6" t="s">
+        <v>624</v>
       </c>
       <c r="IA6" t="s">
-        <v>555</v>
+        <v>675</v>
       </c>
       <c r="IB6" t="s">
-        <v>557</v>
+        <v>634</v>
       </c>
       <c r="IC6" t="s">
-        <v>555</v>
+        <v>634</v>
       </c>
       <c r="ID6" t="s">
-        <v>555</v>
+        <v>634</v>
       </c>
       <c r="IE6" t="s">
-        <v>555</v>
+        <v>634</v>
       </c>
       <c r="IF6" t="s">
-        <v>555</v>
+        <v>639</v>
       </c>
       <c r="IG6" t="s">
-        <v>557</v>
+        <v>639</v>
       </c>
       <c r="IH6" t="s">
-        <v>555</v>
+        <v>634</v>
       </c>
       <c r="II6" t="s">
-        <v>555</v>
+        <v>634</v>
       </c>
       <c r="IJ6" t="s">
-        <v>555</v>
+        <v>634</v>
       </c>
       <c r="IK6" t="s">
-        <v>555</v>
+        <v>634</v>
       </c>
       <c r="IL6" t="s">
-        <v>555</v>
+        <v>634</v>
       </c>
       <c r="IM6" t="s">
-        <v>557</v>
+        <v>634</v>
       </c>
       <c r="IN6" t="s">
-        <v>555</v>
+        <v>677</v>
+      </c>
+      <c r="IO6" t="s">
+        <v>634</v>
+      </c>
+      <c r="IP6" t="s">
+        <v>634</v>
+      </c>
+      <c r="IQ6" t="s">
+        <v>634</v>
+      </c>
+      <c r="IR6" t="s">
+        <v>634</v>
+      </c>
+      <c r="IS6" t="s">
+        <v>639</v>
+      </c>
+      <c r="IT6" t="s">
+        <v>634</v>
+      </c>
+      <c r="IU6" t="s">
+        <v>634</v>
+      </c>
+      <c r="IV6" t="s">
+        <v>634</v>
+      </c>
+      <c r="IW6" t="s">
+        <v>634</v>
+      </c>
+      <c r="IX6" t="s">
+        <v>634</v>
+      </c>
+      <c r="IY6" t="s">
+        <v>634</v>
+      </c>
+      <c r="IZ6" t="s">
+        <v>634</v>
+      </c>
+      <c r="JA6" t="s">
+        <v>634</v>
+      </c>
+      <c r="JB6" t="s">
+        <v>634</v>
+      </c>
+      <c r="JC6" t="s">
+        <v>583</v>
+      </c>
+      <c r="JD6" t="s">
+        <v>634</v>
+      </c>
+      <c r="JE6" t="s">
+        <v>583</v>
+      </c>
+      <c r="JF6" t="s">
+        <v>634</v>
+      </c>
+      <c r="JG6" t="s">
+        <v>639</v>
+      </c>
+      <c r="JH6" t="s">
+        <v>634</v>
+      </c>
+      <c r="JI6" t="s">
+        <v>634</v>
+      </c>
+      <c r="JJ6" t="s">
+        <v>583</v>
+      </c>
+      <c r="JK6" t="s">
+        <v>634</v>
+      </c>
+      <c r="JL6" t="s">
+        <v>634</v>
+      </c>
+      <c r="JM6" t="s">
+        <v>634</v>
+      </c>
+      <c r="JN6" t="s">
+        <v>634</v>
+      </c>
+      <c r="JO6" t="s">
+        <v>634</v>
+      </c>
+      <c r="JP6" t="s">
+        <v>583</v>
+      </c>
+      <c r="JQ6" t="s">
+        <v>634</v>
       </c>
     </row>
     <row r="7" spans="1:491">
@@ -5291,7 +5573,7 @@
         <v>498</v>
       </c>
       <c r="I7" t="s">
-        <v>507</v>
+        <v>509</v>
       </c>
       <c r="J7" t="b">
         <v>1</v>
@@ -5300,319 +5582,211 @@
         <v>1</v>
       </c>
       <c r="M7" t="s">
-        <v>516</v>
+        <v>520</v>
       </c>
       <c r="O7" t="s">
-        <v>525</v>
+        <v>531</v>
       </c>
       <c r="P7" t="s">
-        <v>532</v>
+        <v>539</v>
       </c>
       <c r="Q7" t="s">
-        <v>535</v>
+        <v>544</v>
       </c>
       <c r="R7" t="s">
-        <v>536</v>
+        <v>545</v>
       </c>
       <c r="S7" t="s">
-        <v>537</v>
+        <v>546</v>
       </c>
       <c r="T7" t="s">
-        <v>538</v>
+        <v>547</v>
       </c>
       <c r="U7">
-        <v>12359</v>
+        <v>3305</v>
       </c>
       <c r="V7" s="2" t="s">
+        <v>553</v>
+      </c>
+      <c r="W7" t="s">
         <v>544</v>
       </c>
-      <c r="W7" t="s">
-        <v>535</v>
-      </c>
       <c r="X7" t="s">
-        <v>548</v>
+        <v>559</v>
       </c>
       <c r="Y7" t="s">
-        <v>536</v>
+        <v>545</v>
       </c>
       <c r="Z7" t="s">
-        <v>537</v>
+        <v>546</v>
       </c>
       <c r="AA7" s="2" t="s">
-        <v>549</v>
+        <v>560</v>
       </c>
       <c r="AB7" t="s">
-        <v>554</v>
+        <v>561</v>
+      </c>
+      <c r="AC7" t="s">
+        <v>567</v>
+      </c>
+      <c r="AD7" t="s">
+        <v>570</v>
+      </c>
+      <c r="AE7" t="s">
+        <v>573</v>
+      </c>
+      <c r="AF7" t="s">
+        <v>577</v>
+      </c>
+      <c r="AG7" t="s">
+        <v>581</v>
+      </c>
+      <c r="AH7" t="s">
+        <v>583</v>
+      </c>
+      <c r="AI7" t="s">
+        <v>584</v>
+      </c>
+      <c r="AJ7" s="2" t="s">
+        <v>586</v>
+      </c>
+      <c r="AK7" t="s">
+        <v>588</v>
+      </c>
+      <c r="AL7">
+        <v>669</v>
+      </c>
+      <c r="AM7" t="s">
+        <v>590</v>
+      </c>
+      <c r="AN7" t="s">
+        <v>593</v>
+      </c>
+      <c r="AO7" t="s">
+        <v>584</v>
+      </c>
+      <c r="AQ7" t="s">
+        <v>498</v>
+      </c>
+      <c r="AR7" t="s">
+        <v>602</v>
+      </c>
+      <c r="AS7" t="s">
+        <v>613</v>
+      </c>
+      <c r="AT7" t="s">
+        <v>619</v>
+      </c>
+      <c r="AU7" t="s">
+        <v>623</v>
+      </c>
+      <c r="AV7" t="s">
+        <v>628</v>
+      </c>
+      <c r="AW7" t="s">
+        <v>631</v>
+      </c>
+      <c r="AX7" t="s">
+        <v>634</v>
+      </c>
+      <c r="AY7" t="s">
+        <v>634</v>
+      </c>
+      <c r="AZ7" t="s">
+        <v>634</v>
       </c>
       <c r="BA7" t="s">
-        <v>566</v>
-      </c>
-      <c r="BB7" s="2" t="s">
-        <v>567</v>
+        <v>634</v>
+      </c>
+      <c r="BB7" t="s">
+        <v>634</v>
       </c>
       <c r="BC7" t="s">
-        <v>569</v>
-      </c>
-      <c r="BD7">
+        <v>634</v>
+      </c>
+      <c r="BD7" t="s">
+        <v>634</v>
+      </c>
+      <c r="BE7" t="s">
+        <v>634</v>
+      </c>
+      <c r="BF7" t="s">
+        <v>636</v>
+      </c>
+      <c r="BG7" t="s">
+        <v>639</v>
+      </c>
+      <c r="BH7" t="s">
+        <v>583</v>
+      </c>
+      <c r="BI7" t="s">
+        <v>634</v>
+      </c>
+      <c r="BJ7" t="s">
+        <v>634</v>
+      </c>
+      <c r="BK7" t="s">
+        <v>634</v>
+      </c>
+      <c r="BL7" t="s">
+        <v>634</v>
+      </c>
+      <c r="BM7" t="s">
+        <v>634</v>
+      </c>
+      <c r="BN7" t="s">
+        <v>583</v>
+      </c>
+      <c r="BO7" t="s">
+        <v>583</v>
+      </c>
+      <c r="BP7" t="s">
+        <v>634</v>
+      </c>
+      <c r="BQ7" t="s">
+        <v>583</v>
+      </c>
+      <c r="BR7" t="s">
+        <v>634</v>
+      </c>
+      <c r="BS7" t="s">
+        <v>583</v>
+      </c>
+      <c r="BT7" t="s">
+        <v>639</v>
+      </c>
+      <c r="BU7" t="s">
+        <v>584</v>
+      </c>
+      <c r="BW7" t="s">
+        <v>588</v>
+      </c>
+      <c r="BX7">
         <v>669</v>
       </c>
-      <c r="BE7" t="s">
-        <v>571</v>
-      </c>
-      <c r="BF7" t="s">
-        <v>575</v>
-      </c>
-      <c r="BG7" t="s">
-        <v>566</v>
-      </c>
-      <c r="BI7" t="s">
+      <c r="BY7" t="s">
+        <v>590</v>
+      </c>
+      <c r="BZ7" t="s">
+        <v>593</v>
+      </c>
+      <c r="CA7" t="s">
+        <v>584</v>
+      </c>
+      <c r="CC7" t="s">
         <v>498</v>
       </c>
-      <c r="BJ7" t="s">
-        <v>582</v>
-      </c>
-      <c r="BK7" t="s">
-        <v>591</v>
-      </c>
-      <c r="BL7" t="s">
-        <v>597</v>
-      </c>
-      <c r="BM7" t="s">
-        <v>601</v>
-      </c>
-      <c r="BR7" t="s">
-        <v>608</v>
-      </c>
-      <c r="BS7" t="s">
-        <v>611</v>
-      </c>
-      <c r="BT7" t="s">
-        <v>566</v>
-      </c>
-      <c r="BV7" t="s">
-        <v>569</v>
-      </c>
-      <c r="BW7">
-        <v>669</v>
-      </c>
-      <c r="BX7" t="s">
-        <v>571</v>
-      </c>
-      <c r="BY7" t="s">
-        <v>575</v>
-      </c>
-      <c r="BZ7" t="s">
-        <v>566</v>
-      </c>
-      <c r="CB7" t="s">
-        <v>498</v>
-      </c>
-      <c r="CD7" t="s">
-        <v>582</v>
-      </c>
       <c r="CE7" t="s">
-        <v>591</v>
+        <v>602</v>
       </c>
       <c r="CF7" t="s">
-        <v>597</v>
+        <v>613</v>
       </c>
       <c r="CG7" t="s">
-        <v>601</v>
-      </c>
-      <c r="JR7" t="s">
-        <v>647</v>
-      </c>
-      <c r="JS7" t="s">
-        <v>555</v>
-      </c>
-      <c r="JT7" t="s">
-        <v>555</v>
-      </c>
-      <c r="JU7" t="s">
-        <v>557</v>
-      </c>
-      <c r="JV7" t="s">
-        <v>555</v>
-      </c>
-      <c r="JW7" t="s">
-        <v>555</v>
-      </c>
-      <c r="JX7" t="s">
-        <v>555</v>
-      </c>
-      <c r="JY7" t="s">
-        <v>555</v>
-      </c>
-      <c r="JZ7" t="s">
-        <v>555</v>
-      </c>
-      <c r="KA7" t="s">
-        <v>555</v>
-      </c>
-      <c r="KB7" t="s">
-        <v>555</v>
-      </c>
-      <c r="KC7" t="s">
-        <v>555</v>
-      </c>
-      <c r="KD7" t="s">
-        <v>556</v>
-      </c>
-      <c r="KE7" t="s">
-        <v>555</v>
-      </c>
-      <c r="KF7" t="s">
-        <v>647</v>
-      </c>
-      <c r="KG7" t="s">
-        <v>555</v>
-      </c>
-      <c r="KH7" t="s">
-        <v>555</v>
-      </c>
-      <c r="KI7" t="s">
-        <v>557</v>
-      </c>
-      <c r="KJ7" t="s">
-        <v>555</v>
-      </c>
-      <c r="KK7" t="s">
-        <v>555</v>
-      </c>
-      <c r="KL7" t="s">
-        <v>555</v>
-      </c>
-      <c r="KM7" t="s">
-        <v>555</v>
-      </c>
-      <c r="KN7" t="s">
-        <v>555</v>
-      </c>
-      <c r="KO7" t="s">
-        <v>555</v>
-      </c>
-      <c r="KP7" t="s">
-        <v>555</v>
-      </c>
-      <c r="KQ7" t="s">
-        <v>556</v>
-      </c>
-      <c r="KR7" t="s">
-        <v>555</v>
-      </c>
-      <c r="QC7" t="s">
-        <v>557</v>
-      </c>
-      <c r="QM7" t="s">
-        <v>555</v>
-      </c>
-      <c r="QN7" t="s">
-        <v>555</v>
-      </c>
-      <c r="QO7" t="s">
-        <v>555</v>
-      </c>
-      <c r="QP7" t="s">
-        <v>557</v>
-      </c>
-      <c r="QQ7" t="s">
-        <v>556</v>
-      </c>
-      <c r="QR7" t="s">
-        <v>556</v>
-      </c>
-      <c r="QS7" t="s">
-        <v>555</v>
-      </c>
-      <c r="QT7" t="s">
-        <v>555</v>
-      </c>
-      <c r="QU7" t="s">
-        <v>555</v>
-      </c>
-      <c r="QV7" t="s">
-        <v>555</v>
-      </c>
-      <c r="QW7" t="s">
-        <v>555</v>
-      </c>
-      <c r="QX7" t="s">
-        <v>555</v>
-      </c>
-      <c r="QY7" t="s">
-        <v>555</v>
-      </c>
-      <c r="QZ7" t="s">
-        <v>556</v>
-      </c>
-      <c r="RA7" t="s">
-        <v>556</v>
-      </c>
-      <c r="RB7" t="s">
-        <v>555</v>
-      </c>
-      <c r="RC7" t="s">
-        <v>555</v>
-      </c>
-      <c r="RD7" t="s">
-        <v>555</v>
-      </c>
-      <c r="RE7" t="s">
-        <v>557</v>
-      </c>
-      <c r="RF7" t="s">
-        <v>648</v>
-      </c>
-      <c r="RG7" t="s">
-        <v>555</v>
-      </c>
-      <c r="RH7" t="s">
-        <v>555</v>
-      </c>
-      <c r="RI7" t="s">
-        <v>555</v>
-      </c>
-      <c r="RJ7" t="s">
-        <v>555</v>
-      </c>
-      <c r="RK7" t="s">
-        <v>557</v>
-      </c>
-      <c r="RL7" t="s">
-        <v>555</v>
-      </c>
-      <c r="RM7" t="s">
-        <v>555</v>
-      </c>
-      <c r="RN7" t="s">
-        <v>555</v>
-      </c>
-      <c r="RO7" t="s">
-        <v>555</v>
-      </c>
-      <c r="RP7" t="s">
-        <v>555</v>
-      </c>
-      <c r="RQ7" t="s">
-        <v>555</v>
-      </c>
-      <c r="RR7" t="s">
-        <v>555</v>
-      </c>
-      <c r="RS7" t="s">
-        <v>555</v>
-      </c>
-      <c r="RT7" t="s">
-        <v>555</v>
-      </c>
-      <c r="RU7" t="s">
-        <v>555</v>
-      </c>
-      <c r="RV7" t="s">
-        <v>555</v>
-      </c>
-      <c r="RW7" t="s">
-        <v>555</v>
+        <v>619</v>
+      </c>
+      <c r="CH7" t="s">
+        <v>623</v>
       </c>
     </row>
     <row r="8" spans="1:491">
@@ -5635,7 +5809,7 @@
         <v>499</v>
       </c>
       <c r="I8" t="s">
-        <v>508</v>
+        <v>510</v>
       </c>
       <c r="J8" t="b">
         <v>1</v>
@@ -5644,208 +5818,253 @@
         <v>1</v>
       </c>
       <c r="M8" t="s">
-        <v>517</v>
+        <v>521</v>
       </c>
       <c r="O8" t="s">
-        <v>526</v>
+        <v>532</v>
       </c>
       <c r="P8" t="s">
-        <v>533</v>
+        <v>541</v>
       </c>
       <c r="Q8" t="s">
-        <v>535</v>
+        <v>544</v>
       </c>
       <c r="R8" t="s">
-        <v>536</v>
+        <v>545</v>
       </c>
       <c r="S8" t="s">
-        <v>537</v>
+        <v>546</v>
       </c>
       <c r="T8" t="s">
-        <v>538</v>
+        <v>547</v>
       </c>
       <c r="U8">
-        <v>6371</v>
+        <v>3505</v>
       </c>
       <c r="V8" s="2" t="s">
+        <v>554</v>
+      </c>
+      <c r="W8" t="s">
+        <v>544</v>
+      </c>
+      <c r="X8" t="s">
+        <v>559</v>
+      </c>
+      <c r="Y8" t="s">
         <v>545</v>
       </c>
-      <c r="W8" t="s">
-        <v>535</v>
-      </c>
-      <c r="X8" t="s">
-        <v>548</v>
-      </c>
-      <c r="Y8" t="s">
-        <v>536</v>
-      </c>
       <c r="Z8" t="s">
-        <v>537</v>
+        <v>546</v>
       </c>
       <c r="AA8" s="2" t="s">
-        <v>549</v>
+        <v>560</v>
       </c>
       <c r="AB8" t="s">
-        <v>550</v>
-      </c>
-      <c r="AC8" t="s">
-        <v>556</v>
-      </c>
-      <c r="AD8" t="s">
-        <v>555</v>
-      </c>
-      <c r="AE8" t="s">
-        <v>555</v>
-      </c>
-      <c r="AF8" t="s">
-        <v>556</v>
-      </c>
-      <c r="AG8" t="s">
-        <v>556</v>
+        <v>564</v>
       </c>
       <c r="AI8" t="s">
-        <v>556</v>
-      </c>
-      <c r="AJ8" t="s">
-        <v>557</v>
+        <v>584</v>
+      </c>
+      <c r="AJ8" s="2" t="s">
+        <v>586</v>
       </c>
       <c r="AK8" t="s">
-        <v>556</v>
-      </c>
-      <c r="AL8" t="s">
-        <v>557</v>
+        <v>588</v>
+      </c>
+      <c r="AL8">
+        <v>669</v>
       </c>
       <c r="AM8" t="s">
-        <v>557</v>
+        <v>590</v>
       </c>
       <c r="AN8" t="s">
-        <v>556</v>
+        <v>595</v>
       </c>
       <c r="AO8" t="s">
-        <v>555</v>
-      </c>
-      <c r="AP8" t="s">
-        <v>555</v>
+        <v>584</v>
       </c>
       <c r="AQ8" t="s">
-        <v>559</v>
+        <v>499</v>
       </c>
       <c r="AR8" t="s">
-        <v>555</v>
+        <v>603</v>
       </c>
       <c r="AS8" t="s">
-        <v>557</v>
+        <v>614</v>
       </c>
       <c r="AT8" t="s">
-        <v>556</v>
+        <v>621</v>
       </c>
       <c r="AU8" t="s">
-        <v>557</v>
+        <v>625</v>
       </c>
       <c r="AV8" t="s">
-        <v>561</v>
+        <v>628</v>
       </c>
       <c r="AW8" t="s">
-        <v>563</v>
-      </c>
-      <c r="AX8" t="s">
-        <v>555</v>
-      </c>
-      <c r="AY8" t="s">
-        <v>555</v>
-      </c>
-      <c r="AZ8" t="s">
-        <v>564</v>
-      </c>
-      <c r="BA8" t="s">
-        <v>565</v>
-      </c>
-      <c r="BB8" s="2" t="s">
-        <v>567</v>
-      </c>
-      <c r="BC8" t="s">
-        <v>569</v>
-      </c>
-      <c r="BD8">
+        <v>631</v>
+      </c>
+      <c r="BU8" t="s">
+        <v>584</v>
+      </c>
+      <c r="BW8" t="s">
+        <v>588</v>
+      </c>
+      <c r="BX8">
         <v>669</v>
       </c>
-      <c r="BE8" t="s">
-        <v>571</v>
-      </c>
-      <c r="BF8" t="s">
-        <v>576</v>
-      </c>
-      <c r="BG8" t="s">
-        <v>566</v>
-      </c>
-      <c r="BI8" t="s">
+      <c r="BY8" t="s">
+        <v>590</v>
+      </c>
+      <c r="BZ8" t="s">
+        <v>595</v>
+      </c>
+      <c r="CA8" t="s">
+        <v>584</v>
+      </c>
+      <c r="CC8" t="s">
         <v>499</v>
       </c>
-      <c r="BJ8" t="s">
-        <v>583</v>
-      </c>
-      <c r="BK8" t="s">
-        <v>592</v>
-      </c>
-      <c r="BL8" t="s">
-        <v>598</v>
-      </c>
-      <c r="BM8" t="s">
-        <v>602</v>
-      </c>
-      <c r="BN8" t="s">
+      <c r="CE8" t="s">
         <v>603</v>
       </c>
-      <c r="BO8" t="s">
-        <v>604</v>
-      </c>
-      <c r="BP8" t="s">
-        <v>605</v>
-      </c>
-      <c r="BQ8" t="s">
-        <v>606</v>
-      </c>
-      <c r="BR8" t="s">
-        <v>608</v>
-      </c>
-      <c r="BS8" t="s">
-        <v>611</v>
-      </c>
-      <c r="BT8" t="s">
+      <c r="CF8" t="s">
         <v>614</v>
       </c>
-      <c r="BU8" t="s">
-        <v>615</v>
-      </c>
-      <c r="BV8" t="s">
-        <v>569</v>
-      </c>
-      <c r="BW8">
-        <v>669</v>
-      </c>
-      <c r="BX8" t="s">
-        <v>571</v>
-      </c>
-      <c r="BY8" t="s">
-        <v>576</v>
-      </c>
-      <c r="BZ8" t="s">
-        <v>566</v>
-      </c>
-      <c r="CB8" t="s">
-        <v>499</v>
-      </c>
-      <c r="CD8" t="s">
-        <v>583</v>
-      </c>
-      <c r="CE8" t="s">
-        <v>592</v>
-      </c>
-      <c r="CF8" t="s">
-        <v>598</v>
-      </c>
       <c r="CG8" t="s">
-        <v>602</v>
+        <v>621</v>
+      </c>
+      <c r="CH8" t="s">
+        <v>625</v>
+      </c>
+      <c r="IA8" t="s">
+        <v>676</v>
+      </c>
+      <c r="IB8" t="s">
+        <v>634</v>
+      </c>
+      <c r="IC8" t="s">
+        <v>634</v>
+      </c>
+      <c r="ID8" t="s">
+        <v>634</v>
+      </c>
+      <c r="IE8" t="s">
+        <v>634</v>
+      </c>
+      <c r="IF8" t="s">
+        <v>634</v>
+      </c>
+      <c r="IG8" t="s">
+        <v>634</v>
+      </c>
+      <c r="IH8" t="s">
+        <v>634</v>
+      </c>
+      <c r="II8" t="s">
+        <v>634</v>
+      </c>
+      <c r="IJ8" t="s">
+        <v>634</v>
+      </c>
+      <c r="IK8" t="s">
+        <v>634</v>
+      </c>
+      <c r="IL8" t="s">
+        <v>634</v>
+      </c>
+      <c r="IM8" t="s">
+        <v>634</v>
+      </c>
+      <c r="IN8" t="s">
+        <v>678</v>
+      </c>
+      <c r="IO8" t="s">
+        <v>634</v>
+      </c>
+      <c r="IP8" t="s">
+        <v>634</v>
+      </c>
+      <c r="IQ8" t="s">
+        <v>634</v>
+      </c>
+      <c r="IR8" t="s">
+        <v>634</v>
+      </c>
+      <c r="IS8" t="s">
+        <v>639</v>
+      </c>
+      <c r="IT8" t="s">
+        <v>639</v>
+      </c>
+      <c r="IU8" t="s">
+        <v>634</v>
+      </c>
+      <c r="IV8" t="s">
+        <v>634</v>
+      </c>
+      <c r="IW8" t="s">
+        <v>634</v>
+      </c>
+      <c r="IX8" t="s">
+        <v>634</v>
+      </c>
+      <c r="IY8" t="s">
+        <v>634</v>
+      </c>
+      <c r="IZ8" t="s">
+        <v>634</v>
+      </c>
+      <c r="JA8" t="s">
+        <v>634</v>
+      </c>
+      <c r="JB8" t="s">
+        <v>634</v>
+      </c>
+      <c r="JC8" t="s">
+        <v>583</v>
+      </c>
+      <c r="JD8" t="s">
+        <v>634</v>
+      </c>
+      <c r="JE8" t="s">
+        <v>583</v>
+      </c>
+      <c r="JF8" t="s">
+        <v>634</v>
+      </c>
+      <c r="JG8" t="s">
+        <v>634</v>
+      </c>
+      <c r="JH8" t="s">
+        <v>634</v>
+      </c>
+      <c r="JI8" t="s">
+        <v>634</v>
+      </c>
+      <c r="JJ8" t="s">
+        <v>583</v>
+      </c>
+      <c r="JK8" t="s">
+        <v>634</v>
+      </c>
+      <c r="JL8" t="s">
+        <v>634</v>
+      </c>
+      <c r="JM8" t="s">
+        <v>634</v>
+      </c>
+      <c r="JN8" t="s">
+        <v>634</v>
+      </c>
+      <c r="JO8" t="s">
+        <v>634</v>
+      </c>
+      <c r="JP8" t="s">
+        <v>583</v>
+      </c>
+      <c r="JQ8" t="s">
+        <v>634</v>
       </c>
     </row>
     <row r="9" spans="1:491">
@@ -5868,7 +6087,7 @@
         <v>500</v>
       </c>
       <c r="I9" t="s">
-        <v>509</v>
+        <v>511</v>
       </c>
       <c r="J9" t="b">
         <v>1</v>
@@ -5877,166 +6096,319 @@
         <v>1</v>
       </c>
       <c r="M9" t="s">
-        <v>518</v>
+        <v>522</v>
       </c>
       <c r="O9" t="s">
-        <v>527</v>
+        <v>533</v>
       </c>
       <c r="P9" t="s">
-        <v>534</v>
+        <v>541</v>
       </c>
       <c r="Q9" t="s">
-        <v>535</v>
+        <v>544</v>
       </c>
       <c r="R9" t="s">
-        <v>536</v>
+        <v>545</v>
       </c>
       <c r="S9" t="s">
-        <v>537</v>
+        <v>546</v>
       </c>
       <c r="T9" t="s">
-        <v>538</v>
+        <v>547</v>
       </c>
       <c r="U9">
-        <v>2314</v>
+        <v>12359</v>
       </c>
       <c r="V9" s="2" t="s">
+        <v>555</v>
+      </c>
+      <c r="W9" t="s">
+        <v>544</v>
+      </c>
+      <c r="X9" t="s">
+        <v>559</v>
+      </c>
+      <c r="Y9" t="s">
+        <v>545</v>
+      </c>
+      <c r="Z9" t="s">
         <v>546</v>
       </c>
-      <c r="W9" t="s">
-        <v>535</v>
-      </c>
-      <c r="X9" t="s">
-        <v>548</v>
-      </c>
-      <c r="Y9" t="s">
-        <v>536</v>
-      </c>
-      <c r="Z9" t="s">
-        <v>537</v>
-      </c>
       <c r="AA9" s="2" t="s">
-        <v>549</v>
+        <v>560</v>
       </c>
       <c r="AB9" t="s">
-        <v>553</v>
-      </c>
-      <c r="BA9" t="s">
-        <v>566</v>
-      </c>
-      <c r="BB9" s="2" t="s">
-        <v>567</v>
-      </c>
-      <c r="BC9" t="s">
-        <v>569</v>
-      </c>
-      <c r="BD9">
+        <v>565</v>
+      </c>
+      <c r="AI9" t="s">
+        <v>584</v>
+      </c>
+      <c r="AJ9" s="2" t="s">
+        <v>586</v>
+      </c>
+      <c r="AK9" t="s">
+        <v>588</v>
+      </c>
+      <c r="AL9">
         <v>669</v>
       </c>
-      <c r="BE9" t="s">
-        <v>571</v>
-      </c>
-      <c r="BF9" t="s">
-        <v>574</v>
-      </c>
-      <c r="BG9" t="s">
-        <v>566</v>
-      </c>
-      <c r="BI9" t="s">
+      <c r="AM9" t="s">
+        <v>590</v>
+      </c>
+      <c r="AN9" t="s">
+        <v>595</v>
+      </c>
+      <c r="AO9" t="s">
+        <v>584</v>
+      </c>
+      <c r="AQ9" t="s">
         <v>500</v>
       </c>
-      <c r="BJ9" t="s">
+      <c r="AR9" t="s">
+        <v>604</v>
+      </c>
+      <c r="AS9" t="s">
+        <v>615</v>
+      </c>
+      <c r="AT9" t="s">
+        <v>621</v>
+      </c>
+      <c r="AU9" t="s">
+        <v>625</v>
+      </c>
+      <c r="AV9" t="s">
+        <v>628</v>
+      </c>
+      <c r="AW9" t="s">
+        <v>631</v>
+      </c>
+      <c r="BU9" t="s">
         <v>584</v>
       </c>
-      <c r="BK9" t="s">
-        <v>593</v>
-      </c>
-      <c r="BL9" t="s">
+      <c r="BW9" t="s">
+        <v>588</v>
+      </c>
+      <c r="BX9">
+        <v>669</v>
+      </c>
+      <c r="BY9" t="s">
+        <v>590</v>
+      </c>
+      <c r="BZ9" t="s">
         <v>595</v>
       </c>
-      <c r="BM9" t="s">
-        <v>599</v>
-      </c>
-      <c r="BR9" t="s">
-        <v>607</v>
-      </c>
-      <c r="BS9" t="s">
-        <v>612</v>
-      </c>
-      <c r="BT9" t="s">
-        <v>566</v>
-      </c>
-      <c r="BV9" t="s">
-        <v>569</v>
-      </c>
-      <c r="BW9">
-        <v>669</v>
-      </c>
-      <c r="BX9" t="s">
-        <v>571</v>
-      </c>
-      <c r="BY9" t="s">
-        <v>574</v>
-      </c>
-      <c r="BZ9" t="s">
-        <v>566</v>
-      </c>
-      <c r="CB9" t="s">
+      <c r="CA9" t="s">
+        <v>584</v>
+      </c>
+      <c r="CC9" t="s">
         <v>500</v>
       </c>
-      <c r="CD9" t="s">
-        <v>584</v>
-      </c>
       <c r="CE9" t="s">
-        <v>593</v>
+        <v>604</v>
       </c>
       <c r="CF9" t="s">
-        <v>595</v>
+        <v>615</v>
       </c>
       <c r="CG9" t="s">
-        <v>599</v>
-      </c>
-      <c r="IO9" t="s">
-        <v>632</v>
-      </c>
-      <c r="IQ9" t="s">
-        <v>637</v>
-      </c>
-      <c r="IR9" t="s">
-        <v>640</v>
-      </c>
-      <c r="IT9" t="s">
-        <v>557</v>
-      </c>
-      <c r="IX9" t="s">
-        <v>555</v>
-      </c>
-      <c r="JC9" t="s">
-        <v>645</v>
-      </c>
-      <c r="JD9" t="s">
-        <v>555</v>
-      </c>
-      <c r="JE9" t="s">
-        <v>557</v>
-      </c>
-      <c r="JK9" t="s">
-        <v>557</v>
-      </c>
-      <c r="JL9" t="s">
-        <v>557</v>
-      </c>
-      <c r="JM9" t="s">
-        <v>555</v>
-      </c>
-      <c r="JN9" t="s">
-        <v>557</v>
-      </c>
-      <c r="JP9" t="s">
-        <v>557</v>
-      </c>
-      <c r="JQ9" t="s">
-        <v>556</v>
+        <v>621</v>
+      </c>
+      <c r="CH9" t="s">
+        <v>625</v>
+      </c>
+      <c r="JR9" t="s">
+        <v>679</v>
+      </c>
+      <c r="JS9" t="s">
+        <v>634</v>
+      </c>
+      <c r="JT9" t="s">
+        <v>634</v>
+      </c>
+      <c r="JU9" t="s">
+        <v>583</v>
+      </c>
+      <c r="JV9" t="s">
+        <v>634</v>
+      </c>
+      <c r="JW9" t="s">
+        <v>634</v>
+      </c>
+      <c r="JX9" t="s">
+        <v>634</v>
+      </c>
+      <c r="JY9" t="s">
+        <v>634</v>
+      </c>
+      <c r="JZ9" t="s">
+        <v>634</v>
+      </c>
+      <c r="KA9" t="s">
+        <v>634</v>
+      </c>
+      <c r="KB9" t="s">
+        <v>634</v>
+      </c>
+      <c r="KC9" t="s">
+        <v>634</v>
+      </c>
+      <c r="KD9" t="s">
+        <v>639</v>
+      </c>
+      <c r="KE9" t="s">
+        <v>634</v>
+      </c>
+      <c r="KF9" t="s">
+        <v>679</v>
+      </c>
+      <c r="KG9" t="s">
+        <v>634</v>
+      </c>
+      <c r="KH9" t="s">
+        <v>634</v>
+      </c>
+      <c r="KI9" t="s">
+        <v>583</v>
+      </c>
+      <c r="KJ9" t="s">
+        <v>634</v>
+      </c>
+      <c r="KK9" t="s">
+        <v>634</v>
+      </c>
+      <c r="KL9" t="s">
+        <v>634</v>
+      </c>
+      <c r="KM9" t="s">
+        <v>634</v>
+      </c>
+      <c r="KN9" t="s">
+        <v>634</v>
+      </c>
+      <c r="KO9" t="s">
+        <v>634</v>
+      </c>
+      <c r="KP9" t="s">
+        <v>634</v>
+      </c>
+      <c r="KQ9" t="s">
+        <v>639</v>
+      </c>
+      <c r="KR9" t="s">
+        <v>634</v>
+      </c>
+      <c r="QC9" t="s">
+        <v>583</v>
+      </c>
+      <c r="QM9" t="s">
+        <v>634</v>
+      </c>
+      <c r="QN9" t="s">
+        <v>634</v>
+      </c>
+      <c r="QO9" t="s">
+        <v>634</v>
+      </c>
+      <c r="QP9" t="s">
+        <v>583</v>
+      </c>
+      <c r="QQ9" t="s">
+        <v>639</v>
+      </c>
+      <c r="QR9" t="s">
+        <v>639</v>
+      </c>
+      <c r="QS9" t="s">
+        <v>634</v>
+      </c>
+      <c r="QT9" t="s">
+        <v>634</v>
+      </c>
+      <c r="QU9" t="s">
+        <v>634</v>
+      </c>
+      <c r="QV9" t="s">
+        <v>634</v>
+      </c>
+      <c r="QW9" t="s">
+        <v>634</v>
+      </c>
+      <c r="QX9" t="s">
+        <v>634</v>
+      </c>
+      <c r="QY9" t="s">
+        <v>634</v>
+      </c>
+      <c r="QZ9" t="s">
+        <v>639</v>
+      </c>
+      <c r="RA9" t="s">
+        <v>639</v>
+      </c>
+      <c r="RB9" t="s">
+        <v>634</v>
+      </c>
+      <c r="RC9" t="s">
+        <v>634</v>
+      </c>
+      <c r="RD9" t="s">
+        <v>634</v>
+      </c>
+      <c r="RE9" t="s">
+        <v>583</v>
+      </c>
+      <c r="RF9" t="s">
+        <v>680</v>
+      </c>
+      <c r="RG9" t="s">
+        <v>634</v>
+      </c>
+      <c r="RH9" t="s">
+        <v>634</v>
+      </c>
+      <c r="RI9" t="s">
+        <v>634</v>
+      </c>
+      <c r="RJ9" t="s">
+        <v>634</v>
+      </c>
+      <c r="RK9" t="s">
+        <v>583</v>
+      </c>
+      <c r="RL9" t="s">
+        <v>634</v>
+      </c>
+      <c r="RM9" t="s">
+        <v>634</v>
+      </c>
+      <c r="RN9" t="s">
+        <v>634</v>
+      </c>
+      <c r="RO9" t="s">
+        <v>634</v>
+      </c>
+      <c r="RP9" t="s">
+        <v>634</v>
+      </c>
+      <c r="RQ9" t="s">
+        <v>634</v>
+      </c>
+      <c r="RR9" t="s">
+        <v>634</v>
+      </c>
+      <c r="RS9" t="s">
+        <v>634</v>
+      </c>
+      <c r="RT9" t="s">
+        <v>634</v>
+      </c>
+      <c r="RU9" t="s">
+        <v>634</v>
+      </c>
+      <c r="RV9" t="s">
+        <v>634</v>
+      </c>
+      <c r="RW9" t="s">
+        <v>634</v>
       </c>
     </row>
     <row r="10" spans="1:491">
@@ -6059,7 +6431,7 @@
         <v>501</v>
       </c>
       <c r="I10" t="s">
-        <v>510</v>
+        <v>512</v>
       </c>
       <c r="J10" t="b">
         <v>1</v>
@@ -6068,212 +6440,642 @@
         <v>1</v>
       </c>
       <c r="M10" t="s">
-        <v>519</v>
+        <v>523</v>
       </c>
       <c r="O10" t="s">
-        <v>528</v>
+        <v>534</v>
       </c>
       <c r="P10" t="s">
-        <v>534</v>
+        <v>542</v>
       </c>
       <c r="Q10" t="s">
+        <v>544</v>
+      </c>
+      <c r="R10" t="s">
+        <v>545</v>
+      </c>
+      <c r="S10" t="s">
+        <v>546</v>
+      </c>
+      <c r="T10" t="s">
+        <v>547</v>
+      </c>
+      <c r="U10">
+        <v>6371</v>
+      </c>
+      <c r="V10" s="2" t="s">
+        <v>556</v>
+      </c>
+      <c r="W10" t="s">
+        <v>544</v>
+      </c>
+      <c r="X10" t="s">
+        <v>559</v>
+      </c>
+      <c r="Y10" t="s">
+        <v>545</v>
+      </c>
+      <c r="Z10" t="s">
+        <v>546</v>
+      </c>
+      <c r="AA10" s="2" t="s">
+        <v>560</v>
+      </c>
+      <c r="AB10" t="s">
+        <v>563</v>
+      </c>
+      <c r="AI10" t="s">
+        <v>585</v>
+      </c>
+      <c r="AJ10" s="2" t="s">
+        <v>586</v>
+      </c>
+      <c r="AK10" t="s">
+        <v>588</v>
+      </c>
+      <c r="AL10">
+        <v>669</v>
+      </c>
+      <c r="AM10" t="s">
+        <v>590</v>
+      </c>
+      <c r="AN10" t="s">
+        <v>596</v>
+      </c>
+      <c r="AO10" t="s">
+        <v>584</v>
+      </c>
+      <c r="AQ10" t="s">
+        <v>501</v>
+      </c>
+      <c r="AR10" t="s">
+        <v>605</v>
+      </c>
+      <c r="AS10" t="s">
+        <v>616</v>
+      </c>
+      <c r="AT10" t="s">
+        <v>622</v>
+      </c>
+      <c r="AU10" t="s">
+        <v>626</v>
+      </c>
+      <c r="AV10" t="s">
+        <v>628</v>
+      </c>
+      <c r="AW10" t="s">
+        <v>631</v>
+      </c>
+      <c r="BU10" t="s">
+        <v>640</v>
+      </c>
+      <c r="BV10" t="s">
+        <v>641</v>
+      </c>
+      <c r="BW10" t="s">
+        <v>588</v>
+      </c>
+      <c r="BX10">
+        <v>669</v>
+      </c>
+      <c r="BY10" t="s">
+        <v>590</v>
+      </c>
+      <c r="BZ10" t="s">
+        <v>596</v>
+      </c>
+      <c r="CA10" t="s">
+        <v>584</v>
+      </c>
+      <c r="CC10" t="s">
+        <v>501</v>
+      </c>
+      <c r="CE10" t="s">
+        <v>605</v>
+      </c>
+      <c r="CF10" t="s">
+        <v>616</v>
+      </c>
+      <c r="CG10" t="s">
+        <v>622</v>
+      </c>
+      <c r="CH10" t="s">
+        <v>626</v>
+      </c>
+      <c r="GY10" t="s">
+        <v>639</v>
+      </c>
+      <c r="GZ10" t="s">
+        <v>634</v>
+      </c>
+      <c r="HA10" t="s">
+        <v>634</v>
+      </c>
+      <c r="HB10" t="s">
+        <v>639</v>
+      </c>
+      <c r="HC10" t="s">
+        <v>639</v>
+      </c>
+      <c r="HE10" t="s">
+        <v>639</v>
+      </c>
+      <c r="HF10" t="s">
+        <v>583</v>
+      </c>
+      <c r="HG10" t="s">
+        <v>639</v>
+      </c>
+      <c r="HH10" t="s">
+        <v>583</v>
+      </c>
+      <c r="HI10" t="s">
+        <v>583</v>
+      </c>
+      <c r="HJ10" t="s">
+        <v>639</v>
+      </c>
+      <c r="HK10" t="s">
+        <v>634</v>
+      </c>
+      <c r="HL10" t="s">
+        <v>634</v>
+      </c>
+      <c r="HM10" t="s">
+        <v>665</v>
+      </c>
+      <c r="HN10" t="s">
+        <v>634</v>
+      </c>
+      <c r="HO10" t="s">
+        <v>583</v>
+      </c>
+      <c r="HP10" t="s">
+        <v>639</v>
+      </c>
+      <c r="HQ10" t="s">
+        <v>583</v>
+      </c>
+      <c r="HR10" t="s">
+        <v>667</v>
+      </c>
+      <c r="HS10" t="s">
+        <v>669</v>
+      </c>
+      <c r="HT10" t="s">
+        <v>634</v>
+      </c>
+      <c r="HU10" t="s">
+        <v>634</v>
+      </c>
+      <c r="HV10" t="s">
+        <v>670</v>
+      </c>
+      <c r="HW10" t="s">
+        <v>671</v>
+      </c>
+      <c r="HX10" t="s">
+        <v>672</v>
+      </c>
+      <c r="HY10" t="s">
+        <v>673</v>
+      </c>
+      <c r="HZ10" t="s">
+        <v>674</v>
+      </c>
+    </row>
+    <row r="11" spans="1:491">
+      <c r="A11" s="1">
+        <v>9</v>
+      </c>
+      <c r="B11" t="s">
+        <v>490</v>
+      </c>
+      <c r="C11" t="b">
+        <v>0</v>
+      </c>
+      <c r="D11" t="s">
+        <v>491</v>
+      </c>
+      <c r="E11" t="s">
+        <v>492</v>
+      </c>
+      <c r="H11" t="s">
+        <v>502</v>
+      </c>
+      <c r="I11" t="s">
+        <v>513</v>
+      </c>
+      <c r="J11" t="b">
+        <v>1</v>
+      </c>
+      <c r="K11" t="b">
+        <v>1</v>
+      </c>
+      <c r="M11" t="s">
+        <v>524</v>
+      </c>
+      <c r="O11" t="s">
         <v>535</v>
       </c>
-      <c r="R10" t="s">
+      <c r="P11" t="s">
+        <v>543</v>
+      </c>
+      <c r="Q11" t="s">
+        <v>544</v>
+      </c>
+      <c r="R11" t="s">
+        <v>545</v>
+      </c>
+      <c r="S11" t="s">
+        <v>546</v>
+      </c>
+      <c r="T11" t="s">
+        <v>547</v>
+      </c>
+      <c r="U11">
+        <v>2314</v>
+      </c>
+      <c r="V11" s="2" t="s">
+        <v>557</v>
+      </c>
+      <c r="W11" t="s">
+        <v>544</v>
+      </c>
+      <c r="X11" t="s">
+        <v>559</v>
+      </c>
+      <c r="Y11" t="s">
+        <v>545</v>
+      </c>
+      <c r="Z11" t="s">
+        <v>546</v>
+      </c>
+      <c r="AA11" s="2" t="s">
+        <v>560</v>
+      </c>
+      <c r="AB11" t="s">
+        <v>561</v>
+      </c>
+      <c r="AC11" t="s">
+        <v>568</v>
+      </c>
+      <c r="AE11" t="s">
+        <v>574</v>
+      </c>
+      <c r="AF11" t="s">
+        <v>578</v>
+      </c>
+      <c r="AH11" t="s">
+        <v>583</v>
+      </c>
+      <c r="AI11" t="s">
+        <v>584</v>
+      </c>
+      <c r="AJ11" s="2" t="s">
+        <v>586</v>
+      </c>
+      <c r="AK11" t="s">
+        <v>588</v>
+      </c>
+      <c r="AL11">
+        <v>669</v>
+      </c>
+      <c r="AM11" t="s">
+        <v>590</v>
+      </c>
+      <c r="AN11" t="s">
+        <v>594</v>
+      </c>
+      <c r="AO11" t="s">
+        <v>584</v>
+      </c>
+      <c r="AQ11" t="s">
+        <v>502</v>
+      </c>
+      <c r="AR11" t="s">
+        <v>606</v>
+      </c>
+      <c r="AS11" t="s">
+        <v>617</v>
+      </c>
+      <c r="AT11" t="s">
+        <v>620</v>
+      </c>
+      <c r="AU11" t="s">
+        <v>624</v>
+      </c>
+      <c r="AV11" t="s">
+        <v>627</v>
+      </c>
+      <c r="AW11" t="s">
+        <v>632</v>
+      </c>
+      <c r="BA11" t="s">
+        <v>634</v>
+      </c>
+      <c r="BF11" t="s">
+        <v>637</v>
+      </c>
+      <c r="BG11" t="s">
+        <v>634</v>
+      </c>
+      <c r="BH11" t="s">
+        <v>583</v>
+      </c>
+      <c r="BN11" t="s">
+        <v>583</v>
+      </c>
+      <c r="BO11" t="s">
+        <v>583</v>
+      </c>
+      <c r="BP11" t="s">
+        <v>634</v>
+      </c>
+      <c r="BQ11" t="s">
+        <v>583</v>
+      </c>
+      <c r="BS11" t="s">
+        <v>583</v>
+      </c>
+      <c r="BT11" t="s">
+        <v>639</v>
+      </c>
+      <c r="BU11" t="s">
+        <v>584</v>
+      </c>
+      <c r="BW11" t="s">
+        <v>588</v>
+      </c>
+      <c r="BX11">
+        <v>669</v>
+      </c>
+      <c r="BY11" t="s">
+        <v>590</v>
+      </c>
+      <c r="BZ11" t="s">
+        <v>594</v>
+      </c>
+      <c r="CA11" t="s">
+        <v>584</v>
+      </c>
+      <c r="CC11" t="s">
+        <v>502</v>
+      </c>
+      <c r="CE11" t="s">
+        <v>606</v>
+      </c>
+      <c r="CF11" t="s">
+        <v>617</v>
+      </c>
+      <c r="CG11" t="s">
+        <v>620</v>
+      </c>
+      <c r="CH11" t="s">
+        <v>624</v>
+      </c>
+    </row>
+    <row r="12" spans="1:491">
+      <c r="A12" s="1">
+        <v>10</v>
+      </c>
+      <c r="B12" t="s">
+        <v>490</v>
+      </c>
+      <c r="C12" t="b">
+        <v>0</v>
+      </c>
+      <c r="D12" t="s">
+        <v>491</v>
+      </c>
+      <c r="E12" t="s">
+        <v>492</v>
+      </c>
+      <c r="H12" t="s">
+        <v>503</v>
+      </c>
+      <c r="I12" t="s">
+        <v>514</v>
+      </c>
+      <c r="J12" t="b">
+        <v>1</v>
+      </c>
+      <c r="K12" t="b">
+        <v>1</v>
+      </c>
+      <c r="M12" t="s">
+        <v>525</v>
+      </c>
+      <c r="O12" t="s">
         <v>536</v>
       </c>
-      <c r="S10" t="s">
-        <v>537</v>
-      </c>
-      <c r="T10" t="s">
-        <v>538</v>
-      </c>
-      <c r="U10">
+      <c r="P12" t="s">
+        <v>543</v>
+      </c>
+      <c r="Q12" t="s">
+        <v>544</v>
+      </c>
+      <c r="R12" t="s">
+        <v>545</v>
+      </c>
+      <c r="S12" t="s">
+        <v>546</v>
+      </c>
+      <c r="T12" t="s">
+        <v>547</v>
+      </c>
+      <c r="U12">
         <v>2626</v>
       </c>
-      <c r="V10" s="2" t="s">
-        <v>547</v>
-      </c>
-      <c r="W10" t="s">
-        <v>535</v>
-      </c>
-      <c r="X10" t="s">
-        <v>548</v>
-      </c>
-      <c r="Y10" t="s">
-        <v>536</v>
-      </c>
-      <c r="Z10" t="s">
-        <v>537</v>
-      </c>
-      <c r="AA10" s="2" t="s">
-        <v>549</v>
-      </c>
-      <c r="AB10" t="s">
-        <v>553</v>
-      </c>
-      <c r="BA10" t="s">
-        <v>566</v>
-      </c>
-      <c r="BB10" s="2" t="s">
-        <v>567</v>
-      </c>
-      <c r="BC10" t="s">
+      <c r="V12" s="2" t="s">
+        <v>558</v>
+      </c>
+      <c r="W12" t="s">
+        <v>544</v>
+      </c>
+      <c r="X12" t="s">
+        <v>559</v>
+      </c>
+      <c r="Y12" t="s">
+        <v>545</v>
+      </c>
+      <c r="Z12" t="s">
+        <v>546</v>
+      </c>
+      <c r="AA12" s="2" t="s">
+        <v>560</v>
+      </c>
+      <c r="AB12" t="s">
+        <v>561</v>
+      </c>
+      <c r="AC12" t="s">
         <v>569</v>
       </c>
-      <c r="BD10">
+      <c r="AD12" t="s">
+        <v>571</v>
+      </c>
+      <c r="AE12" t="s">
+        <v>575</v>
+      </c>
+      <c r="AF12" t="s">
+        <v>579</v>
+      </c>
+      <c r="AG12" t="s">
+        <v>582</v>
+      </c>
+      <c r="AH12" t="s">
+        <v>583</v>
+      </c>
+      <c r="AI12" t="s">
+        <v>584</v>
+      </c>
+      <c r="AJ12" s="2" t="s">
+        <v>586</v>
+      </c>
+      <c r="AK12" t="s">
+        <v>588</v>
+      </c>
+      <c r="AL12">
         <v>669</v>
       </c>
-      <c r="BE10" t="s">
-        <v>571</v>
-      </c>
-      <c r="BF10" t="s">
-        <v>576</v>
-      </c>
-      <c r="BG10" t="s">
-        <v>566</v>
-      </c>
-      <c r="BI10" t="s">
-        <v>501</v>
-      </c>
-      <c r="BJ10" t="s">
-        <v>585</v>
-      </c>
-      <c r="BK10" t="s">
-        <v>594</v>
-      </c>
-      <c r="BL10" t="s">
-        <v>598</v>
-      </c>
-      <c r="BM10" t="s">
-        <v>602</v>
-      </c>
-      <c r="BR10" t="s">
-        <v>609</v>
-      </c>
-      <c r="BS10" t="s">
-        <v>613</v>
-      </c>
-      <c r="BT10" t="s">
-        <v>566</v>
-      </c>
-      <c r="BV10" t="s">
-        <v>569</v>
-      </c>
-      <c r="BW10">
+      <c r="AM12" t="s">
+        <v>590</v>
+      </c>
+      <c r="AN12" t="s">
+        <v>596</v>
+      </c>
+      <c r="AO12" t="s">
+        <v>584</v>
+      </c>
+      <c r="AQ12" t="s">
+        <v>503</v>
+      </c>
+      <c r="AR12" t="s">
+        <v>607</v>
+      </c>
+      <c r="AS12" t="s">
+        <v>618</v>
+      </c>
+      <c r="AT12" t="s">
+        <v>622</v>
+      </c>
+      <c r="AU12" t="s">
+        <v>626</v>
+      </c>
+      <c r="AV12" t="s">
+        <v>629</v>
+      </c>
+      <c r="AW12" t="s">
+        <v>633</v>
+      </c>
+      <c r="AZ12" t="s">
+        <v>634</v>
+      </c>
+      <c r="BA12" t="s">
+        <v>634</v>
+      </c>
+      <c r="BB12" t="s">
+        <v>634</v>
+      </c>
+      <c r="BF12" t="s">
+        <v>638</v>
+      </c>
+      <c r="BG12" t="s">
+        <v>634</v>
+      </c>
+      <c r="BH12" t="s">
+        <v>583</v>
+      </c>
+      <c r="BI12" t="s">
+        <v>634</v>
+      </c>
+      <c r="BN12" t="s">
+        <v>583</v>
+      </c>
+      <c r="BO12" t="s">
+        <v>583</v>
+      </c>
+      <c r="BP12" t="s">
+        <v>634</v>
+      </c>
+      <c r="BQ12" t="s">
+        <v>583</v>
+      </c>
+      <c r="BS12" t="s">
+        <v>583</v>
+      </c>
+      <c r="BT12" t="s">
+        <v>634</v>
+      </c>
+      <c r="BU12" t="s">
+        <v>584</v>
+      </c>
+      <c r="BW12" t="s">
+        <v>588</v>
+      </c>
+      <c r="BX12">
         <v>669</v>
       </c>
-      <c r="BX10" t="s">
-        <v>571</v>
-      </c>
-      <c r="BY10" t="s">
-        <v>576</v>
-      </c>
-      <c r="BZ10" t="s">
-        <v>566</v>
-      </c>
-      <c r="CB10" t="s">
-        <v>501</v>
-      </c>
-      <c r="CD10" t="s">
-        <v>585</v>
-      </c>
-      <c r="CE10" t="s">
-        <v>594</v>
-      </c>
-      <c r="CF10" t="s">
-        <v>598</v>
-      </c>
-      <c r="CG10" t="s">
-        <v>602</v>
-      </c>
-      <c r="IO10" t="s">
-        <v>633</v>
-      </c>
-      <c r="IP10" t="s">
-        <v>635</v>
-      </c>
-      <c r="IQ10" t="s">
-        <v>638</v>
-      </c>
-      <c r="IR10" t="s">
-        <v>641</v>
-      </c>
-      <c r="IS10" t="s">
-        <v>643</v>
-      </c>
-      <c r="IT10" t="s">
-        <v>557</v>
-      </c>
-      <c r="IW10" t="s">
-        <v>555</v>
-      </c>
-      <c r="IX10" t="s">
-        <v>555</v>
-      </c>
-      <c r="IY10" t="s">
-        <v>555</v>
-      </c>
-      <c r="JC10" t="s">
-        <v>646</v>
-      </c>
-      <c r="JD10" t="s">
-        <v>555</v>
-      </c>
-      <c r="JE10" t="s">
-        <v>557</v>
-      </c>
-      <c r="JF10" t="s">
-        <v>555</v>
-      </c>
-      <c r="JK10" t="s">
-        <v>557</v>
-      </c>
-      <c r="JL10" t="s">
-        <v>557</v>
-      </c>
-      <c r="JM10" t="s">
-        <v>555</v>
-      </c>
-      <c r="JN10" t="s">
-        <v>557</v>
-      </c>
-      <c r="JP10" t="s">
-        <v>557</v>
-      </c>
-      <c r="JQ10" t="s">
-        <v>555</v>
+      <c r="BY12" t="s">
+        <v>590</v>
+      </c>
+      <c r="BZ12" t="s">
+        <v>596</v>
+      </c>
+      <c r="CA12" t="s">
+        <v>584</v>
+      </c>
+      <c r="CC12" t="s">
+        <v>503</v>
+      </c>
+      <c r="CE12" t="s">
+        <v>607</v>
+      </c>
+      <c r="CF12" t="s">
+        <v>618</v>
+      </c>
+      <c r="CG12" t="s">
+        <v>622</v>
+      </c>
+      <c r="CH12" t="s">
+        <v>626</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="V2" r:id="rId1"/>
     <hyperlink ref="AA2" r:id="rId2"/>
-    <hyperlink ref="BB2" r:id="rId3"/>
+    <hyperlink ref="AJ2" r:id="rId3"/>
     <hyperlink ref="V3" r:id="rId4"/>
     <hyperlink ref="AA3" r:id="rId5"/>
-    <hyperlink ref="BB3" r:id="rId6"/>
+    <hyperlink ref="AJ3" r:id="rId6"/>
     <hyperlink ref="V4" r:id="rId7"/>
     <hyperlink ref="AA4" r:id="rId8"/>
-    <hyperlink ref="BB4" r:id="rId9"/>
+    <hyperlink ref="AJ4" r:id="rId9"/>
     <hyperlink ref="V5" r:id="rId10"/>
     <hyperlink ref="AA5" r:id="rId11"/>
-    <hyperlink ref="BB5" r:id="rId12"/>
+    <hyperlink ref="AJ5" r:id="rId12"/>
     <hyperlink ref="V6" r:id="rId13"/>
     <hyperlink ref="AA6" r:id="rId14"/>
-    <hyperlink ref="BB6" r:id="rId15"/>
+    <hyperlink ref="AJ6" r:id="rId15"/>
     <hyperlink ref="V7" r:id="rId16"/>
     <hyperlink ref="AA7" r:id="rId17"/>
-    <hyperlink ref="BB7" r:id="rId18"/>
+    <hyperlink ref="AJ7" r:id="rId18"/>
     <hyperlink ref="V8" r:id="rId19"/>
     <hyperlink ref="AA8" r:id="rId20"/>
-    <hyperlink ref="BB8" r:id="rId21"/>
+    <hyperlink ref="AJ8" r:id="rId21"/>
     <hyperlink ref="V9" r:id="rId22"/>
     <hyperlink ref="AA9" r:id="rId23"/>
-    <hyperlink ref="BB9" r:id="rId24"/>
+    <hyperlink ref="AJ9" r:id="rId24"/>
     <hyperlink ref="V10" r:id="rId25"/>
     <hyperlink ref="AA10" r:id="rId26"/>
-    <hyperlink ref="BB10" r:id="rId27"/>
+    <hyperlink ref="AJ10" r:id="rId27"/>
+    <hyperlink ref="V11" r:id="rId28"/>
+    <hyperlink ref="AA11" r:id="rId29"/>
+    <hyperlink ref="AJ11" r:id="rId30"/>
+    <hyperlink ref="V12" r:id="rId31"/>
+    <hyperlink ref="AA12" r:id="rId32"/>
+    <hyperlink ref="AJ12" r:id="rId33"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/test.xlsx
+++ b/test.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1442" uniqueCount="681">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1926" uniqueCount="748">
   <si>
     <t>app_id</t>
   </si>
@@ -271,6 +271,858 @@
     <t>metadata.username</t>
   </si>
   <si>
+    <t>form.copy-1-of-question1.InformationCommunicationComment</t>
+  </si>
+  <si>
+    <t>form.copy-1-of-question1.abstinenceRecommendations</t>
+  </si>
+  <si>
+    <t>form.copy-1-of-question1.accurateInformationProvided</t>
+  </si>
+  <si>
+    <t>form.copy-1-of-question1.communication_to_clients_-_individual_counseling_sessions</t>
+  </si>
+  <si>
+    <t>form.copy-1-of-question1.communicationtoClients</t>
+  </si>
+  <si>
+    <t>form.copy-1-of-question1.condomUseExplanation</t>
+  </si>
+  <si>
+    <t>form.copy-1-of-question1.explanationofBasicHIVfacts</t>
+  </si>
+  <si>
+    <t>form.copy-1-of-question1.explanationofHIVandAIDSriskReduction</t>
+  </si>
+  <si>
+    <t>form.copy-1-of-question1.explanationofMCMethods</t>
+  </si>
+  <si>
+    <t>form.copy-1-of-question1.htsandSTIServicesonVMMC</t>
+  </si>
+  <si>
+    <t>form.copy-1-of-question1.importanceofHTS</t>
+  </si>
+  <si>
+    <t>form.copy-1-of-question1.mcPartialProtectiononHIV</t>
+  </si>
+  <si>
+    <t>form.copy-1-of-question1.mcofHIVPosClients</t>
+  </si>
+  <si>
+    <t>form.copy-1-of-question1.sexAbstinenceVMMChealing</t>
+  </si>
+  <si>
+    <t>form.copy-2-of-question1.IndividualInformationComment</t>
+  </si>
+  <si>
+    <t>form.copy-2-of-question1.abstinenceRecommendationsInd</t>
+  </si>
+  <si>
+    <t>form.copy-2-of-question1.accurateInformationProvidedInd</t>
+  </si>
+  <si>
+    <t>form.copy-2-of-question1.communication_to_clients_-_individual_counseling_sessions</t>
+  </si>
+  <si>
+    <t>form.copy-2-of-question1.condomUseExplanationInd</t>
+  </si>
+  <si>
+    <t>form.copy-2-of-question1.explanationofBasicHIVfactsInd</t>
+  </si>
+  <si>
+    <t>form.copy-2-of-question1.explanationofHIVandAIDSriskReductionInd</t>
+  </si>
+  <si>
+    <t>form.copy-2-of-question1.explanationofMCMethodsInd</t>
+  </si>
+  <si>
+    <t>form.copy-2-of-question1.htsandSTIServicesonVMMCInd</t>
+  </si>
+  <si>
+    <t>form.copy-2-of-question1.importanceofHTSInd</t>
+  </si>
+  <si>
+    <t>form.copy-2-of-question1.mcPartialProtectiononHIVInd</t>
+  </si>
+  <si>
+    <t>form.copy-2-of-question1.mcofHIVPosClientsInd</t>
+  </si>
+  <si>
+    <t>form.copy-2-of-question1.sexAbstinenceVMMChealingInd</t>
+  </si>
+  <si>
+    <t>form.copy-3-of-question1.Addressed_client_HIV_understanding_and_misperceptions</t>
+  </si>
+  <si>
+    <t>form.copy-3-of-question1.Affirmed_that_client_could_still_undergo_VMMC</t>
+  </si>
+  <si>
+    <t>form.copy-3-of-question1.Checked_for_client_understanding_throughout_session</t>
+  </si>
+  <si>
+    <t>form.copy-3-of-question1.Communicated_in_clear_simple_terms</t>
+  </si>
+  <si>
+    <t>form.copy-3-of-question1.Communication_to_Clients</t>
+  </si>
+  <si>
+    <t>form.copy-3-of-question1.Conducted_confirmatory_test_according_to_national_algorithm</t>
+  </si>
+  <si>
+    <t>form.copy-3-of-question1.Delivered_positive_results_directly_and_clearly</t>
+  </si>
+  <si>
+    <t>form.copy-3-of-question1.Described_warning_signs_of_adverse_events_and_recommendations_for_managing</t>
+  </si>
+  <si>
+    <t>form.copy-3-of-question1.Emphasized_how_VMMC_must_be_combined_with_condom</t>
+  </si>
+  <si>
+    <t>form.copy-3-of-question1.Emphasized_importance_of_consistent_proper_condom_use</t>
+  </si>
+  <si>
+    <t>form.copy-3-of-question1.Emphasized_ways_to_improve_compliance_with_abstinence</t>
+  </si>
+  <si>
+    <t>form.copy-3-of-question1.Encourage_partner_and_family_HIV_testing</t>
+  </si>
+  <si>
+    <t>form.copy-3-of-question1.Encouraged_disclosure_to_partners_and_offered_assistance</t>
+  </si>
+  <si>
+    <t>form.copy-3-of-question1.Engaged_client_with_respect_and_without_judgment</t>
+  </si>
+  <si>
+    <t>form.copy-3-of-question1.Explained_that_VMMC_recovery_may_take_longer_when_HIV_positive</t>
+  </si>
+  <si>
+    <t>form.copy-3-of-question1.Gave_accurate_information_note_errors_of_fact</t>
+  </si>
+  <si>
+    <t>form.copy-3-of-question1.Gave_oral_and_written_instructions_for_contacting_VMMC_staff</t>
+  </si>
+  <si>
+    <t>form.copy-3-of-question1.IndividualInformationComment</t>
+  </si>
+  <si>
+    <t>form.copy-3-of-question1.Initiated_referral_linkage_to_HIV_care_and_treatment</t>
+  </si>
+  <si>
+    <t>form.copy-3-of-question1.Offered_client_appropriate_emotional_support</t>
+  </si>
+  <si>
+    <t>form.copy-3-of-question1.Provided_information_on_positive_living_for_persons_testing_HIV_positive</t>
+  </si>
+  <si>
+    <t>form.copy-3-of-question1.Provided_instructions_for_pain_management</t>
+  </si>
+  <si>
+    <t>form.copy-3-of-question1.Provided_wound_care_flier_and_clear_accurate_instructions_on_wound_care</t>
+  </si>
+  <si>
+    <t>form.copy-3-of-question1.Reaffirmed_need_for_six_week_abstinence_period_during_VMMC_healing</t>
+  </si>
+  <si>
+    <t>form.copy-3-of-question1.Recorded_client_blood_pressure_15_minutes_after_arrival</t>
+  </si>
+  <si>
+    <t>form.copy-3-of-question1.Recorded_client_blood_pressure_on_arrival</t>
+  </si>
+  <si>
+    <t>form.copy-3-of-question1.Recorded_client_pulse_and_respiration_rate_15_minutes_after_arrival</t>
+  </si>
+  <si>
+    <t>form.copy-3-of-question1.Recorded_client_pulse_and_respiration_rate_on_arrival</t>
+  </si>
+  <si>
+    <t>form.copy-3-of-question1.Recorded_client_temperature_15_minutes_after_arrival</t>
+  </si>
+  <si>
+    <t>form.copy-3-of-question1.Recorded_client_temperature_on_arrival</t>
+  </si>
+  <si>
+    <t>form.copy-3-of-question1.Warned_against_applying_any_home_or_traditional_remedies</t>
+  </si>
+  <si>
+    <t>form.copy-3-of-question1.Was_the_test_result_Positive</t>
+  </si>
+  <si>
+    <t>form.copy-3-of-question1.Withheld_results_Positive</t>
+  </si>
+  <si>
+    <t>form.copy-3-of-question1.accurateInformationProvided</t>
+  </si>
+  <si>
+    <t>form.copy-3-of-question1.ageofClienthts</t>
+  </si>
+  <si>
+    <t>form.copy-3-of-question1.awareandAddressingClientNonVerbalCues</t>
+  </si>
+  <si>
+    <t>form.copy-3-of-question1.benefitsofHIVStatusReinforced</t>
+  </si>
+  <si>
+    <t>form.copy-3-of-question1.clientConsentHIVCounselling</t>
+  </si>
+  <si>
+    <t>form.copy-3-of-question1.clientHIVRisk</t>
+  </si>
+  <si>
+    <t>form.copy-3-of-question1.clientdeclineHIVTested</t>
+  </si>
+  <si>
+    <t>form.copy-3-of-question1.clientsTreatedwithRespect</t>
+  </si>
+  <si>
+    <t>form.copy-3-of-question1.confedentiallityAssuredHTSCounseling</t>
+  </si>
+  <si>
+    <t>form.copy-3-of-question1.disposalofLancetandLotion</t>
+  </si>
+  <si>
+    <t>form.copy-3-of-question1.emphasisedRetestingAfter3Months</t>
+  </si>
+  <si>
+    <t>form.copy-3-of-question1.gloves</t>
+  </si>
+  <si>
+    <t>form.copy-3-of-question1.hivmisconceptionsAddressed</t>
+  </si>
+  <si>
+    <t>form.copy-3-of-question1.htsAlgorithm</t>
+  </si>
+  <si>
+    <t>form.copy-3-of-question1.htsBenefitsandLimitations</t>
+  </si>
+  <si>
+    <t>form.copy-3-of-question1.htsProcessExplained</t>
+  </si>
+  <si>
+    <t>form.copy-3-of-question1.htsScrrenToolUsage</t>
+  </si>
+  <si>
+    <t>form.copy-3-of-question1.informationPresentedClearly</t>
+  </si>
+  <si>
+    <t>form.copy-3-of-question1.partnerTesting</t>
+  </si>
+  <si>
+    <t>form.copy-3-of-question1.reinforcementofHIVRisks</t>
+  </si>
+  <si>
+    <t>form.copy-3-of-question1.remindedVMMCisPartialProtectionofHIV</t>
+  </si>
+  <si>
+    <t>form.copy-3-of-question1.resultsWithHeld</t>
+  </si>
+  <si>
+    <t>form.copy-3-of-question1.reviwedActualHIVCounsellingSession</t>
+  </si>
+  <si>
+    <t>form.copy-3-of-question1.testResultNegative</t>
+  </si>
+  <si>
+    <t>form.copy-3-of-question1.testResultsProvidedTimeously</t>
+  </si>
+  <si>
+    <t>form.copy-3-of-question1.testingKitCurrent</t>
+  </si>
+  <si>
+    <t>form.copy-3-of-question1.testingSpace</t>
+  </si>
+  <si>
+    <t>form.copy-3-of-question1.testingTimeInterval</t>
+  </si>
+  <si>
+    <t>form.copy-3-of-question1.testingatLaterDate</t>
+  </si>
+  <si>
+    <t>form.copy-3-of-question1.understandingChecked</t>
+  </si>
+  <si>
+    <t>form.copy-3-of-question1.workingTimePiece</t>
+  </si>
+  <si>
+    <t>form.copy-4-of-question1.Addressed_client_HIV_understanding_and_misperceptions</t>
+  </si>
+  <si>
+    <t>form.copy-4-of-question1.Affirmed_client_VMMC_decision</t>
+  </si>
+  <si>
+    <t>form.copy-4-of-question1.Affirmed_clients_VMMC_decision</t>
+  </si>
+  <si>
+    <t>form.copy-4-of-question1.Affirmed_that_client_could_still_undergo_VMMC</t>
+  </si>
+  <si>
+    <t>form.copy-4-of-question1.Care_provider_completed_a_physical_exam</t>
+  </si>
+  <si>
+    <t>form.copy-4-of-question1.Checked_for_client_understanding_throughout_session</t>
+  </si>
+  <si>
+    <t>form.copy-4-of-question1.Checked_for_client_understanding_throughout_sessionFu</t>
+  </si>
+  <si>
+    <t>form.copy-4-of-question1.Clinic_staff_can_explain_or_show_how_they_use_these_materials_in_client_education_and_counseling</t>
+  </si>
+  <si>
+    <t>form.copy-4-of-question1.Communicated_in_clear_simple_terms</t>
+  </si>
+  <si>
+    <t>form.copy-4-of-question1.Communicated_in_clear_simple_termsFu</t>
+  </si>
+  <si>
+    <t>form.copy-4-of-question1.Communication_to_Clients</t>
+  </si>
+  <si>
+    <t>form.copy-4-of-question1.Communication_to_Clients_-_HIV_and_MCEducation</t>
+  </si>
+  <si>
+    <t>form.copy-4-of-question1.Communication_to_Clients_-_HIV_and_MCEducationFu</t>
+  </si>
+  <si>
+    <t>form.copy-4-of-question1.Communication_to_Clients_-_Information_on_Materials</t>
+  </si>
+  <si>
+    <t>form.copy-4-of-question1.Conducted_confirmatory_test_according_to_national_algorithm</t>
+  </si>
+  <si>
+    <t>form.copy-4-of-question1.Delivered_positive_results_directly_and_clearly</t>
+  </si>
+  <si>
+    <t>form.copy-4-of-question1.Described_warning_signs_of_adverse_events_and_recommendations_for_managing</t>
+  </si>
+  <si>
+    <t>form.copy-4-of-question1.Discussed_warning_signs_of_adverse_events</t>
+  </si>
+  <si>
+    <t>form.copy-4-of-question1.Emergency_contact_number_operational</t>
+  </si>
+  <si>
+    <t>form.copy-4-of-question1.Emphasized_how_VMMC_must_be_combined_with_condom</t>
+  </si>
+  <si>
+    <t>form.copy-4-of-question1.Emphasized_importance_of_consistent_proper_condom_use</t>
+  </si>
+  <si>
+    <t>form.copy-4-of-question1.Emphasized_the_need_for_six_week_abstinence_period_during_VMMC_healing</t>
+  </si>
+  <si>
+    <t>form.copy-4-of-question1.Emphasized_ways_to_improve_compliance_with_abstinence</t>
+  </si>
+  <si>
+    <t>form.copy-4-of-question1.Emphasized_ways_to_improve_compliance_with_abstinenceFu</t>
+  </si>
+  <si>
+    <t>form.copy-4-of-question1.Encourage_partner_and_family_HIV_testing</t>
+  </si>
+  <si>
+    <t>form.copy-4-of-question1.Encouraged_disclosure_to_partners_and_offered_assistance</t>
+  </si>
+  <si>
+    <t>form.copy-4-of-question1.Engaged_client_with_respect_and_without_judgment</t>
+  </si>
+  <si>
+    <t>form.copy-4-of-question1.Engaged_client_with_respect_and_without_judgmentFu</t>
+  </si>
+  <si>
+    <t>form.copy-4-of-question1.Examine_all_in-service_communication_materials</t>
+  </si>
+  <si>
+    <t>form.copy-4-of-question1.Examine_all_in-service_communication_materialsFu</t>
+  </si>
+  <si>
+    <t>form.copy-4-of-question1.Explained_effective_wound_care_and_pain_management</t>
+  </si>
+  <si>
+    <t>form.copy-4-of-question1.Explained_importance_of_not_applying_any_home_or_traditional_remedies</t>
+  </si>
+  <si>
+    <t>form.copy-4-of-question1.Explained_that_VMMC_recovery_may_take_longer_when_HIV_positive</t>
+  </si>
+  <si>
+    <t>form.copy-4-of-question1.Gave_accurate_information</t>
+  </si>
+  <si>
+    <t>form.copy-4-of-question1.Gave_accurate_information_note_errors_of_fact</t>
+  </si>
+  <si>
+    <t>form.copy-4-of-question1.Gave_oral_and_written_instructions_for_contacting_VMMC_staff</t>
+  </si>
+  <si>
+    <t>form.copy-4-of-question1.Gave_procedures_for_contacting_VMMC_staff</t>
+  </si>
+  <si>
+    <t>form.copy-4-of-question1.Guidance_for_reducing_individual_HIV_risk</t>
+  </si>
+  <si>
+    <t>form.copy-4-of-question1.Information_on_need_for_abstinence_during_VMMC_healing</t>
+  </si>
+  <si>
+    <t>form.copy-4-of-question1.Initiated_referral_linkage_to_HIV_care_and_treatment</t>
+  </si>
+  <si>
+    <t>form.copy-4-of-question1.Is_this_a_follow_up_clinic_visit_post_VMMC</t>
+  </si>
+  <si>
+    <t>form.copy-4-of-question1.Materials_are_legible_and_in_good-condition</t>
+  </si>
+  <si>
+    <t>form.copy-4-of-question1.Materials_tailored_to_specific_audiences_are_available</t>
+  </si>
+  <si>
+    <t>form.copy-4-of-question1.Modes_of_HIV_transmission_and_relative_HIV-risk_assessment</t>
+  </si>
+  <si>
+    <t>form.copy-4-of-question1.Offered_client_appropriate_emotional_support</t>
+  </si>
+  <si>
+    <t>form.copy-4-of-question1.On-site_materials_adequately_support_in-service_communication</t>
+  </si>
+  <si>
+    <t>form.copy-4-of-question1.On-site_signage_is_sufficient_to_direct_clients</t>
+  </si>
+  <si>
+    <t>form.copy-4-of-question1.On-site_signage_is_sufficient_to_direct_clients_to_VMMC_service_locations</t>
+  </si>
+  <si>
+    <t>form.copy-4-of-question1.Provided_information_on_positive_living_for_persons_testing_HIV_positive</t>
+  </si>
+  <si>
+    <t>form.copy-4-of-question1.Provided_instructions_for_pain_management</t>
+  </si>
+  <si>
+    <t>form.copy-4-of-question1.Provided_wound_care_flier_and_clear_accurate_instructions_on_wound_care</t>
+  </si>
+  <si>
+    <t>form.copy-4-of-question1.Provider_ensured_client_privacy_during_examination</t>
+  </si>
+  <si>
+    <t>form.copy-4-of-question1.Reaffirmed_need_for_six_week_abstinence_period_during_VMMC_healing</t>
+  </si>
+  <si>
+    <t>form.copy-4-of-question1.Recorded_client_blood_pressure_15_minutes_after_arrival</t>
+  </si>
+  <si>
+    <t>form.copy-4-of-question1.Recorded_client_blood_pressure_on_arrival</t>
+  </si>
+  <si>
+    <t>form.copy-4-of-question1.Recorded_client_pulse_and_respiration_rate_15_minutes_after_arrival</t>
+  </si>
+  <si>
+    <t>form.copy-4-of-question1.Recorded_client_pulse_and_respiration_rate_on_arrival</t>
+  </si>
+  <si>
+    <t>form.copy-4-of-question1.Recorded_client_temperature_15_minutes_after_arrival</t>
+  </si>
+  <si>
+    <t>form.copy-4-of-question1.Recorded_client_temperature_on_arrival</t>
+  </si>
+  <si>
+    <t>form.copy-4-of-question1.Reviewer_observed_follow-up_clinic_visit_on</t>
+  </si>
+  <si>
+    <t>form.copy-4-of-question1.Specific_contact_information_for_reaching_VMMC_staff</t>
+  </si>
+  <si>
+    <t>form.copy-4-of-question1.Warned_against_applying_any_home_or_traditional_remedies</t>
+  </si>
+  <si>
+    <t>form.copy-4-of-question1.Warning_against_applying_any_home_or_tradional_remedies</t>
+  </si>
+  <si>
+    <t>form.copy-4-of-question1.Was_the_test_result_Positive</t>
+  </si>
+  <si>
+    <t>form.copy-4-of-question1.Was_the_visit_documented_in_CIR_and_Register</t>
+  </si>
+  <si>
+    <t>form.copy-4-of-question1.Was_the_visit_documented_in_CIR_and_RegisterFu</t>
+  </si>
+  <si>
+    <t>form.copy-4-of-question1.Withheld_results_Positive</t>
+  </si>
+  <si>
+    <t>form.copy-4-of-question1.Wound_care_instructions</t>
+  </si>
+  <si>
+    <t>form.copy-4-of-question1.ageofClientfollowup</t>
+  </si>
+  <si>
+    <t>form.copy-4-of-question1.basic_hiv_and_aids_risk_reduction_information_including_other_stis</t>
+  </si>
+  <si>
+    <t>form.copy-4-of-question1.disposalofLancetandLotion</t>
+  </si>
+  <si>
+    <t>form.copy-4-of-question1.emphasisedRetestingAfter3Months</t>
+  </si>
+  <si>
+    <t>form.copy-4-of-question1.give_overall_comment_communication</t>
+  </si>
+  <si>
+    <t>form.copy-4-of-question1.gloves</t>
+  </si>
+  <si>
+    <t>form.copy-4-of-question1.htsAlgorithm</t>
+  </si>
+  <si>
+    <t>form.copy-4-of-question1.information_on_the_status_of_clients_healing</t>
+  </si>
+  <si>
+    <t>form.copy-4-of-question1.materials_provide_accurate_and_adequate_information_in_the_following_areas_</t>
+  </si>
+  <si>
+    <t>form.copy-4-of-question1.remindedVMMCisPartialProtectionofHIV</t>
+  </si>
+  <si>
+    <t>form.copy-4-of-question1.resultsWithHeld</t>
+  </si>
+  <si>
+    <t>form.copy-4-of-question1.testResultNegative</t>
+  </si>
+  <si>
+    <t>form.copy-4-of-question1.testResultsProvidedTimeously</t>
+  </si>
+  <si>
+    <t>form.copy-4-of-question1.testingKitCurrent</t>
+  </si>
+  <si>
+    <t>form.copy-4-of-question1.testingSpace</t>
+  </si>
+  <si>
+    <t>form.copy-4-of-question1.testingTimeInterval</t>
+  </si>
+  <si>
+    <t>form.copy-4-of-question1.workingTimePiece</t>
+  </si>
+  <si>
+    <t>form.question1.IndividualCounsellingComment</t>
+  </si>
+  <si>
+    <t>form.question1.clientAssuredConfidentialityInd</t>
+  </si>
+  <si>
+    <t>form.question1.clientTreatmentInd</t>
+  </si>
+  <si>
+    <t>form.question1.clientsParticipationEncouragementInd</t>
+  </si>
+  <si>
+    <t>form.question1.communication_to_clients_-_individual_counseling_sessions</t>
+  </si>
+  <si>
+    <t>form.question1.condomDemoFemaleInd</t>
+  </si>
+  <si>
+    <t>form.question1.condomDemoInd</t>
+  </si>
+  <si>
+    <t>form.question1.contentTailoredByAge</t>
+  </si>
+  <si>
+    <t>form.question1.counsellingSpacePrivacyInd</t>
+  </si>
+  <si>
+    <t>form.question1.counselorAudibleInd</t>
+  </si>
+  <si>
+    <t>form.question1.counselorChecksUnderstandingInd</t>
+  </si>
+  <si>
+    <t>form.question1.easyObservationofPropsInd</t>
+  </si>
+  <si>
+    <t>form.question1.elicitationofClientAge</t>
+  </si>
+  <si>
+    <t>form.question1.informationClearInd</t>
+  </si>
+  <si>
+    <t>form.question1.probingofMentalStatus</t>
+  </si>
+  <si>
+    <t>form.question1.probingofSRHIssues</t>
+  </si>
+  <si>
+    <t>form.question1.probingofSocialCircumstances</t>
+  </si>
+  <si>
+    <t>form.question1.reviewOfActualSession</t>
+  </si>
+  <si>
+    <t>form.question1.sessionNotInterruptedInd</t>
+  </si>
+  <si>
+    <t>form.question1.through_direct_observation_optimal_or_interviews_with_counselors_determine_</t>
+  </si>
+  <si>
+    <t>form.section_e_-_communication.Pre-OPGroupCommunicationComment</t>
+  </si>
+  <si>
+    <t>form.section_e_-_communication.actualObservedSession</t>
+  </si>
+  <si>
+    <t>form.section_e_-_communication.appropriateGroupAssembling</t>
+  </si>
+  <si>
+    <t>form.section_e_-_communication.clearPresentationofInformation</t>
+  </si>
+  <si>
+    <t>form.section_e_-_communication.clientsAssuredofConfidentiality</t>
+  </si>
+  <si>
+    <t>form.section_e_-_communication.communication_to_clients_-_pre-op_group_counseling</t>
+  </si>
+  <si>
+    <t>form.section_e_-_communication.condomDemoFemale</t>
+  </si>
+  <si>
+    <t>form.section_e_-_communication.condomDemoMale</t>
+  </si>
+  <si>
+    <t>form.section_e_-_communication.councelorChecksforUnderstanding</t>
+  </si>
+  <si>
+    <t>form.section_e_-_communication.councelorTreatmentofClients</t>
+  </si>
+  <si>
+    <t>form.section_e_-_communication.counsellingSpacePrivacyPreOp</t>
+  </si>
+  <si>
+    <t>form.section_e_-_communication.counselorAudible</t>
+  </si>
+  <si>
+    <t>form.section_e_-_communication.counsolorManagementofGroupDynamics</t>
+  </si>
+  <si>
+    <t>form.section_e_-_communication.directObservationofCounselorsonCommunication</t>
+  </si>
+  <si>
+    <t>form.section_e_-_communication.easyObservationOfProps</t>
+  </si>
+  <si>
+    <t>form.section_e_-_communication.encouragementofQuestionsandClientParticipation</t>
+  </si>
+  <si>
+    <t>form.section_e_-_communication.separtionofClientByAge</t>
+  </si>
+  <si>
+    <t>form.section_e_-_communication.sessionNotInterruptedPreOp</t>
+  </si>
+  <si>
+    <t>form.section_d_-_sops_guidelines_policies_and_job_aids_-_sops_guidelines_policie.SOPOverallComment</t>
+  </si>
+  <si>
+    <t>form.section_d_-_sops_guidelines_policies_and_job_aids_-_sops_guidelines_policie.adequateStaff</t>
+  </si>
+  <si>
+    <t>form.section_d_-_sops_guidelines_policies_and_job_aids_-_sops_guidelines_policie.aeRegister</t>
+  </si>
+  <si>
+    <t>form.section_d_-_sops_guidelines_policies_and_job_aids_-_sops_guidelines_policie.aeRegisterClientCapturing</t>
+  </si>
+  <si>
+    <t>form.section_d_-_sops_guidelines_policies_and_job_aids_-_sops_guidelines_policie.aeReviewMinutes</t>
+  </si>
+  <si>
+    <t>form.section_d_-_sops_guidelines_policies_and_job_aids_-_sops_guidelines_policie.aeSOP</t>
+  </si>
+  <si>
+    <t>form.section_d_-_sops_guidelines_policies_and_job_aids_-_sops_guidelines_policie.cifAvailability</t>
+  </si>
+  <si>
+    <t>form.section_d_-_sops_guidelines_policies_and_job_aids_-_sops_guidelines_policie.clientRegisterAvailability</t>
+  </si>
+  <si>
+    <t>form.section_d_-_sops_guidelines_policies_and_job_aids_-_sops_guidelines_policie.condomDemo</t>
+  </si>
+  <si>
+    <t>form.section_d_-_sops_guidelines_policies_and_job_aids_-_sops_guidelines_policie.condomInsertionModels</t>
+  </si>
+  <si>
+    <t>form.section_d_-_sops_guidelines_policies_and_job_aids_-_sops_guidelines_policie.condomsAvailability</t>
+  </si>
+  <si>
+    <t>form.section_d_-_sops_guidelines_policies_and_job_aids_-_sops_guidelines_policie.condomsAvailabilitySOP</t>
+  </si>
+  <si>
+    <t>form.section_d_-_sops_guidelines_policies_and_job_aids_-_sops_guidelines_policie.copy-1-of-adequateStaff</t>
+  </si>
+  <si>
+    <t>form.section_d_-_sops_guidelines_policies_and_job_aids_-_sops_guidelines_policie.dataCollectionToolsCurrentVersion</t>
+  </si>
+  <si>
+    <t>form.section_d_-_sops_guidelines_policies_and_job_aids_-_sops_guidelines_policie.htsCounselingSOP</t>
+  </si>
+  <si>
+    <t>form.section_d_-_sops_guidelines_policies_and_job_aids_-_sops_guidelines_policie.htsCounselingSOPFollowUp</t>
+  </si>
+  <si>
+    <t>form.section_d_-_sops_guidelines_policies_and_job_aids_-_sops_guidelines_policie.htsQualityAssurance</t>
+  </si>
+  <si>
+    <t>form.section_d_-_sops_guidelines_policies_and_job_aids_-_sops_guidelines_policie.htsStaffRefresherTraining</t>
+  </si>
+  <si>
+    <t>form.section_d_-_sops_guidelines_policies_and_job_aids_-_sops_guidelines_policie.internalControls</t>
+  </si>
+  <si>
+    <t>form.section_d_-_sops_guidelines_policies_and_job_aids_-_sops_guidelines_policie.medicalEmergencySOP</t>
+  </si>
+  <si>
+    <t>form.section_d_-_sops_guidelines_policies_and_job_aids_-_sops_guidelines_policie.patientRightFollowUp</t>
+  </si>
+  <si>
+    <t>form.section_d_-_sops_guidelines_policies_and_job_aids_-_sops_guidelines_policie.patientRights</t>
+  </si>
+  <si>
+    <t>form.section_d_-_sops_guidelines_policies_and_job_aids_-_sops_guidelines_policie.postCouncellingCoverageonHTSLinkages</t>
+  </si>
+  <si>
+    <t>form.section_d_-_sops_guidelines_policies_and_job_aids_-_sops_guidelines_policie.postOperativeCareGuidelines</t>
+  </si>
+  <si>
+    <t>form.section_d_-_sops_guidelines_policies_and_job_aids_-_sops_guidelines_policie.postOperativeFollowUpProtocol</t>
+  </si>
+  <si>
+    <t>form.section_d_-_sops_guidelines_policies_and_job_aids_-_sops_guidelines_policie.postOperativeWrittenInstructions</t>
+  </si>
+  <si>
+    <t>form.section_d_-_sops_guidelines_policies_and_job_aids_-_sops_guidelines_policie.pretestInformationRelevance</t>
+  </si>
+  <si>
+    <t>form.section_d_-_sops_guidelines_policies_and_job_aids_-_sops_guidelines_policie.programme_visibility</t>
+  </si>
+  <si>
+    <t>form.section_d_-_sops_guidelines_policies_and_job_aids_-_sops_guidelines_policie.qualityImprovementMinutes</t>
+  </si>
+  <si>
+    <t>form.section_d_-_sops_guidelines_policies_and_job_aids_-_sops_guidelines_policie.question31</t>
+  </si>
+  <si>
+    <t>form.section_d_-_sops_guidelines_policies_and_job_aids_-_sops_guidelines_policie.referralLinkageForms</t>
+  </si>
+  <si>
+    <t>form.section_d_-_sops_guidelines_policies_and_job_aids_-_sops_guidelines_policie.referralTrackingStandards</t>
+  </si>
+  <si>
+    <t>form.section_d_-_sops_guidelines_policies_and_job_aids_-_sops_guidelines_policie.registerCompletion</t>
+  </si>
+  <si>
+    <t>form.section_d_-_sops_guidelines_policies_and_job_aids_-_sops_guidelines_policie.saeReportingForm</t>
+  </si>
+  <si>
+    <t>form.section_d_-_sops_guidelines_policies_and_job_aids_-_sops_guidelines_policie.sops_guidelines_policies_and_job_aids_-_sticondom</t>
+  </si>
+  <si>
+    <t>form.section_d_-_sops_guidelines_policies_and_job_aids_-_sops_guidelines_policie.spaceforPostTestingCounselling</t>
+  </si>
+  <si>
+    <t>form.section_d_-_sops_guidelines_policies_and_job_aids_-_sops_guidelines_policie.staffJobDescription</t>
+  </si>
+  <si>
+    <t>form.section_d_-_sops_guidelines_policies_and_job_aids_-_sops_guidelines_policie.stiRegister</t>
+  </si>
+  <si>
+    <t>form.section_d_-_sops_guidelines_policies_and_job_aids_-_sops_guidelines_policie.vmmcSurgicalManual</t>
+  </si>
+  <si>
+    <t>form.section_d_-_sops_guidelines_policies_and_job_aids_-_sops_guidelines_policie.wasteDisposalSOP</t>
+  </si>
+  <si>
+    <t>form.section_d_-_sops_guidelines_policies_and_job_aids_-_sops_guidelines_policie.work_plan</t>
+  </si>
+  <si>
+    <t>form.section_d_-_sops_guidelines_policies_and_job_aids_-_sops_guidelines_policie.writtenGuidance</t>
+  </si>
+  <si>
+    <t>form.copy-1-of-data_quality_assessment.adverseEvents2WT</t>
+  </si>
+  <si>
+    <t>form.copy-1-of-data_quality_assessment.clientConcerns2WT</t>
+  </si>
+  <si>
+    <t>form.copy-1-of-data_quality_assessment.clientSatisfaction2WT</t>
+  </si>
+  <si>
+    <t>form.copy-1-of-data_quality_assessment.dataAccuracy2WT</t>
+  </si>
+  <si>
+    <t>form.copy-1-of-data_quality_assessment.demographicAnalysis2WT</t>
+  </si>
+  <si>
+    <t>form.copy-1-of-data_quality_assessment.ehrEnrollmentRate</t>
+  </si>
+  <si>
+    <t>form.copy-1-of-data_quality_assessment.ehrUsage</t>
+  </si>
+  <si>
+    <t>form.copy-1-of-data_quality_assessment.electronic_health_record_ehr_-_look_at_total_number_of_clients_circumcised_</t>
+  </si>
+  <si>
+    <t>form.copy-1-of-data_quality_assessment.enrollmentRate2WT</t>
+  </si>
+  <si>
+    <t>form.copy-1-of-data_quality_assessment.linkages_and_referrals</t>
+  </si>
+  <si>
+    <t>form.copy-1-of-data_quality_assessment.look_at_total_number_of_clients_circumcised_by_the_site_in_the_past_three_m</t>
+  </si>
+  <si>
+    <t>form.copy-1-of-data_quality_assessment.optOurRate2WT</t>
+  </si>
+  <si>
+    <t>form.copy-1-of-data_quality_assessment.referralDocumentation</t>
+  </si>
+  <si>
+    <t>form.copy-1-of-data_quality_assessment.staffTraining2WT</t>
+  </si>
+  <si>
+    <t>form.copy-1-of-data_quality_assessment.twoWayComment</t>
+  </si>
+  <si>
+    <t>form.data_quality_assessment.aeDocumentation</t>
+  </si>
+  <si>
+    <t>form.data_quality_assessment.client_record_review_-_the_assesors_should_sample_at_least_twenty_five_25_c</t>
+  </si>
+  <si>
+    <t>form.data_quality_assessment.consentForms</t>
+  </si>
+  <si>
+    <t>form.data_quality_assessment.data_triangulation</t>
+  </si>
+  <si>
+    <t>form.data_quality_assessment.meOverallComment</t>
+  </si>
+  <si>
+    <t>form.data_quality_assessment.month_year_repeat_group</t>
+  </si>
+  <si>
+    <t>form.data_quality_assessment.recordFilling</t>
+  </si>
+  <si>
+    <t>form.data_quality_assessment.recordsSecure</t>
+  </si>
+  <si>
+    <t>form.data_quality_assessment.sampleCIFChecking</t>
+  </si>
+  <si>
+    <t>form.period_under_review_starting_point.period_under_review_ending_point.endingMonth</t>
+  </si>
+  <si>
+    <t>form.period_under_review_starting_point.period_under_review_ending_point.endingYear</t>
+  </si>
+  <si>
+    <t>form.period_under_review_starting_point.startingMonth</t>
+  </si>
+  <si>
+    <t>form.period_under_review_starting_point.startingYear</t>
+  </si>
+  <si>
     <t>form.question3.availableKits</t>
   </si>
   <si>
@@ -631,861 +1483,9 @@
     <t>form.section_a_-_facilities_supplies_equipment_and_emergency_management.waitingSpace</t>
   </si>
   <si>
-    <t>form.copy-1-of-data_quality_assessment.adverseEvents2WT</t>
-  </si>
-  <si>
-    <t>form.copy-1-of-data_quality_assessment.clientConcerns2WT</t>
-  </si>
-  <si>
-    <t>form.copy-1-of-data_quality_assessment.clientSatisfaction2WT</t>
-  </si>
-  <si>
-    <t>form.copy-1-of-data_quality_assessment.dataAccuracy2WT</t>
-  </si>
-  <si>
-    <t>form.copy-1-of-data_quality_assessment.demographicAnalysis2WT</t>
-  </si>
-  <si>
-    <t>form.copy-1-of-data_quality_assessment.ehrEnrollmentRate</t>
-  </si>
-  <si>
-    <t>form.copy-1-of-data_quality_assessment.ehrUsage</t>
-  </si>
-  <si>
-    <t>form.copy-1-of-data_quality_assessment.electronic_health_record_ehr_-_look_at_total_number_of_clients_circumcised_</t>
-  </si>
-  <si>
-    <t>form.copy-1-of-data_quality_assessment.enrollmentRate2WT</t>
-  </si>
-  <si>
-    <t>form.copy-1-of-data_quality_assessment.linkages_and_referrals</t>
-  </si>
-  <si>
-    <t>form.copy-1-of-data_quality_assessment.look_at_total_number_of_clients_circumcised_by_the_site_in_the_past_three_m</t>
-  </si>
-  <si>
-    <t>form.copy-1-of-data_quality_assessment.optOurRate2WT</t>
-  </si>
-  <si>
-    <t>form.copy-1-of-data_quality_assessment.referralDocumentation</t>
-  </si>
-  <si>
-    <t>form.copy-1-of-data_quality_assessment.staffTraining2WT</t>
-  </si>
-  <si>
-    <t>form.copy-1-of-data_quality_assessment.twoWayComment</t>
-  </si>
-  <si>
-    <t>form.data_quality_assessment.aeDocumentation</t>
-  </si>
-  <si>
-    <t>form.data_quality_assessment.client_record_review_-_the_assesors_should_sample_at_least_twenty_five_25_c</t>
-  </si>
-  <si>
-    <t>form.data_quality_assessment.consentForms</t>
-  </si>
-  <si>
-    <t>form.data_quality_assessment.data_triangulation</t>
-  </si>
-  <si>
-    <t>form.data_quality_assessment.meOverallComment</t>
-  </si>
-  <si>
-    <t>form.data_quality_assessment.month_year_repeat_group</t>
-  </si>
-  <si>
-    <t>form.data_quality_assessment.recordFilling</t>
-  </si>
-  <si>
-    <t>form.data_quality_assessment.recordsSecure</t>
-  </si>
-  <si>
-    <t>form.data_quality_assessment.sampleCIFChecking</t>
-  </si>
-  <si>
-    <t>form.period_under_review_starting_point.period_under_review_ending_point.endingMonth</t>
-  </si>
-  <si>
-    <t>form.period_under_review_starting_point.period_under_review_ending_point.endingYear</t>
-  </si>
-  <si>
-    <t>form.period_under_review_starting_point.startingMonth</t>
-  </si>
-  <si>
-    <t>form.period_under_review_starting_point.startingYear</t>
-  </si>
-  <si>
-    <t>form.section_d_-_sops_guidelines_policies_and_job_aids_-_sops_guidelines_policie.SOPOverallComment</t>
-  </si>
-  <si>
-    <t>form.section_d_-_sops_guidelines_policies_and_job_aids_-_sops_guidelines_policie.adequateStaff</t>
-  </si>
-  <si>
     <t>form.section_d_-_sops_guidelines_policies_and_job_aids_-_sops_guidelines_policie.aeDocumentation</t>
   </si>
   <si>
-    <t>form.section_d_-_sops_guidelines_policies_and_job_aids_-_sops_guidelines_policie.aeRegister</t>
-  </si>
-  <si>
-    <t>form.section_d_-_sops_guidelines_policies_and_job_aids_-_sops_guidelines_policie.aeRegisterClientCapturing</t>
-  </si>
-  <si>
-    <t>form.section_d_-_sops_guidelines_policies_and_job_aids_-_sops_guidelines_policie.aeReviewMinutes</t>
-  </si>
-  <si>
-    <t>form.section_d_-_sops_guidelines_policies_and_job_aids_-_sops_guidelines_policie.aeSOP</t>
-  </si>
-  <si>
-    <t>form.section_d_-_sops_guidelines_policies_and_job_aids_-_sops_guidelines_policie.cifAvailability</t>
-  </si>
-  <si>
-    <t>form.section_d_-_sops_guidelines_policies_and_job_aids_-_sops_guidelines_policie.clientRegisterAvailability</t>
-  </si>
-  <si>
-    <t>form.section_d_-_sops_guidelines_policies_and_job_aids_-_sops_guidelines_policie.condomDemo</t>
-  </si>
-  <si>
-    <t>form.section_d_-_sops_guidelines_policies_and_job_aids_-_sops_guidelines_policie.condomInsertionModels</t>
-  </si>
-  <si>
-    <t>form.section_d_-_sops_guidelines_policies_and_job_aids_-_sops_guidelines_policie.condomsAvailability</t>
-  </si>
-  <si>
-    <t>form.section_d_-_sops_guidelines_policies_and_job_aids_-_sops_guidelines_policie.condomsAvailabilitySOP</t>
-  </si>
-  <si>
-    <t>form.section_d_-_sops_guidelines_policies_and_job_aids_-_sops_guidelines_policie.copy-1-of-adequateStaff</t>
-  </si>
-  <si>
-    <t>form.section_d_-_sops_guidelines_policies_and_job_aids_-_sops_guidelines_policie.dataCollectionToolsCurrentVersion</t>
-  </si>
-  <si>
-    <t>form.section_d_-_sops_guidelines_policies_and_job_aids_-_sops_guidelines_policie.htsCounselingSOP</t>
-  </si>
-  <si>
-    <t>form.section_d_-_sops_guidelines_policies_and_job_aids_-_sops_guidelines_policie.htsCounselingSOPFollowUp</t>
-  </si>
-  <si>
-    <t>form.section_d_-_sops_guidelines_policies_and_job_aids_-_sops_guidelines_policie.htsQualityAssurance</t>
-  </si>
-  <si>
-    <t>form.section_d_-_sops_guidelines_policies_and_job_aids_-_sops_guidelines_policie.htsStaffRefresherTraining</t>
-  </si>
-  <si>
-    <t>form.section_d_-_sops_guidelines_policies_and_job_aids_-_sops_guidelines_policie.internalControls</t>
-  </si>
-  <si>
-    <t>form.section_d_-_sops_guidelines_policies_and_job_aids_-_sops_guidelines_policie.medicalEmergencySOP</t>
-  </si>
-  <si>
-    <t>form.section_d_-_sops_guidelines_policies_and_job_aids_-_sops_guidelines_policie.patientRightFollowUp</t>
-  </si>
-  <si>
-    <t>form.section_d_-_sops_guidelines_policies_and_job_aids_-_sops_guidelines_policie.patientRights</t>
-  </si>
-  <si>
-    <t>form.section_d_-_sops_guidelines_policies_and_job_aids_-_sops_guidelines_policie.postCouncellingCoverageonHTSLinkages</t>
-  </si>
-  <si>
-    <t>form.section_d_-_sops_guidelines_policies_and_job_aids_-_sops_guidelines_policie.postOperativeCareGuidelines</t>
-  </si>
-  <si>
-    <t>form.section_d_-_sops_guidelines_policies_and_job_aids_-_sops_guidelines_policie.postOperativeFollowUpProtocol</t>
-  </si>
-  <si>
-    <t>form.section_d_-_sops_guidelines_policies_and_job_aids_-_sops_guidelines_policie.postOperativeWrittenInstructions</t>
-  </si>
-  <si>
-    <t>form.section_d_-_sops_guidelines_policies_and_job_aids_-_sops_guidelines_policie.pretestInformationRelevance</t>
-  </si>
-  <si>
-    <t>form.section_d_-_sops_guidelines_policies_and_job_aids_-_sops_guidelines_policie.programme_visibility</t>
-  </si>
-  <si>
-    <t>form.section_d_-_sops_guidelines_policies_and_job_aids_-_sops_guidelines_policie.qualityImprovementMinutes</t>
-  </si>
-  <si>
-    <t>form.section_d_-_sops_guidelines_policies_and_job_aids_-_sops_guidelines_policie.question31</t>
-  </si>
-  <si>
-    <t>form.section_d_-_sops_guidelines_policies_and_job_aids_-_sops_guidelines_policie.referralLinkageForms</t>
-  </si>
-  <si>
-    <t>form.section_d_-_sops_guidelines_policies_and_job_aids_-_sops_guidelines_policie.referralTrackingStandards</t>
-  </si>
-  <si>
-    <t>form.section_d_-_sops_guidelines_policies_and_job_aids_-_sops_guidelines_policie.registerCompletion</t>
-  </si>
-  <si>
-    <t>form.section_d_-_sops_guidelines_policies_and_job_aids_-_sops_guidelines_policie.saeReportingForm</t>
-  </si>
-  <si>
-    <t>form.section_d_-_sops_guidelines_policies_and_job_aids_-_sops_guidelines_policie.sops_guidelines_policies_and_job_aids_-_sticondom</t>
-  </si>
-  <si>
-    <t>form.section_d_-_sops_guidelines_policies_and_job_aids_-_sops_guidelines_policie.spaceforPostTestingCounselling</t>
-  </si>
-  <si>
-    <t>form.section_d_-_sops_guidelines_policies_and_job_aids_-_sops_guidelines_policie.staffJobDescription</t>
-  </si>
-  <si>
-    <t>form.section_d_-_sops_guidelines_policies_and_job_aids_-_sops_guidelines_policie.stiRegister</t>
-  </si>
-  <si>
-    <t>form.section_d_-_sops_guidelines_policies_and_job_aids_-_sops_guidelines_policie.vmmcSurgicalManual</t>
-  </si>
-  <si>
-    <t>form.section_d_-_sops_guidelines_policies_and_job_aids_-_sops_guidelines_policie.wasteDisposalSOP</t>
-  </si>
-  <si>
-    <t>form.section_d_-_sops_guidelines_policies_and_job_aids_-_sops_guidelines_policie.work_plan</t>
-  </si>
-  <si>
-    <t>form.section_d_-_sops_guidelines_policies_and_job_aids_-_sops_guidelines_policie.writtenGuidance</t>
-  </si>
-  <si>
-    <t>form.copy-1-of-question1.InformationCommunicationComment</t>
-  </si>
-  <si>
-    <t>form.copy-1-of-question1.abstinenceRecommendations</t>
-  </si>
-  <si>
-    <t>form.copy-1-of-question1.accurateInformationProvided</t>
-  </si>
-  <si>
-    <t>form.copy-1-of-question1.communication_to_clients_-_individual_counseling_sessions</t>
-  </si>
-  <si>
-    <t>form.copy-1-of-question1.communicationtoClients</t>
-  </si>
-  <si>
-    <t>form.copy-1-of-question1.condomUseExplanation</t>
-  </si>
-  <si>
-    <t>form.copy-1-of-question1.explanationofBasicHIVfacts</t>
-  </si>
-  <si>
-    <t>form.copy-1-of-question1.explanationofHIVandAIDSriskReduction</t>
-  </si>
-  <si>
-    <t>form.copy-1-of-question1.explanationofMCMethods</t>
-  </si>
-  <si>
-    <t>form.copy-1-of-question1.htsandSTIServicesonVMMC</t>
-  </si>
-  <si>
-    <t>form.copy-1-of-question1.importanceofHTS</t>
-  </si>
-  <si>
-    <t>form.copy-1-of-question1.mcPartialProtectiononHIV</t>
-  </si>
-  <si>
-    <t>form.copy-1-of-question1.mcofHIVPosClients</t>
-  </si>
-  <si>
-    <t>form.copy-1-of-question1.sexAbstinenceVMMChealing</t>
-  </si>
-  <si>
-    <t>form.copy-2-of-question1.IndividualInformationComment</t>
-  </si>
-  <si>
-    <t>form.copy-2-of-question1.abstinenceRecommendationsInd</t>
-  </si>
-  <si>
-    <t>form.copy-2-of-question1.accurateInformationProvidedInd</t>
-  </si>
-  <si>
-    <t>form.copy-2-of-question1.communication_to_clients_-_individual_counseling_sessions</t>
-  </si>
-  <si>
-    <t>form.copy-2-of-question1.condomUseExplanationInd</t>
-  </si>
-  <si>
-    <t>form.copy-2-of-question1.explanationofBasicHIVfactsInd</t>
-  </si>
-  <si>
-    <t>form.copy-2-of-question1.explanationofHIVandAIDSriskReductionInd</t>
-  </si>
-  <si>
-    <t>form.copy-2-of-question1.explanationofMCMethodsInd</t>
-  </si>
-  <si>
-    <t>form.copy-2-of-question1.htsandSTIServicesonVMMCInd</t>
-  </si>
-  <si>
-    <t>form.copy-2-of-question1.importanceofHTSInd</t>
-  </si>
-  <si>
-    <t>form.copy-2-of-question1.mcPartialProtectiononHIVInd</t>
-  </si>
-  <si>
-    <t>form.copy-2-of-question1.mcofHIVPosClientsInd</t>
-  </si>
-  <si>
-    <t>form.copy-2-of-question1.sexAbstinenceVMMChealingInd</t>
-  </si>
-  <si>
-    <t>form.copy-3-of-question1.Addressed_client_HIV_understanding_and_misperceptions</t>
-  </si>
-  <si>
-    <t>form.copy-3-of-question1.Affirmed_that_client_could_still_undergo_VMMC</t>
-  </si>
-  <si>
-    <t>form.copy-3-of-question1.Checked_for_client_understanding_throughout_session</t>
-  </si>
-  <si>
-    <t>form.copy-3-of-question1.Communicated_in_clear_simple_terms</t>
-  </si>
-  <si>
-    <t>form.copy-3-of-question1.Communication_to_Clients</t>
-  </si>
-  <si>
-    <t>form.copy-3-of-question1.Conducted_confirmatory_test_according_to_national_algorithm</t>
-  </si>
-  <si>
-    <t>form.copy-3-of-question1.Delivered_positive_results_directly_and_clearly</t>
-  </si>
-  <si>
-    <t>form.copy-3-of-question1.Described_warning_signs_of_adverse_events_and_recommendations_for_managing</t>
-  </si>
-  <si>
-    <t>form.copy-3-of-question1.Emphasized_how_VMMC_must_be_combined_with_condom</t>
-  </si>
-  <si>
-    <t>form.copy-3-of-question1.Emphasized_importance_of_consistent_proper_condom_use</t>
-  </si>
-  <si>
-    <t>form.copy-3-of-question1.Emphasized_ways_to_improve_compliance_with_abstinence</t>
-  </si>
-  <si>
-    <t>form.copy-3-of-question1.Encourage_partner_and_family_HIV_testing</t>
-  </si>
-  <si>
-    <t>form.copy-3-of-question1.Encouraged_disclosure_to_partners_and_offered_assistance</t>
-  </si>
-  <si>
-    <t>form.copy-3-of-question1.Engaged_client_with_respect_and_without_judgment</t>
-  </si>
-  <si>
-    <t>form.copy-3-of-question1.Explained_that_VMMC_recovery_may_take_longer_when_HIV_positive</t>
-  </si>
-  <si>
-    <t>form.copy-3-of-question1.Gave_accurate_information_note_errors_of_fact</t>
-  </si>
-  <si>
-    <t>form.copy-3-of-question1.Gave_oral_and_written_instructions_for_contacting_VMMC_staff</t>
-  </si>
-  <si>
-    <t>form.copy-3-of-question1.IndividualInformationComment</t>
-  </si>
-  <si>
-    <t>form.copy-3-of-question1.Initiated_referral_linkage_to_HIV_care_and_treatment</t>
-  </si>
-  <si>
-    <t>form.copy-3-of-question1.Offered_client_appropriate_emotional_support</t>
-  </si>
-  <si>
-    <t>form.copy-3-of-question1.Provided_information_on_positive_living_for_persons_testing_HIV_positive</t>
-  </si>
-  <si>
-    <t>form.copy-3-of-question1.Provided_instructions_for_pain_management</t>
-  </si>
-  <si>
-    <t>form.copy-3-of-question1.Provided_wound_care_flier_and_clear_accurate_instructions_on_wound_care</t>
-  </si>
-  <si>
-    <t>form.copy-3-of-question1.Reaffirmed_need_for_six_week_abstinence_period_during_VMMC_healing</t>
-  </si>
-  <si>
-    <t>form.copy-3-of-question1.Recorded_client_blood_pressure_15_minutes_after_arrival</t>
-  </si>
-  <si>
-    <t>form.copy-3-of-question1.Recorded_client_blood_pressure_on_arrival</t>
-  </si>
-  <si>
-    <t>form.copy-3-of-question1.Recorded_client_pulse_and_respiration_rate_15_minutes_after_arrival</t>
-  </si>
-  <si>
-    <t>form.copy-3-of-question1.Recorded_client_pulse_and_respiration_rate_on_arrival</t>
-  </si>
-  <si>
-    <t>form.copy-3-of-question1.Recorded_client_temperature_15_minutes_after_arrival</t>
-  </si>
-  <si>
-    <t>form.copy-3-of-question1.Recorded_client_temperature_on_arrival</t>
-  </si>
-  <si>
-    <t>form.copy-3-of-question1.Warned_against_applying_any_home_or_traditional_remedies</t>
-  </si>
-  <si>
-    <t>form.copy-3-of-question1.Was_the_test_result_Positive</t>
-  </si>
-  <si>
-    <t>form.copy-3-of-question1.Withheld_results_Positive</t>
-  </si>
-  <si>
-    <t>form.copy-3-of-question1.accurateInformationProvided</t>
-  </si>
-  <si>
-    <t>form.copy-3-of-question1.ageofClienthts</t>
-  </si>
-  <si>
-    <t>form.copy-3-of-question1.awareandAddressingClientNonVerbalCues</t>
-  </si>
-  <si>
-    <t>form.copy-3-of-question1.benefitsofHIVStatusReinforced</t>
-  </si>
-  <si>
-    <t>form.copy-3-of-question1.clientConsentHIVCounselling</t>
-  </si>
-  <si>
-    <t>form.copy-3-of-question1.clientHIVRisk</t>
-  </si>
-  <si>
-    <t>form.copy-3-of-question1.clientdeclineHIVTested</t>
-  </si>
-  <si>
-    <t>form.copy-3-of-question1.clientsTreatedwithRespect</t>
-  </si>
-  <si>
-    <t>form.copy-3-of-question1.confedentiallityAssuredHTSCounseling</t>
-  </si>
-  <si>
-    <t>form.copy-3-of-question1.disposalofLancetandLotion</t>
-  </si>
-  <si>
-    <t>form.copy-3-of-question1.emphasisedRetestingAfter3Months</t>
-  </si>
-  <si>
-    <t>form.copy-3-of-question1.gloves</t>
-  </si>
-  <si>
-    <t>form.copy-3-of-question1.hivmisconceptionsAddressed</t>
-  </si>
-  <si>
-    <t>form.copy-3-of-question1.htsAlgorithm</t>
-  </si>
-  <si>
-    <t>form.copy-3-of-question1.htsBenefitsandLimitations</t>
-  </si>
-  <si>
-    <t>form.copy-3-of-question1.htsProcessExplained</t>
-  </si>
-  <si>
-    <t>form.copy-3-of-question1.htsScrrenToolUsage</t>
-  </si>
-  <si>
-    <t>form.copy-3-of-question1.informationPresentedClearly</t>
-  </si>
-  <si>
-    <t>form.copy-3-of-question1.partnerTesting</t>
-  </si>
-  <si>
-    <t>form.copy-3-of-question1.reinforcementofHIVRisks</t>
-  </si>
-  <si>
-    <t>form.copy-3-of-question1.remindedVMMCisPartialProtectionofHIV</t>
-  </si>
-  <si>
-    <t>form.copy-3-of-question1.resultsWithHeld</t>
-  </si>
-  <si>
-    <t>form.copy-3-of-question1.reviwedActualHIVCounsellingSession</t>
-  </si>
-  <si>
-    <t>form.copy-3-of-question1.testResultNegative</t>
-  </si>
-  <si>
-    <t>form.copy-3-of-question1.testResultsProvidedTimeously</t>
-  </si>
-  <si>
-    <t>form.copy-3-of-question1.testingKitCurrent</t>
-  </si>
-  <si>
-    <t>form.copy-3-of-question1.testingSpace</t>
-  </si>
-  <si>
-    <t>form.copy-3-of-question1.testingTimeInterval</t>
-  </si>
-  <si>
-    <t>form.copy-3-of-question1.testingatLaterDate</t>
-  </si>
-  <si>
-    <t>form.copy-3-of-question1.understandingChecked</t>
-  </si>
-  <si>
-    <t>form.copy-3-of-question1.workingTimePiece</t>
-  </si>
-  <si>
-    <t>form.copy-4-of-question1.Addressed_client_HIV_understanding_and_misperceptions</t>
-  </si>
-  <si>
-    <t>form.copy-4-of-question1.Affirmed_client_VMMC_decision</t>
-  </si>
-  <si>
-    <t>form.copy-4-of-question1.Affirmed_clients_VMMC_decision</t>
-  </si>
-  <si>
-    <t>form.copy-4-of-question1.Affirmed_that_client_could_still_undergo_VMMC</t>
-  </si>
-  <si>
-    <t>form.copy-4-of-question1.Care_provider_completed_a_physical_exam</t>
-  </si>
-  <si>
-    <t>form.copy-4-of-question1.Checked_for_client_understanding_throughout_session</t>
-  </si>
-  <si>
-    <t>form.copy-4-of-question1.Checked_for_client_understanding_throughout_sessionFu</t>
-  </si>
-  <si>
-    <t>form.copy-4-of-question1.Clinic_staff_can_explain_or_show_how_they_use_these_materials_in_client_education_and_counseling</t>
-  </si>
-  <si>
-    <t>form.copy-4-of-question1.Communicated_in_clear_simple_terms</t>
-  </si>
-  <si>
-    <t>form.copy-4-of-question1.Communicated_in_clear_simple_termsFu</t>
-  </si>
-  <si>
-    <t>form.copy-4-of-question1.Communication_to_Clients</t>
-  </si>
-  <si>
-    <t>form.copy-4-of-question1.Communication_to_Clients_-_HIV_and_MCEducation</t>
-  </si>
-  <si>
-    <t>form.copy-4-of-question1.Communication_to_Clients_-_HIV_and_MCEducationFu</t>
-  </si>
-  <si>
-    <t>form.copy-4-of-question1.Communication_to_Clients_-_Information_on_Materials</t>
-  </si>
-  <si>
-    <t>form.copy-4-of-question1.Conducted_confirmatory_test_according_to_national_algorithm</t>
-  </si>
-  <si>
-    <t>form.copy-4-of-question1.Delivered_positive_results_directly_and_clearly</t>
-  </si>
-  <si>
-    <t>form.copy-4-of-question1.Described_warning_signs_of_adverse_events_and_recommendations_for_managing</t>
-  </si>
-  <si>
-    <t>form.copy-4-of-question1.Discussed_warning_signs_of_adverse_events</t>
-  </si>
-  <si>
-    <t>form.copy-4-of-question1.Emergency_contact_number_operational</t>
-  </si>
-  <si>
-    <t>form.copy-4-of-question1.Emphasized_how_VMMC_must_be_combined_with_condom</t>
-  </si>
-  <si>
-    <t>form.copy-4-of-question1.Emphasized_importance_of_consistent_proper_condom_use</t>
-  </si>
-  <si>
-    <t>form.copy-4-of-question1.Emphasized_the_need_for_six_week_abstinence_period_during_VMMC_healing</t>
-  </si>
-  <si>
-    <t>form.copy-4-of-question1.Emphasized_ways_to_improve_compliance_with_abstinence</t>
-  </si>
-  <si>
-    <t>form.copy-4-of-question1.Emphasized_ways_to_improve_compliance_with_abstinenceFu</t>
-  </si>
-  <si>
-    <t>form.copy-4-of-question1.Encourage_partner_and_family_HIV_testing</t>
-  </si>
-  <si>
-    <t>form.copy-4-of-question1.Encouraged_disclosure_to_partners_and_offered_assistance</t>
-  </si>
-  <si>
-    <t>form.copy-4-of-question1.Engaged_client_with_respect_and_without_judgment</t>
-  </si>
-  <si>
-    <t>form.copy-4-of-question1.Engaged_client_with_respect_and_without_judgmentFu</t>
-  </si>
-  <si>
-    <t>form.copy-4-of-question1.Examine_all_in-service_communication_materials</t>
-  </si>
-  <si>
-    <t>form.copy-4-of-question1.Examine_all_in-service_communication_materialsFu</t>
-  </si>
-  <si>
-    <t>form.copy-4-of-question1.Explained_effective_wound_care_and_pain_management</t>
-  </si>
-  <si>
-    <t>form.copy-4-of-question1.Explained_importance_of_not_applying_any_home_or_traditional_remedies</t>
-  </si>
-  <si>
-    <t>form.copy-4-of-question1.Explained_that_VMMC_recovery_may_take_longer_when_HIV_positive</t>
-  </si>
-  <si>
-    <t>form.copy-4-of-question1.Gave_accurate_information</t>
-  </si>
-  <si>
-    <t>form.copy-4-of-question1.Gave_accurate_information_note_errors_of_fact</t>
-  </si>
-  <si>
-    <t>form.copy-4-of-question1.Gave_oral_and_written_instructions_for_contacting_VMMC_staff</t>
-  </si>
-  <si>
-    <t>form.copy-4-of-question1.Gave_procedures_for_contacting_VMMC_staff</t>
-  </si>
-  <si>
-    <t>form.copy-4-of-question1.Guidance_for_reducing_individual_HIV_risk</t>
-  </si>
-  <si>
-    <t>form.copy-4-of-question1.Information_on_need_for_abstinence_during_VMMC_healing</t>
-  </si>
-  <si>
-    <t>form.copy-4-of-question1.Initiated_referral_linkage_to_HIV_care_and_treatment</t>
-  </si>
-  <si>
-    <t>form.copy-4-of-question1.Is_this_a_follow_up_clinic_visit_post_VMMC</t>
-  </si>
-  <si>
-    <t>form.copy-4-of-question1.Materials_are_legible_and_in_good-condition</t>
-  </si>
-  <si>
-    <t>form.copy-4-of-question1.Materials_tailored_to_specific_audiences_are_available</t>
-  </si>
-  <si>
-    <t>form.copy-4-of-question1.Modes_of_HIV_transmission_and_relative_HIV-risk_assessment</t>
-  </si>
-  <si>
-    <t>form.copy-4-of-question1.Offered_client_appropriate_emotional_support</t>
-  </si>
-  <si>
-    <t>form.copy-4-of-question1.On-site_materials_adequately_support_in-service_communication</t>
-  </si>
-  <si>
-    <t>form.copy-4-of-question1.On-site_signage_is_sufficient_to_direct_clients</t>
-  </si>
-  <si>
-    <t>form.copy-4-of-question1.On-site_signage_is_sufficient_to_direct_clients_to_VMMC_service_locations</t>
-  </si>
-  <si>
-    <t>form.copy-4-of-question1.Provided_information_on_positive_living_for_persons_testing_HIV_positive</t>
-  </si>
-  <si>
-    <t>form.copy-4-of-question1.Provided_instructions_for_pain_management</t>
-  </si>
-  <si>
-    <t>form.copy-4-of-question1.Provided_wound_care_flier_and_clear_accurate_instructions_on_wound_care</t>
-  </si>
-  <si>
-    <t>form.copy-4-of-question1.Provider_ensured_client_privacy_during_examination</t>
-  </si>
-  <si>
-    <t>form.copy-4-of-question1.Reaffirmed_need_for_six_week_abstinence_period_during_VMMC_healing</t>
-  </si>
-  <si>
-    <t>form.copy-4-of-question1.Recorded_client_blood_pressure_15_minutes_after_arrival</t>
-  </si>
-  <si>
-    <t>form.copy-4-of-question1.Recorded_client_blood_pressure_on_arrival</t>
-  </si>
-  <si>
-    <t>form.copy-4-of-question1.Recorded_client_pulse_and_respiration_rate_15_minutes_after_arrival</t>
-  </si>
-  <si>
-    <t>form.copy-4-of-question1.Recorded_client_pulse_and_respiration_rate_on_arrival</t>
-  </si>
-  <si>
-    <t>form.copy-4-of-question1.Recorded_client_temperature_15_minutes_after_arrival</t>
-  </si>
-  <si>
-    <t>form.copy-4-of-question1.Recorded_client_temperature_on_arrival</t>
-  </si>
-  <si>
-    <t>form.copy-4-of-question1.Reviewer_observed_follow-up_clinic_visit_on</t>
-  </si>
-  <si>
-    <t>form.copy-4-of-question1.Specific_contact_information_for_reaching_VMMC_staff</t>
-  </si>
-  <si>
-    <t>form.copy-4-of-question1.Warned_against_applying_any_home_or_traditional_remedies</t>
-  </si>
-  <si>
-    <t>form.copy-4-of-question1.Warning_against_applying_any_home_or_tradional_remedies</t>
-  </si>
-  <si>
-    <t>form.copy-4-of-question1.Was_the_test_result_Positive</t>
-  </si>
-  <si>
-    <t>form.copy-4-of-question1.Was_the_visit_documented_in_CIR_and_Register</t>
-  </si>
-  <si>
-    <t>form.copy-4-of-question1.Was_the_visit_documented_in_CIR_and_RegisterFu</t>
-  </si>
-  <si>
-    <t>form.copy-4-of-question1.Withheld_results_Positive</t>
-  </si>
-  <si>
-    <t>form.copy-4-of-question1.Wound_care_instructions</t>
-  </si>
-  <si>
-    <t>form.copy-4-of-question1.ageofClientfollowup</t>
-  </si>
-  <si>
-    <t>form.copy-4-of-question1.basic_hiv_and_aids_risk_reduction_information_including_other_stis</t>
-  </si>
-  <si>
-    <t>form.copy-4-of-question1.disposalofLancetandLotion</t>
-  </si>
-  <si>
-    <t>form.copy-4-of-question1.emphasisedRetestingAfter3Months</t>
-  </si>
-  <si>
-    <t>form.copy-4-of-question1.give_overall_comment_communication</t>
-  </si>
-  <si>
-    <t>form.copy-4-of-question1.gloves</t>
-  </si>
-  <si>
-    <t>form.copy-4-of-question1.htsAlgorithm</t>
-  </si>
-  <si>
-    <t>form.copy-4-of-question1.information_on_the_status_of_clients_healing</t>
-  </si>
-  <si>
-    <t>form.copy-4-of-question1.materials_provide_accurate_and_adequate_information_in_the_following_areas_</t>
-  </si>
-  <si>
-    <t>form.copy-4-of-question1.remindedVMMCisPartialProtectionofHIV</t>
-  </si>
-  <si>
-    <t>form.copy-4-of-question1.resultsWithHeld</t>
-  </si>
-  <si>
-    <t>form.copy-4-of-question1.testResultNegative</t>
-  </si>
-  <si>
-    <t>form.copy-4-of-question1.testResultsProvidedTimeously</t>
-  </si>
-  <si>
-    <t>form.copy-4-of-question1.testingKitCurrent</t>
-  </si>
-  <si>
-    <t>form.copy-4-of-question1.testingSpace</t>
-  </si>
-  <si>
-    <t>form.copy-4-of-question1.testingTimeInterval</t>
-  </si>
-  <si>
-    <t>form.copy-4-of-question1.workingTimePiece</t>
-  </si>
-  <si>
-    <t>form.question1.IndividualCounsellingComment</t>
-  </si>
-  <si>
-    <t>form.question1.clientAssuredConfidentialityInd</t>
-  </si>
-  <si>
-    <t>form.question1.clientTreatmentInd</t>
-  </si>
-  <si>
-    <t>form.question1.clientsParticipationEncouragementInd</t>
-  </si>
-  <si>
-    <t>form.question1.communication_to_clients_-_individual_counseling_sessions</t>
-  </si>
-  <si>
-    <t>form.question1.condomDemoFemaleInd</t>
-  </si>
-  <si>
-    <t>form.question1.condomDemoInd</t>
-  </si>
-  <si>
-    <t>form.question1.contentTailoredByAge</t>
-  </si>
-  <si>
-    <t>form.question1.counsellingSpacePrivacyInd</t>
-  </si>
-  <si>
-    <t>form.question1.counselorAudibleInd</t>
-  </si>
-  <si>
-    <t>form.question1.counselorChecksUnderstandingInd</t>
-  </si>
-  <si>
-    <t>form.question1.easyObservationofPropsInd</t>
-  </si>
-  <si>
-    <t>form.question1.elicitationofClientAge</t>
-  </si>
-  <si>
-    <t>form.question1.informationClearInd</t>
-  </si>
-  <si>
-    <t>form.question1.probingofMentalStatus</t>
-  </si>
-  <si>
-    <t>form.question1.probingofSRHIssues</t>
-  </si>
-  <si>
-    <t>form.question1.probingofSocialCircumstances</t>
-  </si>
-  <si>
-    <t>form.question1.reviewOfActualSession</t>
-  </si>
-  <si>
-    <t>form.question1.sessionNotInterruptedInd</t>
-  </si>
-  <si>
-    <t>form.question1.through_direct_observation_optimal_or_interviews_with_counselors_determine_</t>
-  </si>
-  <si>
-    <t>form.section_e_-_communication.Pre-OPGroupCommunicationComment</t>
-  </si>
-  <si>
-    <t>form.section_e_-_communication.actualObservedSession</t>
-  </si>
-  <si>
-    <t>form.section_e_-_communication.appropriateGroupAssembling</t>
-  </si>
-  <si>
-    <t>form.section_e_-_communication.clearPresentationofInformation</t>
-  </si>
-  <si>
-    <t>form.section_e_-_communication.clientsAssuredofConfidentiality</t>
-  </si>
-  <si>
-    <t>form.section_e_-_communication.communication_to_clients_-_pre-op_group_counseling</t>
-  </si>
-  <si>
-    <t>form.section_e_-_communication.condomDemoFemale</t>
-  </si>
-  <si>
-    <t>form.section_e_-_communication.condomDemoMale</t>
-  </si>
-  <si>
-    <t>form.section_e_-_communication.councelorChecksforUnderstanding</t>
-  </si>
-  <si>
-    <t>form.section_e_-_communication.councelorTreatmentofClients</t>
-  </si>
-  <si>
-    <t>form.section_e_-_communication.counsellingSpacePrivacyPreOp</t>
-  </si>
-  <si>
-    <t>form.section_e_-_communication.counselorAudible</t>
-  </si>
-  <si>
-    <t>form.section_e_-_communication.counsolorManagementofGroupDynamics</t>
-  </si>
-  <si>
-    <t>form.section_e_-_communication.directObservationofCounselorsonCommunication</t>
-  </si>
-  <si>
-    <t>form.section_e_-_communication.easyObservationOfProps</t>
-  </si>
-  <si>
-    <t>form.section_e_-_communication.encouragementofQuestionsandClientParticipation</t>
-  </si>
-  <si>
-    <t>form.section_e_-_communication.separtionofClientByAge</t>
-  </si>
-  <si>
-    <t>form.section_e_-_communication.sessionNotInterruptedPreOp</t>
-  </si>
-  <si>
     <t>0778c330a59625e988e36d5a7d0386b6</t>
   </si>
   <si>
@@ -1495,6 +1495,24 @@
     <t>zdip-qa</t>
   </si>
   <si>
+    <t>9ccde4a8-a57f-4b32-aeba-24e51359b8c3</t>
+  </si>
+  <si>
+    <t>ff623f5a-4518-4bb0-a8c2-280a39af8aaa</t>
+  </si>
+  <si>
+    <t>599ab9eb-a204-4e22-88ed-a29b871547bb</t>
+  </si>
+  <si>
+    <t>ea3f0b04-73b1-46f6-9153-58b27ba582c5</t>
+  </si>
+  <si>
+    <t>4ff26746-2332-428d-ba05-c5ac6144d470</t>
+  </si>
+  <si>
+    <t>1eaaec2d-3b7f-4424-ac6a-8bf8520e5580</t>
+  </si>
+  <si>
     <t>c048265d-ed07-48a8-ac68-f34671ba7e02</t>
   </si>
   <si>
@@ -1528,6 +1546,24 @@
     <t>a2abb0db-ac10-41fb-9d6b-67afa0100c3a</t>
   </si>
   <si>
+    <t>2025-07-01T10:44:54.412870Z</t>
+  </si>
+  <si>
+    <t>2025-07-01T10:42:48.928654Z</t>
+  </si>
+  <si>
+    <t>2025-07-01T10:42:48.927833Z</t>
+  </si>
+  <si>
+    <t>2025-07-01T10:23:04.195157Z</t>
+  </si>
+  <si>
+    <t>2025-07-01T09:39:50.155444Z</t>
+  </si>
+  <si>
+    <t>2025-07-01T09:33:10.934252Z</t>
+  </si>
+  <si>
     <t>2025-07-01T06:31:52.530683Z</t>
   </si>
   <si>
@@ -1561,6 +1597,24 @@
     <t>2025-06-30T05:42:07.802779Z</t>
   </si>
   <si>
+    <t>2025-07-01T10:44:54.322797Z</t>
+  </si>
+  <si>
+    <t>2025-07-01T10:42:20.908622Z</t>
+  </si>
+  <si>
+    <t>2025-07-01T10:42:20.433043Z</t>
+  </si>
+  <si>
+    <t>2025-07-01T10:23:04.055931Z</t>
+  </si>
+  <si>
+    <t>2025-07-01T09:39:44.353253Z</t>
+  </si>
+  <si>
+    <t>2025-07-01T09:33:08.411101Z</t>
+  </si>
+  <si>
     <t>2025-07-01T06:30:43.887465Z</t>
   </si>
   <si>
@@ -1594,6 +1648,24 @@
     <t>2025-06-30T05:42:07.558273Z</t>
   </si>
   <si>
+    <t>2025-07-01T10:44:54.361626Z</t>
+  </si>
+  <si>
+    <t>2025-07-01T10:42:20.937371Z</t>
+  </si>
+  <si>
+    <t>2025-07-01T10:42:20.488276Z</t>
+  </si>
+  <si>
+    <t>2025-07-01T10:23:04.130601Z</t>
+  </si>
+  <si>
+    <t>2025-07-01T09:39:44.443677Z</t>
+  </si>
+  <si>
+    <t>2025-07-01T09:33:08.528500Z</t>
+  </si>
+  <si>
     <t>2025-07-01T06:30:43.988657Z</t>
   </si>
   <si>
@@ -1627,6 +1699,15 @@
     <t>2025-06-30T05:42:07.666045Z</t>
   </si>
   <si>
+    <t>77.246.52.46</t>
+  </si>
+  <si>
+    <t>77.246.50.232</t>
+  </si>
+  <si>
+    <t>77.246.55.167</t>
+  </si>
+  <si>
     <t>77.246.55.171</t>
   </si>
   <si>
@@ -1660,6 +1741,24 @@
     <t>text/xml</t>
   </si>
   <si>
+    <t>https://zdip.zimttech.org/a/zdip-qa/api/form_attachment/v1/9ccde4a8-a57f-4b32-aeba-24e51359b8c3/form.xml</t>
+  </si>
+  <si>
+    <t>https://zdip.zimttech.org/a/zdip-qa/api/form_attachment/v1/ff623f5a-4518-4bb0-a8c2-280a39af8aaa/form.xml</t>
+  </si>
+  <si>
+    <t>https://zdip.zimttech.org/a/zdip-qa/api/form_attachment/v1/599ab9eb-a204-4e22-88ed-a29b871547bb/form.xml</t>
+  </si>
+  <si>
+    <t>https://zdip.zimttech.org/a/zdip-qa/api/form_attachment/v1/ea3f0b04-73b1-46f6-9153-58b27ba582c5/form.xml</t>
+  </si>
+  <si>
+    <t>https://zdip.zimttech.org/a/zdip-qa/api/form_attachment/v1/4ff26746-2332-428d-ba05-c5ac6144d470/form.xml</t>
+  </si>
+  <si>
+    <t>https://zdip.zimttech.org/a/zdip-qa/api/form_attachment/v1/1eaaec2d-3b7f-4424-ac6a-8bf8520e5580/form.xml</t>
+  </si>
+  <si>
     <t>https://zdip.zimttech.org/a/zdip-qa/api/form_attachment/v1/c048265d-ed07-48a8-ac68-f34671ba7e02/form.xml</t>
   </si>
   <si>
@@ -1702,16 +1801,19 @@
     <t>c</t>
   </si>
   <si>
+    <t>e</t>
+  </si>
+  <si>
+    <t>d</t>
+  </si>
+  <si>
+    <t>b</t>
+  </si>
+  <si>
     <t>a</t>
   </si>
   <si>
-    <t>b</t>
-  </si>
-  <si>
-    <t>d</t>
-  </si>
-  <si>
-    <t>e</t>
+    <t>Environmental_Health_Technicians Other_Health_Programmers</t>
   </si>
   <si>
     <t>Community_Nursing DAC Other_Health_Programmers</t>
@@ -1726,10 +1828,16 @@
     <t>Health_Promotional_Officer Community_Nursing</t>
   </si>
   <si>
+    <t>Headmen Village_Heads Church_Leaders</t>
+  </si>
+  <si>
     <t>Chiefs Headmen Councilors</t>
   </si>
   <si>
     <t>Chiefs Headmen Village_Heads</t>
+  </si>
+  <si>
+    <t>Yes the site would day and moonlight by the tobacco farms as they would be processing tobacco in the barns.</t>
   </si>
   <si>
     <t>Yes. the team introduced Information sessions for teachers to correct myths and misconceptions as well as to promote buy-in. In addition, the team is conducting girl child empowerment sessions entailing girl-specific ASRH education (e.g., menstrual hygiene), including VMMC sensitisation. Apparently, after sensitising girls in schools, the team has increased VMMC uptake in about 3 schools through tasking the empowered girls to give boys the consent forms to take home for parental consent. Prior to this innovation, it was reported that boys would refuse to collect consent forms out of fear of being ridiculed by the girls.
@@ -1745,6 +1853,9 @@
     <t>Yes, they introduced inter program collaboration</t>
   </si>
   <si>
+    <t>Men_who_go_to_work Other_highly_mobile_men Remote_Communities</t>
+  </si>
+  <si>
     <t>Artisanal_Miners Men_who_go_to_work Other_highly_mobile_men Remote_Communities</t>
   </si>
   <si>
@@ -1755,6 +1866,9 @@
   </si>
   <si>
     <t>Artisanal_Miners Men_who_go_to_work</t>
+  </si>
+  <si>
+    <t>Workplace to be shared with outreach clinics for better efficiency in Demand creation.</t>
   </si>
   <si>
     <t>The DC infrastructure in the district is strong.   Rimuka clinic is being supported by 5 consistently active mobilises and 3 inconsistently active ones. However, the DC system needs further strengthening through (1) promoting the more active involvement of EHTs, HPO' s office and the Community Nursing department, (2) involving the FBO sector (e.g., pastors), (3) increasing visibility through drafting and publishing success stories ( e.g., strategic involvement of girls in motivating boys to pick consent forms at school), (4) concreting the workplace through incorporating SMART objectives. The team plans to target highly mobile men such as truck drivers - and they have already identified a truck stop under construction to serve as an ideal intervention venue.   The team requested (1) an upward review of the Community Dialogue budget from $60 to $110 and (2) an increase in promotional materials to boost programme visibility.</t>
@@ -1780,34 +1894,52 @@
     <t>http://openrosa.org/jr/xforms</t>
   </si>
   <si>
+    <t>CommCare Android, version "2.56.1"(471796). App v669. CommCare Version 2.56.1. Build 471796, built on: 2025-05-12</t>
+  </si>
+  <si>
     <t>CommCare Android, version "2.57.0"(474021). App v669. CommCare Version 2.57.0. Build 474021, built on: 2025-06-13</t>
   </si>
   <si>
-    <t>CommCare Android, version "2.56.1"(471796). App v669. CommCare Version 2.56.1. Build 471796, built on: 2025-05-12</t>
+    <t>2.56.1</t>
   </si>
   <si>
     <t>2.57.0</t>
   </si>
   <si>
-    <t>2.56.1</t>
+    <t>commcare_caa24215-9754-41e7-a95e-8cc46f9c911d</t>
+  </si>
+  <si>
+    <t>commcare_51deb0f1-b0d0-487f-bc8a-4479d5af3f73</t>
+  </si>
+  <si>
+    <t>commcare_c0bf9f85-6d1f-4563-a7b5-e60f61118366</t>
   </si>
   <si>
     <t>commcare_c5a517f3-e17b-4a39-8be6-d21ff27dabfe</t>
   </si>
   <si>
+    <t>commcare_e2aaff39-b9d3-4312-aef9-5e872dbbeec7</t>
+  </si>
+  <si>
     <t>commcare_5c46f849-95c5-4b35-81a6-ef7089af885e</t>
   </si>
   <si>
-    <t>commcare_caa24215-9754-41e7-a95e-8cc46f9c911d</t>
-  </si>
-  <si>
-    <t>commcare_e2aaff39-b9d3-4312-aef9-5e872dbbeec7</t>
-  </si>
-  <si>
-    <t>commcare_51deb0f1-b0d0-487f-bc8a-4479d5af3f73</t>
-  </si>
-  <si>
-    <t>commcare_c0bf9f85-6d1f-4563-a7b5-e60f61118366</t>
+    <t>2025-07-01T10:44:46.393000Z</t>
+  </si>
+  <si>
+    <t>2025-07-01T10:21:00.128000Z</t>
+  </si>
+  <si>
+    <t>2025-07-01T09:47:57.601000Z</t>
+  </si>
+  <si>
+    <t>2025-07-01T10:23:03.746000Z</t>
+  </si>
+  <si>
+    <t>2025-07-01T09:39:40.213000Z</t>
+  </si>
+  <si>
+    <t>2025-07-01T09:33:09.412000Z</t>
   </si>
   <si>
     <t>2025-06-30T19:17:13.146000Z</t>
@@ -1843,6 +1975,24 @@
     <t>2025-06-30T05:42:04.719000Z</t>
   </si>
   <si>
+    <t>2025-07-01T10:33:43.734000Z</t>
+  </si>
+  <si>
+    <t>2025-07-01T09:48:03.904000Z</t>
+  </si>
+  <si>
+    <t>2025-07-01T08:18:45.463000Z</t>
+  </si>
+  <si>
+    <t>2025-07-01T09:54:01.744000Z</t>
+  </si>
+  <si>
+    <t>2025-07-01T09:18:00.662000Z</t>
+  </si>
+  <si>
+    <t>2025-07-01T08:23:35.834000Z</t>
+  </si>
+  <si>
     <t>2025-06-30T18:14:17.451000Z</t>
   </si>
   <si>
@@ -1876,52 +2026,64 @@
     <t>2025-06-30T05:39:11.832000Z</t>
   </si>
   <si>
+    <t>8aec26eba6c94a8a995d425584311644</t>
+  </si>
+  <si>
+    <t>148b582ced074b30a11c93abdad751e5</t>
+  </si>
+  <si>
+    <t>faa9986b11024e209d426230ef5dca1a</t>
+  </si>
+  <si>
+    <t>d73c852f32a64cc199dcef8580b40416</t>
+  </si>
+  <si>
     <t>84b17c17f402448cace92dac4fabcce2</t>
   </si>
   <si>
-    <t>faa9986b11024e209d426230ef5dca1a</t>
-  </si>
-  <si>
-    <t>8aec26eba6c94a8a995d425584311644</t>
-  </si>
-  <si>
-    <t>148b582ced074b30a11c93abdad751e5</t>
+    <t>jgavhera</t>
+  </si>
+  <si>
+    <t>amutenha</t>
+  </si>
+  <si>
+    <t>fgwenzi</t>
+  </si>
+  <si>
+    <t>gguveya</t>
   </si>
   <si>
     <t>tmunyaradzi</t>
   </si>
   <si>
-    <t>fgwenzi</t>
-  </si>
-  <si>
-    <t>jgavhera</t>
-  </si>
-  <si>
-    <t>amutenha</t>
+    <t>MARONDERA</t>
   </si>
   <si>
     <t>SANYATI</t>
   </si>
   <si>
-    <t>MARONDERA</t>
-  </si>
-  <si>
     <t>MBIRE</t>
   </si>
   <si>
+    <t>Masikana Council Clinic</t>
+  </si>
+  <si>
+    <t>Jompani</t>
+  </si>
+  <si>
     <t>Rimuka</t>
   </si>
   <si>
     <t>Dombotombo</t>
   </si>
   <si>
-    <t>Jompani</t>
-  </si>
-  <si>
     <t>Angwa Clinic</t>
   </si>
   <si>
     <t>yes</t>
+  </si>
+  <si>
+    <t>They do snooker tournaments and farms engagement and one on ones for 25-34 years. For 15-24  schools engagement and soccer tournaments.</t>
   </si>
   <si>
     <t>For the 15-24 year age group, the DC team is effectively using Moonlight and intensive door-to-door campaigns. Moonlights are helping them to 'catch young men in places where they patronise in the evening. Door-to-door campaigns are helping them to address the target audiences in the comfort of their residences or temporary shelters.
@@ -1947,113 +2109,26 @@
     <t>8</t>
   </si>
   <si>
-    <t>Disposable_Dorsal_slit</t>
-  </si>
-  <si>
-    <t>Reusable_Dorsal_slit Device_placement_kit Device_removal_kit other</t>
-  </si>
-  <si>
-    <t>Disposable_gloves Syringes_with_needles Lancets_for_adults_and_pediatric_capillary_blood_drawing Rigid_WHO-approved_sharps_containers</t>
-  </si>
-  <si>
-    <t>Disposable_gloves Syringes_with_needles Lancets_for_adults_and_pediatric_capillary_blood_drawing</t>
-  </si>
-  <si>
-    <t>air conditioner not working for past month</t>
-  </si>
-  <si>
-    <t>no sharps tins</t>
-  </si>
-  <si>
-    <t>condoms in short supply</t>
-  </si>
-  <si>
-    <t>Clean_running_water Soap Disinfectant Hand_sanitizer</t>
-  </si>
-  <si>
-    <t>Amoxycillin/clavulanic_acid Erythromycin</t>
-  </si>
-  <si>
-    <t>Ceftriaxone Metronidazole Doxycycline</t>
-  </si>
-  <si>
-    <t>Ceftriaxone Doxycycline</t>
-  </si>
-  <si>
-    <t>Lignocaine</t>
-  </si>
-  <si>
-    <t>Lignocaine Bupivacaine</t>
-  </si>
-  <si>
-    <t>amoxycillinclavulanic_acid erythromycin</t>
-  </si>
-  <si>
-    <t>Ceftriaxone Metronidazole</t>
-  </si>
-  <si>
-    <t>add strength of medicines on dispensing register
-incinerator is done off site at Rimuka Maternity</t>
-  </si>
-  <si>
-    <t>Good emergency management practices</t>
-  </si>
-  <si>
-    <t>Stethoscope Sphygmomanometer Adult_Blood_pressure_cuff Sphygmomanometer_Batteries Sodium_Chloride Tourniquet IV_Infusion_Tubing 3_sizes_of_IV_Catheters Adrenaline Hydrocortisone 2_Sizes_of_Syringes 2_Sizes_of_Needles Oxygen_and_accessories Bags_and_Masks_for_children Bags_and_Masks_for_adults Exam_gloves Alcohol_Swabs Gauze Adhesive_Tape Oropharyngeal_Airways Stethoscope_is_not_shared sphygmomanometer_dedicated_to_Emergency_Cart_and_is_not_shared</t>
-  </si>
-  <si>
-    <t>Stethoscope Sphygmomanometer Adult_Blood_pressure_cuff Sodium_Chloride Tourniquet IV_Infusion_Tubing 3_sizes_of_IV_Catheters Adrenaline Hydrocortisone 2_Sizes_of_Syringes 2_Sizes_of_Needles Bags_and_Masks_for_children Bags_and_Masks_for_adults Exam_gloves Alcohol_Swabs Gauze Adhesive_Tape Oropharyngeal_Airways</t>
-  </si>
-  <si>
-    <t>glucometer Glucometer_Strips Pulse-oximeter</t>
-  </si>
-  <si>
-    <t>scrub expired 12/24 changed with unexpired 11/25</t>
-  </si>
-  <si>
-    <t>Caravan in use no formal rooms available</t>
-  </si>
-  <si>
-    <t>1. The is a best practice case on Linkages documentation and reporting
-2. Site is enrolling into 2WT system
-3. Site should start enrolling clients into EHR</t>
-  </si>
-  <si>
-    <t>Facility not using EHR</t>
-  </si>
-  <si>
-    <t>1. Site documenting linkages on monthly summaries
-2. Summaries indicating HIV tested
-3. Site not entering clients into EHR
-4. Discrepancies noted between Reg , CIF and MRF</t>
-  </si>
-  <si>
-    <t>Data didnt tally for November 2024 and December 2024
-Recommendations:
-1) Facility MRFs for November and December had errors and need to be corrected to reflect the actual MCs that were conducted.
-2) CIF to be completed correctly, completely
-and without cancellations</t>
-  </si>
-  <si>
-    <t>[{'calculatedMonth': 'October', 'calculatedYear': '2024', 'calculated_month_numeric': '10', 'cifno': '86', 'copy-1-of-calculated_month_numeric': 'OK', 'copy-1-of-cifno': '86', 'current_iteration': '0', 'mrfmcs': '86', 'registermcs': '86'}, {'calculatedMonth': 'November', 'calculatedYear': '2024', 'calculated_month_numeric': '11', 'cifno': '73', 'copy-1-of-calculated_month_numeric': 'OK', 'copy-1-of-cifno': '73', 'current_iteration': '1', 'mrfmcs': '73', 'registermcs': '73'}, {'calculatedMonth': 'December', 'calculatedYear': '2024', 'calculated_month_numeric': '12', 'cifno': '55', 'copy-1-of-calculated_month_numeric': 'OK', 'copy-1-of-cifno': '55', 'current_iteration': '2', 'mrfmcs': '55', 'registermcs': '55'}, {'calculatedMonth': 'January', 'calculatedYear': '2025', 'calculated_month_numeric': '13', 'cifno': '50', 'copy-1-of-calculated_month_numeric': 'OK', 'copy-1-of-cifno': '0', 'current_iteration': '3', 'mrfmcs': '47', 'registermcs': '51'}, {'calculatedMonth': 'February', 'calculatedYear': '2025', 'calculated_month_numeric': '2', 'cifno': '49', 'copy-1-of-calculated_month_numeric': 'OK', 'copy-1-of-cifno': '49', 'current_iteration': '4', 'mrfmcs': '49', 'registermcs': '49'}, {'calculatedMonth': 'March', 'calculatedYear': '2025', 'calculated_month_numeric': '3', 'cifno': '92', 'copy-1-of-calculated_month_numeric': 'OK', 'copy-1-of-cifno': '92', 'current_iteration': '5', 'mrfmcs': '92', 'registermcs': '92'}, {'calculatedMonth': 'April', 'calculatedYear': '2025', 'calculated_month_numeric': '4', 'cifno': '88', 'copy-1-of-calculated_month_numeric': 'OK', 'copy-1-of-cifno': '88', 'current_iteration': '6', 'mrfmcs': '88', 'registermcs': '88'}, {'calculatedMonth': 'May', 'calculatedYear': '2025', 'calculated_month_numeric': '5', 'cifno': '104', 'copy-1-of-calculated_month_numeric': 'OK', 'copy-1-of-cifno': '104', 'current_iteration': '7', 'mrfmcs': '104', 'registermcs': '104'}]</t>
-  </si>
-  <si>
-    <t>[{'calculatedMonth': 'October', 'calculatedYear': '2024', 'calculated_month_numeric': '10', 'cifno': '15', 'copy-1-of-calculated_month_numeric': 'OK', 'copy-1-of-cifno': '15', 'current_iteration': '0', 'mrfmcs': '15', 'registermcs': '15'}, {'calculatedMonth': 'November', 'calculatedYear': '2024', 'calculated_month_numeric': '11', 'cifno': '50', 'copy-1-of-calculated_month_numeric': 'OK', 'copy-1-of-cifno': '47', 'current_iteration': '1', 'mrfmcs': '47', 'registermcs': '50'}, {'calculatedMonth': 'December', 'calculatedYear': '2024', 'calculated_month_numeric': '12', 'cifno': '24', 'copy-1-of-calculated_month_numeric': 'OK', 'copy-1-of-cifno': '21', 'current_iteration': '2', 'mrfmcs': '21', 'registermcs': '24'}, {'calculatedMonth': 'January', 'calculatedYear': '2025', 'calculated_month_numeric': '13', 'cifno': '9', 'copy-1-of-calculated_month_numeric': 'OK', 'copy-1-of-cifno': '9', 'current_iteration': '3', 'mrfmcs': '9', 'registermcs': '9'}, {'calculatedMonth': 'February', 'calculatedYear': '2025', 'calculated_month_numeric': '2', 'cifno': '24', 'copy-1-of-calculated_month_numeric': 'OK', 'copy-1-of-cifno': '24', 'current_iteration': '4', 'mrfmcs': '24', 'registermcs': '24'}, {'calculatedMonth': 'March', 'calculatedYear': '2025', 'calculated_month_numeric': '3', 'cifno': '22', 'copy-1-of-calculated_month_numeric': 'OK', 'copy-1-of-cifno': '22', 'current_iteration': '5', 'mrfmcs': '22', 'registermcs': '22'}, {'calculatedMonth': 'April', 'calculatedYear': '2025', 'calculated_month_numeric': '4', 'cifno': '30', 'copy-1-of-calculated_month_numeric': 'OK', 'copy-1-of-cifno': '30', 'current_iteration': '6', 'mrfmcs': '30', 'registermcs': '30'}, {'calculatedMonth': 'May', 'calculatedYear': '2025', 'calculated_month_numeric': '5', 'cifno': '31', 'copy-1-of-calculated_month_numeric': 'OK', 'copy-1-of-cifno': '31', 'current_iteration': '7', 'mrfmcs': '31', 'registermcs': '31'}]</t>
-  </si>
-  <si>
-    <t>Client_Name Client_Address dob MC_Method HIV_Testing_Offered_/HIV_Status_Data Medical_Screening_and_Physical_Examination</t>
-  </si>
-  <si>
-    <t>May</t>
-  </si>
-  <si>
-    <t>2025</t>
-  </si>
-  <si>
-    <t>October</t>
-  </si>
-  <si>
-    <t>2024</t>
+    <t>-recommend refresher on client counselling.</t>
+  </si>
+  <si>
+    <t>clear</t>
+  </si>
+  <si>
+    <t>-Highly recommend refresher on client counselling</t>
+  </si>
+  <si>
+    <t>condom demonstration again missed in this session, little or no probing into client's understanding and any issues that may be individual and peculiar to clients 
+- highly recomend refresher on client counselling.</t>
+  </si>
+  <si>
+    <t>Session well articulated only missing condom demonstration,  team informed to include condom demonstration for all age groups.</t>
+  </si>
+  <si>
+    <t>complete and engaging. Clients showed learning tool place.</t>
+  </si>
+  <si>
+    <t>Most of the relevant SOPs available save for the staff job descriptions.  the site could benefit from a replenishment of the tools.</t>
   </si>
   <si>
     <t>Comments
@@ -2074,16 +2149,148 @@
     <t>All available</t>
   </si>
   <si>
+    <t>VMMC_Nurse_Counsellors VMMC_circumcisors:_Nursing Cleaners/Theatre_Hands/Runners Data_Clerks Receptionists Nurse_Testers Primary_Care_Counsellors STI_Trained_Nurses</t>
+  </si>
+  <si>
+    <t>VMMC_Nurse_Counsellors</t>
+  </si>
+  <si>
     <t>VMMC_Nurse_Counsellors VMMC_circumcisors:_Nursing Cleaners/Theatre_Hands/Runners Community_Health_Workers Data_Clerks Receptionists Nurse_Testers</t>
   </si>
   <si>
     <t>VMMC_Nurse_Counsellors VMMC_circumcisors:_Nursing Cleaners/Theatre_Hands/Runners Data_Clerks Receptionists Nurse_Testers Primary_Care_Counsellors</t>
   </si>
   <si>
-    <t>clear</t>
-  </si>
-  <si>
-    <t>complete and engaging. Clients showed learning tool place.</t>
+    <t>EHR is down and has not been workung for the last 3 months
+2WT is also affected b poor network &amp; team has no access to 2WT data base for them to establish the follow up rates
+Referals/linkages are to VMMC instead of linkages to other services</t>
+  </si>
+  <si>
+    <t>1. Linkages not documented  in the VMMC register
+2. Linkages register was not available on site
+3. Site not entering VMMC data into EHR
+4. The site needs to include monthly summaries regarding HTS and Linkages in the register</t>
+  </si>
+  <si>
+    <t>1. The is a best practice case on Linkages documentation and reporting
+2. Site is enrolling into 2WT system
+3. Site should start enrolling clients into EHR</t>
+  </si>
+  <si>
+    <t>Facility not using EHR</t>
+  </si>
+  <si>
+    <t>There is data discepancy in May 2025 due to underreporting in MRF</t>
+  </si>
+  <si>
+    <t>No discrepancies across all the month under review</t>
+  </si>
+  <si>
+    <t>1. Site documenting linkages on monthly summaries
+2. Summaries indicating HIV tested
+3. Site not entering clients into EHR
+4. Discrepancies noted between Reg , CIF and MRF</t>
+  </si>
+  <si>
+    <t>Data didnt tally for November 2024 and December 2024
+Recommendations:
+1) Facility MRFs for November and December had errors and need to be corrected to reflect the actual MCs that were conducted.
+2) CIF to be completed correctly, completely
+and without cancellations</t>
+  </si>
+  <si>
+    <t>[{'calculatedMonth': 'October', 'calculatedYear': '2024', 'calculated_month_numeric': '10', 'cifno': '9', 'copy-1-of-calculated_month_numeric': 'OK', 'copy-1-of-cifno': '9', 'current_iteration': '0', 'mrfmcs': '9', 'registermcs': '9'}, {'calculatedMonth': 'November', 'calculatedYear': '2024', 'calculated_month_numeric': '11', 'cifno': '32', 'copy-1-of-calculated_month_numeric': 'OK', 'copy-1-of-cifno': '32', 'current_iteration': '1', 'mrfmcs': '32', 'registermcs': '32'}, {'calculatedMonth': 'December', 'calculatedYear': '2024', 'calculated_month_numeric': '12', 'cifno': '18', 'copy-1-of-calculated_month_numeric': 'OK', 'copy-1-of-cifno': '18', 'current_iteration': '2', 'mrfmcs': '18', 'registermcs': '18'}, {'calculatedMonth': 'January', 'calculatedYear': '2025', 'calculated_month_numeric': '13', 'cifno': '8', 'copy-1-of-calculated_month_numeric': 'OK', 'copy-1-of-cifno': '8', 'current_iteration': '3', 'mrfmcs': '8', 'registermcs': '8'}, {'calculatedMonth': 'February', 'calculatedYear': '2025', 'calculated_month_numeric': '2', 'cifno': '15', 'copy-1-of-calculated_month_numeric': 'OK', 'copy-1-of-cifno': '15', 'current_iteration': '4', 'mrfmcs': '15', 'registermcs': '15'}, {'calculatedMonth': 'March', 'calculatedYear': '2025', 'calculated_month_numeric': '3', 'cifno': '22', 'copy-1-of-calculated_month_numeric': 'OK', 'copy-1-of-cifno': '22', 'current_iteration': '5', 'mrfmcs': '22', 'registermcs': '22'}, {'calculatedMonth': 'April', 'calculatedYear': '2025', 'calculated_month_numeric': '4', 'cifno': '12', 'copy-1-of-calculated_month_numeric': 'OK', 'copy-1-of-cifno': '12', 'current_iteration': '6', 'mrfmcs': '12', 'registermcs': '12'}, {'calculatedMonth': 'May', 'calculatedYear': '2025', 'calculated_month_numeric': '5', 'cifno': '13', 'copy-1-of-calculated_month_numeric': 'OK', 'copy-1-of-cifno': '0', 'current_iteration': '7', 'mrfmcs': '0', 'registermcs': '13'}]</t>
+  </si>
+  <si>
+    <t>[{'calculatedMonth': 'October', 'calculatedYear': '2024', 'calculated_month_numeric': '10', 'cifno': '38', 'copy-1-of-calculated_month_numeric': 'OK', 'copy-1-of-cifno': '37', 'current_iteration': '0', 'mrfmcs': '37', 'registermcs': '37'}, {'calculatedMonth': 'November', 'calculatedYear': '2024', 'calculated_month_numeric': '11', 'cifno': '0', 'copy-1-of-calculated_month_numeric': 'OK', 'copy-1-of-cifno': '0', 'current_iteration': '1', 'mrfmcs': '0', 'registermcs': '0'}, {'calculatedMonth': 'December', 'calculatedYear': '2024', 'calculated_month_numeric': '12', 'cifno': '7', 'copy-1-of-calculated_month_numeric': 'OK', 'copy-1-of-cifno': '7', 'current_iteration': '2', 'mrfmcs': '7', 'registermcs': '7'}, {'calculatedMonth': 'January', 'calculatedYear': '2025', 'calculated_month_numeric': '13', 'cifno': '6', 'copy-1-of-calculated_month_numeric': 'OK', 'copy-1-of-cifno': '6', 'current_iteration': '3', 'mrfmcs': '6', 'registermcs': '6'}, {'calculatedMonth': 'February', 'calculatedYear': '2025', 'calculated_month_numeric': '2', 'cifno': '0', 'copy-1-of-calculated_month_numeric': 'OK', 'copy-1-of-cifno': '0', 'current_iteration': '4', 'mrfmcs': '0', 'registermcs': '0'}, {'calculatedMonth': 'March', 'calculatedYear': '2025', 'calculated_month_numeric': '3', 'cifno': '29', 'copy-1-of-calculated_month_numeric': 'OK', 'copy-1-of-cifno': '29', 'current_iteration': '5', 'mrfmcs': '29', 'registermcs': '29'}, {'calculatedMonth': 'April', 'calculatedYear': '2025', 'calculated_month_numeric': '4', 'cifno': '7', 'copy-1-of-calculated_month_numeric': 'OK', 'copy-1-of-cifno': '7', 'current_iteration': '6', 'mrfmcs': '7', 'registermcs': '7'}, {'calculatedMonth': 'May', 'calculatedYear': '2025', 'calculated_month_numeric': '5', 'cifno': '39', 'copy-1-of-calculated_month_numeric': 'OK', 'copy-1-of-cifno': '39', 'current_iteration': '7', 'mrfmcs': '39', 'registermcs': '39'}]</t>
+  </si>
+  <si>
+    <t>[{'calculatedMonth': 'October', 'calculatedYear': '2024', 'calculated_month_numeric': '10', 'cifno': '86', 'copy-1-of-calculated_month_numeric': 'OK', 'copy-1-of-cifno': '86', 'current_iteration': '0', 'mrfmcs': '86', 'registermcs': '86'}, {'calculatedMonth': 'November', 'calculatedYear': '2024', 'calculated_month_numeric': '11', 'cifno': '73', 'copy-1-of-calculated_month_numeric': 'OK', 'copy-1-of-cifno': '73', 'current_iteration': '1', 'mrfmcs': '73', 'registermcs': '73'}, {'calculatedMonth': 'December', 'calculatedYear': '2024', 'calculated_month_numeric': '12', 'cifno': '55', 'copy-1-of-calculated_month_numeric': 'OK', 'copy-1-of-cifno': '55', 'current_iteration': '2', 'mrfmcs': '55', 'registermcs': '55'}, {'calculatedMonth': 'January', 'calculatedYear': '2025', 'calculated_month_numeric': '13', 'cifno': '50', 'copy-1-of-calculated_month_numeric': 'OK', 'copy-1-of-cifno': '0', 'current_iteration': '3', 'mrfmcs': '47', 'registermcs': '51'}, {'calculatedMonth': 'February', 'calculatedYear': '2025', 'calculated_month_numeric': '2', 'cifno': '49', 'copy-1-of-calculated_month_numeric': 'OK', 'copy-1-of-cifno': '49', 'current_iteration': '4', 'mrfmcs': '49', 'registermcs': '49'}, {'calculatedMonth': 'March', 'calculatedYear': '2025', 'calculated_month_numeric': '3', 'cifno': '92', 'copy-1-of-calculated_month_numeric': 'OK', 'copy-1-of-cifno': '92', 'current_iteration': '5', 'mrfmcs': '92', 'registermcs': '92'}, {'calculatedMonth': 'April', 'calculatedYear': '2025', 'calculated_month_numeric': '4', 'cifno': '88', 'copy-1-of-calculated_month_numeric': 'OK', 'copy-1-of-cifno': '88', 'current_iteration': '6', 'mrfmcs': '88', 'registermcs': '88'}, {'calculatedMonth': 'May', 'calculatedYear': '2025', 'calculated_month_numeric': '5', 'cifno': '104', 'copy-1-of-calculated_month_numeric': 'OK', 'copy-1-of-cifno': '104', 'current_iteration': '7', 'mrfmcs': '104', 'registermcs': '104'}]</t>
+  </si>
+  <si>
+    <t>[{'calculatedMonth': 'October', 'calculatedYear': '2024', 'calculated_month_numeric': '10', 'cifno': '15', 'copy-1-of-calculated_month_numeric': 'OK', 'copy-1-of-cifno': '15', 'current_iteration': '0', 'mrfmcs': '15', 'registermcs': '15'}, {'calculatedMonth': 'November', 'calculatedYear': '2024', 'calculated_month_numeric': '11', 'cifno': '50', 'copy-1-of-calculated_month_numeric': 'OK', 'copy-1-of-cifno': '47', 'current_iteration': '1', 'mrfmcs': '47', 'registermcs': '50'}, {'calculatedMonth': 'December', 'calculatedYear': '2024', 'calculated_month_numeric': '12', 'cifno': '24', 'copy-1-of-calculated_month_numeric': 'OK', 'copy-1-of-cifno': '21', 'current_iteration': '2', 'mrfmcs': '21', 'registermcs': '24'}, {'calculatedMonth': 'January', 'calculatedYear': '2025', 'calculated_month_numeric': '13', 'cifno': '9', 'copy-1-of-calculated_month_numeric': 'OK', 'copy-1-of-cifno': '9', 'current_iteration': '3', 'mrfmcs': '9', 'registermcs': '9'}, {'calculatedMonth': 'February', 'calculatedYear': '2025', 'calculated_month_numeric': '2', 'cifno': '24', 'copy-1-of-calculated_month_numeric': 'OK', 'copy-1-of-cifno': '24', 'current_iteration': '4', 'mrfmcs': '24', 'registermcs': '24'}, {'calculatedMonth': 'March', 'calculatedYear': '2025', 'calculated_month_numeric': '3', 'cifno': '22', 'copy-1-of-calculated_month_numeric': 'OK', 'copy-1-of-cifno': '22', 'current_iteration': '5', 'mrfmcs': '22', 'registermcs': '22'}, {'calculatedMonth': 'April', 'calculatedYear': '2025', 'calculated_month_numeric': '4', 'cifno': '30', 'copy-1-of-calculated_month_numeric': 'OK', 'copy-1-of-cifno': '30', 'current_iteration': '6', 'mrfmcs': '30', 'registermcs': '30'}, {'calculatedMonth': 'May', 'calculatedYear': '2025', 'calculated_month_numeric': '5', 'cifno': '31', 'copy-1-of-calculated_month_numeric': 'OK', 'copy-1-of-cifno': '31', 'current_iteration': '7', 'mrfmcs': '31', 'registermcs': '31'}]</t>
+  </si>
+  <si>
+    <t>Client_Name Client_Address dob MC_Method HIV_Testing_Offered_/HIV_Status_Data Medical_Screening_and_Physical_Examination</t>
+  </si>
+  <si>
+    <t>May</t>
+  </si>
+  <si>
+    <t>2025</t>
+  </si>
+  <si>
+    <t>October</t>
+  </si>
+  <si>
+    <t>2024</t>
+  </si>
+  <si>
+    <t>Disposable_Dorsal_slit</t>
+  </si>
+  <si>
+    <t>Reusable_Dorsal_slit Device_placement_kit Device_removal_kit other</t>
+  </si>
+  <si>
+    <t>Disposable_gloves Syringes_with_needles Lancets_for_adults_and_pediatric_capillary_blood_drawing Rigid_WHO-approved_sharps_containers</t>
+  </si>
+  <si>
+    <t>Disposable_gloves Syringes_with_needles Lancets_for_adults_and_pediatric_capillary_blood_drawing</t>
+  </si>
+  <si>
+    <t>air conditioner not working for past month</t>
+  </si>
+  <si>
+    <t>no sharps tins</t>
+  </si>
+  <si>
+    <t>condoms in short supply</t>
+  </si>
+  <si>
+    <t>Clean_running_water Soap Disinfectant Hand_sanitizer</t>
+  </si>
+  <si>
+    <t>Amoxycillin/clavulanic_acid Erythromycin</t>
+  </si>
+  <si>
+    <t>Ceftriaxone Metronidazole Doxycycline</t>
+  </si>
+  <si>
+    <t>Ceftriaxone Doxycycline</t>
+  </si>
+  <si>
+    <t>Lignocaine</t>
+  </si>
+  <si>
+    <t>Lignocaine Bupivacaine</t>
+  </si>
+  <si>
+    <t>amoxycillinclavulanic_acid erythromycin</t>
+  </si>
+  <si>
+    <t>Ceftriaxone Metronidazole</t>
+  </si>
+  <si>
+    <t>add strength of medicines on dispensing register
+incinerator is done off site at Rimuka Maternity</t>
+  </si>
+  <si>
+    <t>Good emergency management practices</t>
+  </si>
+  <si>
+    <t>Stethoscope Sphygmomanometer Adult_Blood_pressure_cuff Sphygmomanometer_Batteries Sodium_Chloride Tourniquet IV_Infusion_Tubing 3_sizes_of_IV_Catheters Adrenaline Hydrocortisone 2_Sizes_of_Syringes 2_Sizes_of_Needles Oxygen_and_accessories Bags_and_Masks_for_children Bags_and_Masks_for_adults Exam_gloves Alcohol_Swabs Gauze Adhesive_Tape Oropharyngeal_Airways Stethoscope_is_not_shared sphygmomanometer_dedicated_to_Emergency_Cart_and_is_not_shared</t>
+  </si>
+  <si>
+    <t>Stethoscope Sphygmomanometer Adult_Blood_pressure_cuff Sodium_Chloride Tourniquet IV_Infusion_Tubing 3_sizes_of_IV_Catheters Adrenaline Hydrocortisone 2_Sizes_of_Syringes 2_Sizes_of_Needles Bags_and_Masks_for_children Bags_and_Masks_for_adults Exam_gloves Alcohol_Swabs Gauze Adhesive_Tape Oropharyngeal_Airways</t>
+  </si>
+  <si>
+    <t>glucometer Glucometer_Strips Pulse-oximeter</t>
+  </si>
+  <si>
+    <t>scrub expired 12/24 changed with unexpired 11/25</t>
+  </si>
+  <si>
+    <t>Caravan in use no formal rooms available</t>
   </si>
 </sst>
 </file>
@@ -2454,7 +2661,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:RW12"/>
+  <dimension ref="A1:RW18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -3952,7 +4159,7 @@
         <v>493</v>
       </c>
       <c r="I2" t="s">
-        <v>504</v>
+        <v>510</v>
       </c>
       <c r="J2" t="b">
         <v>1</v>
@@ -3961,181 +4168,211 @@
         <v>1</v>
       </c>
       <c r="M2" t="s">
-        <v>515</v>
+        <v>527</v>
       </c>
       <c r="O2" t="s">
-        <v>526</v>
+        <v>544</v>
       </c>
       <c r="P2" t="s">
-        <v>537</v>
+        <v>561</v>
       </c>
       <c r="Q2" t="s">
-        <v>544</v>
+        <v>571</v>
       </c>
       <c r="R2" t="s">
-        <v>545</v>
+        <v>572</v>
       </c>
       <c r="S2" t="s">
-        <v>546</v>
+        <v>573</v>
       </c>
       <c r="T2" t="s">
-        <v>547</v>
+        <v>574</v>
       </c>
       <c r="U2">
-        <v>5297</v>
+        <v>3107</v>
       </c>
       <c r="V2" s="2" t="s">
-        <v>548</v>
+        <v>575</v>
       </c>
       <c r="W2" t="s">
-        <v>544</v>
+        <v>571</v>
       </c>
       <c r="X2" t="s">
-        <v>559</v>
+        <v>592</v>
       </c>
       <c r="Y2" t="s">
-        <v>545</v>
+        <v>572</v>
       </c>
       <c r="Z2" t="s">
-        <v>546</v>
+        <v>573</v>
       </c>
       <c r="AA2" s="2" t="s">
-        <v>560</v>
+        <v>593</v>
       </c>
       <c r="AB2" t="s">
-        <v>561</v>
+        <v>594</v>
       </c>
       <c r="AC2" t="s">
-        <v>566</v>
+        <v>599</v>
+      </c>
+      <c r="AD2" t="s">
+        <v>604</v>
       </c>
       <c r="AE2" t="s">
-        <v>572</v>
+        <v>607</v>
       </c>
       <c r="AF2" t="s">
-        <v>576</v>
+        <v>612</v>
       </c>
       <c r="AG2" t="s">
-        <v>580</v>
+        <v>617</v>
       </c>
       <c r="AH2" t="s">
-        <v>583</v>
+        <v>621</v>
       </c>
       <c r="AI2" t="s">
-        <v>584</v>
+        <v>622</v>
       </c>
       <c r="AJ2" s="2" t="s">
-        <v>586</v>
+        <v>624</v>
       </c>
       <c r="AK2" t="s">
-        <v>587</v>
+        <v>625</v>
       </c>
       <c r="AL2">
         <v>669</v>
       </c>
       <c r="AM2" t="s">
-        <v>589</v>
+        <v>627</v>
       </c>
       <c r="AN2" t="s">
-        <v>591</v>
+        <v>629</v>
       </c>
       <c r="AO2" t="s">
-        <v>584</v>
+        <v>622</v>
       </c>
       <c r="AQ2" t="s">
         <v>493</v>
       </c>
       <c r="AR2" t="s">
-        <v>597</v>
+        <v>635</v>
       </c>
       <c r="AS2" t="s">
-        <v>608</v>
+        <v>652</v>
       </c>
       <c r="AT2" t="s">
-        <v>619</v>
+        <v>669</v>
       </c>
       <c r="AU2" t="s">
-        <v>623</v>
+        <v>674</v>
       </c>
       <c r="AV2" t="s">
-        <v>627</v>
+        <v>679</v>
       </c>
       <c r="AW2" t="s">
-        <v>630</v>
+        <v>682</v>
+      </c>
+      <c r="AX2" t="s">
+        <v>687</v>
+      </c>
+      <c r="AY2" t="s">
+        <v>687</v>
       </c>
       <c r="AZ2" t="s">
-        <v>634</v>
+        <v>687</v>
       </c>
       <c r="BA2" t="s">
-        <v>634</v>
+        <v>687</v>
       </c>
       <c r="BB2" t="s">
-        <v>634</v>
+        <v>687</v>
+      </c>
+      <c r="BC2" t="s">
+        <v>687</v>
+      </c>
+      <c r="BD2" t="s">
+        <v>687</v>
+      </c>
+      <c r="BE2" t="s">
+        <v>687</v>
       </c>
       <c r="BF2" t="s">
-        <v>635</v>
+        <v>688</v>
       </c>
       <c r="BG2" t="s">
-        <v>639</v>
+        <v>693</v>
       </c>
       <c r="BH2" t="s">
-        <v>583</v>
+        <v>621</v>
       </c>
       <c r="BI2" t="s">
-        <v>634</v>
+        <v>687</v>
       </c>
       <c r="BJ2" t="s">
-        <v>634</v>
+        <v>687</v>
+      </c>
+      <c r="BK2" t="s">
+        <v>687</v>
+      </c>
+      <c r="BL2" t="s">
+        <v>687</v>
+      </c>
+      <c r="BM2" t="s">
+        <v>687</v>
       </c>
       <c r="BN2" t="s">
-        <v>583</v>
+        <v>621</v>
       </c>
       <c r="BO2" t="s">
-        <v>583</v>
+        <v>621</v>
       </c>
       <c r="BP2" t="s">
-        <v>634</v>
+        <v>687</v>
       </c>
       <c r="BQ2" t="s">
-        <v>583</v>
+        <v>621</v>
+      </c>
+      <c r="BR2" t="s">
+        <v>687</v>
       </c>
       <c r="BS2" t="s">
-        <v>583</v>
+        <v>621</v>
       </c>
       <c r="BT2" t="s">
-        <v>634</v>
+        <v>693</v>
       </c>
       <c r="BU2" t="s">
-        <v>584</v>
+        <v>622</v>
       </c>
       <c r="BW2" t="s">
-        <v>587</v>
+        <v>625</v>
       </c>
       <c r="BX2">
         <v>669</v>
       </c>
       <c r="BY2" t="s">
-        <v>589</v>
+        <v>627</v>
       </c>
       <c r="BZ2" t="s">
-        <v>591</v>
+        <v>629</v>
       </c>
       <c r="CA2" t="s">
-        <v>584</v>
+        <v>622</v>
       </c>
       <c r="CC2" t="s">
         <v>493</v>
       </c>
       <c r="CE2" t="s">
-        <v>597</v>
+        <v>635</v>
       </c>
       <c r="CF2" t="s">
-        <v>608</v>
+        <v>652</v>
       </c>
       <c r="CG2" t="s">
-        <v>619</v>
+        <v>669</v>
       </c>
       <c r="CH2" t="s">
-        <v>623</v>
+        <v>674</v>
       </c>
     </row>
     <row r="3" spans="1:491">
@@ -4158,7 +4395,7 @@
         <v>494</v>
       </c>
       <c r="I3" t="s">
-        <v>505</v>
+        <v>511</v>
       </c>
       <c r="J3" t="b">
         <v>1</v>
@@ -4167,466 +4404,322 @@
         <v>1</v>
       </c>
       <c r="M3" t="s">
-        <v>516</v>
+        <v>528</v>
       </c>
       <c r="O3" t="s">
-        <v>527</v>
+        <v>545</v>
       </c>
       <c r="P3" t="s">
-        <v>537</v>
+        <v>561</v>
       </c>
       <c r="Q3" t="s">
-        <v>544</v>
+        <v>571</v>
       </c>
       <c r="R3" t="s">
-        <v>545</v>
+        <v>572</v>
       </c>
       <c r="S3" t="s">
-        <v>546</v>
+        <v>573</v>
       </c>
       <c r="T3" t="s">
-        <v>547</v>
+        <v>574</v>
       </c>
       <c r="U3">
-        <v>9336</v>
+        <v>12748</v>
       </c>
       <c r="V3" s="2" t="s">
-        <v>549</v>
+        <v>576</v>
       </c>
       <c r="W3" t="s">
-        <v>544</v>
+        <v>571</v>
       </c>
       <c r="X3" t="s">
-        <v>559</v>
+        <v>592</v>
       </c>
       <c r="Y3" t="s">
-        <v>545</v>
+        <v>572</v>
       </c>
       <c r="Z3" t="s">
-        <v>546</v>
+        <v>573</v>
       </c>
       <c r="AA3" s="2" t="s">
-        <v>560</v>
+        <v>593</v>
       </c>
       <c r="AB3" t="s">
-        <v>562</v>
+        <v>595</v>
       </c>
       <c r="AI3" t="s">
-        <v>584</v>
+        <v>622</v>
       </c>
       <c r="AJ3" s="2" t="s">
-        <v>586</v>
+        <v>624</v>
       </c>
       <c r="AK3" t="s">
-        <v>587</v>
+        <v>625</v>
       </c>
       <c r="AL3">
         <v>669</v>
       </c>
       <c r="AM3" t="s">
-        <v>589</v>
+        <v>627</v>
       </c>
       <c r="AN3" t="s">
-        <v>591</v>
+        <v>630</v>
       </c>
       <c r="AO3" t="s">
-        <v>584</v>
+        <v>622</v>
       </c>
       <c r="AQ3" t="s">
         <v>494</v>
       </c>
       <c r="AR3" t="s">
-        <v>598</v>
+        <v>636</v>
       </c>
       <c r="AS3" t="s">
-        <v>609</v>
+        <v>653</v>
       </c>
       <c r="AT3" t="s">
-        <v>619</v>
+        <v>669</v>
       </c>
       <c r="AU3" t="s">
-        <v>623</v>
+        <v>674</v>
       </c>
       <c r="AV3" t="s">
-        <v>627</v>
+        <v>679</v>
       </c>
       <c r="AW3" t="s">
-        <v>630</v>
+        <v>682</v>
       </c>
       <c r="BU3" t="s">
-        <v>584</v>
+        <v>622</v>
       </c>
       <c r="BW3" t="s">
-        <v>587</v>
+        <v>625</v>
       </c>
       <c r="BX3">
         <v>669</v>
       </c>
       <c r="BY3" t="s">
-        <v>589</v>
+        <v>627</v>
       </c>
       <c r="BZ3" t="s">
-        <v>591</v>
+        <v>630</v>
       </c>
       <c r="CA3" t="s">
-        <v>584</v>
+        <v>622</v>
       </c>
       <c r="CC3" t="s">
         <v>494</v>
       </c>
       <c r="CE3" t="s">
-        <v>598</v>
+        <v>636</v>
       </c>
       <c r="CF3" t="s">
-        <v>609</v>
+        <v>653</v>
       </c>
       <c r="CG3" t="s">
-        <v>619</v>
+        <v>669</v>
       </c>
       <c r="CH3" t="s">
-        <v>623</v>
+        <v>674</v>
       </c>
       <c r="CI3" t="s">
-        <v>642</v>
+        <v>696</v>
       </c>
       <c r="CJ3" t="s">
-        <v>583</v>
+        <v>693</v>
       </c>
       <c r="CK3" t="s">
-        <v>583</v>
+        <v>687</v>
       </c>
       <c r="CL3" t="s">
-        <v>583</v>
+        <v>621</v>
       </c>
       <c r="CM3" t="s">
-        <v>583</v>
+        <v>687</v>
       </c>
       <c r="CN3" t="s">
-        <v>583</v>
+        <v>693</v>
       </c>
       <c r="CO3" t="s">
-        <v>634</v>
+        <v>687</v>
       </c>
       <c r="CP3" t="s">
-        <v>634</v>
+        <v>687</v>
       </c>
       <c r="CQ3" t="s">
-        <v>634</v>
+        <v>687</v>
       </c>
       <c r="CR3" t="s">
-        <v>634</v>
+        <v>693</v>
       </c>
       <c r="CS3" t="s">
-        <v>634</v>
+        <v>693</v>
       </c>
       <c r="CT3" t="s">
-        <v>639</v>
+        <v>687</v>
       </c>
       <c r="CU3" t="s">
-        <v>634</v>
+        <v>693</v>
       </c>
       <c r="CV3" t="s">
-        <v>634</v>
+        <v>687</v>
       </c>
       <c r="CW3" t="s">
-        <v>644</v>
+        <v>698</v>
       </c>
       <c r="CX3" t="s">
-        <v>646</v>
+        <v>693</v>
       </c>
       <c r="CY3" t="s">
-        <v>634</v>
+        <v>687</v>
       </c>
       <c r="CZ3" t="s">
-        <v>634</v>
+        <v>621</v>
       </c>
       <c r="DA3" t="s">
-        <v>639</v>
+        <v>693</v>
+      </c>
+      <c r="DB3" t="s">
+        <v>693</v>
       </c>
       <c r="DC3" t="s">
-        <v>634</v>
+        <v>687</v>
       </c>
       <c r="DD3" t="s">
-        <v>634</v>
+        <v>693</v>
       </c>
       <c r="DE3" t="s">
-        <v>634</v>
+        <v>693</v>
       </c>
       <c r="DF3" t="s">
-        <v>583</v>
+        <v>693</v>
       </c>
       <c r="DG3" t="s">
-        <v>583</v>
+        <v>693</v>
+      </c>
+      <c r="DH3" t="s">
+        <v>693</v>
       </c>
       <c r="DI3" t="s">
-        <v>634</v>
-      </c>
-      <c r="DJ3" t="s">
-        <v>648</v>
-      </c>
-      <c r="DK3" t="s">
-        <v>634</v>
-      </c>
-      <c r="DL3" t="s">
-        <v>649</v>
-      </c>
-      <c r="DM3" t="s">
-        <v>634</v>
-      </c>
-      <c r="DN3" t="s">
-        <v>639</v>
-      </c>
-      <c r="DO3" t="s">
-        <v>650</v>
-      </c>
-      <c r="DP3" t="s">
-        <v>651</v>
-      </c>
-      <c r="DQ3" t="s">
-        <v>583</v>
-      </c>
-      <c r="DR3" t="s">
-        <v>653</v>
-      </c>
-      <c r="DS3" t="s">
-        <v>655</v>
-      </c>
-      <c r="DT3" t="s">
-        <v>634</v>
-      </c>
-      <c r="DV3" t="s">
-        <v>634</v>
-      </c>
-      <c r="DW3" t="s">
-        <v>634</v>
-      </c>
-      <c r="DX3" t="s">
-        <v>634</v>
-      </c>
-      <c r="DY3" t="s">
-        <v>634</v>
-      </c>
-      <c r="DZ3" t="s">
-        <v>634</v>
-      </c>
-      <c r="EA3" t="s">
-        <v>634</v>
-      </c>
-      <c r="EB3" t="s">
-        <v>634</v>
-      </c>
-      <c r="EC3" t="s">
-        <v>634</v>
-      </c>
-      <c r="ED3" t="s">
-        <v>634</v>
-      </c>
-      <c r="EE3" t="s">
-        <v>656</v>
-      </c>
-      <c r="EG3" t="s">
-        <v>634</v>
-      </c>
-      <c r="EH3" t="s">
-        <v>634</v>
-      </c>
-      <c r="EI3" t="s">
-        <v>634</v>
-      </c>
-      <c r="EJ3" t="s">
-        <v>634</v>
-      </c>
-      <c r="EK3" t="s">
-        <v>583</v>
-      </c>
-      <c r="EL3" t="s">
-        <v>583</v>
-      </c>
-      <c r="EM3" t="s">
-        <v>634</v>
-      </c>
-      <c r="EO3" t="s">
-        <v>639</v>
-      </c>
-      <c r="EQ3" t="s">
-        <v>634</v>
-      </c>
-      <c r="ER3" t="s">
-        <v>657</v>
-      </c>
-      <c r="ES3" t="s">
-        <v>639</v>
-      </c>
-      <c r="ET3" t="s">
-        <v>634</v>
-      </c>
-      <c r="EU3" t="s">
-        <v>634</v>
-      </c>
-      <c r="EV3" t="s">
-        <v>634</v>
-      </c>
-      <c r="EW3" t="s">
-        <v>634</v>
-      </c>
-      <c r="EX3" t="s">
-        <v>634</v>
-      </c>
-      <c r="EY3" t="s">
-        <v>634</v>
-      </c>
-      <c r="EZ3" t="s">
-        <v>634</v>
-      </c>
-      <c r="FA3" t="s">
-        <v>634</v>
-      </c>
-      <c r="FB3" t="s">
-        <v>634</v>
-      </c>
-      <c r="FC3" t="s">
-        <v>634</v>
-      </c>
-      <c r="FD3" t="s">
-        <v>634</v>
-      </c>
-      <c r="FE3" t="s">
-        <v>658</v>
-      </c>
-      <c r="FF3" t="s">
-        <v>634</v>
-      </c>
-      <c r="FG3" t="s">
-        <v>659</v>
-      </c>
-      <c r="FH3" t="s">
-        <v>583</v>
-      </c>
-      <c r="FI3" t="s">
-        <v>583</v>
-      </c>
-      <c r="FJ3" t="s">
-        <v>583</v>
-      </c>
-      <c r="FK3" t="s">
-        <v>634</v>
-      </c>
-      <c r="FL3" t="s">
-        <v>661</v>
-      </c>
-      <c r="FM3" t="s">
-        <v>634</v>
-      </c>
-      <c r="FN3" t="s">
-        <v>634</v>
-      </c>
-      <c r="FO3" t="s">
-        <v>634</v>
-      </c>
-      <c r="FP3" t="s">
-        <v>634</v>
-      </c>
-      <c r="FQ3" t="s">
-        <v>634</v>
-      </c>
-      <c r="FR3" t="s">
-        <v>634</v>
-      </c>
-      <c r="FS3" t="s">
-        <v>634</v>
-      </c>
-      <c r="FT3" t="s">
-        <v>634</v>
-      </c>
-      <c r="FU3" t="s">
-        <v>634</v>
-      </c>
-      <c r="FV3" t="s">
-        <v>662</v>
-      </c>
-      <c r="FW3" t="s">
-        <v>634</v>
-      </c>
-      <c r="FX3" t="s">
-        <v>634</v>
-      </c>
-      <c r="FY3" t="s">
-        <v>583</v>
-      </c>
-      <c r="FZ3" t="s">
-        <v>634</v>
-      </c>
-      <c r="GA3" t="s">
-        <v>583</v>
-      </c>
-      <c r="GB3" t="s">
-        <v>583</v>
-      </c>
-      <c r="GC3" t="s">
-        <v>583</v>
-      </c>
-      <c r="GD3" t="s">
-        <v>583</v>
-      </c>
-      <c r="GE3" t="s">
-        <v>634</v>
-      </c>
-      <c r="GF3" t="s">
-        <v>634</v>
-      </c>
-      <c r="GG3" t="s">
-        <v>634</v>
-      </c>
-      <c r="GH3" t="s">
-        <v>634</v>
-      </c>
-      <c r="GI3" t="s">
-        <v>634</v>
-      </c>
-      <c r="GJ3" t="s">
-        <v>634</v>
-      </c>
-      <c r="GK3" t="s">
-        <v>634</v>
-      </c>
-      <c r="GL3" t="s">
-        <v>634</v>
-      </c>
-      <c r="GM3" t="s">
-        <v>634</v>
-      </c>
-      <c r="GN3" t="s">
-        <v>634</v>
-      </c>
-      <c r="GO3" t="s">
-        <v>634</v>
-      </c>
-      <c r="GP3" t="s">
-        <v>583</v>
-      </c>
-      <c r="GQ3" t="s">
-        <v>634</v>
-      </c>
-      <c r="GR3" t="s">
-        <v>634</v>
-      </c>
-      <c r="GS3" t="s">
-        <v>634</v>
-      </c>
-      <c r="GT3" t="s">
-        <v>583</v>
-      </c>
-      <c r="GU3" t="s">
-        <v>634</v>
-      </c>
-      <c r="GV3" t="s">
-        <v>634</v>
-      </c>
-      <c r="GW3" t="s">
-        <v>634</v>
-      </c>
-      <c r="GX3" t="s">
-        <v>634</v>
+        <v>693</v>
+      </c>
+      <c r="IT3" t="s">
+        <v>621</v>
+      </c>
+      <c r="JC3" t="s">
+        <v>699</v>
+      </c>
+      <c r="JD3" t="s">
+        <v>687</v>
+      </c>
+      <c r="JE3" t="s">
+        <v>687</v>
+      </c>
+      <c r="JF3" t="s">
+        <v>693</v>
+      </c>
+      <c r="JG3" t="s">
+        <v>621</v>
+      </c>
+      <c r="JH3" t="s">
+        <v>693</v>
+      </c>
+      <c r="JI3" t="s">
+        <v>693</v>
+      </c>
+      <c r="JJ3" t="s">
+        <v>687</v>
+      </c>
+      <c r="JK3" t="s">
+        <v>687</v>
+      </c>
+      <c r="JL3" t="s">
+        <v>687</v>
+      </c>
+      <c r="JM3" t="s">
+        <v>687</v>
+      </c>
+      <c r="JN3" t="s">
+        <v>687</v>
+      </c>
+      <c r="JO3" t="s">
+        <v>687</v>
+      </c>
+      <c r="JP3" t="s">
+        <v>687</v>
+      </c>
+      <c r="JQ3" t="s">
+        <v>693</v>
+      </c>
+      <c r="JR3" t="s">
+        <v>693</v>
+      </c>
+      <c r="JS3" t="s">
+        <v>693</v>
+      </c>
+      <c r="JT3" t="s">
+        <v>687</v>
+      </c>
+      <c r="JU3" t="s">
+        <v>687</v>
+      </c>
+      <c r="JV3" t="s">
+        <v>621</v>
+      </c>
+      <c r="JW3" t="s">
+        <v>700</v>
+      </c>
+      <c r="JX3" t="s">
+        <v>687</v>
+      </c>
+      <c r="JY3" t="s">
+        <v>687</v>
+      </c>
+      <c r="JZ3" t="s">
+        <v>687</v>
+      </c>
+      <c r="KA3" t="s">
+        <v>687</v>
+      </c>
+      <c r="KB3" t="s">
+        <v>621</v>
+      </c>
+      <c r="KC3" t="s">
+        <v>693</v>
+      </c>
+      <c r="KD3" t="s">
+        <v>693</v>
+      </c>
+      <c r="KE3" t="s">
+        <v>687</v>
+      </c>
+      <c r="KF3" t="s">
+        <v>687</v>
+      </c>
+      <c r="KG3" t="s">
+        <v>687</v>
+      </c>
+      <c r="KH3" t="s">
+        <v>687</v>
+      </c>
+      <c r="KI3" t="s">
+        <v>687</v>
+      </c>
+      <c r="KJ3" t="s">
+        <v>687</v>
+      </c>
+      <c r="KK3" t="s">
+        <v>687</v>
+      </c>
+      <c r="KL3" t="s">
+        <v>687</v>
+      </c>
+      <c r="KM3" t="s">
+        <v>687</v>
+      </c>
+      <c r="KN3" t="s">
+        <v>687</v>
       </c>
     </row>
     <row r="4" spans="1:491">
@@ -4649,7 +4742,7 @@
         <v>495</v>
       </c>
       <c r="I4" t="s">
-        <v>506</v>
+        <v>512</v>
       </c>
       <c r="J4" t="b">
         <v>1</v>
@@ -4658,211 +4751,250 @@
         <v>1</v>
       </c>
       <c r="M4" t="s">
-        <v>517</v>
+        <v>529</v>
       </c>
       <c r="O4" t="s">
-        <v>528</v>
+        <v>546</v>
       </c>
       <c r="P4" t="s">
-        <v>538</v>
+        <v>561</v>
       </c>
       <c r="Q4" t="s">
-        <v>544</v>
+        <v>571</v>
       </c>
       <c r="R4" t="s">
-        <v>545</v>
+        <v>572</v>
       </c>
       <c r="S4" t="s">
-        <v>546</v>
+        <v>573</v>
       </c>
       <c r="T4" t="s">
-        <v>547</v>
+        <v>574</v>
       </c>
       <c r="U4">
-        <v>6430</v>
+        <v>3615</v>
       </c>
       <c r="V4" s="2" t="s">
-        <v>550</v>
+        <v>577</v>
       </c>
       <c r="W4" t="s">
-        <v>544</v>
+        <v>571</v>
       </c>
       <c r="X4" t="s">
-        <v>559</v>
+        <v>592</v>
       </c>
       <c r="Y4" t="s">
-        <v>545</v>
+        <v>572</v>
       </c>
       <c r="Z4" t="s">
-        <v>546</v>
+        <v>573</v>
       </c>
       <c r="AA4" s="2" t="s">
-        <v>560</v>
+        <v>593</v>
       </c>
       <c r="AB4" t="s">
-        <v>563</v>
+        <v>596</v>
       </c>
       <c r="AI4" t="s">
-        <v>585</v>
+        <v>622</v>
       </c>
       <c r="AJ4" s="2" t="s">
-        <v>586</v>
+        <v>624</v>
       </c>
       <c r="AK4" t="s">
-        <v>587</v>
+        <v>625</v>
       </c>
       <c r="AL4">
         <v>669</v>
       </c>
       <c r="AM4" t="s">
-        <v>589</v>
+        <v>627</v>
       </c>
       <c r="AN4" t="s">
-        <v>592</v>
+        <v>630</v>
       </c>
       <c r="AO4" t="s">
-        <v>584</v>
+        <v>622</v>
       </c>
       <c r="AQ4" t="s">
         <v>495</v>
       </c>
       <c r="AR4" t="s">
-        <v>599</v>
+        <v>637</v>
       </c>
       <c r="AS4" t="s">
-        <v>610</v>
+        <v>654</v>
       </c>
       <c r="AT4" t="s">
-        <v>620</v>
+        <v>669</v>
       </c>
       <c r="AU4" t="s">
-        <v>624</v>
+        <v>674</v>
       </c>
       <c r="AV4" t="s">
-        <v>627</v>
+        <v>679</v>
       </c>
       <c r="AW4" t="s">
-        <v>630</v>
+        <v>682</v>
       </c>
       <c r="BU4" t="s">
-        <v>640</v>
-      </c>
-      <c r="BV4" t="s">
-        <v>641</v>
+        <v>622</v>
       </c>
       <c r="BW4" t="s">
-        <v>587</v>
+        <v>625</v>
       </c>
       <c r="BX4">
         <v>669</v>
       </c>
       <c r="BY4" t="s">
-        <v>589</v>
+        <v>627</v>
       </c>
       <c r="BZ4" t="s">
-        <v>592</v>
+        <v>630</v>
       </c>
       <c r="CA4" t="s">
-        <v>584</v>
+        <v>622</v>
       </c>
       <c r="CC4" t="s">
         <v>495</v>
       </c>
       <c r="CE4" t="s">
-        <v>599</v>
+        <v>637</v>
       </c>
       <c r="CF4" t="s">
-        <v>610</v>
+        <v>654</v>
       </c>
       <c r="CG4" t="s">
-        <v>620</v>
+        <v>669</v>
       </c>
       <c r="CH4" t="s">
-        <v>624</v>
-      </c>
-      <c r="GY4" t="s">
-        <v>634</v>
-      </c>
-      <c r="GZ4" t="s">
-        <v>634</v>
-      </c>
-      <c r="HA4" t="s">
-        <v>634</v>
-      </c>
-      <c r="HB4" t="s">
-        <v>634</v>
-      </c>
-      <c r="HC4" t="s">
-        <v>639</v>
-      </c>
-      <c r="HD4" t="s">
-        <v>639</v>
-      </c>
-      <c r="HE4" t="s">
-        <v>639</v>
-      </c>
-      <c r="HF4" t="s">
-        <v>583</v>
-      </c>
-      <c r="HG4" t="s">
-        <v>634</v>
-      </c>
-      <c r="HH4" t="s">
-        <v>583</v>
-      </c>
-      <c r="HI4" t="s">
-        <v>583</v>
-      </c>
-      <c r="HJ4" t="s">
-        <v>639</v>
-      </c>
-      <c r="HK4" t="s">
-        <v>634</v>
-      </c>
-      <c r="HL4" t="s">
-        <v>634</v>
-      </c>
-      <c r="HM4" t="s">
-        <v>664</v>
-      </c>
-      <c r="HN4" t="s">
-        <v>634</v>
-      </c>
-      <c r="HO4" t="s">
-        <v>583</v>
-      </c>
-      <c r="HP4" t="s">
-        <v>634</v>
-      </c>
-      <c r="HQ4" t="s">
-        <v>583</v>
-      </c>
-      <c r="HR4" t="s">
-        <v>666</v>
-      </c>
-      <c r="HS4" t="s">
-        <v>668</v>
-      </c>
-      <c r="HT4" t="s">
-        <v>639</v>
-      </c>
-      <c r="HU4" t="s">
-        <v>634</v>
-      </c>
-      <c r="HV4" t="s">
-        <v>670</v>
-      </c>
-      <c r="HW4" t="s">
-        <v>671</v>
-      </c>
-      <c r="HX4" t="s">
-        <v>672</v>
-      </c>
-      <c r="HY4" t="s">
-        <v>673</v>
-      </c>
-      <c r="HZ4" t="s">
         <v>674</v>
+      </c>
+      <c r="KO4" t="s">
+        <v>702</v>
+      </c>
+      <c r="KP4" t="s">
+        <v>687</v>
+      </c>
+      <c r="KQ4" t="s">
+        <v>687</v>
+      </c>
+      <c r="KR4" t="s">
+        <v>693</v>
+      </c>
+      <c r="KS4" t="s">
+        <v>687</v>
+      </c>
+      <c r="KT4" t="s">
+        <v>687</v>
+      </c>
+      <c r="KU4" t="s">
+        <v>687</v>
+      </c>
+      <c r="KV4" t="s">
+        <v>687</v>
+      </c>
+      <c r="KW4" t="s">
+        <v>687</v>
+      </c>
+      <c r="KX4" t="s">
+        <v>687</v>
+      </c>
+      <c r="KY4" t="s">
+        <v>687</v>
+      </c>
+      <c r="KZ4" t="s">
+        <v>687</v>
+      </c>
+      <c r="LA4" t="s">
+        <v>705</v>
+      </c>
+      <c r="LB4" t="s">
+        <v>687</v>
+      </c>
+      <c r="LC4" t="s">
+        <v>687</v>
+      </c>
+      <c r="LD4" t="s">
+        <v>687</v>
+      </c>
+      <c r="LE4" t="s">
+        <v>687</v>
+      </c>
+      <c r="LF4" t="s">
+        <v>687</v>
+      </c>
+      <c r="LG4" t="s">
+        <v>687</v>
+      </c>
+      <c r="LH4" t="s">
+        <v>687</v>
+      </c>
+      <c r="LI4" t="s">
+        <v>687</v>
+      </c>
+      <c r="LJ4" t="s">
+        <v>687</v>
+      </c>
+      <c r="LK4" t="s">
+        <v>687</v>
+      </c>
+      <c r="LL4" t="s">
+        <v>687</v>
+      </c>
+      <c r="LM4" t="s">
+        <v>687</v>
+      </c>
+      <c r="LN4" t="s">
+        <v>687</v>
+      </c>
+      <c r="LO4" t="s">
+        <v>687</v>
+      </c>
+      <c r="LP4" t="s">
+        <v>621</v>
+      </c>
+      <c r="LQ4" t="s">
+        <v>687</v>
+      </c>
+      <c r="LR4" t="s">
+        <v>621</v>
+      </c>
+      <c r="LS4" t="s">
+        <v>693</v>
+      </c>
+      <c r="LT4" t="s">
+        <v>687</v>
+      </c>
+      <c r="LU4" t="s">
+        <v>687</v>
+      </c>
+      <c r="LV4" t="s">
+        <v>687</v>
+      </c>
+      <c r="LW4" t="s">
+        <v>621</v>
+      </c>
+      <c r="LX4" t="s">
+        <v>687</v>
+      </c>
+      <c r="LY4" t="s">
+        <v>693</v>
+      </c>
+      <c r="LZ4" t="s">
+        <v>687</v>
+      </c>
+      <c r="MA4" t="s">
+        <v>687</v>
+      </c>
+      <c r="MB4" t="s">
+        <v>693</v>
+      </c>
+      <c r="MC4" t="s">
+        <v>621</v>
+      </c>
+      <c r="MD4" t="s">
+        <v>687</v>
       </c>
     </row>
     <row r="5" spans="1:491">
@@ -4885,7 +5017,7 @@
         <v>496</v>
       </c>
       <c r="I5" t="s">
-        <v>507</v>
+        <v>513</v>
       </c>
       <c r="J5" t="b">
         <v>1</v>
@@ -4894,385 +5026,202 @@
         <v>1</v>
       </c>
       <c r="M5" t="s">
-        <v>518</v>
+        <v>530</v>
       </c>
       <c r="O5" t="s">
-        <v>529</v>
+        <v>547</v>
       </c>
       <c r="P5" t="s">
-        <v>539</v>
+        <v>562</v>
       </c>
       <c r="Q5" t="s">
-        <v>544</v>
+        <v>571</v>
       </c>
       <c r="R5" t="s">
-        <v>545</v>
+        <v>572</v>
       </c>
       <c r="S5" t="s">
-        <v>546</v>
+        <v>573</v>
       </c>
       <c r="T5" t="s">
-        <v>547</v>
+        <v>574</v>
       </c>
       <c r="U5">
-        <v>8273</v>
+        <v>6359</v>
       </c>
       <c r="V5" s="2" t="s">
-        <v>551</v>
+        <v>578</v>
       </c>
       <c r="W5" t="s">
-        <v>544</v>
+        <v>571</v>
       </c>
       <c r="X5" t="s">
-        <v>559</v>
+        <v>592</v>
       </c>
       <c r="Y5" t="s">
-        <v>545</v>
+        <v>572</v>
       </c>
       <c r="Z5" t="s">
-        <v>546</v>
+        <v>573</v>
       </c>
       <c r="AA5" s="2" t="s">
-        <v>560</v>
+        <v>593</v>
       </c>
       <c r="AB5" t="s">
-        <v>562</v>
+        <v>597</v>
       </c>
       <c r="AI5" t="s">
-        <v>584</v>
+        <v>623</v>
       </c>
       <c r="AJ5" s="2" t="s">
-        <v>586</v>
+        <v>624</v>
       </c>
       <c r="AK5" t="s">
-        <v>588</v>
+        <v>625</v>
       </c>
       <c r="AL5">
         <v>669</v>
       </c>
       <c r="AM5" t="s">
-        <v>590</v>
+        <v>627</v>
       </c>
       <c r="AN5" t="s">
-        <v>593</v>
+        <v>631</v>
       </c>
       <c r="AO5" t="s">
-        <v>584</v>
+        <v>622</v>
       </c>
       <c r="AQ5" t="s">
         <v>496</v>
       </c>
       <c r="AR5" t="s">
-        <v>600</v>
+        <v>638</v>
       </c>
       <c r="AS5" t="s">
-        <v>611</v>
+        <v>655</v>
       </c>
       <c r="AT5" t="s">
-        <v>619</v>
+        <v>670</v>
       </c>
       <c r="AU5" t="s">
-        <v>623</v>
+        <v>675</v>
       </c>
       <c r="AV5" t="s">
-        <v>628</v>
+        <v>679</v>
       </c>
       <c r="AW5" t="s">
-        <v>631</v>
+        <v>682</v>
       </c>
       <c r="BU5" t="s">
-        <v>584</v>
+        <v>694</v>
+      </c>
+      <c r="BV5" t="s">
+        <v>695</v>
       </c>
       <c r="BW5" t="s">
-        <v>588</v>
+        <v>625</v>
       </c>
       <c r="BX5">
         <v>669</v>
       </c>
       <c r="BY5" t="s">
-        <v>590</v>
+        <v>627</v>
       </c>
       <c r="BZ5" t="s">
-        <v>593</v>
+        <v>631</v>
       </c>
       <c r="CA5" t="s">
-        <v>584</v>
+        <v>622</v>
       </c>
       <c r="CC5" t="s">
         <v>496</v>
       </c>
       <c r="CE5" t="s">
-        <v>600</v>
+        <v>638</v>
       </c>
       <c r="CF5" t="s">
-        <v>611</v>
+        <v>655</v>
       </c>
       <c r="CG5" t="s">
-        <v>619</v>
+        <v>670</v>
       </c>
       <c r="CH5" t="s">
-        <v>623</v>
-      </c>
-      <c r="CI5" t="s">
-        <v>643</v>
-      </c>
-      <c r="CJ5" t="s">
-        <v>583</v>
-      </c>
-      <c r="CK5" t="s">
-        <v>583</v>
-      </c>
-      <c r="CL5" t="s">
-        <v>583</v>
-      </c>
-      <c r="CM5" t="s">
-        <v>583</v>
-      </c>
-      <c r="CN5" t="s">
-        <v>583</v>
-      </c>
-      <c r="CO5" t="s">
-        <v>634</v>
-      </c>
-      <c r="CS5" t="s">
-        <v>634</v>
-      </c>
-      <c r="CT5" t="s">
-        <v>634</v>
-      </c>
-      <c r="CU5" t="s">
-        <v>634</v>
-      </c>
-      <c r="CV5" t="s">
-        <v>634</v>
-      </c>
-      <c r="CW5" t="s">
-        <v>645</v>
-      </c>
-      <c r="CX5" t="s">
-        <v>647</v>
-      </c>
-      <c r="CY5" t="s">
-        <v>634</v>
-      </c>
-      <c r="DF5" t="s">
-        <v>583</v>
-      </c>
-      <c r="DG5" t="s">
-        <v>583</v>
-      </c>
-      <c r="DO5" t="s">
-        <v>650</v>
-      </c>
-      <c r="DP5" t="s">
-        <v>652</v>
-      </c>
-      <c r="DQ5" t="s">
-        <v>583</v>
-      </c>
-      <c r="DR5" t="s">
-        <v>654</v>
-      </c>
-      <c r="DS5" t="s">
-        <v>655</v>
-      </c>
-      <c r="DT5" t="s">
-        <v>634</v>
-      </c>
-      <c r="DV5" t="s">
-        <v>634</v>
-      </c>
-      <c r="DW5" t="s">
-        <v>634</v>
-      </c>
-      <c r="DX5" t="s">
-        <v>634</v>
-      </c>
-      <c r="DY5" t="s">
-        <v>634</v>
-      </c>
-      <c r="DZ5" t="s">
-        <v>634</v>
-      </c>
-      <c r="EA5" t="s">
-        <v>634</v>
-      </c>
-      <c r="EB5" t="s">
-        <v>634</v>
-      </c>
-      <c r="EC5" t="s">
-        <v>634</v>
-      </c>
-      <c r="ED5" t="s">
-        <v>634</v>
-      </c>
-      <c r="EE5" t="s">
-        <v>656</v>
-      </c>
-      <c r="EH5" t="s">
-        <v>634</v>
-      </c>
-      <c r="EJ5" t="s">
-        <v>634</v>
-      </c>
-      <c r="EK5" t="s">
-        <v>583</v>
-      </c>
-      <c r="EL5" t="s">
-        <v>583</v>
-      </c>
-      <c r="EY5" t="s">
-        <v>634</v>
-      </c>
-      <c r="EZ5" t="s">
-        <v>634</v>
-      </c>
-      <c r="FA5" t="s">
-        <v>634</v>
-      </c>
-      <c r="FB5" t="s">
-        <v>634</v>
-      </c>
-      <c r="FC5" t="s">
-        <v>639</v>
-      </c>
-      <c r="FD5" t="s">
-        <v>634</v>
-      </c>
-      <c r="FF5" t="s">
-        <v>639</v>
-      </c>
-      <c r="FG5" t="s">
-        <v>660</v>
-      </c>
-      <c r="FH5" t="s">
-        <v>583</v>
-      </c>
-      <c r="FI5" t="s">
-        <v>583</v>
-      </c>
-      <c r="FJ5" t="s">
-        <v>583</v>
-      </c>
-      <c r="FK5" t="s">
-        <v>634</v>
-      </c>
-      <c r="FL5" t="s">
-        <v>661</v>
-      </c>
-      <c r="FM5" t="s">
-        <v>639</v>
-      </c>
-      <c r="FN5" t="s">
-        <v>634</v>
-      </c>
-      <c r="FO5" t="s">
-        <v>634</v>
-      </c>
-      <c r="FP5" t="s">
-        <v>634</v>
-      </c>
-      <c r="FQ5" t="s">
-        <v>634</v>
-      </c>
-      <c r="FR5" t="s">
-        <v>634</v>
-      </c>
-      <c r="FS5" t="s">
-        <v>634</v>
-      </c>
-      <c r="FT5" t="s">
-        <v>634</v>
-      </c>
-      <c r="FU5" t="s">
-        <v>634</v>
-      </c>
-      <c r="FV5" t="s">
-        <v>663</v>
-      </c>
-      <c r="FW5" t="s">
-        <v>634</v>
-      </c>
-      <c r="FX5" t="s">
-        <v>634</v>
-      </c>
-      <c r="FY5" t="s">
-        <v>583</v>
-      </c>
-      <c r="FZ5" t="s">
-        <v>634</v>
-      </c>
-      <c r="GA5" t="s">
-        <v>583</v>
-      </c>
-      <c r="GB5" t="s">
-        <v>583</v>
-      </c>
-      <c r="GC5" t="s">
-        <v>583</v>
-      </c>
-      <c r="GD5" t="s">
-        <v>583</v>
-      </c>
-      <c r="GE5" t="s">
-        <v>634</v>
-      </c>
-      <c r="GF5" t="s">
-        <v>634</v>
-      </c>
-      <c r="GG5" t="s">
-        <v>634</v>
-      </c>
-      <c r="GH5" t="s">
-        <v>639</v>
-      </c>
-      <c r="GI5" t="s">
-        <v>634</v>
-      </c>
-      <c r="GJ5" t="s">
-        <v>634</v>
-      </c>
-      <c r="GK5" t="s">
-        <v>634</v>
-      </c>
-      <c r="GL5" t="s">
-        <v>634</v>
-      </c>
-      <c r="GM5" t="s">
-        <v>634</v>
-      </c>
-      <c r="GN5" t="s">
-        <v>634</v>
-      </c>
-      <c r="GO5" t="s">
-        <v>634</v>
-      </c>
-      <c r="GP5" t="s">
-        <v>583</v>
-      </c>
-      <c r="GQ5" t="s">
-        <v>634</v>
-      </c>
-      <c r="GR5" t="s">
-        <v>639</v>
-      </c>
-      <c r="GS5" t="s">
-        <v>639</v>
-      </c>
-      <c r="GT5" t="s">
-        <v>583</v>
-      </c>
-      <c r="GU5" t="s">
-        <v>634</v>
-      </c>
-      <c r="GV5" t="s">
-        <v>634</v>
-      </c>
-      <c r="GW5" t="s">
-        <v>634</v>
-      </c>
-      <c r="GX5" t="s">
-        <v>634</v>
+        <v>675</v>
+      </c>
+      <c r="ME5" t="s">
+        <v>693</v>
+      </c>
+      <c r="MF5" t="s">
+        <v>687</v>
+      </c>
+      <c r="MG5" t="s">
+        <v>693</v>
+      </c>
+      <c r="MH5" t="s">
+        <v>693</v>
+      </c>
+      <c r="MI5" t="s">
+        <v>687</v>
+      </c>
+      <c r="MK5" t="s">
+        <v>693</v>
+      </c>
+      <c r="ML5" t="s">
+        <v>621</v>
+      </c>
+      <c r="MM5" t="s">
+        <v>687</v>
+      </c>
+      <c r="MN5" t="s">
+        <v>621</v>
+      </c>
+      <c r="MO5" t="s">
+        <v>621</v>
+      </c>
+      <c r="MP5" t="s">
+        <v>687</v>
+      </c>
+      <c r="MS5" t="s">
+        <v>709</v>
+      </c>
+      <c r="MT5" t="s">
+        <v>687</v>
+      </c>
+      <c r="MU5" t="s">
+        <v>621</v>
+      </c>
+      <c r="MV5" t="s">
+        <v>687</v>
+      </c>
+      <c r="MW5" t="s">
+        <v>621</v>
+      </c>
+      <c r="MX5" t="s">
+        <v>713</v>
+      </c>
+      <c r="MY5" t="s">
+        <v>717</v>
+      </c>
+      <c r="MZ5" t="s">
+        <v>687</v>
+      </c>
+      <c r="NA5" t="s">
+        <v>687</v>
+      </c>
+      <c r="NB5" t="s">
+        <v>721</v>
+      </c>
+      <c r="NC5" t="s">
+        <v>722</v>
+      </c>
+      <c r="ND5" t="s">
+        <v>723</v>
+      </c>
+      <c r="NE5" t="s">
+        <v>724</v>
+      </c>
+      <c r="NF5" t="s">
+        <v>725</v>
       </c>
     </row>
     <row r="6" spans="1:491">
@@ -5295,7 +5244,7 @@
         <v>497</v>
       </c>
       <c r="I6" t="s">
-        <v>508</v>
+        <v>514</v>
       </c>
       <c r="J6" t="b">
         <v>1</v>
@@ -5304,253 +5253,211 @@
         <v>1</v>
       </c>
       <c r="M6" t="s">
-        <v>519</v>
+        <v>531</v>
       </c>
       <c r="O6" t="s">
-        <v>530</v>
+        <v>548</v>
       </c>
       <c r="P6" t="s">
-        <v>540</v>
+        <v>563</v>
       </c>
       <c r="Q6" t="s">
-        <v>544</v>
+        <v>571</v>
       </c>
       <c r="R6" t="s">
-        <v>545</v>
+        <v>572</v>
       </c>
       <c r="S6" t="s">
-        <v>546</v>
+        <v>573</v>
       </c>
       <c r="T6" t="s">
-        <v>547</v>
+        <v>574</v>
       </c>
       <c r="U6">
-        <v>3975</v>
+        <v>6356</v>
       </c>
       <c r="V6" s="2" t="s">
-        <v>552</v>
+        <v>579</v>
       </c>
       <c r="W6" t="s">
-        <v>544</v>
+        <v>571</v>
       </c>
       <c r="X6" t="s">
-        <v>559</v>
+        <v>592</v>
       </c>
       <c r="Y6" t="s">
-        <v>545</v>
+        <v>572</v>
       </c>
       <c r="Z6" t="s">
-        <v>546</v>
+        <v>573</v>
       </c>
       <c r="AA6" s="2" t="s">
-        <v>560</v>
+        <v>593</v>
       </c>
       <c r="AB6" t="s">
-        <v>564</v>
+        <v>597</v>
       </c>
       <c r="AI6" t="s">
-        <v>584</v>
+        <v>623</v>
       </c>
       <c r="AJ6" s="2" t="s">
-        <v>586</v>
+        <v>624</v>
       </c>
       <c r="AK6" t="s">
-        <v>588</v>
+        <v>626</v>
       </c>
       <c r="AL6">
         <v>669</v>
       </c>
       <c r="AM6" t="s">
-        <v>590</v>
+        <v>628</v>
       </c>
       <c r="AN6" t="s">
-        <v>594</v>
+        <v>632</v>
       </c>
       <c r="AO6" t="s">
-        <v>584</v>
+        <v>622</v>
       </c>
       <c r="AQ6" t="s">
         <v>497</v>
       </c>
       <c r="AR6" t="s">
-        <v>601</v>
+        <v>639</v>
       </c>
       <c r="AS6" t="s">
-        <v>612</v>
+        <v>656</v>
       </c>
       <c r="AT6" t="s">
-        <v>620</v>
+        <v>671</v>
       </c>
       <c r="AU6" t="s">
-        <v>624</v>
+        <v>676</v>
       </c>
       <c r="AV6" t="s">
-        <v>627</v>
+        <v>680</v>
       </c>
       <c r="AW6" t="s">
-        <v>630</v>
+        <v>683</v>
       </c>
       <c r="BU6" t="s">
-        <v>584</v>
+        <v>694</v>
+      </c>
+      <c r="BV6" t="s">
+        <v>695</v>
       </c>
       <c r="BW6" t="s">
-        <v>588</v>
+        <v>626</v>
       </c>
       <c r="BX6">
         <v>669</v>
       </c>
       <c r="BY6" t="s">
-        <v>590</v>
+        <v>628</v>
       </c>
       <c r="BZ6" t="s">
-        <v>594</v>
+        <v>632</v>
       </c>
       <c r="CA6" t="s">
-        <v>584</v>
+        <v>622</v>
       </c>
       <c r="CC6" t="s">
         <v>497</v>
       </c>
       <c r="CE6" t="s">
-        <v>601</v>
+        <v>639</v>
       </c>
       <c r="CF6" t="s">
-        <v>612</v>
+        <v>656</v>
       </c>
       <c r="CG6" t="s">
-        <v>620</v>
+        <v>671</v>
       </c>
       <c r="CH6" t="s">
-        <v>624</v>
-      </c>
-      <c r="IA6" t="s">
-        <v>675</v>
-      </c>
-      <c r="IB6" t="s">
-        <v>634</v>
-      </c>
-      <c r="IC6" t="s">
-        <v>634</v>
-      </c>
-      <c r="ID6" t="s">
-        <v>634</v>
-      </c>
-      <c r="IE6" t="s">
-        <v>634</v>
-      </c>
-      <c r="IF6" t="s">
-        <v>639</v>
-      </c>
-      <c r="IG6" t="s">
-        <v>639</v>
-      </c>
-      <c r="IH6" t="s">
-        <v>634</v>
-      </c>
-      <c r="II6" t="s">
-        <v>634</v>
-      </c>
-      <c r="IJ6" t="s">
-        <v>634</v>
-      </c>
-      <c r="IK6" t="s">
-        <v>634</v>
-      </c>
-      <c r="IL6" t="s">
-        <v>634</v>
-      </c>
-      <c r="IM6" t="s">
-        <v>634</v>
-      </c>
-      <c r="IN6" t="s">
-        <v>677</v>
-      </c>
-      <c r="IO6" t="s">
-        <v>634</v>
-      </c>
-      <c r="IP6" t="s">
-        <v>634</v>
-      </c>
-      <c r="IQ6" t="s">
-        <v>634</v>
-      </c>
-      <c r="IR6" t="s">
-        <v>634</v>
-      </c>
-      <c r="IS6" t="s">
-        <v>639</v>
-      </c>
-      <c r="IT6" t="s">
-        <v>634</v>
-      </c>
-      <c r="IU6" t="s">
-        <v>634</v>
-      </c>
-      <c r="IV6" t="s">
-        <v>634</v>
-      </c>
-      <c r="IW6" t="s">
-        <v>634</v>
-      </c>
-      <c r="IX6" t="s">
-        <v>634</v>
-      </c>
-      <c r="IY6" t="s">
-        <v>634</v>
-      </c>
-      <c r="IZ6" t="s">
-        <v>634</v>
-      </c>
-      <c r="JA6" t="s">
-        <v>634</v>
-      </c>
-      <c r="JB6" t="s">
-        <v>634</v>
-      </c>
-      <c r="JC6" t="s">
-        <v>583</v>
-      </c>
-      <c r="JD6" t="s">
-        <v>634</v>
-      </c>
-      <c r="JE6" t="s">
-        <v>583</v>
-      </c>
-      <c r="JF6" t="s">
-        <v>634</v>
-      </c>
-      <c r="JG6" t="s">
-        <v>639</v>
-      </c>
-      <c r="JH6" t="s">
-        <v>634</v>
-      </c>
-      <c r="JI6" t="s">
-        <v>634</v>
-      </c>
-      <c r="JJ6" t="s">
-        <v>583</v>
-      </c>
-      <c r="JK6" t="s">
-        <v>634</v>
-      </c>
-      <c r="JL6" t="s">
-        <v>634</v>
-      </c>
-      <c r="JM6" t="s">
-        <v>634</v>
-      </c>
-      <c r="JN6" t="s">
-        <v>634</v>
-      </c>
-      <c r="JO6" t="s">
-        <v>634</v>
-      </c>
-      <c r="JP6" t="s">
-        <v>583</v>
-      </c>
-      <c r="JQ6" t="s">
-        <v>634</v>
+        <v>676</v>
+      </c>
+      <c r="ME6" t="s">
+        <v>693</v>
+      </c>
+      <c r="MF6" t="s">
+        <v>687</v>
+      </c>
+      <c r="MG6" t="s">
+        <v>687</v>
+      </c>
+      <c r="MH6" t="s">
+        <v>687</v>
+      </c>
+      <c r="MI6" t="s">
+        <v>693</v>
+      </c>
+      <c r="MJ6" t="s">
+        <v>693</v>
+      </c>
+      <c r="MK6" t="s">
+        <v>693</v>
+      </c>
+      <c r="ML6" t="s">
+        <v>621</v>
+      </c>
+      <c r="MM6" t="s">
+        <v>687</v>
+      </c>
+      <c r="MN6" t="s">
+        <v>621</v>
+      </c>
+      <c r="MO6" t="s">
+        <v>621</v>
+      </c>
+      <c r="MP6" t="s">
+        <v>693</v>
+      </c>
+      <c r="MQ6" t="s">
+        <v>693</v>
+      </c>
+      <c r="MR6" t="s">
+        <v>687</v>
+      </c>
+      <c r="MS6" t="s">
+        <v>710</v>
+      </c>
+      <c r="MT6" t="s">
+        <v>687</v>
+      </c>
+      <c r="MU6" t="s">
+        <v>621</v>
+      </c>
+      <c r="MV6" t="s">
+        <v>687</v>
+      </c>
+      <c r="MW6" t="s">
+        <v>621</v>
+      </c>
+      <c r="MX6" t="s">
+        <v>714</v>
+      </c>
+      <c r="MY6" t="s">
+        <v>718</v>
+      </c>
+      <c r="MZ6" t="s">
+        <v>687</v>
+      </c>
+      <c r="NA6" t="s">
+        <v>687</v>
+      </c>
+      <c r="NB6" t="s">
+        <v>721</v>
+      </c>
+      <c r="NC6" t="s">
+        <v>722</v>
+      </c>
+      <c r="ND6" t="s">
+        <v>723</v>
+      </c>
+      <c r="NE6" t="s">
+        <v>724</v>
+      </c>
+      <c r="NF6" t="s">
+        <v>725</v>
       </c>
     </row>
     <row r="7" spans="1:491">
@@ -5573,7 +5480,7 @@
         <v>498</v>
       </c>
       <c r="I7" t="s">
-        <v>509</v>
+        <v>515</v>
       </c>
       <c r="J7" t="b">
         <v>1</v>
@@ -5582,211 +5489,244 @@
         <v>1</v>
       </c>
       <c r="M7" t="s">
-        <v>520</v>
+        <v>532</v>
       </c>
       <c r="O7" t="s">
-        <v>531</v>
+        <v>549</v>
       </c>
       <c r="P7" t="s">
-        <v>539</v>
+        <v>563</v>
       </c>
       <c r="Q7" t="s">
-        <v>544</v>
+        <v>571</v>
       </c>
       <c r="R7" t="s">
-        <v>545</v>
+        <v>572</v>
       </c>
       <c r="S7" t="s">
-        <v>546</v>
+        <v>573</v>
       </c>
       <c r="T7" t="s">
-        <v>547</v>
+        <v>574</v>
       </c>
       <c r="U7">
-        <v>3305</v>
+        <v>3254</v>
       </c>
       <c r="V7" s="2" t="s">
-        <v>553</v>
+        <v>580</v>
       </c>
       <c r="W7" t="s">
-        <v>544</v>
+        <v>571</v>
       </c>
       <c r="X7" t="s">
-        <v>559</v>
+        <v>592</v>
       </c>
       <c r="Y7" t="s">
-        <v>545</v>
+        <v>572</v>
       </c>
       <c r="Z7" t="s">
-        <v>546</v>
+        <v>573</v>
       </c>
       <c r="AA7" s="2" t="s">
-        <v>560</v>
+        <v>593</v>
       </c>
       <c r="AB7" t="s">
-        <v>561</v>
-      </c>
-      <c r="AC7" t="s">
-        <v>567</v>
-      </c>
-      <c r="AD7" t="s">
-        <v>570</v>
-      </c>
-      <c r="AE7" t="s">
-        <v>573</v>
-      </c>
-      <c r="AF7" t="s">
-        <v>577</v>
-      </c>
-      <c r="AG7" t="s">
-        <v>581</v>
-      </c>
-      <c r="AH7" t="s">
-        <v>583</v>
+        <v>596</v>
       </c>
       <c r="AI7" t="s">
-        <v>584</v>
+        <v>622</v>
       </c>
       <c r="AJ7" s="2" t="s">
-        <v>586</v>
+        <v>624</v>
       </c>
       <c r="AK7" t="s">
-        <v>588</v>
+        <v>625</v>
       </c>
       <c r="AL7">
         <v>669</v>
       </c>
       <c r="AM7" t="s">
-        <v>590</v>
+        <v>627</v>
       </c>
       <c r="AN7" t="s">
-        <v>593</v>
+        <v>633</v>
       </c>
       <c r="AO7" t="s">
-        <v>584</v>
+        <v>622</v>
       </c>
       <c r="AQ7" t="s">
         <v>498</v>
       </c>
       <c r="AR7" t="s">
-        <v>602</v>
+        <v>640</v>
       </c>
       <c r="AS7" t="s">
-        <v>613</v>
+        <v>657</v>
       </c>
       <c r="AT7" t="s">
-        <v>619</v>
+        <v>672</v>
       </c>
       <c r="AU7" t="s">
-        <v>623</v>
+        <v>677</v>
       </c>
       <c r="AV7" t="s">
-        <v>628</v>
+        <v>680</v>
       </c>
       <c r="AW7" t="s">
-        <v>631</v>
-      </c>
-      <c r="AX7" t="s">
-        <v>634</v>
-      </c>
-      <c r="AY7" t="s">
-        <v>634</v>
-      </c>
-      <c r="AZ7" t="s">
-        <v>634</v>
-      </c>
-      <c r="BA7" t="s">
-        <v>634</v>
-      </c>
-      <c r="BB7" t="s">
-        <v>634</v>
-      </c>
-      <c r="BC7" t="s">
-        <v>634</v>
-      </c>
-      <c r="BD7" t="s">
-        <v>634</v>
-      </c>
-      <c r="BE7" t="s">
-        <v>634</v>
-      </c>
-      <c r="BF7" t="s">
-        <v>636</v>
-      </c>
-      <c r="BG7" t="s">
-        <v>639</v>
-      </c>
-      <c r="BH7" t="s">
-        <v>583</v>
-      </c>
-      <c r="BI7" t="s">
-        <v>634</v>
-      </c>
-      <c r="BJ7" t="s">
-        <v>634</v>
-      </c>
-      <c r="BK7" t="s">
-        <v>634</v>
-      </c>
-      <c r="BL7" t="s">
-        <v>634</v>
-      </c>
-      <c r="BM7" t="s">
-        <v>634</v>
-      </c>
-      <c r="BN7" t="s">
-        <v>583</v>
-      </c>
-      <c r="BO7" t="s">
-        <v>583</v>
-      </c>
-      <c r="BP7" t="s">
-        <v>634</v>
-      </c>
-      <c r="BQ7" t="s">
-        <v>583</v>
-      </c>
-      <c r="BR7" t="s">
-        <v>634</v>
-      </c>
-      <c r="BS7" t="s">
-        <v>583</v>
-      </c>
-      <c r="BT7" t="s">
-        <v>639</v>
+        <v>683</v>
       </c>
       <c r="BU7" t="s">
-        <v>584</v>
+        <v>622</v>
       </c>
       <c r="BW7" t="s">
-        <v>588</v>
+        <v>625</v>
       </c>
       <c r="BX7">
         <v>669</v>
       </c>
       <c r="BY7" t="s">
-        <v>590</v>
+        <v>627</v>
       </c>
       <c r="BZ7" t="s">
-        <v>593</v>
+        <v>633</v>
       </c>
       <c r="CA7" t="s">
-        <v>584</v>
+        <v>622</v>
       </c>
       <c r="CC7" t="s">
         <v>498</v>
       </c>
       <c r="CE7" t="s">
-        <v>602</v>
+        <v>640</v>
       </c>
       <c r="CF7" t="s">
-        <v>613</v>
+        <v>657</v>
       </c>
       <c r="CG7" t="s">
-        <v>619</v>
+        <v>672</v>
       </c>
       <c r="CH7" t="s">
-        <v>623</v>
+        <v>677</v>
+      </c>
+      <c r="KP7" t="s">
+        <v>687</v>
+      </c>
+      <c r="KQ7" t="s">
+        <v>687</v>
+      </c>
+      <c r="KR7" t="s">
+        <v>693</v>
+      </c>
+      <c r="KS7" t="s">
+        <v>693</v>
+      </c>
+      <c r="KT7" t="s">
+        <v>687</v>
+      </c>
+      <c r="KU7" t="s">
+        <v>687</v>
+      </c>
+      <c r="KV7" t="s">
+        <v>687</v>
+      </c>
+      <c r="KW7" t="s">
+        <v>687</v>
+      </c>
+      <c r="KX7" t="s">
+        <v>687</v>
+      </c>
+      <c r="KY7" t="s">
+        <v>687</v>
+      </c>
+      <c r="KZ7" t="s">
+        <v>687</v>
+      </c>
+      <c r="LA7" t="s">
+        <v>706</v>
+      </c>
+      <c r="LB7" t="s">
+        <v>687</v>
+      </c>
+      <c r="LC7" t="s">
+        <v>687</v>
+      </c>
+      <c r="LD7" t="s">
+        <v>687</v>
+      </c>
+      <c r="LE7" t="s">
+        <v>687</v>
+      </c>
+      <c r="LF7" t="s">
+        <v>693</v>
+      </c>
+      <c r="LG7" t="s">
+        <v>687</v>
+      </c>
+      <c r="LH7" t="s">
+        <v>693</v>
+      </c>
+      <c r="LJ7" t="s">
+        <v>693</v>
+      </c>
+      <c r="LK7" t="s">
+        <v>687</v>
+      </c>
+      <c r="LL7" t="s">
+        <v>687</v>
+      </c>
+      <c r="LM7" t="s">
+        <v>687</v>
+      </c>
+      <c r="LN7" t="s">
+        <v>687</v>
+      </c>
+      <c r="LO7" t="s">
+        <v>687</v>
+      </c>
+      <c r="LP7" t="s">
+        <v>621</v>
+      </c>
+      <c r="LQ7" t="s">
+        <v>693</v>
+      </c>
+      <c r="LR7" t="s">
+        <v>621</v>
+      </c>
+      <c r="LS7" t="s">
+        <v>693</v>
+      </c>
+      <c r="LT7" t="s">
+        <v>687</v>
+      </c>
+      <c r="LU7" t="s">
+        <v>687</v>
+      </c>
+      <c r="LV7" t="s">
+        <v>687</v>
+      </c>
+      <c r="LW7" t="s">
+        <v>621</v>
+      </c>
+      <c r="LX7" t="s">
+        <v>687</v>
+      </c>
+      <c r="LY7" t="s">
+        <v>687</v>
+      </c>
+      <c r="LZ7" t="s">
+        <v>687</v>
+      </c>
+      <c r="MA7" t="s">
+        <v>687</v>
+      </c>
+      <c r="MB7" t="s">
+        <v>687</v>
+      </c>
+      <c r="MC7" t="s">
+        <v>621</v>
+      </c>
+      <c r="MD7" t="s">
+        <v>687</v>
       </c>
     </row>
     <row r="8" spans="1:491">
@@ -5809,7 +5749,7 @@
         <v>499</v>
       </c>
       <c r="I8" t="s">
-        <v>510</v>
+        <v>516</v>
       </c>
       <c r="J8" t="b">
         <v>1</v>
@@ -5818,253 +5758,181 @@
         <v>1</v>
       </c>
       <c r="M8" t="s">
-        <v>521</v>
+        <v>533</v>
       </c>
       <c r="O8" t="s">
-        <v>532</v>
+        <v>550</v>
       </c>
       <c r="P8" t="s">
-        <v>541</v>
+        <v>564</v>
       </c>
       <c r="Q8" t="s">
-        <v>544</v>
+        <v>571</v>
       </c>
       <c r="R8" t="s">
-        <v>545</v>
+        <v>572</v>
       </c>
       <c r="S8" t="s">
-        <v>546</v>
+        <v>573</v>
       </c>
       <c r="T8" t="s">
-        <v>547</v>
+        <v>574</v>
       </c>
       <c r="U8">
-        <v>3505</v>
+        <v>5297</v>
       </c>
       <c r="V8" s="2" t="s">
-        <v>554</v>
+        <v>581</v>
       </c>
       <c r="W8" t="s">
-        <v>544</v>
+        <v>571</v>
       </c>
       <c r="X8" t="s">
-        <v>559</v>
+        <v>592</v>
       </c>
       <c r="Y8" t="s">
-        <v>545</v>
+        <v>572</v>
       </c>
       <c r="Z8" t="s">
-        <v>546</v>
+        <v>573</v>
       </c>
       <c r="AA8" s="2" t="s">
-        <v>560</v>
+        <v>593</v>
       </c>
       <c r="AB8" t="s">
-        <v>564</v>
+        <v>594</v>
+      </c>
+      <c r="AC8" t="s">
+        <v>600</v>
+      </c>
+      <c r="AE8" t="s">
+        <v>608</v>
+      </c>
+      <c r="AF8" t="s">
+        <v>613</v>
+      </c>
+      <c r="AG8" t="s">
+        <v>618</v>
+      </c>
+      <c r="AH8" t="s">
+        <v>621</v>
       </c>
       <c r="AI8" t="s">
-        <v>584</v>
+        <v>622</v>
       </c>
       <c r="AJ8" s="2" t="s">
-        <v>586</v>
+        <v>624</v>
       </c>
       <c r="AK8" t="s">
-        <v>588</v>
+        <v>626</v>
       </c>
       <c r="AL8">
         <v>669</v>
       </c>
       <c r="AM8" t="s">
-        <v>590</v>
+        <v>628</v>
       </c>
       <c r="AN8" t="s">
-        <v>595</v>
+        <v>632</v>
       </c>
       <c r="AO8" t="s">
-        <v>584</v>
+        <v>622</v>
       </c>
       <c r="AQ8" t="s">
         <v>499</v>
       </c>
       <c r="AR8" t="s">
-        <v>603</v>
+        <v>641</v>
       </c>
       <c r="AS8" t="s">
-        <v>614</v>
+        <v>658</v>
       </c>
       <c r="AT8" t="s">
-        <v>621</v>
+        <v>673</v>
       </c>
       <c r="AU8" t="s">
-        <v>625</v>
+        <v>678</v>
       </c>
       <c r="AV8" t="s">
-        <v>628</v>
+        <v>680</v>
       </c>
       <c r="AW8" t="s">
-        <v>631</v>
+        <v>684</v>
+      </c>
+      <c r="AZ8" t="s">
+        <v>687</v>
+      </c>
+      <c r="BA8" t="s">
+        <v>687</v>
+      </c>
+      <c r="BB8" t="s">
+        <v>687</v>
+      </c>
+      <c r="BF8" t="s">
+        <v>689</v>
+      </c>
+      <c r="BG8" t="s">
+        <v>693</v>
+      </c>
+      <c r="BH8" t="s">
+        <v>621</v>
+      </c>
+      <c r="BI8" t="s">
+        <v>687</v>
+      </c>
+      <c r="BJ8" t="s">
+        <v>687</v>
+      </c>
+      <c r="BN8" t="s">
+        <v>621</v>
+      </c>
+      <c r="BO8" t="s">
+        <v>621</v>
+      </c>
+      <c r="BP8" t="s">
+        <v>687</v>
+      </c>
+      <c r="BQ8" t="s">
+        <v>621</v>
+      </c>
+      <c r="BS8" t="s">
+        <v>621</v>
+      </c>
+      <c r="BT8" t="s">
+        <v>687</v>
       </c>
       <c r="BU8" t="s">
-        <v>584</v>
+        <v>622</v>
       </c>
       <c r="BW8" t="s">
-        <v>588</v>
+        <v>626</v>
       </c>
       <c r="BX8">
         <v>669</v>
       </c>
       <c r="BY8" t="s">
-        <v>590</v>
+        <v>628</v>
       </c>
       <c r="BZ8" t="s">
-        <v>595</v>
+        <v>632</v>
       </c>
       <c r="CA8" t="s">
-        <v>584</v>
+        <v>622</v>
       </c>
       <c r="CC8" t="s">
         <v>499</v>
       </c>
       <c r="CE8" t="s">
-        <v>603</v>
+        <v>641</v>
       </c>
       <c r="CF8" t="s">
-        <v>614</v>
+        <v>658</v>
       </c>
       <c r="CG8" t="s">
-        <v>621</v>
+        <v>673</v>
       </c>
       <c r="CH8" t="s">
-        <v>625</v>
-      </c>
-      <c r="IA8" t="s">
-        <v>676</v>
-      </c>
-      <c r="IB8" t="s">
-        <v>634</v>
-      </c>
-      <c r="IC8" t="s">
-        <v>634</v>
-      </c>
-      <c r="ID8" t="s">
-        <v>634</v>
-      </c>
-      <c r="IE8" t="s">
-        <v>634</v>
-      </c>
-      <c r="IF8" t="s">
-        <v>634</v>
-      </c>
-      <c r="IG8" t="s">
-        <v>634</v>
-      </c>
-      <c r="IH8" t="s">
-        <v>634</v>
-      </c>
-      <c r="II8" t="s">
-        <v>634</v>
-      </c>
-      <c r="IJ8" t="s">
-        <v>634</v>
-      </c>
-      <c r="IK8" t="s">
-        <v>634</v>
-      </c>
-      <c r="IL8" t="s">
-        <v>634</v>
-      </c>
-      <c r="IM8" t="s">
-        <v>634</v>
-      </c>
-      <c r="IN8" t="s">
         <v>678</v>
-      </c>
-      <c r="IO8" t="s">
-        <v>634</v>
-      </c>
-      <c r="IP8" t="s">
-        <v>634</v>
-      </c>
-      <c r="IQ8" t="s">
-        <v>634</v>
-      </c>
-      <c r="IR8" t="s">
-        <v>634</v>
-      </c>
-      <c r="IS8" t="s">
-        <v>639</v>
-      </c>
-      <c r="IT8" t="s">
-        <v>639</v>
-      </c>
-      <c r="IU8" t="s">
-        <v>634</v>
-      </c>
-      <c r="IV8" t="s">
-        <v>634</v>
-      </c>
-      <c r="IW8" t="s">
-        <v>634</v>
-      </c>
-      <c r="IX8" t="s">
-        <v>634</v>
-      </c>
-      <c r="IY8" t="s">
-        <v>634</v>
-      </c>
-      <c r="IZ8" t="s">
-        <v>634</v>
-      </c>
-      <c r="JA8" t="s">
-        <v>634</v>
-      </c>
-      <c r="JB8" t="s">
-        <v>634</v>
-      </c>
-      <c r="JC8" t="s">
-        <v>583</v>
-      </c>
-      <c r="JD8" t="s">
-        <v>634</v>
-      </c>
-      <c r="JE8" t="s">
-        <v>583</v>
-      </c>
-      <c r="JF8" t="s">
-        <v>634</v>
-      </c>
-      <c r="JG8" t="s">
-        <v>634</v>
-      </c>
-      <c r="JH8" t="s">
-        <v>634</v>
-      </c>
-      <c r="JI8" t="s">
-        <v>634</v>
-      </c>
-      <c r="JJ8" t="s">
-        <v>583</v>
-      </c>
-      <c r="JK8" t="s">
-        <v>634</v>
-      </c>
-      <c r="JL8" t="s">
-        <v>634</v>
-      </c>
-      <c r="JM8" t="s">
-        <v>634</v>
-      </c>
-      <c r="JN8" t="s">
-        <v>634</v>
-      </c>
-      <c r="JO8" t="s">
-        <v>634</v>
-      </c>
-      <c r="JP8" t="s">
-        <v>583</v>
-      </c>
-      <c r="JQ8" t="s">
-        <v>634</v>
       </c>
     </row>
     <row r="9" spans="1:491">
@@ -6087,7 +5955,7 @@
         <v>500</v>
       </c>
       <c r="I9" t="s">
-        <v>511</v>
+        <v>517</v>
       </c>
       <c r="J9" t="b">
         <v>1</v>
@@ -6096,319 +5964,466 @@
         <v>1</v>
       </c>
       <c r="M9" t="s">
-        <v>522</v>
+        <v>534</v>
       </c>
       <c r="O9" t="s">
-        <v>533</v>
+        <v>551</v>
       </c>
       <c r="P9" t="s">
-        <v>541</v>
+        <v>564</v>
       </c>
       <c r="Q9" t="s">
-        <v>544</v>
+        <v>571</v>
       </c>
       <c r="R9" t="s">
-        <v>545</v>
+        <v>572</v>
       </c>
       <c r="S9" t="s">
-        <v>546</v>
+        <v>573</v>
       </c>
       <c r="T9" t="s">
-        <v>547</v>
+        <v>574</v>
       </c>
       <c r="U9">
-        <v>12359</v>
+        <v>9336</v>
       </c>
       <c r="V9" s="2" t="s">
-        <v>555</v>
+        <v>582</v>
       </c>
       <c r="W9" t="s">
-        <v>544</v>
+        <v>571</v>
       </c>
       <c r="X9" t="s">
-        <v>559</v>
+        <v>592</v>
       </c>
       <c r="Y9" t="s">
-        <v>545</v>
+        <v>572</v>
       </c>
       <c r="Z9" t="s">
-        <v>546</v>
+        <v>573</v>
       </c>
       <c r="AA9" s="2" t="s">
-        <v>560</v>
+        <v>593</v>
       </c>
       <c r="AB9" t="s">
-        <v>565</v>
+        <v>598</v>
       </c>
       <c r="AI9" t="s">
-        <v>584</v>
+        <v>622</v>
       </c>
       <c r="AJ9" s="2" t="s">
-        <v>586</v>
+        <v>624</v>
       </c>
       <c r="AK9" t="s">
-        <v>588</v>
+        <v>626</v>
       </c>
       <c r="AL9">
         <v>669</v>
       </c>
       <c r="AM9" t="s">
-        <v>590</v>
+        <v>628</v>
       </c>
       <c r="AN9" t="s">
-        <v>595</v>
+        <v>632</v>
       </c>
       <c r="AO9" t="s">
-        <v>584</v>
+        <v>622</v>
       </c>
       <c r="AQ9" t="s">
         <v>500</v>
       </c>
       <c r="AR9" t="s">
-        <v>604</v>
+        <v>642</v>
       </c>
       <c r="AS9" t="s">
-        <v>615</v>
+        <v>659</v>
       </c>
       <c r="AT9" t="s">
-        <v>621</v>
+        <v>673</v>
       </c>
       <c r="AU9" t="s">
-        <v>625</v>
+        <v>678</v>
       </c>
       <c r="AV9" t="s">
-        <v>628</v>
+        <v>680</v>
       </c>
       <c r="AW9" t="s">
-        <v>631</v>
+        <v>684</v>
       </c>
       <c r="BU9" t="s">
-        <v>584</v>
+        <v>622</v>
       </c>
       <c r="BW9" t="s">
-        <v>588</v>
+        <v>626</v>
       </c>
       <c r="BX9">
         <v>669</v>
       </c>
       <c r="BY9" t="s">
-        <v>590</v>
+        <v>628</v>
       </c>
       <c r="BZ9" t="s">
-        <v>595</v>
+        <v>632</v>
       </c>
       <c r="CA9" t="s">
-        <v>584</v>
+        <v>622</v>
       </c>
       <c r="CC9" t="s">
         <v>500</v>
       </c>
       <c r="CE9" t="s">
-        <v>604</v>
+        <v>642</v>
       </c>
       <c r="CF9" t="s">
-        <v>615</v>
+        <v>659</v>
       </c>
       <c r="CG9" t="s">
-        <v>621</v>
+        <v>673</v>
       </c>
       <c r="CH9" t="s">
-        <v>625</v>
-      </c>
-      <c r="JR9" t="s">
-        <v>679</v>
-      </c>
-      <c r="JS9" t="s">
-        <v>634</v>
-      </c>
-      <c r="JT9" t="s">
-        <v>634</v>
-      </c>
-      <c r="JU9" t="s">
-        <v>583</v>
-      </c>
-      <c r="JV9" t="s">
-        <v>634</v>
-      </c>
-      <c r="JW9" t="s">
-        <v>634</v>
-      </c>
-      <c r="JX9" t="s">
-        <v>634</v>
-      </c>
-      <c r="JY9" t="s">
-        <v>634</v>
-      </c>
-      <c r="JZ9" t="s">
-        <v>634</v>
-      </c>
-      <c r="KA9" t="s">
-        <v>634</v>
-      </c>
-      <c r="KB9" t="s">
-        <v>634</v>
-      </c>
-      <c r="KC9" t="s">
-        <v>634</v>
-      </c>
-      <c r="KD9" t="s">
-        <v>639</v>
-      </c>
-      <c r="KE9" t="s">
-        <v>634</v>
-      </c>
-      <c r="KF9" t="s">
-        <v>679</v>
-      </c>
-      <c r="KG9" t="s">
-        <v>634</v>
-      </c>
-      <c r="KH9" t="s">
-        <v>634</v>
-      </c>
-      <c r="KI9" t="s">
-        <v>583</v>
-      </c>
-      <c r="KJ9" t="s">
-        <v>634</v>
-      </c>
-      <c r="KK9" t="s">
-        <v>634</v>
-      </c>
-      <c r="KL9" t="s">
-        <v>634</v>
-      </c>
-      <c r="KM9" t="s">
-        <v>634</v>
-      </c>
-      <c r="KN9" t="s">
-        <v>634</v>
-      </c>
-      <c r="KO9" t="s">
-        <v>634</v>
-      </c>
-      <c r="KP9" t="s">
-        <v>634</v>
-      </c>
-      <c r="KQ9" t="s">
-        <v>639</v>
-      </c>
-      <c r="KR9" t="s">
-        <v>634</v>
+        <v>678</v>
+      </c>
+      <c r="NG9" t="s">
+        <v>726</v>
+      </c>
+      <c r="NH9" t="s">
+        <v>621</v>
+      </c>
+      <c r="NI9" t="s">
+        <v>621</v>
+      </c>
+      <c r="NJ9" t="s">
+        <v>621</v>
+      </c>
+      <c r="NK9" t="s">
+        <v>621</v>
+      </c>
+      <c r="NL9" t="s">
+        <v>621</v>
+      </c>
+      <c r="NM9" t="s">
+        <v>687</v>
+      </c>
+      <c r="NN9" t="s">
+        <v>687</v>
+      </c>
+      <c r="NO9" t="s">
+        <v>687</v>
+      </c>
+      <c r="NP9" t="s">
+        <v>687</v>
+      </c>
+      <c r="NQ9" t="s">
+        <v>687</v>
+      </c>
+      <c r="NR9" t="s">
+        <v>693</v>
+      </c>
+      <c r="NS9" t="s">
+        <v>687</v>
+      </c>
+      <c r="NT9" t="s">
+        <v>687</v>
+      </c>
+      <c r="NU9" t="s">
+        <v>728</v>
+      </c>
+      <c r="NV9" t="s">
+        <v>730</v>
+      </c>
+      <c r="NW9" t="s">
+        <v>687</v>
+      </c>
+      <c r="NX9" t="s">
+        <v>687</v>
+      </c>
+      <c r="NY9" t="s">
+        <v>693</v>
+      </c>
+      <c r="OA9" t="s">
+        <v>687</v>
+      </c>
+      <c r="OB9" t="s">
+        <v>687</v>
+      </c>
+      <c r="OC9" t="s">
+        <v>687</v>
+      </c>
+      <c r="OD9" t="s">
+        <v>621</v>
+      </c>
+      <c r="OE9" t="s">
+        <v>621</v>
+      </c>
+      <c r="OG9" t="s">
+        <v>687</v>
+      </c>
+      <c r="OH9" t="s">
+        <v>732</v>
+      </c>
+      <c r="OI9" t="s">
+        <v>687</v>
+      </c>
+      <c r="OJ9" t="s">
+        <v>733</v>
+      </c>
+      <c r="OK9" t="s">
+        <v>687</v>
+      </c>
+      <c r="OL9" t="s">
+        <v>693</v>
+      </c>
+      <c r="OM9" t="s">
+        <v>734</v>
+      </c>
+      <c r="ON9" t="s">
+        <v>735</v>
+      </c>
+      <c r="OO9" t="s">
+        <v>621</v>
+      </c>
+      <c r="OP9" t="s">
+        <v>737</v>
+      </c>
+      <c r="OQ9" t="s">
+        <v>739</v>
+      </c>
+      <c r="OR9" t="s">
+        <v>687</v>
+      </c>
+      <c r="OT9" t="s">
+        <v>687</v>
+      </c>
+      <c r="OU9" t="s">
+        <v>687</v>
+      </c>
+      <c r="OV9" t="s">
+        <v>687</v>
+      </c>
+      <c r="OW9" t="s">
+        <v>687</v>
+      </c>
+      <c r="OX9" t="s">
+        <v>687</v>
+      </c>
+      <c r="OY9" t="s">
+        <v>687</v>
+      </c>
+      <c r="OZ9" t="s">
+        <v>687</v>
+      </c>
+      <c r="PA9" t="s">
+        <v>687</v>
+      </c>
+      <c r="PB9" t="s">
+        <v>687</v>
+      </c>
+      <c r="PC9" t="s">
+        <v>740</v>
+      </c>
+      <c r="PE9" t="s">
+        <v>687</v>
+      </c>
+      <c r="PF9" t="s">
+        <v>687</v>
+      </c>
+      <c r="PG9" t="s">
+        <v>687</v>
+      </c>
+      <c r="PH9" t="s">
+        <v>687</v>
+      </c>
+      <c r="PI9" t="s">
+        <v>621</v>
+      </c>
+      <c r="PJ9" t="s">
+        <v>621</v>
+      </c>
+      <c r="PK9" t="s">
+        <v>687</v>
+      </c>
+      <c r="PM9" t="s">
+        <v>693</v>
+      </c>
+      <c r="PO9" t="s">
+        <v>687</v>
+      </c>
+      <c r="PP9" t="s">
+        <v>741</v>
+      </c>
+      <c r="PQ9" t="s">
+        <v>693</v>
+      </c>
+      <c r="PR9" t="s">
+        <v>687</v>
+      </c>
+      <c r="PS9" t="s">
+        <v>687</v>
+      </c>
+      <c r="PT9" t="s">
+        <v>687</v>
+      </c>
+      <c r="PU9" t="s">
+        <v>687</v>
+      </c>
+      <c r="PV9" t="s">
+        <v>687</v>
+      </c>
+      <c r="PW9" t="s">
+        <v>687</v>
+      </c>
+      <c r="PX9" t="s">
+        <v>687</v>
+      </c>
+      <c r="PY9" t="s">
+        <v>687</v>
+      </c>
+      <c r="PZ9" t="s">
+        <v>687</v>
+      </c>
+      <c r="QA9" t="s">
+        <v>687</v>
+      </c>
+      <c r="QB9" t="s">
+        <v>687</v>
       </c>
       <c r="QC9" t="s">
-        <v>583</v>
+        <v>742</v>
+      </c>
+      <c r="QD9" t="s">
+        <v>687</v>
+      </c>
+      <c r="QE9" t="s">
+        <v>743</v>
+      </c>
+      <c r="QF9" t="s">
+        <v>621</v>
+      </c>
+      <c r="QG9" t="s">
+        <v>621</v>
+      </c>
+      <c r="QH9" t="s">
+        <v>621</v>
+      </c>
+      <c r="QI9" t="s">
+        <v>687</v>
+      </c>
+      <c r="QJ9" t="s">
+        <v>745</v>
+      </c>
+      <c r="QK9" t="s">
+        <v>687</v>
+      </c>
+      <c r="QL9" t="s">
+        <v>687</v>
       </c>
       <c r="QM9" t="s">
-        <v>634</v>
+        <v>687</v>
       </c>
       <c r="QN9" t="s">
-        <v>634</v>
+        <v>687</v>
       </c>
       <c r="QO9" t="s">
-        <v>634</v>
+        <v>687</v>
       </c>
       <c r="QP9" t="s">
-        <v>583</v>
+        <v>687</v>
       </c>
       <c r="QQ9" t="s">
-        <v>639</v>
+        <v>687</v>
       </c>
       <c r="QR9" t="s">
-        <v>639</v>
+        <v>687</v>
       </c>
       <c r="QS9" t="s">
-        <v>634</v>
+        <v>687</v>
       </c>
       <c r="QT9" t="s">
-        <v>634</v>
+        <v>746</v>
       </c>
       <c r="QU9" t="s">
-        <v>634</v>
+        <v>687</v>
       </c>
       <c r="QV9" t="s">
-        <v>634</v>
+        <v>687</v>
       </c>
       <c r="QW9" t="s">
-        <v>634</v>
+        <v>621</v>
       </c>
       <c r="QX9" t="s">
-        <v>634</v>
+        <v>687</v>
       </c>
       <c r="QY9" t="s">
-        <v>634</v>
+        <v>621</v>
       </c>
       <c r="QZ9" t="s">
-        <v>639</v>
+        <v>621</v>
       </c>
       <c r="RA9" t="s">
-        <v>639</v>
+        <v>621</v>
       </c>
       <c r="RB9" t="s">
-        <v>634</v>
+        <v>621</v>
       </c>
       <c r="RC9" t="s">
-        <v>634</v>
+        <v>687</v>
       </c>
       <c r="RD9" t="s">
-        <v>634</v>
+        <v>687</v>
       </c>
       <c r="RE9" t="s">
-        <v>583</v>
+        <v>687</v>
       </c>
       <c r="RF9" t="s">
-        <v>680</v>
+        <v>687</v>
       </c>
       <c r="RG9" t="s">
-        <v>634</v>
+        <v>687</v>
       </c>
       <c r="RH9" t="s">
-        <v>634</v>
+        <v>687</v>
       </c>
       <c r="RI9" t="s">
-        <v>634</v>
+        <v>687</v>
       </c>
       <c r="RJ9" t="s">
-        <v>634</v>
+        <v>687</v>
       </c>
       <c r="RK9" t="s">
-        <v>583</v>
+        <v>687</v>
       </c>
       <c r="RL9" t="s">
-        <v>634</v>
+        <v>687</v>
       </c>
       <c r="RM9" t="s">
-        <v>634</v>
+        <v>687</v>
       </c>
       <c r="RN9" t="s">
-        <v>634</v>
+        <v>621</v>
       </c>
       <c r="RO9" t="s">
-        <v>634</v>
+        <v>687</v>
       </c>
       <c r="RP9" t="s">
-        <v>634</v>
+        <v>687</v>
       </c>
       <c r="RQ9" t="s">
-        <v>634</v>
+        <v>687</v>
       </c>
       <c r="RR9" t="s">
-        <v>634</v>
+        <v>621</v>
       </c>
       <c r="RS9" t="s">
-        <v>634</v>
+        <v>687</v>
       </c>
       <c r="RT9" t="s">
-        <v>634</v>
+        <v>687</v>
       </c>
       <c r="RU9" t="s">
-        <v>634</v>
+        <v>687</v>
       </c>
       <c r="RV9" t="s">
-        <v>634</v>
-      </c>
-      <c r="RW9" t="s">
-        <v>634</v>
+        <v>687</v>
       </c>
     </row>
     <row r="10" spans="1:491">
@@ -6431,7 +6446,7 @@
         <v>501</v>
       </c>
       <c r="I10" t="s">
-        <v>512</v>
+        <v>518</v>
       </c>
       <c r="J10" t="b">
         <v>1</v>
@@ -6440,208 +6455,211 @@
         <v>1</v>
       </c>
       <c r="M10" t="s">
-        <v>523</v>
+        <v>535</v>
       </c>
       <c r="O10" t="s">
-        <v>534</v>
+        <v>552</v>
       </c>
       <c r="P10" t="s">
-        <v>542</v>
+        <v>565</v>
       </c>
       <c r="Q10" t="s">
-        <v>544</v>
+        <v>571</v>
       </c>
       <c r="R10" t="s">
-        <v>545</v>
+        <v>572</v>
       </c>
       <c r="S10" t="s">
-        <v>546</v>
+        <v>573</v>
       </c>
       <c r="T10" t="s">
-        <v>547</v>
+        <v>574</v>
       </c>
       <c r="U10">
-        <v>6371</v>
+        <v>6430</v>
       </c>
       <c r="V10" s="2" t="s">
-        <v>556</v>
+        <v>583</v>
       </c>
       <c r="W10" t="s">
-        <v>544</v>
+        <v>571</v>
       </c>
       <c r="X10" t="s">
-        <v>559</v>
+        <v>592</v>
       </c>
       <c r="Y10" t="s">
-        <v>545</v>
+        <v>572</v>
       </c>
       <c r="Z10" t="s">
-        <v>546</v>
+        <v>573</v>
       </c>
       <c r="AA10" s="2" t="s">
-        <v>560</v>
+        <v>593</v>
       </c>
       <c r="AB10" t="s">
-        <v>563</v>
+        <v>597</v>
       </c>
       <c r="AI10" t="s">
-        <v>585</v>
+        <v>623</v>
       </c>
       <c r="AJ10" s="2" t="s">
-        <v>586</v>
+        <v>624</v>
       </c>
       <c r="AK10" t="s">
-        <v>588</v>
+        <v>626</v>
       </c>
       <c r="AL10">
         <v>669</v>
       </c>
       <c r="AM10" t="s">
-        <v>590</v>
+        <v>628</v>
       </c>
       <c r="AN10" t="s">
-        <v>596</v>
+        <v>634</v>
       </c>
       <c r="AO10" t="s">
-        <v>584</v>
+        <v>622</v>
       </c>
       <c r="AQ10" t="s">
         <v>501</v>
       </c>
       <c r="AR10" t="s">
-        <v>605</v>
+        <v>643</v>
       </c>
       <c r="AS10" t="s">
-        <v>616</v>
+        <v>660</v>
       </c>
       <c r="AT10" t="s">
-        <v>622</v>
+        <v>671</v>
       </c>
       <c r="AU10" t="s">
+        <v>676</v>
+      </c>
+      <c r="AV10" t="s">
+        <v>680</v>
+      </c>
+      <c r="AW10" t="s">
+        <v>684</v>
+      </c>
+      <c r="BU10" t="s">
+        <v>694</v>
+      </c>
+      <c r="BV10" t="s">
+        <v>695</v>
+      </c>
+      <c r="BW10" t="s">
         <v>626</v>
-      </c>
-      <c r="AV10" t="s">
-        <v>628</v>
-      </c>
-      <c r="AW10" t="s">
-        <v>631</v>
-      </c>
-      <c r="BU10" t="s">
-        <v>640</v>
-      </c>
-      <c r="BV10" t="s">
-        <v>641</v>
-      </c>
-      <c r="BW10" t="s">
-        <v>588</v>
       </c>
       <c r="BX10">
         <v>669</v>
       </c>
       <c r="BY10" t="s">
-        <v>590</v>
+        <v>628</v>
       </c>
       <c r="BZ10" t="s">
-        <v>596</v>
+        <v>634</v>
       </c>
       <c r="CA10" t="s">
-        <v>584</v>
+        <v>622</v>
       </c>
       <c r="CC10" t="s">
         <v>501</v>
       </c>
       <c r="CE10" t="s">
-        <v>605</v>
+        <v>643</v>
       </c>
       <c r="CF10" t="s">
-        <v>616</v>
+        <v>660</v>
       </c>
       <c r="CG10" t="s">
-        <v>622</v>
+        <v>671</v>
       </c>
       <c r="CH10" t="s">
-        <v>626</v>
-      </c>
-      <c r="GY10" t="s">
-        <v>639</v>
-      </c>
-      <c r="GZ10" t="s">
-        <v>634</v>
-      </c>
-      <c r="HA10" t="s">
-        <v>634</v>
-      </c>
-      <c r="HB10" t="s">
-        <v>639</v>
-      </c>
-      <c r="HC10" t="s">
-        <v>639</v>
-      </c>
-      <c r="HE10" t="s">
-        <v>639</v>
-      </c>
-      <c r="HF10" t="s">
-        <v>583</v>
-      </c>
-      <c r="HG10" t="s">
-        <v>639</v>
-      </c>
-      <c r="HH10" t="s">
-        <v>583</v>
-      </c>
-      <c r="HI10" t="s">
-        <v>583</v>
-      </c>
-      <c r="HJ10" t="s">
-        <v>639</v>
-      </c>
-      <c r="HK10" t="s">
-        <v>634</v>
-      </c>
-      <c r="HL10" t="s">
-        <v>634</v>
-      </c>
-      <c r="HM10" t="s">
-        <v>665</v>
-      </c>
-      <c r="HN10" t="s">
-        <v>634</v>
-      </c>
-      <c r="HO10" t="s">
-        <v>583</v>
-      </c>
-      <c r="HP10" t="s">
-        <v>639</v>
-      </c>
-      <c r="HQ10" t="s">
-        <v>583</v>
-      </c>
-      <c r="HR10" t="s">
-        <v>667</v>
-      </c>
-      <c r="HS10" t="s">
-        <v>669</v>
-      </c>
-      <c r="HT10" t="s">
-        <v>634</v>
-      </c>
-      <c r="HU10" t="s">
-        <v>634</v>
-      </c>
-      <c r="HV10" t="s">
-        <v>670</v>
-      </c>
-      <c r="HW10" t="s">
-        <v>671</v>
-      </c>
-      <c r="HX10" t="s">
-        <v>672</v>
-      </c>
-      <c r="HY10" t="s">
-        <v>673</v>
-      </c>
-      <c r="HZ10" t="s">
-        <v>674</v>
+        <v>676</v>
+      </c>
+      <c r="ME10" t="s">
+        <v>687</v>
+      </c>
+      <c r="MF10" t="s">
+        <v>687</v>
+      </c>
+      <c r="MG10" t="s">
+        <v>687</v>
+      </c>
+      <c r="MH10" t="s">
+        <v>687</v>
+      </c>
+      <c r="MI10" t="s">
+        <v>693</v>
+      </c>
+      <c r="MJ10" t="s">
+        <v>693</v>
+      </c>
+      <c r="MK10" t="s">
+        <v>693</v>
+      </c>
+      <c r="ML10" t="s">
+        <v>621</v>
+      </c>
+      <c r="MM10" t="s">
+        <v>687</v>
+      </c>
+      <c r="MN10" t="s">
+        <v>621</v>
+      </c>
+      <c r="MO10" t="s">
+        <v>621</v>
+      </c>
+      <c r="MP10" t="s">
+        <v>693</v>
+      </c>
+      <c r="MQ10" t="s">
+        <v>687</v>
+      </c>
+      <c r="MR10" t="s">
+        <v>687</v>
+      </c>
+      <c r="MS10" t="s">
+        <v>711</v>
+      </c>
+      <c r="MT10" t="s">
+        <v>687</v>
+      </c>
+      <c r="MU10" t="s">
+        <v>621</v>
+      </c>
+      <c r="MV10" t="s">
+        <v>687</v>
+      </c>
+      <c r="MW10" t="s">
+        <v>621</v>
+      </c>
+      <c r="MX10" t="s">
+        <v>715</v>
+      </c>
+      <c r="MY10" t="s">
+        <v>719</v>
+      </c>
+      <c r="MZ10" t="s">
+        <v>693</v>
+      </c>
+      <c r="NA10" t="s">
+        <v>687</v>
+      </c>
+      <c r="NB10" t="s">
+        <v>721</v>
+      </c>
+      <c r="NC10" t="s">
+        <v>722</v>
+      </c>
+      <c r="ND10" t="s">
+        <v>723</v>
+      </c>
+      <c r="NE10" t="s">
+        <v>724</v>
+      </c>
+      <c r="NF10" t="s">
+        <v>725</v>
       </c>
     </row>
     <row r="11" spans="1:491">
@@ -6664,7 +6682,7 @@
         <v>502</v>
       </c>
       <c r="I11" t="s">
-        <v>513</v>
+        <v>519</v>
       </c>
       <c r="J11" t="b">
         <v>1</v>
@@ -6673,166 +6691,385 @@
         <v>1</v>
       </c>
       <c r="M11" t="s">
-        <v>524</v>
+        <v>536</v>
       </c>
       <c r="O11" t="s">
-        <v>535</v>
+        <v>553</v>
       </c>
       <c r="P11" t="s">
-        <v>543</v>
+        <v>566</v>
       </c>
       <c r="Q11" t="s">
-        <v>544</v>
+        <v>571</v>
       </c>
       <c r="R11" t="s">
-        <v>545</v>
+        <v>572</v>
       </c>
       <c r="S11" t="s">
-        <v>546</v>
+        <v>573</v>
       </c>
       <c r="T11" t="s">
-        <v>547</v>
+        <v>574</v>
       </c>
       <c r="U11">
-        <v>2314</v>
+        <v>8273</v>
       </c>
       <c r="V11" s="2" t="s">
-        <v>557</v>
+        <v>584</v>
       </c>
       <c r="W11" t="s">
-        <v>544</v>
+        <v>571</v>
       </c>
       <c r="X11" t="s">
-        <v>559</v>
+        <v>592</v>
       </c>
       <c r="Y11" t="s">
-        <v>545</v>
+        <v>572</v>
       </c>
       <c r="Z11" t="s">
-        <v>546</v>
+        <v>573</v>
       </c>
       <c r="AA11" s="2" t="s">
-        <v>560</v>
+        <v>593</v>
       </c>
       <c r="AB11" t="s">
-        <v>561</v>
-      </c>
-      <c r="AC11" t="s">
-        <v>568</v>
-      </c>
-      <c r="AE11" t="s">
-        <v>574</v>
-      </c>
-      <c r="AF11" t="s">
-        <v>578</v>
-      </c>
-      <c r="AH11" t="s">
-        <v>583</v>
+        <v>598</v>
       </c>
       <c r="AI11" t="s">
-        <v>584</v>
+        <v>622</v>
       </c>
       <c r="AJ11" s="2" t="s">
-        <v>586</v>
+        <v>624</v>
       </c>
       <c r="AK11" t="s">
-        <v>588</v>
+        <v>625</v>
       </c>
       <c r="AL11">
         <v>669</v>
       </c>
       <c r="AM11" t="s">
-        <v>590</v>
+        <v>627</v>
       </c>
       <c r="AN11" t="s">
-        <v>594</v>
+        <v>629</v>
       </c>
       <c r="AO11" t="s">
-        <v>584</v>
+        <v>622</v>
       </c>
       <c r="AQ11" t="s">
         <v>502</v>
       </c>
       <c r="AR11" t="s">
-        <v>606</v>
+        <v>644</v>
       </c>
       <c r="AS11" t="s">
-        <v>617</v>
+        <v>661</v>
       </c>
       <c r="AT11" t="s">
-        <v>620</v>
+        <v>673</v>
       </c>
       <c r="AU11" t="s">
-        <v>624</v>
+        <v>678</v>
       </c>
       <c r="AV11" t="s">
-        <v>627</v>
+        <v>679</v>
       </c>
       <c r="AW11" t="s">
-        <v>632</v>
-      </c>
-      <c r="BA11" t="s">
-        <v>634</v>
-      </c>
-      <c r="BF11" t="s">
-        <v>637</v>
-      </c>
-      <c r="BG11" t="s">
-        <v>634</v>
-      </c>
-      <c r="BH11" t="s">
-        <v>583</v>
-      </c>
-      <c r="BN11" t="s">
-        <v>583</v>
-      </c>
-      <c r="BO11" t="s">
-        <v>583</v>
-      </c>
-      <c r="BP11" t="s">
-        <v>634</v>
-      </c>
-      <c r="BQ11" t="s">
-        <v>583</v>
-      </c>
-      <c r="BS11" t="s">
-        <v>583</v>
-      </c>
-      <c r="BT11" t="s">
-        <v>639</v>
+        <v>685</v>
       </c>
       <c r="BU11" t="s">
-        <v>584</v>
+        <v>622</v>
       </c>
       <c r="BW11" t="s">
-        <v>588</v>
+        <v>625</v>
       </c>
       <c r="BX11">
         <v>669</v>
       </c>
       <c r="BY11" t="s">
-        <v>590</v>
+        <v>627</v>
       </c>
       <c r="BZ11" t="s">
-        <v>594</v>
+        <v>629</v>
       </c>
       <c r="CA11" t="s">
-        <v>584</v>
+        <v>622</v>
       </c>
       <c r="CC11" t="s">
         <v>502</v>
       </c>
       <c r="CE11" t="s">
-        <v>606</v>
+        <v>644</v>
       </c>
       <c r="CF11" t="s">
-        <v>617</v>
+        <v>661</v>
       </c>
       <c r="CG11" t="s">
-        <v>620</v>
+        <v>673</v>
       </c>
       <c r="CH11" t="s">
-        <v>624</v>
+        <v>678</v>
+      </c>
+      <c r="NG11" t="s">
+        <v>727</v>
+      </c>
+      <c r="NH11" t="s">
+        <v>621</v>
+      </c>
+      <c r="NI11" t="s">
+        <v>621</v>
+      </c>
+      <c r="NJ11" t="s">
+        <v>621</v>
+      </c>
+      <c r="NK11" t="s">
+        <v>621</v>
+      </c>
+      <c r="NL11" t="s">
+        <v>621</v>
+      </c>
+      <c r="NM11" t="s">
+        <v>687</v>
+      </c>
+      <c r="NQ11" t="s">
+        <v>687</v>
+      </c>
+      <c r="NR11" t="s">
+        <v>687</v>
+      </c>
+      <c r="NS11" t="s">
+        <v>687</v>
+      </c>
+      <c r="NT11" t="s">
+        <v>687</v>
+      </c>
+      <c r="NU11" t="s">
+        <v>729</v>
+      </c>
+      <c r="NV11" t="s">
+        <v>731</v>
+      </c>
+      <c r="NW11" t="s">
+        <v>687</v>
+      </c>
+      <c r="OD11" t="s">
+        <v>621</v>
+      </c>
+      <c r="OE11" t="s">
+        <v>621</v>
+      </c>
+      <c r="OM11" t="s">
+        <v>734</v>
+      </c>
+      <c r="ON11" t="s">
+        <v>736</v>
+      </c>
+      <c r="OO11" t="s">
+        <v>621</v>
+      </c>
+      <c r="OP11" t="s">
+        <v>738</v>
+      </c>
+      <c r="OQ11" t="s">
+        <v>739</v>
+      </c>
+      <c r="OR11" t="s">
+        <v>687</v>
+      </c>
+      <c r="OT11" t="s">
+        <v>687</v>
+      </c>
+      <c r="OU11" t="s">
+        <v>687</v>
+      </c>
+      <c r="OV11" t="s">
+        <v>687</v>
+      </c>
+      <c r="OW11" t="s">
+        <v>687</v>
+      </c>
+      <c r="OX11" t="s">
+        <v>687</v>
+      </c>
+      <c r="OY11" t="s">
+        <v>687</v>
+      </c>
+      <c r="OZ11" t="s">
+        <v>687</v>
+      </c>
+      <c r="PA11" t="s">
+        <v>687</v>
+      </c>
+      <c r="PB11" t="s">
+        <v>687</v>
+      </c>
+      <c r="PC11" t="s">
+        <v>740</v>
+      </c>
+      <c r="PF11" t="s">
+        <v>687</v>
+      </c>
+      <c r="PH11" t="s">
+        <v>687</v>
+      </c>
+      <c r="PI11" t="s">
+        <v>621</v>
+      </c>
+      <c r="PJ11" t="s">
+        <v>621</v>
+      </c>
+      <c r="PW11" t="s">
+        <v>687</v>
+      </c>
+      <c r="PX11" t="s">
+        <v>687</v>
+      </c>
+      <c r="PY11" t="s">
+        <v>687</v>
+      </c>
+      <c r="PZ11" t="s">
+        <v>687</v>
+      </c>
+      <c r="QA11" t="s">
+        <v>693</v>
+      </c>
+      <c r="QB11" t="s">
+        <v>687</v>
+      </c>
+      <c r="QD11" t="s">
+        <v>693</v>
+      </c>
+      <c r="QE11" t="s">
+        <v>744</v>
+      </c>
+      <c r="QF11" t="s">
+        <v>621</v>
+      </c>
+      <c r="QG11" t="s">
+        <v>621</v>
+      </c>
+      <c r="QH11" t="s">
+        <v>621</v>
+      </c>
+      <c r="QI11" t="s">
+        <v>687</v>
+      </c>
+      <c r="QJ11" t="s">
+        <v>745</v>
+      </c>
+      <c r="QK11" t="s">
+        <v>693</v>
+      </c>
+      <c r="QL11" t="s">
+        <v>687</v>
+      </c>
+      <c r="QM11" t="s">
+        <v>687</v>
+      </c>
+      <c r="QN11" t="s">
+        <v>687</v>
+      </c>
+      <c r="QO11" t="s">
+        <v>687</v>
+      </c>
+      <c r="QP11" t="s">
+        <v>687</v>
+      </c>
+      <c r="QQ11" t="s">
+        <v>687</v>
+      </c>
+      <c r="QR11" t="s">
+        <v>687</v>
+      </c>
+      <c r="QS11" t="s">
+        <v>687</v>
+      </c>
+      <c r="QT11" t="s">
+        <v>747</v>
+      </c>
+      <c r="QU11" t="s">
+        <v>687</v>
+      </c>
+      <c r="QV11" t="s">
+        <v>687</v>
+      </c>
+      <c r="QW11" t="s">
+        <v>621</v>
+      </c>
+      <c r="QX11" t="s">
+        <v>687</v>
+      </c>
+      <c r="QY11" t="s">
+        <v>621</v>
+      </c>
+      <c r="QZ11" t="s">
+        <v>621</v>
+      </c>
+      <c r="RA11" t="s">
+        <v>621</v>
+      </c>
+      <c r="RB11" t="s">
+        <v>621</v>
+      </c>
+      <c r="RC11" t="s">
+        <v>687</v>
+      </c>
+      <c r="RD11" t="s">
+        <v>687</v>
+      </c>
+      <c r="RE11" t="s">
+        <v>687</v>
+      </c>
+      <c r="RF11" t="s">
+        <v>693</v>
+      </c>
+      <c r="RG11" t="s">
+        <v>687</v>
+      </c>
+      <c r="RH11" t="s">
+        <v>687</v>
+      </c>
+      <c r="RI11" t="s">
+        <v>687</v>
+      </c>
+      <c r="RJ11" t="s">
+        <v>687</v>
+      </c>
+      <c r="RK11" t="s">
+        <v>687</v>
+      </c>
+      <c r="RL11" t="s">
+        <v>687</v>
+      </c>
+      <c r="RM11" t="s">
+        <v>687</v>
+      </c>
+      <c r="RN11" t="s">
+        <v>621</v>
+      </c>
+      <c r="RO11" t="s">
+        <v>687</v>
+      </c>
+      <c r="RP11" t="s">
+        <v>693</v>
+      </c>
+      <c r="RQ11" t="s">
+        <v>693</v>
+      </c>
+      <c r="RR11" t="s">
+        <v>621</v>
+      </c>
+      <c r="RS11" t="s">
+        <v>687</v>
+      </c>
+      <c r="RT11" t="s">
+        <v>687</v>
+      </c>
+      <c r="RU11" t="s">
+        <v>687</v>
+      </c>
+      <c r="RV11" t="s">
+        <v>687</v>
       </c>
     </row>
     <row r="12" spans="1:491">
@@ -6855,7 +7092,7 @@
         <v>503</v>
       </c>
       <c r="I12" t="s">
-        <v>514</v>
+        <v>520</v>
       </c>
       <c r="J12" t="b">
         <v>1</v>
@@ -6864,181 +7101,1741 @@
         <v>1</v>
       </c>
       <c r="M12" t="s">
-        <v>525</v>
+        <v>537</v>
       </c>
       <c r="O12" t="s">
-        <v>536</v>
+        <v>554</v>
       </c>
       <c r="P12" t="s">
-        <v>543</v>
+        <v>567</v>
       </c>
       <c r="Q12" t="s">
-        <v>544</v>
+        <v>571</v>
       </c>
       <c r="R12" t="s">
-        <v>545</v>
+        <v>572</v>
       </c>
       <c r="S12" t="s">
-        <v>546</v>
+        <v>573</v>
       </c>
       <c r="T12" t="s">
-        <v>547</v>
+        <v>574</v>
       </c>
       <c r="U12">
-        <v>2626</v>
+        <v>3975</v>
       </c>
       <c r="V12" s="2" t="s">
-        <v>558</v>
+        <v>585</v>
       </c>
       <c r="W12" t="s">
-        <v>544</v>
+        <v>571</v>
       </c>
       <c r="X12" t="s">
-        <v>559</v>
+        <v>592</v>
       </c>
       <c r="Y12" t="s">
-        <v>545</v>
+        <v>572</v>
       </c>
       <c r="Z12" t="s">
-        <v>546</v>
+        <v>573</v>
       </c>
       <c r="AA12" s="2" t="s">
-        <v>560</v>
+        <v>593</v>
       </c>
       <c r="AB12" t="s">
-        <v>561</v>
-      </c>
-      <c r="AC12" t="s">
-        <v>569</v>
-      </c>
-      <c r="AD12" t="s">
-        <v>571</v>
-      </c>
-      <c r="AE12" t="s">
-        <v>575</v>
-      </c>
-      <c r="AF12" t="s">
-        <v>579</v>
-      </c>
-      <c r="AG12" t="s">
-        <v>582</v>
-      </c>
-      <c r="AH12" t="s">
-        <v>583</v>
+        <v>596</v>
       </c>
       <c r="AI12" t="s">
-        <v>584</v>
+        <v>622</v>
       </c>
       <c r="AJ12" s="2" t="s">
-        <v>586</v>
+        <v>624</v>
       </c>
       <c r="AK12" t="s">
-        <v>588</v>
+        <v>625</v>
       </c>
       <c r="AL12">
         <v>669</v>
       </c>
       <c r="AM12" t="s">
-        <v>590</v>
+        <v>627</v>
       </c>
       <c r="AN12" t="s">
-        <v>596</v>
+        <v>633</v>
       </c>
       <c r="AO12" t="s">
-        <v>584</v>
+        <v>622</v>
       </c>
       <c r="AQ12" t="s">
         <v>503</v>
       </c>
       <c r="AR12" t="s">
-        <v>607</v>
+        <v>645</v>
       </c>
       <c r="AS12" t="s">
-        <v>618</v>
+        <v>662</v>
       </c>
       <c r="AT12" t="s">
+        <v>671</v>
+      </c>
+      <c r="AU12" t="s">
+        <v>676</v>
+      </c>
+      <c r="AV12" t="s">
+        <v>680</v>
+      </c>
+      <c r="AW12" t="s">
+        <v>684</v>
+      </c>
+      <c r="BU12" t="s">
         <v>622</v>
       </c>
-      <c r="AU12" t="s">
-        <v>626</v>
-      </c>
-      <c r="AV12" t="s">
-        <v>629</v>
-      </c>
-      <c r="AW12" t="s">
-        <v>633</v>
-      </c>
-      <c r="AZ12" t="s">
-        <v>634</v>
-      </c>
-      <c r="BA12" t="s">
-        <v>634</v>
-      </c>
-      <c r="BB12" t="s">
-        <v>634</v>
-      </c>
-      <c r="BF12" t="s">
-        <v>638</v>
-      </c>
-      <c r="BG12" t="s">
-        <v>634</v>
-      </c>
-      <c r="BH12" t="s">
-        <v>583</v>
-      </c>
-      <c r="BI12" t="s">
-        <v>634</v>
-      </c>
-      <c r="BN12" t="s">
-        <v>583</v>
-      </c>
-      <c r="BO12" t="s">
-        <v>583</v>
-      </c>
-      <c r="BP12" t="s">
-        <v>634</v>
-      </c>
-      <c r="BQ12" t="s">
-        <v>583</v>
-      </c>
-      <c r="BS12" t="s">
-        <v>583</v>
-      </c>
-      <c r="BT12" t="s">
-        <v>634</v>
-      </c>
-      <c r="BU12" t="s">
-        <v>584</v>
-      </c>
       <c r="BW12" t="s">
-        <v>588</v>
+        <v>625</v>
       </c>
       <c r="BX12">
         <v>669</v>
       </c>
       <c r="BY12" t="s">
-        <v>590</v>
+        <v>627</v>
       </c>
       <c r="BZ12" t="s">
-        <v>596</v>
+        <v>633</v>
       </c>
       <c r="CA12" t="s">
-        <v>584</v>
+        <v>622</v>
       </c>
       <c r="CC12" t="s">
         <v>503</v>
       </c>
       <c r="CE12" t="s">
-        <v>607</v>
+        <v>645</v>
       </c>
       <c r="CF12" t="s">
-        <v>618</v>
+        <v>662</v>
       </c>
       <c r="CG12" t="s">
+        <v>671</v>
+      </c>
+      <c r="CH12" t="s">
+        <v>676</v>
+      </c>
+      <c r="KO12" t="s">
+        <v>703</v>
+      </c>
+      <c r="KP12" t="s">
+        <v>687</v>
+      </c>
+      <c r="KQ12" t="s">
+        <v>687</v>
+      </c>
+      <c r="KR12" t="s">
+        <v>687</v>
+      </c>
+      <c r="KS12" t="s">
+        <v>693</v>
+      </c>
+      <c r="KT12" t="s">
+        <v>693</v>
+      </c>
+      <c r="KU12" t="s">
+        <v>687</v>
+      </c>
+      <c r="KV12" t="s">
+        <v>687</v>
+      </c>
+      <c r="KW12" t="s">
+        <v>687</v>
+      </c>
+      <c r="KX12" t="s">
+        <v>687</v>
+      </c>
+      <c r="KY12" t="s">
+        <v>687</v>
+      </c>
+      <c r="KZ12" t="s">
+        <v>687</v>
+      </c>
+      <c r="LA12" t="s">
+        <v>707</v>
+      </c>
+      <c r="LB12" t="s">
+        <v>687</v>
+      </c>
+      <c r="LC12" t="s">
+        <v>687</v>
+      </c>
+      <c r="LD12" t="s">
+        <v>687</v>
+      </c>
+      <c r="LE12" t="s">
+        <v>687</v>
+      </c>
+      <c r="LF12" t="s">
+        <v>693</v>
+      </c>
+      <c r="LG12" t="s">
+        <v>687</v>
+      </c>
+      <c r="LH12" t="s">
+        <v>687</v>
+      </c>
+      <c r="LI12" t="s">
+        <v>687</v>
+      </c>
+      <c r="LJ12" t="s">
+        <v>687</v>
+      </c>
+      <c r="LK12" t="s">
+        <v>687</v>
+      </c>
+      <c r="LL12" t="s">
+        <v>687</v>
+      </c>
+      <c r="LM12" t="s">
+        <v>687</v>
+      </c>
+      <c r="LN12" t="s">
+        <v>687</v>
+      </c>
+      <c r="LO12" t="s">
+        <v>687</v>
+      </c>
+      <c r="LP12" t="s">
+        <v>621</v>
+      </c>
+      <c r="LQ12" t="s">
+        <v>687</v>
+      </c>
+      <c r="LR12" t="s">
+        <v>621</v>
+      </c>
+      <c r="LS12" t="s">
+        <v>687</v>
+      </c>
+      <c r="LT12" t="s">
+        <v>693</v>
+      </c>
+      <c r="LU12" t="s">
+        <v>687</v>
+      </c>
+      <c r="LV12" t="s">
+        <v>687</v>
+      </c>
+      <c r="LW12" t="s">
+        <v>621</v>
+      </c>
+      <c r="LX12" t="s">
+        <v>687</v>
+      </c>
+      <c r="LY12" t="s">
+        <v>687</v>
+      </c>
+      <c r="LZ12" t="s">
+        <v>687</v>
+      </c>
+      <c r="MA12" t="s">
+        <v>687</v>
+      </c>
+      <c r="MB12" t="s">
+        <v>687</v>
+      </c>
+      <c r="MC12" t="s">
+        <v>621</v>
+      </c>
+      <c r="MD12" t="s">
+        <v>687</v>
+      </c>
+      <c r="RW12" t="s">
+        <v>687</v>
+      </c>
+    </row>
+    <row r="13" spans="1:491">
+      <c r="A13" s="1">
+        <v>11</v>
+      </c>
+      <c r="B13" t="s">
+        <v>490</v>
+      </c>
+      <c r="C13" t="b">
+        <v>0</v>
+      </c>
+      <c r="D13" t="s">
+        <v>491</v>
+      </c>
+      <c r="E13" t="s">
+        <v>492</v>
+      </c>
+      <c r="H13" t="s">
+        <v>504</v>
+      </c>
+      <c r="I13" t="s">
+        <v>521</v>
+      </c>
+      <c r="J13" t="b">
+        <v>1</v>
+      </c>
+      <c r="K13" t="b">
+        <v>1</v>
+      </c>
+      <c r="M13" t="s">
+        <v>538</v>
+      </c>
+      <c r="O13" t="s">
+        <v>555</v>
+      </c>
+      <c r="P13" t="s">
+        <v>566</v>
+      </c>
+      <c r="Q13" t="s">
+        <v>571</v>
+      </c>
+      <c r="R13" t="s">
+        <v>572</v>
+      </c>
+      <c r="S13" t="s">
+        <v>573</v>
+      </c>
+      <c r="T13" t="s">
+        <v>574</v>
+      </c>
+      <c r="U13">
+        <v>3305</v>
+      </c>
+      <c r="V13" s="2" t="s">
+        <v>586</v>
+      </c>
+      <c r="W13" t="s">
+        <v>571</v>
+      </c>
+      <c r="X13" t="s">
+        <v>592</v>
+      </c>
+      <c r="Y13" t="s">
+        <v>572</v>
+      </c>
+      <c r="Z13" t="s">
+        <v>573</v>
+      </c>
+      <c r="AA13" s="2" t="s">
+        <v>593</v>
+      </c>
+      <c r="AB13" t="s">
+        <v>594</v>
+      </c>
+      <c r="AC13" t="s">
+        <v>601</v>
+      </c>
+      <c r="AD13" t="s">
+        <v>605</v>
+      </c>
+      <c r="AE13" t="s">
+        <v>609</v>
+      </c>
+      <c r="AF13" t="s">
+        <v>614</v>
+      </c>
+      <c r="AG13" t="s">
+        <v>619</v>
+      </c>
+      <c r="AH13" t="s">
+        <v>621</v>
+      </c>
+      <c r="AI13" t="s">
         <v>622</v>
       </c>
-      <c r="CH12" t="s">
-        <v>626</v>
+      <c r="AJ13" s="2" t="s">
+        <v>624</v>
+      </c>
+      <c r="AK13" t="s">
+        <v>625</v>
+      </c>
+      <c r="AL13">
+        <v>669</v>
+      </c>
+      <c r="AM13" t="s">
+        <v>627</v>
+      </c>
+      <c r="AN13" t="s">
+        <v>629</v>
+      </c>
+      <c r="AO13" t="s">
+        <v>622</v>
+      </c>
+      <c r="AQ13" t="s">
+        <v>504</v>
+      </c>
+      <c r="AR13" t="s">
+        <v>646</v>
+      </c>
+      <c r="AS13" t="s">
+        <v>663</v>
+      </c>
+      <c r="AT13" t="s">
+        <v>673</v>
+      </c>
+      <c r="AU13" t="s">
+        <v>678</v>
+      </c>
+      <c r="AV13" t="s">
+        <v>679</v>
+      </c>
+      <c r="AW13" t="s">
+        <v>685</v>
+      </c>
+      <c r="AX13" t="s">
+        <v>687</v>
+      </c>
+      <c r="AY13" t="s">
+        <v>687</v>
+      </c>
+      <c r="AZ13" t="s">
+        <v>687</v>
+      </c>
+      <c r="BA13" t="s">
+        <v>687</v>
+      </c>
+      <c r="BB13" t="s">
+        <v>687</v>
+      </c>
+      <c r="BC13" t="s">
+        <v>687</v>
+      </c>
+      <c r="BD13" t="s">
+        <v>687</v>
+      </c>
+      <c r="BE13" t="s">
+        <v>687</v>
+      </c>
+      <c r="BF13" t="s">
+        <v>690</v>
+      </c>
+      <c r="BG13" t="s">
+        <v>693</v>
+      </c>
+      <c r="BH13" t="s">
+        <v>621</v>
+      </c>
+      <c r="BI13" t="s">
+        <v>687</v>
+      </c>
+      <c r="BJ13" t="s">
+        <v>687</v>
+      </c>
+      <c r="BK13" t="s">
+        <v>687</v>
+      </c>
+      <c r="BL13" t="s">
+        <v>687</v>
+      </c>
+      <c r="BM13" t="s">
+        <v>687</v>
+      </c>
+      <c r="BN13" t="s">
+        <v>621</v>
+      </c>
+      <c r="BO13" t="s">
+        <v>621</v>
+      </c>
+      <c r="BP13" t="s">
+        <v>687</v>
+      </c>
+      <c r="BQ13" t="s">
+        <v>621</v>
+      </c>
+      <c r="BR13" t="s">
+        <v>687</v>
+      </c>
+      <c r="BS13" t="s">
+        <v>621</v>
+      </c>
+      <c r="BT13" t="s">
+        <v>693</v>
+      </c>
+      <c r="BU13" t="s">
+        <v>622</v>
+      </c>
+      <c r="BW13" t="s">
+        <v>625</v>
+      </c>
+      <c r="BX13">
+        <v>669</v>
+      </c>
+      <c r="BY13" t="s">
+        <v>627</v>
+      </c>
+      <c r="BZ13" t="s">
+        <v>629</v>
+      </c>
+      <c r="CA13" t="s">
+        <v>622</v>
+      </c>
+      <c r="CC13" t="s">
+        <v>504</v>
+      </c>
+      <c r="CE13" t="s">
+        <v>646</v>
+      </c>
+      <c r="CF13" t="s">
+        <v>663</v>
+      </c>
+      <c r="CG13" t="s">
+        <v>673</v>
+      </c>
+      <c r="CH13" t="s">
+        <v>678</v>
+      </c>
+    </row>
+    <row r="14" spans="1:491">
+      <c r="A14" s="1">
+        <v>12</v>
+      </c>
+      <c r="B14" t="s">
+        <v>490</v>
+      </c>
+      <c r="C14" t="b">
+        <v>0</v>
+      </c>
+      <c r="D14" t="s">
+        <v>491</v>
+      </c>
+      <c r="E14" t="s">
+        <v>492</v>
+      </c>
+      <c r="H14" t="s">
+        <v>505</v>
+      </c>
+      <c r="I14" t="s">
+        <v>522</v>
+      </c>
+      <c r="J14" t="b">
+        <v>1</v>
+      </c>
+      <c r="K14" t="b">
+        <v>1</v>
+      </c>
+      <c r="M14" t="s">
+        <v>539</v>
+      </c>
+      <c r="O14" t="s">
+        <v>556</v>
+      </c>
+      <c r="P14" t="s">
+        <v>568</v>
+      </c>
+      <c r="Q14" t="s">
+        <v>571</v>
+      </c>
+      <c r="R14" t="s">
+        <v>572</v>
+      </c>
+      <c r="S14" t="s">
+        <v>573</v>
+      </c>
+      <c r="T14" t="s">
+        <v>574</v>
+      </c>
+      <c r="U14">
+        <v>3505</v>
+      </c>
+      <c r="V14" s="2" t="s">
+        <v>587</v>
+      </c>
+      <c r="W14" t="s">
+        <v>571</v>
+      </c>
+      <c r="X14" t="s">
+        <v>592</v>
+      </c>
+      <c r="Y14" t="s">
+        <v>572</v>
+      </c>
+      <c r="Z14" t="s">
+        <v>573</v>
+      </c>
+      <c r="AA14" s="2" t="s">
+        <v>593</v>
+      </c>
+      <c r="AB14" t="s">
+        <v>596</v>
+      </c>
+      <c r="AI14" t="s">
+        <v>622</v>
+      </c>
+      <c r="AJ14" s="2" t="s">
+        <v>624</v>
+      </c>
+      <c r="AK14" t="s">
+        <v>625</v>
+      </c>
+      <c r="AL14">
+        <v>669</v>
+      </c>
+      <c r="AM14" t="s">
+        <v>627</v>
+      </c>
+      <c r="AN14" t="s">
+        <v>630</v>
+      </c>
+      <c r="AO14" t="s">
+        <v>622</v>
+      </c>
+      <c r="AQ14" t="s">
+        <v>505</v>
+      </c>
+      <c r="AR14" t="s">
+        <v>647</v>
+      </c>
+      <c r="AS14" t="s">
+        <v>664</v>
+      </c>
+      <c r="AT14" t="s">
+        <v>669</v>
+      </c>
+      <c r="AU14" t="s">
+        <v>674</v>
+      </c>
+      <c r="AV14" t="s">
+        <v>679</v>
+      </c>
+      <c r="AW14" t="s">
+        <v>685</v>
+      </c>
+      <c r="BU14" t="s">
+        <v>622</v>
+      </c>
+      <c r="BW14" t="s">
+        <v>625</v>
+      </c>
+      <c r="BX14">
+        <v>669</v>
+      </c>
+      <c r="BY14" t="s">
+        <v>627</v>
+      </c>
+      <c r="BZ14" t="s">
+        <v>630</v>
+      </c>
+      <c r="CA14" t="s">
+        <v>622</v>
+      </c>
+      <c r="CC14" t="s">
+        <v>505</v>
+      </c>
+      <c r="CE14" t="s">
+        <v>647</v>
+      </c>
+      <c r="CF14" t="s">
+        <v>664</v>
+      </c>
+      <c r="CG14" t="s">
+        <v>669</v>
+      </c>
+      <c r="CH14" t="s">
+        <v>674</v>
+      </c>
+      <c r="KO14" t="s">
+        <v>704</v>
+      </c>
+      <c r="KP14" t="s">
+        <v>687</v>
+      </c>
+      <c r="KQ14" t="s">
+        <v>687</v>
+      </c>
+      <c r="KR14" t="s">
+        <v>687</v>
+      </c>
+      <c r="KS14" t="s">
+        <v>687</v>
+      </c>
+      <c r="KT14" t="s">
+        <v>687</v>
+      </c>
+      <c r="KU14" t="s">
+        <v>687</v>
+      </c>
+      <c r="KV14" t="s">
+        <v>687</v>
+      </c>
+      <c r="KW14" t="s">
+        <v>687</v>
+      </c>
+      <c r="KX14" t="s">
+        <v>687</v>
+      </c>
+      <c r="KY14" t="s">
+        <v>687</v>
+      </c>
+      <c r="KZ14" t="s">
+        <v>687</v>
+      </c>
+      <c r="LA14" t="s">
+        <v>708</v>
+      </c>
+      <c r="LB14" t="s">
+        <v>687</v>
+      </c>
+      <c r="LC14" t="s">
+        <v>687</v>
+      </c>
+      <c r="LD14" t="s">
+        <v>687</v>
+      </c>
+      <c r="LE14" t="s">
+        <v>687</v>
+      </c>
+      <c r="LF14" t="s">
+        <v>693</v>
+      </c>
+      <c r="LG14" t="s">
+        <v>693</v>
+      </c>
+      <c r="LH14" t="s">
+        <v>687</v>
+      </c>
+      <c r="LI14" t="s">
+        <v>687</v>
+      </c>
+      <c r="LJ14" t="s">
+        <v>687</v>
+      </c>
+      <c r="LK14" t="s">
+        <v>687</v>
+      </c>
+      <c r="LL14" t="s">
+        <v>687</v>
+      </c>
+      <c r="LM14" t="s">
+        <v>687</v>
+      </c>
+      <c r="LN14" t="s">
+        <v>687</v>
+      </c>
+      <c r="LO14" t="s">
+        <v>687</v>
+      </c>
+      <c r="LP14" t="s">
+        <v>621</v>
+      </c>
+      <c r="LQ14" t="s">
+        <v>687</v>
+      </c>
+      <c r="LR14" t="s">
+        <v>621</v>
+      </c>
+      <c r="LS14" t="s">
+        <v>687</v>
+      </c>
+      <c r="LT14" t="s">
+        <v>687</v>
+      </c>
+      <c r="LU14" t="s">
+        <v>687</v>
+      </c>
+      <c r="LV14" t="s">
+        <v>687</v>
+      </c>
+      <c r="LW14" t="s">
+        <v>621</v>
+      </c>
+      <c r="LX14" t="s">
+        <v>687</v>
+      </c>
+      <c r="LY14" t="s">
+        <v>687</v>
+      </c>
+      <c r="LZ14" t="s">
+        <v>687</v>
+      </c>
+      <c r="MA14" t="s">
+        <v>687</v>
+      </c>
+      <c r="MB14" t="s">
+        <v>687</v>
+      </c>
+      <c r="MC14" t="s">
+        <v>621</v>
+      </c>
+      <c r="MD14" t="s">
+        <v>687</v>
+      </c>
+      <c r="RW14" t="s">
+        <v>687</v>
+      </c>
+    </row>
+    <row r="15" spans="1:491">
+      <c r="A15" s="1">
+        <v>13</v>
+      </c>
+      <c r="B15" t="s">
+        <v>490</v>
+      </c>
+      <c r="C15" t="b">
+        <v>0</v>
+      </c>
+      <c r="D15" t="s">
+        <v>491</v>
+      </c>
+      <c r="E15" t="s">
+        <v>492</v>
+      </c>
+      <c r="H15" t="s">
+        <v>506</v>
+      </c>
+      <c r="I15" t="s">
+        <v>523</v>
+      </c>
+      <c r="J15" t="b">
+        <v>1</v>
+      </c>
+      <c r="K15" t="b">
+        <v>1</v>
+      </c>
+      <c r="M15" t="s">
+        <v>540</v>
+      </c>
+      <c r="O15" t="s">
+        <v>557</v>
+      </c>
+      <c r="P15" t="s">
+        <v>568</v>
+      </c>
+      <c r="Q15" t="s">
+        <v>571</v>
+      </c>
+      <c r="R15" t="s">
+        <v>572</v>
+      </c>
+      <c r="S15" t="s">
+        <v>573</v>
+      </c>
+      <c r="T15" t="s">
+        <v>574</v>
+      </c>
+      <c r="U15">
+        <v>12359</v>
+      </c>
+      <c r="V15" s="2" t="s">
+        <v>588</v>
+      </c>
+      <c r="W15" t="s">
+        <v>571</v>
+      </c>
+      <c r="X15" t="s">
+        <v>592</v>
+      </c>
+      <c r="Y15" t="s">
+        <v>572</v>
+      </c>
+      <c r="Z15" t="s">
+        <v>573</v>
+      </c>
+      <c r="AA15" s="2" t="s">
+        <v>593</v>
+      </c>
+      <c r="AB15" t="s">
+        <v>595</v>
+      </c>
+      <c r="AI15" t="s">
+        <v>622</v>
+      </c>
+      <c r="AJ15" s="2" t="s">
+        <v>624</v>
+      </c>
+      <c r="AK15" t="s">
+        <v>625</v>
+      </c>
+      <c r="AL15">
+        <v>669</v>
+      </c>
+      <c r="AM15" t="s">
+        <v>627</v>
+      </c>
+      <c r="AN15" t="s">
+        <v>630</v>
+      </c>
+      <c r="AO15" t="s">
+        <v>622</v>
+      </c>
+      <c r="AQ15" t="s">
+        <v>506</v>
+      </c>
+      <c r="AR15" t="s">
+        <v>648</v>
+      </c>
+      <c r="AS15" t="s">
+        <v>665</v>
+      </c>
+      <c r="AT15" t="s">
+        <v>669</v>
+      </c>
+      <c r="AU15" t="s">
+        <v>674</v>
+      </c>
+      <c r="AV15" t="s">
+        <v>679</v>
+      </c>
+      <c r="AW15" t="s">
+        <v>685</v>
+      </c>
+      <c r="BU15" t="s">
+        <v>622</v>
+      </c>
+      <c r="BW15" t="s">
+        <v>625</v>
+      </c>
+      <c r="BX15">
+        <v>669</v>
+      </c>
+      <c r="BY15" t="s">
+        <v>627</v>
+      </c>
+      <c r="BZ15" t="s">
+        <v>630</v>
+      </c>
+      <c r="CA15" t="s">
+        <v>622</v>
+      </c>
+      <c r="CC15" t="s">
+        <v>506</v>
+      </c>
+      <c r="CE15" t="s">
+        <v>648</v>
+      </c>
+      <c r="CF15" t="s">
+        <v>665</v>
+      </c>
+      <c r="CG15" t="s">
+        <v>669</v>
+      </c>
+      <c r="CH15" t="s">
+        <v>674</v>
+      </c>
+      <c r="CI15" t="s">
+        <v>697</v>
+      </c>
+      <c r="CJ15" t="s">
+        <v>687</v>
+      </c>
+      <c r="CK15" t="s">
+        <v>687</v>
+      </c>
+      <c r="CL15" t="s">
+        <v>621</v>
+      </c>
+      <c r="CM15" t="s">
+        <v>687</v>
+      </c>
+      <c r="CN15" t="s">
+        <v>687</v>
+      </c>
+      <c r="CO15" t="s">
+        <v>687</v>
+      </c>
+      <c r="CP15" t="s">
+        <v>687</v>
+      </c>
+      <c r="CQ15" t="s">
+        <v>687</v>
+      </c>
+      <c r="CR15" t="s">
+        <v>687</v>
+      </c>
+      <c r="CS15" t="s">
+        <v>687</v>
+      </c>
+      <c r="CT15" t="s">
+        <v>687</v>
+      </c>
+      <c r="CU15" t="s">
+        <v>693</v>
+      </c>
+      <c r="CV15" t="s">
+        <v>687</v>
+      </c>
+      <c r="CW15" t="s">
+        <v>697</v>
+      </c>
+      <c r="CX15" t="s">
+        <v>687</v>
+      </c>
+      <c r="CY15" t="s">
+        <v>687</v>
+      </c>
+      <c r="CZ15" t="s">
+        <v>621</v>
+      </c>
+      <c r="DA15" t="s">
+        <v>687</v>
+      </c>
+      <c r="DB15" t="s">
+        <v>687</v>
+      </c>
+      <c r="DC15" t="s">
+        <v>687</v>
+      </c>
+      <c r="DD15" t="s">
+        <v>687</v>
+      </c>
+      <c r="DE15" t="s">
+        <v>687</v>
+      </c>
+      <c r="DF15" t="s">
+        <v>687</v>
+      </c>
+      <c r="DG15" t="s">
+        <v>687</v>
+      </c>
+      <c r="DH15" t="s">
+        <v>693</v>
+      </c>
+      <c r="DI15" t="s">
+        <v>687</v>
+      </c>
+      <c r="IT15" t="s">
+        <v>621</v>
+      </c>
+      <c r="JD15" t="s">
+        <v>687</v>
+      </c>
+      <c r="JE15" t="s">
+        <v>687</v>
+      </c>
+      <c r="JF15" t="s">
+        <v>687</v>
+      </c>
+      <c r="JG15" t="s">
+        <v>621</v>
+      </c>
+      <c r="JH15" t="s">
+        <v>693</v>
+      </c>
+      <c r="JI15" t="s">
+        <v>693</v>
+      </c>
+      <c r="JJ15" t="s">
+        <v>687</v>
+      </c>
+      <c r="JK15" t="s">
+        <v>687</v>
+      </c>
+      <c r="JL15" t="s">
+        <v>687</v>
+      </c>
+      <c r="JM15" t="s">
+        <v>687</v>
+      </c>
+      <c r="JN15" t="s">
+        <v>687</v>
+      </c>
+      <c r="JO15" t="s">
+        <v>687</v>
+      </c>
+      <c r="JP15" t="s">
+        <v>687</v>
+      </c>
+      <c r="JQ15" t="s">
+        <v>693</v>
+      </c>
+      <c r="JR15" t="s">
+        <v>693</v>
+      </c>
+      <c r="JS15" t="s">
+        <v>687</v>
+      </c>
+      <c r="JT15" t="s">
+        <v>687</v>
+      </c>
+      <c r="JU15" t="s">
+        <v>687</v>
+      </c>
+      <c r="JV15" t="s">
+        <v>621</v>
+      </c>
+      <c r="JW15" t="s">
+        <v>701</v>
+      </c>
+      <c r="JX15" t="s">
+        <v>687</v>
+      </c>
+      <c r="JY15" t="s">
+        <v>687</v>
+      </c>
+      <c r="JZ15" t="s">
+        <v>687</v>
+      </c>
+      <c r="KA15" t="s">
+        <v>687</v>
+      </c>
+      <c r="KB15" t="s">
+        <v>621</v>
+      </c>
+      <c r="KC15" t="s">
+        <v>687</v>
+      </c>
+      <c r="KD15" t="s">
+        <v>687</v>
+      </c>
+      <c r="KE15" t="s">
+        <v>687</v>
+      </c>
+      <c r="KF15" t="s">
+        <v>687</v>
+      </c>
+      <c r="KG15" t="s">
+        <v>687</v>
+      </c>
+      <c r="KH15" t="s">
+        <v>687</v>
+      </c>
+      <c r="KI15" t="s">
+        <v>687</v>
+      </c>
+      <c r="KJ15" t="s">
+        <v>687</v>
+      </c>
+      <c r="KK15" t="s">
+        <v>687</v>
+      </c>
+      <c r="KL15" t="s">
+        <v>687</v>
+      </c>
+      <c r="KM15" t="s">
+        <v>687</v>
+      </c>
+      <c r="KN15" t="s">
+        <v>687</v>
+      </c>
+    </row>
+    <row r="16" spans="1:491">
+      <c r="A16" s="1">
+        <v>14</v>
+      </c>
+      <c r="B16" t="s">
+        <v>490</v>
+      </c>
+      <c r="C16" t="b">
+        <v>0</v>
+      </c>
+      <c r="D16" t="s">
+        <v>491</v>
+      </c>
+      <c r="E16" t="s">
+        <v>492</v>
+      </c>
+      <c r="H16" t="s">
+        <v>507</v>
+      </c>
+      <c r="I16" t="s">
+        <v>524</v>
+      </c>
+      <c r="J16" t="b">
+        <v>1</v>
+      </c>
+      <c r="K16" t="b">
+        <v>1</v>
+      </c>
+      <c r="M16" t="s">
+        <v>541</v>
+      </c>
+      <c r="O16" t="s">
+        <v>558</v>
+      </c>
+      <c r="P16" t="s">
+        <v>569</v>
+      </c>
+      <c r="Q16" t="s">
+        <v>571</v>
+      </c>
+      <c r="R16" t="s">
+        <v>572</v>
+      </c>
+      <c r="S16" t="s">
+        <v>573</v>
+      </c>
+      <c r="T16" t="s">
+        <v>574</v>
+      </c>
+      <c r="U16">
+        <v>6371</v>
+      </c>
+      <c r="V16" s="2" t="s">
+        <v>589</v>
+      </c>
+      <c r="W16" t="s">
+        <v>571</v>
+      </c>
+      <c r="X16" t="s">
+        <v>592</v>
+      </c>
+      <c r="Y16" t="s">
+        <v>572</v>
+      </c>
+      <c r="Z16" t="s">
+        <v>573</v>
+      </c>
+      <c r="AA16" s="2" t="s">
+        <v>593</v>
+      </c>
+      <c r="AB16" t="s">
+        <v>597</v>
+      </c>
+      <c r="AI16" t="s">
+        <v>623</v>
+      </c>
+      <c r="AJ16" s="2" t="s">
+        <v>624</v>
+      </c>
+      <c r="AK16" t="s">
+        <v>625</v>
+      </c>
+      <c r="AL16">
+        <v>669</v>
+      </c>
+      <c r="AM16" t="s">
+        <v>627</v>
+      </c>
+      <c r="AN16" t="s">
+        <v>631</v>
+      </c>
+      <c r="AO16" t="s">
+        <v>622</v>
+      </c>
+      <c r="AQ16" t="s">
+        <v>507</v>
+      </c>
+      <c r="AR16" t="s">
+        <v>649</v>
+      </c>
+      <c r="AS16" t="s">
+        <v>666</v>
+      </c>
+      <c r="AT16" t="s">
+        <v>670</v>
+      </c>
+      <c r="AU16" t="s">
+        <v>675</v>
+      </c>
+      <c r="AV16" t="s">
+        <v>679</v>
+      </c>
+      <c r="AW16" t="s">
+        <v>685</v>
+      </c>
+      <c r="BU16" t="s">
+        <v>694</v>
+      </c>
+      <c r="BV16" t="s">
+        <v>695</v>
+      </c>
+      <c r="BW16" t="s">
+        <v>625</v>
+      </c>
+      <c r="BX16">
+        <v>669</v>
+      </c>
+      <c r="BY16" t="s">
+        <v>627</v>
+      </c>
+      <c r="BZ16" t="s">
+        <v>631</v>
+      </c>
+      <c r="CA16" t="s">
+        <v>622</v>
+      </c>
+      <c r="CC16" t="s">
+        <v>507</v>
+      </c>
+      <c r="CE16" t="s">
+        <v>649</v>
+      </c>
+      <c r="CF16" t="s">
+        <v>666</v>
+      </c>
+      <c r="CG16" t="s">
+        <v>670</v>
+      </c>
+      <c r="CH16" t="s">
+        <v>675</v>
+      </c>
+      <c r="ME16" t="s">
+        <v>693</v>
+      </c>
+      <c r="MF16" t="s">
+        <v>687</v>
+      </c>
+      <c r="MG16" t="s">
+        <v>687</v>
+      </c>
+      <c r="MH16" t="s">
+        <v>693</v>
+      </c>
+      <c r="MI16" t="s">
+        <v>693</v>
+      </c>
+      <c r="MK16" t="s">
+        <v>693</v>
+      </c>
+      <c r="ML16" t="s">
+        <v>621</v>
+      </c>
+      <c r="MM16" t="s">
+        <v>693</v>
+      </c>
+      <c r="MN16" t="s">
+        <v>621</v>
+      </c>
+      <c r="MO16" t="s">
+        <v>621</v>
+      </c>
+      <c r="MP16" t="s">
+        <v>693</v>
+      </c>
+      <c r="MQ16" t="s">
+        <v>687</v>
+      </c>
+      <c r="MR16" t="s">
+        <v>687</v>
+      </c>
+      <c r="MS16" t="s">
+        <v>712</v>
+      </c>
+      <c r="MT16" t="s">
+        <v>687</v>
+      </c>
+      <c r="MU16" t="s">
+        <v>621</v>
+      </c>
+      <c r="MV16" t="s">
+        <v>693</v>
+      </c>
+      <c r="MW16" t="s">
+        <v>621</v>
+      </c>
+      <c r="MX16" t="s">
+        <v>716</v>
+      </c>
+      <c r="MY16" t="s">
+        <v>720</v>
+      </c>
+      <c r="MZ16" t="s">
+        <v>687</v>
+      </c>
+      <c r="NA16" t="s">
+        <v>687</v>
+      </c>
+      <c r="NB16" t="s">
+        <v>721</v>
+      </c>
+      <c r="NC16" t="s">
+        <v>722</v>
+      </c>
+      <c r="ND16" t="s">
+        <v>723</v>
+      </c>
+      <c r="NE16" t="s">
+        <v>724</v>
+      </c>
+      <c r="NF16" t="s">
+        <v>725</v>
+      </c>
+    </row>
+    <row r="17" spans="1:86">
+      <c r="A17" s="1">
+        <v>15</v>
+      </c>
+      <c r="B17" t="s">
+        <v>490</v>
+      </c>
+      <c r="C17" t="b">
+        <v>0</v>
+      </c>
+      <c r="D17" t="s">
+        <v>491</v>
+      </c>
+      <c r="E17" t="s">
+        <v>492</v>
+      </c>
+      <c r="H17" t="s">
+        <v>508</v>
+      </c>
+      <c r="I17" t="s">
+        <v>525</v>
+      </c>
+      <c r="J17" t="b">
+        <v>1</v>
+      </c>
+      <c r="K17" t="b">
+        <v>1</v>
+      </c>
+      <c r="M17" t="s">
+        <v>542</v>
+      </c>
+      <c r="O17" t="s">
+        <v>559</v>
+      </c>
+      <c r="P17" t="s">
+        <v>570</v>
+      </c>
+      <c r="Q17" t="s">
+        <v>571</v>
+      </c>
+      <c r="R17" t="s">
+        <v>572</v>
+      </c>
+      <c r="S17" t="s">
+        <v>573</v>
+      </c>
+      <c r="T17" t="s">
+        <v>574</v>
+      </c>
+      <c r="U17">
+        <v>2314</v>
+      </c>
+      <c r="V17" s="2" t="s">
+        <v>590</v>
+      </c>
+      <c r="W17" t="s">
+        <v>571</v>
+      </c>
+      <c r="X17" t="s">
+        <v>592</v>
+      </c>
+      <c r="Y17" t="s">
+        <v>572</v>
+      </c>
+      <c r="Z17" t="s">
+        <v>573</v>
+      </c>
+      <c r="AA17" s="2" t="s">
+        <v>593</v>
+      </c>
+      <c r="AB17" t="s">
+        <v>594</v>
+      </c>
+      <c r="AC17" t="s">
+        <v>602</v>
+      </c>
+      <c r="AE17" t="s">
+        <v>610</v>
+      </c>
+      <c r="AF17" t="s">
+        <v>615</v>
+      </c>
+      <c r="AH17" t="s">
+        <v>621</v>
+      </c>
+      <c r="AI17" t="s">
+        <v>622</v>
+      </c>
+      <c r="AJ17" s="2" t="s">
+        <v>624</v>
+      </c>
+      <c r="AK17" t="s">
+        <v>625</v>
+      </c>
+      <c r="AL17">
+        <v>669</v>
+      </c>
+      <c r="AM17" t="s">
+        <v>627</v>
+      </c>
+      <c r="AN17" t="s">
+        <v>633</v>
+      </c>
+      <c r="AO17" t="s">
+        <v>622</v>
+      </c>
+      <c r="AQ17" t="s">
+        <v>508</v>
+      </c>
+      <c r="AR17" t="s">
+        <v>650</v>
+      </c>
+      <c r="AS17" t="s">
+        <v>667</v>
+      </c>
+      <c r="AT17" t="s">
+        <v>671</v>
+      </c>
+      <c r="AU17" t="s">
+        <v>676</v>
+      </c>
+      <c r="AV17" t="s">
+        <v>680</v>
+      </c>
+      <c r="AW17" t="s">
+        <v>683</v>
+      </c>
+      <c r="BA17" t="s">
+        <v>687</v>
+      </c>
+      <c r="BF17" t="s">
+        <v>691</v>
+      </c>
+      <c r="BG17" t="s">
+        <v>687</v>
+      </c>
+      <c r="BH17" t="s">
+        <v>621</v>
+      </c>
+      <c r="BN17" t="s">
+        <v>621</v>
+      </c>
+      <c r="BO17" t="s">
+        <v>621</v>
+      </c>
+      <c r="BP17" t="s">
+        <v>687</v>
+      </c>
+      <c r="BQ17" t="s">
+        <v>621</v>
+      </c>
+      <c r="BS17" t="s">
+        <v>621</v>
+      </c>
+      <c r="BT17" t="s">
+        <v>693</v>
+      </c>
+      <c r="BU17" t="s">
+        <v>622</v>
+      </c>
+      <c r="BW17" t="s">
+        <v>625</v>
+      </c>
+      <c r="BX17">
+        <v>669</v>
+      </c>
+      <c r="BY17" t="s">
+        <v>627</v>
+      </c>
+      <c r="BZ17" t="s">
+        <v>633</v>
+      </c>
+      <c r="CA17" t="s">
+        <v>622</v>
+      </c>
+      <c r="CC17" t="s">
+        <v>508</v>
+      </c>
+      <c r="CE17" t="s">
+        <v>650</v>
+      </c>
+      <c r="CF17" t="s">
+        <v>667</v>
+      </c>
+      <c r="CG17" t="s">
+        <v>671</v>
+      </c>
+      <c r="CH17" t="s">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="18" spans="1:86">
+      <c r="A18" s="1">
+        <v>16</v>
+      </c>
+      <c r="B18" t="s">
+        <v>490</v>
+      </c>
+      <c r="C18" t="b">
+        <v>0</v>
+      </c>
+      <c r="D18" t="s">
+        <v>491</v>
+      </c>
+      <c r="E18" t="s">
+        <v>492</v>
+      </c>
+      <c r="H18" t="s">
+        <v>509</v>
+      </c>
+      <c r="I18" t="s">
+        <v>526</v>
+      </c>
+      <c r="J18" t="b">
+        <v>1</v>
+      </c>
+      <c r="K18" t="b">
+        <v>1</v>
+      </c>
+      <c r="M18" t="s">
+        <v>543</v>
+      </c>
+      <c r="O18" t="s">
+        <v>560</v>
+      </c>
+      <c r="P18" t="s">
+        <v>570</v>
+      </c>
+      <c r="Q18" t="s">
+        <v>571</v>
+      </c>
+      <c r="R18" t="s">
+        <v>572</v>
+      </c>
+      <c r="S18" t="s">
+        <v>573</v>
+      </c>
+      <c r="T18" t="s">
+        <v>574</v>
+      </c>
+      <c r="U18">
+        <v>2626</v>
+      </c>
+      <c r="V18" s="2" t="s">
+        <v>591</v>
+      </c>
+      <c r="W18" t="s">
+        <v>571</v>
+      </c>
+      <c r="X18" t="s">
+        <v>592</v>
+      </c>
+      <c r="Y18" t="s">
+        <v>572</v>
+      </c>
+      <c r="Z18" t="s">
+        <v>573</v>
+      </c>
+      <c r="AA18" s="2" t="s">
+        <v>593</v>
+      </c>
+      <c r="AB18" t="s">
+        <v>594</v>
+      </c>
+      <c r="AC18" t="s">
+        <v>603</v>
+      </c>
+      <c r="AD18" t="s">
+        <v>606</v>
+      </c>
+      <c r="AE18" t="s">
+        <v>611</v>
+      </c>
+      <c r="AF18" t="s">
+        <v>616</v>
+      </c>
+      <c r="AG18" t="s">
+        <v>620</v>
+      </c>
+      <c r="AH18" t="s">
+        <v>621</v>
+      </c>
+      <c r="AI18" t="s">
+        <v>622</v>
+      </c>
+      <c r="AJ18" s="2" t="s">
+        <v>624</v>
+      </c>
+      <c r="AK18" t="s">
+        <v>625</v>
+      </c>
+      <c r="AL18">
+        <v>669</v>
+      </c>
+      <c r="AM18" t="s">
+        <v>627</v>
+      </c>
+      <c r="AN18" t="s">
+        <v>631</v>
+      </c>
+      <c r="AO18" t="s">
+        <v>622</v>
+      </c>
+      <c r="AQ18" t="s">
+        <v>509</v>
+      </c>
+      <c r="AR18" t="s">
+        <v>651</v>
+      </c>
+      <c r="AS18" t="s">
+        <v>668</v>
+      </c>
+      <c r="AT18" t="s">
+        <v>670</v>
+      </c>
+      <c r="AU18" t="s">
+        <v>675</v>
+      </c>
+      <c r="AV18" t="s">
+        <v>681</v>
+      </c>
+      <c r="AW18" t="s">
+        <v>686</v>
+      </c>
+      <c r="AZ18" t="s">
+        <v>687</v>
+      </c>
+      <c r="BA18" t="s">
+        <v>687</v>
+      </c>
+      <c r="BB18" t="s">
+        <v>687</v>
+      </c>
+      <c r="BF18" t="s">
+        <v>692</v>
+      </c>
+      <c r="BG18" t="s">
+        <v>687</v>
+      </c>
+      <c r="BH18" t="s">
+        <v>621</v>
+      </c>
+      <c r="BI18" t="s">
+        <v>687</v>
+      </c>
+      <c r="BN18" t="s">
+        <v>621</v>
+      </c>
+      <c r="BO18" t="s">
+        <v>621</v>
+      </c>
+      <c r="BP18" t="s">
+        <v>687</v>
+      </c>
+      <c r="BQ18" t="s">
+        <v>621</v>
+      </c>
+      <c r="BS18" t="s">
+        <v>621</v>
+      </c>
+      <c r="BT18" t="s">
+        <v>687</v>
+      </c>
+      <c r="BU18" t="s">
+        <v>622</v>
+      </c>
+      <c r="BW18" t="s">
+        <v>625</v>
+      </c>
+      <c r="BX18">
+        <v>669</v>
+      </c>
+      <c r="BY18" t="s">
+        <v>627</v>
+      </c>
+      <c r="BZ18" t="s">
+        <v>631</v>
+      </c>
+      <c r="CA18" t="s">
+        <v>622</v>
+      </c>
+      <c r="CC18" t="s">
+        <v>509</v>
+      </c>
+      <c r="CE18" t="s">
+        <v>651</v>
+      </c>
+      <c r="CF18" t="s">
+        <v>668</v>
+      </c>
+      <c r="CG18" t="s">
+        <v>670</v>
+      </c>
+      <c r="CH18" t="s">
+        <v>675</v>
       </c>
     </row>
   </sheetData>
@@ -7076,6 +8873,24 @@
     <hyperlink ref="V12" r:id="rId31"/>
     <hyperlink ref="AA12" r:id="rId32"/>
     <hyperlink ref="AJ12" r:id="rId33"/>
+    <hyperlink ref="V13" r:id="rId34"/>
+    <hyperlink ref="AA13" r:id="rId35"/>
+    <hyperlink ref="AJ13" r:id="rId36"/>
+    <hyperlink ref="V14" r:id="rId37"/>
+    <hyperlink ref="AA14" r:id="rId38"/>
+    <hyperlink ref="AJ14" r:id="rId39"/>
+    <hyperlink ref="V15" r:id="rId40"/>
+    <hyperlink ref="AA15" r:id="rId41"/>
+    <hyperlink ref="AJ15" r:id="rId42"/>
+    <hyperlink ref="V16" r:id="rId43"/>
+    <hyperlink ref="AA16" r:id="rId44"/>
+    <hyperlink ref="AJ16" r:id="rId45"/>
+    <hyperlink ref="V17" r:id="rId46"/>
+    <hyperlink ref="AA17" r:id="rId47"/>
+    <hyperlink ref="AJ17" r:id="rId48"/>
+    <hyperlink ref="V18" r:id="rId49"/>
+    <hyperlink ref="AA18" r:id="rId50"/>
+    <hyperlink ref="AJ18" r:id="rId51"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/test.xlsx
+++ b/test.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4677" uniqueCount="1072">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4676" uniqueCount="1072">
   <si>
     <t>app_id</t>
   </si>
@@ -1501,6 +1501,9 @@
     <t>2025-07-02T12:02:59.245565Z</t>
   </si>
   <si>
+    <t>2025-07-02T19:49:51.054194Z</t>
+  </si>
+  <si>
     <t>2025-07-01T20:14:06.723214Z</t>
   </si>
   <si>
@@ -1687,7 +1690,7 @@
     <t>2025-07-02T09:05:17.540056Z</t>
   </si>
   <si>
-    <t>2025-07-02T05:33:20.002161Z</t>
+    <t>2025-07-02T19:49:51.180295Z</t>
   </si>
   <si>
     <t>2025-07-01T18:39:32.827902Z</t>
@@ -1951,7 +1954,7 @@
     <t>2025-07-02T09:05:03.581795Z</t>
   </si>
   <si>
-    <t>2025-07-02T05:33:19.951260Z</t>
+    <t>2025-07-02T19:49:51.104114Z</t>
   </si>
   <si>
     <t>2025-07-01T18:32:36.336787Z</t>
@@ -2056,9 +2059,6 @@
     <t>77.246.50.238</t>
   </si>
   <si>
-    <t>197.221.251.122</t>
-  </si>
-  <si>
     <t>197.221.251.226</t>
   </si>
   <si>
@@ -2311,7 +2311,7 @@
     <t>Yes, DC officer is of Remba tribe, a circumcizing population and leverages on his knowledge of the tradition. use of champions, and influential people</t>
   </si>
   <si>
-    <t>Addressing both boys and girls on ASRH, destigmatizing vmmc in the process, integration of messages with other related concepts helps reach out to boys and their girl school mates</t>
+    <t>Yes, Addressing both boys and girls on ASRH, destigmatizing vmmc in the process, integration of messages with other related concepts helps reach out to boys and their girl school mates</t>
   </si>
   <si>
     <t>Yes, Calling for support from other clinic departments and professionals, eg. getting a long serving nurse in uniform who is popular in the area to speak to resistant communities because they trust him. Identify influential people in the locality to lead planning of engagements on behalf of the program.</t>
@@ -5155,10 +5155,10 @@
         <v>493</v>
       </c>
       <c r="H2" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="I2" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="J2" t="b">
         <v>1</v>
@@ -5167,13 +5167,13 @@
         <v>1</v>
       </c>
       <c r="M2" t="s">
-        <v>585</v>
+        <v>586</v>
       </c>
       <c r="O2" t="s">
-        <v>629</v>
+        <v>630</v>
       </c>
       <c r="P2" t="s">
-        <v>673</v>
+        <v>674</v>
       </c>
       <c r="Q2" t="s">
         <v>694</v>
@@ -5251,7 +5251,7 @@
         <v>790</v>
       </c>
       <c r="AQ2" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="AR2" t="s">
         <v>806</v>
@@ -5332,7 +5332,7 @@
         <v>790</v>
       </c>
       <c r="CC2" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="CE2" t="s">
         <v>806</v>
@@ -5364,10 +5364,10 @@
         <v>493</v>
       </c>
       <c r="H3" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="I3" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="J3" t="b">
         <v>1</v>
@@ -5376,13 +5376,13 @@
         <v>1</v>
       </c>
       <c r="M3" t="s">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="O3" t="s">
-        <v>630</v>
+        <v>631</v>
       </c>
       <c r="P3" t="s">
-        <v>673</v>
+        <v>674</v>
       </c>
       <c r="Q3" t="s">
         <v>694</v>
@@ -5442,7 +5442,7 @@
         <v>790</v>
       </c>
       <c r="AQ3" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="AR3" t="s">
         <v>807</v>
@@ -5481,7 +5481,7 @@
         <v>790</v>
       </c>
       <c r="CC3" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="CE3" t="s">
         <v>807</v>
@@ -5717,10 +5717,10 @@
         <v>493</v>
       </c>
       <c r="H4" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="I4" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="J4" t="b">
         <v>1</v>
@@ -5729,13 +5729,13 @@
         <v>1</v>
       </c>
       <c r="M4" t="s">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="O4" t="s">
-        <v>631</v>
+        <v>632</v>
       </c>
       <c r="P4" t="s">
-        <v>673</v>
+        <v>674</v>
       </c>
       <c r="Q4" t="s">
         <v>694</v>
@@ -5795,7 +5795,7 @@
         <v>790</v>
       </c>
       <c r="AQ4" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="AR4" t="s">
         <v>808</v>
@@ -5834,7 +5834,7 @@
         <v>790</v>
       </c>
       <c r="CC4" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="CE4" t="s">
         <v>808</v>
@@ -5995,10 +5995,10 @@
         <v>493</v>
       </c>
       <c r="H5" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="I5" t="s">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="J5" t="b">
         <v>1</v>
@@ -6007,13 +6007,13 @@
         <v>1</v>
       </c>
       <c r="M5" t="s">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="O5" t="s">
-        <v>632</v>
+        <v>633</v>
       </c>
       <c r="P5" t="s">
-        <v>674</v>
+        <v>675</v>
       </c>
       <c r="Q5" t="s">
         <v>694</v>
@@ -6073,7 +6073,7 @@
         <v>790</v>
       </c>
       <c r="AQ5" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="AR5" t="s">
         <v>809</v>
@@ -6112,7 +6112,7 @@
         <v>790</v>
       </c>
       <c r="CC5" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="CE5" t="s">
         <v>809</v>
@@ -6471,10 +6471,10 @@
         <v>493</v>
       </c>
       <c r="H6" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="I6" t="s">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="J6" t="b">
         <v>1</v>
@@ -6483,13 +6483,13 @@
         <v>1</v>
       </c>
       <c r="M6" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="O6" t="s">
-        <v>633</v>
+        <v>634</v>
       </c>
       <c r="P6" t="s">
-        <v>675</v>
+        <v>676</v>
       </c>
       <c r="Q6" t="s">
         <v>694</v>
@@ -6549,7 +6549,7 @@
         <v>790</v>
       </c>
       <c r="AQ6" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="AR6" t="s">
         <v>810</v>
@@ -6591,7 +6591,7 @@
         <v>790</v>
       </c>
       <c r="CC6" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="CE6" t="s">
         <v>810</v>
@@ -6707,10 +6707,10 @@
         <v>493</v>
       </c>
       <c r="H7" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="I7" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="J7" t="b">
         <v>1</v>
@@ -6719,13 +6719,13 @@
         <v>1</v>
       </c>
       <c r="M7" t="s">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="O7" t="s">
-        <v>634</v>
+        <v>635</v>
       </c>
       <c r="P7" t="s">
-        <v>676</v>
+        <v>677</v>
       </c>
       <c r="Q7" t="s">
         <v>694</v>
@@ -6803,7 +6803,7 @@
         <v>790</v>
       </c>
       <c r="AQ7" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="AR7" t="s">
         <v>811</v>
@@ -6911,7 +6911,7 @@
         <v>790</v>
       </c>
       <c r="CC7" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="CE7" t="s">
         <v>811</v>
@@ -6943,10 +6943,10 @@
         <v>493</v>
       </c>
       <c r="H8" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="I8" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="J8" t="b">
         <v>1</v>
@@ -6955,13 +6955,13 @@
         <v>1</v>
       </c>
       <c r="M8" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="O8" t="s">
-        <v>635</v>
+        <v>636</v>
       </c>
       <c r="P8" t="s">
-        <v>676</v>
+        <v>677</v>
       </c>
       <c r="Q8" t="s">
         <v>694</v>
@@ -7021,7 +7021,7 @@
         <v>790</v>
       </c>
       <c r="AQ8" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="AR8" t="s">
         <v>812</v>
@@ -7060,7 +7060,7 @@
         <v>790</v>
       </c>
       <c r="CC8" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="CE8" t="s">
         <v>812</v>
@@ -7443,10 +7443,10 @@
         <v>493</v>
       </c>
       <c r="H9" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="I9" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="J9" t="b">
         <v>1</v>
@@ -7455,13 +7455,13 @@
         <v>1</v>
       </c>
       <c r="M9" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="O9" t="s">
-        <v>636</v>
+        <v>637</v>
       </c>
       <c r="P9" t="s">
-        <v>676</v>
+        <v>677</v>
       </c>
       <c r="Q9" t="s">
         <v>694</v>
@@ -7521,7 +7521,7 @@
         <v>790</v>
       </c>
       <c r="AQ9" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="AR9" t="s">
         <v>813</v>
@@ -7560,7 +7560,7 @@
         <v>790</v>
       </c>
       <c r="CC9" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="CE9" t="s">
         <v>813</v>
@@ -7712,10 +7712,10 @@
         <v>493</v>
       </c>
       <c r="H10" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="I10" t="s">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="J10" t="b">
         <v>1</v>
@@ -7724,13 +7724,13 @@
         <v>1</v>
       </c>
       <c r="M10" t="s">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="O10" t="s">
-        <v>637</v>
+        <v>638</v>
       </c>
       <c r="P10" t="s">
-        <v>676</v>
+        <v>677</v>
       </c>
       <c r="Q10" t="s">
         <v>694</v>
@@ -7790,7 +7790,7 @@
         <v>790</v>
       </c>
       <c r="AQ10" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="AR10" t="s">
         <v>814</v>
@@ -7829,7 +7829,7 @@
         <v>790</v>
       </c>
       <c r="CC10" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="CE10" t="s">
         <v>814</v>
@@ -8206,10 +8206,10 @@
         <v>494</v>
       </c>
       <c r="H11" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="I11" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="J11" t="b">
         <v>0</v>
@@ -8218,10 +8218,10 @@
         <v>0</v>
       </c>
       <c r="M11" t="s">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="O11" t="s">
-        <v>638</v>
+        <v>639</v>
       </c>
       <c r="Q11" t="s">
         <v>694</v>
@@ -8299,7 +8299,7 @@
         <v>790</v>
       </c>
       <c r="AQ11" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="AR11" t="s">
         <v>815</v>
@@ -8404,7 +8404,7 @@
         <v>790</v>
       </c>
       <c r="CC11" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="CE11" t="s">
         <v>815</v>
@@ -8436,10 +8436,10 @@
         <v>493</v>
       </c>
       <c r="H12" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="I12" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="J12" t="b">
         <v>1</v>
@@ -8448,13 +8448,13 @@
         <v>1</v>
       </c>
       <c r="M12" t="s">
-        <v>595</v>
+        <v>596</v>
       </c>
       <c r="O12" t="s">
-        <v>639</v>
+        <v>640</v>
       </c>
       <c r="P12" t="s">
-        <v>677</v>
+        <v>678</v>
       </c>
       <c r="Q12" t="s">
         <v>694</v>
@@ -8514,7 +8514,7 @@
         <v>790</v>
       </c>
       <c r="AQ12" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="AR12" t="s">
         <v>816</v>
@@ -8556,7 +8556,7 @@
         <v>790</v>
       </c>
       <c r="CC12" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="CE12" t="s">
         <v>816</v>
@@ -8672,10 +8672,10 @@
         <v>493</v>
       </c>
       <c r="H13" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="I13" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="J13" t="b">
         <v>1</v>
@@ -8684,13 +8684,13 @@
         <v>1</v>
       </c>
       <c r="M13" t="s">
-        <v>596</v>
+        <v>597</v>
       </c>
       <c r="O13" t="s">
-        <v>640</v>
+        <v>641</v>
       </c>
       <c r="P13" t="s">
-        <v>678</v>
+        <v>679</v>
       </c>
       <c r="Q13" t="s">
         <v>694</v>
@@ -8753,7 +8753,7 @@
         <v>790</v>
       </c>
       <c r="AQ13" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="AR13" t="s">
         <v>817</v>
@@ -8861,7 +8861,7 @@
         <v>790</v>
       </c>
       <c r="CC13" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="CE13" t="s">
         <v>817</v>
@@ -8893,10 +8893,10 @@
         <v>493</v>
       </c>
       <c r="H14" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="I14" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="J14" t="b">
         <v>1</v>
@@ -8905,13 +8905,13 @@
         <v>1</v>
       </c>
       <c r="M14" t="s">
-        <v>597</v>
+        <v>598</v>
       </c>
       <c r="O14" t="s">
-        <v>641</v>
+        <v>642</v>
       </c>
       <c r="P14" t="s">
-        <v>677</v>
+        <v>678</v>
       </c>
       <c r="Q14" t="s">
         <v>694</v>
@@ -8971,7 +8971,7 @@
         <v>790</v>
       </c>
       <c r="AQ14" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="AR14" t="s">
         <v>818</v>
@@ -9010,7 +9010,7 @@
         <v>790</v>
       </c>
       <c r="CC14" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="CE14" t="s">
         <v>818</v>
@@ -9387,10 +9387,10 @@
         <v>493</v>
       </c>
       <c r="H15" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="I15" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="J15" t="b">
         <v>1</v>
@@ -9399,13 +9399,13 @@
         <v>1</v>
       </c>
       <c r="M15" t="s">
-        <v>598</v>
+        <v>599</v>
       </c>
       <c r="O15" t="s">
-        <v>642</v>
+        <v>643</v>
       </c>
       <c r="P15" t="s">
-        <v>679</v>
+        <v>680</v>
       </c>
       <c r="Q15" t="s">
         <v>694</v>
@@ -9465,7 +9465,7 @@
         <v>790</v>
       </c>
       <c r="AQ15" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="AR15" t="s">
         <v>819</v>
@@ -9507,7 +9507,7 @@
         <v>790</v>
       </c>
       <c r="CC15" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="CE15" t="s">
         <v>819</v>
@@ -9620,10 +9620,10 @@
         <v>493</v>
       </c>
       <c r="H16" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="I16" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="J16" t="b">
         <v>1</v>
@@ -9632,13 +9632,13 @@
         <v>1</v>
       </c>
       <c r="M16" t="s">
-        <v>599</v>
+        <v>600</v>
       </c>
       <c r="O16" t="s">
-        <v>643</v>
+        <v>644</v>
       </c>
       <c r="P16" t="s">
-        <v>678</v>
+        <v>679</v>
       </c>
       <c r="Q16" t="s">
         <v>694</v>
@@ -9698,7 +9698,7 @@
         <v>790</v>
       </c>
       <c r="AQ16" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="AR16" t="s">
         <v>820</v>
@@ -9737,7 +9737,7 @@
         <v>790</v>
       </c>
       <c r="CC16" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="CE16" t="s">
         <v>820</v>
@@ -9967,10 +9967,10 @@
         <v>493</v>
       </c>
       <c r="H17" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="I17" t="s">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="J17" t="b">
         <v>1</v>
@@ -9979,13 +9979,13 @@
         <v>1</v>
       </c>
       <c r="M17" t="s">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="O17" t="s">
-        <v>644</v>
+        <v>645</v>
       </c>
       <c r="P17" t="s">
-        <v>677</v>
+        <v>678</v>
       </c>
       <c r="Q17" t="s">
         <v>694</v>
@@ -10045,7 +10045,7 @@
         <v>790</v>
       </c>
       <c r="AQ17" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="AR17" t="s">
         <v>821</v>
@@ -10084,7 +10084,7 @@
         <v>790</v>
       </c>
       <c r="CC17" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="CE17" t="s">
         <v>821</v>
@@ -10235,32 +10235,29 @@
       <c r="C18" t="b">
         <v>0</v>
       </c>
-      <c r="D18" t="s">
-        <v>492</v>
-      </c>
       <c r="E18" t="s">
         <v>493</v>
       </c>
+      <c r="G18" t="s">
+        <v>495</v>
+      </c>
       <c r="H18" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="I18" t="s">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="J18" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K18" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M18" t="s">
-        <v>601</v>
+        <v>602</v>
       </c>
       <c r="O18" t="s">
-        <v>645</v>
-      </c>
-      <c r="P18" t="s">
-        <v>680</v>
+        <v>646</v>
       </c>
       <c r="Q18" t="s">
         <v>694</v>
@@ -10275,7 +10272,7 @@
         <v>697</v>
       </c>
       <c r="U18">
-        <v>3369</v>
+        <v>3351</v>
       </c>
       <c r="V18" s="2" t="s">
         <v>714</v>
@@ -10338,7 +10335,7 @@
         <v>790</v>
       </c>
       <c r="AQ18" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="AR18" t="s">
         <v>822</v>
@@ -10446,7 +10443,7 @@
         <v>790</v>
       </c>
       <c r="CC18" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="CE18" t="s">
         <v>822</v>
@@ -10478,10 +10475,10 @@
         <v>493</v>
       </c>
       <c r="H19" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="I19" t="s">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="J19" t="b">
         <v>1</v>
@@ -10490,10 +10487,10 @@
         <v>1</v>
       </c>
       <c r="M19" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="O19" t="s">
-        <v>646</v>
+        <v>647</v>
       </c>
       <c r="P19" t="s">
         <v>681</v>
@@ -10556,7 +10553,7 @@
         <v>790</v>
       </c>
       <c r="AQ19" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="AR19" t="s">
         <v>823</v>
@@ -10595,7 +10592,7 @@
         <v>790</v>
       </c>
       <c r="CC19" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="CE19" t="s">
         <v>823</v>
@@ -10822,13 +10819,13 @@
         <v>493</v>
       </c>
       <c r="G20" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="H20" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="I20" t="s">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="J20" t="b">
         <v>0</v>
@@ -10837,10 +10834,10 @@
         <v>0</v>
       </c>
       <c r="M20" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="O20" t="s">
-        <v>647</v>
+        <v>648</v>
       </c>
       <c r="Q20" t="s">
         <v>694</v>
@@ -10918,7 +10915,7 @@
         <v>790</v>
       </c>
       <c r="AQ20" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="AR20" t="s">
         <v>824</v>
@@ -11026,7 +11023,7 @@
         <v>790</v>
       </c>
       <c r="CC20" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="CE20" t="s">
         <v>824</v>
@@ -11058,10 +11055,10 @@
         <v>493</v>
       </c>
       <c r="H21" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="I21" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="J21" t="b">
         <v>1</v>
@@ -11070,10 +11067,10 @@
         <v>1</v>
       </c>
       <c r="M21" t="s">
-        <v>604</v>
+        <v>605</v>
       </c>
       <c r="O21" t="s">
-        <v>648</v>
+        <v>649</v>
       </c>
       <c r="P21" t="s">
         <v>681</v>
@@ -11136,7 +11133,7 @@
         <v>790</v>
       </c>
       <c r="AQ21" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="AR21" t="s">
         <v>825</v>
@@ -11175,7 +11172,7 @@
         <v>790</v>
       </c>
       <c r="CC21" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="CE21" t="s">
         <v>825</v>
@@ -11486,10 +11483,10 @@
         <v>493</v>
       </c>
       <c r="H22" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="I22" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="J22" t="b">
         <v>1</v>
@@ -11498,10 +11495,10 @@
         <v>1</v>
       </c>
       <c r="M22" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="O22" t="s">
-        <v>649</v>
+        <v>650</v>
       </c>
       <c r="P22" t="s">
         <v>682</v>
@@ -11564,7 +11561,7 @@
         <v>790</v>
       </c>
       <c r="AQ22" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="AR22" t="s">
         <v>826</v>
@@ -11606,7 +11603,7 @@
         <v>790</v>
       </c>
       <c r="CC22" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="CE22" t="s">
         <v>826</v>
@@ -11716,10 +11713,10 @@
         <v>493</v>
       </c>
       <c r="H23" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="I23" t="s">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="J23" t="b">
         <v>1</v>
@@ -11728,10 +11725,10 @@
         <v>1</v>
       </c>
       <c r="M23" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="O23" t="s">
-        <v>650</v>
+        <v>651</v>
       </c>
       <c r="P23" t="s">
         <v>682</v>
@@ -11794,7 +11791,7 @@
         <v>790</v>
       </c>
       <c r="AQ23" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="AR23" t="s">
         <v>827</v>
@@ -11833,7 +11830,7 @@
         <v>790</v>
       </c>
       <c r="CC23" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="CE23" t="s">
         <v>827</v>
@@ -12210,10 +12207,10 @@
         <v>493</v>
       </c>
       <c r="H24" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="I24" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="J24" t="b">
         <v>1</v>
@@ -12222,10 +12219,10 @@
         <v>1</v>
       </c>
       <c r="M24" t="s">
-        <v>607</v>
+        <v>608</v>
       </c>
       <c r="O24" t="s">
-        <v>651</v>
+        <v>652</v>
       </c>
       <c r="P24" t="s">
         <v>682</v>
@@ -12288,7 +12285,7 @@
         <v>790</v>
       </c>
       <c r="AQ24" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="AR24" t="s">
         <v>828</v>
@@ -12327,7 +12324,7 @@
         <v>790</v>
       </c>
       <c r="CC24" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="CE24" t="s">
         <v>828</v>
@@ -12485,10 +12482,10 @@
         <v>493</v>
       </c>
       <c r="H25" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="I25" t="s">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="J25" t="b">
         <v>1</v>
@@ -12497,10 +12494,10 @@
         <v>1</v>
       </c>
       <c r="M25" t="s">
-        <v>608</v>
+        <v>609</v>
       </c>
       <c r="O25" t="s">
-        <v>652</v>
+        <v>653</v>
       </c>
       <c r="P25" t="s">
         <v>683</v>
@@ -12563,7 +12560,7 @@
         <v>790</v>
       </c>
       <c r="AQ25" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="AR25" t="s">
         <v>829</v>
@@ -12602,7 +12599,7 @@
         <v>790</v>
       </c>
       <c r="CC25" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="CE25" t="s">
         <v>829</v>
@@ -12973,13 +12970,13 @@
         <v>493</v>
       </c>
       <c r="G26" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="H26" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="I26" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="J26" t="b">
         <v>0</v>
@@ -12988,10 +12985,10 @@
         <v>0</v>
       </c>
       <c r="M26" t="s">
-        <v>609</v>
+        <v>610</v>
       </c>
       <c r="O26" t="s">
-        <v>653</v>
+        <v>654</v>
       </c>
       <c r="Q26" t="s">
         <v>694</v>
@@ -13069,7 +13066,7 @@
         <v>790</v>
       </c>
       <c r="AQ26" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="AR26" t="s">
         <v>830</v>
@@ -13150,7 +13147,7 @@
         <v>790</v>
       </c>
       <c r="CC26" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="CE26" t="s">
         <v>830</v>
@@ -13182,10 +13179,10 @@
         <v>493</v>
       </c>
       <c r="H27" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="I27" t="s">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="J27" t="b">
         <v>1</v>
@@ -13194,10 +13191,10 @@
         <v>1</v>
       </c>
       <c r="M27" t="s">
-        <v>610</v>
+        <v>611</v>
       </c>
       <c r="O27" t="s">
-        <v>654</v>
+        <v>655</v>
       </c>
       <c r="P27" t="s">
         <v>684</v>
@@ -13260,7 +13257,7 @@
         <v>790</v>
       </c>
       <c r="AQ27" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="AR27" t="s">
         <v>831</v>
@@ -13299,7 +13296,7 @@
         <v>790</v>
       </c>
       <c r="CC27" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="CE27" t="s">
         <v>831</v>
@@ -13541,10 +13538,10 @@
         <v>493</v>
       </c>
       <c r="H28" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="I28" t="s">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="J28" t="b">
         <v>1</v>
@@ -13553,10 +13550,10 @@
         <v>1</v>
       </c>
       <c r="M28" t="s">
-        <v>611</v>
+        <v>612</v>
       </c>
       <c r="O28" t="s">
-        <v>655</v>
+        <v>656</v>
       </c>
       <c r="P28" t="s">
         <v>684</v>
@@ -13619,7 +13616,7 @@
         <v>790</v>
       </c>
       <c r="AQ28" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="AR28" t="s">
         <v>832</v>
@@ -13658,7 +13655,7 @@
         <v>790</v>
       </c>
       <c r="CC28" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="CE28" t="s">
         <v>832</v>
@@ -14026,10 +14023,10 @@
         <v>493</v>
       </c>
       <c r="H29" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="I29" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="J29" t="b">
         <v>1</v>
@@ -14038,10 +14035,10 @@
         <v>1</v>
       </c>
       <c r="M29" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
       <c r="O29" t="s">
-        <v>656</v>
+        <v>657</v>
       </c>
       <c r="P29" t="s">
         <v>683</v>
@@ -14122,7 +14119,7 @@
         <v>790</v>
       </c>
       <c r="AQ29" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="AR29" t="s">
         <v>833</v>
@@ -14230,7 +14227,7 @@
         <v>790</v>
       </c>
       <c r="CC29" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="CE29" t="s">
         <v>833</v>
@@ -14262,10 +14259,10 @@
         <v>493</v>
       </c>
       <c r="H30" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="I30" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="J30" t="b">
         <v>1</v>
@@ -14274,10 +14271,10 @@
         <v>1</v>
       </c>
       <c r="M30" t="s">
-        <v>613</v>
+        <v>614</v>
       </c>
       <c r="O30" t="s">
-        <v>657</v>
+        <v>658</v>
       </c>
       <c r="P30" t="s">
         <v>683</v>
@@ -14340,7 +14337,7 @@
         <v>790</v>
       </c>
       <c r="AQ30" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="AR30" t="s">
         <v>834</v>
@@ -14379,7 +14376,7 @@
         <v>790</v>
       </c>
       <c r="CC30" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="CE30" t="s">
         <v>834</v>
@@ -14609,10 +14606,10 @@
         <v>493</v>
       </c>
       <c r="H31" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="I31" t="s">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="J31" t="b">
         <v>1</v>
@@ -14621,10 +14618,10 @@
         <v>1</v>
       </c>
       <c r="M31" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="O31" t="s">
-        <v>658</v>
+        <v>659</v>
       </c>
       <c r="P31" t="s">
         <v>683</v>
@@ -14687,7 +14684,7 @@
         <v>790</v>
       </c>
       <c r="AQ31" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="AR31" t="s">
         <v>835</v>
@@ -14726,7 +14723,7 @@
         <v>790</v>
       </c>
       <c r="CC31" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="CE31" t="s">
         <v>835</v>
@@ -14884,10 +14881,10 @@
         <v>493</v>
       </c>
       <c r="H32" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="I32" t="s">
-        <v>571</v>
+        <v>572</v>
       </c>
       <c r="J32" t="b">
         <v>1</v>
@@ -14896,10 +14893,10 @@
         <v>1</v>
       </c>
       <c r="M32" t="s">
-        <v>615</v>
+        <v>616</v>
       </c>
       <c r="O32" t="s">
-        <v>659</v>
+        <v>660</v>
       </c>
       <c r="P32" t="s">
         <v>685</v>
@@ -14962,7 +14959,7 @@
         <v>790</v>
       </c>
       <c r="AQ32" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="AR32" t="s">
         <v>836</v>
@@ -15004,7 +15001,7 @@
         <v>790</v>
       </c>
       <c r="CC32" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="CE32" t="s">
         <v>836</v>
@@ -15111,10 +15108,10 @@
         <v>493</v>
       </c>
       <c r="H33" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="I33" t="s">
-        <v>572</v>
+        <v>573</v>
       </c>
       <c r="J33" t="b">
         <v>1</v>
@@ -15123,10 +15120,10 @@
         <v>1</v>
       </c>
       <c r="M33" t="s">
-        <v>616</v>
+        <v>617</v>
       </c>
       <c r="O33" t="s">
-        <v>660</v>
+        <v>661</v>
       </c>
       <c r="P33" t="s">
         <v>686</v>
@@ -15189,7 +15186,7 @@
         <v>790</v>
       </c>
       <c r="AQ33" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="AR33" t="s">
         <v>837</v>
@@ -15231,7 +15228,7 @@
         <v>790</v>
       </c>
       <c r="CC33" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="CE33" t="s">
         <v>837</v>
@@ -15347,10 +15344,10 @@
         <v>493</v>
       </c>
       <c r="H34" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="I34" t="s">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="J34" t="b">
         <v>1</v>
@@ -15359,10 +15356,10 @@
         <v>1</v>
       </c>
       <c r="M34" t="s">
-        <v>617</v>
+        <v>618</v>
       </c>
       <c r="O34" t="s">
-        <v>661</v>
+        <v>662</v>
       </c>
       <c r="P34" t="s">
         <v>686</v>
@@ -15425,7 +15422,7 @@
         <v>790</v>
       </c>
       <c r="AQ34" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="AR34" t="s">
         <v>838</v>
@@ -15464,7 +15461,7 @@
         <v>790</v>
       </c>
       <c r="CC34" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="CE34" t="s">
         <v>838</v>
@@ -15616,10 +15613,10 @@
         <v>493</v>
       </c>
       <c r="H35" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="I35" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="J35" t="b">
         <v>1</v>
@@ -15628,10 +15625,10 @@
         <v>1</v>
       </c>
       <c r="M35" t="s">
-        <v>618</v>
+        <v>619</v>
       </c>
       <c r="O35" t="s">
-        <v>662</v>
+        <v>663</v>
       </c>
       <c r="P35" t="s">
         <v>687</v>
@@ -15709,7 +15706,7 @@
         <v>790</v>
       </c>
       <c r="AQ35" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="AR35" t="s">
         <v>839</v>
@@ -15790,7 +15787,7 @@
         <v>790</v>
       </c>
       <c r="CC35" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="CE35" t="s">
         <v>839</v>
@@ -15822,10 +15819,10 @@
         <v>493</v>
       </c>
       <c r="H36" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="I36" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="J36" t="b">
         <v>1</v>
@@ -15834,10 +15831,10 @@
         <v>1</v>
       </c>
       <c r="M36" t="s">
-        <v>619</v>
+        <v>620</v>
       </c>
       <c r="O36" t="s">
-        <v>663</v>
+        <v>664</v>
       </c>
       <c r="P36" t="s">
         <v>687</v>
@@ -15900,7 +15897,7 @@
         <v>790</v>
       </c>
       <c r="AQ36" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="AR36" t="s">
         <v>840</v>
@@ -15939,7 +15936,7 @@
         <v>790</v>
       </c>
       <c r="CC36" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="CE36" t="s">
         <v>840</v>
@@ -16313,10 +16310,10 @@
         <v>493</v>
       </c>
       <c r="H37" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="I37" t="s">
-        <v>576</v>
+        <v>577</v>
       </c>
       <c r="J37" t="b">
         <v>1</v>
@@ -16325,10 +16322,10 @@
         <v>1</v>
       </c>
       <c r="M37" t="s">
-        <v>620</v>
+        <v>621</v>
       </c>
       <c r="O37" t="s">
-        <v>664</v>
+        <v>665</v>
       </c>
       <c r="P37" t="s">
         <v>688</v>
@@ -16391,7 +16388,7 @@
         <v>790</v>
       </c>
       <c r="AQ37" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="AR37" t="s">
         <v>841</v>
@@ -16433,7 +16430,7 @@
         <v>790</v>
       </c>
       <c r="CC37" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="CE37" t="s">
         <v>841</v>
@@ -16549,10 +16546,10 @@
         <v>493</v>
       </c>
       <c r="H38" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="I38" t="s">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="J38" t="b">
         <v>1</v>
@@ -16561,10 +16558,10 @@
         <v>1</v>
       </c>
       <c r="M38" t="s">
-        <v>621</v>
+        <v>622</v>
       </c>
       <c r="O38" t="s">
-        <v>665</v>
+        <v>666</v>
       </c>
       <c r="P38" t="s">
         <v>689</v>
@@ -16627,7 +16624,7 @@
         <v>790</v>
       </c>
       <c r="AQ38" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="AR38" t="s">
         <v>842</v>
@@ -16666,7 +16663,7 @@
         <v>790</v>
       </c>
       <c r="CC38" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="CE38" t="s">
         <v>842</v>
@@ -16959,10 +16956,10 @@
         <v>493</v>
       </c>
       <c r="H39" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="I39" t="s">
-        <v>578</v>
+        <v>579</v>
       </c>
       <c r="J39" t="b">
         <v>1</v>
@@ -16971,10 +16968,10 @@
         <v>1</v>
       </c>
       <c r="M39" t="s">
-        <v>622</v>
+        <v>623</v>
       </c>
       <c r="O39" t="s">
-        <v>666</v>
+        <v>667</v>
       </c>
       <c r="P39" t="s">
         <v>690</v>
@@ -17037,7 +17034,7 @@
         <v>790</v>
       </c>
       <c r="AQ39" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="AR39" t="s">
         <v>843</v>
@@ -17076,7 +17073,7 @@
         <v>790</v>
       </c>
       <c r="CC39" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="CE39" t="s">
         <v>843</v>
@@ -17237,10 +17234,10 @@
         <v>493</v>
       </c>
       <c r="H40" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="I40" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="J40" t="b">
         <v>1</v>
@@ -17249,10 +17246,10 @@
         <v>1</v>
       </c>
       <c r="M40" t="s">
-        <v>623</v>
+        <v>624</v>
       </c>
       <c r="O40" t="s">
-        <v>667</v>
+        <v>668</v>
       </c>
       <c r="P40" t="s">
         <v>689</v>
@@ -17333,7 +17330,7 @@
         <v>790</v>
       </c>
       <c r="AQ40" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="AR40" t="s">
         <v>844</v>
@@ -17441,7 +17438,7 @@
         <v>790</v>
       </c>
       <c r="CC40" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="CE40" t="s">
         <v>844</v>
@@ -17473,10 +17470,10 @@
         <v>493</v>
       </c>
       <c r="H41" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="I41" t="s">
-        <v>580</v>
+        <v>581</v>
       </c>
       <c r="J41" t="b">
         <v>1</v>
@@ -17485,10 +17482,10 @@
         <v>1</v>
       </c>
       <c r="M41" t="s">
-        <v>624</v>
+        <v>625</v>
       </c>
       <c r="O41" t="s">
-        <v>668</v>
+        <v>669</v>
       </c>
       <c r="P41" t="s">
         <v>691</v>
@@ -17551,7 +17548,7 @@
         <v>790</v>
       </c>
       <c r="AQ41" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="AR41" t="s">
         <v>845</v>
@@ -17590,7 +17587,7 @@
         <v>790</v>
       </c>
       <c r="CC41" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="CE41" t="s">
         <v>845</v>
@@ -17751,10 +17748,10 @@
         <v>493</v>
       </c>
       <c r="H42" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="I42" t="s">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="J42" t="b">
         <v>1</v>
@@ -17763,10 +17760,10 @@
         <v>1</v>
       </c>
       <c r="M42" t="s">
-        <v>625</v>
+        <v>626</v>
       </c>
       <c r="O42" t="s">
-        <v>669</v>
+        <v>670</v>
       </c>
       <c r="P42" t="s">
         <v>691</v>
@@ -17829,7 +17826,7 @@
         <v>790</v>
       </c>
       <c r="AQ42" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="AR42" t="s">
         <v>846</v>
@@ -17868,7 +17865,7 @@
         <v>790</v>
       </c>
       <c r="CC42" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="CE42" t="s">
         <v>846</v>
@@ -18095,10 +18092,10 @@
         <v>493</v>
       </c>
       <c r="H43" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="I43" t="s">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="J43" t="b">
         <v>1</v>
@@ -18107,10 +18104,10 @@
         <v>1</v>
       </c>
       <c r="M43" t="s">
-        <v>626</v>
+        <v>627</v>
       </c>
       <c r="O43" t="s">
-        <v>670</v>
+        <v>671</v>
       </c>
       <c r="P43" t="s">
         <v>692</v>
@@ -18173,7 +18170,7 @@
         <v>790</v>
       </c>
       <c r="AQ43" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="AR43" t="s">
         <v>847</v>
@@ -18215,7 +18212,7 @@
         <v>790</v>
       </c>
       <c r="CC43" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="CE43" t="s">
         <v>847</v>
@@ -18328,10 +18325,10 @@
         <v>493</v>
       </c>
       <c r="H44" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="I44" t="s">
-        <v>583</v>
+        <v>584</v>
       </c>
       <c r="J44" t="b">
         <v>1</v>
@@ -18340,10 +18337,10 @@
         <v>1</v>
       </c>
       <c r="M44" t="s">
-        <v>627</v>
+        <v>628</v>
       </c>
       <c r="O44" t="s">
-        <v>671</v>
+        <v>672</v>
       </c>
       <c r="P44" t="s">
         <v>693</v>
@@ -18418,7 +18415,7 @@
         <v>790</v>
       </c>
       <c r="AQ44" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="AR44" t="s">
         <v>848</v>
@@ -18487,7 +18484,7 @@
         <v>790</v>
       </c>
       <c r="CC44" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="CE44" t="s">
         <v>848</v>
@@ -18519,10 +18516,10 @@
         <v>493</v>
       </c>
       <c r="H45" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="I45" t="s">
-        <v>584</v>
+        <v>585</v>
       </c>
       <c r="J45" t="b">
         <v>1</v>
@@ -18531,10 +18528,10 @@
         <v>1</v>
       </c>
       <c r="M45" t="s">
-        <v>628</v>
+        <v>629</v>
       </c>
       <c r="O45" t="s">
-        <v>672</v>
+        <v>673</v>
       </c>
       <c r="P45" t="s">
         <v>693</v>
@@ -18615,7 +18612,7 @@
         <v>790</v>
       </c>
       <c r="AQ45" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="AR45" t="s">
         <v>849</v>
@@ -18693,7 +18690,7 @@
         <v>790</v>
       </c>
       <c r="CC45" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="CE45" t="s">
         <v>849</v>
